--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="270">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -822,6 +822,9 @@
   <si>
     <t>['19', '67', '74']</t>
   </si>
+  <si>
+    <t>['33', '57']</t>
+  </si>
 </sst>
 </file>
 
@@ -1182,7 +1185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP161"/>
+  <dimension ref="A1:BP163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3376,7 +3379,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4197,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ15">
         <v>1.44</v>
@@ -4815,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ18">
         <v>1.4</v>
@@ -7699,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ32">
         <v>0.89</v>
@@ -8114,7 +8117,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ34">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR34">
         <v>1.72</v>
@@ -8317,7 +8320,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ35">
         <v>0.7</v>
@@ -8729,7 +8732,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ37">
         <v>1.14</v>
@@ -10586,7 +10589,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ46">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR46">
         <v>2.1</v>
@@ -10998,7 +11001,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ48">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR48">
         <v>1.22</v>
@@ -11613,7 +11616,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ51">
         <v>1.44</v>
@@ -12028,7 +12031,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ53">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR53">
         <v>1.61</v>
@@ -12234,7 +12237,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ54">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR54">
         <v>1.42</v>
@@ -13673,7 +13676,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ61">
         <v>1.67</v>
@@ -14909,7 +14912,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ67">
         <v>0.89</v>
@@ -16763,7 +16766,7 @@
         <v>0.25</v>
       </c>
       <c r="AP76">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ76">
         <v>0.5600000000000001</v>
@@ -18411,7 +18414,7 @@
         <v>1.5</v>
       </c>
       <c r="AP84">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ84">
         <v>1</v>
@@ -19856,7 +19859,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ91">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR91">
         <v>2.39</v>
@@ -20265,7 +20268,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ93">
         <v>1</v>
@@ -20471,7 +20474,7 @@
         <v>1.2</v>
       </c>
       <c r="AP94">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ94">
         <v>1</v>
@@ -21295,7 +21298,7 @@
         <v>1.4</v>
       </c>
       <c r="AP98">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ98">
         <v>1.14</v>
@@ -24385,7 +24388,7 @@
         <v>0.86</v>
       </c>
       <c r="AP113">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ113">
         <v>1</v>
@@ -24591,7 +24594,7 @@
         <v>1.4</v>
       </c>
       <c r="AP114">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ114">
         <v>1.4</v>
@@ -26036,7 +26039,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ121">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR121">
         <v>0.92</v>
@@ -27066,7 +27069,7 @@
         <v>1</v>
       </c>
       <c r="AQ126">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR126">
         <v>1.42</v>
@@ -27475,7 +27478,7 @@
         <v>1</v>
       </c>
       <c r="AP128">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ128">
         <v>1</v>
@@ -28299,7 +28302,7 @@
         <v>0.71</v>
       </c>
       <c r="AP132">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ132">
         <v>0.7</v>
@@ -28920,7 +28923,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ135">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR135">
         <v>1.42</v>
@@ -29538,7 +29541,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ138">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR138">
         <v>1.91</v>
@@ -29947,7 +29950,7 @@
         <v>2</v>
       </c>
       <c r="AP140">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ140">
         <v>1.78</v>
@@ -30156,7 +30159,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ141">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR141">
         <v>1.27</v>
@@ -30362,7 +30365,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ142">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR142">
         <v>1.73</v>
@@ -30977,7 +30980,7 @@
         <v>0.25</v>
       </c>
       <c r="AP145">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AQ145">
         <v>0.3</v>
@@ -31595,7 +31598,7 @@
         <v>1.56</v>
       </c>
       <c r="AP148">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ148">
         <v>1.82</v>
@@ -34352,6 +34355,418 @@
       </c>
       <c r="BP161">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7364282</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45413.54166666666</v>
+      </c>
+      <c r="F162">
+        <v>20</v>
+      </c>
+      <c r="G162" t="s">
+        <v>86</v>
+      </c>
+      <c r="H162" t="s">
+        <v>72</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>2</v>
+      </c>
+      <c r="N162">
+        <v>3</v>
+      </c>
+      <c r="O162" t="s">
+        <v>151</v>
+      </c>
+      <c r="P162" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q162">
+        <v>6</v>
+      </c>
+      <c r="R162">
+        <v>2.2</v>
+      </c>
+      <c r="S162">
+        <v>2.05</v>
+      </c>
+      <c r="T162">
+        <v>1.39</v>
+      </c>
+      <c r="U162">
+        <v>2.94</v>
+      </c>
+      <c r="V162">
+        <v>2.95</v>
+      </c>
+      <c r="W162">
+        <v>1.38</v>
+      </c>
+      <c r="X162">
+        <v>6.13</v>
+      </c>
+      <c r="Y162">
+        <v>1.09</v>
+      </c>
+      <c r="Z162">
+        <v>6.5</v>
+      </c>
+      <c r="AA162">
+        <v>3.75</v>
+      </c>
+      <c r="AB162">
+        <v>1.5</v>
+      </c>
+      <c r="AC162">
+        <v>1.03</v>
+      </c>
+      <c r="AD162">
+        <v>9</v>
+      </c>
+      <c r="AE162">
+        <v>1.3</v>
+      </c>
+      <c r="AF162">
+        <v>3.43</v>
+      </c>
+      <c r="AG162">
+        <v>2</v>
+      </c>
+      <c r="AH162">
+        <v>1.8</v>
+      </c>
+      <c r="AI162">
+        <v>2.1</v>
+      </c>
+      <c r="AJ162">
+        <v>1.67</v>
+      </c>
+      <c r="AK162">
+        <v>2.3</v>
+      </c>
+      <c r="AL162">
+        <v>1.21</v>
+      </c>
+      <c r="AM162">
+        <v>1.1</v>
+      </c>
+      <c r="AN162">
+        <v>1.4</v>
+      </c>
+      <c r="AO162">
+        <v>1.67</v>
+      </c>
+      <c r="AP162">
+        <v>1.27</v>
+      </c>
+      <c r="AQ162">
+        <v>1.86</v>
+      </c>
+      <c r="AR162">
+        <v>1.39</v>
+      </c>
+      <c r="AS162">
+        <v>1.83</v>
+      </c>
+      <c r="AT162">
+        <v>3.22</v>
+      </c>
+      <c r="AU162">
+        <v>6</v>
+      </c>
+      <c r="AV162">
+        <v>3</v>
+      </c>
+      <c r="AW162">
+        <v>0</v>
+      </c>
+      <c r="AX162">
+        <v>5</v>
+      </c>
+      <c r="AY162">
+        <v>6</v>
+      </c>
+      <c r="AZ162">
+        <v>8</v>
+      </c>
+      <c r="BA162">
+        <v>2</v>
+      </c>
+      <c r="BB162">
+        <v>3</v>
+      </c>
+      <c r="BC162">
+        <v>5</v>
+      </c>
+      <c r="BD162">
+        <v>3.08</v>
+      </c>
+      <c r="BE162">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF162">
+        <v>1.46</v>
+      </c>
+      <c r="BG162">
+        <v>1.21</v>
+      </c>
+      <c r="BH162">
+        <v>3.74</v>
+      </c>
+      <c r="BI162">
+        <v>1.4</v>
+      </c>
+      <c r="BJ162">
+        <v>2.64</v>
+      </c>
+      <c r="BK162">
+        <v>2.2</v>
+      </c>
+      <c r="BL162">
+        <v>2.09</v>
+      </c>
+      <c r="BM162">
+        <v>2.12</v>
+      </c>
+      <c r="BN162">
+        <v>1.69</v>
+      </c>
+      <c r="BO162">
+        <v>2.84</v>
+      </c>
+      <c r="BP162">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7364281</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45413.54166666666</v>
+      </c>
+      <c r="F163">
+        <v>20</v>
+      </c>
+      <c r="G163" t="s">
+        <v>83</v>
+      </c>
+      <c r="H163" t="s">
+        <v>78</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+      <c r="N163">
+        <v>1</v>
+      </c>
+      <c r="O163" t="s">
+        <v>92</v>
+      </c>
+      <c r="P163" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q163">
+        <v>6</v>
+      </c>
+      <c r="R163">
+        <v>2</v>
+      </c>
+      <c r="S163">
+        <v>2.3</v>
+      </c>
+      <c r="T163">
+        <v>1.44</v>
+      </c>
+      <c r="U163">
+        <v>2.73</v>
+      </c>
+      <c r="V163">
+        <v>3.22</v>
+      </c>
+      <c r="W163">
+        <v>1.33</v>
+      </c>
+      <c r="X163">
+        <v>7</v>
+      </c>
+      <c r="Y163">
+        <v>1.07</v>
+      </c>
+      <c r="Z163">
+        <v>5.25</v>
+      </c>
+      <c r="AA163">
+        <v>3.4</v>
+      </c>
+      <c r="AB163">
+        <v>1.62</v>
+      </c>
+      <c r="AC163">
+        <v>1.05</v>
+      </c>
+      <c r="AD163">
+        <v>8</v>
+      </c>
+      <c r="AE163">
+        <v>1.35</v>
+      </c>
+      <c r="AF163">
+        <v>3.11</v>
+      </c>
+      <c r="AG163">
+        <v>2.35</v>
+      </c>
+      <c r="AH163">
+        <v>1.57</v>
+      </c>
+      <c r="AI163">
+        <v>2.25</v>
+      </c>
+      <c r="AJ163">
+        <v>1.57</v>
+      </c>
+      <c r="AK163">
+        <v>2.28</v>
+      </c>
+      <c r="AL163">
+        <v>1.22</v>
+      </c>
+      <c r="AM163">
+        <v>1.1</v>
+      </c>
+      <c r="AN163">
+        <v>1.6</v>
+      </c>
+      <c r="AO163">
+        <v>2.29</v>
+      </c>
+      <c r="AP163">
+        <v>1.45</v>
+      </c>
+      <c r="AQ163">
+        <v>2.38</v>
+      </c>
+      <c r="AR163">
+        <v>1.17</v>
+      </c>
+      <c r="AS163">
+        <v>1.71</v>
+      </c>
+      <c r="AT163">
+        <v>2.88</v>
+      </c>
+      <c r="AU163">
+        <v>5</v>
+      </c>
+      <c r="AV163">
+        <v>6</v>
+      </c>
+      <c r="AW163">
+        <v>6</v>
+      </c>
+      <c r="AX163">
+        <v>7</v>
+      </c>
+      <c r="AY163">
+        <v>11</v>
+      </c>
+      <c r="AZ163">
+        <v>13</v>
+      </c>
+      <c r="BA163">
+        <v>5</v>
+      </c>
+      <c r="BB163">
+        <v>5</v>
+      </c>
+      <c r="BC163">
+        <v>10</v>
+      </c>
+      <c r="BD163">
+        <v>3.26</v>
+      </c>
+      <c r="BE163">
+        <v>8.9</v>
+      </c>
+      <c r="BF163">
+        <v>1.43</v>
+      </c>
+      <c r="BG163">
+        <v>1.27</v>
+      </c>
+      <c r="BH163">
+        <v>3.28</v>
+      </c>
+      <c r="BI163">
+        <v>1.58</v>
+      </c>
+      <c r="BJ163">
+        <v>2.31</v>
+      </c>
+      <c r="BK163">
+        <v>1.95</v>
+      </c>
+      <c r="BL163">
+        <v>1.85</v>
+      </c>
+      <c r="BM163">
+        <v>2.46</v>
+      </c>
+      <c r="BN163">
+        <v>1.52</v>
+      </c>
+      <c r="BO163">
+        <v>3.34</v>
+      </c>
+      <c r="BP163">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="270">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1185,7 +1185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP163"/>
+  <dimension ref="A1:BP165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1525,7 +1525,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ2">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ12">
         <v>0.9</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ14">
         <v>0.3</v>
@@ -4203,7 +4203,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ15">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -6881,7 +6881,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ28">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR28">
         <v>1.47</v>
@@ -7496,7 +7496,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7705,7 +7705,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ32">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR32">
         <v>0.38</v>
@@ -8114,7 +8114,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ34">
         <v>2.38</v>
@@ -10380,7 +10380,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ45">
         <v>1.82</v>
@@ -11410,7 +11410,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ50">
         <v>1.44</v>
@@ -11619,7 +11619,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ51">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR51">
         <v>1.33</v>
@@ -11825,7 +11825,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ52">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR52">
         <v>1.27</v>
@@ -12852,7 +12852,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ57">
         <v>1.14</v>
@@ -14503,7 +14503,7 @@
         <v>1</v>
       </c>
       <c r="AQ65">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR65">
         <v>1.25</v>
@@ -14915,7 +14915,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ67">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR67">
         <v>1.54</v>
@@ -15530,7 +15530,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ70">
         <v>1</v>
@@ -17181,7 +17181,7 @@
         <v>1</v>
       </c>
       <c r="AQ78">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR78">
         <v>1.22</v>
@@ -17799,7 +17799,7 @@
         <v>2</v>
       </c>
       <c r="AQ81">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR81">
         <v>1.59</v>
@@ -19241,7 +19241,7 @@
         <v>2</v>
       </c>
       <c r="AQ88">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR88">
         <v>1.62</v>
@@ -19447,7 +19447,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ89">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR89">
         <v>1.45</v>
@@ -21092,7 +21092,7 @@
         <v>0.83</v>
       </c>
       <c r="AP97">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ97">
         <v>0.9</v>
@@ -22331,7 +22331,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ103">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR103">
         <v>1.37</v>
@@ -22537,7 +22537,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ104">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR104">
         <v>1.48</v>
@@ -23770,7 +23770,7 @@
         <v>0.2</v>
       </c>
       <c r="AP110">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ110">
         <v>0.3</v>
@@ -23979,7 +23979,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ111">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR111">
         <v>1.38</v>
@@ -25418,7 +25418,7 @@
         <v>1.71</v>
       </c>
       <c r="AP118">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ118">
         <v>1.82</v>
@@ -28511,7 +28511,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ133">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR133">
         <v>1.99</v>
@@ -29332,7 +29332,7 @@
         <v>1.86</v>
       </c>
       <c r="AP137">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ137">
         <v>1.4</v>
@@ -30362,7 +30362,7 @@
         <v>2</v>
       </c>
       <c r="AP142">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ142">
         <v>1.86</v>
@@ -30777,7 +30777,7 @@
         <v>1</v>
       </c>
       <c r="AQ144">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR144">
         <v>1.47</v>
@@ -31392,7 +31392,7 @@
         <v>0.75</v>
       </c>
       <c r="AP147">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ147">
         <v>0.7</v>
@@ -33249,7 +33249,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ156">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR156">
         <v>2.03</v>
@@ -34767,6 +34767,418 @@
       </c>
       <c r="BP163">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7364284</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45414.54166666666</v>
+      </c>
+      <c r="F164">
+        <v>20</v>
+      </c>
+      <c r="G164" t="s">
+        <v>80</v>
+      </c>
+      <c r="H164" t="s">
+        <v>79</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>1</v>
+      </c>
+      <c r="O164" t="s">
+        <v>136</v>
+      </c>
+      <c r="P164" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q164">
+        <v>2.5</v>
+      </c>
+      <c r="R164">
+        <v>2.2</v>
+      </c>
+      <c r="S164">
+        <v>4</v>
+      </c>
+      <c r="T164">
+        <v>1.38</v>
+      </c>
+      <c r="U164">
+        <v>2.9</v>
+      </c>
+      <c r="V164">
+        <v>2.77</v>
+      </c>
+      <c r="W164">
+        <v>1.41</v>
+      </c>
+      <c r="X164">
+        <v>6.92</v>
+      </c>
+      <c r="Y164">
+        <v>1.07</v>
+      </c>
+      <c r="Z164">
+        <v>1.85</v>
+      </c>
+      <c r="AA164">
+        <v>3.4</v>
+      </c>
+      <c r="AB164">
+        <v>3.8</v>
+      </c>
+      <c r="AC164">
+        <v>1.03</v>
+      </c>
+      <c r="AD164">
+        <v>9</v>
+      </c>
+      <c r="AE164">
+        <v>1.3</v>
+      </c>
+      <c r="AF164">
+        <v>3.2</v>
+      </c>
+      <c r="AG164">
+        <v>1.8</v>
+      </c>
+      <c r="AH164">
+        <v>2</v>
+      </c>
+      <c r="AI164">
+        <v>1.73</v>
+      </c>
+      <c r="AJ164">
+        <v>2</v>
+      </c>
+      <c r="AK164">
+        <v>1.17</v>
+      </c>
+      <c r="AL164">
+        <v>1.24</v>
+      </c>
+      <c r="AM164">
+        <v>1.98</v>
+      </c>
+      <c r="AN164">
+        <v>2.17</v>
+      </c>
+      <c r="AO164">
+        <v>0.89</v>
+      </c>
+      <c r="AP164">
+        <v>2.29</v>
+      </c>
+      <c r="AQ164">
+        <v>0.8</v>
+      </c>
+      <c r="AR164">
+        <v>1.65</v>
+      </c>
+      <c r="AS164">
+        <v>1.42</v>
+      </c>
+      <c r="AT164">
+        <v>3.07</v>
+      </c>
+      <c r="AU164">
+        <v>7</v>
+      </c>
+      <c r="AV164">
+        <v>3</v>
+      </c>
+      <c r="AW164">
+        <v>5</v>
+      </c>
+      <c r="AX164">
+        <v>7</v>
+      </c>
+      <c r="AY164">
+        <v>12</v>
+      </c>
+      <c r="AZ164">
+        <v>10</v>
+      </c>
+      <c r="BA164">
+        <v>8</v>
+      </c>
+      <c r="BB164">
+        <v>10</v>
+      </c>
+      <c r="BC164">
+        <v>18</v>
+      </c>
+      <c r="BD164">
+        <v>1.58</v>
+      </c>
+      <c r="BE164">
+        <v>8.9</v>
+      </c>
+      <c r="BF164">
+        <v>2.68</v>
+      </c>
+      <c r="BG164">
+        <v>1.2</v>
+      </c>
+      <c r="BH164">
+        <v>4.08</v>
+      </c>
+      <c r="BI164">
+        <v>1.33</v>
+      </c>
+      <c r="BJ164">
+        <v>2.93</v>
+      </c>
+      <c r="BK164">
+        <v>2.1</v>
+      </c>
+      <c r="BL164">
+        <v>2.2</v>
+      </c>
+      <c r="BM164">
+        <v>2.06</v>
+      </c>
+      <c r="BN164">
+        <v>1.75</v>
+      </c>
+      <c r="BO164">
+        <v>2.57</v>
+      </c>
+      <c r="BP164">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7364283</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45414.54166666666</v>
+      </c>
+      <c r="F165">
+        <v>20</v>
+      </c>
+      <c r="G165" t="s">
+        <v>82</v>
+      </c>
+      <c r="H165" t="s">
+        <v>70</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+      <c r="O165" t="s">
+        <v>92</v>
+      </c>
+      <c r="P165" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q165">
+        <v>3.25</v>
+      </c>
+      <c r="R165">
+        <v>1.8</v>
+      </c>
+      <c r="S165">
+        <v>4</v>
+      </c>
+      <c r="T165">
+        <v>1.61</v>
+      </c>
+      <c r="U165">
+        <v>2.23</v>
+      </c>
+      <c r="V165">
+        <v>3.86</v>
+      </c>
+      <c r="W165">
+        <v>1.22</v>
+      </c>
+      <c r="X165">
+        <v>9.35</v>
+      </c>
+      <c r="Y165">
+        <v>1.01</v>
+      </c>
+      <c r="Z165">
+        <v>2.38</v>
+      </c>
+      <c r="AA165">
+        <v>2.75</v>
+      </c>
+      <c r="AB165">
+        <v>3.25</v>
+      </c>
+      <c r="AC165">
+        <v>1.11</v>
+      </c>
+      <c r="AD165">
+        <v>5.5</v>
+      </c>
+      <c r="AE165">
+        <v>1.63</v>
+      </c>
+      <c r="AF165">
+        <v>2.14</v>
+      </c>
+      <c r="AG165">
+        <v>3</v>
+      </c>
+      <c r="AH165">
+        <v>1.36</v>
+      </c>
+      <c r="AI165">
+        <v>2.5</v>
+      </c>
+      <c r="AJ165">
+        <v>1.5</v>
+      </c>
+      <c r="AK165">
+        <v>1.28</v>
+      </c>
+      <c r="AL165">
+        <v>1.35</v>
+      </c>
+      <c r="AM165">
+        <v>1.56</v>
+      </c>
+      <c r="AN165">
+        <v>1.13</v>
+      </c>
+      <c r="AO165">
+        <v>1.44</v>
+      </c>
+      <c r="AP165">
+        <v>1.11</v>
+      </c>
+      <c r="AQ165">
+        <v>1.4</v>
+      </c>
+      <c r="AR165">
+        <v>1.13</v>
+      </c>
+      <c r="AS165">
+        <v>1.21</v>
+      </c>
+      <c r="AT165">
+        <v>2.34</v>
+      </c>
+      <c r="AU165">
+        <v>5</v>
+      </c>
+      <c r="AV165">
+        <v>2</v>
+      </c>
+      <c r="AW165">
+        <v>10</v>
+      </c>
+      <c r="AX165">
+        <v>6</v>
+      </c>
+      <c r="AY165">
+        <v>15</v>
+      </c>
+      <c r="AZ165">
+        <v>8</v>
+      </c>
+      <c r="BA165">
+        <v>8</v>
+      </c>
+      <c r="BB165">
+        <v>2</v>
+      </c>
+      <c r="BC165">
+        <v>10</v>
+      </c>
+      <c r="BD165">
+        <v>1.69</v>
+      </c>
+      <c r="BE165">
+        <v>8.1</v>
+      </c>
+      <c r="BF165">
+        <v>2.48</v>
+      </c>
+      <c r="BG165">
+        <v>1.39</v>
+      </c>
+      <c r="BH165">
+        <v>2.67</v>
+      </c>
+      <c r="BI165">
+        <v>1.77</v>
+      </c>
+      <c r="BJ165">
+        <v>2.02</v>
+      </c>
+      <c r="BK165">
+        <v>2.25</v>
+      </c>
+      <c r="BL165">
+        <v>1.62</v>
+      </c>
+      <c r="BM165">
+        <v>2.98</v>
+      </c>
+      <c r="BN165">
+        <v>1.32</v>
+      </c>
+      <c r="BO165">
+        <v>3.98</v>
+      </c>
+      <c r="BP165">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="276">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -589,6 +589,15 @@
     <t>['37']</t>
   </si>
   <si>
+    <t>['42', '76']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['37', '62', '80']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -824,6 +833,15 @@
   </si>
   <si>
     <t>['33', '57']</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>['22', '76']</t>
+  </si>
+  <si>
+    <t>['45', '47', '82']</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP165"/>
+  <dimension ref="A1:BP170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1728,10 +1746,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ3">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1934,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ4">
         <v>1.67</v>
@@ -2140,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ5">
         <v>1.44</v>
@@ -2268,7 +2286,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2349,7 +2367,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2555,7 +2573,7 @@
         <v>2</v>
       </c>
       <c r="AQ7">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2680,7 +2698,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2758,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ8">
         <v>1.78</v>
@@ -2964,10 +2982,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3092,7 +3110,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3504,7 +3522,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3585,7 +3603,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ12">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3710,7 +3728,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -3916,7 +3934,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4946,7 +4964,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5024,10 +5042,10 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR19">
         <v>1.91</v>
@@ -5233,7 +5251,7 @@
         <v>2</v>
       </c>
       <c r="AQ20">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR20">
         <v>1.31</v>
@@ -5358,7 +5376,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5436,10 +5454,10 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ21">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR21">
         <v>1.13</v>
@@ -5564,7 +5582,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5642,10 +5660,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR22">
         <v>1.22</v>
@@ -5770,7 +5788,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -5848,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ23">
         <v>1.67</v>
@@ -6182,7 +6200,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q25">
         <v>3.75</v>
@@ -6388,7 +6406,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6466,10 +6484,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ26">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR26">
         <v>2</v>
@@ -7212,7 +7230,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7418,7 +7436,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7624,7 +7642,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7830,7 +7848,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8036,7 +8054,7 @@
         <v>92</v>
       </c>
       <c r="P34" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -8448,7 +8466,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -8860,7 +8878,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8938,10 +8956,10 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ38">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR38">
         <v>1.37</v>
@@ -9066,7 +9084,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9144,7 +9162,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9272,7 +9290,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9350,10 +9368,10 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ40">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR40">
         <v>1.72</v>
@@ -9559,7 +9577,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR41">
         <v>1.48</v>
@@ -9762,10 +9780,10 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ42">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR42">
         <v>0.84</v>
@@ -9890,7 +9908,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10096,7 +10114,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10302,7 +10320,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10920,7 +10938,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q48">
         <v>6.5</v>
@@ -11126,7 +11144,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11538,7 +11556,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11744,7 +11762,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11950,7 +11968,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12362,7 +12380,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12443,7 +12461,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ55">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR55">
         <v>1.67</v>
@@ -12646,7 +12664,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ56">
         <v>1</v>
@@ -12774,7 +12792,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13058,7 +13076,7 @@
         <v>2.33</v>
       </c>
       <c r="AP58">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ58">
         <v>1.82</v>
@@ -13186,7 +13204,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -13264,10 +13282,10 @@
         <v>0.33</v>
       </c>
       <c r="AP59">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ59">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR59">
         <v>1.41</v>
@@ -13473,7 +13491,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ60">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR60">
         <v>1.51</v>
@@ -13598,7 +13616,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -13882,10 +13900,10 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR62">
         <v>0.8100000000000001</v>
@@ -14010,7 +14028,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14091,7 +14109,7 @@
         <v>1</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR63">
         <v>1</v>
@@ -14216,7 +14234,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14422,7 +14440,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14628,7 +14646,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14834,7 +14852,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15246,7 +15264,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15327,7 +15345,7 @@
         <v>1</v>
       </c>
       <c r="AQ69">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR69">
         <v>1.06</v>
@@ -15533,7 +15551,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR70">
         <v>1.2</v>
@@ -15864,7 +15882,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q72">
         <v>1.8</v>
@@ -15945,7 +15963,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ72">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR72">
         <v>1.89</v>
@@ -16148,7 +16166,7 @@
         <v>1.25</v>
       </c>
       <c r="AP73">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ73">
         <v>1</v>
@@ -16276,7 +16294,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q74">
         <v>3.25</v>
@@ -16357,7 +16375,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ74">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR74">
         <v>1.37</v>
@@ -16482,7 +16500,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16560,7 +16578,7 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ75">
         <v>1.82</v>
@@ -16769,7 +16787,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ76">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR76">
         <v>1.17</v>
@@ -16894,7 +16912,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17100,7 +17118,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17306,7 +17324,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17384,7 +17402,7 @@
         <v>0.75</v>
       </c>
       <c r="AP79">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ79">
         <v>0.7</v>
@@ -17512,7 +17530,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17590,7 +17608,7 @@
         <v>0.25</v>
       </c>
       <c r="AP80">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ80">
         <v>0.3</v>
@@ -18005,7 +18023,7 @@
         <v>1</v>
       </c>
       <c r="AQ82">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR82">
         <v>1.14</v>
@@ -18417,7 +18435,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ84">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR84">
         <v>1.06</v>
@@ -18542,7 +18560,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18620,7 +18638,7 @@
         <v>1.33</v>
       </c>
       <c r="AP85">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ85">
         <v>1.4</v>
@@ -18748,7 +18766,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18829,7 +18847,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ86">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR86">
         <v>1.42</v>
@@ -18954,7 +18972,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19366,7 +19384,7 @@
         <v>147</v>
       </c>
       <c r="P89" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q89">
         <v>3.5</v>
@@ -19444,7 +19462,7 @@
         <v>1.4</v>
       </c>
       <c r="AP89">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ89">
         <v>1.4</v>
@@ -19572,7 +19590,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19856,7 +19874,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ91">
         <v>2.38</v>
@@ -20190,7 +20208,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20271,7 +20289,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ93">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR93">
         <v>1.44</v>
@@ -21014,7 +21032,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21095,7 +21113,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ97">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR97">
         <v>1.11</v>
@@ -21507,7 +21525,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ99">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR99">
         <v>1.69</v>
@@ -21632,7 +21650,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -21710,7 +21728,7 @@
         <v>0.6</v>
       </c>
       <c r="AP100">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ100">
         <v>0.7</v>
@@ -21919,7 +21937,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ101">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR101">
         <v>1.35</v>
@@ -22044,7 +22062,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22125,7 +22143,7 @@
         <v>1</v>
       </c>
       <c r="AQ102">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR102">
         <v>1.24</v>
@@ -22250,7 +22268,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22328,7 +22346,7 @@
         <v>1.33</v>
       </c>
       <c r="AP103">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ103">
         <v>1.4</v>
@@ -22534,7 +22552,7 @@
         <v>1.17</v>
       </c>
       <c r="AP104">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ104">
         <v>0.8</v>
@@ -22743,7 +22761,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ105">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR105">
         <v>1.44</v>
@@ -22946,7 +22964,7 @@
         <v>1.5</v>
       </c>
       <c r="AP106">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ106">
         <v>1.44</v>
@@ -23074,7 +23092,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23358,10 +23376,10 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ108">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR108">
         <v>1.69</v>
@@ -23486,7 +23504,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23898,7 +23916,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -23976,7 +23994,7 @@
         <v>1.14</v>
       </c>
       <c r="AP111">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ111">
         <v>0.8</v>
@@ -24185,7 +24203,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ112">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR112">
         <v>1.82</v>
@@ -24391,7 +24409,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ113">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR113">
         <v>1.4</v>
@@ -24516,7 +24534,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -25546,7 +25564,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25627,7 +25645,7 @@
         <v>1</v>
       </c>
       <c r="AQ119">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR119">
         <v>1.25</v>
@@ -25752,7 +25770,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -25833,7 +25851,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ120">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR120">
         <v>1.23</v>
@@ -25958,7 +25976,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26036,7 +26054,7 @@
         <v>1.75</v>
       </c>
       <c r="AP121">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ121">
         <v>2.38</v>
@@ -26245,7 +26263,7 @@
         <v>2</v>
       </c>
       <c r="AQ122">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR122">
         <v>1.59</v>
@@ -26448,7 +26466,7 @@
         <v>2</v>
       </c>
       <c r="AP123">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ123">
         <v>1.78</v>
@@ -26576,7 +26594,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -26654,7 +26672,7 @@
         <v>1.67</v>
       </c>
       <c r="AP124">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ124">
         <v>1.67</v>
@@ -26782,7 +26800,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -26988,7 +27006,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q126">
         <v>6</v>
@@ -27194,7 +27212,7 @@
         <v>148</v>
       </c>
       <c r="P127" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q127">
         <v>2.6</v>
@@ -27606,7 +27624,7 @@
         <v>94</v>
       </c>
       <c r="P129" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q129">
         <v>3.4</v>
@@ -27687,7 +27705,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ129">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR129">
         <v>1.41</v>
@@ -28018,7 +28036,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28636,7 +28654,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -28714,7 +28732,7 @@
         <v>1.71</v>
       </c>
       <c r="AP134">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ134">
         <v>1.44</v>
@@ -28842,7 +28860,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29048,7 +29066,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29538,7 +29556,7 @@
         <v>1.75</v>
       </c>
       <c r="AP138">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ138">
         <v>1.86</v>
@@ -29666,7 +29684,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q139">
         <v>3.15</v>
@@ -30078,7 +30096,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -30284,7 +30302,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q142">
         <v>3.75</v>
@@ -30696,7 +30714,7 @@
         <v>92</v>
       </c>
       <c r="P144" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -31108,7 +31126,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31520,7 +31538,7 @@
         <v>108</v>
       </c>
       <c r="P148" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q148">
         <v>3.25</v>
@@ -31807,7 +31825,7 @@
         <v>1</v>
       </c>
       <c r="AQ149">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR149">
         <v>1.23</v>
@@ -32010,10 +32028,10 @@
         <v>1.86</v>
       </c>
       <c r="AP150">
+        <v>1.3</v>
+      </c>
+      <c r="AQ150">
         <v>1.44</v>
-      </c>
-      <c r="AQ150">
-        <v>1.63</v>
       </c>
       <c r="AR150">
         <v>1.76</v>
@@ -32138,7 +32156,7 @@
         <v>184</v>
       </c>
       <c r="P151" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q151">
         <v>3.2</v>
@@ -32216,10 +32234,10 @@
         <v>0.5</v>
       </c>
       <c r="AP151">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ151">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AR151">
         <v>1.4</v>
@@ -32422,7 +32440,7 @@
         <v>1.88</v>
       </c>
       <c r="AP152">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ152">
         <v>1.78</v>
@@ -32631,7 +32649,7 @@
         <v>2</v>
       </c>
       <c r="AQ153">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR153">
         <v>1.59</v>
@@ -32756,7 +32774,7 @@
         <v>129</v>
       </c>
       <c r="P154" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -32834,7 +32852,7 @@
         <v>1.5</v>
       </c>
       <c r="AP154">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AQ154">
         <v>1.67</v>
@@ -33168,7 +33186,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q156">
         <v>1.91</v>
@@ -33374,7 +33392,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34198,7 +34216,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34404,7 +34422,7 @@
         <v>151</v>
       </c>
       <c r="P162" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -34610,7 +34628,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -35179,6 +35197,1036 @@
       </c>
       <c r="BP165">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7364285</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45415.54166666666</v>
+      </c>
+      <c r="F166">
+        <v>21</v>
+      </c>
+      <c r="G166" t="s">
+        <v>77</v>
+      </c>
+      <c r="H166" t="s">
+        <v>81</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>2</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+      <c r="N166">
+        <v>3</v>
+      </c>
+      <c r="O166" t="s">
+        <v>191</v>
+      </c>
+      <c r="P166" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q166">
+        <v>2.75</v>
+      </c>
+      <c r="R166">
+        <v>1.91</v>
+      </c>
+      <c r="S166">
+        <v>4.5</v>
+      </c>
+      <c r="T166">
+        <v>1.43</v>
+      </c>
+      <c r="U166">
+        <v>2.75</v>
+      </c>
+      <c r="V166">
+        <v>3.2</v>
+      </c>
+      <c r="W166">
+        <v>1.34</v>
+      </c>
+      <c r="X166">
+        <v>6.92</v>
+      </c>
+      <c r="Y166">
+        <v>1.07</v>
+      </c>
+      <c r="Z166">
+        <v>2.1</v>
+      </c>
+      <c r="AA166">
+        <v>2.75</v>
+      </c>
+      <c r="AB166">
+        <v>4</v>
+      </c>
+      <c r="AC166">
+        <v>1.05</v>
+      </c>
+      <c r="AD166">
+        <v>8</v>
+      </c>
+      <c r="AE166">
+        <v>1.5</v>
+      </c>
+      <c r="AF166">
+        <v>2.4</v>
+      </c>
+      <c r="AG166">
+        <v>2.63</v>
+      </c>
+      <c r="AH166">
+        <v>1.44</v>
+      </c>
+      <c r="AI166">
+        <v>2.25</v>
+      </c>
+      <c r="AJ166">
+        <v>1.57</v>
+      </c>
+      <c r="AK166">
+        <v>1.2</v>
+      </c>
+      <c r="AL166">
+        <v>1.27</v>
+      </c>
+      <c r="AM166">
+        <v>1.68</v>
+      </c>
+      <c r="AN166">
+        <v>1.67</v>
+      </c>
+      <c r="AO166">
+        <v>1</v>
+      </c>
+      <c r="AP166">
+        <v>1.8</v>
+      </c>
+      <c r="AQ166">
+        <v>0.9</v>
+      </c>
+      <c r="AR166">
+        <v>1.39</v>
+      </c>
+      <c r="AS166">
+        <v>1.28</v>
+      </c>
+      <c r="AT166">
+        <v>2.67</v>
+      </c>
+      <c r="AU166">
+        <v>5</v>
+      </c>
+      <c r="AV166">
+        <v>0</v>
+      </c>
+      <c r="AW166">
+        <v>3</v>
+      </c>
+      <c r="AX166">
+        <v>4</v>
+      </c>
+      <c r="AY166">
+        <v>8</v>
+      </c>
+      <c r="AZ166">
+        <v>4</v>
+      </c>
+      <c r="BA166">
+        <v>3</v>
+      </c>
+      <c r="BB166">
+        <v>1</v>
+      </c>
+      <c r="BC166">
+        <v>4</v>
+      </c>
+      <c r="BD166">
+        <v>1.69</v>
+      </c>
+      <c r="BE166">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF166">
+        <v>2.47</v>
+      </c>
+      <c r="BG166">
+        <v>1.35</v>
+      </c>
+      <c r="BH166">
+        <v>2.84</v>
+      </c>
+      <c r="BI166">
+        <v>1.69</v>
+      </c>
+      <c r="BJ166">
+        <v>2.14</v>
+      </c>
+      <c r="BK166">
+        <v>2.13</v>
+      </c>
+      <c r="BL166">
+        <v>1.7</v>
+      </c>
+      <c r="BM166">
+        <v>2.79</v>
+      </c>
+      <c r="BN166">
+        <v>1.36</v>
+      </c>
+      <c r="BO166">
+        <v>3.9</v>
+      </c>
+      <c r="BP166">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7364286</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45415.54166666666</v>
+      </c>
+      <c r="F167">
+        <v>21</v>
+      </c>
+      <c r="G167" t="s">
+        <v>71</v>
+      </c>
+      <c r="H167" t="s">
+        <v>74</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167">
+        <v>1</v>
+      </c>
+      <c r="O167" t="s">
+        <v>92</v>
+      </c>
+      <c r="P167" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q167">
+        <v>3</v>
+      </c>
+      <c r="R167">
+        <v>2</v>
+      </c>
+      <c r="S167">
+        <v>3.75</v>
+      </c>
+      <c r="T167">
+        <v>1.57</v>
+      </c>
+      <c r="U167">
+        <v>2.25</v>
+      </c>
+      <c r="V167">
+        <v>3.55</v>
+      </c>
+      <c r="W167">
+        <v>1.25</v>
+      </c>
+      <c r="X167">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="Y167">
+        <v>1.04</v>
+      </c>
+      <c r="Z167">
+        <v>2.2</v>
+      </c>
+      <c r="AA167">
+        <v>3</v>
+      </c>
+      <c r="AB167">
+        <v>3.2</v>
+      </c>
+      <c r="AC167">
+        <v>1.1</v>
+      </c>
+      <c r="AD167">
+        <v>6.25</v>
+      </c>
+      <c r="AE167">
+        <v>1.5</v>
+      </c>
+      <c r="AF167">
+        <v>2.5</v>
+      </c>
+      <c r="AG167">
+        <v>2.25</v>
+      </c>
+      <c r="AH167">
+        <v>1.62</v>
+      </c>
+      <c r="AI167">
+        <v>1.91</v>
+      </c>
+      <c r="AJ167">
+        <v>1.8</v>
+      </c>
+      <c r="AK167">
+        <v>1.33</v>
+      </c>
+      <c r="AL167">
+        <v>1.33</v>
+      </c>
+      <c r="AM167">
+        <v>1.57</v>
+      </c>
+      <c r="AN167">
+        <v>1.44</v>
+      </c>
+      <c r="AO167">
+        <v>0.9</v>
+      </c>
+      <c r="AP167">
+        <v>1.3</v>
+      </c>
+      <c r="AQ167">
+        <v>1.09</v>
+      </c>
+      <c r="AR167">
+        <v>1.75</v>
+      </c>
+      <c r="AS167">
+        <v>1.28</v>
+      </c>
+      <c r="AT167">
+        <v>3.03</v>
+      </c>
+      <c r="AU167">
+        <v>0</v>
+      </c>
+      <c r="AV167">
+        <v>3</v>
+      </c>
+      <c r="AW167">
+        <v>13</v>
+      </c>
+      <c r="AX167">
+        <v>9</v>
+      </c>
+      <c r="AY167">
+        <v>13</v>
+      </c>
+      <c r="AZ167">
+        <v>12</v>
+      </c>
+      <c r="BA167">
+        <v>3</v>
+      </c>
+      <c r="BB167">
+        <v>2</v>
+      </c>
+      <c r="BC167">
+        <v>5</v>
+      </c>
+      <c r="BD167">
+        <v>1.69</v>
+      </c>
+      <c r="BE167">
+        <v>8.6</v>
+      </c>
+      <c r="BF167">
+        <v>2.44</v>
+      </c>
+      <c r="BG167">
+        <v>1.24</v>
+      </c>
+      <c r="BH167">
+        <v>3.48</v>
+      </c>
+      <c r="BI167">
+        <v>1.51</v>
+      </c>
+      <c r="BJ167">
+        <v>2.5</v>
+      </c>
+      <c r="BK167">
+        <v>2.2</v>
+      </c>
+      <c r="BL167">
+        <v>1.94</v>
+      </c>
+      <c r="BM167">
+        <v>2.34</v>
+      </c>
+      <c r="BN167">
+        <v>1.57</v>
+      </c>
+      <c r="BO167">
+        <v>3.08</v>
+      </c>
+      <c r="BP167">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7364287</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45416.41666666666</v>
+      </c>
+      <c r="F168">
+        <v>21</v>
+      </c>
+      <c r="G168" t="s">
+        <v>76</v>
+      </c>
+      <c r="H168" t="s">
+        <v>86</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>2</v>
+      </c>
+      <c r="N168">
+        <v>2</v>
+      </c>
+      <c r="O168" t="s">
+        <v>92</v>
+      </c>
+      <c r="P168" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q168">
+        <v>3.2</v>
+      </c>
+      <c r="R168">
+        <v>1.95</v>
+      </c>
+      <c r="S168">
+        <v>3.5</v>
+      </c>
+      <c r="T168">
+        <v>1.57</v>
+      </c>
+      <c r="U168">
+        <v>2.31</v>
+      </c>
+      <c r="V168">
+        <v>3.7</v>
+      </c>
+      <c r="W168">
+        <v>1.25</v>
+      </c>
+      <c r="X168">
+        <v>10.25</v>
+      </c>
+      <c r="Y168">
+        <v>1.03</v>
+      </c>
+      <c r="Z168">
+        <v>2.55</v>
+      </c>
+      <c r="AA168">
+        <v>2.88</v>
+      </c>
+      <c r="AB168">
+        <v>2.9</v>
+      </c>
+      <c r="AC168">
+        <v>1.07</v>
+      </c>
+      <c r="AD168">
+        <v>6.25</v>
+      </c>
+      <c r="AE168">
+        <v>1.48</v>
+      </c>
+      <c r="AF168">
+        <v>2.48</v>
+      </c>
+      <c r="AG168">
+        <v>2.35</v>
+      </c>
+      <c r="AH168">
+        <v>1.57</v>
+      </c>
+      <c r="AI168">
+        <v>2</v>
+      </c>
+      <c r="AJ168">
+        <v>1.73</v>
+      </c>
+      <c r="AK168">
+        <v>1.41</v>
+      </c>
+      <c r="AL168">
+        <v>1.34</v>
+      </c>
+      <c r="AM168">
+        <v>1.42</v>
+      </c>
+      <c r="AN168">
+        <v>0.75</v>
+      </c>
+      <c r="AO168">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP168">
+        <v>0.67</v>
+      </c>
+      <c r="AQ168">
+        <v>0.8</v>
+      </c>
+      <c r="AR168">
+        <v>1.5</v>
+      </c>
+      <c r="AS168">
+        <v>1.53</v>
+      </c>
+      <c r="AT168">
+        <v>3.03</v>
+      </c>
+      <c r="AU168">
+        <v>3</v>
+      </c>
+      <c r="AV168">
+        <v>5</v>
+      </c>
+      <c r="AW168">
+        <v>6</v>
+      </c>
+      <c r="AX168">
+        <v>4</v>
+      </c>
+      <c r="AY168">
+        <v>9</v>
+      </c>
+      <c r="AZ168">
+        <v>9</v>
+      </c>
+      <c r="BA168">
+        <v>1</v>
+      </c>
+      <c r="BB168">
+        <v>2</v>
+      </c>
+      <c r="BC168">
+        <v>3</v>
+      </c>
+      <c r="BD168">
+        <v>2</v>
+      </c>
+      <c r="BE168">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF168">
+        <v>2.01</v>
+      </c>
+      <c r="BG168">
+        <v>1.27</v>
+      </c>
+      <c r="BH168">
+        <v>3.28</v>
+      </c>
+      <c r="BI168">
+        <v>1.57</v>
+      </c>
+      <c r="BJ168">
+        <v>2.34</v>
+      </c>
+      <c r="BK168">
+        <v>1.95</v>
+      </c>
+      <c r="BL168">
+        <v>1.85</v>
+      </c>
+      <c r="BM168">
+        <v>2.48</v>
+      </c>
+      <c r="BN168">
+        <v>1.52</v>
+      </c>
+      <c r="BO168">
+        <v>3.34</v>
+      </c>
+      <c r="BP168">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7364289</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45416.54166666666</v>
+      </c>
+      <c r="F169">
+        <v>21</v>
+      </c>
+      <c r="G169" t="s">
+        <v>73</v>
+      </c>
+      <c r="H169" t="s">
+        <v>87</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <v>3</v>
+      </c>
+      <c r="N169">
+        <v>4</v>
+      </c>
+      <c r="O169" t="s">
+        <v>192</v>
+      </c>
+      <c r="P169" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q169">
+        <v>6</v>
+      </c>
+      <c r="R169">
+        <v>2.1</v>
+      </c>
+      <c r="S169">
+        <v>2.1</v>
+      </c>
+      <c r="T169">
+        <v>1.41</v>
+      </c>
+      <c r="U169">
+        <v>2.83</v>
+      </c>
+      <c r="V169">
+        <v>3.08</v>
+      </c>
+      <c r="W169">
+        <v>1.36</v>
+      </c>
+      <c r="X169">
+        <v>7.7</v>
+      </c>
+      <c r="Y169">
+        <v>1.06</v>
+      </c>
+      <c r="Z169">
+        <v>6</v>
+      </c>
+      <c r="AA169">
+        <v>3.5</v>
+      </c>
+      <c r="AB169">
+        <v>1.53</v>
+      </c>
+      <c r="AC169">
+        <v>1.03</v>
+      </c>
+      <c r="AD169">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE169">
+        <v>1.32</v>
+      </c>
+      <c r="AF169">
+        <v>2.98</v>
+      </c>
+      <c r="AG169">
+        <v>2.15</v>
+      </c>
+      <c r="AH169">
+        <v>1.67</v>
+      </c>
+      <c r="AI169">
+        <v>2.2</v>
+      </c>
+      <c r="AJ169">
+        <v>1.62</v>
+      </c>
+      <c r="AK169">
+        <v>2.16</v>
+      </c>
+      <c r="AL169">
+        <v>1.24</v>
+      </c>
+      <c r="AM169">
+        <v>1.12</v>
+      </c>
+      <c r="AN169">
+        <v>0.89</v>
+      </c>
+      <c r="AO169">
+        <v>1</v>
+      </c>
+      <c r="AP169">
+        <v>0.8</v>
+      </c>
+      <c r="AQ169">
+        <v>1.22</v>
+      </c>
+      <c r="AR169">
+        <v>0.93</v>
+      </c>
+      <c r="AS169">
+        <v>1.79</v>
+      </c>
+      <c r="AT169">
+        <v>2.72</v>
+      </c>
+      <c r="AU169">
+        <v>4</v>
+      </c>
+      <c r="AV169">
+        <v>4</v>
+      </c>
+      <c r="AW169">
+        <v>6</v>
+      </c>
+      <c r="AX169">
+        <v>8</v>
+      </c>
+      <c r="AY169">
+        <v>10</v>
+      </c>
+      <c r="AZ169">
+        <v>12</v>
+      </c>
+      <c r="BA169">
+        <v>1</v>
+      </c>
+      <c r="BB169">
+        <v>4</v>
+      </c>
+      <c r="BC169">
+        <v>5</v>
+      </c>
+      <c r="BD169">
+        <v>3.64</v>
+      </c>
+      <c r="BE169">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF169">
+        <v>1.35</v>
+      </c>
+      <c r="BG169">
+        <v>1.26</v>
+      </c>
+      <c r="BH169">
+        <v>3.34</v>
+      </c>
+      <c r="BI169">
+        <v>1.55</v>
+      </c>
+      <c r="BJ169">
+        <v>2.38</v>
+      </c>
+      <c r="BK169">
+        <v>2.38</v>
+      </c>
+      <c r="BL169">
+        <v>1.89</v>
+      </c>
+      <c r="BM169">
+        <v>2.39</v>
+      </c>
+      <c r="BN169">
+        <v>1.54</v>
+      </c>
+      <c r="BO169">
+        <v>3.2</v>
+      </c>
+      <c r="BP169">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7364288</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45416.54166666666</v>
+      </c>
+      <c r="F170">
+        <v>21</v>
+      </c>
+      <c r="G170" t="s">
+        <v>72</v>
+      </c>
+      <c r="H170" t="s">
+        <v>84</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <v>3</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>3</v>
+      </c>
+      <c r="O170" t="s">
+        <v>193</v>
+      </c>
+      <c r="P170" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q170">
+        <v>1.8</v>
+      </c>
+      <c r="R170">
+        <v>2.4</v>
+      </c>
+      <c r="S170">
+        <v>7</v>
+      </c>
+      <c r="T170">
+        <v>1.31</v>
+      </c>
+      <c r="U170">
+        <v>3.26</v>
+      </c>
+      <c r="V170">
+        <v>2.48</v>
+      </c>
+      <c r="W170">
+        <v>1.5</v>
+      </c>
+      <c r="X170">
+        <v>5.85</v>
+      </c>
+      <c r="Y170">
+        <v>1.11</v>
+      </c>
+      <c r="Z170">
+        <v>1.36</v>
+      </c>
+      <c r="AA170">
+        <v>4.5</v>
+      </c>
+      <c r="AB170">
+        <v>8</v>
+      </c>
+      <c r="AC170">
+        <v>1.01</v>
+      </c>
+      <c r="AD170">
+        <v>11</v>
+      </c>
+      <c r="AE170">
+        <v>1.19</v>
+      </c>
+      <c r="AF170">
+        <v>4</v>
+      </c>
+      <c r="AG170">
+        <v>1.73</v>
+      </c>
+      <c r="AH170">
+        <v>2.08</v>
+      </c>
+      <c r="AI170">
+        <v>2.1</v>
+      </c>
+      <c r="AJ170">
+        <v>1.67</v>
+      </c>
+      <c r="AK170">
+        <v>1.04</v>
+      </c>
+      <c r="AL170">
+        <v>1.14</v>
+      </c>
+      <c r="AM170">
+        <v>3.02</v>
+      </c>
+      <c r="AN170">
+        <v>2.2</v>
+      </c>
+      <c r="AO170">
+        <v>1.63</v>
+      </c>
+      <c r="AP170">
+        <v>2.33</v>
+      </c>
+      <c r="AQ170">
+        <v>1.44</v>
+      </c>
+      <c r="AR170">
+        <v>1.74</v>
+      </c>
+      <c r="AS170">
+        <v>1.41</v>
+      </c>
+      <c r="AT170">
+        <v>3.15</v>
+      </c>
+      <c r="AU170">
+        <v>6</v>
+      </c>
+      <c r="AV170">
+        <v>4</v>
+      </c>
+      <c r="AW170">
+        <v>5</v>
+      </c>
+      <c r="AX170">
+        <v>5</v>
+      </c>
+      <c r="AY170">
+        <v>11</v>
+      </c>
+      <c r="AZ170">
+        <v>9</v>
+      </c>
+      <c r="BA170">
+        <v>11</v>
+      </c>
+      <c r="BB170">
+        <v>4</v>
+      </c>
+      <c r="BC170">
+        <v>15</v>
+      </c>
+      <c r="BD170">
+        <v>1.13</v>
+      </c>
+      <c r="BE170">
+        <v>12.75</v>
+      </c>
+      <c r="BF170">
+        <v>6.35</v>
+      </c>
+      <c r="BG170">
+        <v>1.2</v>
+      </c>
+      <c r="BH170">
+        <v>4</v>
+      </c>
+      <c r="BI170">
+        <v>1.35</v>
+      </c>
+      <c r="BJ170">
+        <v>2.84</v>
+      </c>
+      <c r="BK170">
+        <v>2.1</v>
+      </c>
+      <c r="BL170">
+        <v>2.2</v>
+      </c>
+      <c r="BM170">
+        <v>2.08</v>
+      </c>
+      <c r="BN170">
+        <v>1.74</v>
+      </c>
+      <c r="BO170">
+        <v>2.6</v>
+      </c>
+      <c r="BP170">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -36181,13 +36181,13 @@
         <v>9</v>
       </c>
       <c r="BA170">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BB170">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC170">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD170">
         <v>1.13</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="278">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -598,6 +598,9 @@
     <t>['37', '62', '80']</t>
   </si>
   <si>
+    <t>['26']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -842,6 +845,9 @@
   </si>
   <si>
     <t>['45', '47', '82']</t>
+  </si>
+  <si>
+    <t>['45+7', '55', '74', '88', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP170"/>
+  <dimension ref="A1:BP172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2161,7 +2167,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ5">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2286,7 +2292,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2570,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ7">
         <v>1.44</v>
@@ -2698,7 +2704,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3110,7 +3116,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3191,7 +3197,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ10">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3394,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ11">
         <v>2.38</v>
@@ -3522,7 +3528,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3728,7 +3734,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -3934,7 +3940,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4964,7 +4970,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5248,7 +5254,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ20">
         <v>1.09</v>
@@ -5376,7 +5382,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5582,7 +5588,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5788,7 +5794,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -6200,7 +6206,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q25">
         <v>3.75</v>
@@ -6278,10 +6284,10 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ25">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>0.44</v>
@@ -6406,7 +6412,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6693,7 +6699,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ27">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR27">
         <v>2.1</v>
@@ -7230,7 +7236,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7436,7 +7442,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7642,7 +7648,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7848,7 +7854,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8054,7 +8060,7 @@
         <v>92</v>
       </c>
       <c r="P34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -8466,7 +8472,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -8753,7 +8759,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ37">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>1.06</v>
@@ -8878,7 +8884,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9084,7 +9090,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9290,7 +9296,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9908,7 +9914,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9986,7 +9992,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ43">
         <v>1.78</v>
@@ -10114,7 +10120,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10192,7 +10198,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ44">
         <v>1.4</v>
@@ -10320,7 +10326,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10938,7 +10944,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q48">
         <v>6.5</v>
@@ -11144,7 +11150,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11431,7 +11437,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ50">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR50">
         <v>1.07</v>
@@ -11556,7 +11562,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11762,7 +11768,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11968,7 +11974,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12380,7 +12386,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12792,7 +12798,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -12873,7 +12879,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ57">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR57">
         <v>1.05</v>
@@ -13204,7 +13210,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -13616,7 +13622,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -14028,7 +14034,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14106,7 +14112,7 @@
         <v>0.33</v>
       </c>
       <c r="AP63">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ63">
         <v>1.22</v>
@@ -14234,7 +14240,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14312,7 +14318,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ64">
         <v>0.7</v>
@@ -14440,7 +14446,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14646,7 +14652,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14727,7 +14733,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ66">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR66">
         <v>1.71</v>
@@ -14852,7 +14858,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15264,7 +15270,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15342,7 +15348,7 @@
         <v>1.5</v>
       </c>
       <c r="AP69">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ69">
         <v>1.44</v>
@@ -15757,7 +15763,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ71">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR71">
         <v>1.39</v>
@@ -15882,7 +15888,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q72">
         <v>1.8</v>
@@ -16294,7 +16300,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q74">
         <v>3.25</v>
@@ -16500,7 +16506,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16912,7 +16918,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -16993,7 +16999,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ77">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR77">
         <v>1.32</v>
@@ -17118,7 +17124,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17324,7 +17330,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17530,7 +17536,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17814,7 +17820,7 @@
         <v>1.75</v>
       </c>
       <c r="AP81">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ81">
         <v>1.4</v>
@@ -18020,7 +18026,7 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ82">
         <v>1.09</v>
@@ -18560,7 +18566,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18766,7 +18772,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18972,7 +18978,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19256,7 +19262,7 @@
         <v>1.2</v>
       </c>
       <c r="AP88">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ88">
         <v>0.8</v>
@@ -19384,7 +19390,7 @@
         <v>147</v>
       </c>
       <c r="P89" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q89">
         <v>3.5</v>
@@ -19590,7 +19596,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19671,7 +19677,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ90">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR90">
         <v>1.19</v>
@@ -20208,7 +20214,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20698,7 +20704,7 @@
         <v>1.83</v>
       </c>
       <c r="AP95">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ95">
         <v>1.82</v>
@@ -21032,7 +21038,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21319,7 +21325,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ98">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR98">
         <v>1.43</v>
@@ -21650,7 +21656,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -22062,7 +22068,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22268,7 +22274,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22967,7 +22973,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ106">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR106">
         <v>2.1</v>
@@ -23092,7 +23098,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23504,7 +23510,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23582,7 +23588,7 @@
         <v>2.25</v>
       </c>
       <c r="AP109">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ109">
         <v>1.78</v>
@@ -23916,7 +23922,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24534,7 +24540,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -25564,7 +25570,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25770,7 +25776,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -25976,7 +25982,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26260,7 +26266,7 @@
         <v>1.14</v>
       </c>
       <c r="AP122">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ122">
         <v>1.22</v>
@@ -26594,7 +26600,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -26800,7 +26806,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -26881,7 +26887,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ125">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR125">
         <v>1.36</v>
@@ -27006,7 +27012,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q126">
         <v>6</v>
@@ -27084,7 +27090,7 @@
         <v>2.33</v>
       </c>
       <c r="AP126">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ126">
         <v>1.86</v>
@@ -27212,7 +27218,7 @@
         <v>148</v>
       </c>
       <c r="P127" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q127">
         <v>2.6</v>
@@ -27624,7 +27630,7 @@
         <v>94</v>
       </c>
       <c r="P129" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q129">
         <v>3.4</v>
@@ -27908,7 +27914,7 @@
         <v>0.29</v>
       </c>
       <c r="AP130">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ130">
         <v>0.3</v>
@@ -28036,7 +28042,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28654,7 +28660,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -28735,7 +28741,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ134">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR134">
         <v>1.63</v>
@@ -28860,7 +28866,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29066,7 +29072,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29684,7 +29690,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q139">
         <v>3.15</v>
@@ -30096,7 +30102,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -30302,7 +30308,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q142">
         <v>3.75</v>
@@ -30714,7 +30720,7 @@
         <v>92</v>
       </c>
       <c r="P144" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -30792,7 +30798,7 @@
         <v>1.25</v>
       </c>
       <c r="AP144">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ144">
         <v>1.4</v>
@@ -31126,7 +31132,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31538,7 +31544,7 @@
         <v>108</v>
       </c>
       <c r="P148" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q148">
         <v>3.25</v>
@@ -32156,7 +32162,7 @@
         <v>184</v>
       </c>
       <c r="P151" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q151">
         <v>3.2</v>
@@ -32646,7 +32652,7 @@
         <v>1.13</v>
       </c>
       <c r="AP153">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ153">
         <v>0.9</v>
@@ -32774,7 +32780,7 @@
         <v>129</v>
       </c>
       <c r="P154" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33061,7 +33067,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ155">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR155">
         <v>1.48</v>
@@ -33186,7 +33192,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q156">
         <v>1.91</v>
@@ -33392,7 +33398,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34216,7 +34222,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34422,7 +34428,7 @@
         <v>151</v>
       </c>
       <c r="P162" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -34628,7 +34634,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -35246,7 +35252,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35452,7 +35458,7 @@
         <v>92</v>
       </c>
       <c r="P167" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35658,7 +35664,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
@@ -35864,7 +35870,7 @@
         <v>192</v>
       </c>
       <c r="P169" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -36227,6 +36233,418 @@
       </c>
       <c r="BP170">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7364291</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45417.54166666666</v>
+      </c>
+      <c r="F171">
+        <v>21</v>
+      </c>
+      <c r="G171" t="s">
+        <v>79</v>
+      </c>
+      <c r="H171" t="s">
+        <v>83</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171">
+        <v>2</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>5</v>
+      </c>
+      <c r="N171">
+        <v>6</v>
+      </c>
+      <c r="O171" t="s">
+        <v>194</v>
+      </c>
+      <c r="P171" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q171">
+        <v>3</v>
+      </c>
+      <c r="R171">
+        <v>1.91</v>
+      </c>
+      <c r="S171">
+        <v>4</v>
+      </c>
+      <c r="T171">
+        <v>1.5</v>
+      </c>
+      <c r="U171">
+        <v>2.4</v>
+      </c>
+      <c r="V171">
+        <v>3.3</v>
+      </c>
+      <c r="W171">
+        <v>1.29</v>
+      </c>
+      <c r="X171">
+        <v>9</v>
+      </c>
+      <c r="Y171">
+        <v>1.03</v>
+      </c>
+      <c r="Z171">
+        <v>2.25</v>
+      </c>
+      <c r="AA171">
+        <v>2.88</v>
+      </c>
+      <c r="AB171">
+        <v>3.3</v>
+      </c>
+      <c r="AC171">
+        <v>1.08</v>
+      </c>
+      <c r="AD171">
+        <v>6.5</v>
+      </c>
+      <c r="AE171">
+        <v>1.42</v>
+      </c>
+      <c r="AF171">
+        <v>2.5</v>
+      </c>
+      <c r="AG171">
+        <v>2.38</v>
+      </c>
+      <c r="AH171">
+        <v>1.53</v>
+      </c>
+      <c r="AI171">
+        <v>2.1</v>
+      </c>
+      <c r="AJ171">
+        <v>1.67</v>
+      </c>
+      <c r="AK171">
+        <v>1.33</v>
+      </c>
+      <c r="AL171">
+        <v>1.38</v>
+      </c>
+      <c r="AM171">
+        <v>1.62</v>
+      </c>
+      <c r="AN171">
+        <v>1</v>
+      </c>
+      <c r="AO171">
+        <v>1.44</v>
+      </c>
+      <c r="AP171">
+        <v>0.91</v>
+      </c>
+      <c r="AQ171">
+        <v>1.6</v>
+      </c>
+      <c r="AR171">
+        <v>1.49</v>
+      </c>
+      <c r="AS171">
+        <v>1.39</v>
+      </c>
+      <c r="AT171">
+        <v>2.88</v>
+      </c>
+      <c r="AU171">
+        <v>8</v>
+      </c>
+      <c r="AV171">
+        <v>9</v>
+      </c>
+      <c r="AW171">
+        <v>6</v>
+      </c>
+      <c r="AX171">
+        <v>4</v>
+      </c>
+      <c r="AY171">
+        <v>14</v>
+      </c>
+      <c r="AZ171">
+        <v>13</v>
+      </c>
+      <c r="BA171">
+        <v>4</v>
+      </c>
+      <c r="BB171">
+        <v>4</v>
+      </c>
+      <c r="BC171">
+        <v>8</v>
+      </c>
+      <c r="BD171">
+        <v>1.54</v>
+      </c>
+      <c r="BE171">
+        <v>8.6</v>
+      </c>
+      <c r="BF171">
+        <v>2.84</v>
+      </c>
+      <c r="BG171">
+        <v>1.32</v>
+      </c>
+      <c r="BH171">
+        <v>2.98</v>
+      </c>
+      <c r="BI171">
+        <v>1.59</v>
+      </c>
+      <c r="BJ171">
+        <v>2.16</v>
+      </c>
+      <c r="BK171">
+        <v>2</v>
+      </c>
+      <c r="BL171">
+        <v>1.69</v>
+      </c>
+      <c r="BM171">
+        <v>2.64</v>
+      </c>
+      <c r="BN171">
+        <v>1.4</v>
+      </c>
+      <c r="BO171">
+        <v>3.65</v>
+      </c>
+      <c r="BP171">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7364290</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45417.54166666666</v>
+      </c>
+      <c r="F172">
+        <v>21</v>
+      </c>
+      <c r="G172" t="s">
+        <v>75</v>
+      </c>
+      <c r="H172" t="s">
+        <v>80</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>1</v>
+      </c>
+      <c r="O172" t="s">
+        <v>164</v>
+      </c>
+      <c r="P172" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q172">
+        <v>4</v>
+      </c>
+      <c r="R172">
+        <v>2</v>
+      </c>
+      <c r="S172">
+        <v>2.75</v>
+      </c>
+      <c r="T172">
+        <v>1.42</v>
+      </c>
+      <c r="U172">
+        <v>2.73</v>
+      </c>
+      <c r="V172">
+        <v>2.94</v>
+      </c>
+      <c r="W172">
+        <v>1.37</v>
+      </c>
+      <c r="X172">
+        <v>7.6</v>
+      </c>
+      <c r="Y172">
+        <v>1.07</v>
+      </c>
+      <c r="Z172">
+        <v>3.2</v>
+      </c>
+      <c r="AA172">
+        <v>3.2</v>
+      </c>
+      <c r="AB172">
+        <v>2.1</v>
+      </c>
+      <c r="AC172">
+        <v>1.02</v>
+      </c>
+      <c r="AD172">
+        <v>8.5</v>
+      </c>
+      <c r="AE172">
+        <v>1.3</v>
+      </c>
+      <c r="AF172">
+        <v>3.08</v>
+      </c>
+      <c r="AG172">
+        <v>2.15</v>
+      </c>
+      <c r="AH172">
+        <v>1.67</v>
+      </c>
+      <c r="AI172">
+        <v>1.91</v>
+      </c>
+      <c r="AJ172">
+        <v>1.8</v>
+      </c>
+      <c r="AK172">
+        <v>2.06</v>
+      </c>
+      <c r="AL172">
+        <v>1.24</v>
+      </c>
+      <c r="AM172">
+        <v>1.14</v>
+      </c>
+      <c r="AN172">
+        <v>2</v>
+      </c>
+      <c r="AO172">
+        <v>1.14</v>
+      </c>
+      <c r="AP172">
+        <v>2.1</v>
+      </c>
+      <c r="AQ172">
+        <v>1</v>
+      </c>
+      <c r="AR172">
+        <v>1.57</v>
+      </c>
+      <c r="AS172">
+        <v>1.73</v>
+      </c>
+      <c r="AT172">
+        <v>3.3</v>
+      </c>
+      <c r="AU172">
+        <v>3</v>
+      </c>
+      <c r="AV172">
+        <v>3</v>
+      </c>
+      <c r="AW172">
+        <v>2</v>
+      </c>
+      <c r="AX172">
+        <v>3</v>
+      </c>
+      <c r="AY172">
+        <v>5</v>
+      </c>
+      <c r="AZ172">
+        <v>6</v>
+      </c>
+      <c r="BA172">
+        <v>2</v>
+      </c>
+      <c r="BB172">
+        <v>2</v>
+      </c>
+      <c r="BC172">
+        <v>4</v>
+      </c>
+      <c r="BD172">
+        <v>2.46</v>
+      </c>
+      <c r="BE172">
+        <v>8.9</v>
+      </c>
+      <c r="BF172">
+        <v>1.67</v>
+      </c>
+      <c r="BG172">
+        <v>1.19</v>
+      </c>
+      <c r="BH172">
+        <v>3.95</v>
+      </c>
+      <c r="BI172">
+        <v>1.38</v>
+      </c>
+      <c r="BJ172">
+        <v>2.71</v>
+      </c>
+      <c r="BK172">
+        <v>2.1</v>
+      </c>
+      <c r="BL172">
+        <v>2.03</v>
+      </c>
+      <c r="BM172">
+        <v>2.1</v>
+      </c>
+      <c r="BN172">
+        <v>1.62</v>
+      </c>
+      <c r="BO172">
+        <v>2.79</v>
+      </c>
+      <c r="BP172">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="280">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -601,6 +601,9 @@
     <t>['26']</t>
   </si>
   <si>
+    <t>['76', '90+2']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -848,6 +851,9 @@
   </si>
   <si>
     <t>['45+7', '55', '74', '88', '90+6']</t>
+  </si>
+  <si>
+    <t>['49', '69']</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP172"/>
+  <dimension ref="A1:BP174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1546,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ2">
         <v>0.8</v>
@@ -1961,7 +1967,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ4">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2292,7 +2298,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2704,7 +2710,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2785,7 +2791,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ8">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3116,7 +3122,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3194,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3528,7 +3534,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3734,7 +3740,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -3940,7 +3946,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4970,7 +4976,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5382,7 +5388,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5588,7 +5594,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5794,7 +5800,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -5875,7 +5881,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ23">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR23">
         <v>0.65</v>
@@ -6078,10 +6084,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ24">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR24">
         <v>1.15</v>
@@ -6206,7 +6212,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q25">
         <v>3.75</v>
@@ -6412,7 +6418,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6696,7 +6702,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ27">
         <v>1.6</v>
@@ -7236,7 +7242,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7442,7 +7448,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7648,7 +7654,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7854,7 +7860,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8060,7 +8066,7 @@
         <v>92</v>
       </c>
       <c r="P34" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -8472,7 +8478,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -8550,10 +8556,10 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ36">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR36">
         <v>1.67</v>
@@ -8884,7 +8890,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9090,7 +9096,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9296,7 +9302,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9580,7 +9586,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ41">
         <v>1.22</v>
@@ -9914,7 +9920,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9995,7 +10001,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ43">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR43">
         <v>0.91</v>
@@ -10120,7 +10126,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10326,7 +10332,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10944,7 +10950,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q48">
         <v>6.5</v>
@@ -11150,7 +11156,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11562,7 +11568,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11768,7 +11774,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11974,7 +11980,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12386,7 +12392,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12464,7 +12470,7 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ55">
         <v>0.8</v>
@@ -12798,7 +12804,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13210,7 +13216,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -13494,7 +13500,7 @@
         <v>1.67</v>
       </c>
       <c r="AP60">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ60">
         <v>1.44</v>
@@ -13622,7 +13628,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -13703,7 +13709,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ61">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR61">
         <v>1.23</v>
@@ -14034,7 +14040,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14240,7 +14246,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14446,7 +14452,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14652,7 +14658,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14858,7 +14864,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15270,7 +15276,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15888,7 +15894,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q72">
         <v>1.8</v>
@@ -15966,7 +15972,7 @@
         <v>1.67</v>
       </c>
       <c r="AP72">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ72">
         <v>0.9</v>
@@ -16300,7 +16306,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q74">
         <v>3.25</v>
@@ -16378,7 +16384,7 @@
         <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ74">
         <v>1.09</v>
@@ -16506,7 +16512,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16918,7 +16924,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17124,7 +17130,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17330,7 +17336,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17536,7 +17542,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -18232,7 +18238,7 @@
         <v>2.2</v>
       </c>
       <c r="AP83">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ83">
         <v>1.82</v>
@@ -18566,7 +18572,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18772,7 +18778,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18978,7 +18984,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19059,7 +19065,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ87">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR87">
         <v>1.51</v>
@@ -19390,7 +19396,7 @@
         <v>147</v>
       </c>
       <c r="P89" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q89">
         <v>3.5</v>
@@ -19596,7 +19602,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -20089,7 +20095,7 @@
         <v>1</v>
       </c>
       <c r="AQ92">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR92">
         <v>1.28</v>
@@ -20214,7 +20220,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20910,7 +20916,7 @@
         <v>1.75</v>
       </c>
       <c r="AP96">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ96">
         <v>1.4</v>
@@ -21038,7 +21044,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21656,7 +21662,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -22068,7 +22074,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22274,7 +22280,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23098,7 +23104,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23179,7 +23185,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ107">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR107">
         <v>1.23</v>
@@ -23510,7 +23516,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23591,7 +23597,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ109">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR109">
         <v>1.64</v>
@@ -23922,7 +23928,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24540,7 +24546,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -24824,7 +24830,7 @@
         <v>0.17</v>
       </c>
       <c r="AP115">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ115">
         <v>0.3</v>
@@ -25236,7 +25242,7 @@
         <v>0.67</v>
       </c>
       <c r="AP117">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ117">
         <v>0.7</v>
@@ -25570,7 +25576,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25776,7 +25782,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -25982,7 +25988,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26475,7 +26481,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ123">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR123">
         <v>1.48</v>
@@ -26600,7 +26606,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -26681,7 +26687,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ124">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR124">
         <v>1.91</v>
@@ -26806,7 +26812,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -27012,7 +27018,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q126">
         <v>6</v>
@@ -27218,7 +27224,7 @@
         <v>148</v>
       </c>
       <c r="P127" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q127">
         <v>2.6</v>
@@ -27630,7 +27636,7 @@
         <v>94</v>
       </c>
       <c r="P129" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q129">
         <v>3.4</v>
@@ -28042,7 +28048,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28532,7 +28538,7 @@
         <v>1.29</v>
       </c>
       <c r="AP133">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ133">
         <v>1.4</v>
@@ -28660,7 +28666,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -28866,7 +28872,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29072,7 +29078,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29153,7 +29159,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ136">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR136">
         <v>1.46</v>
@@ -29690,7 +29696,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q139">
         <v>3.15</v>
@@ -29771,7 +29777,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ139">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR139">
         <v>1.76</v>
@@ -29977,7 +29983,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ140">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR140">
         <v>1.42</v>
@@ -30102,7 +30108,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -30308,7 +30314,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q142">
         <v>3.75</v>
@@ -30720,7 +30726,7 @@
         <v>92</v>
       </c>
       <c r="P144" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -31132,7 +31138,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31544,7 +31550,7 @@
         <v>108</v>
       </c>
       <c r="P148" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q148">
         <v>3.25</v>
@@ -32162,7 +32168,7 @@
         <v>184</v>
       </c>
       <c r="P151" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q151">
         <v>3.2</v>
@@ -32449,7 +32455,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ152">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AR152">
         <v>0.89</v>
@@ -32780,7 +32786,7 @@
         <v>129</v>
       </c>
       <c r="P154" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -32861,7 +32867,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ154">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR154">
         <v>1.46</v>
@@ -33064,7 +33070,7 @@
         <v>1.63</v>
       </c>
       <c r="AP155">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ155">
         <v>1.6</v>
@@ -33192,7 +33198,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q156">
         <v>1.91</v>
@@ -33270,7 +33276,7 @@
         <v>1</v>
       </c>
       <c r="AP156">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ156">
         <v>0.8</v>
@@ -33398,7 +33404,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34222,7 +34228,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34428,7 +34434,7 @@
         <v>151</v>
       </c>
       <c r="P162" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -34634,7 +34640,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -35252,7 +35258,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35458,7 +35464,7 @@
         <v>92</v>
       </c>
       <c r="P167" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35664,7 +35670,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
@@ -35870,7 +35876,7 @@
         <v>192</v>
       </c>
       <c r="P169" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -36282,7 +36288,7 @@
         <v>194</v>
       </c>
       <c r="P171" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -36645,6 +36651,418 @@
       </c>
       <c r="BP172">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7364293</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45418.54166666666</v>
+      </c>
+      <c r="F173">
+        <v>21</v>
+      </c>
+      <c r="G173" t="s">
+        <v>70</v>
+      </c>
+      <c r="H173" t="s">
+        <v>85</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>2</v>
+      </c>
+      <c r="N173">
+        <v>2</v>
+      </c>
+      <c r="O173" t="s">
+        <v>92</v>
+      </c>
+      <c r="P173" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q173">
+        <v>4.8</v>
+      </c>
+      <c r="R173">
+        <v>2.16</v>
+      </c>
+      <c r="S173">
+        <v>2.92</v>
+      </c>
+      <c r="T173">
+        <v>1.55</v>
+      </c>
+      <c r="U173">
+        <v>2.3</v>
+      </c>
+      <c r="V173">
+        <v>3.5</v>
+      </c>
+      <c r="W173">
+        <v>1.25</v>
+      </c>
+      <c r="X173">
+        <v>10</v>
+      </c>
+      <c r="Y173">
+        <v>1.03</v>
+      </c>
+      <c r="Z173">
+        <v>4.3</v>
+      </c>
+      <c r="AA173">
+        <v>3.1</v>
+      </c>
+      <c r="AB173">
+        <v>2.14</v>
+      </c>
+      <c r="AC173">
+        <v>1.11</v>
+      </c>
+      <c r="AD173">
+        <v>8.6</v>
+      </c>
+      <c r="AE173">
+        <v>1.47</v>
+      </c>
+      <c r="AF173">
+        <v>3</v>
+      </c>
+      <c r="AG173">
+        <v>2.42</v>
+      </c>
+      <c r="AH173">
+        <v>1.66</v>
+      </c>
+      <c r="AI173">
+        <v>2.02</v>
+      </c>
+      <c r="AJ173">
+        <v>1.87</v>
+      </c>
+      <c r="AK173">
+        <v>1.83</v>
+      </c>
+      <c r="AL173">
+        <v>1.45</v>
+      </c>
+      <c r="AM173">
+        <v>1.28</v>
+      </c>
+      <c r="AN173">
+        <v>1.75</v>
+      </c>
+      <c r="AO173">
+        <v>1.67</v>
+      </c>
+      <c r="AP173">
+        <v>1.56</v>
+      </c>
+      <c r="AQ173">
+        <v>1.8</v>
+      </c>
+      <c r="AR173">
+        <v>1.47</v>
+      </c>
+      <c r="AS173">
+        <v>1.1</v>
+      </c>
+      <c r="AT173">
+        <v>2.57</v>
+      </c>
+      <c r="AU173">
+        <v>6</v>
+      </c>
+      <c r="AV173">
+        <v>5</v>
+      </c>
+      <c r="AW173">
+        <v>5</v>
+      </c>
+      <c r="AX173">
+        <v>5</v>
+      </c>
+      <c r="AY173">
+        <v>11</v>
+      </c>
+      <c r="AZ173">
+        <v>10</v>
+      </c>
+      <c r="BA173">
+        <v>5</v>
+      </c>
+      <c r="BB173">
+        <v>5</v>
+      </c>
+      <c r="BC173">
+        <v>10</v>
+      </c>
+      <c r="BD173">
+        <v>2.41</v>
+      </c>
+      <c r="BE173">
+        <v>7.36</v>
+      </c>
+      <c r="BF173">
+        <v>1.89</v>
+      </c>
+      <c r="BG173">
+        <v>1.38</v>
+      </c>
+      <c r="BH173">
+        <v>2.8</v>
+      </c>
+      <c r="BI173">
+        <v>1.67</v>
+      </c>
+      <c r="BJ173">
+        <v>2.16</v>
+      </c>
+      <c r="BK173">
+        <v>2.09</v>
+      </c>
+      <c r="BL173">
+        <v>1.71</v>
+      </c>
+      <c r="BM173">
+        <v>2.62</v>
+      </c>
+      <c r="BN173">
+        <v>1.42</v>
+      </c>
+      <c r="BO173">
+        <v>3.4</v>
+      </c>
+      <c r="BP173">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7364292</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45418.54166666666</v>
+      </c>
+      <c r="F174">
+        <v>21</v>
+      </c>
+      <c r="G174" t="s">
+        <v>78</v>
+      </c>
+      <c r="H174" t="s">
+        <v>82</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>2</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>3</v>
+      </c>
+      <c r="O174" t="s">
+        <v>195</v>
+      </c>
+      <c r="P174" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q174">
+        <v>2.25</v>
+      </c>
+      <c r="R174">
+        <v>2.1</v>
+      </c>
+      <c r="S174">
+        <v>5</v>
+      </c>
+      <c r="T174">
+        <v>1.43</v>
+      </c>
+      <c r="U174">
+        <v>2.66</v>
+      </c>
+      <c r="V174">
+        <v>3.24</v>
+      </c>
+      <c r="W174">
+        <v>1.31</v>
+      </c>
+      <c r="X174">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y174">
+        <v>1.06</v>
+      </c>
+      <c r="Z174">
+        <v>1.67</v>
+      </c>
+      <c r="AA174">
+        <v>3.4</v>
+      </c>
+      <c r="AB174">
+        <v>5</v>
+      </c>
+      <c r="AC174">
+        <v>1.03</v>
+      </c>
+      <c r="AD174">
+        <v>7.9</v>
+      </c>
+      <c r="AE174">
+        <v>1.38</v>
+      </c>
+      <c r="AF174">
+        <v>2.83</v>
+      </c>
+      <c r="AG174">
+        <v>2</v>
+      </c>
+      <c r="AH174">
+        <v>1.8</v>
+      </c>
+      <c r="AI174">
+        <v>1.91</v>
+      </c>
+      <c r="AJ174">
+        <v>1.8</v>
+      </c>
+      <c r="AK174">
+        <v>1.07</v>
+      </c>
+      <c r="AL174">
+        <v>1.21</v>
+      </c>
+      <c r="AM174">
+        <v>2.51</v>
+      </c>
+      <c r="AN174">
+        <v>2.11</v>
+      </c>
+      <c r="AO174">
+        <v>1.78</v>
+      </c>
+      <c r="AP174">
+        <v>2.2</v>
+      </c>
+      <c r="AQ174">
+        <v>1.6</v>
+      </c>
+      <c r="AR174">
+        <v>1.97</v>
+      </c>
+      <c r="AS174">
+        <v>1.47</v>
+      </c>
+      <c r="AT174">
+        <v>3.44</v>
+      </c>
+      <c r="AU174">
+        <v>8</v>
+      </c>
+      <c r="AV174">
+        <v>4</v>
+      </c>
+      <c r="AW174">
+        <v>10</v>
+      </c>
+      <c r="AX174">
+        <v>1</v>
+      </c>
+      <c r="AY174">
+        <v>18</v>
+      </c>
+      <c r="AZ174">
+        <v>5</v>
+      </c>
+      <c r="BA174">
+        <v>13</v>
+      </c>
+      <c r="BB174">
+        <v>3</v>
+      </c>
+      <c r="BC174">
+        <v>16</v>
+      </c>
+      <c r="BD174">
+        <v>1.45</v>
+      </c>
+      <c r="BE174">
+        <v>9.1</v>
+      </c>
+      <c r="BF174">
+        <v>3.14</v>
+      </c>
+      <c r="BG174">
+        <v>1.28</v>
+      </c>
+      <c r="BH174">
+        <v>3.2</v>
+      </c>
+      <c r="BI174">
+        <v>1.52</v>
+      </c>
+      <c r="BJ174">
+        <v>2.3</v>
+      </c>
+      <c r="BK174">
+        <v>1.88</v>
+      </c>
+      <c r="BL174">
+        <v>1.78</v>
+      </c>
+      <c r="BM174">
+        <v>2.45</v>
+      </c>
+      <c r="BN174">
+        <v>1.46</v>
+      </c>
+      <c r="BO174">
+        <v>3.34</v>
+      </c>
+      <c r="BP174">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="281">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -601,7 +601,10 @@
     <t>['26']</t>
   </si>
   <si>
-    <t>['76', '90+2']</t>
+    <t>['72', '90+2']</t>
+  </si>
+  <si>
+    <t>['21', '27', '39', '64']</t>
   </si>
   <si>
     <t>['16', '75']</t>
@@ -853,7 +856,7 @@
     <t>['45+7', '55', '74', '88', '90+6']</t>
   </si>
   <si>
-    <t>['49', '69']</t>
+    <t>['41', '77']</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP174"/>
+  <dimension ref="A1:BP175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1964,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ4">
         <v>1.8</v>
@@ -2298,7 +2301,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2710,7 +2713,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3122,7 +3125,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3534,7 +3537,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3740,7 +3743,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -3946,7 +3949,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4851,7 +4854,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ18">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4976,7 +4979,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5388,7 +5391,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5594,7 +5597,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5800,7 +5803,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -6212,7 +6215,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q25">
         <v>3.75</v>
@@ -6418,7 +6421,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6496,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ26">
         <v>0.8</v>
@@ -7242,7 +7245,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7323,7 +7326,7 @@
         <v>1</v>
       </c>
       <c r="AQ30">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR30">
         <v>1.5</v>
@@ -7448,7 +7451,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7654,7 +7657,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7860,7 +7863,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8066,7 +8069,7 @@
         <v>92</v>
       </c>
       <c r="P34" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -8478,7 +8481,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -8890,7 +8893,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9096,7 +9099,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9302,7 +9305,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9920,7 +9923,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10126,7 +10129,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10207,7 +10210,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ44">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR44">
         <v>1.33</v>
@@ -10332,7 +10335,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10950,7 +10953,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q48">
         <v>6.5</v>
@@ -11156,7 +11159,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11568,7 +11571,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11774,7 +11777,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11980,7 +11983,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12392,7 +12395,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12676,7 +12679,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ56">
         <v>1</v>
@@ -12804,7 +12807,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13216,7 +13219,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -13628,7 +13631,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -14040,7 +14043,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14246,7 +14249,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14452,7 +14455,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14658,7 +14661,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14864,7 +14867,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15276,7 +15279,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15894,7 +15897,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q72">
         <v>1.8</v>
@@ -16306,7 +16309,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q74">
         <v>3.25</v>
@@ -16512,7 +16515,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16924,7 +16927,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17130,7 +17133,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17336,7 +17339,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17542,7 +17545,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -18572,7 +18575,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18653,7 +18656,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ85">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR85">
         <v>0.83</v>
@@ -18778,7 +18781,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18984,7 +18987,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19396,7 +19399,7 @@
         <v>147</v>
       </c>
       <c r="P89" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q89">
         <v>3.5</v>
@@ -19602,7 +19605,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -20220,7 +20223,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20919,7 +20922,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ96">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR96">
         <v>2.02</v>
@@ -21044,7 +21047,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21662,7 +21665,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -22074,7 +22077,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22280,7 +22283,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23104,7 +23107,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23388,7 +23391,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ108">
         <v>0.9</v>
@@ -23516,7 +23519,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23928,7 +23931,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24546,7 +24549,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -24627,7 +24630,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ114">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR114">
         <v>1.07</v>
@@ -25576,7 +25579,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25782,7 +25785,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -25988,7 +25991,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26606,7 +26609,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -26812,7 +26815,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -27018,7 +27021,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q126">
         <v>6</v>
@@ -27224,7 +27227,7 @@
         <v>148</v>
       </c>
       <c r="P127" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q127">
         <v>2.6</v>
@@ -27636,7 +27639,7 @@
         <v>94</v>
       </c>
       <c r="P129" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q129">
         <v>3.4</v>
@@ -28048,7 +28051,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28129,7 +28132,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ131">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR131">
         <v>1.35</v>
@@ -28666,7 +28669,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -28744,7 +28747,7 @@
         <v>1.71</v>
       </c>
       <c r="AP134">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ134">
         <v>1.6</v>
@@ -28872,7 +28875,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29078,7 +29081,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29365,7 +29368,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ137">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR137">
         <v>1.74</v>
@@ -29696,7 +29699,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q139">
         <v>3.15</v>
@@ -30108,7 +30111,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -30314,7 +30317,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q142">
         <v>3.75</v>
@@ -30726,7 +30729,7 @@
         <v>92</v>
       </c>
       <c r="P144" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -31138,7 +31141,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31219,7 +31222,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ146">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR146">
         <v>1.68</v>
@@ -31550,7 +31553,7 @@
         <v>108</v>
       </c>
       <c r="P148" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q148">
         <v>3.25</v>
@@ -32168,7 +32171,7 @@
         <v>184</v>
       </c>
       <c r="P151" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q151">
         <v>3.2</v>
@@ -32786,7 +32789,7 @@
         <v>129</v>
       </c>
       <c r="P154" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33198,7 +33201,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q156">
         <v>1.91</v>
@@ -33404,7 +33407,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33691,7 +33694,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ158">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR158">
         <v>1.34</v>
@@ -34228,7 +34231,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34434,7 +34437,7 @@
         <v>151</v>
       </c>
       <c r="P162" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -34640,7 +34643,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -35258,7 +35261,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35464,7 +35467,7 @@
         <v>92</v>
       </c>
       <c r="P167" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35670,7 +35673,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
@@ -35876,7 +35879,7 @@
         <v>192</v>
       </c>
       <c r="P169" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -36160,7 +36163,7 @@
         <v>1.63</v>
       </c>
       <c r="AP170">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ170">
         <v>1.44</v>
@@ -36288,7 +36291,7 @@
         <v>194</v>
       </c>
       <c r="P171" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -36682,10 +36685,10 @@
         <v>0</v>
       </c>
       <c r="J173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L173">
         <v>0</v>
@@ -36700,7 +36703,7 @@
         <v>92</v>
       </c>
       <c r="P173" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q173">
         <v>4.8</v>
@@ -36906,7 +36909,7 @@
         <v>195</v>
       </c>
       <c r="P174" t="s">
-        <v>241</v>
+        <v>139</v>
       </c>
       <c r="Q174">
         <v>2.25</v>
@@ -37063,6 +37066,212 @@
       </c>
       <c r="BP174">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7217668</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45419.54166666666</v>
+      </c>
+      <c r="F175">
+        <v>9</v>
+      </c>
+      <c r="G175" t="s">
+        <v>72</v>
+      </c>
+      <c r="H175" t="s">
+        <v>77</v>
+      </c>
+      <c r="I175">
+        <v>3</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>3</v>
+      </c>
+      <c r="L175">
+        <v>4</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+      <c r="N175">
+        <v>5</v>
+      </c>
+      <c r="O175" t="s">
+        <v>196</v>
+      </c>
+      <c r="P175" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q175">
+        <v>1.91</v>
+      </c>
+      <c r="R175">
+        <v>2.38</v>
+      </c>
+      <c r="S175">
+        <v>6.5</v>
+      </c>
+      <c r="T175">
+        <v>1.34</v>
+      </c>
+      <c r="U175">
+        <v>3.1</v>
+      </c>
+      <c r="V175">
+        <v>2.6</v>
+      </c>
+      <c r="W175">
+        <v>1.46</v>
+      </c>
+      <c r="X175">
+        <v>6.3</v>
+      </c>
+      <c r="Y175">
+        <v>1.1</v>
+      </c>
+      <c r="Z175">
+        <v>1.4</v>
+      </c>
+      <c r="AA175">
+        <v>4.33</v>
+      </c>
+      <c r="AB175">
+        <v>7</v>
+      </c>
+      <c r="AC175">
+        <v>1.04</v>
+      </c>
+      <c r="AD175">
+        <v>10.25</v>
+      </c>
+      <c r="AE175">
+        <v>1.22</v>
+      </c>
+      <c r="AF175">
+        <v>3.65</v>
+      </c>
+      <c r="AG175">
+        <v>1.75</v>
+      </c>
+      <c r="AH175">
+        <v>2.05</v>
+      </c>
+      <c r="AI175">
+        <v>2</v>
+      </c>
+      <c r="AJ175">
+        <v>1.73</v>
+      </c>
+      <c r="AK175">
+        <v>1.04</v>
+      </c>
+      <c r="AL175">
+        <v>1.13</v>
+      </c>
+      <c r="AM175">
+        <v>3</v>
+      </c>
+      <c r="AN175">
+        <v>2.33</v>
+      </c>
+      <c r="AO175">
+        <v>1.4</v>
+      </c>
+      <c r="AP175">
+        <v>2.43</v>
+      </c>
+      <c r="AQ175">
+        <v>1.27</v>
+      </c>
+      <c r="AR175">
+        <v>1.72</v>
+      </c>
+      <c r="AS175">
+        <v>1.19</v>
+      </c>
+      <c r="AT175">
+        <v>2.91</v>
+      </c>
+      <c r="AU175">
+        <v>8</v>
+      </c>
+      <c r="AV175">
+        <v>5</v>
+      </c>
+      <c r="AW175">
+        <v>5</v>
+      </c>
+      <c r="AX175">
+        <v>3</v>
+      </c>
+      <c r="AY175">
+        <v>13</v>
+      </c>
+      <c r="AZ175">
+        <v>8</v>
+      </c>
+      <c r="BA175">
+        <v>3</v>
+      </c>
+      <c r="BB175">
+        <v>6</v>
+      </c>
+      <c r="BC175">
+        <v>9</v>
+      </c>
+      <c r="BD175">
+        <v>1.19</v>
+      </c>
+      <c r="BE175">
+        <v>11.25</v>
+      </c>
+      <c r="BF175">
+        <v>5.3</v>
+      </c>
+      <c r="BG175">
+        <v>1.23</v>
+      </c>
+      <c r="BH175">
+        <v>3.56</v>
+      </c>
+      <c r="BI175">
+        <v>1.48</v>
+      </c>
+      <c r="BJ175">
+        <v>2.6</v>
+      </c>
+      <c r="BK175">
+        <v>1.81</v>
+      </c>
+      <c r="BL175">
+        <v>1.99</v>
+      </c>
+      <c r="BM175">
+        <v>2.3</v>
+      </c>
+      <c r="BN175">
+        <v>1.6</v>
+      </c>
+      <c r="BO175">
+        <v>2.98</v>
+      </c>
+      <c r="BP175">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="283">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -607,6 +607,9 @@
     <t>['21', '27', '39', '64']</t>
   </si>
   <si>
+    <t>['90+8']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -857,6 +860,9 @@
   </si>
   <si>
     <t>['41', '77']</t>
+  </si>
+  <si>
+    <t>['15', '61']</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP175"/>
+  <dimension ref="A1:BP177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2301,7 +2307,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2585,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ7">
         <v>1.44</v>
@@ -2713,7 +2719,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3125,7 +3131,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3537,7 +3543,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3743,7 +3749,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -3949,7 +3955,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4030,7 +4036,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ14">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4442,7 +4448,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ16">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4851,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ18">
         <v>1.27</v>
@@ -4979,7 +4985,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5263,7 +5269,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ20">
         <v>1.09</v>
@@ -5391,7 +5397,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5597,7 +5603,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5803,7 +5809,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -6215,7 +6221,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q25">
         <v>3.75</v>
@@ -6421,7 +6427,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -7120,7 +7126,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ29">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7245,7 +7251,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7451,7 +7457,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7657,7 +7663,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7863,7 +7869,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -7944,7 +7950,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ33">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR33">
         <v>1.31</v>
@@ -8069,7 +8075,7 @@
         <v>92</v>
       </c>
       <c r="P34" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -8353,7 +8359,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ35">
         <v>0.7</v>
@@ -8481,7 +8487,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -8893,7 +8899,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9099,7 +9105,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9305,7 +9311,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9923,7 +9929,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10129,7 +10135,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10207,7 +10213,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ44">
         <v>1.27</v>
@@ -10335,7 +10341,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10416,7 +10422,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ45">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR45">
         <v>1.58</v>
@@ -10828,7 +10834,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ47">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR47">
         <v>1.07</v>
@@ -10953,7 +10959,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q48">
         <v>6.5</v>
@@ -11159,7 +11165,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11571,7 +11577,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11649,7 +11655,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ51">
         <v>1.4</v>
@@ -11777,7 +11783,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11983,7 +11989,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12395,7 +12401,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12807,7 +12813,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13094,7 +13100,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ58">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR58">
         <v>1.7</v>
@@ -13219,7 +13225,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -13631,7 +13637,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -14043,7 +14049,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14249,7 +14255,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14327,7 +14333,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ64">
         <v>0.7</v>
@@ -14455,7 +14461,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14661,7 +14667,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14867,7 +14873,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14945,7 +14951,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ67">
         <v>0.8</v>
@@ -15154,7 +15160,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ68">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR68">
         <v>1.07</v>
@@ -15279,7 +15285,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15897,7 +15903,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q72">
         <v>1.8</v>
@@ -16309,7 +16315,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q74">
         <v>3.25</v>
@@ -16515,7 +16521,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16596,7 +16602,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ75">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR75">
         <v>1.39</v>
@@ -16927,7 +16933,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17133,7 +17139,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17339,7 +17345,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17545,7 +17551,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17626,7 +17632,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ80">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR80">
         <v>2.17</v>
@@ -17829,7 +17835,7 @@
         <v>1.75</v>
       </c>
       <c r="AP81">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ81">
         <v>1.4</v>
@@ -18244,7 +18250,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ83">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR83">
         <v>1.49</v>
@@ -18575,7 +18581,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18781,7 +18787,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18987,7 +18993,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19271,7 +19277,7 @@
         <v>1.2</v>
       </c>
       <c r="AP88">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ88">
         <v>0.8</v>
@@ -19399,7 +19405,7 @@
         <v>147</v>
       </c>
       <c r="P89" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q89">
         <v>3.5</v>
@@ -19605,7 +19611,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -20223,7 +20229,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20301,7 +20307,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ93">
         <v>1.22</v>
@@ -20716,7 +20722,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ95">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR95">
         <v>1.2</v>
@@ -21047,7 +21053,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21331,7 +21337,7 @@
         <v>1.4</v>
       </c>
       <c r="AP98">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ98">
         <v>1</v>
@@ -21665,7 +21671,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -22077,7 +22083,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22283,7 +22289,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23107,7 +23113,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23519,7 +23525,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23597,7 +23603,7 @@
         <v>2.25</v>
       </c>
       <c r="AP109">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ109">
         <v>1.6</v>
@@ -23806,7 +23812,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ110">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR110">
         <v>1.52</v>
@@ -23931,7 +23937,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24421,7 +24427,7 @@
         <v>0.86</v>
       </c>
       <c r="AP113">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ113">
         <v>0.9</v>
@@ -24549,7 +24555,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -24836,7 +24842,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ115">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR115">
         <v>1.53</v>
@@ -25454,7 +25460,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ118">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR118">
         <v>1.16</v>
@@ -25579,7 +25585,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25785,7 +25791,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -25991,7 +25997,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26275,7 +26281,7 @@
         <v>1.14</v>
       </c>
       <c r="AP122">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ122">
         <v>1.22</v>
@@ -26609,7 +26615,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -26815,7 +26821,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -27021,7 +27027,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q126">
         <v>6</v>
@@ -27227,7 +27233,7 @@
         <v>148</v>
       </c>
       <c r="P127" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q127">
         <v>2.6</v>
@@ -27308,7 +27314,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ127">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR127">
         <v>1.82</v>
@@ -27511,7 +27517,7 @@
         <v>1</v>
       </c>
       <c r="AP128">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ128">
         <v>1</v>
@@ -27639,7 +27645,7 @@
         <v>94</v>
       </c>
       <c r="P129" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q129">
         <v>3.4</v>
@@ -27926,7 +27932,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ130">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR130">
         <v>1.42</v>
@@ -28051,7 +28057,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28669,7 +28675,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -28875,7 +28881,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29081,7 +29087,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29699,7 +29705,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q139">
         <v>3.15</v>
@@ -29983,7 +29989,7 @@
         <v>2</v>
       </c>
       <c r="AP140">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ140">
         <v>1.6</v>
@@ -30111,7 +30117,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -30317,7 +30323,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q142">
         <v>3.75</v>
@@ -30729,7 +30735,7 @@
         <v>92</v>
       </c>
       <c r="P144" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -31016,7 +31022,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ145">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR145">
         <v>1.15</v>
@@ -31141,7 +31147,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31553,7 +31559,7 @@
         <v>108</v>
       </c>
       <c r="P148" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q148">
         <v>3.25</v>
@@ -31631,10 +31637,10 @@
         <v>1.56</v>
       </c>
       <c r="AP148">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ148">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR148">
         <v>1.4</v>
@@ -32171,7 +32177,7 @@
         <v>184</v>
       </c>
       <c r="P151" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q151">
         <v>3.2</v>
@@ -32661,7 +32667,7 @@
         <v>1.13</v>
       </c>
       <c r="AP153">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ153">
         <v>0.9</v>
@@ -32789,7 +32795,7 @@
         <v>129</v>
       </c>
       <c r="P154" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33201,7 +33207,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q156">
         <v>1.91</v>
@@ -33407,7 +33413,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33488,7 +33494,7 @@
         <v>1</v>
       </c>
       <c r="AQ157">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AR157">
         <v>1.29</v>
@@ -33900,7 +33906,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ159">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AR159">
         <v>1.5</v>
@@ -34231,7 +34237,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34437,7 +34443,7 @@
         <v>151</v>
       </c>
       <c r="P162" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -34515,7 +34521,7 @@
         <v>1.67</v>
       </c>
       <c r="AP162">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AQ162">
         <v>1.86</v>
@@ -34643,7 +34649,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -35261,7 +35267,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35467,7 +35473,7 @@
         <v>92</v>
       </c>
       <c r="P167" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35673,7 +35679,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
@@ -35879,7 +35885,7 @@
         <v>192</v>
       </c>
       <c r="P169" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -36291,7 +36297,7 @@
         <v>194</v>
       </c>
       <c r="P171" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -36575,7 +36581,7 @@
         <v>1.14</v>
       </c>
       <c r="AP172">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ172">
         <v>1</v>
@@ -36703,7 +36709,7 @@
         <v>92</v>
       </c>
       <c r="P173" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q173">
         <v>4.8</v>
@@ -37272,6 +37278,418 @@
       </c>
       <c r="BP175">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7364294</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45421.4375</v>
+      </c>
+      <c r="F176">
+        <v>22</v>
+      </c>
+      <c r="G176" t="s">
+        <v>86</v>
+      </c>
+      <c r="H176" t="s">
+        <v>73</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>1</v>
+      </c>
+      <c r="O176" t="s">
+        <v>197</v>
+      </c>
+      <c r="P176" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q176">
+        <v>2.38</v>
+      </c>
+      <c r="R176">
+        <v>1.95</v>
+      </c>
+      <c r="S176">
+        <v>6</v>
+      </c>
+      <c r="T176">
+        <v>1.5</v>
+      </c>
+      <c r="U176">
+        <v>2.55</v>
+      </c>
+      <c r="V176">
+        <v>3.16</v>
+      </c>
+      <c r="W176">
+        <v>1.31</v>
+      </c>
+      <c r="X176">
+        <v>7.9</v>
+      </c>
+      <c r="Y176">
+        <v>1.05</v>
+      </c>
+      <c r="Z176">
+        <v>1.65</v>
+      </c>
+      <c r="AA176">
+        <v>3.25</v>
+      </c>
+      <c r="AB176">
+        <v>5.25</v>
+      </c>
+      <c r="AC176">
+        <v>1.09</v>
+      </c>
+      <c r="AD176">
+        <v>6.5</v>
+      </c>
+      <c r="AE176">
+        <v>1.48</v>
+      </c>
+      <c r="AF176">
+        <v>2.55</v>
+      </c>
+      <c r="AG176">
+        <v>2.5</v>
+      </c>
+      <c r="AH176">
+        <v>1.5</v>
+      </c>
+      <c r="AI176">
+        <v>2.5</v>
+      </c>
+      <c r="AJ176">
+        <v>1.5</v>
+      </c>
+      <c r="AK176">
+        <v>1.09</v>
+      </c>
+      <c r="AL176">
+        <v>1.24</v>
+      </c>
+      <c r="AM176">
+        <v>2.26</v>
+      </c>
+      <c r="AN176">
+        <v>1.27</v>
+      </c>
+      <c r="AO176">
+        <v>0.3</v>
+      </c>
+      <c r="AP176">
+        <v>1.42</v>
+      </c>
+      <c r="AQ176">
+        <v>0.27</v>
+      </c>
+      <c r="AR176">
+        <v>1.36</v>
+      </c>
+      <c r="AS176">
+        <v>0.99</v>
+      </c>
+      <c r="AT176">
+        <v>2.35</v>
+      </c>
+      <c r="AU176">
+        <v>8</v>
+      </c>
+      <c r="AV176">
+        <v>5</v>
+      </c>
+      <c r="AW176">
+        <v>5</v>
+      </c>
+      <c r="AX176">
+        <v>3</v>
+      </c>
+      <c r="AY176">
+        <v>13</v>
+      </c>
+      <c r="AZ176">
+        <v>8</v>
+      </c>
+      <c r="BA176">
+        <v>5</v>
+      </c>
+      <c r="BB176">
+        <v>3</v>
+      </c>
+      <c r="BC176">
+        <v>8</v>
+      </c>
+      <c r="BD176">
+        <v>1.37</v>
+      </c>
+      <c r="BE176">
+        <v>8.6</v>
+      </c>
+      <c r="BF176">
+        <v>3.68</v>
+      </c>
+      <c r="BG176">
+        <v>1.28</v>
+      </c>
+      <c r="BH176">
+        <v>3.18</v>
+      </c>
+      <c r="BI176">
+        <v>1.58</v>
+      </c>
+      <c r="BJ176">
+        <v>2.34</v>
+      </c>
+      <c r="BK176">
+        <v>1.97</v>
+      </c>
+      <c r="BL176">
+        <v>1.83</v>
+      </c>
+      <c r="BM176">
+        <v>2.54</v>
+      </c>
+      <c r="BN176">
+        <v>1.5</v>
+      </c>
+      <c r="BO176">
+        <v>3.34</v>
+      </c>
+      <c r="BP176">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7364295</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45421.54166666666</v>
+      </c>
+      <c r="F177">
+        <v>22</v>
+      </c>
+      <c r="G177" t="s">
+        <v>75</v>
+      </c>
+      <c r="H177" t="s">
+        <v>71</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>1</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <v>2</v>
+      </c>
+      <c r="N177">
+        <v>3</v>
+      </c>
+      <c r="O177" t="s">
+        <v>129</v>
+      </c>
+      <c r="P177" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q177">
+        <v>3.25</v>
+      </c>
+      <c r="R177">
+        <v>1.91</v>
+      </c>
+      <c r="S177">
+        <v>3.75</v>
+      </c>
+      <c r="T177">
+        <v>1.62</v>
+      </c>
+      <c r="U177">
+        <v>2.26</v>
+      </c>
+      <c r="V177">
+        <v>3.9</v>
+      </c>
+      <c r="W177">
+        <v>1.23</v>
+      </c>
+      <c r="X177">
+        <v>11</v>
+      </c>
+      <c r="Y177">
+        <v>1.02</v>
+      </c>
+      <c r="Z177">
+        <v>2.55</v>
+      </c>
+      <c r="AA177">
+        <v>2.75</v>
+      </c>
+      <c r="AB177">
+        <v>3</v>
+      </c>
+      <c r="AC177">
+        <v>1.08</v>
+      </c>
+      <c r="AD177">
+        <v>5.8</v>
+      </c>
+      <c r="AE177">
+        <v>1.54</v>
+      </c>
+      <c r="AF177">
+        <v>2.25</v>
+      </c>
+      <c r="AG177">
+        <v>2.63</v>
+      </c>
+      <c r="AH177">
+        <v>1.44</v>
+      </c>
+      <c r="AI177">
+        <v>2.1</v>
+      </c>
+      <c r="AJ177">
+        <v>1.67</v>
+      </c>
+      <c r="AK177">
+        <v>1.28</v>
+      </c>
+      <c r="AL177">
+        <v>1.48</v>
+      </c>
+      <c r="AM177">
+        <v>1.45</v>
+      </c>
+      <c r="AN177">
+        <v>2.1</v>
+      </c>
+      <c r="AO177">
+        <v>1.82</v>
+      </c>
+      <c r="AP177">
+        <v>1.91</v>
+      </c>
+      <c r="AQ177">
+        <v>1.92</v>
+      </c>
+      <c r="AR177">
+        <v>1.5</v>
+      </c>
+      <c r="AS177">
+        <v>1.33</v>
+      </c>
+      <c r="AT177">
+        <v>2.83</v>
+      </c>
+      <c r="AU177">
+        <v>6</v>
+      </c>
+      <c r="AV177">
+        <v>3</v>
+      </c>
+      <c r="AW177">
+        <v>2</v>
+      </c>
+      <c r="AX177">
+        <v>7</v>
+      </c>
+      <c r="AY177">
+        <v>8</v>
+      </c>
+      <c r="AZ177">
+        <v>10</v>
+      </c>
+      <c r="BA177">
+        <v>3</v>
+      </c>
+      <c r="BB177">
+        <v>4</v>
+      </c>
+      <c r="BC177">
+        <v>7</v>
+      </c>
+      <c r="BD177">
+        <v>1.82</v>
+      </c>
+      <c r="BE177">
+        <v>7.1</v>
+      </c>
+      <c r="BF177">
+        <v>2.34</v>
+      </c>
+      <c r="BG177">
+        <v>1.25</v>
+      </c>
+      <c r="BH177">
+        <v>3.42</v>
+      </c>
+      <c r="BI177">
+        <v>1.54</v>
+      </c>
+      <c r="BJ177">
+        <v>2.42</v>
+      </c>
+      <c r="BK177">
+        <v>1.91</v>
+      </c>
+      <c r="BL177">
+        <v>1.89</v>
+      </c>
+      <c r="BM177">
+        <v>2.41</v>
+      </c>
+      <c r="BN177">
+        <v>1.55</v>
+      </c>
+      <c r="BO177">
+        <v>3.28</v>
+      </c>
+      <c r="BP177">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="286">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -610,6 +610,12 @@
     <t>['90+8']</t>
   </si>
   <si>
+    <t>['4', '40']</t>
+  </si>
+  <si>
+    <t>['7']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -863,6 +869,9 @@
   </si>
   <si>
     <t>['15', '61']</t>
+  </si>
+  <si>
+    <t>['44', '45+6']</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP177"/>
+  <dimension ref="A1:BP180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1564,7 +1573,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ2">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2307,7 +2316,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2719,7 +2728,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3131,7 +3140,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3543,7 +3552,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3749,7 +3758,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -3955,7 +3964,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4033,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ14">
         <v>0.27</v>
@@ -4242,7 +4251,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ15">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4445,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ16">
         <v>1.92</v>
@@ -4654,7 +4663,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ17">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4985,7 +4994,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5397,7 +5406,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5603,7 +5612,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5809,7 +5818,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -6221,7 +6230,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q25">
         <v>3.75</v>
@@ -6427,7 +6436,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6920,7 +6929,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ28">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR28">
         <v>1.47</v>
@@ -7123,7 +7132,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ29">
         <v>0.27</v>
@@ -7251,7 +7260,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7457,7 +7466,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7663,7 +7672,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7744,7 +7753,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ32">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR32">
         <v>0.38</v>
@@ -7869,7 +7878,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8075,7 +8084,7 @@
         <v>92</v>
       </c>
       <c r="P34" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -8153,7 +8162,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ34">
         <v>2.38</v>
@@ -8362,7 +8371,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ35">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR35">
         <v>1.17</v>
@@ -8487,7 +8496,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -8899,7 +8908,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9105,7 +9114,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9311,7 +9320,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9929,7 +9938,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10135,7 +10144,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10341,7 +10350,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10625,7 +10634,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ46">
         <v>2.38</v>
@@ -10831,7 +10840,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ47">
         <v>0.27</v>
@@ -10959,7 +10968,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q48">
         <v>6.5</v>
@@ -11165,7 +11174,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11246,7 +11255,7 @@
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR49">
         <v>1.3</v>
@@ -11449,7 +11458,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ50">
         <v>1.6</v>
@@ -11577,7 +11586,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11658,7 +11667,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ51">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR51">
         <v>1.33</v>
@@ -11783,7 +11792,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11864,7 +11873,7 @@
         <v>1.9</v>
       </c>
       <c r="AQ52">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR52">
         <v>1.27</v>
@@ -11989,7 +11998,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12067,7 +12076,7 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ53">
         <v>1.86</v>
@@ -12273,7 +12282,7 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ54">
         <v>1.86</v>
@@ -12401,7 +12410,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12813,7 +12822,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -12891,7 +12900,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -13225,7 +13234,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -13637,7 +13646,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -14049,7 +14058,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14255,7 +14264,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14336,7 +14345,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ64">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR64">
         <v>1.58</v>
@@ -14461,7 +14470,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14542,7 +14551,7 @@
         <v>1</v>
       </c>
       <c r="AQ65">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR65">
         <v>1.25</v>
@@ -14667,7 +14676,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14745,7 +14754,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ66">
         <v>1.6</v>
@@ -14873,7 +14882,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14954,7 +14963,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ67">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR67">
         <v>1.54</v>
@@ -15285,7 +15294,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15569,7 +15578,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ70">
         <v>1.22</v>
@@ -15903,7 +15912,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q72">
         <v>1.8</v>
@@ -16315,7 +16324,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q74">
         <v>3.25</v>
@@ -16521,7 +16530,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16933,7 +16942,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17011,7 +17020,7 @@
         <v>0.75</v>
       </c>
       <c r="AP77">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ77">
         <v>1.6</v>
@@ -17139,7 +17148,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17220,7 +17229,7 @@
         <v>1</v>
       </c>
       <c r="AQ78">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR78">
         <v>1.22</v>
@@ -17345,7 +17354,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17426,7 +17435,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ79">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR79">
         <v>1.49</v>
@@ -17551,7 +17560,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17838,7 +17847,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ81">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR81">
         <v>1.59</v>
@@ -18581,7 +18590,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18787,7 +18796,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18993,7 +19002,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19071,7 +19080,7 @@
         <v>1.5</v>
       </c>
       <c r="AP87">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ87">
         <v>1.8</v>
@@ -19280,7 +19289,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ88">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR88">
         <v>1.62</v>
@@ -19405,7 +19414,7 @@
         <v>147</v>
       </c>
       <c r="P89" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q89">
         <v>3.5</v>
@@ -19486,7 +19495,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ89">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR89">
         <v>1.45</v>
@@ -19611,7 +19620,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -20229,7 +20238,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -21053,7 +21062,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21131,7 +21140,7 @@
         <v>0.83</v>
       </c>
       <c r="AP97">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ97">
         <v>1.09</v>
@@ -21543,7 +21552,7 @@
         <v>1.8</v>
       </c>
       <c r="AP99">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ99">
         <v>1.44</v>
@@ -21671,7 +21680,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -21752,7 +21761,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ100">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR100">
         <v>0.96</v>
@@ -22083,7 +22092,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22289,7 +22298,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22370,7 +22379,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ103">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR103">
         <v>1.37</v>
@@ -22576,7 +22585,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ104">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR104">
         <v>1.48</v>
@@ -22779,7 +22788,7 @@
         <v>0.33</v>
       </c>
       <c r="AP105">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ105">
         <v>0.8</v>
@@ -23113,7 +23122,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23525,7 +23534,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23937,7 +23946,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24018,7 +24027,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ111">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR111">
         <v>1.38</v>
@@ -24221,7 +24230,7 @@
         <v>0.86</v>
       </c>
       <c r="AP112">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ112">
         <v>1.09</v>
@@ -24555,7 +24564,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -25254,7 +25263,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ117">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR117">
         <v>2.07</v>
@@ -25457,7 +25466,7 @@
         <v>1.71</v>
       </c>
       <c r="AP118">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ118">
         <v>1.92</v>
@@ -25585,7 +25594,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25791,7 +25800,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -25997,7 +26006,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26615,7 +26624,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -26821,7 +26830,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -26899,7 +26908,7 @@
         <v>1.33</v>
       </c>
       <c r="AP125">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ125">
         <v>1</v>
@@ -27027,7 +27036,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q126">
         <v>6</v>
@@ -27233,7 +27242,7 @@
         <v>148</v>
       </c>
       <c r="P127" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q127">
         <v>2.6</v>
@@ -27311,7 +27320,7 @@
         <v>1.63</v>
       </c>
       <c r="AP127">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ127">
         <v>1.92</v>
@@ -27645,7 +27654,7 @@
         <v>94</v>
       </c>
       <c r="P129" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q129">
         <v>3.4</v>
@@ -27723,7 +27732,7 @@
         <v>0.75</v>
       </c>
       <c r="AP129">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ129">
         <v>1.09</v>
@@ -28057,7 +28066,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28344,7 +28353,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ132">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR132">
         <v>1.11</v>
@@ -28550,7 +28559,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ133">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR133">
         <v>1.99</v>
@@ -28675,7 +28684,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -28881,7 +28890,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -28959,7 +28968,7 @@
         <v>2</v>
       </c>
       <c r="AP135">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ135">
         <v>2.38</v>
@@ -29087,7 +29096,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29705,7 +29714,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q139">
         <v>3.15</v>
@@ -29783,7 +29792,7 @@
         <v>1.57</v>
       </c>
       <c r="AP139">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ139">
         <v>1.8</v>
@@ -30117,7 +30126,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -30323,7 +30332,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q142">
         <v>3.75</v>
@@ -30607,7 +30616,7 @@
         <v>0.88</v>
       </c>
       <c r="AP143">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ143">
         <v>1</v>
@@ -30735,7 +30744,7 @@
         <v>92</v>
       </c>
       <c r="P144" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -30816,7 +30825,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ144">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR144">
         <v>1.47</v>
@@ -31147,7 +31156,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31225,7 +31234,7 @@
         <v>1.63</v>
       </c>
       <c r="AP146">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ146">
         <v>1.27</v>
@@ -31431,10 +31440,10 @@
         <v>0.75</v>
       </c>
       <c r="AP147">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ147">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR147">
         <v>1.15</v>
@@ -31559,7 +31568,7 @@
         <v>108</v>
       </c>
       <c r="P148" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q148">
         <v>3.25</v>
@@ -32177,7 +32186,7 @@
         <v>184</v>
       </c>
       <c r="P151" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q151">
         <v>3.2</v>
@@ -32795,7 +32804,7 @@
         <v>129</v>
       </c>
       <c r="P154" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33207,7 +33216,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q156">
         <v>1.91</v>
@@ -33288,7 +33297,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ156">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR156">
         <v>2.03</v>
@@ -33413,7 +33422,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33697,7 +33706,7 @@
         <v>1.56</v>
       </c>
       <c r="AP158">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ158">
         <v>1.27</v>
@@ -34237,7 +34246,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34315,10 +34324,10 @@
         <v>0.67</v>
       </c>
       <c r="AP161">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AQ161">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR161">
         <v>1.63</v>
@@ -34443,7 +34452,7 @@
         <v>151</v>
       </c>
       <c r="P162" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -34649,7 +34658,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -34936,7 +34945,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ164">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR164">
         <v>1.65</v>
@@ -35139,10 +35148,10 @@
         <v>1.44</v>
       </c>
       <c r="AP165">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ165">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR165">
         <v>1.13</v>
@@ -35267,7 +35276,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35473,7 +35482,7 @@
         <v>92</v>
       </c>
       <c r="P167" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35679,7 +35688,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
@@ -35885,7 +35894,7 @@
         <v>192</v>
       </c>
       <c r="P169" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -36297,7 +36306,7 @@
         <v>194</v>
       </c>
       <c r="P171" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -36709,7 +36718,7 @@
         <v>92</v>
       </c>
       <c r="P173" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q173">
         <v>4.8</v>
@@ -37533,7 +37542,7 @@
         <v>129</v>
       </c>
       <c r="P177" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q177">
         <v>3.25</v>
@@ -37690,6 +37699,624 @@
       </c>
       <c r="BP177">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7364297</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45422.41666666666</v>
+      </c>
+      <c r="F178">
+        <v>22</v>
+      </c>
+      <c r="G178" t="s">
+        <v>87</v>
+      </c>
+      <c r="H178" t="s">
+        <v>70</v>
+      </c>
+      <c r="I178">
+        <v>2</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <v>3</v>
+      </c>
+      <c r="L178">
+        <v>2</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>3</v>
+      </c>
+      <c r="O178" t="s">
+        <v>198</v>
+      </c>
+      <c r="P178" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q178">
+        <v>2.5</v>
+      </c>
+      <c r="R178">
+        <v>2.1</v>
+      </c>
+      <c r="S178">
+        <v>4.33</v>
+      </c>
+      <c r="T178">
+        <v>1.5</v>
+      </c>
+      <c r="U178">
+        <v>2.4</v>
+      </c>
+      <c r="V178">
+        <v>3.2</v>
+      </c>
+      <c r="W178">
+        <v>1.3</v>
+      </c>
+      <c r="X178">
+        <v>9</v>
+      </c>
+      <c r="Y178">
+        <v>1.04</v>
+      </c>
+      <c r="Z178">
+        <v>1.85</v>
+      </c>
+      <c r="AA178">
+        <v>3.2</v>
+      </c>
+      <c r="AB178">
+        <v>4.2</v>
+      </c>
+      <c r="AC178">
+        <v>1.09</v>
+      </c>
+      <c r="AD178">
+        <v>6.5</v>
+      </c>
+      <c r="AE178">
+        <v>1.44</v>
+      </c>
+      <c r="AF178">
+        <v>2.65</v>
+      </c>
+      <c r="AG178">
+        <v>2.05</v>
+      </c>
+      <c r="AH178">
+        <v>1.75</v>
+      </c>
+      <c r="AI178">
+        <v>1.83</v>
+      </c>
+      <c r="AJ178">
+        <v>1.83</v>
+      </c>
+      <c r="AK178">
+        <v>1.21</v>
+      </c>
+      <c r="AL178">
+        <v>1.3</v>
+      </c>
+      <c r="AM178">
+        <v>1.6</v>
+      </c>
+      <c r="AN178">
+        <v>1.7</v>
+      </c>
+      <c r="AO178">
+        <v>1.4</v>
+      </c>
+      <c r="AP178">
+        <v>1.82</v>
+      </c>
+      <c r="AQ178">
+        <v>1.27</v>
+      </c>
+      <c r="AR178">
+        <v>1.64</v>
+      </c>
+      <c r="AS178">
+        <v>1.18</v>
+      </c>
+      <c r="AT178">
+        <v>2.82</v>
+      </c>
+      <c r="AU178">
+        <v>7</v>
+      </c>
+      <c r="AV178">
+        <v>10</v>
+      </c>
+      <c r="AW178">
+        <v>3</v>
+      </c>
+      <c r="AX178">
+        <v>7</v>
+      </c>
+      <c r="AY178">
+        <v>10</v>
+      </c>
+      <c r="AZ178">
+        <v>17</v>
+      </c>
+      <c r="BA178">
+        <v>1</v>
+      </c>
+      <c r="BB178">
+        <v>11</v>
+      </c>
+      <c r="BC178">
+        <v>12</v>
+      </c>
+      <c r="BD178">
+        <v>1.49</v>
+      </c>
+      <c r="BE178">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF178">
+        <v>3.08</v>
+      </c>
+      <c r="BG178">
+        <v>1.3</v>
+      </c>
+      <c r="BH178">
+        <v>3.08</v>
+      </c>
+      <c r="BI178">
+        <v>1.6</v>
+      </c>
+      <c r="BJ178">
+        <v>2.27</v>
+      </c>
+      <c r="BK178">
+        <v>2.01</v>
+      </c>
+      <c r="BL178">
+        <v>1.79</v>
+      </c>
+      <c r="BM178">
+        <v>2.59</v>
+      </c>
+      <c r="BN178">
+        <v>1.47</v>
+      </c>
+      <c r="BO178">
+        <v>3.48</v>
+      </c>
+      <c r="BP178">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7364298</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45422.54166666666</v>
+      </c>
+      <c r="F179">
+        <v>22</v>
+      </c>
+      <c r="G179" t="s">
+        <v>84</v>
+      </c>
+      <c r="H179" t="s">
+        <v>76</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179">
+        <v>2</v>
+      </c>
+      <c r="K179">
+        <v>3</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+      <c r="M179">
+        <v>2</v>
+      </c>
+      <c r="N179">
+        <v>3</v>
+      </c>
+      <c r="O179" t="s">
+        <v>118</v>
+      </c>
+      <c r="P179" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q179">
+        <v>3.5</v>
+      </c>
+      <c r="R179">
+        <v>1.91</v>
+      </c>
+      <c r="S179">
+        <v>3.25</v>
+      </c>
+      <c r="T179">
+        <v>1.49</v>
+      </c>
+      <c r="U179">
+        <v>2.56</v>
+      </c>
+      <c r="V179">
+        <v>3.4</v>
+      </c>
+      <c r="W179">
+        <v>1.29</v>
+      </c>
+      <c r="X179">
+        <v>9.1</v>
+      </c>
+      <c r="Y179">
+        <v>1.04</v>
+      </c>
+      <c r="Z179">
+        <v>2.9</v>
+      </c>
+      <c r="AA179">
+        <v>2.7</v>
+      </c>
+      <c r="AB179">
+        <v>2.63</v>
+      </c>
+      <c r="AC179">
+        <v>1.07</v>
+      </c>
+      <c r="AD179">
+        <v>6.2</v>
+      </c>
+      <c r="AE179">
+        <v>1.41</v>
+      </c>
+      <c r="AF179">
+        <v>2.6</v>
+      </c>
+      <c r="AG179">
+        <v>2.38</v>
+      </c>
+      <c r="AH179">
+        <v>1.53</v>
+      </c>
+      <c r="AI179">
+        <v>2</v>
+      </c>
+      <c r="AJ179">
+        <v>1.73</v>
+      </c>
+      <c r="AK179">
+        <v>1.39</v>
+      </c>
+      <c r="AL179">
+        <v>1.38</v>
+      </c>
+      <c r="AM179">
+        <v>1.39</v>
+      </c>
+      <c r="AN179">
+        <v>1.36</v>
+      </c>
+      <c r="AO179">
+        <v>0.7</v>
+      </c>
+      <c r="AP179">
+        <v>1.25</v>
+      </c>
+      <c r="AQ179">
+        <v>0.91</v>
+      </c>
+      <c r="AR179">
+        <v>1.36</v>
+      </c>
+      <c r="AS179">
+        <v>1.3</v>
+      </c>
+      <c r="AT179">
+        <v>2.66</v>
+      </c>
+      <c r="AU179">
+        <v>3</v>
+      </c>
+      <c r="AV179">
+        <v>7</v>
+      </c>
+      <c r="AW179">
+        <v>8</v>
+      </c>
+      <c r="AX179">
+        <v>7</v>
+      </c>
+      <c r="AY179">
+        <v>11</v>
+      </c>
+      <c r="AZ179">
+        <v>14</v>
+      </c>
+      <c r="BA179">
+        <v>3</v>
+      </c>
+      <c r="BB179">
+        <v>2</v>
+      </c>
+      <c r="BC179">
+        <v>5</v>
+      </c>
+      <c r="BD179">
+        <v>2.08</v>
+      </c>
+      <c r="BE179">
+        <v>7.5</v>
+      </c>
+      <c r="BF179">
+        <v>2.13</v>
+      </c>
+      <c r="BG179">
+        <v>1.32</v>
+      </c>
+      <c r="BH179">
+        <v>3.11</v>
+      </c>
+      <c r="BI179">
+        <v>1.57</v>
+      </c>
+      <c r="BJ179">
+        <v>2.34</v>
+      </c>
+      <c r="BK179">
+        <v>1.95</v>
+      </c>
+      <c r="BL179">
+        <v>1.84</v>
+      </c>
+      <c r="BM179">
+        <v>2.49</v>
+      </c>
+      <c r="BN179">
+        <v>1.52</v>
+      </c>
+      <c r="BO179">
+        <v>3.18</v>
+      </c>
+      <c r="BP179">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7364299</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45422.54166666666</v>
+      </c>
+      <c r="F180">
+        <v>22</v>
+      </c>
+      <c r="G180" t="s">
+        <v>82</v>
+      </c>
+      <c r="H180" t="s">
+        <v>79</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180">
+        <v>2</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180">
+        <v>2</v>
+      </c>
+      <c r="O180" t="s">
+        <v>199</v>
+      </c>
+      <c r="P180" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q180">
+        <v>3</v>
+      </c>
+      <c r="R180">
+        <v>2</v>
+      </c>
+      <c r="S180">
+        <v>3.6</v>
+      </c>
+      <c r="T180">
+        <v>1.54</v>
+      </c>
+      <c r="U180">
+        <v>2.42</v>
+      </c>
+      <c r="V180">
+        <v>3.5</v>
+      </c>
+      <c r="W180">
+        <v>1.26</v>
+      </c>
+      <c r="X180">
+        <v>8.6</v>
+      </c>
+      <c r="Y180">
+        <v>1.02</v>
+      </c>
+      <c r="Z180">
+        <v>2.3</v>
+      </c>
+      <c r="AA180">
+        <v>3</v>
+      </c>
+      <c r="AB180">
+        <v>3.1</v>
+      </c>
+      <c r="AC180">
+        <v>1.09</v>
+      </c>
+      <c r="AD180">
+        <v>6</v>
+      </c>
+      <c r="AE180">
+        <v>1.48</v>
+      </c>
+      <c r="AF180">
+        <v>2.48</v>
+      </c>
+      <c r="AG180">
+        <v>2.2</v>
+      </c>
+      <c r="AH180">
+        <v>1.65</v>
+      </c>
+      <c r="AI180">
+        <v>1.83</v>
+      </c>
+      <c r="AJ180">
+        <v>1.83</v>
+      </c>
+      <c r="AK180">
+        <v>1.27</v>
+      </c>
+      <c r="AL180">
+        <v>1.35</v>
+      </c>
+      <c r="AM180">
+        <v>1.45</v>
+      </c>
+      <c r="AN180">
+        <v>1.11</v>
+      </c>
+      <c r="AO180">
+        <v>0.8</v>
+      </c>
+      <c r="AP180">
+        <v>1.1</v>
+      </c>
+      <c r="AQ180">
+        <v>0.82</v>
+      </c>
+      <c r="AR180">
+        <v>1.2</v>
+      </c>
+      <c r="AS180">
+        <v>1.41</v>
+      </c>
+      <c r="AT180">
+        <v>2.61</v>
+      </c>
+      <c r="AU180">
+        <v>3</v>
+      </c>
+      <c r="AV180">
+        <v>3</v>
+      </c>
+      <c r="AW180">
+        <v>6</v>
+      </c>
+      <c r="AX180">
+        <v>4</v>
+      </c>
+      <c r="AY180">
+        <v>9</v>
+      </c>
+      <c r="AZ180">
+        <v>7</v>
+      </c>
+      <c r="BA180">
+        <v>2</v>
+      </c>
+      <c r="BB180">
+        <v>1</v>
+      </c>
+      <c r="BC180">
+        <v>3</v>
+      </c>
+      <c r="BD180">
+        <v>1.83</v>
+      </c>
+      <c r="BE180">
+        <v>7.2</v>
+      </c>
+      <c r="BF180">
+        <v>2.31</v>
+      </c>
+      <c r="BG180">
+        <v>1.23</v>
+      </c>
+      <c r="BH180">
+        <v>3.56</v>
+      </c>
+      <c r="BI180">
+        <v>1.44</v>
+      </c>
+      <c r="BJ180">
+        <v>2.51</v>
+      </c>
+      <c r="BK180">
+        <v>1.78</v>
+      </c>
+      <c r="BL180">
+        <v>1.88</v>
+      </c>
+      <c r="BM180">
+        <v>2.28</v>
+      </c>
+      <c r="BN180">
+        <v>1.53</v>
+      </c>
+      <c r="BO180">
+        <v>3.08</v>
+      </c>
+      <c r="BP180">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="287">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -616,6 +616,9 @@
     <t>['7']</t>
   </si>
   <si>
+    <t>['57']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -662,9 +665,6 @@
   </si>
   <si>
     <t>['45+4', '81', '90+7']</t>
-  </si>
-  <si>
-    <t>['57']</t>
   </si>
   <si>
     <t>['82', '88']</t>
@@ -872,6 +872,9 @@
   </si>
   <si>
     <t>['44', '45+6']</t>
+  </si>
+  <si>
+    <t>['79', '90+8']</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP180"/>
+  <dimension ref="A1:BP183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2316,7 +2319,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2394,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ6">
         <v>0.9</v>
@@ -2728,7 +2731,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3140,7 +3143,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3427,7 +3430,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ11">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3552,7 +3555,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3758,7 +3761,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -3836,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -3964,7 +3967,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4660,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ17">
         <v>0.91</v>
@@ -4869,7 +4872,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ18">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4994,7 +4997,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5406,7 +5409,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5612,7 +5615,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5818,7 +5821,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -6230,7 +6233,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q25">
         <v>3.75</v>
@@ -6436,7 +6439,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6926,7 +6929,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ28">
         <v>1.27</v>
@@ -7260,7 +7263,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7338,10 +7341,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ30">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR30">
         <v>1.5</v>
@@ -7466,7 +7469,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7672,7 +7675,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7878,7 +7881,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -7956,7 +7959,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ33">
         <v>1.92</v>
@@ -8084,7 +8087,7 @@
         <v>92</v>
       </c>
       <c r="P34" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="Q34">
         <v>5</v>
@@ -8165,7 +8168,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ34">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR34">
         <v>1.72</v>
@@ -10225,7 +10228,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ44">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR44">
         <v>1.33</v>
@@ -10637,7 +10640,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ46">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR46">
         <v>2.1</v>
@@ -11046,10 +11049,10 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ48">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR48">
         <v>1.22</v>
@@ -11252,7 +11255,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ49">
         <v>0.91</v>
@@ -11870,7 +11873,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ52">
         <v>0.82</v>
@@ -12079,7 +12082,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ53">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR53">
         <v>1.61</v>
@@ -12285,7 +12288,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ54">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR54">
         <v>1.42</v>
@@ -14548,7 +14551,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ65">
         <v>1.27</v>
@@ -14882,7 +14885,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15166,7 +15169,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ68">
         <v>0.27</v>
@@ -15784,7 +15787,7 @@
         <v>1.75</v>
       </c>
       <c r="AP71">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -17226,7 +17229,7 @@
         <v>0.75</v>
       </c>
       <c r="AP78">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ78">
         <v>0.82</v>
@@ -18671,7 +18674,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ85">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR85">
         <v>0.83</v>
@@ -18874,7 +18877,7 @@
         <v>0.2</v>
       </c>
       <c r="AP86">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ86">
         <v>0.8</v>
@@ -19698,7 +19701,7 @@
         <v>1.2</v>
       </c>
       <c r="AP90">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ90">
         <v>1.6</v>
@@ -19907,7 +19910,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ91">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR91">
         <v>2.39</v>
@@ -20110,7 +20113,7 @@
         <v>3</v>
       </c>
       <c r="AP92">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ92">
         <v>1.6</v>
@@ -20238,7 +20241,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20937,7 +20940,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ96">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR96">
         <v>2.02</v>
@@ -21964,7 +21967,7 @@
         <v>1.2</v>
       </c>
       <c r="AP101">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ101">
         <v>0.9</v>
@@ -22170,7 +22173,7 @@
         <v>0.83</v>
       </c>
       <c r="AP102">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ102">
         <v>1.22</v>
@@ -23200,7 +23203,7 @@
         <v>1.4</v>
       </c>
       <c r="AP107">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ107">
         <v>1.8</v>
@@ -24645,7 +24648,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ114">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR114">
         <v>1.07</v>
@@ -25054,7 +25057,7 @@
         <v>1.17</v>
       </c>
       <c r="AP116">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ116">
         <v>1</v>
@@ -25672,7 +25675,7 @@
         <v>1.67</v>
       </c>
       <c r="AP119">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ119">
         <v>1.44</v>
@@ -25878,7 +25881,7 @@
         <v>0.43</v>
       </c>
       <c r="AP120">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ120">
         <v>0.8</v>
@@ -26087,7 +26090,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ121">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR121">
         <v>0.92</v>
@@ -27117,7 +27120,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ126">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR126">
         <v>1.42</v>
@@ -28144,10 +28147,10 @@
         <v>1.67</v>
       </c>
       <c r="AP131">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ131">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR131">
         <v>1.35</v>
@@ -28971,7 +28974,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ135">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR135">
         <v>1.42</v>
@@ -29174,7 +29177,7 @@
         <v>1.83</v>
       </c>
       <c r="AP136">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ136">
         <v>1.6</v>
@@ -29383,7 +29386,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ137">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR137">
         <v>1.74</v>
@@ -29589,7 +29592,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ138">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR138">
         <v>1.91</v>
@@ -30204,10 +30207,10 @@
         <v>2.17</v>
       </c>
       <c r="AP141">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ141">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR141">
         <v>1.27</v>
@@ -30413,7 +30416,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ142">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR142">
         <v>1.73</v>
@@ -31237,7 +31240,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ146">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR146">
         <v>1.68</v>
@@ -31852,7 +31855,7 @@
         <v>1</v>
       </c>
       <c r="AP149">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ149">
         <v>1.09</v>
@@ -33500,7 +33503,7 @@
         <v>1.7</v>
       </c>
       <c r="AP157">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AQ157">
         <v>1.92</v>
@@ -33709,7 +33712,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ158">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR158">
         <v>1.34</v>
@@ -33912,7 +33915,7 @@
         <v>0.33</v>
       </c>
       <c r="AP159">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AQ159">
         <v>0.27</v>
@@ -34118,7 +34121,7 @@
         <v>0.78</v>
       </c>
       <c r="AP160">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AQ160">
         <v>1</v>
@@ -34246,7 +34249,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34533,7 +34536,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ162">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR162">
         <v>1.39</v>
@@ -34739,7 +34742,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ163">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR163">
         <v>1.17</v>
@@ -37211,7 +37214,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ175">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AR175">
         <v>1.72</v>
@@ -38317,6 +38320,624 @@
       </c>
       <c r="BP180">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7364300</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45423.41666666666</v>
+      </c>
+      <c r="F181">
+        <v>22</v>
+      </c>
+      <c r="G181" t="s">
+        <v>74</v>
+      </c>
+      <c r="H181" t="s">
+        <v>77</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>1</v>
+      </c>
+      <c r="N181">
+        <v>1</v>
+      </c>
+      <c r="O181" t="s">
+        <v>92</v>
+      </c>
+      <c r="P181" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q181">
+        <v>3.1</v>
+      </c>
+      <c r="R181">
+        <v>1.95</v>
+      </c>
+      <c r="S181">
+        <v>3.6</v>
+      </c>
+      <c r="T181">
+        <v>1.48</v>
+      </c>
+      <c r="U181">
+        <v>2.45</v>
+      </c>
+      <c r="V181">
+        <v>3.2</v>
+      </c>
+      <c r="W181">
+        <v>1.3</v>
+      </c>
+      <c r="X181">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y181">
+        <v>1.05</v>
+      </c>
+      <c r="Z181">
+        <v>2.38</v>
+      </c>
+      <c r="AA181">
+        <v>2.7</v>
+      </c>
+      <c r="AB181">
+        <v>3.2</v>
+      </c>
+      <c r="AC181">
+        <v>1.09</v>
+      </c>
+      <c r="AD181">
+        <v>6.5</v>
+      </c>
+      <c r="AE181">
+        <v>1.42</v>
+      </c>
+      <c r="AF181">
+        <v>2.75</v>
+      </c>
+      <c r="AG181">
+        <v>2.38</v>
+      </c>
+      <c r="AH181">
+        <v>1.53</v>
+      </c>
+      <c r="AI181">
+        <v>2</v>
+      </c>
+      <c r="AJ181">
+        <v>1.73</v>
+      </c>
+      <c r="AK181">
+        <v>1.33</v>
+      </c>
+      <c r="AL181">
+        <v>1.42</v>
+      </c>
+      <c r="AM181">
+        <v>1.45</v>
+      </c>
+      <c r="AN181">
+        <v>0.33</v>
+      </c>
+      <c r="AO181">
+        <v>1.27</v>
+      </c>
+      <c r="AP181">
+        <v>0.3</v>
+      </c>
+      <c r="AQ181">
+        <v>1.42</v>
+      </c>
+      <c r="AR181">
+        <v>1.23</v>
+      </c>
+      <c r="AS181">
+        <v>1.19</v>
+      </c>
+      <c r="AT181">
+        <v>2.42</v>
+      </c>
+      <c r="AU181">
+        <v>2</v>
+      </c>
+      <c r="AV181">
+        <v>5</v>
+      </c>
+      <c r="AW181">
+        <v>6</v>
+      </c>
+      <c r="AX181">
+        <v>3</v>
+      </c>
+      <c r="AY181">
+        <v>8</v>
+      </c>
+      <c r="AZ181">
+        <v>8</v>
+      </c>
+      <c r="BA181">
+        <v>2</v>
+      </c>
+      <c r="BB181">
+        <v>5</v>
+      </c>
+      <c r="BC181">
+        <v>7</v>
+      </c>
+      <c r="BD181">
+        <v>1.75</v>
+      </c>
+      <c r="BE181">
+        <v>8.4</v>
+      </c>
+      <c r="BF181">
+        <v>2.34</v>
+      </c>
+      <c r="BG181">
+        <v>1.28</v>
+      </c>
+      <c r="BH181">
+        <v>3.2</v>
+      </c>
+      <c r="BI181">
+        <v>1.59</v>
+      </c>
+      <c r="BJ181">
+        <v>2.31</v>
+      </c>
+      <c r="BK181">
+        <v>1.98</v>
+      </c>
+      <c r="BL181">
+        <v>1.82</v>
+      </c>
+      <c r="BM181">
+        <v>2.53</v>
+      </c>
+      <c r="BN181">
+        <v>1.5</v>
+      </c>
+      <c r="BO181">
+        <v>3.42</v>
+      </c>
+      <c r="BP181">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7364302</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45423.54166666666</v>
+      </c>
+      <c r="F182">
+        <v>22</v>
+      </c>
+      <c r="G182" t="s">
+        <v>85</v>
+      </c>
+      <c r="H182" t="s">
+        <v>78</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182">
+        <v>1</v>
+      </c>
+      <c r="O182" t="s">
+        <v>92</v>
+      </c>
+      <c r="P182" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q182">
+        <v>4.33</v>
+      </c>
+      <c r="R182">
+        <v>2.2</v>
+      </c>
+      <c r="S182">
+        <v>2.5</v>
+      </c>
+      <c r="T182">
+        <v>1.41</v>
+      </c>
+      <c r="U182">
+        <v>2.84</v>
+      </c>
+      <c r="V182">
+        <v>3.07</v>
+      </c>
+      <c r="W182">
+        <v>1.36</v>
+      </c>
+      <c r="X182">
+        <v>7.7</v>
+      </c>
+      <c r="Y182">
+        <v>1.05</v>
+      </c>
+      <c r="Z182">
+        <v>4</v>
+      </c>
+      <c r="AA182">
+        <v>3.2</v>
+      </c>
+      <c r="AB182">
+        <v>1.85</v>
+      </c>
+      <c r="AC182">
+        <v>1.05</v>
+      </c>
+      <c r="AD182">
+        <v>8</v>
+      </c>
+      <c r="AE182">
+        <v>1.3</v>
+      </c>
+      <c r="AF182">
+        <v>3.2</v>
+      </c>
+      <c r="AG182">
+        <v>1.85</v>
+      </c>
+      <c r="AH182">
+        <v>1.95</v>
+      </c>
+      <c r="AI182">
+        <v>1.8</v>
+      </c>
+      <c r="AJ182">
+        <v>1.91</v>
+      </c>
+      <c r="AK182">
+        <v>1.94</v>
+      </c>
+      <c r="AL182">
+        <v>1.26</v>
+      </c>
+      <c r="AM182">
+        <v>1.17</v>
+      </c>
+      <c r="AN182">
+        <v>1.9</v>
+      </c>
+      <c r="AO182">
+        <v>2.38</v>
+      </c>
+      <c r="AP182">
+        <v>1.73</v>
+      </c>
+      <c r="AQ182">
+        <v>2.44</v>
+      </c>
+      <c r="AR182">
+        <v>1.54</v>
+      </c>
+      <c r="AS182">
+        <v>1.71</v>
+      </c>
+      <c r="AT182">
+        <v>3.25</v>
+      </c>
+      <c r="AU182">
+        <v>4</v>
+      </c>
+      <c r="AV182">
+        <v>7</v>
+      </c>
+      <c r="AW182">
+        <v>1</v>
+      </c>
+      <c r="AX182">
+        <v>10</v>
+      </c>
+      <c r="AY182">
+        <v>5</v>
+      </c>
+      <c r="AZ182">
+        <v>17</v>
+      </c>
+      <c r="BA182">
+        <v>4</v>
+      </c>
+      <c r="BB182">
+        <v>4</v>
+      </c>
+      <c r="BC182">
+        <v>8</v>
+      </c>
+      <c r="BD182">
+        <v>2.5</v>
+      </c>
+      <c r="BE182">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF182">
+        <v>1.66</v>
+      </c>
+      <c r="BG182">
+        <v>1.19</v>
+      </c>
+      <c r="BH182">
+        <v>3.92</v>
+      </c>
+      <c r="BI182">
+        <v>1.38</v>
+      </c>
+      <c r="BJ182">
+        <v>2.71</v>
+      </c>
+      <c r="BK182">
+        <v>2.38</v>
+      </c>
+      <c r="BL182">
+        <v>2.07</v>
+      </c>
+      <c r="BM182">
+        <v>2.17</v>
+      </c>
+      <c r="BN182">
+        <v>1.68</v>
+      </c>
+      <c r="BO182">
+        <v>2.79</v>
+      </c>
+      <c r="BP182">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7364301</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45423.54166666666</v>
+      </c>
+      <c r="F183">
+        <v>22</v>
+      </c>
+      <c r="G183" t="s">
+        <v>81</v>
+      </c>
+      <c r="H183" t="s">
+        <v>72</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="M183">
+        <v>2</v>
+      </c>
+      <c r="N183">
+        <v>3</v>
+      </c>
+      <c r="O183" t="s">
+        <v>200</v>
+      </c>
+      <c r="P183" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q183">
+        <v>9</v>
+      </c>
+      <c r="R183">
+        <v>2.38</v>
+      </c>
+      <c r="S183">
+        <v>1.73</v>
+      </c>
+      <c r="T183">
+        <v>1.3</v>
+      </c>
+      <c r="U183">
+        <v>3.2</v>
+      </c>
+      <c r="V183">
+        <v>2.45</v>
+      </c>
+      <c r="W183">
+        <v>1.48</v>
+      </c>
+      <c r="X183">
+        <v>5.95</v>
+      </c>
+      <c r="Y183">
+        <v>1.11</v>
+      </c>
+      <c r="Z183">
+        <v>8.5</v>
+      </c>
+      <c r="AA183">
+        <v>5.25</v>
+      </c>
+      <c r="AB183">
+        <v>1.25</v>
+      </c>
+      <c r="AC183">
+        <v>1.03</v>
+      </c>
+      <c r="AD183">
+        <v>10</v>
+      </c>
+      <c r="AE183">
+        <v>1.2</v>
+      </c>
+      <c r="AF183">
+        <v>4.2</v>
+      </c>
+      <c r="AG183">
+        <v>1.8</v>
+      </c>
+      <c r="AH183">
+        <v>2</v>
+      </c>
+      <c r="AI183">
+        <v>2.5</v>
+      </c>
+      <c r="AJ183">
+        <v>1.5</v>
+      </c>
+      <c r="AK183">
+        <v>3.35</v>
+      </c>
+      <c r="AL183">
+        <v>1.14</v>
+      </c>
+      <c r="AM183">
+        <v>1.03</v>
+      </c>
+      <c r="AN183">
+        <v>1</v>
+      </c>
+      <c r="AO183">
+        <v>1.86</v>
+      </c>
+      <c r="AP183">
+        <v>0.91</v>
+      </c>
+      <c r="AQ183">
+        <v>2</v>
+      </c>
+      <c r="AR183">
+        <v>1.28</v>
+      </c>
+      <c r="AS183">
+        <v>1.72</v>
+      </c>
+      <c r="AT183">
+        <v>3</v>
+      </c>
+      <c r="AU183">
+        <v>5</v>
+      </c>
+      <c r="AV183">
+        <v>8</v>
+      </c>
+      <c r="AW183">
+        <v>3</v>
+      </c>
+      <c r="AX183">
+        <v>7</v>
+      </c>
+      <c r="AY183">
+        <v>8</v>
+      </c>
+      <c r="AZ183">
+        <v>15</v>
+      </c>
+      <c r="BA183">
+        <v>5</v>
+      </c>
+      <c r="BB183">
+        <v>8</v>
+      </c>
+      <c r="BC183">
+        <v>13</v>
+      </c>
+      <c r="BD183">
+        <v>4.25</v>
+      </c>
+      <c r="BE183">
+        <v>9.9</v>
+      </c>
+      <c r="BF183">
+        <v>1.28</v>
+      </c>
+      <c r="BG183">
+        <v>1.31</v>
+      </c>
+      <c r="BH183">
+        <v>3.04</v>
+      </c>
+      <c r="BI183">
+        <v>1.64</v>
+      </c>
+      <c r="BJ183">
+        <v>2.24</v>
+      </c>
+      <c r="BK183">
+        <v>2.02</v>
+      </c>
+      <c r="BL183">
+        <v>1.79</v>
+      </c>
+      <c r="BM183">
+        <v>2.6</v>
+      </c>
+      <c r="BN183">
+        <v>1.41</v>
+      </c>
+      <c r="BO183">
+        <v>3.56</v>
+      </c>
+      <c r="BP183">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="289">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -876,6 +876,12 @@
   <si>
     <t>['79', '90+8']</t>
   </si>
+  <si>
+    <t>['34', '86']</t>
+  </si>
+  <si>
+    <t>['62']</t>
+  </si>
 </sst>
 </file>
 
@@ -1236,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP183"/>
+  <dimension ref="A1:BP185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1573,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ2">
         <v>0.82</v>
@@ -1782,7 +1788,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ3">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -3015,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ9">
         <v>1.22</v>
@@ -3842,7 +3848,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -5487,7 +5493,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ21">
         <v>1.44</v>
@@ -6105,7 +6111,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24">
         <v>1.6</v>
@@ -6520,7 +6526,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ26">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR26">
         <v>2</v>
@@ -7550,7 +7556,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR31">
         <v>1.53</v>
@@ -9198,7 +9204,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR39">
         <v>1.93</v>
@@ -9401,7 +9407,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ40">
         <v>1.09</v>
@@ -9607,7 +9613,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ41">
         <v>1.22</v>
@@ -9816,7 +9822,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ42">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR42">
         <v>0.84</v>
@@ -12494,7 +12500,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ55">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR55">
         <v>1.67</v>
@@ -12700,7 +12706,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR56">
         <v>1.78</v>
@@ -13109,7 +13115,7 @@
         <v>2.33</v>
       </c>
       <c r="AP58">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ58">
         <v>1.92</v>
@@ -13521,7 +13527,7 @@
         <v>1.67</v>
       </c>
       <c r="AP60">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ60">
         <v>1.44</v>
@@ -16202,7 +16208,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ73">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR73">
         <v>0.83</v>
@@ -16405,7 +16411,7 @@
         <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ74">
         <v>1.09</v>
@@ -16820,7 +16826,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ76">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR76">
         <v>1.17</v>
@@ -17435,7 +17441,7 @@
         <v>0.75</v>
       </c>
       <c r="AP79">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ79">
         <v>0.91</v>
@@ -18259,7 +18265,7 @@
         <v>2.2</v>
       </c>
       <c r="AP83">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ83">
         <v>1.92</v>
@@ -18880,7 +18886,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ86">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR86">
         <v>1.42</v>
@@ -19495,7 +19501,7 @@
         <v>1.4</v>
       </c>
       <c r="AP89">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ89">
         <v>1.27</v>
@@ -20528,7 +20534,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ94">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR94">
         <v>1.11</v>
@@ -22585,7 +22591,7 @@
         <v>1.17</v>
       </c>
       <c r="AP104">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ104">
         <v>0.82</v>
@@ -22794,7 +22800,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ105">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR105">
         <v>1.44</v>
@@ -24851,7 +24857,7 @@
         <v>0.17</v>
       </c>
       <c r="AP115">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ115">
         <v>0.27</v>
@@ -25060,7 +25066,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ116">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR116">
         <v>1.36</v>
@@ -25884,7 +25890,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ120">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR120">
         <v>1.23</v>
@@ -26499,7 +26505,7 @@
         <v>2</v>
       </c>
       <c r="AP123">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ123">
         <v>1.6</v>
@@ -27532,7 +27538,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ128">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR128">
         <v>1.4</v>
@@ -30622,7 +30628,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ143">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR143">
         <v>1.38</v>
@@ -32267,10 +32273,10 @@
         <v>0.5</v>
       </c>
       <c r="AP151">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ151">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR151">
         <v>1.4</v>
@@ -33091,7 +33097,7 @@
         <v>1.63</v>
       </c>
       <c r="AP155">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ155">
         <v>1.6</v>
@@ -34124,7 +34130,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ160">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR160">
         <v>1.22</v>
@@ -35357,7 +35363,7 @@
         <v>1</v>
       </c>
       <c r="AP166">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ166">
         <v>0.9</v>
@@ -35772,7 +35778,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ168">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AR168">
         <v>1.5</v>
@@ -36799,7 +36805,7 @@
         <v>1.67</v>
       </c>
       <c r="AP173">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ173">
         <v>1.8</v>
@@ -38938,6 +38944,418 @@
       </c>
       <c r="BP183">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7364303</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45426.41666666666</v>
+      </c>
+      <c r="F184">
+        <v>23</v>
+      </c>
+      <c r="G184" t="s">
+        <v>77</v>
+      </c>
+      <c r="H184" t="s">
+        <v>75</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184">
+        <v>2</v>
+      </c>
+      <c r="N184">
+        <v>2</v>
+      </c>
+      <c r="O184" t="s">
+        <v>92</v>
+      </c>
+      <c r="P184" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q184">
+        <v>3.4</v>
+      </c>
+      <c r="R184">
+        <v>1.91</v>
+      </c>
+      <c r="S184">
+        <v>3.5</v>
+      </c>
+      <c r="T184">
+        <v>1.47</v>
+      </c>
+      <c r="U184">
+        <v>2.57</v>
+      </c>
+      <c r="V184">
+        <v>3.2</v>
+      </c>
+      <c r="W184">
+        <v>1.32</v>
+      </c>
+      <c r="X184">
+        <v>8.4</v>
+      </c>
+      <c r="Y184">
+        <v>1.05</v>
+      </c>
+      <c r="Z184">
+        <v>2.6</v>
+      </c>
+      <c r="AA184">
+        <v>3</v>
+      </c>
+      <c r="AB184">
+        <v>2.7</v>
+      </c>
+      <c r="AC184">
+        <v>1.04</v>
+      </c>
+      <c r="AD184">
+        <v>7.6</v>
+      </c>
+      <c r="AE184">
+        <v>1.17</v>
+      </c>
+      <c r="AF184">
+        <v>2.44</v>
+      </c>
+      <c r="AG184">
+        <v>2.5</v>
+      </c>
+      <c r="AH184">
+        <v>1.5</v>
+      </c>
+      <c r="AI184">
+        <v>2.1</v>
+      </c>
+      <c r="AJ184">
+        <v>1.67</v>
+      </c>
+      <c r="AK184">
+        <v>1.39</v>
+      </c>
+      <c r="AL184">
+        <v>1.23</v>
+      </c>
+      <c r="AM184">
+        <v>1.42</v>
+      </c>
+      <c r="AN184">
+        <v>1.8</v>
+      </c>
+      <c r="AO184">
+        <v>1</v>
+      </c>
+      <c r="AP184">
+        <v>1.64</v>
+      </c>
+      <c r="AQ184">
+        <v>1.18</v>
+      </c>
+      <c r="AR184">
+        <v>1.39</v>
+      </c>
+      <c r="AS184">
+        <v>1.39</v>
+      </c>
+      <c r="AT184">
+        <v>2.78</v>
+      </c>
+      <c r="AU184">
+        <v>4</v>
+      </c>
+      <c r="AV184">
+        <v>4</v>
+      </c>
+      <c r="AW184">
+        <v>7</v>
+      </c>
+      <c r="AX184">
+        <v>1</v>
+      </c>
+      <c r="AY184">
+        <v>11</v>
+      </c>
+      <c r="AZ184">
+        <v>5</v>
+      </c>
+      <c r="BA184">
+        <v>6</v>
+      </c>
+      <c r="BB184">
+        <v>2</v>
+      </c>
+      <c r="BC184">
+        <v>8</v>
+      </c>
+      <c r="BD184">
+        <v>1.7</v>
+      </c>
+      <c r="BE184">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF184">
+        <v>2.44</v>
+      </c>
+      <c r="BG184">
+        <v>1.29</v>
+      </c>
+      <c r="BH184">
+        <v>3.14</v>
+      </c>
+      <c r="BI184">
+        <v>1.6</v>
+      </c>
+      <c r="BJ184">
+        <v>2.29</v>
+      </c>
+      <c r="BK184">
+        <v>2</v>
+      </c>
+      <c r="BL184">
+        <v>1.8</v>
+      </c>
+      <c r="BM184">
+        <v>2.56</v>
+      </c>
+      <c r="BN184">
+        <v>1.49</v>
+      </c>
+      <c r="BO184">
+        <v>3.48</v>
+      </c>
+      <c r="BP184">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7364304</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45426.54166666666</v>
+      </c>
+      <c r="F185">
+        <v>23</v>
+      </c>
+      <c r="G185" t="s">
+        <v>70</v>
+      </c>
+      <c r="H185" t="s">
+        <v>86</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>2</v>
+      </c>
+      <c r="O185" t="s">
+        <v>108</v>
+      </c>
+      <c r="P185" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q185">
+        <v>3.4</v>
+      </c>
+      <c r="R185">
+        <v>1.83</v>
+      </c>
+      <c r="S185">
+        <v>3.75</v>
+      </c>
+      <c r="T185">
+        <v>1.62</v>
+      </c>
+      <c r="U185">
+        <v>2.15</v>
+      </c>
+      <c r="V185">
+        <v>3.75</v>
+      </c>
+      <c r="W185">
+        <v>1.22</v>
+      </c>
+      <c r="X185">
+        <v>10.75</v>
+      </c>
+      <c r="Y185">
+        <v>1.02</v>
+      </c>
+      <c r="Z185">
+        <v>2.55</v>
+      </c>
+      <c r="AA185">
+        <v>2.63</v>
+      </c>
+      <c r="AB185">
+        <v>3</v>
+      </c>
+      <c r="AC185">
+        <v>1.13</v>
+      </c>
+      <c r="AD185">
+        <v>5.25</v>
+      </c>
+      <c r="AE185">
+        <v>1.53</v>
+      </c>
+      <c r="AF185">
+        <v>2.34</v>
+      </c>
+      <c r="AG185">
+        <v>2.75</v>
+      </c>
+      <c r="AH185">
+        <v>1.4</v>
+      </c>
+      <c r="AI185">
+        <v>2.2</v>
+      </c>
+      <c r="AJ185">
+        <v>1.62</v>
+      </c>
+      <c r="AK185">
+        <v>1.35</v>
+      </c>
+      <c r="AL185">
+        <v>1.36</v>
+      </c>
+      <c r="AM185">
+        <v>1.48</v>
+      </c>
+      <c r="AN185">
+        <v>1.56</v>
+      </c>
+      <c r="AO185">
+        <v>0.8</v>
+      </c>
+      <c r="AP185">
+        <v>1.5</v>
+      </c>
+      <c r="AQ185">
+        <v>0.82</v>
+      </c>
+      <c r="AR185">
+        <v>1.47</v>
+      </c>
+      <c r="AS185">
+        <v>1.5</v>
+      </c>
+      <c r="AT185">
+        <v>2.97</v>
+      </c>
+      <c r="AU185">
+        <v>2</v>
+      </c>
+      <c r="AV185">
+        <v>7</v>
+      </c>
+      <c r="AW185">
+        <v>5</v>
+      </c>
+      <c r="AX185">
+        <v>7</v>
+      </c>
+      <c r="AY185">
+        <v>7</v>
+      </c>
+      <c r="AZ185">
+        <v>14</v>
+      </c>
+      <c r="BA185">
+        <v>4</v>
+      </c>
+      <c r="BB185">
+        <v>4</v>
+      </c>
+      <c r="BC185">
+        <v>8</v>
+      </c>
+      <c r="BD185">
+        <v>2.03</v>
+      </c>
+      <c r="BE185">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF185">
+        <v>1.99</v>
+      </c>
+      <c r="BG185">
+        <v>1.36</v>
+      </c>
+      <c r="BH185">
+        <v>2.79</v>
+      </c>
+      <c r="BI185">
+        <v>1.72</v>
+      </c>
+      <c r="BJ185">
+        <v>2.1</v>
+      </c>
+      <c r="BK185">
+        <v>2.17</v>
+      </c>
+      <c r="BL185">
+        <v>1.68</v>
+      </c>
+      <c r="BM185">
+        <v>2.84</v>
+      </c>
+      <c r="BN185">
+        <v>1.35</v>
+      </c>
+      <c r="BO185">
+        <v>3.6</v>
+      </c>
+      <c r="BP185">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="291">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -617,6 +617,12 @@
   </si>
   <si>
     <t>['57']</t>
+  </si>
+  <si>
+    <t>['31', '45+4']</t>
+  </si>
+  <si>
+    <t>['43', '45+4', '62', '75', '81']</t>
   </si>
   <si>
     <t>['16', '75']</t>
@@ -1242,7 +1248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP185"/>
+  <dimension ref="A1:BP190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1994,7 +2000,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ4">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2197,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ5">
         <v>1.6</v>
@@ -2325,7 +2331,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2406,7 +2412,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ6">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2612,7 +2618,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ7">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2737,7 +2743,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2815,10 +2821,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ8">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3024,7 +3030,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ9">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3149,7 +3155,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3227,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3433,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ11">
         <v>2.44</v>
@@ -3561,7 +3567,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3767,7 +3773,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -3973,7 +3979,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4257,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ15">
         <v>1.27</v>
@@ -5003,7 +5009,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5084,7 +5090,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ19">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR19">
         <v>1.91</v>
@@ -5415,7 +5421,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5496,7 +5502,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ21">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR21">
         <v>1.13</v>
@@ -5621,7 +5627,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5699,10 +5705,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ22">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR22">
         <v>1.22</v>
@@ -5827,7 +5833,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -5905,10 +5911,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ23">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR23">
         <v>0.65</v>
@@ -6114,7 +6120,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ24">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR24">
         <v>1.15</v>
@@ -6239,7 +6245,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q25">
         <v>3.75</v>
@@ -6317,7 +6323,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6445,7 +6451,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6729,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ27">
         <v>1.6</v>
@@ -7269,7 +7275,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7475,7 +7481,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7681,7 +7687,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7759,7 +7765,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ32">
         <v>0.82</v>
@@ -7887,7 +7893,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8505,7 +8511,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -8583,10 +8589,10 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ36">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR36">
         <v>1.67</v>
@@ -8789,7 +8795,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -8917,7 +8923,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8995,10 +9001,10 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ38">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR38">
         <v>1.37</v>
@@ -9123,7 +9129,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9329,7 +9335,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9616,7 +9622,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ41">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR41">
         <v>1.48</v>
@@ -9819,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ42">
         <v>0.82</v>
@@ -9947,7 +9953,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10025,10 +10031,10 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ43">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR43">
         <v>0.91</v>
@@ -10153,7 +10159,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10359,7 +10365,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10977,7 +10983,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q48">
         <v>6.5</v>
@@ -11183,7 +11189,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11595,7 +11601,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11801,7 +11807,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12007,7 +12013,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12419,7 +12425,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12497,7 +12503,7 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ55">
         <v>0.82</v>
@@ -12831,7 +12837,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13243,7 +13249,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -13321,7 +13327,7 @@
         <v>0.33</v>
       </c>
       <c r="AP59">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ59">
         <v>1.09</v>
@@ -13530,7 +13536,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ60">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR60">
         <v>1.51</v>
@@ -13655,7 +13661,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -13733,10 +13739,10 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ61">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR61">
         <v>1.23</v>
@@ -13939,10 +13945,10 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ62">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR62">
         <v>0.8100000000000001</v>
@@ -14067,7 +14073,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14145,10 +14151,10 @@
         <v>0.33</v>
       </c>
       <c r="AP63">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ63">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR63">
         <v>1</v>
@@ -14273,7 +14279,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14479,7 +14485,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14685,7 +14691,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14891,7 +14897,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -15303,7 +15309,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15381,10 +15387,10 @@
         <v>1.5</v>
       </c>
       <c r="AP69">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ69">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR69">
         <v>1.06</v>
@@ -15590,7 +15596,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ70">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR70">
         <v>1.2</v>
@@ -15921,7 +15927,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q72">
         <v>1.8</v>
@@ -15999,10 +16005,10 @@
         <v>1.67</v>
       </c>
       <c r="AP72">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ72">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR72">
         <v>1.89</v>
@@ -16205,7 +16211,7 @@
         <v>1.25</v>
       </c>
       <c r="AP73">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ73">
         <v>1.18</v>
@@ -16333,7 +16339,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q74">
         <v>3.25</v>
@@ -16539,7 +16545,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16617,7 +16623,7 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ75">
         <v>1.92</v>
@@ -16823,7 +16829,7 @@
         <v>0.25</v>
       </c>
       <c r="AP76">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ76">
         <v>0.82</v>
@@ -16951,7 +16957,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17157,7 +17163,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17363,7 +17369,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17569,7 +17575,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -18059,7 +18065,7 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ82">
         <v>1.09</v>
@@ -18471,10 +18477,10 @@
         <v>1.5</v>
       </c>
       <c r="AP84">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ84">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR84">
         <v>1.06</v>
@@ -18599,7 +18605,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18677,7 +18683,7 @@
         <v>1.33</v>
       </c>
       <c r="AP85">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ85">
         <v>1.42</v>
@@ -18805,7 +18811,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19011,7 +19017,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19092,7 +19098,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ87">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR87">
         <v>1.51</v>
@@ -19423,7 +19429,7 @@
         <v>147</v>
       </c>
       <c r="P89" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q89">
         <v>3.5</v>
@@ -19629,7 +19635,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -20122,7 +20128,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ92">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR92">
         <v>1.28</v>
@@ -20247,7 +20253,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -20328,7 +20334,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ93">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR93">
         <v>1.44</v>
@@ -20531,7 +20537,7 @@
         <v>1.2</v>
       </c>
       <c r="AP94">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ94">
         <v>1.18</v>
@@ -20737,7 +20743,7 @@
         <v>1.83</v>
       </c>
       <c r="AP95">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ95">
         <v>1.92</v>
@@ -20943,7 +20949,7 @@
         <v>1.75</v>
       </c>
       <c r="AP96">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ96">
         <v>1.42</v>
@@ -21071,7 +21077,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21564,7 +21570,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ99">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR99">
         <v>1.69</v>
@@ -21689,7 +21695,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -21767,7 +21773,7 @@
         <v>0.6</v>
       </c>
       <c r="AP100">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ100">
         <v>0.91</v>
@@ -21976,7 +21982,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ101">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR101">
         <v>1.35</v>
@@ -22101,7 +22107,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22182,7 +22188,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ102">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR102">
         <v>1.24</v>
@@ -22307,7 +22313,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22385,7 +22391,7 @@
         <v>1.33</v>
       </c>
       <c r="AP103">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ103">
         <v>1.27</v>
@@ -23131,7 +23137,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23212,7 +23218,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ107">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR107">
         <v>1.23</v>
@@ -23418,7 +23424,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ108">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR108">
         <v>1.69</v>
@@ -23543,7 +23549,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23624,7 +23630,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ109">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR109">
         <v>1.64</v>
@@ -23955,7 +23961,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24033,7 +24039,7 @@
         <v>1.14</v>
       </c>
       <c r="AP111">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ111">
         <v>0.82</v>
@@ -24448,7 +24454,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ113">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR113">
         <v>1.4</v>
@@ -24573,7 +24579,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -24651,7 +24657,7 @@
         <v>1.4</v>
       </c>
       <c r="AP114">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ114">
         <v>1.42</v>
@@ -25269,7 +25275,7 @@
         <v>0.67</v>
       </c>
       <c r="AP117">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ117">
         <v>0.91</v>
@@ -25603,7 +25609,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25684,7 +25690,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ119">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR119">
         <v>1.25</v>
@@ -25809,7 +25815,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -26015,7 +26021,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26093,7 +26099,7 @@
         <v>1.75</v>
       </c>
       <c r="AP121">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ121">
         <v>2.44</v>
@@ -26302,7 +26308,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ122">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR122">
         <v>1.59</v>
@@ -26508,7 +26514,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ123">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR123">
         <v>1.48</v>
@@ -26633,7 +26639,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -26714,7 +26720,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ124">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR124">
         <v>1.91</v>
@@ -26839,7 +26845,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -27045,7 +27051,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q126">
         <v>6</v>
@@ -27123,7 +27129,7 @@
         <v>2.33</v>
       </c>
       <c r="AP126">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ126">
         <v>2</v>
@@ -27251,7 +27257,7 @@
         <v>148</v>
       </c>
       <c r="P127" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q127">
         <v>2.6</v>
@@ -27663,7 +27669,7 @@
         <v>94</v>
       </c>
       <c r="P129" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q129">
         <v>3.4</v>
@@ -27947,7 +27953,7 @@
         <v>0.29</v>
       </c>
       <c r="AP130">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ130">
         <v>0.27</v>
@@ -28075,7 +28081,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28359,7 +28365,7 @@
         <v>0.71</v>
       </c>
       <c r="AP132">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ132">
         <v>0.91</v>
@@ -28565,7 +28571,7 @@
         <v>1.29</v>
       </c>
       <c r="AP133">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ133">
         <v>1.27</v>
@@ -28693,7 +28699,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -28899,7 +28905,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29105,7 +29111,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29186,7 +29192,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ136">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR136">
         <v>1.46</v>
@@ -29723,7 +29729,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q139">
         <v>3.15</v>
@@ -29804,7 +29810,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ139">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR139">
         <v>1.76</v>
@@ -30010,7 +30016,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ140">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR140">
         <v>1.42</v>
@@ -30135,7 +30141,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -30341,7 +30347,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q142">
         <v>3.75</v>
@@ -30753,7 +30759,7 @@
         <v>92</v>
       </c>
       <c r="P144" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -30831,7 +30837,7 @@
         <v>1.25</v>
       </c>
       <c r="AP144">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ144">
         <v>1.27</v>
@@ -31037,7 +31043,7 @@
         <v>0.25</v>
       </c>
       <c r="AP145">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ145">
         <v>0.27</v>
@@ -31165,7 +31171,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31577,7 +31583,7 @@
         <v>108</v>
       </c>
       <c r="P148" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q148">
         <v>3.25</v>
@@ -32070,7 +32076,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ150">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR150">
         <v>1.76</v>
@@ -32195,7 +32201,7 @@
         <v>184</v>
       </c>
       <c r="P151" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q151">
         <v>3.2</v>
@@ -32479,10 +32485,10 @@
         <v>1.88</v>
       </c>
       <c r="AP152">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ152">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR152">
         <v>0.89</v>
@@ -32688,7 +32694,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ153">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR153">
         <v>1.59</v>
@@ -32813,7 +32819,7 @@
         <v>129</v>
       </c>
       <c r="P154" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -32891,10 +32897,10 @@
         <v>1.5</v>
       </c>
       <c r="AP154">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ154">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR154">
         <v>1.46</v>
@@ -33225,7 +33231,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q156">
         <v>1.91</v>
@@ -33303,7 +33309,7 @@
         <v>1</v>
       </c>
       <c r="AP156">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ156">
         <v>0.82</v>
@@ -33431,7 +33437,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34255,7 +34261,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34461,7 +34467,7 @@
         <v>151</v>
       </c>
       <c r="P162" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -34667,7 +34673,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -34745,7 +34751,7 @@
         <v>2.29</v>
       </c>
       <c r="AP163">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AQ163">
         <v>2.44</v>
@@ -35285,7 +35291,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35366,7 +35372,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ166">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR166">
         <v>1.39</v>
@@ -35491,7 +35497,7 @@
         <v>92</v>
       </c>
       <c r="P167" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35697,7 +35703,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
@@ -35775,7 +35781,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP168">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AQ168">
         <v>0.82</v>
@@ -35903,7 +35909,7 @@
         <v>192</v>
       </c>
       <c r="P169" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -35981,10 +35987,10 @@
         <v>1</v>
       </c>
       <c r="AP169">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AQ169">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AR169">
         <v>0.93</v>
@@ -36190,7 +36196,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ170">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AR170">
         <v>1.74</v>
@@ -36315,7 +36321,7 @@
         <v>194</v>
       </c>
       <c r="P171" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -36393,7 +36399,7 @@
         <v>1.44</v>
       </c>
       <c r="AP171">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ171">
         <v>1.6</v>
@@ -36727,7 +36733,7 @@
         <v>92</v>
       </c>
       <c r="P173" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q173">
         <v>4.8</v>
@@ -36808,7 +36814,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ173">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AR173">
         <v>1.47</v>
@@ -37011,10 +37017,10 @@
         <v>1.78</v>
       </c>
       <c r="AP174">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ174">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AR174">
         <v>1.97</v>
@@ -37551,7 +37557,7 @@
         <v>129</v>
       </c>
       <c r="P177" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q177">
         <v>3.25</v>
@@ -37963,7 +37969,7 @@
         <v>118</v>
       </c>
       <c r="P179" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38581,7 +38587,7 @@
         <v>92</v>
       </c>
       <c r="P182" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q182">
         <v>4.33</v>
@@ -38787,7 +38793,7 @@
         <v>200</v>
       </c>
       <c r="P183" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q183">
         <v>9</v>
@@ -38993,7 +38999,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q184">
         <v>3.4</v>
@@ -39199,7 +39205,7 @@
         <v>108</v>
       </c>
       <c r="P185" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -39356,6 +39362,1036 @@
       </c>
       <c r="BP185">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7364306</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45427.41666666666</v>
+      </c>
+      <c r="F186">
+        <v>23</v>
+      </c>
+      <c r="G186" t="s">
+        <v>73</v>
+      </c>
+      <c r="H186" t="s">
+        <v>84</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>0</v>
+      </c>
+      <c r="O186" t="s">
+        <v>92</v>
+      </c>
+      <c r="P186" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q186">
+        <v>3.6</v>
+      </c>
+      <c r="R186">
+        <v>1.91</v>
+      </c>
+      <c r="S186">
+        <v>3.25</v>
+      </c>
+      <c r="T186">
+        <v>1.55</v>
+      </c>
+      <c r="U186">
+        <v>2.3</v>
+      </c>
+      <c r="V186">
+        <v>3.45</v>
+      </c>
+      <c r="W186">
+        <v>1.25</v>
+      </c>
+      <c r="X186">
+        <v>9.6</v>
+      </c>
+      <c r="Y186">
+        <v>1.03</v>
+      </c>
+      <c r="Z186">
+        <v>2.88</v>
+      </c>
+      <c r="AA186">
+        <v>2.88</v>
+      </c>
+      <c r="AB186">
+        <v>2.5</v>
+      </c>
+      <c r="AC186">
+        <v>1.1</v>
+      </c>
+      <c r="AD186">
+        <v>6.25</v>
+      </c>
+      <c r="AE186">
+        <v>1.48</v>
+      </c>
+      <c r="AF186">
+        <v>2.55</v>
+      </c>
+      <c r="AG186">
+        <v>2.5</v>
+      </c>
+      <c r="AH186">
+        <v>1.5</v>
+      </c>
+      <c r="AI186">
+        <v>2.1</v>
+      </c>
+      <c r="AJ186">
+        <v>1.67</v>
+      </c>
+      <c r="AK186">
+        <v>1.57</v>
+      </c>
+      <c r="AL186">
+        <v>1.33</v>
+      </c>
+      <c r="AM186">
+        <v>1.33</v>
+      </c>
+      <c r="AN186">
+        <v>0.8</v>
+      </c>
+      <c r="AO186">
+        <v>1.44</v>
+      </c>
+      <c r="AP186">
+        <v>0.82</v>
+      </c>
+      <c r="AQ186">
+        <v>1.4</v>
+      </c>
+      <c r="AR186">
+        <v>0.95</v>
+      </c>
+      <c r="AS186">
+        <v>1.38</v>
+      </c>
+      <c r="AT186">
+        <v>2.33</v>
+      </c>
+      <c r="AU186">
+        <v>3</v>
+      </c>
+      <c r="AV186">
+        <v>3</v>
+      </c>
+      <c r="AW186">
+        <v>1</v>
+      </c>
+      <c r="AX186">
+        <v>7</v>
+      </c>
+      <c r="AY186">
+        <v>4</v>
+      </c>
+      <c r="AZ186">
+        <v>10</v>
+      </c>
+      <c r="BA186">
+        <v>1</v>
+      </c>
+      <c r="BB186">
+        <v>3</v>
+      </c>
+      <c r="BC186">
+        <v>4</v>
+      </c>
+      <c r="BD186">
+        <v>2.3</v>
+      </c>
+      <c r="BE186">
+        <v>8.5</v>
+      </c>
+      <c r="BF186">
+        <v>1.77</v>
+      </c>
+      <c r="BG186">
+        <v>1.28</v>
+      </c>
+      <c r="BH186">
+        <v>3.18</v>
+      </c>
+      <c r="BI186">
+        <v>1.59</v>
+      </c>
+      <c r="BJ186">
+        <v>2.29</v>
+      </c>
+      <c r="BK186">
+        <v>1.99</v>
+      </c>
+      <c r="BL186">
+        <v>1.81</v>
+      </c>
+      <c r="BM186">
+        <v>2.52</v>
+      </c>
+      <c r="BN186">
+        <v>1.5</v>
+      </c>
+      <c r="BO186">
+        <v>3.48</v>
+      </c>
+      <c r="BP186">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7364307</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45427.54166666666</v>
+      </c>
+      <c r="F187">
+        <v>23</v>
+      </c>
+      <c r="G187" t="s">
+        <v>78</v>
+      </c>
+      <c r="H187" t="s">
+        <v>87</v>
+      </c>
+      <c r="I187">
+        <v>2</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
+      </c>
+      <c r="K187">
+        <v>3</v>
+      </c>
+      <c r="L187">
+        <v>2</v>
+      </c>
+      <c r="M187">
+        <v>1</v>
+      </c>
+      <c r="N187">
+        <v>3</v>
+      </c>
+      <c r="O187" t="s">
+        <v>201</v>
+      </c>
+      <c r="P187" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q187">
+        <v>2.25</v>
+      </c>
+      <c r="R187">
+        <v>2.2</v>
+      </c>
+      <c r="S187">
+        <v>4.75</v>
+      </c>
+      <c r="T187">
+        <v>1.37</v>
+      </c>
+      <c r="U187">
+        <v>3.01</v>
+      </c>
+      <c r="V187">
+        <v>2.88</v>
+      </c>
+      <c r="W187">
+        <v>1.4</v>
+      </c>
+      <c r="X187">
+        <v>6</v>
+      </c>
+      <c r="Y187">
+        <v>1.11</v>
+      </c>
+      <c r="Z187">
+        <v>1.65</v>
+      </c>
+      <c r="AA187">
+        <v>3.6</v>
+      </c>
+      <c r="AB187">
+        <v>4.5</v>
+      </c>
+      <c r="AC187">
+        <v>1.05</v>
+      </c>
+      <c r="AD187">
+        <v>8.5</v>
+      </c>
+      <c r="AE187">
+        <v>1.28</v>
+      </c>
+      <c r="AF187">
+        <v>3.4</v>
+      </c>
+      <c r="AG187">
+        <v>1.85</v>
+      </c>
+      <c r="AH187">
+        <v>1.95</v>
+      </c>
+      <c r="AI187">
+        <v>1.83</v>
+      </c>
+      <c r="AJ187">
+        <v>1.83</v>
+      </c>
+      <c r="AK187">
+        <v>1.12</v>
+      </c>
+      <c r="AL187">
+        <v>1.2</v>
+      </c>
+      <c r="AM187">
+        <v>2.2</v>
+      </c>
+      <c r="AN187">
+        <v>2.2</v>
+      </c>
+      <c r="AO187">
+        <v>1.22</v>
+      </c>
+      <c r="AP187">
+        <v>2.27</v>
+      </c>
+      <c r="AQ187">
+        <v>1.1</v>
+      </c>
+      <c r="AR187">
+        <v>2.01</v>
+      </c>
+      <c r="AS187">
+        <v>1.74</v>
+      </c>
+      <c r="AT187">
+        <v>3.75</v>
+      </c>
+      <c r="AU187">
+        <v>5</v>
+      </c>
+      <c r="AV187">
+        <v>6</v>
+      </c>
+      <c r="AW187">
+        <v>3</v>
+      </c>
+      <c r="AX187">
+        <v>3</v>
+      </c>
+      <c r="AY187">
+        <v>8</v>
+      </c>
+      <c r="AZ187">
+        <v>9</v>
+      </c>
+      <c r="BA187">
+        <v>3</v>
+      </c>
+      <c r="BB187">
+        <v>6</v>
+      </c>
+      <c r="BC187">
+        <v>9</v>
+      </c>
+      <c r="BD187">
+        <v>1.59</v>
+      </c>
+      <c r="BE187">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF187">
+        <v>2.66</v>
+      </c>
+      <c r="BG187">
+        <v>1.2</v>
+      </c>
+      <c r="BH187">
+        <v>3.86</v>
+      </c>
+      <c r="BI187">
+        <v>1.39</v>
+      </c>
+      <c r="BJ187">
+        <v>2.67</v>
+      </c>
+      <c r="BK187">
+        <v>2.38</v>
+      </c>
+      <c r="BL187">
+        <v>2.06</v>
+      </c>
+      <c r="BM187">
+        <v>2.2</v>
+      </c>
+      <c r="BN187">
+        <v>1.66</v>
+      </c>
+      <c r="BO187">
+        <v>2.84</v>
+      </c>
+      <c r="BP187">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7364308</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45427.54166666666</v>
+      </c>
+      <c r="F188">
+        <v>23</v>
+      </c>
+      <c r="G188" t="s">
+        <v>76</v>
+      </c>
+      <c r="H188" t="s">
+        <v>81</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>1</v>
+      </c>
+      <c r="O188" t="s">
+        <v>98</v>
+      </c>
+      <c r="P188" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q188">
+        <v>2.38</v>
+      </c>
+      <c r="R188">
+        <v>2</v>
+      </c>
+      <c r="S188">
+        <v>5.5</v>
+      </c>
+      <c r="T188">
+        <v>1.49</v>
+      </c>
+      <c r="U188">
+        <v>2.55</v>
+      </c>
+      <c r="V188">
+        <v>3.3</v>
+      </c>
+      <c r="W188">
+        <v>1.28</v>
+      </c>
+      <c r="X188">
+        <v>7.5</v>
+      </c>
+      <c r="Y188">
+        <v>1.07</v>
+      </c>
+      <c r="Z188">
+        <v>1.67</v>
+      </c>
+      <c r="AA188">
+        <v>3.3</v>
+      </c>
+      <c r="AB188">
+        <v>4.75</v>
+      </c>
+      <c r="AC188">
+        <v>1.08</v>
+      </c>
+      <c r="AD188">
+        <v>7</v>
+      </c>
+      <c r="AE188">
+        <v>1.44</v>
+      </c>
+      <c r="AF188">
+        <v>2.65</v>
+      </c>
+      <c r="AG188">
+        <v>2.3</v>
+      </c>
+      <c r="AH188">
+        <v>1.6</v>
+      </c>
+      <c r="AI188">
+        <v>2.2</v>
+      </c>
+      <c r="AJ188">
+        <v>1.62</v>
+      </c>
+      <c r="AK188">
+        <v>1.2</v>
+      </c>
+      <c r="AL188">
+        <v>1.28</v>
+      </c>
+      <c r="AM188">
+        <v>1.85</v>
+      </c>
+      <c r="AN188">
+        <v>0.67</v>
+      </c>
+      <c r="AO188">
+        <v>0.9</v>
+      </c>
+      <c r="AP188">
+        <v>0.9</v>
+      </c>
+      <c r="AQ188">
+        <v>0.82</v>
+      </c>
+      <c r="AR188">
+        <v>1.46</v>
+      </c>
+      <c r="AS188">
+        <v>1.2</v>
+      </c>
+      <c r="AT188">
+        <v>2.66</v>
+      </c>
+      <c r="AU188">
+        <v>3</v>
+      </c>
+      <c r="AV188">
+        <v>0</v>
+      </c>
+      <c r="AW188">
+        <v>2</v>
+      </c>
+      <c r="AX188">
+        <v>5</v>
+      </c>
+      <c r="AY188">
+        <v>5</v>
+      </c>
+      <c r="AZ188">
+        <v>5</v>
+      </c>
+      <c r="BA188">
+        <v>0</v>
+      </c>
+      <c r="BB188">
+        <v>3</v>
+      </c>
+      <c r="BC188">
+        <v>3</v>
+      </c>
+      <c r="BD188">
+        <v>1.57</v>
+      </c>
+      <c r="BE188">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF188">
+        <v>2.78</v>
+      </c>
+      <c r="BG188">
+        <v>1.46</v>
+      </c>
+      <c r="BH188">
+        <v>2.64</v>
+      </c>
+      <c r="BI188">
+        <v>1.81</v>
+      </c>
+      <c r="BJ188">
+        <v>1.99</v>
+      </c>
+      <c r="BK188">
+        <v>2.3</v>
+      </c>
+      <c r="BL188">
+        <v>1.6</v>
+      </c>
+      <c r="BM188">
+        <v>3.08</v>
+      </c>
+      <c r="BN188">
+        <v>1.3</v>
+      </c>
+      <c r="BO188">
+        <v>3.8</v>
+      </c>
+      <c r="BP188">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7364311</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45428.54166666666</v>
+      </c>
+      <c r="F189">
+        <v>23</v>
+      </c>
+      <c r="G189" t="s">
+        <v>79</v>
+      </c>
+      <c r="H189" t="s">
+        <v>85</v>
+      </c>
+      <c r="I189">
+        <v>2</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>2</v>
+      </c>
+      <c r="L189">
+        <v>5</v>
+      </c>
+      <c r="M189">
+        <v>2</v>
+      </c>
+      <c r="N189">
+        <v>7</v>
+      </c>
+      <c r="O189" t="s">
+        <v>202</v>
+      </c>
+      <c r="P189" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q189">
+        <v>3.8</v>
+      </c>
+      <c r="R189">
+        <v>2.28</v>
+      </c>
+      <c r="S189">
+        <v>3.1</v>
+      </c>
+      <c r="T189">
+        <v>1.42</v>
+      </c>
+      <c r="U189">
+        <v>2.81</v>
+      </c>
+      <c r="V189">
+        <v>3.11</v>
+      </c>
+      <c r="W189">
+        <v>1.35</v>
+      </c>
+      <c r="X189">
+        <v>7</v>
+      </c>
+      <c r="Y189">
+        <v>1.08</v>
+      </c>
+      <c r="Z189">
+        <v>3.2</v>
+      </c>
+      <c r="AA189">
+        <v>3.5</v>
+      </c>
+      <c r="AB189">
+        <v>2.42</v>
+      </c>
+      <c r="AC189">
+        <v>1.09</v>
+      </c>
+      <c r="AD189">
+        <v>10</v>
+      </c>
+      <c r="AE189">
+        <v>1.33</v>
+      </c>
+      <c r="AF189">
+        <v>3.8</v>
+      </c>
+      <c r="AG189">
+        <v>2</v>
+      </c>
+      <c r="AH189">
+        <v>1.94</v>
+      </c>
+      <c r="AI189">
+        <v>1.79</v>
+      </c>
+      <c r="AJ189">
+        <v>2.16</v>
+      </c>
+      <c r="AK189">
+        <v>1.68</v>
+      </c>
+      <c r="AL189">
+        <v>1.39</v>
+      </c>
+      <c r="AM189">
+        <v>1.43</v>
+      </c>
+      <c r="AN189">
+        <v>0.91</v>
+      </c>
+      <c r="AO189">
+        <v>1.8</v>
+      </c>
+      <c r="AP189">
+        <v>1.08</v>
+      </c>
+      <c r="AQ189">
+        <v>1.64</v>
+      </c>
+      <c r="AR189">
+        <v>1.52</v>
+      </c>
+      <c r="AS189">
+        <v>1.1</v>
+      </c>
+      <c r="AT189">
+        <v>2.62</v>
+      </c>
+      <c r="AU189">
+        <v>8</v>
+      </c>
+      <c r="AV189">
+        <v>4</v>
+      </c>
+      <c r="AW189">
+        <v>1</v>
+      </c>
+      <c r="AX189">
+        <v>4</v>
+      </c>
+      <c r="AY189">
+        <v>9</v>
+      </c>
+      <c r="AZ189">
+        <v>8</v>
+      </c>
+      <c r="BA189">
+        <v>4</v>
+      </c>
+      <c r="BB189">
+        <v>4</v>
+      </c>
+      <c r="BC189">
+        <v>8</v>
+      </c>
+      <c r="BD189">
+        <v>1.89</v>
+      </c>
+      <c r="BE189">
+        <v>8.5</v>
+      </c>
+      <c r="BF189">
+        <v>2.12</v>
+      </c>
+      <c r="BG189">
+        <v>1.21</v>
+      </c>
+      <c r="BH189">
+        <v>3.74</v>
+      </c>
+      <c r="BI189">
+        <v>1.4</v>
+      </c>
+      <c r="BJ189">
+        <v>2.64</v>
+      </c>
+      <c r="BK189">
+        <v>1.74</v>
+      </c>
+      <c r="BL189">
+        <v>2.05</v>
+      </c>
+      <c r="BM189">
+        <v>2.17</v>
+      </c>
+      <c r="BN189">
+        <v>1.66</v>
+      </c>
+      <c r="BO189">
+        <v>2.88</v>
+      </c>
+      <c r="BP189">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7364310</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45428.54166666666</v>
+      </c>
+      <c r="F190">
+        <v>23</v>
+      </c>
+      <c r="G190" t="s">
+        <v>83</v>
+      </c>
+      <c r="H190" t="s">
+        <v>82</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+      <c r="N190">
+        <v>1</v>
+      </c>
+      <c r="O190" t="s">
+        <v>92</v>
+      </c>
+      <c r="P190" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q190">
+        <v>3.5</v>
+      </c>
+      <c r="R190">
+        <v>1.83</v>
+      </c>
+      <c r="S190">
+        <v>3.6</v>
+      </c>
+      <c r="T190">
+        <v>1.63</v>
+      </c>
+      <c r="U190">
+        <v>2.24</v>
+      </c>
+      <c r="V190">
+        <v>3.86</v>
+      </c>
+      <c r="W190">
+        <v>1.22</v>
+      </c>
+      <c r="X190">
+        <v>9.35</v>
+      </c>
+      <c r="Y190">
+        <v>1.01</v>
+      </c>
+      <c r="Z190">
+        <v>2.63</v>
+      </c>
+      <c r="AA190">
+        <v>2.8</v>
+      </c>
+      <c r="AB190">
+        <v>2.7</v>
+      </c>
+      <c r="AC190">
+        <v>1.14</v>
+      </c>
+      <c r="AD190">
+        <v>5.52</v>
+      </c>
+      <c r="AE190">
+        <v>1.57</v>
+      </c>
+      <c r="AF190">
+        <v>2.25</v>
+      </c>
+      <c r="AG190">
+        <v>2.75</v>
+      </c>
+      <c r="AH190">
+        <v>1.4</v>
+      </c>
+      <c r="AI190">
+        <v>2.25</v>
+      </c>
+      <c r="AJ190">
+        <v>1.57</v>
+      </c>
+      <c r="AK190">
+        <v>1.37</v>
+      </c>
+      <c r="AL190">
+        <v>1.36</v>
+      </c>
+      <c r="AM190">
+        <v>1.44</v>
+      </c>
+      <c r="AN190">
+        <v>1.45</v>
+      </c>
+      <c r="AO190">
+        <v>1.6</v>
+      </c>
+      <c r="AP190">
+        <v>1.33</v>
+      </c>
+      <c r="AQ190">
+        <v>1.73</v>
+      </c>
+      <c r="AR190">
+        <v>1.19</v>
+      </c>
+      <c r="AS190">
+        <v>1.41</v>
+      </c>
+      <c r="AT190">
+        <v>2.6</v>
+      </c>
+      <c r="AU190">
+        <v>2</v>
+      </c>
+      <c r="AV190">
+        <v>8</v>
+      </c>
+      <c r="AW190">
+        <v>3</v>
+      </c>
+      <c r="AX190">
+        <v>4</v>
+      </c>
+      <c r="AY190">
+        <v>5</v>
+      </c>
+      <c r="AZ190">
+        <v>12</v>
+      </c>
+      <c r="BA190">
+        <v>4</v>
+      </c>
+      <c r="BB190">
+        <v>4</v>
+      </c>
+      <c r="BC190">
+        <v>8</v>
+      </c>
+      <c r="BD190">
+        <v>2.29</v>
+      </c>
+      <c r="BE190">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF190">
+        <v>1.79</v>
+      </c>
+      <c r="BG190">
+        <v>1.36</v>
+      </c>
+      <c r="BH190">
+        <v>2.79</v>
+      </c>
+      <c r="BI190">
+        <v>1.71</v>
+      </c>
+      <c r="BJ190">
+        <v>2.09</v>
+      </c>
+      <c r="BK190">
+        <v>2.16</v>
+      </c>
+      <c r="BL190">
+        <v>1.67</v>
+      </c>
+      <c r="BM190">
+        <v>2.84</v>
+      </c>
+      <c r="BN190">
+        <v>1.35</v>
+      </c>
+      <c r="BO190">
+        <v>3.7</v>
+      </c>
+      <c r="BP190">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="292">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -888,6 +888,9 @@
   <si>
     <t>['62']</t>
   </si>
+  <si>
+    <t>['51', '75']</t>
+  </si>
 </sst>
 </file>
 
@@ -1248,7 +1251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP190"/>
+  <dimension ref="A1:BP191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3442,7 +3445,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ11">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4881,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ18">
         <v>1.42</v>
@@ -8180,7 +8183,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ34">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR34">
         <v>1.72</v>
@@ -8383,7 +8386,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ35">
         <v>0.91</v>
@@ -10652,7 +10655,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ46">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR46">
         <v>2.1</v>
@@ -11679,7 +11682,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ51">
         <v>1.27</v>
@@ -14975,7 +14978,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ67">
         <v>0.82</v>
@@ -19922,7 +19925,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ91">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR91">
         <v>2.39</v>
@@ -20331,7 +20334,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ93">
         <v>1.1</v>
@@ -21361,7 +21364,7 @@
         <v>1.4</v>
       </c>
       <c r="AP98">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ98">
         <v>1</v>
@@ -24451,7 +24454,7 @@
         <v>0.86</v>
       </c>
       <c r="AP113">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ113">
         <v>0.82</v>
@@ -26102,7 +26105,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ121">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR121">
         <v>0.92</v>
@@ -27541,7 +27544,7 @@
         <v>1</v>
       </c>
       <c r="AP128">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ128">
         <v>1.18</v>
@@ -28986,7 +28989,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ135">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR135">
         <v>1.42</v>
@@ -30013,7 +30016,7 @@
         <v>2</v>
       </c>
       <c r="AP140">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ140">
         <v>1.73</v>
@@ -30222,7 +30225,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ141">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR141">
         <v>1.27</v>
@@ -31661,7 +31664,7 @@
         <v>1.56</v>
       </c>
       <c r="AP148">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ148">
         <v>1.92</v>
@@ -34545,7 +34548,7 @@
         <v>1.67</v>
       </c>
       <c r="AP162">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ162">
         <v>2</v>
@@ -34754,7 +34757,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ163">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR163">
         <v>1.17</v>
@@ -37429,7 +37432,7 @@
         <v>0.3</v>
       </c>
       <c r="AP176">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AQ176">
         <v>0.27</v>
@@ -38668,7 +38671,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ182">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AR182">
         <v>1.54</v>
@@ -40392,6 +40395,212 @@
       </c>
       <c r="BP190">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>7364313</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45431.5</v>
+      </c>
+      <c r="F191">
+        <v>24</v>
+      </c>
+      <c r="G191" t="s">
+        <v>86</v>
+      </c>
+      <c r="H191" t="s">
+        <v>78</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+      <c r="M191">
+        <v>2</v>
+      </c>
+      <c r="N191">
+        <v>2</v>
+      </c>
+      <c r="O191" t="s">
+        <v>92</v>
+      </c>
+      <c r="P191" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q191">
+        <v>5</v>
+      </c>
+      <c r="R191">
+        <v>2.1</v>
+      </c>
+      <c r="S191">
+        <v>2.25</v>
+      </c>
+      <c r="T191">
+        <v>1.43</v>
+      </c>
+      <c r="U191">
+        <v>2.7</v>
+      </c>
+      <c r="V191">
+        <v>2.99</v>
+      </c>
+      <c r="W191">
+        <v>1.36</v>
+      </c>
+      <c r="X191">
+        <v>7.6</v>
+      </c>
+      <c r="Y191">
+        <v>1.05</v>
+      </c>
+      <c r="Z191">
+        <v>4.5</v>
+      </c>
+      <c r="AA191">
+        <v>3.6</v>
+      </c>
+      <c r="AB191">
+        <v>1.67</v>
+      </c>
+      <c r="AC191">
+        <v>1.03</v>
+      </c>
+      <c r="AD191">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE191">
+        <v>1.35</v>
+      </c>
+      <c r="AF191">
+        <v>3.13</v>
+      </c>
+      <c r="AG191">
+        <v>2</v>
+      </c>
+      <c r="AH191">
+        <v>1.8</v>
+      </c>
+      <c r="AI191">
+        <v>1.91</v>
+      </c>
+      <c r="AJ191">
+        <v>1.8</v>
+      </c>
+      <c r="AK191">
+        <v>2.18</v>
+      </c>
+      <c r="AL191">
+        <v>1.23</v>
+      </c>
+      <c r="AM191">
+        <v>1.12</v>
+      </c>
+      <c r="AN191">
+        <v>1.42</v>
+      </c>
+      <c r="AO191">
+        <v>2.44</v>
+      </c>
+      <c r="AP191">
+        <v>1.31</v>
+      </c>
+      <c r="AQ191">
+        <v>2.5</v>
+      </c>
+      <c r="AR191">
+        <v>1.41</v>
+      </c>
+      <c r="AS191">
+        <v>1.73</v>
+      </c>
+      <c r="AT191">
+        <v>3.14</v>
+      </c>
+      <c r="AU191">
+        <v>4</v>
+      </c>
+      <c r="AV191">
+        <v>4</v>
+      </c>
+      <c r="AW191">
+        <v>5</v>
+      </c>
+      <c r="AX191">
+        <v>5</v>
+      </c>
+      <c r="AY191">
+        <v>9</v>
+      </c>
+      <c r="AZ191">
+        <v>9</v>
+      </c>
+      <c r="BA191">
+        <v>2</v>
+      </c>
+      <c r="BB191">
+        <v>6</v>
+      </c>
+      <c r="BC191">
+        <v>8</v>
+      </c>
+      <c r="BD191">
+        <v>2.64</v>
+      </c>
+      <c r="BE191">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF191">
+        <v>1.6</v>
+      </c>
+      <c r="BG191">
+        <v>1.24</v>
+      </c>
+      <c r="BH191">
+        <v>3.48</v>
+      </c>
+      <c r="BI191">
+        <v>1.52</v>
+      </c>
+      <c r="BJ191">
+        <v>2.47</v>
+      </c>
+      <c r="BK191">
+        <v>1.86</v>
+      </c>
+      <c r="BL191">
+        <v>1.93</v>
+      </c>
+      <c r="BM191">
+        <v>2.33</v>
+      </c>
+      <c r="BN191">
+        <v>1.58</v>
+      </c>
+      <c r="BO191">
+        <v>3.14</v>
+      </c>
+      <c r="BP191">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="292">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1251,7 +1251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP191"/>
+  <dimension ref="A1:BP192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2209,7 +2209,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ5">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ17">
         <v>0.91</v>
@@ -6741,7 +6741,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ27">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR27">
         <v>2.1</v>
@@ -6944,7 +6944,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ28">
         <v>1.27</v>
@@ -11479,7 +11479,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ50">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR50">
         <v>1.07</v>
@@ -11888,7 +11888,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ52">
         <v>0.82</v>
@@ -14775,7 +14775,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ66">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR66">
         <v>1.71</v>
@@ -15802,7 +15802,7 @@
         <v>1.75</v>
       </c>
       <c r="AP71">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -17041,7 +17041,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ77">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR77">
         <v>1.32</v>
@@ -18892,7 +18892,7 @@
         <v>0.2</v>
       </c>
       <c r="AP86">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ86">
         <v>0.82</v>
@@ -19719,7 +19719,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ90">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR90">
         <v>1.19</v>
@@ -21982,7 +21982,7 @@
         <v>1.2</v>
       </c>
       <c r="AP101">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ101">
         <v>0.82</v>
@@ -23015,7 +23015,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ106">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR106">
         <v>2.1</v>
@@ -25072,7 +25072,7 @@
         <v>1.17</v>
       </c>
       <c r="AP116">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ116">
         <v>1.18</v>
@@ -28162,7 +28162,7 @@
         <v>1.67</v>
       </c>
       <c r="AP131">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ131">
         <v>1.42</v>
@@ -28783,7 +28783,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ134">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR134">
         <v>1.63</v>
@@ -29192,7 +29192,7 @@
         <v>1.83</v>
       </c>
       <c r="AP136">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ136">
         <v>1.73</v>
@@ -33109,7 +33109,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ155">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR155">
         <v>1.48</v>
@@ -33930,7 +33930,7 @@
         <v>0.33</v>
       </c>
       <c r="AP159">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ159">
         <v>0.27</v>
@@ -36405,7 +36405,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ171">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR171">
         <v>1.49</v>
@@ -38668,7 +38668,7 @@
         <v>2.38</v>
       </c>
       <c r="AP182">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AQ182">
         <v>2.5</v>
@@ -40601,6 +40601,212 @@
       </c>
       <c r="BP191">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="192" spans="1:68">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>7364314</v>
+      </c>
+      <c r="C192" t="s">
+        <v>68</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45432.41666666666</v>
+      </c>
+      <c r="F192">
+        <v>24</v>
+      </c>
+      <c r="G192" t="s">
+        <v>85</v>
+      </c>
+      <c r="H192" t="s">
+        <v>83</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>0</v>
+      </c>
+      <c r="M192">
+        <v>0</v>
+      </c>
+      <c r="N192">
+        <v>0</v>
+      </c>
+      <c r="O192" t="s">
+        <v>92</v>
+      </c>
+      <c r="P192" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q192">
+        <v>2.75</v>
+      </c>
+      <c r="R192">
+        <v>2</v>
+      </c>
+      <c r="S192">
+        <v>4</v>
+      </c>
+      <c r="T192">
+        <v>1.48</v>
+      </c>
+      <c r="U192">
+        <v>2.66</v>
+      </c>
+      <c r="V192">
+        <v>3.41</v>
+      </c>
+      <c r="W192">
+        <v>1.32</v>
+      </c>
+      <c r="X192">
+        <v>8.4</v>
+      </c>
+      <c r="Y192">
+        <v>1.04</v>
+      </c>
+      <c r="Z192">
+        <v>2.05</v>
+      </c>
+      <c r="AA192">
+        <v>3</v>
+      </c>
+      <c r="AB192">
+        <v>3.6</v>
+      </c>
+      <c r="AC192">
+        <v>1.07</v>
+      </c>
+      <c r="AD192">
+        <v>7</v>
+      </c>
+      <c r="AE192">
+        <v>1.38</v>
+      </c>
+      <c r="AF192">
+        <v>2.8</v>
+      </c>
+      <c r="AG192">
+        <v>2.15</v>
+      </c>
+      <c r="AH192">
+        <v>1.67</v>
+      </c>
+      <c r="AI192">
+        <v>1.91</v>
+      </c>
+      <c r="AJ192">
+        <v>1.8</v>
+      </c>
+      <c r="AK192">
+        <v>1.23</v>
+      </c>
+      <c r="AL192">
+        <v>1.36</v>
+      </c>
+      <c r="AM192">
+        <v>1.72</v>
+      </c>
+      <c r="AN192">
+        <v>1.73</v>
+      </c>
+      <c r="AO192">
+        <v>1.6</v>
+      </c>
+      <c r="AP192">
+        <v>1.67</v>
+      </c>
+      <c r="AQ192">
+        <v>1.55</v>
+      </c>
+      <c r="AR192">
+        <v>1.47</v>
+      </c>
+      <c r="AS192">
+        <v>1.43</v>
+      </c>
+      <c r="AT192">
+        <v>2.9</v>
+      </c>
+      <c r="AU192">
+        <v>3</v>
+      </c>
+      <c r="AV192">
+        <v>3</v>
+      </c>
+      <c r="AW192">
+        <v>7</v>
+      </c>
+      <c r="AX192">
+        <v>2</v>
+      </c>
+      <c r="AY192">
+        <v>10</v>
+      </c>
+      <c r="AZ192">
+        <v>5</v>
+      </c>
+      <c r="BA192">
+        <v>7</v>
+      </c>
+      <c r="BB192">
+        <v>4</v>
+      </c>
+      <c r="BC192">
+        <v>11</v>
+      </c>
+      <c r="BD192">
+        <v>1.68</v>
+      </c>
+      <c r="BE192">
+        <v>8.4</v>
+      </c>
+      <c r="BF192">
+        <v>2.48</v>
+      </c>
+      <c r="BG192">
+        <v>1.33</v>
+      </c>
+      <c r="BH192">
+        <v>2.91</v>
+      </c>
+      <c r="BI192">
+        <v>1.68</v>
+      </c>
+      <c r="BJ192">
+        <v>2.17</v>
+      </c>
+      <c r="BK192">
+        <v>2.11</v>
+      </c>
+      <c r="BL192">
+        <v>1.71</v>
+      </c>
+      <c r="BM192">
+        <v>2.75</v>
+      </c>
+      <c r="BN192">
+        <v>1.37</v>
+      </c>
+      <c r="BO192">
+        <v>3.84</v>
+      </c>
+      <c r="BP192">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="292">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1251,7 +1251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP192"/>
+  <dimension ref="A1:BP195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ3">
         <v>0.82</v>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AQ6">
         <v>0.82</v>
@@ -3854,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ13">
         <v>1.18</v>
@@ -4063,7 +4063,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ14">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4681,7 +4681,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ17">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4887,7 +4887,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ18">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5090,7 +5090,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ19">
         <v>0.82</v>
@@ -7153,7 +7153,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ29">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7356,10 +7356,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ30">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR30">
         <v>1.5</v>
@@ -7974,7 +7974,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AQ33">
         <v>1.92</v>
@@ -8389,7 +8389,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ35">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR35">
         <v>1.17</v>
@@ -9210,7 +9210,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ39">
         <v>1.18</v>
@@ -10243,7 +10243,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ44">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR44">
         <v>1.33</v>
@@ -10861,7 +10861,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ47">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR47">
         <v>1.07</v>
@@ -11064,7 +11064,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AQ48">
         <v>2</v>
@@ -11270,10 +11270,10 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ49">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR49">
         <v>1.3</v>
@@ -14363,7 +14363,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ64">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR64">
         <v>1.58</v>
@@ -14566,7 +14566,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ65">
         <v>1.27</v>
@@ -15184,10 +15184,10 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AQ68">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR68">
         <v>1.07</v>
@@ -17244,7 +17244,7 @@
         <v>0.75</v>
       </c>
       <c r="AP78">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ78">
         <v>0.82</v>
@@ -17453,7 +17453,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ79">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR79">
         <v>1.49</v>
@@ -17656,10 +17656,10 @@
         <v>0.25</v>
       </c>
       <c r="AP80">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ80">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR80">
         <v>2.17</v>
@@ -18689,7 +18689,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ85">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR85">
         <v>0.83</v>
@@ -19716,7 +19716,7 @@
         <v>1.2</v>
       </c>
       <c r="AP90">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AQ90">
         <v>1.55</v>
@@ -19922,7 +19922,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ91">
         <v>2.5</v>
@@ -20128,7 +20128,7 @@
         <v>3</v>
       </c>
       <c r="AP92">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ92">
         <v>1.73</v>
@@ -20955,7 +20955,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ96">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR96">
         <v>2.02</v>
@@ -21779,7 +21779,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ100">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR100">
         <v>0.96</v>
@@ -22188,7 +22188,7 @@
         <v>0.83</v>
       </c>
       <c r="AP102">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ102">
         <v>1.1</v>
@@ -23012,7 +23012,7 @@
         <v>1.5</v>
       </c>
       <c r="AP106">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ106">
         <v>1.55</v>
@@ -23218,7 +23218,7 @@
         <v>1.4</v>
       </c>
       <c r="AP107">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AQ107">
         <v>1.64</v>
@@ -23839,7 +23839,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ110">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR110">
         <v>1.52</v>
@@ -24663,7 +24663,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ114">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR114">
         <v>1.07</v>
@@ -24869,7 +24869,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ115">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR115">
         <v>1.53</v>
@@ -25281,7 +25281,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ117">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR117">
         <v>2.07</v>
@@ -25690,7 +25690,7 @@
         <v>1.67</v>
       </c>
       <c r="AP119">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ119">
         <v>1.4</v>
@@ -25896,7 +25896,7 @@
         <v>0.43</v>
       </c>
       <c r="AP120">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AQ120">
         <v>0.82</v>
@@ -26720,7 +26720,7 @@
         <v>1.67</v>
       </c>
       <c r="AP124">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ124">
         <v>1.64</v>
@@ -27959,7 +27959,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ130">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR130">
         <v>1.42</v>
@@ -28165,7 +28165,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ131">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR131">
         <v>1.35</v>
@@ -28371,7 +28371,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ132">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR132">
         <v>1.11</v>
@@ -29401,7 +29401,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ137">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR137">
         <v>1.74</v>
@@ -29604,7 +29604,7 @@
         <v>1.75</v>
       </c>
       <c r="AP138">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ138">
         <v>2</v>
@@ -30222,7 +30222,7 @@
         <v>2.17</v>
       </c>
       <c r="AP141">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AQ141">
         <v>2.5</v>
@@ -31049,7 +31049,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ145">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR145">
         <v>1.15</v>
@@ -31255,7 +31255,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ146">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR146">
         <v>1.68</v>
@@ -31461,7 +31461,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ147">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR147">
         <v>1.15</v>
@@ -31870,7 +31870,7 @@
         <v>1</v>
       </c>
       <c r="AP149">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ149">
         <v>1.09</v>
@@ -32076,7 +32076,7 @@
         <v>1.86</v>
       </c>
       <c r="AP150">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ150">
         <v>1.4</v>
@@ -33518,7 +33518,7 @@
         <v>1.7</v>
       </c>
       <c r="AP157">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ157">
         <v>1.92</v>
@@ -33727,7 +33727,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ158">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR158">
         <v>1.34</v>
@@ -33933,7 +33933,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ159">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR159">
         <v>1.5</v>
@@ -34136,7 +34136,7 @@
         <v>0.78</v>
       </c>
       <c r="AP160">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AQ160">
         <v>1.18</v>
@@ -34345,7 +34345,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ161">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR161">
         <v>1.63</v>
@@ -35578,7 +35578,7 @@
         <v>0.9</v>
       </c>
       <c r="AP167">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ167">
         <v>1.09</v>
@@ -37229,7 +37229,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ175">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR175">
         <v>1.72</v>
@@ -37435,7 +37435,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ176">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR176">
         <v>1.36</v>
@@ -38053,7 +38053,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ179">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AR179">
         <v>1.36</v>
@@ -38462,10 +38462,10 @@
         <v>1.27</v>
       </c>
       <c r="AP181">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AQ181">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AR181">
         <v>1.23</v>
@@ -38874,7 +38874,7 @@
         <v>1.86</v>
       </c>
       <c r="AP183">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AQ183">
         <v>2</v>
@@ -40806,6 +40806,624 @@
         <v>3.84</v>
       </c>
       <c r="BP192">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:68">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>7364316</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45432.54166666666</v>
+      </c>
+      <c r="F193">
+        <v>24</v>
+      </c>
+      <c r="G193" t="s">
+        <v>74</v>
+      </c>
+      <c r="H193" t="s">
+        <v>76</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193">
+        <v>2</v>
+      </c>
+      <c r="O193" t="s">
+        <v>171</v>
+      </c>
+      <c r="P193" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q193">
+        <v>3.4</v>
+      </c>
+      <c r="R193">
+        <v>1.83</v>
+      </c>
+      <c r="S193">
+        <v>3.75</v>
+      </c>
+      <c r="T193">
+        <v>1.57</v>
+      </c>
+      <c r="U193">
+        <v>2.25</v>
+      </c>
+      <c r="V193">
+        <v>3.6</v>
+      </c>
+      <c r="W193">
+        <v>1.25</v>
+      </c>
+      <c r="X193">
+        <v>10</v>
+      </c>
+      <c r="Y193">
+        <v>1.02</v>
+      </c>
+      <c r="Z193">
+        <v>2.55</v>
+      </c>
+      <c r="AA193">
+        <v>2.7</v>
+      </c>
+      <c r="AB193">
+        <v>2.9</v>
+      </c>
+      <c r="AC193">
+        <v>1.1</v>
+      </c>
+      <c r="AD193">
+        <v>5.75</v>
+      </c>
+      <c r="AE193">
+        <v>1.5</v>
+      </c>
+      <c r="AF193">
+        <v>2.37</v>
+      </c>
+      <c r="AG193">
+        <v>2.63</v>
+      </c>
+      <c r="AH193">
+        <v>1.44</v>
+      </c>
+      <c r="AI193">
+        <v>2.2</v>
+      </c>
+      <c r="AJ193">
+        <v>1.62</v>
+      </c>
+      <c r="AK193">
+        <v>1.38</v>
+      </c>
+      <c r="AL193">
+        <v>1.48</v>
+      </c>
+      <c r="AM193">
+        <v>1.44</v>
+      </c>
+      <c r="AN193">
+        <v>0.3</v>
+      </c>
+      <c r="AO193">
+        <v>0.91</v>
+      </c>
+      <c r="AP193">
+        <v>0.36</v>
+      </c>
+      <c r="AQ193">
+        <v>0.92</v>
+      </c>
+      <c r="AR193">
+        <v>1.2</v>
+      </c>
+      <c r="AS193">
+        <v>1.35</v>
+      </c>
+      <c r="AT193">
+        <v>2.55</v>
+      </c>
+      <c r="AU193">
+        <v>4</v>
+      </c>
+      <c r="AV193">
+        <v>3</v>
+      </c>
+      <c r="AW193">
+        <v>6</v>
+      </c>
+      <c r="AX193">
+        <v>7</v>
+      </c>
+      <c r="AY193">
+        <v>10</v>
+      </c>
+      <c r="AZ193">
+        <v>10</v>
+      </c>
+      <c r="BA193">
+        <v>4</v>
+      </c>
+      <c r="BB193">
+        <v>5</v>
+      </c>
+      <c r="BC193">
+        <v>9</v>
+      </c>
+      <c r="BD193">
+        <v>1.81</v>
+      </c>
+      <c r="BE193">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF193">
+        <v>2.25</v>
+      </c>
+      <c r="BG193">
+        <v>1.34</v>
+      </c>
+      <c r="BH193">
+        <v>2.88</v>
+      </c>
+      <c r="BI193">
+        <v>1.69</v>
+      </c>
+      <c r="BJ193">
+        <v>2.15</v>
+      </c>
+      <c r="BK193">
+        <v>2.12</v>
+      </c>
+      <c r="BL193">
+        <v>1.7</v>
+      </c>
+      <c r="BM193">
+        <v>2.78</v>
+      </c>
+      <c r="BN193">
+        <v>1.36</v>
+      </c>
+      <c r="BO193">
+        <v>3.88</v>
+      </c>
+      <c r="BP193">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7364315</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45432.54166666666</v>
+      </c>
+      <c r="F194">
+        <v>24</v>
+      </c>
+      <c r="G194" t="s">
+        <v>71</v>
+      </c>
+      <c r="H194" t="s">
+        <v>77</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>0</v>
+      </c>
+      <c r="O194" t="s">
+        <v>92</v>
+      </c>
+      <c r="P194" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q194">
+        <v>3.25</v>
+      </c>
+      <c r="R194">
+        <v>1.91</v>
+      </c>
+      <c r="S194">
+        <v>3.5</v>
+      </c>
+      <c r="T194">
+        <v>1.48</v>
+      </c>
+      <c r="U194">
+        <v>2.5</v>
+      </c>
+      <c r="V194">
+        <v>3</v>
+      </c>
+      <c r="W194">
+        <v>1.33</v>
+      </c>
+      <c r="X194">
+        <v>8</v>
+      </c>
+      <c r="Y194">
+        <v>1.05</v>
+      </c>
+      <c r="Z194">
+        <v>2.5</v>
+      </c>
+      <c r="AA194">
+        <v>2.8</v>
+      </c>
+      <c r="AB194">
+        <v>3</v>
+      </c>
+      <c r="AC194">
+        <v>1.06</v>
+      </c>
+      <c r="AD194">
+        <v>7.5</v>
+      </c>
+      <c r="AE194">
+        <v>1.36</v>
+      </c>
+      <c r="AF194">
+        <v>2.9</v>
+      </c>
+      <c r="AG194">
+        <v>2.38</v>
+      </c>
+      <c r="AH194">
+        <v>1.53</v>
+      </c>
+      <c r="AI194">
+        <v>2</v>
+      </c>
+      <c r="AJ194">
+        <v>1.73</v>
+      </c>
+      <c r="AK194">
+        <v>1.36</v>
+      </c>
+      <c r="AL194">
+        <v>1.4</v>
+      </c>
+      <c r="AM194">
+        <v>1.53</v>
+      </c>
+      <c r="AN194">
+        <v>1.3</v>
+      </c>
+      <c r="AO194">
+        <v>1.42</v>
+      </c>
+      <c r="AP194">
+        <v>1.27</v>
+      </c>
+      <c r="AQ194">
+        <v>1.38</v>
+      </c>
+      <c r="AR194">
+        <v>1.69</v>
+      </c>
+      <c r="AS194">
+        <v>1.19</v>
+      </c>
+      <c r="AT194">
+        <v>2.88</v>
+      </c>
+      <c r="AU194">
+        <v>3</v>
+      </c>
+      <c r="AV194">
+        <v>0</v>
+      </c>
+      <c r="AW194">
+        <v>4</v>
+      </c>
+      <c r="AX194">
+        <v>3</v>
+      </c>
+      <c r="AY194">
+        <v>7</v>
+      </c>
+      <c r="AZ194">
+        <v>3</v>
+      </c>
+      <c r="BA194">
+        <v>5</v>
+      </c>
+      <c r="BB194">
+        <v>1</v>
+      </c>
+      <c r="BC194">
+        <v>6</v>
+      </c>
+      <c r="BD194">
+        <v>1.79</v>
+      </c>
+      <c r="BE194">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF194">
+        <v>2.28</v>
+      </c>
+      <c r="BG194">
+        <v>1.3</v>
+      </c>
+      <c r="BH194">
+        <v>3.08</v>
+      </c>
+      <c r="BI194">
+        <v>1.61</v>
+      </c>
+      <c r="BJ194">
+        <v>2.26</v>
+      </c>
+      <c r="BK194">
+        <v>2.01</v>
+      </c>
+      <c r="BL194">
+        <v>1.79</v>
+      </c>
+      <c r="BM194">
+        <v>2.57</v>
+      </c>
+      <c r="BN194">
+        <v>1.48</v>
+      </c>
+      <c r="BO194">
+        <v>3.48</v>
+      </c>
+      <c r="BP194">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="195" spans="1:68">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>7364317</v>
+      </c>
+      <c r="C195" t="s">
+        <v>68</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45433.41666666666</v>
+      </c>
+      <c r="F195">
+        <v>24</v>
+      </c>
+      <c r="G195" t="s">
+        <v>81</v>
+      </c>
+      <c r="H195" t="s">
+        <v>73</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>1</v>
+      </c>
+      <c r="O195" t="s">
+        <v>185</v>
+      </c>
+      <c r="P195" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q195">
+        <v>2.88</v>
+      </c>
+      <c r="R195">
+        <v>1.83</v>
+      </c>
+      <c r="S195">
+        <v>4.75</v>
+      </c>
+      <c r="T195">
+        <v>1.67</v>
+      </c>
+      <c r="U195">
+        <v>2.1</v>
+      </c>
+      <c r="V195">
+        <v>4</v>
+      </c>
+      <c r="W195">
+        <v>1.2</v>
+      </c>
+      <c r="X195">
+        <v>11</v>
+      </c>
+      <c r="Y195">
+        <v>1.01</v>
+      </c>
+      <c r="Z195">
+        <v>2</v>
+      </c>
+      <c r="AA195">
+        <v>2.88</v>
+      </c>
+      <c r="AB195">
+        <v>3.9</v>
+      </c>
+      <c r="AC195">
+        <v>1.15</v>
+      </c>
+      <c r="AD195">
+        <v>4.75</v>
+      </c>
+      <c r="AE195">
+        <v>1.57</v>
+      </c>
+      <c r="AF195">
+        <v>2.31</v>
+      </c>
+      <c r="AG195">
+        <v>2.63</v>
+      </c>
+      <c r="AH195">
+        <v>1.44</v>
+      </c>
+      <c r="AI195">
+        <v>2.38</v>
+      </c>
+      <c r="AJ195">
+        <v>1.53</v>
+      </c>
+      <c r="AK195">
+        <v>1.22</v>
+      </c>
+      <c r="AL195">
+        <v>1.48</v>
+      </c>
+      <c r="AM195">
+        <v>1.67</v>
+      </c>
+      <c r="AN195">
+        <v>0.91</v>
+      </c>
+      <c r="AO195">
+        <v>0.27</v>
+      </c>
+      <c r="AP195">
+        <v>1.08</v>
+      </c>
+      <c r="AQ195">
+        <v>0.25</v>
+      </c>
+      <c r="AR195">
+        <v>1.26</v>
+      </c>
+      <c r="AS195">
+        <v>1</v>
+      </c>
+      <c r="AT195">
+        <v>2.26</v>
+      </c>
+      <c r="AU195">
+        <v>7</v>
+      </c>
+      <c r="AV195">
+        <v>6</v>
+      </c>
+      <c r="AW195">
+        <v>3</v>
+      </c>
+      <c r="AX195">
+        <v>11</v>
+      </c>
+      <c r="AY195">
+        <v>10</v>
+      </c>
+      <c r="AZ195">
+        <v>17</v>
+      </c>
+      <c r="BA195">
+        <v>1</v>
+      </c>
+      <c r="BB195">
+        <v>1</v>
+      </c>
+      <c r="BC195">
+        <v>2</v>
+      </c>
+      <c r="BD195">
+        <v>1.61</v>
+      </c>
+      <c r="BE195">
+        <v>8.4</v>
+      </c>
+      <c r="BF195">
+        <v>2.65</v>
+      </c>
+      <c r="BG195">
+        <v>1.5</v>
+      </c>
+      <c r="BH195">
+        <v>2.53</v>
+      </c>
+      <c r="BI195">
+        <v>1.86</v>
+      </c>
+      <c r="BJ195">
+        <v>1.93</v>
+      </c>
+      <c r="BK195">
+        <v>2.38</v>
+      </c>
+      <c r="BL195">
+        <v>1.56</v>
+      </c>
+      <c r="BM195">
+        <v>3.2</v>
+      </c>
+      <c r="BN195">
+        <v>1.28</v>
+      </c>
+      <c r="BO195">
+        <v>4</v>
+      </c>
+      <c r="BP195">
         <v>1.2</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="292">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -625,6 +625,9 @@
     <t>['43', '45+4', '62', '75', '81']</t>
   </si>
   <si>
+    <t>['48']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -665,9 +668,6 @@
   </si>
   <si>
     <t>['67']</t>
-  </si>
-  <si>
-    <t>['48']</t>
   </si>
   <si>
     <t>['45+4', '81', '90+7']</t>
@@ -1251,7 +1251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP195"/>
+  <dimension ref="A1:BP197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1591,7 +1591,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ2">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2334,7 +2334,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2746,7 +2746,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3158,7 +3158,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3570,7 +3570,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3776,7 +3776,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -3982,7 +3982,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4269,7 +4269,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ15">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ16">
         <v>1.92</v>
@@ -5012,7 +5012,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5424,7 +5424,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5630,7 +5630,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5836,7 +5836,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -6248,7 +6248,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q25">
         <v>3.75</v>
@@ -6454,7 +6454,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6947,7 +6947,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ28">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR28">
         <v>1.47</v>
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ29">
         <v>0.25</v>
@@ -7278,7 +7278,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7484,7 +7484,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7690,7 +7690,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="Q32">
         <v>3.2</v>
@@ -7771,7 +7771,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ32">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR32">
         <v>0.38</v>
@@ -10652,7 +10652,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ46">
         <v>2.5</v>
@@ -10858,7 +10858,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ47">
         <v>0.25</v>
@@ -11685,7 +11685,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ51">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR51">
         <v>1.33</v>
@@ -11891,7 +11891,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ52">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR52">
         <v>1.27</v>
@@ -12094,7 +12094,7 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ53">
         <v>2</v>
@@ -12300,7 +12300,7 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ54">
         <v>2</v>
@@ -14569,7 +14569,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ65">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR65">
         <v>1.25</v>
@@ -14772,7 +14772,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ66">
         <v>1.55</v>
@@ -14900,7 +14900,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="Q67">
         <v>3.1</v>
@@ -14981,7 +14981,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ67">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR67">
         <v>1.54</v>
@@ -17038,7 +17038,7 @@
         <v>0.75</v>
       </c>
       <c r="AP77">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ77">
         <v>1.55</v>
@@ -17247,7 +17247,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ78">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR78">
         <v>1.22</v>
@@ -17865,7 +17865,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ81">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR81">
         <v>1.59</v>
@@ -19098,7 +19098,7 @@
         <v>1.5</v>
       </c>
       <c r="AP87">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ87">
         <v>1.64</v>
@@ -19307,7 +19307,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ88">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR88">
         <v>1.62</v>
@@ -19513,7 +19513,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ89">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR89">
         <v>1.45</v>
@@ -20256,7 +20256,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="Q93">
         <v>3.6</v>
@@ -21570,7 +21570,7 @@
         <v>1.8</v>
       </c>
       <c r="AP99">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ99">
         <v>1.4</v>
@@ -22397,7 +22397,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ103">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR103">
         <v>1.37</v>
@@ -22603,7 +22603,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ104">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR104">
         <v>1.48</v>
@@ -22806,7 +22806,7 @@
         <v>0.33</v>
       </c>
       <c r="AP105">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ105">
         <v>0.82</v>
@@ -24045,7 +24045,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ111">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR111">
         <v>1.38</v>
@@ -24248,7 +24248,7 @@
         <v>0.86</v>
       </c>
       <c r="AP112">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ112">
         <v>1.09</v>
@@ -26926,7 +26926,7 @@
         <v>1.33</v>
       </c>
       <c r="AP125">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ125">
         <v>1</v>
@@ -27338,7 +27338,7 @@
         <v>1.63</v>
       </c>
       <c r="AP127">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ127">
         <v>1.92</v>
@@ -27750,7 +27750,7 @@
         <v>0.75</v>
       </c>
       <c r="AP129">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ129">
         <v>1.09</v>
@@ -28577,7 +28577,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ133">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR133">
         <v>1.99</v>
@@ -28986,7 +28986,7 @@
         <v>2</v>
       </c>
       <c r="AP135">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ135">
         <v>2.5</v>
@@ -29810,7 +29810,7 @@
         <v>1.57</v>
       </c>
       <c r="AP139">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ139">
         <v>1.64</v>
@@ -30634,7 +30634,7 @@
         <v>0.88</v>
       </c>
       <c r="AP143">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ143">
         <v>1.18</v>
@@ -30843,7 +30843,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ144">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR144">
         <v>1.47</v>
@@ -31252,7 +31252,7 @@
         <v>1.63</v>
       </c>
       <c r="AP146">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ146">
         <v>1.38</v>
@@ -33315,7 +33315,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ156">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR156">
         <v>2.03</v>
@@ -33724,7 +33724,7 @@
         <v>1.56</v>
       </c>
       <c r="AP158">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ158">
         <v>1.38</v>
@@ -34264,7 +34264,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34342,7 +34342,7 @@
         <v>0.67</v>
       </c>
       <c r="AP161">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ161">
         <v>0.92</v>
@@ -34963,7 +34963,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ164">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR164">
         <v>1.65</v>
@@ -35169,7 +35169,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ165">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR165">
         <v>1.13</v>
@@ -37844,10 +37844,10 @@
         <v>1.4</v>
       </c>
       <c r="AP178">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AQ178">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR178">
         <v>1.64</v>
@@ -38050,7 +38050,7 @@
         <v>0.7</v>
       </c>
       <c r="AP179">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ179">
         <v>0.92</v>
@@ -38259,7 +38259,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ180">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR180">
         <v>1.2</v>
@@ -40238,7 +40238,7 @@
         <v>92</v>
       </c>
       <c r="P190" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q190">
         <v>3.5</v>
@@ -41425,6 +41425,418 @@
       </c>
       <c r="BP195">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:68">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>7364319</v>
+      </c>
+      <c r="C196" t="s">
+        <v>68</v>
+      </c>
+      <c r="D196" t="s">
+        <v>69</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45433.54166666666</v>
+      </c>
+      <c r="F196">
+        <v>24</v>
+      </c>
+      <c r="G196" t="s">
+        <v>87</v>
+      </c>
+      <c r="H196" t="s">
+        <v>79</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>1</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>1</v>
+      </c>
+      <c r="O196" t="s">
+        <v>203</v>
+      </c>
+      <c r="P196" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q196">
+        <v>2.75</v>
+      </c>
+      <c r="R196">
+        <v>2.1</v>
+      </c>
+      <c r="S196">
+        <v>3.75</v>
+      </c>
+      <c r="T196">
+        <v>1.38</v>
+      </c>
+      <c r="U196">
+        <v>2.97</v>
+      </c>
+      <c r="V196">
+        <v>2.92</v>
+      </c>
+      <c r="W196">
+        <v>1.39</v>
+      </c>
+      <c r="X196">
+        <v>6.9</v>
+      </c>
+      <c r="Y196">
+        <v>1.07</v>
+      </c>
+      <c r="Z196">
+        <v>2.1</v>
+      </c>
+      <c r="AA196">
+        <v>2.9</v>
+      </c>
+      <c r="AB196">
+        <v>3.5</v>
+      </c>
+      <c r="AC196">
+        <v>1.03</v>
+      </c>
+      <c r="AD196">
+        <v>9</v>
+      </c>
+      <c r="AE196">
+        <v>1.29</v>
+      </c>
+      <c r="AF196">
+        <v>3.3</v>
+      </c>
+      <c r="AG196">
+        <v>2.05</v>
+      </c>
+      <c r="AH196">
+        <v>1.75</v>
+      </c>
+      <c r="AI196">
+        <v>1.8</v>
+      </c>
+      <c r="AJ196">
+        <v>1.91</v>
+      </c>
+      <c r="AK196">
+        <v>1.22</v>
+      </c>
+      <c r="AL196">
+        <v>1.36</v>
+      </c>
+      <c r="AM196">
+        <v>1.76</v>
+      </c>
+      <c r="AN196">
+        <v>1.82</v>
+      </c>
+      <c r="AO196">
+        <v>0.82</v>
+      </c>
+      <c r="AP196">
+        <v>1.92</v>
+      </c>
+      <c r="AQ196">
+        <v>0.75</v>
+      </c>
+      <c r="AR196">
+        <v>1.61</v>
+      </c>
+      <c r="AS196">
+        <v>1.36</v>
+      </c>
+      <c r="AT196">
+        <v>2.97</v>
+      </c>
+      <c r="AU196">
+        <v>3</v>
+      </c>
+      <c r="AV196">
+        <v>2</v>
+      </c>
+      <c r="AW196">
+        <v>2</v>
+      </c>
+      <c r="AX196">
+        <v>10</v>
+      </c>
+      <c r="AY196">
+        <v>5</v>
+      </c>
+      <c r="AZ196">
+        <v>12</v>
+      </c>
+      <c r="BA196">
+        <v>6</v>
+      </c>
+      <c r="BB196">
+        <v>2</v>
+      </c>
+      <c r="BC196">
+        <v>8</v>
+      </c>
+      <c r="BD196">
+        <v>1.63</v>
+      </c>
+      <c r="BE196">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF196">
+        <v>2.56</v>
+      </c>
+      <c r="BG196">
+        <v>1.19</v>
+      </c>
+      <c r="BH196">
+        <v>3.98</v>
+      </c>
+      <c r="BI196">
+        <v>1.37</v>
+      </c>
+      <c r="BJ196">
+        <v>2.75</v>
+      </c>
+      <c r="BK196">
+        <v>2.2</v>
+      </c>
+      <c r="BL196">
+        <v>2.1</v>
+      </c>
+      <c r="BM196">
+        <v>2.15</v>
+      </c>
+      <c r="BN196">
+        <v>1.69</v>
+      </c>
+      <c r="BO196">
+        <v>2.75</v>
+      </c>
+      <c r="BP196">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="197" spans="1:68">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>7364318</v>
+      </c>
+      <c r="C197" t="s">
+        <v>68</v>
+      </c>
+      <c r="D197" t="s">
+        <v>69</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45433.54166666666</v>
+      </c>
+      <c r="F197">
+        <v>24</v>
+      </c>
+      <c r="G197" t="s">
+        <v>84</v>
+      </c>
+      <c r="H197" t="s">
+        <v>70</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <v>0</v>
+      </c>
+      <c r="O197" t="s">
+        <v>92</v>
+      </c>
+      <c r="P197" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q197">
+        <v>3.6</v>
+      </c>
+      <c r="R197">
+        <v>1.91</v>
+      </c>
+      <c r="S197">
+        <v>3.25</v>
+      </c>
+      <c r="T197">
+        <v>1.51</v>
+      </c>
+      <c r="U197">
+        <v>2.5</v>
+      </c>
+      <c r="V197">
+        <v>3.45</v>
+      </c>
+      <c r="W197">
+        <v>1.26</v>
+      </c>
+      <c r="X197">
+        <v>8.65</v>
+      </c>
+      <c r="Y197">
+        <v>1.03</v>
+      </c>
+      <c r="Z197">
+        <v>2.9</v>
+      </c>
+      <c r="AA197">
+        <v>2.7</v>
+      </c>
+      <c r="AB197">
+        <v>2.63</v>
+      </c>
+      <c r="AC197">
+        <v>1.08</v>
+      </c>
+      <c r="AD197">
+        <v>6.5</v>
+      </c>
+      <c r="AE197">
+        <v>1.47</v>
+      </c>
+      <c r="AF197">
+        <v>2.5</v>
+      </c>
+      <c r="AG197">
+        <v>2.5</v>
+      </c>
+      <c r="AH197">
+        <v>1.5</v>
+      </c>
+      <c r="AI197">
+        <v>2.1</v>
+      </c>
+      <c r="AJ197">
+        <v>1.67</v>
+      </c>
+      <c r="AK197">
+        <v>1.48</v>
+      </c>
+      <c r="AL197">
+        <v>1.4</v>
+      </c>
+      <c r="AM197">
+        <v>1.36</v>
+      </c>
+      <c r="AN197">
+        <v>1.25</v>
+      </c>
+      <c r="AO197">
+        <v>1.27</v>
+      </c>
+      <c r="AP197">
+        <v>1.23</v>
+      </c>
+      <c r="AQ197">
+        <v>1.25</v>
+      </c>
+      <c r="AR197">
+        <v>1.35</v>
+      </c>
+      <c r="AS197">
+        <v>1.29</v>
+      </c>
+      <c r="AT197">
+        <v>2.64</v>
+      </c>
+      <c r="AU197">
+        <v>4</v>
+      </c>
+      <c r="AV197">
+        <v>3</v>
+      </c>
+      <c r="AW197">
+        <v>12</v>
+      </c>
+      <c r="AX197">
+        <v>4</v>
+      </c>
+      <c r="AY197">
+        <v>16</v>
+      </c>
+      <c r="AZ197">
+        <v>7</v>
+      </c>
+      <c r="BA197">
+        <v>2</v>
+      </c>
+      <c r="BB197">
+        <v>0</v>
+      </c>
+      <c r="BC197">
+        <v>2</v>
+      </c>
+      <c r="BD197">
+        <v>1.86</v>
+      </c>
+      <c r="BE197">
+        <v>8.4</v>
+      </c>
+      <c r="BF197">
+        <v>2.17</v>
+      </c>
+      <c r="BG197">
+        <v>1.3</v>
+      </c>
+      <c r="BH197">
+        <v>3.08</v>
+      </c>
+      <c r="BI197">
+        <v>1.63</v>
+      </c>
+      <c r="BJ197">
+        <v>2.25</v>
+      </c>
+      <c r="BK197">
+        <v>2.25</v>
+      </c>
+      <c r="BL197">
+        <v>1.77</v>
+      </c>
+      <c r="BM197">
+        <v>2.57</v>
+      </c>
+      <c r="BN197">
+        <v>1.42</v>
+      </c>
+      <c r="BO197">
+        <v>3.56</v>
+      </c>
+      <c r="BP197">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="295">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -628,6 +628,9 @@
     <t>['48']</t>
   </si>
   <si>
+    <t>['69', '74', '90+7']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -890,6 +893,12 @@
   </si>
   <si>
     <t>['51', '75']</t>
+  </si>
+  <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['5', '45+2']</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP197"/>
+  <dimension ref="A1:BP200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2334,7 +2343,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2746,7 +2755,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2824,10 +2833,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ8">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3033,7 +3042,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ9">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3158,7 +3167,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3570,7 +3579,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3648,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ12">
         <v>1.09</v>
@@ -3776,7 +3785,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -3857,7 +3866,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ13">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3982,7 +3991,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4266,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ15">
         <v>1.25</v>
@@ -5012,7 +5021,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5424,7 +5433,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5630,7 +5639,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5708,10 +5717,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ22">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>1.22</v>
@@ -5836,7 +5845,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -6123,7 +6132,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ24">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR24">
         <v>1.15</v>
@@ -6248,7 +6257,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q25">
         <v>3.75</v>
@@ -6454,7 +6463,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -7278,7 +7287,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7484,7 +7493,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7562,10 +7571,10 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ31">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR31">
         <v>1.53</v>
@@ -7768,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ32">
         <v>0.75</v>
@@ -7896,7 +7905,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8514,7 +8523,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -8798,7 +8807,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -8926,7 +8935,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9004,7 +9013,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ38">
         <v>1.4</v>
@@ -9132,7 +9141,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9213,7 +9222,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ39">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR39">
         <v>1.93</v>
@@ -9338,7 +9347,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9625,7 +9634,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ41">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.48</v>
@@ -9956,7 +9965,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10037,7 +10046,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ43">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR43">
         <v>0.91</v>
@@ -10162,7 +10171,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10368,7 +10377,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10446,7 +10455,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ45">
         <v>1.92</v>
@@ -10986,7 +10995,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q48">
         <v>6.5</v>
@@ -11192,7 +11201,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11604,7 +11613,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11810,7 +11819,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12016,7 +12025,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12428,7 +12437,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12715,7 +12724,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ56">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR56">
         <v>1.78</v>
@@ -12840,7 +12849,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13252,7 +13261,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -13330,7 +13339,7 @@
         <v>0.33</v>
       </c>
       <c r="AP59">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ59">
         <v>1.09</v>
@@ -13664,7 +13673,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -13742,7 +13751,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ61">
         <v>1.64</v>
@@ -14076,7 +14085,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14157,7 +14166,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ63">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR63">
         <v>1</v>
@@ -14282,7 +14291,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14488,7 +14497,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14694,7 +14703,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -15312,7 +15321,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15599,7 +15608,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ70">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>1.2</v>
@@ -15930,7 +15939,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q72">
         <v>1.8</v>
@@ -16217,7 +16226,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ73">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR73">
         <v>0.83</v>
@@ -16342,7 +16351,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q74">
         <v>3.25</v>
@@ -16548,7 +16557,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16626,7 +16635,7 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ75">
         <v>1.92</v>
@@ -16832,7 +16841,7 @@
         <v>0.25</v>
       </c>
       <c r="AP76">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ76">
         <v>0.82</v>
@@ -16960,7 +16969,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17166,7 +17175,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17372,7 +17381,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17578,7 +17587,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -18480,7 +18489,7 @@
         <v>1.5</v>
       </c>
       <c r="AP84">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ84">
         <v>0.82</v>
@@ -18608,7 +18617,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18814,7 +18823,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19020,7 +19029,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19432,7 +19441,7 @@
         <v>147</v>
       </c>
       <c r="P89" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q89">
         <v>3.5</v>
@@ -19638,7 +19647,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -20131,7 +20140,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ92">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR92">
         <v>1.28</v>
@@ -20337,7 +20346,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ93">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR93">
         <v>1.44</v>
@@ -20540,10 +20549,10 @@
         <v>1.2</v>
       </c>
       <c r="AP94">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ94">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR94">
         <v>1.11</v>
@@ -21080,7 +21089,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21698,7 +21707,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -22110,7 +22119,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22191,7 +22200,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ102">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR102">
         <v>1.24</v>
@@ -22316,7 +22325,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22394,7 +22403,7 @@
         <v>1.33</v>
       </c>
       <c r="AP103">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ103">
         <v>1.25</v>
@@ -23140,7 +23149,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23552,7 +23561,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23633,7 +23642,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ109">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR109">
         <v>1.64</v>
@@ -23836,7 +23845,7 @@
         <v>0.2</v>
       </c>
       <c r="AP110">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ110">
         <v>0.25</v>
@@ -23964,7 +23973,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24042,7 +24051,7 @@
         <v>1.14</v>
       </c>
       <c r="AP111">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ111">
         <v>0.75</v>
@@ -24582,7 +24591,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -24660,7 +24669,7 @@
         <v>1.4</v>
       </c>
       <c r="AP114">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ114">
         <v>1.38</v>
@@ -25075,7 +25084,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ116">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR116">
         <v>1.36</v>
@@ -25612,7 +25621,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25818,7 +25827,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -26024,7 +26033,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26311,7 +26320,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ122">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR122">
         <v>1.59</v>
@@ -26517,7 +26526,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ123">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR123">
         <v>1.48</v>
@@ -26642,7 +26651,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -26848,7 +26857,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -27054,7 +27063,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q126">
         <v>6</v>
@@ -27260,7 +27269,7 @@
         <v>148</v>
       </c>
       <c r="P127" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q127">
         <v>2.6</v>
@@ -27547,7 +27556,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ128">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR128">
         <v>1.4</v>
@@ -27672,7 +27681,7 @@
         <v>94</v>
       </c>
       <c r="P129" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q129">
         <v>3.4</v>
@@ -28084,7 +28093,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28368,7 +28377,7 @@
         <v>0.71</v>
       </c>
       <c r="AP132">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ132">
         <v>0.92</v>
@@ -28702,7 +28711,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -28908,7 +28917,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29114,7 +29123,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29195,7 +29204,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ136">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR136">
         <v>1.46</v>
@@ -29398,7 +29407,7 @@
         <v>1.86</v>
       </c>
       <c r="AP137">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ137">
         <v>1.38</v>
@@ -29732,7 +29741,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q139">
         <v>3.15</v>
@@ -30019,7 +30028,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ140">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR140">
         <v>1.42</v>
@@ -30144,7 +30153,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -30350,7 +30359,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q142">
         <v>3.75</v>
@@ -30428,7 +30437,7 @@
         <v>2</v>
       </c>
       <c r="AP142">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ142">
         <v>2</v>
@@ -30637,7 +30646,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ143">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR143">
         <v>1.38</v>
@@ -30762,7 +30771,7 @@
         <v>92</v>
       </c>
       <c r="P144" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -31046,7 +31055,7 @@
         <v>0.25</v>
       </c>
       <c r="AP145">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ145">
         <v>0.25</v>
@@ -31174,7 +31183,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31586,7 +31595,7 @@
         <v>108</v>
       </c>
       <c r="P148" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q148">
         <v>3.25</v>
@@ -32204,7 +32213,7 @@
         <v>184</v>
       </c>
       <c r="P151" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q151">
         <v>3.2</v>
@@ -32491,7 +32500,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ152">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR152">
         <v>0.89</v>
@@ -32822,7 +32831,7 @@
         <v>129</v>
       </c>
       <c r="P154" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -32900,7 +32909,7 @@
         <v>1.5</v>
       </c>
       <c r="AP154">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ154">
         <v>1.64</v>
@@ -33234,7 +33243,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q156">
         <v>1.91</v>
@@ -33440,7 +33449,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34139,7 +34148,7 @@
         <v>0.36</v>
       </c>
       <c r="AQ160">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR160">
         <v>1.22</v>
@@ -34264,7 +34273,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34470,7 +34479,7 @@
         <v>151</v>
       </c>
       <c r="P162" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -34676,7 +34685,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -34754,7 +34763,7 @@
         <v>2.29</v>
       </c>
       <c r="AP163">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ163">
         <v>2.5</v>
@@ -34960,7 +34969,7 @@
         <v>0.89</v>
       </c>
       <c r="AP164">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ164">
         <v>0.75</v>
@@ -35294,7 +35303,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35500,7 +35509,7 @@
         <v>92</v>
       </c>
       <c r="P167" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35706,7 +35715,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
@@ -35784,7 +35793,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP168">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ168">
         <v>0.82</v>
@@ -35912,7 +35921,7 @@
         <v>192</v>
       </c>
       <c r="P169" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -35993,7 +36002,7 @@
         <v>0.82</v>
       </c>
       <c r="AQ169">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR169">
         <v>0.93</v>
@@ -36324,7 +36333,7 @@
         <v>194</v>
       </c>
       <c r="P171" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -36736,7 +36745,7 @@
         <v>92</v>
       </c>
       <c r="P173" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q173">
         <v>4.8</v>
@@ -37023,7 +37032,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ174">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR174">
         <v>1.97</v>
@@ -37560,7 +37569,7 @@
         <v>129</v>
       </c>
       <c r="P177" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q177">
         <v>3.25</v>
@@ -37972,7 +37981,7 @@
         <v>118</v>
       </c>
       <c r="P179" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38590,7 +38599,7 @@
         <v>92</v>
       </c>
       <c r="P182" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q182">
         <v>4.33</v>
@@ -38796,7 +38805,7 @@
         <v>200</v>
       </c>
       <c r="P183" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q183">
         <v>9</v>
@@ -39002,7 +39011,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q184">
         <v>3.4</v>
@@ -39083,7 +39092,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ184">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AR184">
         <v>1.39</v>
@@ -39208,7 +39217,7 @@
         <v>108</v>
       </c>
       <c r="P185" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -39701,7 +39710,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ187">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AR187">
         <v>2.01</v>
@@ -39904,7 +39913,7 @@
         <v>0.9</v>
       </c>
       <c r="AP188">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AQ188">
         <v>0.82</v>
@@ -40032,7 +40041,7 @@
         <v>202</v>
       </c>
       <c r="P189" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q189">
         <v>3.8</v>
@@ -40238,7 +40247,7 @@
         <v>92</v>
       </c>
       <c r="P190" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q190">
         <v>3.5</v>
@@ -40316,10 +40325,10 @@
         <v>1.6</v>
       </c>
       <c r="AP190">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AQ190">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AR190">
         <v>1.19</v>
@@ -40444,7 +40453,7 @@
         <v>92</v>
       </c>
       <c r="P191" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -41837,6 +41846,624 @@
       </c>
       <c r="BP197">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="198" spans="1:68">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>7364320</v>
+      </c>
+      <c r="C198" t="s">
+        <v>68</v>
+      </c>
+      <c r="D198" t="s">
+        <v>69</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45435.54166666666</v>
+      </c>
+      <c r="F198">
+        <v>24</v>
+      </c>
+      <c r="G198" t="s">
+        <v>80</v>
+      </c>
+      <c r="H198" t="s">
+        <v>82</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>1</v>
+      </c>
+      <c r="K198">
+        <v>2</v>
+      </c>
+      <c r="L198">
+        <v>1</v>
+      </c>
+      <c r="M198">
+        <v>1</v>
+      </c>
+      <c r="N198">
+        <v>2</v>
+      </c>
+      <c r="O198" t="s">
+        <v>185</v>
+      </c>
+      <c r="P198" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q198">
+        <v>2.75</v>
+      </c>
+      <c r="R198">
+        <v>2.05</v>
+      </c>
+      <c r="S198">
+        <v>4</v>
+      </c>
+      <c r="T198">
+        <v>1.48</v>
+      </c>
+      <c r="U198">
+        <v>2.6</v>
+      </c>
+      <c r="V198">
+        <v>3.37</v>
+      </c>
+      <c r="W198">
+        <v>1.31</v>
+      </c>
+      <c r="X198">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y198">
+        <v>1.03</v>
+      </c>
+      <c r="Z198">
+        <v>2</v>
+      </c>
+      <c r="AA198">
+        <v>3.1</v>
+      </c>
+      <c r="AB198">
+        <v>3.7</v>
+      </c>
+      <c r="AC198">
+        <v>1.07</v>
+      </c>
+      <c r="AD198">
+        <v>7</v>
+      </c>
+      <c r="AE198">
+        <v>1.4</v>
+      </c>
+      <c r="AF198">
+        <v>2.7</v>
+      </c>
+      <c r="AG198">
+        <v>2.15</v>
+      </c>
+      <c r="AH198">
+        <v>1.67</v>
+      </c>
+      <c r="AI198">
+        <v>1.91</v>
+      </c>
+      <c r="AJ198">
+        <v>1.8</v>
+      </c>
+      <c r="AK198">
+        <v>1.22</v>
+      </c>
+      <c r="AL198">
+        <v>1.29</v>
+      </c>
+      <c r="AM198">
+        <v>1.77</v>
+      </c>
+      <c r="AN198">
+        <v>2.29</v>
+      </c>
+      <c r="AO198">
+        <v>1.73</v>
+      </c>
+      <c r="AP198">
+        <v>2.13</v>
+      </c>
+      <c r="AQ198">
+        <v>1.67</v>
+      </c>
+      <c r="AR198">
+        <v>1.65</v>
+      </c>
+      <c r="AS198">
+        <v>1.43</v>
+      </c>
+      <c r="AT198">
+        <v>3.08</v>
+      </c>
+      <c r="AU198">
+        <v>7</v>
+      </c>
+      <c r="AV198">
+        <v>3</v>
+      </c>
+      <c r="AW198">
+        <v>9</v>
+      </c>
+      <c r="AX198">
+        <v>7</v>
+      </c>
+      <c r="AY198">
+        <v>16</v>
+      </c>
+      <c r="AZ198">
+        <v>10</v>
+      </c>
+      <c r="BA198">
+        <v>9</v>
+      </c>
+      <c r="BB198">
+        <v>1</v>
+      </c>
+      <c r="BC198">
+        <v>10</v>
+      </c>
+      <c r="BD198">
+        <v>1.63</v>
+      </c>
+      <c r="BE198">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF198">
+        <v>2.57</v>
+      </c>
+      <c r="BG198">
+        <v>1.23</v>
+      </c>
+      <c r="BH198">
+        <v>3.56</v>
+      </c>
+      <c r="BI198">
+        <v>1.5</v>
+      </c>
+      <c r="BJ198">
+        <v>2.54</v>
+      </c>
+      <c r="BK198">
+        <v>2.38</v>
+      </c>
+      <c r="BL198">
+        <v>1.96</v>
+      </c>
+      <c r="BM198">
+        <v>2.31</v>
+      </c>
+      <c r="BN198">
+        <v>1.59</v>
+      </c>
+      <c r="BO198">
+        <v>3.08</v>
+      </c>
+      <c r="BP198">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:68">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>7364322</v>
+      </c>
+      <c r="C199" t="s">
+        <v>68</v>
+      </c>
+      <c r="D199" t="s">
+        <v>69</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45436.54166666666</v>
+      </c>
+      <c r="F199">
+        <v>25</v>
+      </c>
+      <c r="G199" t="s">
+        <v>76</v>
+      </c>
+      <c r="H199" t="s">
+        <v>75</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199">
+        <v>1</v>
+      </c>
+      <c r="K199">
+        <v>2</v>
+      </c>
+      <c r="L199">
+        <v>1</v>
+      </c>
+      <c r="M199">
+        <v>1</v>
+      </c>
+      <c r="N199">
+        <v>2</v>
+      </c>
+      <c r="O199" t="s">
+        <v>171</v>
+      </c>
+      <c r="P199" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q199">
+        <v>3.5</v>
+      </c>
+      <c r="R199">
+        <v>1.83</v>
+      </c>
+      <c r="S199">
+        <v>3.5</v>
+      </c>
+      <c r="T199">
+        <v>1.55</v>
+      </c>
+      <c r="U199">
+        <v>2.3</v>
+      </c>
+      <c r="V199">
+        <v>3.3</v>
+      </c>
+      <c r="W199">
+        <v>1.29</v>
+      </c>
+      <c r="X199">
+        <v>9</v>
+      </c>
+      <c r="Y199">
+        <v>1.03</v>
+      </c>
+      <c r="Z199">
+        <v>2.7</v>
+      </c>
+      <c r="AA199">
+        <v>2.75</v>
+      </c>
+      <c r="AB199">
+        <v>2.7</v>
+      </c>
+      <c r="AC199">
+        <v>1.09</v>
+      </c>
+      <c r="AD199">
+        <v>6</v>
+      </c>
+      <c r="AE199">
+        <v>1.53</v>
+      </c>
+      <c r="AF199">
+        <v>2.38</v>
+      </c>
+      <c r="AG199">
+        <v>2.63</v>
+      </c>
+      <c r="AH199">
+        <v>1.44</v>
+      </c>
+      <c r="AI199">
+        <v>2.2</v>
+      </c>
+      <c r="AJ199">
+        <v>1.62</v>
+      </c>
+      <c r="AK199">
+        <v>1.4</v>
+      </c>
+      <c r="AL199">
+        <v>1.42</v>
+      </c>
+      <c r="AM199">
+        <v>1.45</v>
+      </c>
+      <c r="AN199">
+        <v>0.9</v>
+      </c>
+      <c r="AO199">
+        <v>1.18</v>
+      </c>
+      <c r="AP199">
+        <v>0.91</v>
+      </c>
+      <c r="AQ199">
+        <v>1.17</v>
+      </c>
+      <c r="AR199">
+        <v>1.39</v>
+      </c>
+      <c r="AS199">
+        <v>1.34</v>
+      </c>
+      <c r="AT199">
+        <v>2.73</v>
+      </c>
+      <c r="AU199">
+        <v>4</v>
+      </c>
+      <c r="AV199">
+        <v>4</v>
+      </c>
+      <c r="AW199">
+        <v>1</v>
+      </c>
+      <c r="AX199">
+        <v>3</v>
+      </c>
+      <c r="AY199">
+        <v>5</v>
+      </c>
+      <c r="AZ199">
+        <v>7</v>
+      </c>
+      <c r="BA199">
+        <v>2</v>
+      </c>
+      <c r="BB199">
+        <v>9</v>
+      </c>
+      <c r="BC199">
+        <v>11</v>
+      </c>
+      <c r="BD199">
+        <v>1.93</v>
+      </c>
+      <c r="BE199">
+        <v>8.1</v>
+      </c>
+      <c r="BF199">
+        <v>2.1</v>
+      </c>
+      <c r="BG199">
+        <v>1.37</v>
+      </c>
+      <c r="BH199">
+        <v>2.75</v>
+      </c>
+      <c r="BI199">
+        <v>1.68</v>
+      </c>
+      <c r="BJ199">
+        <v>2.01</v>
+      </c>
+      <c r="BK199">
+        <v>2.15</v>
+      </c>
+      <c r="BL199">
+        <v>1.59</v>
+      </c>
+      <c r="BM199">
+        <v>2.91</v>
+      </c>
+      <c r="BN199">
+        <v>1.33</v>
+      </c>
+      <c r="BO199">
+        <v>3.6</v>
+      </c>
+      <c r="BP199">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="200" spans="1:68">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>7364321</v>
+      </c>
+      <c r="C200" t="s">
+        <v>68</v>
+      </c>
+      <c r="D200" t="s">
+        <v>69</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45436.54166666666</v>
+      </c>
+      <c r="F200">
+        <v>25</v>
+      </c>
+      <c r="G200" t="s">
+        <v>83</v>
+      </c>
+      <c r="H200" t="s">
+        <v>87</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>2</v>
+      </c>
+      <c r="K200">
+        <v>2</v>
+      </c>
+      <c r="L200">
+        <v>3</v>
+      </c>
+      <c r="M200">
+        <v>2</v>
+      </c>
+      <c r="N200">
+        <v>5</v>
+      </c>
+      <c r="O200" t="s">
+        <v>204</v>
+      </c>
+      <c r="P200" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q200">
+        <v>3.75</v>
+      </c>
+      <c r="R200">
+        <v>1.91</v>
+      </c>
+      <c r="S200">
+        <v>3.25</v>
+      </c>
+      <c r="T200">
+        <v>1.49</v>
+      </c>
+      <c r="U200">
+        <v>2.51</v>
+      </c>
+      <c r="V200">
+        <v>3.26</v>
+      </c>
+      <c r="W200">
+        <v>1.31</v>
+      </c>
+      <c r="X200">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y200">
+        <v>1.05</v>
+      </c>
+      <c r="Z200">
+        <v>3.1</v>
+      </c>
+      <c r="AA200">
+        <v>2.7</v>
+      </c>
+      <c r="AB200">
+        <v>2.45</v>
+      </c>
+      <c r="AC200">
+        <v>1.09</v>
+      </c>
+      <c r="AD200">
+        <v>6.5</v>
+      </c>
+      <c r="AE200">
+        <v>1.5</v>
+      </c>
+      <c r="AF200">
+        <v>2.4</v>
+      </c>
+      <c r="AG200">
+        <v>2.63</v>
+      </c>
+      <c r="AH200">
+        <v>1.44</v>
+      </c>
+      <c r="AI200">
+        <v>2.1</v>
+      </c>
+      <c r="AJ200">
+        <v>1.67</v>
+      </c>
+      <c r="AK200">
+        <v>1.55</v>
+      </c>
+      <c r="AL200">
+        <v>1.31</v>
+      </c>
+      <c r="AM200">
+        <v>1.33</v>
+      </c>
+      <c r="AN200">
+        <v>1.33</v>
+      </c>
+      <c r="AO200">
+        <v>1.1</v>
+      </c>
+      <c r="AP200">
+        <v>1.46</v>
+      </c>
+      <c r="AQ200">
+        <v>1</v>
+      </c>
+      <c r="AR200">
+        <v>1.16</v>
+      </c>
+      <c r="AS200">
+        <v>1.71</v>
+      </c>
+      <c r="AT200">
+        <v>2.87</v>
+      </c>
+      <c r="AU200">
+        <v>9</v>
+      </c>
+      <c r="AV200">
+        <v>5</v>
+      </c>
+      <c r="AW200">
+        <v>10</v>
+      </c>
+      <c r="AX200">
+        <v>8</v>
+      </c>
+      <c r="AY200">
+        <v>19</v>
+      </c>
+      <c r="AZ200">
+        <v>13</v>
+      </c>
+      <c r="BA200">
+        <v>8</v>
+      </c>
+      <c r="BB200">
+        <v>6</v>
+      </c>
+      <c r="BC200">
+        <v>14</v>
+      </c>
+      <c r="BD200">
+        <v>2.52</v>
+      </c>
+      <c r="BE200">
+        <v>8.1</v>
+      </c>
+      <c r="BF200">
+        <v>1.71</v>
+      </c>
+      <c r="BG200">
+        <v>1.28</v>
+      </c>
+      <c r="BH200">
+        <v>3.18</v>
+      </c>
+      <c r="BI200">
+        <v>1.53</v>
+      </c>
+      <c r="BJ200">
+        <v>2.27</v>
+      </c>
+      <c r="BK200">
+        <v>1.92</v>
+      </c>
+      <c r="BL200">
+        <v>1.75</v>
+      </c>
+      <c r="BM200">
+        <v>2.51</v>
+      </c>
+      <c r="BN200">
+        <v>1.44</v>
+      </c>
+      <c r="BO200">
+        <v>3.42</v>
+      </c>
+      <c r="BP200">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="296">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -629,6 +629,9 @@
   </si>
   <si>
     <t>['69', '74', '90+7']</t>
+  </si>
+  <si>
+    <t>['43', '78', '90+8']</t>
   </si>
   <si>
     <t>['16', '75']</t>
@@ -1260,7 +1263,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP200"/>
+  <dimension ref="A1:BP201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2215,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>1.55</v>
@@ -2343,7 +2346,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2755,7 +2758,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3167,7 +3170,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3579,7 +3582,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3660,7 +3663,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ12">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3785,7 +3788,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -3991,7 +3994,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -5021,7 +5024,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5308,7 +5311,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ20">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>1.31</v>
@@ -5433,7 +5436,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5639,7 +5642,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5845,7 +5848,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -5923,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
         <v>1.64</v>
@@ -6257,7 +6260,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q25">
         <v>3.75</v>
@@ -6463,7 +6466,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -7287,7 +7290,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7493,7 +7496,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7905,7 +7908,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8523,7 +8526,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -8935,7 +8938,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9141,7 +9144,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9347,7 +9350,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9428,7 +9431,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ40">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.72</v>
@@ -9837,7 +9840,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ42">
         <v>0.82</v>
@@ -9965,7 +9968,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10171,7 +10174,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10377,7 +10380,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10995,7 +10998,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q48">
         <v>6.5</v>
@@ -11201,7 +11204,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11613,7 +11616,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11819,7 +11822,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12025,7 +12028,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12437,7 +12440,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12849,7 +12852,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13261,7 +13264,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -13342,7 +13345,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ59">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR59">
         <v>1.41</v>
@@ -13673,7 +13676,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -13957,7 +13960,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ62">
         <v>0.82</v>
@@ -14085,7 +14088,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14291,7 +14294,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14497,7 +14500,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14703,7 +14706,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -15321,7 +15324,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15939,7 +15942,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q72">
         <v>1.8</v>
@@ -16223,7 +16226,7 @@
         <v>1.25</v>
       </c>
       <c r="AP73">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ73">
         <v>1.17</v>
@@ -16351,7 +16354,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q74">
         <v>3.25</v>
@@ -16432,7 +16435,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ74">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR74">
         <v>1.37</v>
@@ -16557,7 +16560,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16969,7 +16972,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17175,7 +17178,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17381,7 +17384,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17587,7 +17590,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -18080,7 +18083,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ82">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR82">
         <v>1.14</v>
@@ -18617,7 +18620,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18695,7 +18698,7 @@
         <v>1.33</v>
       </c>
       <c r="AP85">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ85">
         <v>1.38</v>
@@ -18823,7 +18826,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19029,7 +19032,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19441,7 +19444,7 @@
         <v>147</v>
       </c>
       <c r="P89" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q89">
         <v>3.5</v>
@@ -19647,7 +19650,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -21089,7 +21092,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21170,7 +21173,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ97">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR97">
         <v>1.11</v>
@@ -21707,7 +21710,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -21785,7 +21788,7 @@
         <v>0.6</v>
       </c>
       <c r="AP100">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ100">
         <v>0.92</v>
@@ -22119,7 +22122,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22325,7 +22328,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23149,7 +23152,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23561,7 +23564,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23973,7 +23976,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24260,7 +24263,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ112">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR112">
         <v>1.82</v>
@@ -24591,7 +24594,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -25621,7 +25624,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25827,7 +25830,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -26033,7 +26036,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26111,7 +26114,7 @@
         <v>1.75</v>
       </c>
       <c r="AP121">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ121">
         <v>2.5</v>
@@ -26651,7 +26654,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -26857,7 +26860,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -27063,7 +27066,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q126">
         <v>6</v>
@@ -27269,7 +27272,7 @@
         <v>148</v>
       </c>
       <c r="P127" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q127">
         <v>2.6</v>
@@ -27681,7 +27684,7 @@
         <v>94</v>
       </c>
       <c r="P129" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q129">
         <v>3.4</v>
@@ -27762,7 +27765,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ129">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR129">
         <v>1.41</v>
@@ -28093,7 +28096,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28711,7 +28714,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -28917,7 +28920,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29123,7 +29126,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29741,7 +29744,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q139">
         <v>3.15</v>
@@ -30153,7 +30156,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -30359,7 +30362,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q142">
         <v>3.75</v>
@@ -30771,7 +30774,7 @@
         <v>92</v>
       </c>
       <c r="P144" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -31183,7 +31186,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31595,7 +31598,7 @@
         <v>108</v>
       </c>
       <c r="P148" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q148">
         <v>3.25</v>
@@ -31882,7 +31885,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ149">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR149">
         <v>1.23</v>
@@ -32213,7 +32216,7 @@
         <v>184</v>
       </c>
       <c r="P151" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q151">
         <v>3.2</v>
@@ -32497,7 +32500,7 @@
         <v>1.88</v>
       </c>
       <c r="AP152">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ152">
         <v>1.67</v>
@@ -32831,7 +32834,7 @@
         <v>129</v>
       </c>
       <c r="P154" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33243,7 +33246,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q156">
         <v>1.91</v>
@@ -33449,7 +33452,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34273,7 +34276,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34479,7 +34482,7 @@
         <v>151</v>
       </c>
       <c r="P162" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -34685,7 +34688,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -35303,7 +35306,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35509,7 +35512,7 @@
         <v>92</v>
       </c>
       <c r="P167" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35590,7 +35593,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ167">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR167">
         <v>1.75</v>
@@ -35715,7 +35718,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
@@ -35921,7 +35924,7 @@
         <v>192</v>
       </c>
       <c r="P169" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -35999,7 +36002,7 @@
         <v>1</v>
       </c>
       <c r="AP169">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ169">
         <v>1</v>
@@ -36333,7 +36336,7 @@
         <v>194</v>
       </c>
       <c r="P171" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -36745,7 +36748,7 @@
         <v>92</v>
       </c>
       <c r="P173" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q173">
         <v>4.8</v>
@@ -37569,7 +37572,7 @@
         <v>129</v>
       </c>
       <c r="P177" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q177">
         <v>3.25</v>
@@ -37981,7 +37984,7 @@
         <v>118</v>
       </c>
       <c r="P179" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38599,7 +38602,7 @@
         <v>92</v>
       </c>
       <c r="P182" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q182">
         <v>4.33</v>
@@ -38805,7 +38808,7 @@
         <v>200</v>
       </c>
       <c r="P183" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q183">
         <v>9</v>
@@ -39011,7 +39014,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q184">
         <v>3.4</v>
@@ -39217,7 +39220,7 @@
         <v>108</v>
       </c>
       <c r="P185" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -39501,7 +39504,7 @@
         <v>1.44</v>
       </c>
       <c r="AP186">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AQ186">
         <v>1.4</v>
@@ -40041,7 +40044,7 @@
         <v>202</v>
       </c>
       <c r="P189" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q189">
         <v>3.8</v>
@@ -40247,7 +40250,7 @@
         <v>92</v>
       </c>
       <c r="P190" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q190">
         <v>3.5</v>
@@ -40453,7 +40456,7 @@
         <v>92</v>
       </c>
       <c r="P191" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -42101,7 +42104,7 @@
         <v>171</v>
       </c>
       <c r="P199" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q199">
         <v>3.5</v>
@@ -42307,7 +42310,7 @@
         <v>204</v>
       </c>
       <c r="P200" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q200">
         <v>3.75</v>
@@ -42464,6 +42467,212 @@
       </c>
       <c r="BP200">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="201" spans="1:68">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>7364323</v>
+      </c>
+      <c r="C201" t="s">
+        <v>68</v>
+      </c>
+      <c r="D201" t="s">
+        <v>69</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45437.5</v>
+      </c>
+      <c r="F201">
+        <v>25</v>
+      </c>
+      <c r="G201" t="s">
+        <v>73</v>
+      </c>
+      <c r="H201" t="s">
+        <v>74</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>1</v>
+      </c>
+      <c r="L201">
+        <v>3</v>
+      </c>
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201">
+        <v>3</v>
+      </c>
+      <c r="O201" t="s">
+        <v>205</v>
+      </c>
+      <c r="P201" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q201">
+        <v>4.75</v>
+      </c>
+      <c r="R201">
+        <v>1.83</v>
+      </c>
+      <c r="S201">
+        <v>2.88</v>
+      </c>
+      <c r="T201">
+        <v>1.55</v>
+      </c>
+      <c r="U201">
+        <v>2.41</v>
+      </c>
+      <c r="V201">
+        <v>3.3</v>
+      </c>
+      <c r="W201">
+        <v>1.31</v>
+      </c>
+      <c r="X201">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y201">
+        <v>1.05</v>
+      </c>
+      <c r="Z201">
+        <v>3.9</v>
+      </c>
+      <c r="AA201">
+        <v>2.8</v>
+      </c>
+      <c r="AB201">
+        <v>2</v>
+      </c>
+      <c r="AC201">
+        <v>1.11</v>
+      </c>
+      <c r="AD201">
+        <v>6.37</v>
+      </c>
+      <c r="AE201">
+        <v>1.49</v>
+      </c>
+      <c r="AF201">
+        <v>2.43</v>
+      </c>
+      <c r="AG201">
+        <v>2.75</v>
+      </c>
+      <c r="AH201">
+        <v>1.4</v>
+      </c>
+      <c r="AI201">
+        <v>2.38</v>
+      </c>
+      <c r="AJ201">
+        <v>1.53</v>
+      </c>
+      <c r="AK201">
+        <v>1.81</v>
+      </c>
+      <c r="AL201">
+        <v>1.3</v>
+      </c>
+      <c r="AM201">
+        <v>1.19</v>
+      </c>
+      <c r="AN201">
+        <v>0.82</v>
+      </c>
+      <c r="AO201">
+        <v>1.09</v>
+      </c>
+      <c r="AP201">
+        <v>1</v>
+      </c>
+      <c r="AQ201">
+        <v>1</v>
+      </c>
+      <c r="AR201">
+        <v>0.93</v>
+      </c>
+      <c r="AS201">
+        <v>1.28</v>
+      </c>
+      <c r="AT201">
+        <v>2.21</v>
+      </c>
+      <c r="AU201">
+        <v>4</v>
+      </c>
+      <c r="AV201">
+        <v>0</v>
+      </c>
+      <c r="AW201">
+        <v>8</v>
+      </c>
+      <c r="AX201">
+        <v>5</v>
+      </c>
+      <c r="AY201">
+        <v>12</v>
+      </c>
+      <c r="AZ201">
+        <v>5</v>
+      </c>
+      <c r="BA201">
+        <v>3</v>
+      </c>
+      <c r="BB201">
+        <v>5</v>
+      </c>
+      <c r="BC201">
+        <v>8</v>
+      </c>
+      <c r="BD201">
+        <v>2.6</v>
+      </c>
+      <c r="BE201">
+        <v>8.4</v>
+      </c>
+      <c r="BF201">
+        <v>1.63</v>
+      </c>
+      <c r="BG201">
+        <v>1.33</v>
+      </c>
+      <c r="BH201">
+        <v>2.91</v>
+      </c>
+      <c r="BI201">
+        <v>1.62</v>
+      </c>
+      <c r="BJ201">
+        <v>2.11</v>
+      </c>
+      <c r="BK201">
+        <v>2.05</v>
+      </c>
+      <c r="BL201">
+        <v>1.65</v>
+      </c>
+      <c r="BM201">
+        <v>2.75</v>
+      </c>
+      <c r="BN201">
+        <v>1.37</v>
+      </c>
+      <c r="BO201">
+        <v>3.84</v>
+      </c>
+      <c r="BP201">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="299">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -634,6 +634,12 @@
     <t>['43', '78', '90+8']</t>
   </si>
   <si>
+    <t>['45+2', '75']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -902,6 +908,9 @@
   </si>
   <si>
     <t>['5', '45+2']</t>
+  </si>
+  <si>
+    <t>['80', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1272,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP201"/>
+  <dimension ref="A1:BP204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1600,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ2">
         <v>0.75</v>
@@ -1809,7 +1818,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ3">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2015,7 +2024,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ4">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2346,7 +2355,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2427,7 +2436,7 @@
         <v>0.36</v>
       </c>
       <c r="AQ6">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2758,7 +2767,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3170,7 +3179,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3582,7 +3591,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3788,7 +3797,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -3994,7 +4003,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4072,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ14">
         <v>0.25</v>
@@ -5024,7 +5033,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5105,7 +5114,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ19">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR19">
         <v>1.91</v>
@@ -5436,7 +5445,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5642,7 +5651,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5848,7 +5857,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -5929,7 +5938,7 @@
         <v>1</v>
       </c>
       <c r="AQ23">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR23">
         <v>0.65</v>
@@ -6132,7 +6141,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ24">
         <v>1.67</v>
@@ -6260,7 +6269,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q25">
         <v>3.75</v>
@@ -6466,7 +6475,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6547,7 +6556,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ26">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR26">
         <v>2</v>
@@ -7290,7 +7299,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7496,7 +7505,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7908,7 +7917,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8192,7 +8201,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ34">
         <v>2.5</v>
@@ -8526,7 +8535,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -8607,7 +8616,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ36">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR36">
         <v>1.67</v>
@@ -8938,7 +8947,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9144,7 +9153,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9350,7 +9359,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9634,7 +9643,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -9843,7 +9852,7 @@
         <v>1</v>
       </c>
       <c r="AQ42">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR42">
         <v>0.84</v>
@@ -9968,7 +9977,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10174,7 +10183,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10380,7 +10389,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10998,7 +11007,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q48">
         <v>6.5</v>
@@ -11204,7 +11213,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11488,7 +11497,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ50">
         <v>1.55</v>
@@ -11616,7 +11625,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11822,7 +11831,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12028,7 +12037,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12440,7 +12449,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12521,7 +12530,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ55">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR55">
         <v>1.67</v>
@@ -12852,7 +12861,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -12930,7 +12939,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -13264,7 +13273,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -13548,7 +13557,7 @@
         <v>1.67</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ60">
         <v>1.4</v>
@@ -13676,7 +13685,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -13757,7 +13766,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ61">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR61">
         <v>1.23</v>
@@ -13963,7 +13972,7 @@
         <v>1</v>
       </c>
       <c r="AQ62">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR62">
         <v>0.8100000000000001</v>
@@ -14088,7 +14097,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14294,7 +14303,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14500,7 +14509,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14706,7 +14715,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -15324,7 +15333,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15608,7 +15617,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ70">
         <v>1</v>
@@ -15942,7 +15951,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q72">
         <v>1.8</v>
@@ -16023,7 +16032,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ72">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR72">
         <v>1.89</v>
@@ -16354,7 +16363,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q74">
         <v>3.25</v>
@@ -16432,7 +16441,7 @@
         <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ74">
         <v>1</v>
@@ -16560,7 +16569,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16847,7 +16856,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ76">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR76">
         <v>1.17</v>
@@ -16972,7 +16981,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17178,7 +17187,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17384,7 +17393,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17590,7 +17599,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -18286,7 +18295,7 @@
         <v>2.2</v>
       </c>
       <c r="AP83">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ83">
         <v>1.92</v>
@@ -18495,7 +18504,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ84">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR84">
         <v>1.06</v>
@@ -18620,7 +18629,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18826,7 +18835,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18907,7 +18916,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ86">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR86">
         <v>1.42</v>
@@ -19032,7 +19041,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19113,7 +19122,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ87">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR87">
         <v>1.51</v>
@@ -19444,7 +19453,7 @@
         <v>147</v>
       </c>
       <c r="P89" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q89">
         <v>3.5</v>
@@ -19650,7 +19659,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -21092,7 +21101,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21170,7 +21179,7 @@
         <v>0.83</v>
       </c>
       <c r="AP97">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ97">
         <v>1</v>
@@ -21710,7 +21719,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -21997,7 +22006,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ101">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR101">
         <v>1.35</v>
@@ -22122,7 +22131,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22328,7 +22337,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22821,7 +22830,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ105">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR105">
         <v>1.44</v>
@@ -23152,7 +23161,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23233,7 +23242,7 @@
         <v>0.36</v>
       </c>
       <c r="AQ107">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR107">
         <v>1.23</v>
@@ -23439,7 +23448,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ108">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR108">
         <v>1.69</v>
@@ -23564,7 +23573,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23976,7 +23985,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24469,7 +24478,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ113">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR113">
         <v>1.4</v>
@@ -24594,7 +24603,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -24878,7 +24887,7 @@
         <v>0.17</v>
       </c>
       <c r="AP115">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ115">
         <v>0.25</v>
@@ -25496,7 +25505,7 @@
         <v>1.71</v>
       </c>
       <c r="AP118">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ118">
         <v>1.92</v>
@@ -25624,7 +25633,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25830,7 +25839,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -25911,7 +25920,7 @@
         <v>0.36</v>
       </c>
       <c r="AQ120">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR120">
         <v>1.23</v>
@@ -26036,7 +26045,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26654,7 +26663,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -26735,7 +26744,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ124">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR124">
         <v>1.91</v>
@@ -26860,7 +26869,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -27066,7 +27075,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q126">
         <v>6</v>
@@ -27272,7 +27281,7 @@
         <v>148</v>
       </c>
       <c r="P127" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q127">
         <v>2.6</v>
@@ -27684,7 +27693,7 @@
         <v>94</v>
       </c>
       <c r="P129" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q129">
         <v>3.4</v>
@@ -28096,7 +28105,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28714,7 +28723,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -28920,7 +28929,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29126,7 +29135,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29744,7 +29753,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q139">
         <v>3.15</v>
@@ -29825,7 +29834,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ139">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR139">
         <v>1.76</v>
@@ -30156,7 +30165,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -30362,7 +30371,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q142">
         <v>3.75</v>
@@ -30774,7 +30783,7 @@
         <v>92</v>
       </c>
       <c r="P144" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -31186,7 +31195,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31470,7 +31479,7 @@
         <v>0.75</v>
       </c>
       <c r="AP147">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ147">
         <v>0.92</v>
@@ -31598,7 +31607,7 @@
         <v>108</v>
       </c>
       <c r="P148" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q148">
         <v>3.25</v>
@@ -32216,7 +32225,7 @@
         <v>184</v>
       </c>
       <c r="P151" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q151">
         <v>3.2</v>
@@ -32297,7 +32306,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ151">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR151">
         <v>1.4</v>
@@ -32709,7 +32718,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ153">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR153">
         <v>1.59</v>
@@ -32834,7 +32843,7 @@
         <v>129</v>
       </c>
       <c r="P154" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -32915,7 +32924,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ154">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR154">
         <v>1.46</v>
@@ -33118,7 +33127,7 @@
         <v>1.63</v>
       </c>
       <c r="AP155">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ155">
         <v>1.55</v>
@@ -33246,7 +33255,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q156">
         <v>1.91</v>
@@ -33452,7 +33461,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34276,7 +34285,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34482,7 +34491,7 @@
         <v>151</v>
       </c>
       <c r="P162" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -34688,7 +34697,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -35178,7 +35187,7 @@
         <v>1.44</v>
       </c>
       <c r="AP165">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ165">
         <v>1.25</v>
@@ -35306,7 +35315,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35387,7 +35396,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ166">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR166">
         <v>1.39</v>
@@ -35512,7 +35521,7 @@
         <v>92</v>
       </c>
       <c r="P167" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35718,7 +35727,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
@@ -35799,7 +35808,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ168">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR168">
         <v>1.5</v>
@@ -35924,7 +35933,7 @@
         <v>192</v>
       </c>
       <c r="P169" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -36336,7 +36345,7 @@
         <v>194</v>
       </c>
       <c r="P171" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -36748,7 +36757,7 @@
         <v>92</v>
       </c>
       <c r="P173" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q173">
         <v>4.8</v>
@@ -36826,10 +36835,10 @@
         <v>1.67</v>
       </c>
       <c r="AP173">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ173">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR173">
         <v>1.47</v>
@@ -37572,7 +37581,7 @@
         <v>129</v>
       </c>
       <c r="P177" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q177">
         <v>3.25</v>
@@ -37984,7 +37993,7 @@
         <v>118</v>
       </c>
       <c r="P179" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38268,7 +38277,7 @@
         <v>0.8</v>
       </c>
       <c r="AP180">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AQ180">
         <v>0.75</v>
@@ -38602,7 +38611,7 @@
         <v>92</v>
       </c>
       <c r="P182" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q182">
         <v>4.33</v>
@@ -38808,7 +38817,7 @@
         <v>200</v>
       </c>
       <c r="P183" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q183">
         <v>9</v>
@@ -39014,7 +39023,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q184">
         <v>3.4</v>
@@ -39220,7 +39229,7 @@
         <v>108</v>
       </c>
       <c r="P185" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -39298,10 +39307,10 @@
         <v>0.8</v>
       </c>
       <c r="AP185">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ185">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR185">
         <v>1.47</v>
@@ -39919,7 +39928,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ188">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AR188">
         <v>1.46</v>
@@ -40044,7 +40053,7 @@
         <v>202</v>
       </c>
       <c r="P189" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q189">
         <v>3.8</v>
@@ -40125,7 +40134,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ189">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AR189">
         <v>1.52</v>
@@ -40250,7 +40259,7 @@
         <v>92</v>
       </c>
       <c r="P190" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q190">
         <v>3.5</v>
@@ -40456,7 +40465,7 @@
         <v>92</v>
       </c>
       <c r="P191" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -42104,7 +42113,7 @@
         <v>171</v>
       </c>
       <c r="P199" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q199">
         <v>3.5</v>
@@ -42310,7 +42319,7 @@
         <v>204</v>
       </c>
       <c r="P200" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q200">
         <v>3.75</v>
@@ -42673,6 +42682,624 @@
       </c>
       <c r="BP201">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:68">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>7364324</v>
+      </c>
+      <c r="C202" t="s">
+        <v>68</v>
+      </c>
+      <c r="D202" t="s">
+        <v>69</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45438.41666666666</v>
+      </c>
+      <c r="F202">
+        <v>25</v>
+      </c>
+      <c r="G202" t="s">
+        <v>79</v>
+      </c>
+      <c r="H202" t="s">
+        <v>86</v>
+      </c>
+      <c r="I202">
+        <v>1</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
+      <c r="L202">
+        <v>2</v>
+      </c>
+      <c r="M202">
+        <v>2</v>
+      </c>
+      <c r="N202">
+        <v>4</v>
+      </c>
+      <c r="O202" t="s">
+        <v>206</v>
+      </c>
+      <c r="P202" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q202">
+        <v>3.2</v>
+      </c>
+      <c r="R202">
+        <v>1.95</v>
+      </c>
+      <c r="S202">
+        <v>3.5</v>
+      </c>
+      <c r="T202">
+        <v>1.44</v>
+      </c>
+      <c r="U202">
+        <v>2.65</v>
+      </c>
+      <c r="V202">
+        <v>3.1</v>
+      </c>
+      <c r="W202">
+        <v>1.34</v>
+      </c>
+      <c r="X202">
+        <v>8.1</v>
+      </c>
+      <c r="Y202">
+        <v>1.06</v>
+      </c>
+      <c r="Z202">
+        <v>2.5</v>
+      </c>
+      <c r="AA202">
+        <v>2.9</v>
+      </c>
+      <c r="AB202">
+        <v>2.88</v>
+      </c>
+      <c r="AC202">
+        <v>1.03</v>
+      </c>
+      <c r="AD202">
+        <v>7.9</v>
+      </c>
+      <c r="AE202">
+        <v>1.33</v>
+      </c>
+      <c r="AF202">
+        <v>2.91</v>
+      </c>
+      <c r="AG202">
+        <v>2.35</v>
+      </c>
+      <c r="AH202">
+        <v>1.57</v>
+      </c>
+      <c r="AI202">
+        <v>2</v>
+      </c>
+      <c r="AJ202">
+        <v>1.73</v>
+      </c>
+      <c r="AK202">
+        <v>1.39</v>
+      </c>
+      <c r="AL202">
+        <v>1.3</v>
+      </c>
+      <c r="AM202">
+        <v>1.49</v>
+      </c>
+      <c r="AN202">
+        <v>1.08</v>
+      </c>
+      <c r="AO202">
+        <v>0.82</v>
+      </c>
+      <c r="AP202">
+        <v>1.08</v>
+      </c>
+      <c r="AQ202">
+        <v>0.83</v>
+      </c>
+      <c r="AR202">
+        <v>1.51</v>
+      </c>
+      <c r="AS202">
+        <v>1.52</v>
+      </c>
+      <c r="AT202">
+        <v>3.03</v>
+      </c>
+      <c r="AU202">
+        <v>5</v>
+      </c>
+      <c r="AV202">
+        <v>5</v>
+      </c>
+      <c r="AW202">
+        <v>7</v>
+      </c>
+      <c r="AX202">
+        <v>16</v>
+      </c>
+      <c r="AY202">
+        <v>12</v>
+      </c>
+      <c r="AZ202">
+        <v>21</v>
+      </c>
+      <c r="BA202">
+        <v>4</v>
+      </c>
+      <c r="BB202">
+        <v>2</v>
+      </c>
+      <c r="BC202">
+        <v>6</v>
+      </c>
+      <c r="BD202">
+        <v>1.64</v>
+      </c>
+      <c r="BE202">
+        <v>8.6</v>
+      </c>
+      <c r="BF202">
+        <v>2.55</v>
+      </c>
+      <c r="BG202">
+        <v>1.24</v>
+      </c>
+      <c r="BH202">
+        <v>3.48</v>
+      </c>
+      <c r="BI202">
+        <v>1.46</v>
+      </c>
+      <c r="BJ202">
+        <v>2.45</v>
+      </c>
+      <c r="BK202">
+        <v>2.2</v>
+      </c>
+      <c r="BL202">
+        <v>1.85</v>
+      </c>
+      <c r="BM202">
+        <v>2.32</v>
+      </c>
+      <c r="BN202">
+        <v>1.51</v>
+      </c>
+      <c r="BO202">
+        <v>3.14</v>
+      </c>
+      <c r="BP202">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="203" spans="1:68">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>7364326</v>
+      </c>
+      <c r="C203" t="s">
+        <v>68</v>
+      </c>
+      <c r="D203" t="s">
+        <v>69</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45438.54166666666</v>
+      </c>
+      <c r="F203">
+        <v>25</v>
+      </c>
+      <c r="G203" t="s">
+        <v>82</v>
+      </c>
+      <c r="H203" t="s">
+        <v>85</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+      <c r="M203">
+        <v>0</v>
+      </c>
+      <c r="N203">
+        <v>0</v>
+      </c>
+      <c r="O203" t="s">
+        <v>92</v>
+      </c>
+      <c r="P203" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q203">
+        <v>3.75</v>
+      </c>
+      <c r="R203">
+        <v>1.91</v>
+      </c>
+      <c r="S203">
+        <v>3.2</v>
+      </c>
+      <c r="T203">
+        <v>1.5</v>
+      </c>
+      <c r="U203">
+        <v>2.4</v>
+      </c>
+      <c r="V203">
+        <v>3.2</v>
+      </c>
+      <c r="W203">
+        <v>1.3</v>
+      </c>
+      <c r="X203">
+        <v>9.1</v>
+      </c>
+      <c r="Y203">
+        <v>1.04</v>
+      </c>
+      <c r="Z203">
+        <v>3.25</v>
+      </c>
+      <c r="AA203">
+        <v>2.7</v>
+      </c>
+      <c r="AB203">
+        <v>2.4</v>
+      </c>
+      <c r="AC203">
+        <v>1.06</v>
+      </c>
+      <c r="AD203">
+        <v>6.6</v>
+      </c>
+      <c r="AE203">
+        <v>1.41</v>
+      </c>
+      <c r="AF203">
+        <v>2.6</v>
+      </c>
+      <c r="AG203">
+        <v>2.5</v>
+      </c>
+      <c r="AH203">
+        <v>1.5</v>
+      </c>
+      <c r="AI203">
+        <v>2.1</v>
+      </c>
+      <c r="AJ203">
+        <v>1.67</v>
+      </c>
+      <c r="AK203">
+        <v>1.48</v>
+      </c>
+      <c r="AL203">
+        <v>1.38</v>
+      </c>
+      <c r="AM203">
+        <v>1.35</v>
+      </c>
+      <c r="AN203">
+        <v>1.1</v>
+      </c>
+      <c r="AO203">
+        <v>1.64</v>
+      </c>
+      <c r="AP203">
+        <v>1.09</v>
+      </c>
+      <c r="AQ203">
+        <v>1.58</v>
+      </c>
+      <c r="AR203">
+        <v>1.19</v>
+      </c>
+      <c r="AS203">
+        <v>1.11</v>
+      </c>
+      <c r="AT203">
+        <v>2.3</v>
+      </c>
+      <c r="AU203">
+        <v>2</v>
+      </c>
+      <c r="AV203">
+        <v>0</v>
+      </c>
+      <c r="AW203">
+        <v>4</v>
+      </c>
+      <c r="AX203">
+        <v>2</v>
+      </c>
+      <c r="AY203">
+        <v>6</v>
+      </c>
+      <c r="AZ203">
+        <v>2</v>
+      </c>
+      <c r="BA203">
+        <v>7</v>
+      </c>
+      <c r="BB203">
+        <v>3</v>
+      </c>
+      <c r="BC203">
+        <v>10</v>
+      </c>
+      <c r="BD203">
+        <v>1.9</v>
+      </c>
+      <c r="BE203">
+        <v>7</v>
+      </c>
+      <c r="BF203">
+        <v>2.23</v>
+      </c>
+      <c r="BG203">
+        <v>1.28</v>
+      </c>
+      <c r="BH203">
+        <v>3.18</v>
+      </c>
+      <c r="BI203">
+        <v>1.53</v>
+      </c>
+      <c r="BJ203">
+        <v>2.27</v>
+      </c>
+      <c r="BK203">
+        <v>1.93</v>
+      </c>
+      <c r="BL203">
+        <v>1.74</v>
+      </c>
+      <c r="BM203">
+        <v>2.54</v>
+      </c>
+      <c r="BN203">
+        <v>1.43</v>
+      </c>
+      <c r="BO203">
+        <v>3.48</v>
+      </c>
+      <c r="BP203">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="204" spans="1:68">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>7364325</v>
+      </c>
+      <c r="C204" t="s">
+        <v>68</v>
+      </c>
+      <c r="D204" t="s">
+        <v>69</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45438.54166666666</v>
+      </c>
+      <c r="F204">
+        <v>25</v>
+      </c>
+      <c r="G204" t="s">
+        <v>70</v>
+      </c>
+      <c r="H204" t="s">
+        <v>81</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+      <c r="L204">
+        <v>1</v>
+      </c>
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <v>1</v>
+      </c>
+      <c r="O204" t="s">
+        <v>207</v>
+      </c>
+      <c r="P204" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q204">
+        <v>2.6</v>
+      </c>
+      <c r="R204">
+        <v>1.91</v>
+      </c>
+      <c r="S204">
+        <v>5</v>
+      </c>
+      <c r="T204">
+        <v>1.55</v>
+      </c>
+      <c r="U204">
+        <v>2.36</v>
+      </c>
+      <c r="V204">
+        <v>3.62</v>
+      </c>
+      <c r="W204">
+        <v>1.26</v>
+      </c>
+      <c r="X204">
+        <v>9.9</v>
+      </c>
+      <c r="Y204">
+        <v>1.03</v>
+      </c>
+      <c r="Z204">
+        <v>1.9</v>
+      </c>
+      <c r="AA204">
+        <v>3.25</v>
+      </c>
+      <c r="AB204">
+        <v>4.1</v>
+      </c>
+      <c r="AC204">
+        <v>1.07</v>
+      </c>
+      <c r="AD204">
+        <v>6.45</v>
+      </c>
+      <c r="AE204">
+        <v>1.48</v>
+      </c>
+      <c r="AF204">
+        <v>2.45</v>
+      </c>
+      <c r="AG204">
+        <v>2.38</v>
+      </c>
+      <c r="AH204">
+        <v>1.53</v>
+      </c>
+      <c r="AI204">
+        <v>2.25</v>
+      </c>
+      <c r="AJ204">
+        <v>1.57</v>
+      </c>
+      <c r="AK204">
+        <v>1.19</v>
+      </c>
+      <c r="AL204">
+        <v>1.31</v>
+      </c>
+      <c r="AM204">
+        <v>1.78</v>
+      </c>
+      <c r="AN204">
+        <v>1.5</v>
+      </c>
+      <c r="AO204">
+        <v>0.82</v>
+      </c>
+      <c r="AP204">
+        <v>1.64</v>
+      </c>
+      <c r="AQ204">
+        <v>0.75</v>
+      </c>
+      <c r="AR204">
+        <v>1.41</v>
+      </c>
+      <c r="AS204">
+        <v>1.15</v>
+      </c>
+      <c r="AT204">
+        <v>2.56</v>
+      </c>
+      <c r="AU204">
+        <v>4</v>
+      </c>
+      <c r="AV204">
+        <v>3</v>
+      </c>
+      <c r="AW204">
+        <v>7</v>
+      </c>
+      <c r="AX204">
+        <v>11</v>
+      </c>
+      <c r="AY204">
+        <v>11</v>
+      </c>
+      <c r="AZ204">
+        <v>14</v>
+      </c>
+      <c r="BA204">
+        <v>2</v>
+      </c>
+      <c r="BB204">
+        <v>4</v>
+      </c>
+      <c r="BC204">
+        <v>6</v>
+      </c>
+      <c r="BD204">
+        <v>1.6</v>
+      </c>
+      <c r="BE204">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF204">
+        <v>2.7</v>
+      </c>
+      <c r="BG204">
+        <v>1.47</v>
+      </c>
+      <c r="BH204">
+        <v>2.42</v>
+      </c>
+      <c r="BI204">
+        <v>1.83</v>
+      </c>
+      <c r="BJ204">
+        <v>1.83</v>
+      </c>
+      <c r="BK204">
+        <v>2.42</v>
+      </c>
+      <c r="BL204">
+        <v>1.47</v>
+      </c>
+      <c r="BM204">
+        <v>3.34</v>
+      </c>
+      <c r="BN204">
+        <v>1.26</v>
+      </c>
+      <c r="BO204">
+        <v>4.33</v>
+      </c>
+      <c r="BP204">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="300">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -912,6 +912,9 @@
   <si>
     <t>['80', '90+6']</t>
   </si>
+  <si>
+    <t>['28', '57']</t>
+  </si>
 </sst>
 </file>
 
@@ -1272,7 +1275,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP204"/>
+  <dimension ref="A1:BP206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2642,7 +2645,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ7">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3051,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -3257,10 +3260,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -5523,10 +5526,10 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR21">
         <v>1.13</v>
@@ -6350,7 +6353,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR25">
         <v>0.44</v>
@@ -6759,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ27">
         <v>1.55</v>
@@ -8613,7 +8616,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ36">
         <v>1.58</v>
@@ -8822,7 +8825,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ37">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR37">
         <v>1.06</v>
@@ -9028,7 +9031,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ38">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR38">
         <v>1.37</v>
@@ -9437,7 +9440,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -12527,7 +12530,7 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ55">
         <v>0.83</v>
@@ -12942,7 +12945,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR57">
         <v>1.05</v>
@@ -13145,7 +13148,7 @@
         <v>2.33</v>
       </c>
       <c r="AP58">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
         <v>1.92</v>
@@ -13560,7 +13563,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ60">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR60">
         <v>1.51</v>
@@ -15414,7 +15417,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ69">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR69">
         <v>1.06</v>
@@ -15826,7 +15829,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ71">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR71">
         <v>1.39</v>
@@ -16029,7 +16032,7 @@
         <v>1.67</v>
       </c>
       <c r="AP72">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ72">
         <v>0.75</v>
@@ -17471,7 +17474,7 @@
         <v>0.75</v>
       </c>
       <c r="AP79">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ79">
         <v>0.92</v>
@@ -19531,7 +19534,7 @@
         <v>1.4</v>
       </c>
       <c r="AP89">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ89">
         <v>1.25</v>
@@ -20973,7 +20976,7 @@
         <v>1.75</v>
       </c>
       <c r="AP96">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ96">
         <v>1.38</v>
@@ -21388,7 +21391,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ98">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR98">
         <v>1.43</v>
@@ -21594,7 +21597,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ99">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR99">
         <v>1.69</v>
@@ -22621,7 +22624,7 @@
         <v>1.17</v>
       </c>
       <c r="AP104">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ104">
         <v>0.75</v>
@@ -25299,7 +25302,7 @@
         <v>0.67</v>
       </c>
       <c r="AP117">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ117">
         <v>0.92</v>
@@ -25714,7 +25717,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ119">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR119">
         <v>1.25</v>
@@ -26535,7 +26538,7 @@
         <v>2</v>
       </c>
       <c r="AP123">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ123">
         <v>1.67</v>
@@ -26950,7 +26953,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ125">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR125">
         <v>1.36</v>
@@ -28595,7 +28598,7 @@
         <v>1.29</v>
       </c>
       <c r="AP133">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ133">
         <v>1.25</v>
@@ -32100,7 +32103,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ150">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR150">
         <v>1.76</v>
@@ -32303,7 +32306,7 @@
         <v>0.5</v>
       </c>
       <c r="AP151">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ151">
         <v>0.83</v>
@@ -33333,7 +33336,7 @@
         <v>1</v>
       </c>
       <c r="AP156">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ156">
         <v>0.75</v>
@@ -35393,7 +35396,7 @@
         <v>1</v>
       </c>
       <c r="AP166">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ166">
         <v>0.75</v>
@@ -36220,7 +36223,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ170">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR170">
         <v>1.74</v>
@@ -36632,7 +36635,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ172">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR172">
         <v>1.57</v>
@@ -37041,7 +37044,7 @@
         <v>1.78</v>
       </c>
       <c r="AP174">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ174">
         <v>1.67</v>
@@ -39101,7 +39104,7 @@
         <v>1</v>
       </c>
       <c r="AP184">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ184">
         <v>1.17</v>
@@ -39516,7 +39519,7 @@
         <v>1</v>
       </c>
       <c r="AQ186">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR186">
         <v>0.95</v>
@@ -39719,7 +39722,7 @@
         <v>1.22</v>
       </c>
       <c r="AP187">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AQ187">
         <v>1</v>
@@ -43300,6 +43303,418 @@
       </c>
       <c r="BP204">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="205" spans="1:68">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>7364327</v>
+      </c>
+      <c r="C205" t="s">
+        <v>68</v>
+      </c>
+      <c r="D205" t="s">
+        <v>69</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45439.41666666666</v>
+      </c>
+      <c r="F205">
+        <v>25</v>
+      </c>
+      <c r="G205" t="s">
+        <v>78</v>
+      </c>
+      <c r="H205" t="s">
+        <v>84</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
+      <c r="L205">
+        <v>1</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <v>1</v>
+      </c>
+      <c r="O205" t="s">
+        <v>162</v>
+      </c>
+      <c r="P205" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q205">
+        <v>1.73</v>
+      </c>
+      <c r="R205">
+        <v>2.5</v>
+      </c>
+      <c r="S205">
+        <v>7</v>
+      </c>
+      <c r="T205">
+        <v>1.29</v>
+      </c>
+      <c r="U205">
+        <v>3.3</v>
+      </c>
+      <c r="V205">
+        <v>2.4</v>
+      </c>
+      <c r="W205">
+        <v>1.5</v>
+      </c>
+      <c r="X205">
+        <v>5.25</v>
+      </c>
+      <c r="Y205">
+        <v>1.12</v>
+      </c>
+      <c r="Z205">
+        <v>1.33</v>
+      </c>
+      <c r="AA205">
+        <v>5</v>
+      </c>
+      <c r="AB205">
+        <v>8.5</v>
+      </c>
+      <c r="AC205">
+        <v>1.01</v>
+      </c>
+      <c r="AD205">
+        <v>11</v>
+      </c>
+      <c r="AE205">
+        <v>1.2</v>
+      </c>
+      <c r="AF205">
+        <v>4</v>
+      </c>
+      <c r="AG205">
+        <v>1.57</v>
+      </c>
+      <c r="AH205">
+        <v>2.35</v>
+      </c>
+      <c r="AI205">
+        <v>1.91</v>
+      </c>
+      <c r="AJ205">
+        <v>1.8</v>
+      </c>
+      <c r="AK205">
+        <v>1.08</v>
+      </c>
+      <c r="AL205">
+        <v>1.17</v>
+      </c>
+      <c r="AM205">
+        <v>3.2</v>
+      </c>
+      <c r="AN205">
+        <v>2.27</v>
+      </c>
+      <c r="AO205">
+        <v>1.4</v>
+      </c>
+      <c r="AP205">
+        <v>2.33</v>
+      </c>
+      <c r="AQ205">
+        <v>1.27</v>
+      </c>
+      <c r="AR205">
+        <v>1.95</v>
+      </c>
+      <c r="AS205">
+        <v>1.37</v>
+      </c>
+      <c r="AT205">
+        <v>3.32</v>
+      </c>
+      <c r="AU205">
+        <v>7</v>
+      </c>
+      <c r="AV205">
+        <v>0</v>
+      </c>
+      <c r="AW205">
+        <v>6</v>
+      </c>
+      <c r="AX205">
+        <v>5</v>
+      </c>
+      <c r="AY205">
+        <v>13</v>
+      </c>
+      <c r="AZ205">
+        <v>5</v>
+      </c>
+      <c r="BA205">
+        <v>3</v>
+      </c>
+      <c r="BB205">
+        <v>4</v>
+      </c>
+      <c r="BC205">
+        <v>7</v>
+      </c>
+      <c r="BD205">
+        <v>1.23</v>
+      </c>
+      <c r="BE205">
+        <v>11</v>
+      </c>
+      <c r="BF205">
+        <v>4.7</v>
+      </c>
+      <c r="BG205">
+        <v>1.19</v>
+      </c>
+      <c r="BH205">
+        <v>3.98</v>
+      </c>
+      <c r="BI205">
+        <v>1.37</v>
+      </c>
+      <c r="BJ205">
+        <v>2.75</v>
+      </c>
+      <c r="BK205">
+        <v>2</v>
+      </c>
+      <c r="BL205">
+        <v>2.12</v>
+      </c>
+      <c r="BM205">
+        <v>2.15</v>
+      </c>
+      <c r="BN205">
+        <v>1.68</v>
+      </c>
+      <c r="BO205">
+        <v>2.75</v>
+      </c>
+      <c r="BP205">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="206" spans="1:68">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>7364328</v>
+      </c>
+      <c r="C206" t="s">
+        <v>68</v>
+      </c>
+      <c r="D206" t="s">
+        <v>69</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45439.54166666666</v>
+      </c>
+      <c r="F206">
+        <v>25</v>
+      </c>
+      <c r="G206" t="s">
+        <v>77</v>
+      </c>
+      <c r="H206" t="s">
+        <v>80</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>1</v>
+      </c>
+      <c r="K206">
+        <v>1</v>
+      </c>
+      <c r="L206">
+        <v>0</v>
+      </c>
+      <c r="M206">
+        <v>2</v>
+      </c>
+      <c r="N206">
+        <v>2</v>
+      </c>
+      <c r="O206" t="s">
+        <v>92</v>
+      </c>
+      <c r="P206" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q206">
+        <v>4.5</v>
+      </c>
+      <c r="R206">
+        <v>1.95</v>
+      </c>
+      <c r="S206">
+        <v>2.63</v>
+      </c>
+      <c r="T206">
+        <v>1.38</v>
+      </c>
+      <c r="U206">
+        <v>2.96</v>
+      </c>
+      <c r="V206">
+        <v>2.92</v>
+      </c>
+      <c r="W206">
+        <v>1.39</v>
+      </c>
+      <c r="X206">
+        <v>6.6</v>
+      </c>
+      <c r="Y206">
+        <v>1.08</v>
+      </c>
+      <c r="Z206">
+        <v>4.2</v>
+      </c>
+      <c r="AA206">
+        <v>3</v>
+      </c>
+      <c r="AB206">
+        <v>1.95</v>
+      </c>
+      <c r="AC206">
+        <v>1.03</v>
+      </c>
+      <c r="AD206">
+        <v>9</v>
+      </c>
+      <c r="AE206">
+        <v>1.29</v>
+      </c>
+      <c r="AF206">
+        <v>3.3</v>
+      </c>
+      <c r="AG206">
+        <v>2.35</v>
+      </c>
+      <c r="AH206">
+        <v>1.57</v>
+      </c>
+      <c r="AI206">
+        <v>2.1</v>
+      </c>
+      <c r="AJ206">
+        <v>1.67</v>
+      </c>
+      <c r="AK206">
+        <v>1.8</v>
+      </c>
+      <c r="AL206">
+        <v>1.3</v>
+      </c>
+      <c r="AM206">
+        <v>1.25</v>
+      </c>
+      <c r="AN206">
+        <v>1.64</v>
+      </c>
+      <c r="AO206">
+        <v>1</v>
+      </c>
+      <c r="AP206">
+        <v>1.5</v>
+      </c>
+      <c r="AQ206">
+        <v>1.22</v>
+      </c>
+      <c r="AR206">
+        <v>1.4</v>
+      </c>
+      <c r="AS206">
+        <v>1.68</v>
+      </c>
+      <c r="AT206">
+        <v>3.08</v>
+      </c>
+      <c r="AU206">
+        <v>6</v>
+      </c>
+      <c r="AV206">
+        <v>5</v>
+      </c>
+      <c r="AW206">
+        <v>10</v>
+      </c>
+      <c r="AX206">
+        <v>6</v>
+      </c>
+      <c r="AY206">
+        <v>16</v>
+      </c>
+      <c r="AZ206">
+        <v>11</v>
+      </c>
+      <c r="BA206">
+        <v>4</v>
+      </c>
+      <c r="BB206">
+        <v>4</v>
+      </c>
+      <c r="BC206">
+        <v>8</v>
+      </c>
+      <c r="BD206">
+        <v>2.33</v>
+      </c>
+      <c r="BE206">
+        <v>7.9</v>
+      </c>
+      <c r="BF206">
+        <v>1.78</v>
+      </c>
+      <c r="BG206">
+        <v>1.26</v>
+      </c>
+      <c r="BH206">
+        <v>3.34</v>
+      </c>
+      <c r="BI206">
+        <v>1.53</v>
+      </c>
+      <c r="BJ206">
+        <v>2.42</v>
+      </c>
+      <c r="BK206">
+        <v>1.92</v>
+      </c>
+      <c r="BL206">
+        <v>1.88</v>
+      </c>
+      <c r="BM206">
+        <v>2.37</v>
+      </c>
+      <c r="BN206">
+        <v>1.55</v>
+      </c>
+      <c r="BO206">
+        <v>3.18</v>
+      </c>
+      <c r="BP206">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="303">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -640,6 +640,12 @@
     <t>['90+3']</t>
   </si>
   <si>
+    <t>['22', '63', '90+3']</t>
+  </si>
+  <si>
+    <t>['18', '24', '68']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -914,6 +920,9 @@
   </si>
   <si>
     <t>['28', '57']</t>
+  </si>
+  <si>
+    <t>['18']</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1284,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP206"/>
+  <dimension ref="A1:BP208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2358,7 +2367,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2645,7 +2654,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ7">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2770,7 +2779,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3182,7 +3191,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3260,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ10">
         <v>1.22</v>
@@ -3594,7 +3603,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3800,7 +3809,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -3881,7 +3890,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ13">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4006,7 +4015,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4084,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ14">
         <v>0.25</v>
@@ -5036,7 +5045,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5448,7 +5457,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5529,7 +5538,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ21">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR21">
         <v>1.13</v>
@@ -5654,7 +5663,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5860,7 +5869,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -6272,7 +6281,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q25">
         <v>3.75</v>
@@ -6478,7 +6487,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6762,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ27">
         <v>1.55</v>
@@ -7302,7 +7311,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7508,7 +7517,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7589,7 +7598,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ31">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR31">
         <v>1.53</v>
@@ -7920,7 +7929,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8204,7 +8213,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ34">
         <v>2.5</v>
@@ -8538,7 +8547,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -8616,7 +8625,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ36">
         <v>1.58</v>
@@ -8950,7 +8959,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9031,7 +9040,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ38">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR38">
         <v>1.37</v>
@@ -9156,7 +9165,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9237,7 +9246,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ39">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR39">
         <v>1.93</v>
@@ -9362,7 +9371,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9980,7 +9989,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10186,7 +10195,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10392,7 +10401,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -11010,7 +11019,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q48">
         <v>6.5</v>
@@ -11216,7 +11225,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11500,7 +11509,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ50">
         <v>1.55</v>
@@ -11628,7 +11637,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11834,7 +11843,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12040,7 +12049,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12452,7 +12461,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12530,7 +12539,7 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ55">
         <v>0.83</v>
@@ -12739,7 +12748,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ56">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR56">
         <v>1.78</v>
@@ -12864,7 +12873,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -12942,7 +12951,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ57">
         <v>1.22</v>
@@ -13276,7 +13285,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -13563,7 +13572,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ60">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR60">
         <v>1.51</v>
@@ -13688,7 +13697,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -14100,7 +14109,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14306,7 +14315,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14512,7 +14521,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14718,7 +14727,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -15336,7 +15345,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15417,7 +15426,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ69">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR69">
         <v>1.06</v>
@@ -15620,7 +15629,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ70">
         <v>1</v>
@@ -15954,7 +15963,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q72">
         <v>1.8</v>
@@ -16032,7 +16041,7 @@
         <v>1.67</v>
       </c>
       <c r="AP72">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ72">
         <v>0.75</v>
@@ -16241,7 +16250,7 @@
         <v>1</v>
       </c>
       <c r="AQ73">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR73">
         <v>0.83</v>
@@ -16366,7 +16375,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q74">
         <v>3.25</v>
@@ -16572,7 +16581,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16984,7 +16993,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17190,7 +17199,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17396,7 +17405,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17602,7 +17611,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -18632,7 +18641,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18838,7 +18847,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19044,7 +19053,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19456,7 +19465,7 @@
         <v>147</v>
       </c>
       <c r="P89" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q89">
         <v>3.5</v>
@@ -19662,7 +19671,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -20567,7 +20576,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ94">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR94">
         <v>1.11</v>
@@ -20976,7 +20985,7 @@
         <v>1.75</v>
       </c>
       <c r="AP96">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ96">
         <v>1.38</v>
@@ -21104,7 +21113,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21182,7 +21191,7 @@
         <v>0.83</v>
       </c>
       <c r="AP97">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ97">
         <v>1</v>
@@ -21597,7 +21606,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ99">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR99">
         <v>1.69</v>
@@ -21722,7 +21731,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -22134,7 +22143,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22340,7 +22349,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23164,7 +23173,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23576,7 +23585,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23988,7 +23997,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24606,7 +24615,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -25099,7 +25108,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ116">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR116">
         <v>1.36</v>
@@ -25302,7 +25311,7 @@
         <v>0.67</v>
       </c>
       <c r="AP117">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ117">
         <v>0.92</v>
@@ -25508,7 +25517,7 @@
         <v>1.71</v>
       </c>
       <c r="AP118">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ118">
         <v>1.92</v>
@@ -25636,7 +25645,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25717,7 +25726,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ119">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR119">
         <v>1.25</v>
@@ -25842,7 +25851,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -26048,7 +26057,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26666,7 +26675,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -26872,7 +26881,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -27078,7 +27087,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q126">
         <v>6</v>
@@ -27284,7 +27293,7 @@
         <v>148</v>
       </c>
       <c r="P127" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q127">
         <v>2.6</v>
@@ -27571,7 +27580,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ128">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR128">
         <v>1.4</v>
@@ -27696,7 +27705,7 @@
         <v>94</v>
       </c>
       <c r="P129" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q129">
         <v>3.4</v>
@@ -28108,7 +28117,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28598,7 +28607,7 @@
         <v>1.29</v>
       </c>
       <c r="AP133">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ133">
         <v>1.25</v>
@@ -28726,7 +28735,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -28932,7 +28941,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29138,7 +29147,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29756,7 +29765,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q139">
         <v>3.15</v>
@@ -30168,7 +30177,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -30374,7 +30383,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q142">
         <v>3.75</v>
@@ -30661,7 +30670,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ143">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR143">
         <v>1.38</v>
@@ -30786,7 +30795,7 @@
         <v>92</v>
       </c>
       <c r="P144" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -31198,7 +31207,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31482,7 +31491,7 @@
         <v>0.75</v>
       </c>
       <c r="AP147">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ147">
         <v>0.92</v>
@@ -31610,7 +31619,7 @@
         <v>108</v>
       </c>
       <c r="P148" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q148">
         <v>3.25</v>
@@ -32103,7 +32112,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ150">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR150">
         <v>1.76</v>
@@ -32228,7 +32237,7 @@
         <v>184</v>
       </c>
       <c r="P151" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q151">
         <v>3.2</v>
@@ -32846,7 +32855,7 @@
         <v>129</v>
       </c>
       <c r="P154" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33258,7 +33267,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q156">
         <v>1.91</v>
@@ -33336,7 +33345,7 @@
         <v>1</v>
       </c>
       <c r="AP156">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ156">
         <v>0.75</v>
@@ -33464,7 +33473,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34163,7 +34172,7 @@
         <v>0.36</v>
       </c>
       <c r="AQ160">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR160">
         <v>1.22</v>
@@ -34288,7 +34297,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34494,7 +34503,7 @@
         <v>151</v>
       </c>
       <c r="P162" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -34700,7 +34709,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -35190,7 +35199,7 @@
         <v>1.44</v>
       </c>
       <c r="AP165">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ165">
         <v>1.25</v>
@@ -35318,7 +35327,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35524,7 +35533,7 @@
         <v>92</v>
       </c>
       <c r="P167" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35730,7 +35739,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
@@ -35936,7 +35945,7 @@
         <v>192</v>
       </c>
       <c r="P169" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -36223,7 +36232,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ170">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR170">
         <v>1.74</v>
@@ -36348,7 +36357,7 @@
         <v>194</v>
       </c>
       <c r="P171" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -36760,7 +36769,7 @@
         <v>92</v>
       </c>
       <c r="P173" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q173">
         <v>4.8</v>
@@ -37044,7 +37053,7 @@
         <v>1.78</v>
       </c>
       <c r="AP174">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ174">
         <v>1.67</v>
@@ -37584,7 +37593,7 @@
         <v>129</v>
       </c>
       <c r="P177" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q177">
         <v>3.25</v>
@@ -37996,7 +38005,7 @@
         <v>118</v>
       </c>
       <c r="P179" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38280,7 +38289,7 @@
         <v>0.8</v>
       </c>
       <c r="AP180">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ180">
         <v>0.75</v>
@@ -38614,7 +38623,7 @@
         <v>92</v>
       </c>
       <c r="P182" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q182">
         <v>4.33</v>
@@ -38820,7 +38829,7 @@
         <v>200</v>
       </c>
       <c r="P183" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q183">
         <v>9</v>
@@ -39026,7 +39035,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q184">
         <v>3.4</v>
@@ -39107,7 +39116,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ184">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR184">
         <v>1.39</v>
@@ -39232,7 +39241,7 @@
         <v>108</v>
       </c>
       <c r="P185" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -39519,7 +39528,7 @@
         <v>1</v>
       </c>
       <c r="AQ186">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR186">
         <v>0.95</v>
@@ -39722,7 +39731,7 @@
         <v>1.22</v>
       </c>
       <c r="AP187">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ187">
         <v>1</v>
@@ -40056,7 +40065,7 @@
         <v>202</v>
       </c>
       <c r="P189" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q189">
         <v>3.8</v>
@@ -40262,7 +40271,7 @@
         <v>92</v>
       </c>
       <c r="P190" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q190">
         <v>3.5</v>
@@ -40468,7 +40477,7 @@
         <v>92</v>
       </c>
       <c r="P191" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -42116,7 +42125,7 @@
         <v>171</v>
       </c>
       <c r="P199" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q199">
         <v>3.5</v>
@@ -42197,7 +42206,7 @@
         <v>0.91</v>
       </c>
       <c r="AQ199">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR199">
         <v>1.39</v>
@@ -42322,7 +42331,7 @@
         <v>204</v>
       </c>
       <c r="P200" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q200">
         <v>3.75</v>
@@ -42734,7 +42743,7 @@
         <v>206</v>
       </c>
       <c r="P202" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q202">
         <v>3.2</v>
@@ -43018,7 +43027,7 @@
         <v>1.64</v>
       </c>
       <c r="AP203">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ203">
         <v>1.58</v>
@@ -43430,10 +43439,10 @@
         <v>1.4</v>
       </c>
       <c r="AP205">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ205">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR205">
         <v>1.95</v>
@@ -43558,7 +43567,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q206">
         <v>4.5</v>
@@ -43715,6 +43724,418 @@
       </c>
       <c r="BP206">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="207" spans="1:68">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>7217683</v>
+      </c>
+      <c r="C207" t="s">
+        <v>68</v>
+      </c>
+      <c r="D207" t="s">
+        <v>69</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45456.54166666666</v>
+      </c>
+      <c r="F207">
+        <v>11</v>
+      </c>
+      <c r="G207" t="s">
+        <v>82</v>
+      </c>
+      <c r="H207" t="s">
+        <v>84</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207">
+        <v>1</v>
+      </c>
+      <c r="K207">
+        <v>2</v>
+      </c>
+      <c r="L207">
+        <v>3</v>
+      </c>
+      <c r="M207">
+        <v>1</v>
+      </c>
+      <c r="N207">
+        <v>4</v>
+      </c>
+      <c r="O207" t="s">
+        <v>208</v>
+      </c>
+      <c r="P207" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q207">
+        <v>2.75</v>
+      </c>
+      <c r="R207">
+        <v>1.91</v>
+      </c>
+      <c r="S207">
+        <v>4.75</v>
+      </c>
+      <c r="T207">
+        <v>1.53</v>
+      </c>
+      <c r="U207">
+        <v>2.49</v>
+      </c>
+      <c r="V207">
+        <v>3.4</v>
+      </c>
+      <c r="W207">
+        <v>1.3</v>
+      </c>
+      <c r="X207">
+        <v>8.5</v>
+      </c>
+      <c r="Y207">
+        <v>1.05</v>
+      </c>
+      <c r="Z207">
+        <v>1.95</v>
+      </c>
+      <c r="AA207">
+        <v>2.9</v>
+      </c>
+      <c r="AB207">
+        <v>4.1</v>
+      </c>
+      <c r="AC207">
+        <v>1.1</v>
+      </c>
+      <c r="AD207">
+        <v>6.86</v>
+      </c>
+      <c r="AE207">
+        <v>1.51</v>
+      </c>
+      <c r="AF207">
+        <v>2.46</v>
+      </c>
+      <c r="AG207">
+        <v>2.63</v>
+      </c>
+      <c r="AH207">
+        <v>1.44</v>
+      </c>
+      <c r="AI207">
+        <v>2.25</v>
+      </c>
+      <c r="AJ207">
+        <v>1.57</v>
+      </c>
+      <c r="AK207">
+        <v>1.19</v>
+      </c>
+      <c r="AL207">
+        <v>1.28</v>
+      </c>
+      <c r="AM207">
+        <v>1.83</v>
+      </c>
+      <c r="AN207">
+        <v>1.09</v>
+      </c>
+      <c r="AO207">
+        <v>1.27</v>
+      </c>
+      <c r="AP207">
+        <v>1.25</v>
+      </c>
+      <c r="AQ207">
+        <v>1.17</v>
+      </c>
+      <c r="AR207">
+        <v>1.16</v>
+      </c>
+      <c r="AS207">
+        <v>1.29</v>
+      </c>
+      <c r="AT207">
+        <v>2.45</v>
+      </c>
+      <c r="AU207">
+        <v>5</v>
+      </c>
+      <c r="AV207">
+        <v>3</v>
+      </c>
+      <c r="AW207">
+        <v>1</v>
+      </c>
+      <c r="AX207">
+        <v>3</v>
+      </c>
+      <c r="AY207">
+        <v>6</v>
+      </c>
+      <c r="AZ207">
+        <v>6</v>
+      </c>
+      <c r="BA207">
+        <v>5</v>
+      </c>
+      <c r="BB207">
+        <v>4</v>
+      </c>
+      <c r="BC207">
+        <v>9</v>
+      </c>
+      <c r="BD207">
+        <v>1.53</v>
+      </c>
+      <c r="BE207">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF207">
+        <v>2.86</v>
+      </c>
+      <c r="BG207">
+        <v>1.27</v>
+      </c>
+      <c r="BH207">
+        <v>3.28</v>
+      </c>
+      <c r="BI207">
+        <v>1.56</v>
+      </c>
+      <c r="BJ207">
+        <v>2.37</v>
+      </c>
+      <c r="BK207">
+        <v>2.38</v>
+      </c>
+      <c r="BL207">
+        <v>1.84</v>
+      </c>
+      <c r="BM207">
+        <v>2.49</v>
+      </c>
+      <c r="BN207">
+        <v>1.52</v>
+      </c>
+      <c r="BO207">
+        <v>3.34</v>
+      </c>
+      <c r="BP207">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="208" spans="1:68">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>7217688</v>
+      </c>
+      <c r="C208" t="s">
+        <v>68</v>
+      </c>
+      <c r="D208" t="s">
+        <v>69</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45456.54166666666</v>
+      </c>
+      <c r="F208">
+        <v>11</v>
+      </c>
+      <c r="G208" t="s">
+        <v>78</v>
+      </c>
+      <c r="H208" t="s">
+        <v>75</v>
+      </c>
+      <c r="I208">
+        <v>2</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>2</v>
+      </c>
+      <c r="L208">
+        <v>3</v>
+      </c>
+      <c r="M208">
+        <v>0</v>
+      </c>
+      <c r="N208">
+        <v>3</v>
+      </c>
+      <c r="O208" t="s">
+        <v>209</v>
+      </c>
+      <c r="P208" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q208">
+        <v>2.1</v>
+      </c>
+      <c r="R208">
+        <v>2.1</v>
+      </c>
+      <c r="S208">
+        <v>5.5</v>
+      </c>
+      <c r="T208">
+        <v>1.36</v>
+      </c>
+      <c r="U208">
+        <v>3</v>
+      </c>
+      <c r="V208">
+        <v>2.75</v>
+      </c>
+      <c r="W208">
+        <v>1.4</v>
+      </c>
+      <c r="X208">
+        <v>6.5</v>
+      </c>
+      <c r="Y208">
+        <v>1.1</v>
+      </c>
+      <c r="Z208">
+        <v>1.55</v>
+      </c>
+      <c r="AA208">
+        <v>3.5</v>
+      </c>
+      <c r="AB208">
+        <v>5.75</v>
+      </c>
+      <c r="AC208">
+        <v>1.02</v>
+      </c>
+      <c r="AD208">
+        <v>10</v>
+      </c>
+      <c r="AE208">
+        <v>1.29</v>
+      </c>
+      <c r="AF208">
+        <v>3.3</v>
+      </c>
+      <c r="AG208">
+        <v>2</v>
+      </c>
+      <c r="AH208">
+        <v>1.8</v>
+      </c>
+      <c r="AI208">
+        <v>2.1</v>
+      </c>
+      <c r="AJ208">
+        <v>1.67</v>
+      </c>
+      <c r="AK208">
+        <v>1.11</v>
+      </c>
+      <c r="AL208">
+        <v>1.25</v>
+      </c>
+      <c r="AM208">
+        <v>2.5</v>
+      </c>
+      <c r="AN208">
+        <v>2.33</v>
+      </c>
+      <c r="AO208">
+        <v>1.17</v>
+      </c>
+      <c r="AP208">
+        <v>2.38</v>
+      </c>
+      <c r="AQ208">
+        <v>1.08</v>
+      </c>
+      <c r="AR208">
+        <v>1.92</v>
+      </c>
+      <c r="AS208">
+        <v>1.32</v>
+      </c>
+      <c r="AT208">
+        <v>3.24</v>
+      </c>
+      <c r="AU208">
+        <v>7</v>
+      </c>
+      <c r="AV208">
+        <v>5</v>
+      </c>
+      <c r="AW208">
+        <v>9</v>
+      </c>
+      <c r="AX208">
+        <v>3</v>
+      </c>
+      <c r="AY208">
+        <v>16</v>
+      </c>
+      <c r="AZ208">
+        <v>8</v>
+      </c>
+      <c r="BA208">
+        <v>4</v>
+      </c>
+      <c r="BB208">
+        <v>2</v>
+      </c>
+      <c r="BC208">
+        <v>6</v>
+      </c>
+      <c r="BD208">
+        <v>1.24</v>
+      </c>
+      <c r="BE208">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF208">
+        <v>5.3</v>
+      </c>
+      <c r="BG208">
+        <v>1.29</v>
+      </c>
+      <c r="BH208">
+        <v>3.3</v>
+      </c>
+      <c r="BI208">
+        <v>1.48</v>
+      </c>
+      <c r="BJ208">
+        <v>2.59</v>
+      </c>
+      <c r="BK208">
+        <v>2.2</v>
+      </c>
+      <c r="BL208">
+        <v>1.97</v>
+      </c>
+      <c r="BM208">
+        <v>2.29</v>
+      </c>
+      <c r="BN208">
+        <v>1.59</v>
+      </c>
+      <c r="BO208">
+        <v>2.8</v>
+      </c>
+      <c r="BP208">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="305">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -924,6 +924,12 @@
   <si>
     <t>['18']</t>
   </si>
+  <si>
+    <t>['80', '89']</t>
+  </si>
+  <si>
+    <t>['30', '45+4']</t>
+  </si>
 </sst>
 </file>
 
@@ -1284,7 +1290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP208"/>
+  <dimension ref="A1:BP210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2857,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ8">
         <v>1.67</v>
@@ -3272,7 +3278,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ10">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -5741,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -6362,7 +6368,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ25">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR25">
         <v>0.44</v>
@@ -7183,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ29">
         <v>0.25</v>
@@ -8834,7 +8840,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ37">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR37">
         <v>1.06</v>
@@ -9037,7 +9043,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ38">
         <v>1.17</v>
@@ -10685,7 +10691,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ46">
         <v>2.5</v>
@@ -11100,7 +11106,7 @@
         <v>0.36</v>
       </c>
       <c r="AQ48">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR48">
         <v>1.22</v>
@@ -12127,10 +12133,10 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ53">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR53">
         <v>1.61</v>
@@ -12336,7 +12342,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ54">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR54">
         <v>1.42</v>
@@ -12954,7 +12960,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ57">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR57">
         <v>1.05</v>
@@ -13363,7 +13369,7 @@
         <v>0.33</v>
       </c>
       <c r="AP59">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -14805,7 +14811,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ66">
         <v>1.55</v>
@@ -15838,7 +15844,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ71">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR71">
         <v>1.39</v>
@@ -16659,7 +16665,7 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ75">
         <v>1.92</v>
@@ -21400,7 +21406,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ98">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR98">
         <v>1.43</v>
@@ -21603,7 +21609,7 @@
         <v>1.8</v>
       </c>
       <c r="AP99">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ99">
         <v>1.17</v>
@@ -22427,7 +22433,7 @@
         <v>1.33</v>
       </c>
       <c r="AP103">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ103">
         <v>1.25</v>
@@ -24075,7 +24081,7 @@
         <v>1.14</v>
       </c>
       <c r="AP111">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ111">
         <v>0.75</v>
@@ -24281,7 +24287,7 @@
         <v>0.86</v>
       </c>
       <c r="AP112">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ112">
         <v>1</v>
@@ -26962,7 +26968,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ125">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR125">
         <v>1.36</v>
@@ -27168,7 +27174,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ126">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR126">
         <v>1.42</v>
@@ -27371,7 +27377,7 @@
         <v>1.63</v>
       </c>
       <c r="AP127">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ127">
         <v>1.92</v>
@@ -29640,7 +29646,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ138">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR138">
         <v>1.91</v>
@@ -29843,7 +29849,7 @@
         <v>1.57</v>
       </c>
       <c r="AP139">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ139">
         <v>1.58</v>
@@ -30464,7 +30470,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ142">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR142">
         <v>1.73</v>
@@ -31285,7 +31291,7 @@
         <v>1.63</v>
       </c>
       <c r="AP146">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ146">
         <v>1.38</v>
@@ -32933,7 +32939,7 @@
         <v>1.5</v>
       </c>
       <c r="AP154">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ154">
         <v>1.58</v>
@@ -34375,7 +34381,7 @@
         <v>0.67</v>
       </c>
       <c r="AP161">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ161">
         <v>0.92</v>
@@ -34584,7 +34590,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ162">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR162">
         <v>1.39</v>
@@ -35817,7 +35823,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP168">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ168">
         <v>0.83</v>
@@ -36644,7 +36650,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ172">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR172">
         <v>1.57</v>
@@ -37877,7 +37883,7 @@
         <v>1.4</v>
       </c>
       <c r="AP178">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ178">
         <v>1.25</v>
@@ -38910,7 +38916,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ183">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AR183">
         <v>1.28</v>
@@ -39937,7 +39943,7 @@
         <v>0.9</v>
       </c>
       <c r="AP188">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ188">
         <v>0.75</v>
@@ -41585,7 +41591,7 @@
         <v>0.82</v>
       </c>
       <c r="AP196">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ196">
         <v>0.75</v>
@@ -42203,7 +42209,7 @@
         <v>1.18</v>
       </c>
       <c r="AP199">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ199">
         <v>1.08</v>
@@ -43648,7 +43654,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ206">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR206">
         <v>1.4</v>
@@ -44136,6 +44142,418 @@
       </c>
       <c r="BP208">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="209" spans="1:68">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>7217682</v>
+      </c>
+      <c r="C209" t="s">
+        <v>68</v>
+      </c>
+      <c r="D209" t="s">
+        <v>69</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45457.54166666666</v>
+      </c>
+      <c r="F209">
+        <v>11</v>
+      </c>
+      <c r="G209" t="s">
+        <v>87</v>
+      </c>
+      <c r="H209" t="s">
+        <v>80</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>1</v>
+      </c>
+      <c r="L209">
+        <v>1</v>
+      </c>
+      <c r="M209">
+        <v>2</v>
+      </c>
+      <c r="N209">
+        <v>3</v>
+      </c>
+      <c r="O209" t="s">
+        <v>194</v>
+      </c>
+      <c r="P209" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q209">
+        <v>3.5</v>
+      </c>
+      <c r="R209">
+        <v>2.1</v>
+      </c>
+      <c r="S209">
+        <v>2.88</v>
+      </c>
+      <c r="T209">
+        <v>1.38</v>
+      </c>
+      <c r="U209">
+        <v>2.8</v>
+      </c>
+      <c r="V209">
+        <v>2.7</v>
+      </c>
+      <c r="W209">
+        <v>1.4</v>
+      </c>
+      <c r="X209">
+        <v>6.5</v>
+      </c>
+      <c r="Y209">
+        <v>1.08</v>
+      </c>
+      <c r="Z209">
+        <v>2.9</v>
+      </c>
+      <c r="AA209">
+        <v>3.3</v>
+      </c>
+      <c r="AB209">
+        <v>2.25</v>
+      </c>
+      <c r="AC209">
+        <v>1.03</v>
+      </c>
+      <c r="AD209">
+        <v>9</v>
+      </c>
+      <c r="AE209">
+        <v>1.29</v>
+      </c>
+      <c r="AF209">
+        <v>3.3</v>
+      </c>
+      <c r="AG209">
+        <v>2</v>
+      </c>
+      <c r="AH209">
+        <v>1.8</v>
+      </c>
+      <c r="AI209">
+        <v>1.8</v>
+      </c>
+      <c r="AJ209">
+        <v>1.91</v>
+      </c>
+      <c r="AK209">
+        <v>1.69</v>
+      </c>
+      <c r="AL209">
+        <v>1.27</v>
+      </c>
+      <c r="AM209">
+        <v>1.28</v>
+      </c>
+      <c r="AN209">
+        <v>1.92</v>
+      </c>
+      <c r="AO209">
+        <v>1.22</v>
+      </c>
+      <c r="AP209">
+        <v>1.77</v>
+      </c>
+      <c r="AQ209">
+        <v>1.4</v>
+      </c>
+      <c r="AR209">
+        <v>1.55</v>
+      </c>
+      <c r="AS209">
+        <v>1.65</v>
+      </c>
+      <c r="AT209">
+        <v>3.2</v>
+      </c>
+      <c r="AU209">
+        <v>6</v>
+      </c>
+      <c r="AV209">
+        <v>5</v>
+      </c>
+      <c r="AW209">
+        <v>5</v>
+      </c>
+      <c r="AX209">
+        <v>9</v>
+      </c>
+      <c r="AY209">
+        <v>11</v>
+      </c>
+      <c r="AZ209">
+        <v>14</v>
+      </c>
+      <c r="BA209">
+        <v>6</v>
+      </c>
+      <c r="BB209">
+        <v>9</v>
+      </c>
+      <c r="BC209">
+        <v>15</v>
+      </c>
+      <c r="BD209">
+        <v>2.25</v>
+      </c>
+      <c r="BE209">
+        <v>6.35</v>
+      </c>
+      <c r="BF209">
+        <v>1.94</v>
+      </c>
+      <c r="BG209">
+        <v>1.19</v>
+      </c>
+      <c r="BH209">
+        <v>3.9</v>
+      </c>
+      <c r="BI209">
+        <v>1.39</v>
+      </c>
+      <c r="BJ209">
+        <v>2.67</v>
+      </c>
+      <c r="BK209">
+        <v>2.2</v>
+      </c>
+      <c r="BL209">
+        <v>2.03</v>
+      </c>
+      <c r="BM209">
+        <v>2.2</v>
+      </c>
+      <c r="BN209">
+        <v>1.64</v>
+      </c>
+      <c r="BO209">
+        <v>2.79</v>
+      </c>
+      <c r="BP209">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="210" spans="1:68">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>7217685</v>
+      </c>
+      <c r="C210" t="s">
+        <v>68</v>
+      </c>
+      <c r="D210" t="s">
+        <v>69</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45457.54166666666</v>
+      </c>
+      <c r="F210">
+        <v>11</v>
+      </c>
+      <c r="G210" t="s">
+        <v>76</v>
+      </c>
+      <c r="H210" t="s">
+        <v>72</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="J210">
+        <v>2</v>
+      </c>
+      <c r="K210">
+        <v>3</v>
+      </c>
+      <c r="L210">
+        <v>1</v>
+      </c>
+      <c r="M210">
+        <v>2</v>
+      </c>
+      <c r="N210">
+        <v>3</v>
+      </c>
+      <c r="O210" t="s">
+        <v>179</v>
+      </c>
+      <c r="P210" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q210">
+        <v>7.5</v>
+      </c>
+      <c r="R210">
+        <v>2.2</v>
+      </c>
+      <c r="S210">
+        <v>1.91</v>
+      </c>
+      <c r="T210">
+        <v>1.4</v>
+      </c>
+      <c r="U210">
+        <v>2.7</v>
+      </c>
+      <c r="V210">
+        <v>2.9</v>
+      </c>
+      <c r="W210">
+        <v>1.36</v>
+      </c>
+      <c r="X210">
+        <v>7</v>
+      </c>
+      <c r="Y210">
+        <v>1.07</v>
+      </c>
+      <c r="Z210">
+        <v>6</v>
+      </c>
+      <c r="AA210">
+        <v>4.75</v>
+      </c>
+      <c r="AB210">
+        <v>1.38</v>
+      </c>
+      <c r="AC210">
+        <v>1.04</v>
+      </c>
+      <c r="AD210">
+        <v>8.5</v>
+      </c>
+      <c r="AE210">
+        <v>1.33</v>
+      </c>
+      <c r="AF210">
+        <v>3</v>
+      </c>
+      <c r="AG210">
+        <v>1.95</v>
+      </c>
+      <c r="AH210">
+        <v>1.85</v>
+      </c>
+      <c r="AI210">
+        <v>2.5</v>
+      </c>
+      <c r="AJ210">
+        <v>1.5</v>
+      </c>
+      <c r="AK210">
+        <v>2.51</v>
+      </c>
+      <c r="AL210">
+        <v>1.19</v>
+      </c>
+      <c r="AM210">
+        <v>1.08</v>
+      </c>
+      <c r="AN210">
+        <v>0.91</v>
+      </c>
+      <c r="AO210">
+        <v>2</v>
+      </c>
+      <c r="AP210">
+        <v>0.83</v>
+      </c>
+      <c r="AQ210">
+        <v>2.11</v>
+      </c>
+      <c r="AR210">
+        <v>1.33</v>
+      </c>
+      <c r="AS210">
+        <v>1.77</v>
+      </c>
+      <c r="AT210">
+        <v>3.1</v>
+      </c>
+      <c r="AU210">
+        <v>4</v>
+      </c>
+      <c r="AV210">
+        <v>7</v>
+      </c>
+      <c r="AW210">
+        <v>4</v>
+      </c>
+      <c r="AX210">
+        <v>2</v>
+      </c>
+      <c r="AY210">
+        <v>8</v>
+      </c>
+      <c r="AZ210">
+        <v>9</v>
+      </c>
+      <c r="BA210">
+        <v>2</v>
+      </c>
+      <c r="BB210">
+        <v>5</v>
+      </c>
+      <c r="BC210">
+        <v>7</v>
+      </c>
+      <c r="BD210">
+        <v>4.95</v>
+      </c>
+      <c r="BE210">
+        <v>7.8</v>
+      </c>
+      <c r="BF210">
+        <v>1.27</v>
+      </c>
+      <c r="BG210">
+        <v>1.31</v>
+      </c>
+      <c r="BH210">
+        <v>3.04</v>
+      </c>
+      <c r="BI210">
+        <v>1.62</v>
+      </c>
+      <c r="BJ210">
+        <v>2.25</v>
+      </c>
+      <c r="BK210">
+        <v>2</v>
+      </c>
+      <c r="BL210">
+        <v>1.78</v>
+      </c>
+      <c r="BM210">
+        <v>2.6</v>
+      </c>
+      <c r="BN210">
+        <v>1.41</v>
+      </c>
+      <c r="BO210">
+        <v>3.65</v>
+      </c>
+      <c r="BP210">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="306">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -644,6 +644,9 @@
   </si>
   <si>
     <t>['18', '24', '68']</t>
+  </si>
+  <si>
+    <t>['55', '70', '74']</t>
   </si>
   <si>
     <t>['16', '75']</t>
@@ -1290,7 +1293,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP210"/>
+  <dimension ref="A1:BP211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2373,7 +2376,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2451,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AQ6">
         <v>0.75</v>
@@ -2785,7 +2788,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3197,7 +3200,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3609,7 +3612,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3815,7 +3818,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -4021,7 +4024,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4308,7 +4311,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ15">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -5051,7 +5054,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5463,7 +5466,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5669,7 +5672,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5875,7 +5878,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -6287,7 +6290,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q25">
         <v>3.75</v>
@@ -6493,7 +6496,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6986,7 +6989,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ28">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR28">
         <v>1.47</v>
@@ -7317,7 +7320,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7523,7 +7526,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7935,7 +7938,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8013,7 +8016,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AQ33">
         <v>1.92</v>
@@ -8553,7 +8556,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -8965,7 +8968,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9171,7 +9174,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9377,7 +9380,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9995,7 +9998,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10201,7 +10204,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10407,7 +10410,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -11025,7 +11028,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q48">
         <v>6.5</v>
@@ -11103,7 +11106,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AQ48">
         <v>2.11</v>
@@ -11231,7 +11234,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11643,7 +11646,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11724,7 +11727,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ51">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR51">
         <v>1.33</v>
@@ -11849,7 +11852,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12055,7 +12058,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12467,7 +12470,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12879,7 +12882,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13291,7 +13294,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -13703,7 +13706,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -14115,7 +14118,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14321,7 +14324,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14527,7 +14530,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14608,7 +14611,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ65">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR65">
         <v>1.25</v>
@@ -14733,7 +14736,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -15223,7 +15226,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AQ68">
         <v>0.25</v>
@@ -15351,7 +15354,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15969,7 +15972,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q72">
         <v>1.8</v>
@@ -16381,7 +16384,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q74">
         <v>3.25</v>
@@ -16587,7 +16590,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16999,7 +17002,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17205,7 +17208,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17411,7 +17414,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17617,7 +17620,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17904,7 +17907,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ81">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR81">
         <v>1.59</v>
@@ -18647,7 +18650,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18853,7 +18856,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19059,7 +19062,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19471,7 +19474,7 @@
         <v>147</v>
       </c>
       <c r="P89" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q89">
         <v>3.5</v>
@@ -19552,7 +19555,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ89">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR89">
         <v>1.45</v>
@@ -19677,7 +19680,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19755,7 +19758,7 @@
         <v>1.2</v>
       </c>
       <c r="AP90">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AQ90">
         <v>1.55</v>
@@ -21119,7 +21122,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21737,7 +21740,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -22149,7 +22152,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22355,7 +22358,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22436,7 +22439,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ103">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR103">
         <v>1.37</v>
@@ -23179,7 +23182,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23257,7 +23260,7 @@
         <v>1.4</v>
       </c>
       <c r="AP107">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AQ107">
         <v>1.58</v>
@@ -23591,7 +23594,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24003,7 +24006,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24621,7 +24624,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -25651,7 +25654,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25857,7 +25860,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -25935,7 +25938,7 @@
         <v>0.43</v>
       </c>
       <c r="AP120">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AQ120">
         <v>0.83</v>
@@ -26063,7 +26066,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26681,7 +26684,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -26887,7 +26890,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -27093,7 +27096,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q126">
         <v>6</v>
@@ -27299,7 +27302,7 @@
         <v>148</v>
       </c>
       <c r="P127" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q127">
         <v>2.6</v>
@@ -27711,7 +27714,7 @@
         <v>94</v>
       </c>
       <c r="P129" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q129">
         <v>3.4</v>
@@ -28123,7 +28126,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28616,7 +28619,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ133">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR133">
         <v>1.99</v>
@@ -28741,7 +28744,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -28947,7 +28950,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29153,7 +29156,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29771,7 +29774,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q139">
         <v>3.15</v>
@@ -30183,7 +30186,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -30261,7 +30264,7 @@
         <v>2.17</v>
       </c>
       <c r="AP141">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AQ141">
         <v>2.5</v>
@@ -30389,7 +30392,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q142">
         <v>3.75</v>
@@ -30801,7 +30804,7 @@
         <v>92</v>
       </c>
       <c r="P144" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -30882,7 +30885,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ144">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR144">
         <v>1.47</v>
@@ -31213,7 +31216,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31625,7 +31628,7 @@
         <v>108</v>
       </c>
       <c r="P148" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q148">
         <v>3.25</v>
@@ -32243,7 +32246,7 @@
         <v>184</v>
       </c>
       <c r="P151" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q151">
         <v>3.2</v>
@@ -32861,7 +32864,7 @@
         <v>129</v>
       </c>
       <c r="P154" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33273,7 +33276,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q156">
         <v>1.91</v>
@@ -33479,7 +33482,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34175,7 +34178,7 @@
         <v>0.78</v>
       </c>
       <c r="AP160">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AQ160">
         <v>1.08</v>
@@ -34303,7 +34306,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34509,7 +34512,7 @@
         <v>151</v>
       </c>
       <c r="P162" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -34715,7 +34718,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -35208,7 +35211,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ165">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR165">
         <v>1.13</v>
@@ -35333,7 +35336,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35539,7 +35542,7 @@
         <v>92</v>
       </c>
       <c r="P167" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35745,7 +35748,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
@@ -35951,7 +35954,7 @@
         <v>192</v>
       </c>
       <c r="P169" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -36363,7 +36366,7 @@
         <v>194</v>
       </c>
       <c r="P171" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -36775,7 +36778,7 @@
         <v>92</v>
       </c>
       <c r="P173" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q173">
         <v>4.8</v>
@@ -37599,7 +37602,7 @@
         <v>129</v>
       </c>
       <c r="P177" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q177">
         <v>3.25</v>
@@ -37886,7 +37889,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ178">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR178">
         <v>1.64</v>
@@ -38011,7 +38014,7 @@
         <v>118</v>
       </c>
       <c r="P179" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38501,7 +38504,7 @@
         <v>1.27</v>
       </c>
       <c r="AP181">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AQ181">
         <v>1.38</v>
@@ -38629,7 +38632,7 @@
         <v>92</v>
       </c>
       <c r="P182" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q182">
         <v>4.33</v>
@@ -38835,7 +38838,7 @@
         <v>200</v>
       </c>
       <c r="P183" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q183">
         <v>9</v>
@@ -39041,7 +39044,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q184">
         <v>3.4</v>
@@ -39247,7 +39250,7 @@
         <v>108</v>
       </c>
       <c r="P185" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -40071,7 +40074,7 @@
         <v>202</v>
       </c>
       <c r="P189" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q189">
         <v>3.8</v>
@@ -40277,7 +40280,7 @@
         <v>92</v>
       </c>
       <c r="P190" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q190">
         <v>3.5</v>
@@ -40483,7 +40486,7 @@
         <v>92</v>
       </c>
       <c r="P191" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -40973,7 +40976,7 @@
         <v>0.91</v>
       </c>
       <c r="AP193">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AQ193">
         <v>0.92</v>
@@ -41800,7 +41803,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ197">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR197">
         <v>1.35</v>
@@ -42131,7 +42134,7 @@
         <v>171</v>
       </c>
       <c r="P199" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q199">
         <v>3.5</v>
@@ -42337,7 +42340,7 @@
         <v>204</v>
       </c>
       <c r="P200" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q200">
         <v>3.75</v>
@@ -42749,7 +42752,7 @@
         <v>206</v>
       </c>
       <c r="P202" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q202">
         <v>3.2</v>
@@ -43573,7 +43576,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q206">
         <v>4.5</v>
@@ -43779,7 +43782,7 @@
         <v>208</v>
       </c>
       <c r="P207" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q207">
         <v>2.75</v>
@@ -44191,7 +44194,7 @@
         <v>194</v>
       </c>
       <c r="P209" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q209">
         <v>3.5</v>
@@ -44397,7 +44400,7 @@
         <v>179</v>
       </c>
       <c r="P210" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q210">
         <v>7.5</v>
@@ -44554,6 +44557,212 @@
       </c>
       <c r="BP210">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="211" spans="1:68">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>7364330</v>
+      </c>
+      <c r="C211" t="s">
+        <v>68</v>
+      </c>
+      <c r="D211" t="s">
+        <v>69</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45459.54166666666</v>
+      </c>
+      <c r="F211">
+        <v>26</v>
+      </c>
+      <c r="G211" t="s">
+        <v>74</v>
+      </c>
+      <c r="H211" t="s">
+        <v>70</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <v>3</v>
+      </c>
+      <c r="M211">
+        <v>1</v>
+      </c>
+      <c r="N211">
+        <v>4</v>
+      </c>
+      <c r="O211" t="s">
+        <v>210</v>
+      </c>
+      <c r="P211" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q211">
+        <v>3.75</v>
+      </c>
+      <c r="R211">
+        <v>1.8</v>
+      </c>
+      <c r="S211">
+        <v>3.6</v>
+      </c>
+      <c r="T211">
+        <v>1.62</v>
+      </c>
+      <c r="U211">
+        <v>2.2</v>
+      </c>
+      <c r="V211">
+        <v>4</v>
+      </c>
+      <c r="W211">
+        <v>1.22</v>
+      </c>
+      <c r="X211">
+        <v>11</v>
+      </c>
+      <c r="Y211">
+        <v>1.03</v>
+      </c>
+      <c r="Z211">
+        <v>2.8</v>
+      </c>
+      <c r="AA211">
+        <v>2.8</v>
+      </c>
+      <c r="AB211">
+        <v>2.63</v>
+      </c>
+      <c r="AC211">
+        <v>1.13</v>
+      </c>
+      <c r="AD211">
+        <v>5</v>
+      </c>
+      <c r="AE211">
+        <v>1.61</v>
+      </c>
+      <c r="AF211">
+        <v>2.1</v>
+      </c>
+      <c r="AG211">
+        <v>3</v>
+      </c>
+      <c r="AH211">
+        <v>1.36</v>
+      </c>
+      <c r="AI211">
+        <v>2.5</v>
+      </c>
+      <c r="AJ211">
+        <v>1.5</v>
+      </c>
+      <c r="AK211">
+        <v>1.36</v>
+      </c>
+      <c r="AL211">
+        <v>1.4</v>
+      </c>
+      <c r="AM211">
+        <v>1.3</v>
+      </c>
+      <c r="AN211">
+        <v>0.36</v>
+      </c>
+      <c r="AO211">
+        <v>1.25</v>
+      </c>
+      <c r="AP211">
+        <v>0.58</v>
+      </c>
+      <c r="AQ211">
+        <v>1.15</v>
+      </c>
+      <c r="AR211">
+        <v>1.19</v>
+      </c>
+      <c r="AS211">
+        <v>1.27</v>
+      </c>
+      <c r="AT211">
+        <v>2.46</v>
+      </c>
+      <c r="AU211">
+        <v>6</v>
+      </c>
+      <c r="AV211">
+        <v>5</v>
+      </c>
+      <c r="AW211">
+        <v>4</v>
+      </c>
+      <c r="AX211">
+        <v>6</v>
+      </c>
+      <c r="AY211">
+        <v>10</v>
+      </c>
+      <c r="AZ211">
+        <v>11</v>
+      </c>
+      <c r="BA211">
+        <v>3</v>
+      </c>
+      <c r="BB211">
+        <v>5</v>
+      </c>
+      <c r="BC211">
+        <v>8</v>
+      </c>
+      <c r="BD211">
+        <v>1.82</v>
+      </c>
+      <c r="BE211">
+        <v>6.1</v>
+      </c>
+      <c r="BF211">
+        <v>2.47</v>
+      </c>
+      <c r="BG211">
+        <v>1.4</v>
+      </c>
+      <c r="BH211">
+        <v>2.64</v>
+      </c>
+      <c r="BI211">
+        <v>1.78</v>
+      </c>
+      <c r="BJ211">
+        <v>2.03</v>
+      </c>
+      <c r="BK211">
+        <v>2.26</v>
+      </c>
+      <c r="BL211">
+        <v>1.62</v>
+      </c>
+      <c r="BM211">
+        <v>3.04</v>
+      </c>
+      <c r="BN211">
+        <v>1.31</v>
+      </c>
+      <c r="BO211">
+        <v>3.9</v>
+      </c>
+      <c r="BP211">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="316">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -640,6 +640,27 @@
     <t>['90+3']</t>
   </si>
   <si>
+    <t>['22', '63', '90+3']</t>
+  </si>
+  <si>
+    <t>['18', '24', '68']</t>
+  </si>
+  <si>
+    <t>['55', '70', '74']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['29', '90+5']</t>
+  </si>
+  <si>
+    <t>['14', '90+1', '90+9']</t>
+  </si>
+  <si>
+    <t>['34', '90+13']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -914,6 +935,33 @@
   </si>
   <si>
     <t>['28', '57']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['80', '89']</t>
+  </si>
+  <si>
+    <t>['30', '45+4']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['20', '86']</t>
+  </si>
+  <si>
+    <t>['45+5', '69']</t>
+  </si>
+  <si>
+    <t>['45+2', '48']</t>
+  </si>
+  <si>
+    <t>['49', '74']</t>
+  </si>
+  <si>
+    <t>['68']</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP206"/>
+  <dimension ref="A1:BP217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1615,7 +1663,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ2">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1818,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ3">
         <v>0.83</v>
@@ -2027,7 +2075,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ4">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2233,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2358,7 +2406,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2436,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AQ6">
         <v>0.75</v>
@@ -2642,10 +2690,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2770,7 +2818,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2848,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ8">
         <v>1.67</v>
@@ -3054,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -3182,7 +3230,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3260,10 +3308,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ10">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3594,7 +3642,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3672,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3800,7 +3848,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -3881,7 +3929,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ13">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4006,7 +4054,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4084,10 +4132,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ14">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4293,7 +4341,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ15">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4496,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ16">
         <v>1.92</v>
@@ -4908,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ18">
         <v>1.38</v>
@@ -5036,7 +5084,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5114,7 +5162,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ19">
         <v>0.75</v>
@@ -5320,7 +5368,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5448,7 +5496,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5526,10 +5574,10 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ21">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR21">
         <v>1.13</v>
@@ -5654,7 +5702,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5732,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5860,7 +5908,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -5941,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="AQ23">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR23">
         <v>0.65</v>
@@ -6272,7 +6320,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="Q25">
         <v>3.75</v>
@@ -6353,7 +6401,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ25">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR25">
         <v>0.44</v>
@@ -6478,7 +6526,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6762,10 +6810,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ27">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR27">
         <v>2.1</v>
@@ -6971,7 +7019,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ28">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR28">
         <v>1.47</v>
@@ -7174,10 +7222,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ29">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7302,7 +7350,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7508,7 +7556,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7586,10 +7634,10 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ31">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR31">
         <v>1.53</v>
@@ -7795,7 +7843,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ32">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR32">
         <v>0.38</v>
@@ -7920,7 +7968,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -7998,7 +8046,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AQ33">
         <v>1.92</v>
@@ -8204,7 +8252,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ34">
         <v>2.5</v>
@@ -8410,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ35">
         <v>0.92</v>
@@ -8538,7 +8586,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -8616,10 +8664,10 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ36">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR36">
         <v>1.67</v>
@@ -8825,7 +8873,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ37">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR37">
         <v>1.06</v>
@@ -8950,7 +8998,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9028,10 +9076,10 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ38">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR38">
         <v>1.37</v>
@@ -9156,7 +9204,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9234,10 +9282,10 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ39">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR39">
         <v>1.93</v>
@@ -9362,7 +9410,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9440,7 +9488,7 @@
         <v>0.5</v>
       </c>
       <c r="AP40">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9980,7 +10028,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10186,7 +10234,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10264,7 +10312,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
         <v>1.38</v>
@@ -10392,7 +10440,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10470,7 +10518,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ45">
         <v>1.92</v>
@@ -10676,7 +10724,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ46">
         <v>2.5</v>
@@ -10882,10 +10930,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ47">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR47">
         <v>1.07</v>
@@ -11010,7 +11058,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Q48">
         <v>6.5</v>
@@ -11088,10 +11136,10 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AQ48">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR48">
         <v>1.22</v>
@@ -11216,7 +11264,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11500,10 +11548,10 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ50">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR50">
         <v>1.07</v>
@@ -11628,7 +11676,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11706,10 +11754,10 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ51">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR51">
         <v>1.33</v>
@@ -11834,7 +11882,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11915,7 +11963,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ52">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR52">
         <v>1.27</v>
@@ -12040,7 +12088,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12118,10 +12166,10 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ53">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR53">
         <v>1.61</v>
@@ -12324,10 +12372,10 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ54">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR54">
         <v>1.42</v>
@@ -12452,7 +12500,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12530,7 +12578,7 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ55">
         <v>0.83</v>
@@ -12739,7 +12787,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ56">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR56">
         <v>1.78</v>
@@ -12864,7 +12912,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -12942,10 +12990,10 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ57">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR57">
         <v>1.05</v>
@@ -13148,7 +13196,7 @@
         <v>2.33</v>
       </c>
       <c r="AP58">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ58">
         <v>1.92</v>
@@ -13276,7 +13324,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -13354,7 +13402,7 @@
         <v>0.33</v>
       </c>
       <c r="AP59">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -13563,7 +13611,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ60">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR60">
         <v>1.51</v>
@@ -13688,7 +13736,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -13769,7 +13817,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ61">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR61">
         <v>1.23</v>
@@ -14100,7 +14148,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14306,7 +14354,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14384,7 +14432,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ64">
         <v>0.92</v>
@@ -14512,7 +14560,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14593,7 +14641,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ65">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR65">
         <v>1.25</v>
@@ -14718,7 +14766,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -14796,10 +14844,10 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ66">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR66">
         <v>1.71</v>
@@ -15002,10 +15050,10 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ67">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR67">
         <v>1.54</v>
@@ -15208,10 +15256,10 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AQ68">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR68">
         <v>1.07</v>
@@ -15336,7 +15384,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15417,7 +15465,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ69">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR69">
         <v>1.06</v>
@@ -15620,7 +15668,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ70">
         <v>1</v>
@@ -15829,7 +15877,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ71">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR71">
         <v>1.39</v>
@@ -15954,7 +16002,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q72">
         <v>1.8</v>
@@ -16032,7 +16080,7 @@
         <v>1.67</v>
       </c>
       <c r="AP72">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ72">
         <v>0.75</v>
@@ -16241,7 +16289,7 @@
         <v>1</v>
       </c>
       <c r="AQ73">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR73">
         <v>0.83</v>
@@ -16366,7 +16414,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Q74">
         <v>3.25</v>
@@ -16572,7 +16620,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16650,7 +16698,7 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ75">
         <v>1.92</v>
@@ -16984,7 +17032,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17062,10 +17110,10 @@
         <v>0.75</v>
       </c>
       <c r="AP77">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ77">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR77">
         <v>1.32</v>
@@ -17190,7 +17238,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17271,7 +17319,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ78">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR78">
         <v>1.22</v>
@@ -17396,7 +17444,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17474,7 +17522,7 @@
         <v>0.75</v>
       </c>
       <c r="AP79">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ79">
         <v>0.92</v>
@@ -17602,7 +17650,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17680,10 +17728,10 @@
         <v>0.25</v>
       </c>
       <c r="AP80">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ80">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR80">
         <v>2.17</v>
@@ -17886,10 +17934,10 @@
         <v>1.75</v>
       </c>
       <c r="AP81">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ81">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR81">
         <v>1.59</v>
@@ -18632,7 +18680,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18838,7 +18886,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19044,7 +19092,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19122,10 +19170,10 @@
         <v>1.5</v>
       </c>
       <c r="AP87">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ87">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR87">
         <v>1.51</v>
@@ -19328,10 +19376,10 @@
         <v>1.2</v>
       </c>
       <c r="AP88">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ88">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR88">
         <v>1.62</v>
@@ -19456,7 +19504,7 @@
         <v>147</v>
       </c>
       <c r="P89" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="Q89">
         <v>3.5</v>
@@ -19534,10 +19582,10 @@
         <v>1.4</v>
       </c>
       <c r="AP89">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ89">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR89">
         <v>1.45</v>
@@ -19662,7 +19710,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -19740,10 +19788,10 @@
         <v>1.2</v>
       </c>
       <c r="AP90">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AQ90">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR90">
         <v>1.19</v>
@@ -19946,7 +19994,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ91">
         <v>2.5</v>
@@ -20358,7 +20406,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ93">
         <v>1</v>
@@ -20567,7 +20615,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ94">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR94">
         <v>1.11</v>
@@ -20976,7 +21024,7 @@
         <v>1.75</v>
       </c>
       <c r="AP96">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ96">
         <v>1.38</v>
@@ -21104,7 +21152,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21182,7 +21230,7 @@
         <v>0.83</v>
       </c>
       <c r="AP97">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ97">
         <v>1</v>
@@ -21388,10 +21436,10 @@
         <v>1.4</v>
       </c>
       <c r="AP98">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ98">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR98">
         <v>1.43</v>
@@ -21594,10 +21642,10 @@
         <v>1.8</v>
       </c>
       <c r="AP99">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ99">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR99">
         <v>1.69</v>
@@ -21722,7 +21770,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -22134,7 +22182,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22340,7 +22388,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22418,10 +22466,10 @@
         <v>1.33</v>
       </c>
       <c r="AP103">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ103">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR103">
         <v>1.37</v>
@@ -22624,10 +22672,10 @@
         <v>1.17</v>
       </c>
       <c r="AP104">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ104">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR104">
         <v>1.48</v>
@@ -22830,7 +22878,7 @@
         <v>0.33</v>
       </c>
       <c r="AP105">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ105">
         <v>0.83</v>
@@ -23036,10 +23084,10 @@
         <v>1.5</v>
       </c>
       <c r="AP106">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ106">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR106">
         <v>2.1</v>
@@ -23164,7 +23212,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23242,10 +23290,10 @@
         <v>1.4</v>
       </c>
       <c r="AP107">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AQ107">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR107">
         <v>1.23</v>
@@ -23576,7 +23624,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23654,7 +23702,7 @@
         <v>2.25</v>
       </c>
       <c r="AP109">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ109">
         <v>1.67</v>
@@ -23860,10 +23908,10 @@
         <v>0.2</v>
       </c>
       <c r="AP110">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ110">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR110">
         <v>1.52</v>
@@ -23988,7 +24036,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24066,10 +24114,10 @@
         <v>1.14</v>
       </c>
       <c r="AP111">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ111">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR111">
         <v>1.38</v>
@@ -24272,7 +24320,7 @@
         <v>0.86</v>
       </c>
       <c r="AP112">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ112">
         <v>1</v>
@@ -24478,7 +24526,7 @@
         <v>0.86</v>
       </c>
       <c r="AP113">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ113">
         <v>0.75</v>
@@ -24606,7 +24654,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -24893,7 +24941,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ115">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR115">
         <v>1.53</v>
@@ -25099,7 +25147,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ116">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR116">
         <v>1.36</v>
@@ -25302,7 +25350,7 @@
         <v>0.67</v>
       </c>
       <c r="AP117">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ117">
         <v>0.92</v>
@@ -25508,7 +25556,7 @@
         <v>1.71</v>
       </c>
       <c r="AP118">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ118">
         <v>1.92</v>
@@ -25636,7 +25684,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25717,7 +25765,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ119">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR119">
         <v>1.25</v>
@@ -25842,7 +25890,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -25920,7 +25968,7 @@
         <v>0.43</v>
       </c>
       <c r="AP120">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AQ120">
         <v>0.83</v>
@@ -26048,7 +26096,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26332,7 +26380,7 @@
         <v>1.14</v>
       </c>
       <c r="AP122">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ122">
         <v>1</v>
@@ -26538,7 +26586,7 @@
         <v>2</v>
       </c>
       <c r="AP123">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ123">
         <v>1.67</v>
@@ -26666,7 +26714,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -26744,10 +26792,10 @@
         <v>1.67</v>
       </c>
       <c r="AP124">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ124">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR124">
         <v>1.91</v>
@@ -26872,7 +26920,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -26950,10 +26998,10 @@
         <v>1.33</v>
       </c>
       <c r="AP125">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ125">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR125">
         <v>1.36</v>
@@ -27078,7 +27126,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="Q126">
         <v>6</v>
@@ -27159,7 +27207,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ126">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR126">
         <v>1.42</v>
@@ -27284,7 +27332,7 @@
         <v>148</v>
       </c>
       <c r="P127" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="Q127">
         <v>2.6</v>
@@ -27362,7 +27410,7 @@
         <v>1.63</v>
       </c>
       <c r="AP127">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ127">
         <v>1.92</v>
@@ -27568,10 +27616,10 @@
         <v>1</v>
       </c>
       <c r="AP128">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ128">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR128">
         <v>1.4</v>
@@ -27696,7 +27744,7 @@
         <v>94</v>
       </c>
       <c r="P129" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="Q129">
         <v>3.4</v>
@@ -27774,7 +27822,7 @@
         <v>0.75</v>
       </c>
       <c r="AP129">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ129">
         <v>1</v>
@@ -27983,7 +28031,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ130">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR130">
         <v>1.42</v>
@@ -28108,7 +28156,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28598,10 +28646,10 @@
         <v>1.29</v>
       </c>
       <c r="AP133">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ133">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR133">
         <v>1.99</v>
@@ -28726,7 +28774,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -28807,7 +28855,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ134">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR134">
         <v>1.63</v>
@@ -28932,7 +28980,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29010,7 +29058,7 @@
         <v>2</v>
       </c>
       <c r="AP135">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ135">
         <v>2.5</v>
@@ -29138,7 +29186,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29422,7 +29470,7 @@
         <v>1.86</v>
       </c>
       <c r="AP137">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ137">
         <v>1.38</v>
@@ -29628,10 +29676,10 @@
         <v>1.75</v>
       </c>
       <c r="AP138">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ138">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR138">
         <v>1.91</v>
@@ -29756,7 +29804,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="Q139">
         <v>3.15</v>
@@ -29834,10 +29882,10 @@
         <v>1.57</v>
       </c>
       <c r="AP139">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ139">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR139">
         <v>1.76</v>
@@ -30040,7 +30088,7 @@
         <v>2</v>
       </c>
       <c r="AP140">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ140">
         <v>1.67</v>
@@ -30168,7 +30216,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -30246,7 +30294,7 @@
         <v>2.17</v>
       </c>
       <c r="AP141">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AQ141">
         <v>2.5</v>
@@ -30374,7 +30422,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="Q142">
         <v>3.75</v>
@@ -30452,10 +30500,10 @@
         <v>2</v>
       </c>
       <c r="AP142">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ142">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR142">
         <v>1.73</v>
@@ -30658,10 +30706,10 @@
         <v>0.88</v>
       </c>
       <c r="AP143">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ143">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR143">
         <v>1.38</v>
@@ -30786,7 +30834,7 @@
         <v>92</v>
       </c>
       <c r="P144" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -30867,7 +30915,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ144">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR144">
         <v>1.47</v>
@@ -31073,7 +31121,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ145">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR145">
         <v>1.15</v>
@@ -31198,7 +31246,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31276,7 +31324,7 @@
         <v>1.63</v>
       </c>
       <c r="AP146">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ146">
         <v>1.38</v>
@@ -31482,7 +31530,7 @@
         <v>0.75</v>
       </c>
       <c r="AP147">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ147">
         <v>0.92</v>
@@ -31610,7 +31658,7 @@
         <v>108</v>
       </c>
       <c r="P148" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="Q148">
         <v>3.25</v>
@@ -31688,7 +31736,7 @@
         <v>1.56</v>
       </c>
       <c r="AP148">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ148">
         <v>1.92</v>
@@ -32100,10 +32148,10 @@
         <v>1.86</v>
       </c>
       <c r="AP150">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ150">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR150">
         <v>1.76</v>
@@ -32228,7 +32276,7 @@
         <v>184</v>
       </c>
       <c r="P151" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="Q151">
         <v>3.2</v>
@@ -32306,7 +32354,7 @@
         <v>0.5</v>
       </c>
       <c r="AP151">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ151">
         <v>0.83</v>
@@ -32718,7 +32766,7 @@
         <v>1.13</v>
       </c>
       <c r="AP153">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ153">
         <v>0.75</v>
@@ -32846,7 +32894,7 @@
         <v>129</v>
       </c>
       <c r="P154" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -32924,10 +32972,10 @@
         <v>1.5</v>
       </c>
       <c r="AP154">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ154">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR154">
         <v>1.46</v>
@@ -33133,7 +33181,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ155">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR155">
         <v>1.48</v>
@@ -33258,7 +33306,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="Q156">
         <v>1.91</v>
@@ -33336,10 +33384,10 @@
         <v>1</v>
       </c>
       <c r="AP156">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ156">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR156">
         <v>2.03</v>
@@ -33464,7 +33512,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33748,7 +33796,7 @@
         <v>1.56</v>
       </c>
       <c r="AP158">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ158">
         <v>1.38</v>
@@ -33957,7 +34005,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ159">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR159">
         <v>1.5</v>
@@ -34160,10 +34208,10 @@
         <v>0.78</v>
       </c>
       <c r="AP160">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AQ160">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR160">
         <v>1.22</v>
@@ -34288,7 +34336,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34366,7 +34414,7 @@
         <v>0.67</v>
       </c>
       <c r="AP161">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ161">
         <v>0.92</v>
@@ -34494,7 +34542,7 @@
         <v>151</v>
       </c>
       <c r="P162" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -34572,10 +34620,10 @@
         <v>1.67</v>
       </c>
       <c r="AP162">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ162">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR162">
         <v>1.39</v>
@@ -34700,7 +34748,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -34984,10 +35032,10 @@
         <v>0.89</v>
       </c>
       <c r="AP164">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ164">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR164">
         <v>1.65</v>
@@ -35190,10 +35238,10 @@
         <v>1.44</v>
       </c>
       <c r="AP165">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ165">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR165">
         <v>1.13</v>
@@ -35318,7 +35366,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35396,7 +35444,7 @@
         <v>1</v>
       </c>
       <c r="AP166">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ166">
         <v>0.75</v>
@@ -35524,7 +35572,7 @@
         <v>92</v>
       </c>
       <c r="P167" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35602,7 +35650,7 @@
         <v>0.9</v>
       </c>
       <c r="AP167">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ167">
         <v>1</v>
@@ -35730,7 +35778,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
@@ -35808,7 +35856,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP168">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ168">
         <v>0.83</v>
@@ -35936,7 +35984,7 @@
         <v>192</v>
       </c>
       <c r="P169" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -36223,7 +36271,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ170">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR170">
         <v>1.74</v>
@@ -36348,7 +36396,7 @@
         <v>194</v>
       </c>
       <c r="P171" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -36429,7 +36477,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ171">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR171">
         <v>1.49</v>
@@ -36632,10 +36680,10 @@
         <v>1.14</v>
       </c>
       <c r="AP172">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ172">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR172">
         <v>1.57</v>
@@ -36760,7 +36808,7 @@
         <v>92</v>
       </c>
       <c r="P173" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="Q173">
         <v>4.8</v>
@@ -36841,7 +36889,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ173">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR173">
         <v>1.47</v>
@@ -37044,7 +37092,7 @@
         <v>1.78</v>
       </c>
       <c r="AP174">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ174">
         <v>1.67</v>
@@ -37456,10 +37504,10 @@
         <v>0.3</v>
       </c>
       <c r="AP176">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ176">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR176">
         <v>1.36</v>
@@ -37584,7 +37632,7 @@
         <v>129</v>
       </c>
       <c r="P177" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="Q177">
         <v>3.25</v>
@@ -37662,7 +37710,7 @@
         <v>1.82</v>
       </c>
       <c r="AP177">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AQ177">
         <v>1.92</v>
@@ -37868,10 +37916,10 @@
         <v>1.4</v>
       </c>
       <c r="AP178">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ178">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR178">
         <v>1.64</v>
@@ -37996,7 +38044,7 @@
         <v>118</v>
       </c>
       <c r="P179" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38074,7 +38122,7 @@
         <v>0.7</v>
       </c>
       <c r="AP179">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ179">
         <v>0.92</v>
@@ -38280,10 +38328,10 @@
         <v>0.8</v>
       </c>
       <c r="AP180">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ180">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR180">
         <v>1.2</v>
@@ -38486,7 +38534,7 @@
         <v>1.27</v>
       </c>
       <c r="AP181">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AQ181">
         <v>1.38</v>
@@ -38614,7 +38662,7 @@
         <v>92</v>
       </c>
       <c r="P182" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q182">
         <v>4.33</v>
@@ -38820,7 +38868,7 @@
         <v>200</v>
       </c>
       <c r="P183" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="Q183">
         <v>9</v>
@@ -38901,7 +38949,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ183">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR183">
         <v>1.28</v>
@@ -39026,7 +39074,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="Q184">
         <v>3.4</v>
@@ -39104,10 +39152,10 @@
         <v>1</v>
       </c>
       <c r="AP184">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ184">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR184">
         <v>1.39</v>
@@ -39232,7 +39280,7 @@
         <v>108</v>
       </c>
       <c r="P185" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -39519,7 +39567,7 @@
         <v>1</v>
       </c>
       <c r="AQ186">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR186">
         <v>0.95</v>
@@ -39722,7 +39770,7 @@
         <v>1.22</v>
       </c>
       <c r="AP187">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ187">
         <v>1</v>
@@ -39928,7 +39976,7 @@
         <v>0.9</v>
       </c>
       <c r="AP188">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ188">
         <v>0.75</v>
@@ -40056,7 +40104,7 @@
         <v>202</v>
       </c>
       <c r="P189" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="Q189">
         <v>3.8</v>
@@ -40137,7 +40185,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ189">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR189">
         <v>1.52</v>
@@ -40262,7 +40310,7 @@
         <v>92</v>
       </c>
       <c r="P190" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="Q190">
         <v>3.5</v>
@@ -40468,7 +40516,7 @@
         <v>92</v>
       </c>
       <c r="P191" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -40546,7 +40594,7 @@
         <v>2.44</v>
       </c>
       <c r="AP191">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AQ191">
         <v>2.5</v>
@@ -40755,7 +40803,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ192">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR192">
         <v>1.47</v>
@@ -40958,7 +41006,7 @@
         <v>0.91</v>
       </c>
       <c r="AP193">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AQ193">
         <v>0.92</v>
@@ -41164,7 +41212,7 @@
         <v>1.42</v>
       </c>
       <c r="AP194">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ194">
         <v>1.38</v>
@@ -41373,7 +41421,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ195">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="AR195">
         <v>1.26</v>
@@ -41576,10 +41624,10 @@
         <v>0.82</v>
       </c>
       <c r="AP196">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AQ196">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR196">
         <v>1.61</v>
@@ -41782,10 +41830,10 @@
         <v>1.27</v>
       </c>
       <c r="AP197">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ197">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AR197">
         <v>1.35</v>
@@ -41988,7 +42036,7 @@
         <v>1.73</v>
       </c>
       <c r="AP198">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ198">
         <v>1.67</v>
@@ -42116,7 +42164,7 @@
         <v>171</v>
       </c>
       <c r="P199" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="Q199">
         <v>3.5</v>
@@ -42194,10 +42242,10 @@
         <v>1.18</v>
       </c>
       <c r="AP199">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AQ199">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR199">
         <v>1.39</v>
@@ -42322,7 +42370,7 @@
         <v>204</v>
       </c>
       <c r="P200" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="Q200">
         <v>3.75</v>
@@ -42734,7 +42782,7 @@
         <v>206</v>
       </c>
       <c r="P202" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="Q202">
         <v>3.2</v>
@@ -43018,10 +43066,10 @@
         <v>1.64</v>
       </c>
       <c r="AP203">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ203">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR203">
         <v>1.19</v>
@@ -43430,10 +43478,10 @@
         <v>1.4</v>
       </c>
       <c r="AP205">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ205">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR205">
         <v>1.95</v>
@@ -43558,7 +43606,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="Q206">
         <v>4.5</v>
@@ -43636,10 +43684,10 @@
         <v>1</v>
       </c>
       <c r="AP206">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AQ206">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR206">
         <v>1.4</v>
@@ -43715,6 +43763,2272 @@
       </c>
       <c r="BP206">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="207" spans="1:68">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>7217683</v>
+      </c>
+      <c r="C207" t="s">
+        <v>68</v>
+      </c>
+      <c r="D207" t="s">
+        <v>69</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45456.54166666666</v>
+      </c>
+      <c r="F207">
+        <v>11</v>
+      </c>
+      <c r="G207" t="s">
+        <v>82</v>
+      </c>
+      <c r="H207" t="s">
+        <v>84</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207">
+        <v>1</v>
+      </c>
+      <c r="K207">
+        <v>2</v>
+      </c>
+      <c r="L207">
+        <v>3</v>
+      </c>
+      <c r="M207">
+        <v>1</v>
+      </c>
+      <c r="N207">
+        <v>4</v>
+      </c>
+      <c r="O207" t="s">
+        <v>208</v>
+      </c>
+      <c r="P207" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q207">
+        <v>2.75</v>
+      </c>
+      <c r="R207">
+        <v>1.91</v>
+      </c>
+      <c r="S207">
+        <v>4.75</v>
+      </c>
+      <c r="T207">
+        <v>1.53</v>
+      </c>
+      <c r="U207">
+        <v>2.49</v>
+      </c>
+      <c r="V207">
+        <v>3.4</v>
+      </c>
+      <c r="W207">
+        <v>1.3</v>
+      </c>
+      <c r="X207">
+        <v>8.5</v>
+      </c>
+      <c r="Y207">
+        <v>1.05</v>
+      </c>
+      <c r="Z207">
+        <v>1.95</v>
+      </c>
+      <c r="AA207">
+        <v>2.9</v>
+      </c>
+      <c r="AB207">
+        <v>4.1</v>
+      </c>
+      <c r="AC207">
+        <v>1.1</v>
+      </c>
+      <c r="AD207">
+        <v>6.86</v>
+      </c>
+      <c r="AE207">
+        <v>1.51</v>
+      </c>
+      <c r="AF207">
+        <v>2.46</v>
+      </c>
+      <c r="AG207">
+        <v>2.63</v>
+      </c>
+      <c r="AH207">
+        <v>1.44</v>
+      </c>
+      <c r="AI207">
+        <v>2.25</v>
+      </c>
+      <c r="AJ207">
+        <v>1.57</v>
+      </c>
+      <c r="AK207">
+        <v>1.19</v>
+      </c>
+      <c r="AL207">
+        <v>1.28</v>
+      </c>
+      <c r="AM207">
+        <v>1.83</v>
+      </c>
+      <c r="AN207">
+        <v>1.09</v>
+      </c>
+      <c r="AO207">
+        <v>1.27</v>
+      </c>
+      <c r="AP207">
+        <v>1.25</v>
+      </c>
+      <c r="AQ207">
+        <v>1.17</v>
+      </c>
+      <c r="AR207">
+        <v>1.16</v>
+      </c>
+      <c r="AS207">
+        <v>1.29</v>
+      </c>
+      <c r="AT207">
+        <v>2.45</v>
+      </c>
+      <c r="AU207">
+        <v>5</v>
+      </c>
+      <c r="AV207">
+        <v>3</v>
+      </c>
+      <c r="AW207">
+        <v>1</v>
+      </c>
+      <c r="AX207">
+        <v>3</v>
+      </c>
+      <c r="AY207">
+        <v>6</v>
+      </c>
+      <c r="AZ207">
+        <v>6</v>
+      </c>
+      <c r="BA207">
+        <v>5</v>
+      </c>
+      <c r="BB207">
+        <v>4</v>
+      </c>
+      <c r="BC207">
+        <v>9</v>
+      </c>
+      <c r="BD207">
+        <v>1.53</v>
+      </c>
+      <c r="BE207">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF207">
+        <v>2.86</v>
+      </c>
+      <c r="BG207">
+        <v>1.27</v>
+      </c>
+      <c r="BH207">
+        <v>3.28</v>
+      </c>
+      <c r="BI207">
+        <v>1.56</v>
+      </c>
+      <c r="BJ207">
+        <v>2.37</v>
+      </c>
+      <c r="BK207">
+        <v>2.38</v>
+      </c>
+      <c r="BL207">
+        <v>1.84</v>
+      </c>
+      <c r="BM207">
+        <v>2.49</v>
+      </c>
+      <c r="BN207">
+        <v>1.52</v>
+      </c>
+      <c r="BO207">
+        <v>3.34</v>
+      </c>
+      <c r="BP207">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="208" spans="1:68">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>7217688</v>
+      </c>
+      <c r="C208" t="s">
+        <v>68</v>
+      </c>
+      <c r="D208" t="s">
+        <v>69</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45456.54166666666</v>
+      </c>
+      <c r="F208">
+        <v>11</v>
+      </c>
+      <c r="G208" t="s">
+        <v>78</v>
+      </c>
+      <c r="H208" t="s">
+        <v>75</v>
+      </c>
+      <c r="I208">
+        <v>2</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>2</v>
+      </c>
+      <c r="L208">
+        <v>3</v>
+      </c>
+      <c r="M208">
+        <v>0</v>
+      </c>
+      <c r="N208">
+        <v>3</v>
+      </c>
+      <c r="O208" t="s">
+        <v>209</v>
+      </c>
+      <c r="P208" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q208">
+        <v>2.1</v>
+      </c>
+      <c r="R208">
+        <v>2.1</v>
+      </c>
+      <c r="S208">
+        <v>5.5</v>
+      </c>
+      <c r="T208">
+        <v>1.36</v>
+      </c>
+      <c r="U208">
+        <v>3</v>
+      </c>
+      <c r="V208">
+        <v>2.75</v>
+      </c>
+      <c r="W208">
+        <v>1.4</v>
+      </c>
+      <c r="X208">
+        <v>6.5</v>
+      </c>
+      <c r="Y208">
+        <v>1.1</v>
+      </c>
+      <c r="Z208">
+        <v>1.55</v>
+      </c>
+      <c r="AA208">
+        <v>3.5</v>
+      </c>
+      <c r="AB208">
+        <v>5.75</v>
+      </c>
+      <c r="AC208">
+        <v>1.02</v>
+      </c>
+      <c r="AD208">
+        <v>10</v>
+      </c>
+      <c r="AE208">
+        <v>1.29</v>
+      </c>
+      <c r="AF208">
+        <v>3.3</v>
+      </c>
+      <c r="AG208">
+        <v>2</v>
+      </c>
+      <c r="AH208">
+        <v>1.8</v>
+      </c>
+      <c r="AI208">
+        <v>2.1</v>
+      </c>
+      <c r="AJ208">
+        <v>1.67</v>
+      </c>
+      <c r="AK208">
+        <v>1.11</v>
+      </c>
+      <c r="AL208">
+        <v>1.25</v>
+      </c>
+      <c r="AM208">
+        <v>2.5</v>
+      </c>
+      <c r="AN208">
+        <v>2.33</v>
+      </c>
+      <c r="AO208">
+        <v>1.17</v>
+      </c>
+      <c r="AP208">
+        <v>2.38</v>
+      </c>
+      <c r="AQ208">
+        <v>1.08</v>
+      </c>
+      <c r="AR208">
+        <v>1.92</v>
+      </c>
+      <c r="AS208">
+        <v>1.32</v>
+      </c>
+      <c r="AT208">
+        <v>3.24</v>
+      </c>
+      <c r="AU208">
+        <v>7</v>
+      </c>
+      <c r="AV208">
+        <v>5</v>
+      </c>
+      <c r="AW208">
+        <v>9</v>
+      </c>
+      <c r="AX208">
+        <v>3</v>
+      </c>
+      <c r="AY208">
+        <v>16</v>
+      </c>
+      <c r="AZ208">
+        <v>8</v>
+      </c>
+      <c r="BA208">
+        <v>4</v>
+      </c>
+      <c r="BB208">
+        <v>2</v>
+      </c>
+      <c r="BC208">
+        <v>6</v>
+      </c>
+      <c r="BD208">
+        <v>1.24</v>
+      </c>
+      <c r="BE208">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF208">
+        <v>5.3</v>
+      </c>
+      <c r="BG208">
+        <v>1.29</v>
+      </c>
+      <c r="BH208">
+        <v>3.3</v>
+      </c>
+      <c r="BI208">
+        <v>1.48</v>
+      </c>
+      <c r="BJ208">
+        <v>2.59</v>
+      </c>
+      <c r="BK208">
+        <v>2.2</v>
+      </c>
+      <c r="BL208">
+        <v>1.97</v>
+      </c>
+      <c r="BM208">
+        <v>2.29</v>
+      </c>
+      <c r="BN208">
+        <v>1.59</v>
+      </c>
+      <c r="BO208">
+        <v>2.8</v>
+      </c>
+      <c r="BP208">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="209" spans="1:68">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>7217682</v>
+      </c>
+      <c r="C209" t="s">
+        <v>68</v>
+      </c>
+      <c r="D209" t="s">
+        <v>69</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45457.54166666666</v>
+      </c>
+      <c r="F209">
+        <v>11</v>
+      </c>
+      <c r="G209" t="s">
+        <v>87</v>
+      </c>
+      <c r="H209" t="s">
+        <v>80</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>1</v>
+      </c>
+      <c r="L209">
+        <v>1</v>
+      </c>
+      <c r="M209">
+        <v>2</v>
+      </c>
+      <c r="N209">
+        <v>3</v>
+      </c>
+      <c r="O209" t="s">
+        <v>194</v>
+      </c>
+      <c r="P209" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q209">
+        <v>3.5</v>
+      </c>
+      <c r="R209">
+        <v>2.1</v>
+      </c>
+      <c r="S209">
+        <v>2.88</v>
+      </c>
+      <c r="T209">
+        <v>1.38</v>
+      </c>
+      <c r="U209">
+        <v>2.8</v>
+      </c>
+      <c r="V209">
+        <v>2.7</v>
+      </c>
+      <c r="W209">
+        <v>1.4</v>
+      </c>
+      <c r="X209">
+        <v>6.5</v>
+      </c>
+      <c r="Y209">
+        <v>1.08</v>
+      </c>
+      <c r="Z209">
+        <v>2.9</v>
+      </c>
+      <c r="AA209">
+        <v>3.3</v>
+      </c>
+      <c r="AB209">
+        <v>2.25</v>
+      </c>
+      <c r="AC209">
+        <v>1.03</v>
+      </c>
+      <c r="AD209">
+        <v>9</v>
+      </c>
+      <c r="AE209">
+        <v>1.29</v>
+      </c>
+      <c r="AF209">
+        <v>3.3</v>
+      </c>
+      <c r="AG209">
+        <v>2</v>
+      </c>
+      <c r="AH209">
+        <v>1.8</v>
+      </c>
+      <c r="AI209">
+        <v>1.8</v>
+      </c>
+      <c r="AJ209">
+        <v>1.91</v>
+      </c>
+      <c r="AK209">
+        <v>1.69</v>
+      </c>
+      <c r="AL209">
+        <v>1.27</v>
+      </c>
+      <c r="AM209">
+        <v>1.28</v>
+      </c>
+      <c r="AN209">
+        <v>1.92</v>
+      </c>
+      <c r="AO209">
+        <v>1.22</v>
+      </c>
+      <c r="AP209">
+        <v>1.77</v>
+      </c>
+      <c r="AQ209">
+        <v>1.4</v>
+      </c>
+      <c r="AR209">
+        <v>1.55</v>
+      </c>
+      <c r="AS209">
+        <v>1.65</v>
+      </c>
+      <c r="AT209">
+        <v>3.2</v>
+      </c>
+      <c r="AU209">
+        <v>6</v>
+      </c>
+      <c r="AV209">
+        <v>5</v>
+      </c>
+      <c r="AW209">
+        <v>5</v>
+      </c>
+      <c r="AX209">
+        <v>9</v>
+      </c>
+      <c r="AY209">
+        <v>11</v>
+      </c>
+      <c r="AZ209">
+        <v>14</v>
+      </c>
+      <c r="BA209">
+        <v>6</v>
+      </c>
+      <c r="BB209">
+        <v>9</v>
+      </c>
+      <c r="BC209">
+        <v>15</v>
+      </c>
+      <c r="BD209">
+        <v>2.25</v>
+      </c>
+      <c r="BE209">
+        <v>6.35</v>
+      </c>
+      <c r="BF209">
+        <v>1.94</v>
+      </c>
+      <c r="BG209">
+        <v>1.19</v>
+      </c>
+      <c r="BH209">
+        <v>3.9</v>
+      </c>
+      <c r="BI209">
+        <v>1.39</v>
+      </c>
+      <c r="BJ209">
+        <v>2.67</v>
+      </c>
+      <c r="BK209">
+        <v>2.2</v>
+      </c>
+      <c r="BL209">
+        <v>2.03</v>
+      </c>
+      <c r="BM209">
+        <v>2.2</v>
+      </c>
+      <c r="BN209">
+        <v>1.64</v>
+      </c>
+      <c r="BO209">
+        <v>2.79</v>
+      </c>
+      <c r="BP209">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="210" spans="1:68">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>7217685</v>
+      </c>
+      <c r="C210" t="s">
+        <v>68</v>
+      </c>
+      <c r="D210" t="s">
+        <v>69</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45457.54166666666</v>
+      </c>
+      <c r="F210">
+        <v>11</v>
+      </c>
+      <c r="G210" t="s">
+        <v>76</v>
+      </c>
+      <c r="H210" t="s">
+        <v>72</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="J210">
+        <v>2</v>
+      </c>
+      <c r="K210">
+        <v>3</v>
+      </c>
+      <c r="L210">
+        <v>1</v>
+      </c>
+      <c r="M210">
+        <v>2</v>
+      </c>
+      <c r="N210">
+        <v>3</v>
+      </c>
+      <c r="O210" t="s">
+        <v>179</v>
+      </c>
+      <c r="P210" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q210">
+        <v>7.5</v>
+      </c>
+      <c r="R210">
+        <v>2.2</v>
+      </c>
+      <c r="S210">
+        <v>1.91</v>
+      </c>
+      <c r="T210">
+        <v>1.4</v>
+      </c>
+      <c r="U210">
+        <v>2.7</v>
+      </c>
+      <c r="V210">
+        <v>2.9</v>
+      </c>
+      <c r="W210">
+        <v>1.36</v>
+      </c>
+      <c r="X210">
+        <v>7</v>
+      </c>
+      <c r="Y210">
+        <v>1.07</v>
+      </c>
+      <c r="Z210">
+        <v>6</v>
+      </c>
+      <c r="AA210">
+        <v>4.75</v>
+      </c>
+      <c r="AB210">
+        <v>1.38</v>
+      </c>
+      <c r="AC210">
+        <v>1.04</v>
+      </c>
+      <c r="AD210">
+        <v>8.5</v>
+      </c>
+      <c r="AE210">
+        <v>1.33</v>
+      </c>
+      <c r="AF210">
+        <v>3</v>
+      </c>
+      <c r="AG210">
+        <v>1.95</v>
+      </c>
+      <c r="AH210">
+        <v>1.85</v>
+      </c>
+      <c r="AI210">
+        <v>2.5</v>
+      </c>
+      <c r="AJ210">
+        <v>1.5</v>
+      </c>
+      <c r="AK210">
+        <v>2.51</v>
+      </c>
+      <c r="AL210">
+        <v>1.19</v>
+      </c>
+      <c r="AM210">
+        <v>1.08</v>
+      </c>
+      <c r="AN210">
+        <v>0.91</v>
+      </c>
+      <c r="AO210">
+        <v>2</v>
+      </c>
+      <c r="AP210">
+        <v>0.83</v>
+      </c>
+      <c r="AQ210">
+        <v>2.2</v>
+      </c>
+      <c r="AR210">
+        <v>1.33</v>
+      </c>
+      <c r="AS210">
+        <v>1.77</v>
+      </c>
+      <c r="AT210">
+        <v>3.1</v>
+      </c>
+      <c r="AU210">
+        <v>4</v>
+      </c>
+      <c r="AV210">
+        <v>7</v>
+      </c>
+      <c r="AW210">
+        <v>4</v>
+      </c>
+      <c r="AX210">
+        <v>2</v>
+      </c>
+      <c r="AY210">
+        <v>8</v>
+      </c>
+      <c r="AZ210">
+        <v>9</v>
+      </c>
+      <c r="BA210">
+        <v>2</v>
+      </c>
+      <c r="BB210">
+        <v>5</v>
+      </c>
+      <c r="BC210">
+        <v>7</v>
+      </c>
+      <c r="BD210">
+        <v>4.95</v>
+      </c>
+      <c r="BE210">
+        <v>7.8</v>
+      </c>
+      <c r="BF210">
+        <v>1.27</v>
+      </c>
+      <c r="BG210">
+        <v>1.31</v>
+      </c>
+      <c r="BH210">
+        <v>3.04</v>
+      </c>
+      <c r="BI210">
+        <v>1.62</v>
+      </c>
+      <c r="BJ210">
+        <v>2.25</v>
+      </c>
+      <c r="BK210">
+        <v>2</v>
+      </c>
+      <c r="BL210">
+        <v>1.78</v>
+      </c>
+      <c r="BM210">
+        <v>2.6</v>
+      </c>
+      <c r="BN210">
+        <v>1.41</v>
+      </c>
+      <c r="BO210">
+        <v>3.65</v>
+      </c>
+      <c r="BP210">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="211" spans="1:68">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>7364330</v>
+      </c>
+      <c r="C211" t="s">
+        <v>68</v>
+      </c>
+      <c r="D211" t="s">
+        <v>69</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45459.54166666666</v>
+      </c>
+      <c r="F211">
+        <v>26</v>
+      </c>
+      <c r="G211" t="s">
+        <v>74</v>
+      </c>
+      <c r="H211" t="s">
+        <v>70</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <v>3</v>
+      </c>
+      <c r="M211">
+        <v>1</v>
+      </c>
+      <c r="N211">
+        <v>4</v>
+      </c>
+      <c r="O211" t="s">
+        <v>210</v>
+      </c>
+      <c r="P211" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q211">
+        <v>3.75</v>
+      </c>
+      <c r="R211">
+        <v>1.8</v>
+      </c>
+      <c r="S211">
+        <v>3.6</v>
+      </c>
+      <c r="T211">
+        <v>1.62</v>
+      </c>
+      <c r="U211">
+        <v>2.2</v>
+      </c>
+      <c r="V211">
+        <v>4</v>
+      </c>
+      <c r="W211">
+        <v>1.22</v>
+      </c>
+      <c r="X211">
+        <v>11</v>
+      </c>
+      <c r="Y211">
+        <v>1.03</v>
+      </c>
+      <c r="Z211">
+        <v>2.8</v>
+      </c>
+      <c r="AA211">
+        <v>2.8</v>
+      </c>
+      <c r="AB211">
+        <v>2.63</v>
+      </c>
+      <c r="AC211">
+        <v>1.13</v>
+      </c>
+      <c r="AD211">
+        <v>5</v>
+      </c>
+      <c r="AE211">
+        <v>1.61</v>
+      </c>
+      <c r="AF211">
+        <v>2.1</v>
+      </c>
+      <c r="AG211">
+        <v>3</v>
+      </c>
+      <c r="AH211">
+        <v>1.36</v>
+      </c>
+      <c r="AI211">
+        <v>2.5</v>
+      </c>
+      <c r="AJ211">
+        <v>1.5</v>
+      </c>
+      <c r="AK211">
+        <v>1.36</v>
+      </c>
+      <c r="AL211">
+        <v>1.4</v>
+      </c>
+      <c r="AM211">
+        <v>1.3</v>
+      </c>
+      <c r="AN211">
+        <v>0.36</v>
+      </c>
+      <c r="AO211">
+        <v>1.25</v>
+      </c>
+      <c r="AP211">
+        <v>0.58</v>
+      </c>
+      <c r="AQ211">
+        <v>1.15</v>
+      </c>
+      <c r="AR211">
+        <v>1.19</v>
+      </c>
+      <c r="AS211">
+        <v>1.27</v>
+      </c>
+      <c r="AT211">
+        <v>2.46</v>
+      </c>
+      <c r="AU211">
+        <v>6</v>
+      </c>
+      <c r="AV211">
+        <v>5</v>
+      </c>
+      <c r="AW211">
+        <v>4</v>
+      </c>
+      <c r="AX211">
+        <v>6</v>
+      </c>
+      <c r="AY211">
+        <v>10</v>
+      </c>
+      <c r="AZ211">
+        <v>11</v>
+      </c>
+      <c r="BA211">
+        <v>3</v>
+      </c>
+      <c r="BB211">
+        <v>5</v>
+      </c>
+      <c r="BC211">
+        <v>8</v>
+      </c>
+      <c r="BD211">
+        <v>1.82</v>
+      </c>
+      <c r="BE211">
+        <v>6.1</v>
+      </c>
+      <c r="BF211">
+        <v>2.47</v>
+      </c>
+      <c r="BG211">
+        <v>1.4</v>
+      </c>
+      <c r="BH211">
+        <v>2.64</v>
+      </c>
+      <c r="BI211">
+        <v>1.78</v>
+      </c>
+      <c r="BJ211">
+        <v>2.03</v>
+      </c>
+      <c r="BK211">
+        <v>2.26</v>
+      </c>
+      <c r="BL211">
+        <v>1.62</v>
+      </c>
+      <c r="BM211">
+        <v>3.04</v>
+      </c>
+      <c r="BN211">
+        <v>1.31</v>
+      </c>
+      <c r="BO211">
+        <v>3.9</v>
+      </c>
+      <c r="BP211">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="212" spans="1:68">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>7364331</v>
+      </c>
+      <c r="C212" t="s">
+        <v>68</v>
+      </c>
+      <c r="D212" t="s">
+        <v>69</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45460.41666666666</v>
+      </c>
+      <c r="F212">
+        <v>26</v>
+      </c>
+      <c r="G212" t="s">
+        <v>84</v>
+      </c>
+      <c r="H212" t="s">
+        <v>79</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>1</v>
+      </c>
+      <c r="L212">
+        <v>1</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
+      </c>
+      <c r="N212">
+        <v>2</v>
+      </c>
+      <c r="O212" t="s">
+        <v>94</v>
+      </c>
+      <c r="P212" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q212">
+        <v>3.4</v>
+      </c>
+      <c r="R212">
+        <v>2</v>
+      </c>
+      <c r="S212">
+        <v>3.1</v>
+      </c>
+      <c r="T212">
+        <v>1.45</v>
+      </c>
+      <c r="U212">
+        <v>2.55</v>
+      </c>
+      <c r="V212">
+        <v>2.95</v>
+      </c>
+      <c r="W212">
+        <v>1.35</v>
+      </c>
+      <c r="X212">
+        <v>7.9</v>
+      </c>
+      <c r="Y212">
+        <v>1.06</v>
+      </c>
+      <c r="Z212">
+        <v>2.8</v>
+      </c>
+      <c r="AA212">
+        <v>3.1</v>
+      </c>
+      <c r="AB212">
+        <v>2.4</v>
+      </c>
+      <c r="AC212">
+        <v>1.07</v>
+      </c>
+      <c r="AD212">
+        <v>7.5</v>
+      </c>
+      <c r="AE212">
+        <v>1.36</v>
+      </c>
+      <c r="AF212">
+        <v>3</v>
+      </c>
+      <c r="AG212">
+        <v>2.25</v>
+      </c>
+      <c r="AH212">
+        <v>1.62</v>
+      </c>
+      <c r="AI212">
+        <v>1.83</v>
+      </c>
+      <c r="AJ212">
+        <v>1.83</v>
+      </c>
+      <c r="AK212">
+        <v>1.5</v>
+      </c>
+      <c r="AL212">
+        <v>1.28</v>
+      </c>
+      <c r="AM212">
+        <v>1.4</v>
+      </c>
+      <c r="AN212">
+        <v>1.23</v>
+      </c>
+      <c r="AO212">
+        <v>0.75</v>
+      </c>
+      <c r="AP212">
+        <v>1.21</v>
+      </c>
+      <c r="AQ212">
+        <v>0.77</v>
+      </c>
+      <c r="AR212">
+        <v>1.37</v>
+      </c>
+      <c r="AS212">
+        <v>1.35</v>
+      </c>
+      <c r="AT212">
+        <v>2.72</v>
+      </c>
+      <c r="AU212">
+        <v>3</v>
+      </c>
+      <c r="AV212">
+        <v>6</v>
+      </c>
+      <c r="AW212">
+        <v>1</v>
+      </c>
+      <c r="AX212">
+        <v>9</v>
+      </c>
+      <c r="AY212">
+        <v>4</v>
+      </c>
+      <c r="AZ212">
+        <v>15</v>
+      </c>
+      <c r="BA212">
+        <v>5</v>
+      </c>
+      <c r="BB212">
+        <v>4</v>
+      </c>
+      <c r="BC212">
+        <v>9</v>
+      </c>
+      <c r="BD212">
+        <v>2.43</v>
+      </c>
+      <c r="BE212">
+        <v>6.25</v>
+      </c>
+      <c r="BF212">
+        <v>1.83</v>
+      </c>
+      <c r="BG212">
+        <v>1.21</v>
+      </c>
+      <c r="BH212">
+        <v>3.74</v>
+      </c>
+      <c r="BI212">
+        <v>1.41</v>
+      </c>
+      <c r="BJ212">
+        <v>2.6</v>
+      </c>
+      <c r="BK212">
+        <v>2.38</v>
+      </c>
+      <c r="BL212">
+        <v>1.97</v>
+      </c>
+      <c r="BM212">
+        <v>2.17</v>
+      </c>
+      <c r="BN212">
+        <v>1.58</v>
+      </c>
+      <c r="BO212">
+        <v>2.91</v>
+      </c>
+      <c r="BP212">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="213" spans="1:68">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>7364333</v>
+      </c>
+      <c r="C213" t="s">
+        <v>68</v>
+      </c>
+      <c r="D213" t="s">
+        <v>69</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45460.54166666666</v>
+      </c>
+      <c r="F213">
+        <v>26</v>
+      </c>
+      <c r="G213" t="s">
+        <v>80</v>
+      </c>
+      <c r="H213" t="s">
+        <v>85</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>1</v>
+      </c>
+      <c r="K213">
+        <v>1</v>
+      </c>
+      <c r="L213">
+        <v>1</v>
+      </c>
+      <c r="M213">
+        <v>2</v>
+      </c>
+      <c r="N213">
+        <v>3</v>
+      </c>
+      <c r="O213" t="s">
+        <v>211</v>
+      </c>
+      <c r="P213" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q213">
+        <v>2.78</v>
+      </c>
+      <c r="R213">
+        <v>2.26</v>
+      </c>
+      <c r="S213">
+        <v>4.4</v>
+      </c>
+      <c r="T213">
+        <v>1.43</v>
+      </c>
+      <c r="U213">
+        <v>2.7</v>
+      </c>
+      <c r="V213">
+        <v>2.81</v>
+      </c>
+      <c r="W213">
+        <v>1.4</v>
+      </c>
+      <c r="X213">
+        <v>7.1</v>
+      </c>
+      <c r="Y213">
+        <v>1.08</v>
+      </c>
+      <c r="Z213">
+        <v>2.12</v>
+      </c>
+      <c r="AA213">
+        <v>3.3</v>
+      </c>
+      <c r="AB213">
+        <v>4.1</v>
+      </c>
+      <c r="AC213">
+        <v>1.08</v>
+      </c>
+      <c r="AD213">
+        <v>11.5</v>
+      </c>
+      <c r="AE213">
+        <v>1.35</v>
+      </c>
+      <c r="AF213">
+        <v>3.7</v>
+      </c>
+      <c r="AG213">
+        <v>2.08</v>
+      </c>
+      <c r="AH213">
+        <v>1.9</v>
+      </c>
+      <c r="AI213">
+        <v>1.89</v>
+      </c>
+      <c r="AJ213">
+        <v>2.06</v>
+      </c>
+      <c r="AK213">
+        <v>1.3</v>
+      </c>
+      <c r="AL213">
+        <v>1.4</v>
+      </c>
+      <c r="AM213">
+        <v>1.87</v>
+      </c>
+      <c r="AN213">
+        <v>2.13</v>
+      </c>
+      <c r="AO213">
+        <v>1.58</v>
+      </c>
+      <c r="AP213">
+        <v>1.89</v>
+      </c>
+      <c r="AQ213">
+        <v>1.69</v>
+      </c>
+      <c r="AR213">
+        <v>1.69</v>
+      </c>
+      <c r="AS213">
+        <v>1.02</v>
+      </c>
+      <c r="AT213">
+        <v>2.71</v>
+      </c>
+      <c r="AU213">
+        <v>3</v>
+      </c>
+      <c r="AV213">
+        <v>7</v>
+      </c>
+      <c r="AW213">
+        <v>7</v>
+      </c>
+      <c r="AX213">
+        <v>1</v>
+      </c>
+      <c r="AY213">
+        <v>10</v>
+      </c>
+      <c r="AZ213">
+        <v>8</v>
+      </c>
+      <c r="BA213">
+        <v>2</v>
+      </c>
+      <c r="BB213">
+        <v>2</v>
+      </c>
+      <c r="BC213">
+        <v>4</v>
+      </c>
+      <c r="BD213">
+        <v>1.57</v>
+      </c>
+      <c r="BE213">
+        <v>6.6</v>
+      </c>
+      <c r="BF213">
+        <v>3.04</v>
+      </c>
+      <c r="BG213">
+        <v>1.23</v>
+      </c>
+      <c r="BH213">
+        <v>3.56</v>
+      </c>
+      <c r="BI213">
+        <v>1.55</v>
+      </c>
+      <c r="BJ213">
+        <v>2.38</v>
+      </c>
+      <c r="BK213">
+        <v>1.96</v>
+      </c>
+      <c r="BL213">
+        <v>1.85</v>
+      </c>
+      <c r="BM213">
+        <v>2.44</v>
+      </c>
+      <c r="BN213">
+        <v>1.52</v>
+      </c>
+      <c r="BO213">
+        <v>3.04</v>
+      </c>
+      <c r="BP213">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="214" spans="1:68">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>7364332</v>
+      </c>
+      <c r="C214" t="s">
+        <v>68</v>
+      </c>
+      <c r="D214" t="s">
+        <v>69</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45460.54166666666</v>
+      </c>
+      <c r="F214">
+        <v>26</v>
+      </c>
+      <c r="G214" t="s">
+        <v>86</v>
+      </c>
+      <c r="H214" t="s">
+        <v>83</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214">
+        <v>1</v>
+      </c>
+      <c r="K214">
+        <v>2</v>
+      </c>
+      <c r="L214">
+        <v>2</v>
+      </c>
+      <c r="M214">
+        <v>2</v>
+      </c>
+      <c r="N214">
+        <v>4</v>
+      </c>
+      <c r="O214" t="s">
+        <v>212</v>
+      </c>
+      <c r="P214" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q214">
+        <v>3.2</v>
+      </c>
+      <c r="R214">
+        <v>1.91</v>
+      </c>
+      <c r="S214">
+        <v>3.75</v>
+      </c>
+      <c r="T214">
+        <v>1.57</v>
+      </c>
+      <c r="U214">
+        <v>2.25</v>
+      </c>
+      <c r="V214">
+        <v>3.4</v>
+      </c>
+      <c r="W214">
+        <v>1.29</v>
+      </c>
+      <c r="X214">
+        <v>9</v>
+      </c>
+      <c r="Y214">
+        <v>1.03</v>
+      </c>
+      <c r="Z214">
+        <v>2.38</v>
+      </c>
+      <c r="AA214">
+        <v>2.8</v>
+      </c>
+      <c r="AB214">
+        <v>3.2</v>
+      </c>
+      <c r="AC214">
+        <v>1.09</v>
+      </c>
+      <c r="AD214">
+        <v>6</v>
+      </c>
+      <c r="AE214">
+        <v>1.49</v>
+      </c>
+      <c r="AF214">
+        <v>2.52</v>
+      </c>
+      <c r="AG214">
+        <v>2.5</v>
+      </c>
+      <c r="AH214">
+        <v>1.5</v>
+      </c>
+      <c r="AI214">
+        <v>2.1</v>
+      </c>
+      <c r="AJ214">
+        <v>1.67</v>
+      </c>
+      <c r="AK214">
+        <v>1.4</v>
+      </c>
+      <c r="AL214">
+        <v>1.44</v>
+      </c>
+      <c r="AM214">
+        <v>1.44</v>
+      </c>
+      <c r="AN214">
+        <v>1.31</v>
+      </c>
+      <c r="AO214">
+        <v>1.55</v>
+      </c>
+      <c r="AP214">
+        <v>1.29</v>
+      </c>
+      <c r="AQ214">
+        <v>1.5</v>
+      </c>
+      <c r="AR214">
+        <v>1.39</v>
+      </c>
+      <c r="AS214">
+        <v>1.38</v>
+      </c>
+      <c r="AT214">
+        <v>2.77</v>
+      </c>
+      <c r="AU214">
+        <v>5</v>
+      </c>
+      <c r="AV214">
+        <v>8</v>
+      </c>
+      <c r="AW214">
+        <v>5</v>
+      </c>
+      <c r="AX214">
+        <v>2</v>
+      </c>
+      <c r="AY214">
+        <v>10</v>
+      </c>
+      <c r="AZ214">
+        <v>10</v>
+      </c>
+      <c r="BA214">
+        <v>2</v>
+      </c>
+      <c r="BB214">
+        <v>3</v>
+      </c>
+      <c r="BC214">
+        <v>5</v>
+      </c>
+      <c r="BD214">
+        <v>1.68</v>
+      </c>
+      <c r="BE214">
+        <v>6.25</v>
+      </c>
+      <c r="BF214">
+        <v>2.76</v>
+      </c>
+      <c r="BG214">
+        <v>1.38</v>
+      </c>
+      <c r="BH214">
+        <v>2.71</v>
+      </c>
+      <c r="BI214">
+        <v>1.7</v>
+      </c>
+      <c r="BJ214">
+        <v>1.98</v>
+      </c>
+      <c r="BK214">
+        <v>2.17</v>
+      </c>
+      <c r="BL214">
+        <v>1.58</v>
+      </c>
+      <c r="BM214">
+        <v>2.93</v>
+      </c>
+      <c r="BN214">
+        <v>1.33</v>
+      </c>
+      <c r="BO214">
+        <v>3.9</v>
+      </c>
+      <c r="BP214">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="215" spans="1:68">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>7364334</v>
+      </c>
+      <c r="C215" t="s">
+        <v>68</v>
+      </c>
+      <c r="D215" t="s">
+        <v>69</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45461.41666666666</v>
+      </c>
+      <c r="F215">
+        <v>26</v>
+      </c>
+      <c r="G215" t="s">
+        <v>75</v>
+      </c>
+      <c r="H215" t="s">
+        <v>73</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215">
+        <v>1</v>
+      </c>
+      <c r="K215">
+        <v>2</v>
+      </c>
+      <c r="L215">
+        <v>3</v>
+      </c>
+      <c r="M215">
+        <v>2</v>
+      </c>
+      <c r="N215">
+        <v>5</v>
+      </c>
+      <c r="O215" t="s">
+        <v>213</v>
+      </c>
+      <c r="P215" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q215">
+        <v>2.2</v>
+      </c>
+      <c r="R215">
+        <v>2.05</v>
+      </c>
+      <c r="S215">
+        <v>6.5</v>
+      </c>
+      <c r="T215">
+        <v>1.49</v>
+      </c>
+      <c r="U215">
+        <v>2.51</v>
+      </c>
+      <c r="V215">
+        <v>3.32</v>
+      </c>
+      <c r="W215">
+        <v>1.3</v>
+      </c>
+      <c r="X215">
+        <v>9</v>
+      </c>
+      <c r="Y215">
+        <v>1.04</v>
+      </c>
+      <c r="Z215">
+        <v>1.55</v>
+      </c>
+      <c r="AA215">
+        <v>3.4</v>
+      </c>
+      <c r="AB215">
+        <v>6.25</v>
+      </c>
+      <c r="AC215">
+        <v>1.05</v>
+      </c>
+      <c r="AD215">
+        <v>7.2</v>
+      </c>
+      <c r="AE215">
+        <v>1.4</v>
+      </c>
+      <c r="AF215">
+        <v>2.64</v>
+      </c>
+      <c r="AG215">
+        <v>2.3</v>
+      </c>
+      <c r="AH215">
+        <v>1.6</v>
+      </c>
+      <c r="AI215">
+        <v>2.38</v>
+      </c>
+      <c r="AJ215">
+        <v>1.53</v>
+      </c>
+      <c r="AK215">
+        <v>1.1</v>
+      </c>
+      <c r="AL215">
+        <v>1.25</v>
+      </c>
+      <c r="AM215">
+        <v>2.2</v>
+      </c>
+      <c r="AN215">
+        <v>1.91</v>
+      </c>
+      <c r="AO215">
+        <v>0.25</v>
+      </c>
+      <c r="AP215">
+        <v>2</v>
+      </c>
+      <c r="AQ215">
+        <v>0.23</v>
+      </c>
+      <c r="AR215">
+        <v>1.49</v>
+      </c>
+      <c r="AS215">
+        <v>1.08</v>
+      </c>
+      <c r="AT215">
+        <v>2.57</v>
+      </c>
+      <c r="AU215">
+        <v>8</v>
+      </c>
+      <c r="AV215">
+        <v>4</v>
+      </c>
+      <c r="AW215">
+        <v>7</v>
+      </c>
+      <c r="AX215">
+        <v>2</v>
+      </c>
+      <c r="AY215">
+        <v>15</v>
+      </c>
+      <c r="AZ215">
+        <v>6</v>
+      </c>
+      <c r="BA215">
+        <v>10</v>
+      </c>
+      <c r="BB215">
+        <v>0</v>
+      </c>
+      <c r="BC215">
+        <v>10</v>
+      </c>
+      <c r="BD215">
+        <v>1.28</v>
+      </c>
+      <c r="BE215">
+        <v>7.5</v>
+      </c>
+      <c r="BF215">
+        <v>4.85</v>
+      </c>
+      <c r="BG215">
+        <v>1.36</v>
+      </c>
+      <c r="BH215">
+        <v>2.79</v>
+      </c>
+      <c r="BI215">
+        <v>1.71</v>
+      </c>
+      <c r="BJ215">
+        <v>2.11</v>
+      </c>
+      <c r="BK215">
+        <v>2.18</v>
+      </c>
+      <c r="BL215">
+        <v>1.67</v>
+      </c>
+      <c r="BM215">
+        <v>2.84</v>
+      </c>
+      <c r="BN215">
+        <v>1.35</v>
+      </c>
+      <c r="BO215">
+        <v>3.6</v>
+      </c>
+      <c r="BP215">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="216" spans="1:68">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>7364336</v>
+      </c>
+      <c r="C216" t="s">
+        <v>68</v>
+      </c>
+      <c r="D216" t="s">
+        <v>69</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45461.54166666666</v>
+      </c>
+      <c r="F216">
+        <v>26</v>
+      </c>
+      <c r="G216" t="s">
+        <v>71</v>
+      </c>
+      <c r="H216" t="s">
+        <v>76</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>1</v>
+      </c>
+      <c r="L216">
+        <v>2</v>
+      </c>
+      <c r="M216">
+        <v>2</v>
+      </c>
+      <c r="N216">
+        <v>4</v>
+      </c>
+      <c r="O216" t="s">
+        <v>214</v>
+      </c>
+      <c r="P216" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q216">
+        <v>2.88</v>
+      </c>
+      <c r="R216">
+        <v>1.95</v>
+      </c>
+      <c r="S216">
+        <v>4</v>
+      </c>
+      <c r="T216">
+        <v>1.6</v>
+      </c>
+      <c r="U216">
+        <v>2.25</v>
+      </c>
+      <c r="V216">
+        <v>3.54</v>
+      </c>
+      <c r="W216">
+        <v>1.27</v>
+      </c>
+      <c r="X216">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y216">
+        <v>1.03</v>
+      </c>
+      <c r="Z216">
+        <v>2.15</v>
+      </c>
+      <c r="AA216">
+        <v>3.1</v>
+      </c>
+      <c r="AB216">
+        <v>3.25</v>
+      </c>
+      <c r="AC216">
+        <v>1.08</v>
+      </c>
+      <c r="AD216">
+        <v>5.9</v>
+      </c>
+      <c r="AE216">
+        <v>1.46</v>
+      </c>
+      <c r="AF216">
+        <v>2.45</v>
+      </c>
+      <c r="AG216">
+        <v>2.35</v>
+      </c>
+      <c r="AH216">
+        <v>1.57</v>
+      </c>
+      <c r="AI216">
+        <v>2</v>
+      </c>
+      <c r="AJ216">
+        <v>1.73</v>
+      </c>
+      <c r="AK216">
+        <v>1.25</v>
+      </c>
+      <c r="AL216">
+        <v>1.32</v>
+      </c>
+      <c r="AM216">
+        <v>1.52</v>
+      </c>
+      <c r="AN216">
+        <v>1.27</v>
+      </c>
+      <c r="AO216">
+        <v>0.92</v>
+      </c>
+      <c r="AP216">
+        <v>1.25</v>
+      </c>
+      <c r="AQ216">
+        <v>0.92</v>
+      </c>
+      <c r="AR216">
+        <v>1.64</v>
+      </c>
+      <c r="AS216">
+        <v>1.33</v>
+      </c>
+      <c r="AT216">
+        <v>2.97</v>
+      </c>
+      <c r="AU216">
+        <v>9</v>
+      </c>
+      <c r="AV216">
+        <v>4</v>
+      </c>
+      <c r="AW216">
+        <v>7</v>
+      </c>
+      <c r="AX216">
+        <v>3</v>
+      </c>
+      <c r="AY216">
+        <v>16</v>
+      </c>
+      <c r="AZ216">
+        <v>7</v>
+      </c>
+      <c r="BA216">
+        <v>3</v>
+      </c>
+      <c r="BB216">
+        <v>2</v>
+      </c>
+      <c r="BC216">
+        <v>5</v>
+      </c>
+      <c r="BD216">
+        <v>1.59</v>
+      </c>
+      <c r="BE216">
+        <v>6.4</v>
+      </c>
+      <c r="BF216">
+        <v>3</v>
+      </c>
+      <c r="BG216">
+        <v>1.34</v>
+      </c>
+      <c r="BH216">
+        <v>2.88</v>
+      </c>
+      <c r="BI216">
+        <v>1.68</v>
+      </c>
+      <c r="BJ216">
+        <v>2.16</v>
+      </c>
+      <c r="BK216">
+        <v>2.12</v>
+      </c>
+      <c r="BL216">
+        <v>1.71</v>
+      </c>
+      <c r="BM216">
+        <v>2.75</v>
+      </c>
+      <c r="BN216">
+        <v>1.37</v>
+      </c>
+      <c r="BO216">
+        <v>3.88</v>
+      </c>
+      <c r="BP216">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:68">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>7364335</v>
+      </c>
+      <c r="C217" t="s">
+        <v>68</v>
+      </c>
+      <c r="D217" t="s">
+        <v>69</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45461.54166666666</v>
+      </c>
+      <c r="F217">
+        <v>26</v>
+      </c>
+      <c r="G217" t="s">
+        <v>77</v>
+      </c>
+      <c r="H217" t="s">
+        <v>72</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <v>0</v>
+      </c>
+      <c r="M217">
+        <v>1</v>
+      </c>
+      <c r="N217">
+        <v>1</v>
+      </c>
+      <c r="O217" t="s">
+        <v>92</v>
+      </c>
+      <c r="P217" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q217">
+        <v>7</v>
+      </c>
+      <c r="R217">
+        <v>2.1</v>
+      </c>
+      <c r="S217">
+        <v>2</v>
+      </c>
+      <c r="T217">
+        <v>1.45</v>
+      </c>
+      <c r="U217">
+        <v>2.63</v>
+      </c>
+      <c r="V217">
+        <v>3.04</v>
+      </c>
+      <c r="W217">
+        <v>1.35</v>
+      </c>
+      <c r="X217">
+        <v>7.9</v>
+      </c>
+      <c r="Y217">
+        <v>1.06</v>
+      </c>
+      <c r="Z217">
+        <v>7</v>
+      </c>
+      <c r="AA217">
+        <v>3.9</v>
+      </c>
+      <c r="AB217">
+        <v>1.42</v>
+      </c>
+      <c r="AC217">
+        <v>1.03</v>
+      </c>
+      <c r="AD217">
+        <v>7.9</v>
+      </c>
+      <c r="AE217">
+        <v>1.32</v>
+      </c>
+      <c r="AF217">
+        <v>2.98</v>
+      </c>
+      <c r="AG217">
+        <v>2.05</v>
+      </c>
+      <c r="AH217">
+        <v>1.75</v>
+      </c>
+      <c r="AI217">
+        <v>2.38</v>
+      </c>
+      <c r="AJ217">
+        <v>1.53</v>
+      </c>
+      <c r="AK217">
+        <v>2.42</v>
+      </c>
+      <c r="AL217">
+        <v>1.22</v>
+      </c>
+      <c r="AM217">
+        <v>1.07</v>
+      </c>
+      <c r="AN217">
+        <v>1.5</v>
+      </c>
+      <c r="AO217">
+        <v>2.11</v>
+      </c>
+      <c r="AP217">
+        <v>1.38</v>
+      </c>
+      <c r="AQ217">
+        <v>2.2</v>
+      </c>
+      <c r="AR217">
+        <v>1.42</v>
+      </c>
+      <c r="AS217">
+        <v>1.75</v>
+      </c>
+      <c r="AT217">
+        <v>3.17</v>
+      </c>
+      <c r="AU217">
+        <v>2</v>
+      </c>
+      <c r="AV217">
+        <v>6</v>
+      </c>
+      <c r="AW217">
+        <v>5</v>
+      </c>
+      <c r="AX217">
+        <v>3</v>
+      </c>
+      <c r="AY217">
+        <v>7</v>
+      </c>
+      <c r="AZ217">
+        <v>9</v>
+      </c>
+      <c r="BA217">
+        <v>1</v>
+      </c>
+      <c r="BB217">
+        <v>8</v>
+      </c>
+      <c r="BC217">
+        <v>9</v>
+      </c>
+      <c r="BD217">
+        <v>4.6</v>
+      </c>
+      <c r="BE217">
+        <v>7.6</v>
+      </c>
+      <c r="BF217">
+        <v>1.3</v>
+      </c>
+      <c r="BG217">
+        <v>1.28</v>
+      </c>
+      <c r="BH217">
+        <v>3.18</v>
+      </c>
+      <c r="BI217">
+        <v>1.61</v>
+      </c>
+      <c r="BJ217">
+        <v>2.27</v>
+      </c>
+      <c r="BK217">
+        <v>1.99</v>
+      </c>
+      <c r="BL217">
+        <v>1.81</v>
+      </c>
+      <c r="BM217">
+        <v>2.52</v>
+      </c>
+      <c r="BN217">
+        <v>1.5</v>
+      </c>
+      <c r="BO217">
+        <v>3.48</v>
+      </c>
+      <c r="BP217">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="317">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -958,10 +958,13 @@
     <t>['45+2', '48']</t>
   </si>
   <si>
+    <t>['68']</t>
+  </si>
+  <si>
     <t>['49', '74']</t>
   </si>
   <si>
-    <t>['68']</t>
+    <t>['24', '74']</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP217"/>
+  <dimension ref="A1:BP219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2899,7 +2902,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ8">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3517,7 +3520,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ11">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3926,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
         <v>1.08</v>
@@ -6195,7 +6198,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ24">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR24">
         <v>1.15</v>
@@ -7222,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ29">
         <v>0.23</v>
@@ -7428,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
         <v>1.38</v>
@@ -8255,7 +8258,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ34">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR34">
         <v>1.72</v>
@@ -10109,7 +10112,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ43">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR43">
         <v>0.91</v>
@@ -10724,10 +10727,10 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ46">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR46">
         <v>2.1</v>
@@ -11342,7 +11345,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ49">
         <v>0.92</v>
@@ -12166,7 +12169,7 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ53">
         <v>2.2</v>
@@ -14638,7 +14641,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ65">
         <v>1.15</v>
@@ -14844,7 +14847,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ66">
         <v>1.5</v>
@@ -17316,7 +17319,7 @@
         <v>0.75</v>
       </c>
       <c r="AP78">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ78">
         <v>0.77</v>
@@ -19997,7 +20000,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ91">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR91">
         <v>2.39</v>
@@ -20200,10 +20203,10 @@
         <v>3</v>
       </c>
       <c r="AP92">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ92">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR92">
         <v>1.28</v>
@@ -21642,7 +21645,7 @@
         <v>1.8</v>
       </c>
       <c r="AP99">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ99">
         <v>1.17</v>
@@ -22260,7 +22263,7 @@
         <v>0.83</v>
       </c>
       <c r="AP102">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ102">
         <v>1</v>
@@ -23705,7 +23708,7 @@
         <v>2</v>
       </c>
       <c r="AQ109">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR109">
         <v>1.64</v>
@@ -24320,7 +24323,7 @@
         <v>0.86</v>
       </c>
       <c r="AP112">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ112">
         <v>1</v>
@@ -25762,7 +25765,7 @@
         <v>1.67</v>
       </c>
       <c r="AP119">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ119">
         <v>1.17</v>
@@ -26177,7 +26180,7 @@
         <v>1</v>
       </c>
       <c r="AQ121">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR121">
         <v>0.92</v>
@@ -26589,7 +26592,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ123">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR123">
         <v>1.48</v>
@@ -27410,7 +27413,7 @@
         <v>1.63</v>
       </c>
       <c r="AP127">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ127">
         <v>1.92</v>
@@ -29061,7 +29064,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ135">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR135">
         <v>1.42</v>
@@ -29267,7 +29270,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ136">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR136">
         <v>1.46</v>
@@ -29882,7 +29885,7 @@
         <v>1.57</v>
       </c>
       <c r="AP139">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ139">
         <v>1.69</v>
@@ -30091,7 +30094,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ140">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR140">
         <v>1.42</v>
@@ -30297,7 +30300,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ141">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR141">
         <v>1.27</v>
@@ -31324,7 +31327,7 @@
         <v>1.63</v>
       </c>
       <c r="AP146">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ146">
         <v>1.38</v>
@@ -31942,7 +31945,7 @@
         <v>1</v>
       </c>
       <c r="AP149">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ149">
         <v>1</v>
@@ -32563,7 +32566,7 @@
         <v>1</v>
       </c>
       <c r="AQ152">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR152">
         <v>0.89</v>
@@ -33590,7 +33593,7 @@
         <v>1.7</v>
       </c>
       <c r="AP157">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ157">
         <v>1.92</v>
@@ -34414,7 +34417,7 @@
         <v>0.67</v>
       </c>
       <c r="AP161">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ161">
         <v>0.92</v>
@@ -34829,7 +34832,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ163">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR163">
         <v>1.17</v>
@@ -37095,7 +37098,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ174">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR174">
         <v>1.97</v>
@@ -37916,7 +37919,7 @@
         <v>1.4</v>
       </c>
       <c r="AP178">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ178">
         <v>1.15</v>
@@ -38743,7 +38746,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ182">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR182">
         <v>1.54</v>
@@ -38946,7 +38949,7 @@
         <v>1.86</v>
       </c>
       <c r="AP183">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ183">
         <v>2.2</v>
@@ -39650,7 +39653,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>7364307</v>
+        <v>7364308</v>
       </c>
       <c r="C187" t="s">
         <v>68</v>
@@ -39665,190 +39668,190 @@
         <v>23</v>
       </c>
       <c r="G187" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H187" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I187">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>1</v>
+      </c>
+      <c r="O187" t="s">
+        <v>98</v>
+      </c>
+      <c r="P187" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q187">
+        <v>2.38</v>
+      </c>
+      <c r="R187">
+        <v>2</v>
+      </c>
+      <c r="S187">
+        <v>5.5</v>
+      </c>
+      <c r="T187">
+        <v>1.49</v>
+      </c>
+      <c r="U187">
+        <v>2.55</v>
+      </c>
+      <c r="V187">
+        <v>3.3</v>
+      </c>
+      <c r="W187">
+        <v>1.28</v>
+      </c>
+      <c r="X187">
+        <v>7.5</v>
+      </c>
+      <c r="Y187">
+        <v>1.07</v>
+      </c>
+      <c r="Z187">
+        <v>1.67</v>
+      </c>
+      <c r="AA187">
+        <v>3.3</v>
+      </c>
+      <c r="AB187">
+        <v>4.75</v>
+      </c>
+      <c r="AC187">
+        <v>1.08</v>
+      </c>
+      <c r="AD187">
+        <v>7</v>
+      </c>
+      <c r="AE187">
+        <v>1.44</v>
+      </c>
+      <c r="AF187">
+        <v>2.65</v>
+      </c>
+      <c r="AG187">
+        <v>2.3</v>
+      </c>
+      <c r="AH187">
+        <v>1.6</v>
+      </c>
+      <c r="AI187">
+        <v>2.2</v>
+      </c>
+      <c r="AJ187">
+        <v>1.62</v>
+      </c>
+      <c r="AK187">
+        <v>1.2</v>
+      </c>
+      <c r="AL187">
+        <v>1.28</v>
+      </c>
+      <c r="AM187">
+        <v>1.85</v>
+      </c>
+      <c r="AN187">
+        <v>0.67</v>
+      </c>
+      <c r="AO187">
+        <v>0.9</v>
+      </c>
+      <c r="AP187">
+        <v>0.83</v>
+      </c>
+      <c r="AQ187">
+        <v>0.75</v>
+      </c>
+      <c r="AR187">
+        <v>1.46</v>
+      </c>
+      <c r="AS187">
+        <v>1.2</v>
+      </c>
+      <c r="AT187">
+        <v>2.66</v>
+      </c>
+      <c r="AU187">
         <v>3</v>
       </c>
-      <c r="L187">
-        <v>2</v>
-      </c>
-      <c r="M187">
-        <v>1</v>
-      </c>
-      <c r="N187">
+      <c r="AV187">
+        <v>0</v>
+      </c>
+      <c r="AW187">
+        <v>2</v>
+      </c>
+      <c r="AX187">
+        <v>5</v>
+      </c>
+      <c r="AY187">
+        <v>5</v>
+      </c>
+      <c r="AZ187">
+        <v>5</v>
+      </c>
+      <c r="BA187">
+        <v>0</v>
+      </c>
+      <c r="BB187">
         <v>3</v>
       </c>
-      <c r="O187" t="s">
-        <v>201</v>
-      </c>
-      <c r="P187" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q187">
-        <v>2.25</v>
-      </c>
-      <c r="R187">
-        <v>2.2</v>
-      </c>
-      <c r="S187">
-        <v>4.75</v>
-      </c>
-      <c r="T187">
-        <v>1.37</v>
-      </c>
-      <c r="U187">
-        <v>3.01</v>
-      </c>
-      <c r="V187">
-        <v>2.88</v>
-      </c>
-      <c r="W187">
-        <v>1.4</v>
-      </c>
-      <c r="X187">
-        <v>6</v>
-      </c>
-      <c r="Y187">
-        <v>1.11</v>
-      </c>
-      <c r="Z187">
-        <v>1.65</v>
-      </c>
-      <c r="AA187">
-        <v>3.6</v>
-      </c>
-      <c r="AB187">
-        <v>4.5</v>
-      </c>
-      <c r="AC187">
-        <v>1.05</v>
-      </c>
-      <c r="AD187">
-        <v>8.5</v>
-      </c>
-      <c r="AE187">
-        <v>1.28</v>
-      </c>
-      <c r="AF187">
-        <v>3.4</v>
-      </c>
-      <c r="AG187">
-        <v>1.85</v>
-      </c>
-      <c r="AH187">
-        <v>1.95</v>
-      </c>
-      <c r="AI187">
-        <v>1.83</v>
-      </c>
-      <c r="AJ187">
-        <v>1.83</v>
-      </c>
-      <c r="AK187">
-        <v>1.12</v>
-      </c>
-      <c r="AL187">
-        <v>1.2</v>
-      </c>
-      <c r="AM187">
-        <v>2.2</v>
-      </c>
-      <c r="AN187">
-        <v>2.2</v>
-      </c>
-      <c r="AO187">
+      <c r="BC187">
+        <v>3</v>
+      </c>
+      <c r="BD187">
+        <v>1.57</v>
+      </c>
+      <c r="BE187">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF187">
+        <v>2.78</v>
+      </c>
+      <c r="BG187">
+        <v>1.46</v>
+      </c>
+      <c r="BH187">
+        <v>2.64</v>
+      </c>
+      <c r="BI187">
+        <v>1.81</v>
+      </c>
+      <c r="BJ187">
+        <v>1.99</v>
+      </c>
+      <c r="BK187">
+        <v>2.3</v>
+      </c>
+      <c r="BL187">
+        <v>1.6</v>
+      </c>
+      <c r="BM187">
+        <v>3.08</v>
+      </c>
+      <c r="BN187">
+        <v>1.3</v>
+      </c>
+      <c r="BO187">
+        <v>3.8</v>
+      </c>
+      <c r="BP187">
         <v>1.22</v>
-      </c>
-      <c r="AP187">
-        <v>2.38</v>
-      </c>
-      <c r="AQ187">
-        <v>1</v>
-      </c>
-      <c r="AR187">
-        <v>2.01</v>
-      </c>
-      <c r="AS187">
-        <v>1.74</v>
-      </c>
-      <c r="AT187">
-        <v>3.75</v>
-      </c>
-      <c r="AU187">
-        <v>5</v>
-      </c>
-      <c r="AV187">
-        <v>6</v>
-      </c>
-      <c r="AW187">
-        <v>3</v>
-      </c>
-      <c r="AX187">
-        <v>3</v>
-      </c>
-      <c r="AY187">
-        <v>8</v>
-      </c>
-      <c r="AZ187">
-        <v>9</v>
-      </c>
-      <c r="BA187">
-        <v>3</v>
-      </c>
-      <c r="BB187">
-        <v>6</v>
-      </c>
-      <c r="BC187">
-        <v>9</v>
-      </c>
-      <c r="BD187">
-        <v>1.59</v>
-      </c>
-      <c r="BE187">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="BF187">
-        <v>2.66</v>
-      </c>
-      <c r="BG187">
-        <v>1.2</v>
-      </c>
-      <c r="BH187">
-        <v>3.86</v>
-      </c>
-      <c r="BI187">
-        <v>1.39</v>
-      </c>
-      <c r="BJ187">
-        <v>2.67</v>
-      </c>
-      <c r="BK187">
-        <v>2.38</v>
-      </c>
-      <c r="BL187">
-        <v>2.06</v>
-      </c>
-      <c r="BM187">
-        <v>2.2</v>
-      </c>
-      <c r="BN187">
-        <v>1.66</v>
-      </c>
-      <c r="BO187">
-        <v>2.84</v>
-      </c>
-      <c r="BP187">
-        <v>1.35</v>
       </c>
     </row>
     <row r="188" spans="1:68">
@@ -39856,7 +39859,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>7364308</v>
+        <v>7364307</v>
       </c>
       <c r="C188" t="s">
         <v>68</v>
@@ -39871,190 +39874,190 @@
         <v>23</v>
       </c>
       <c r="G188" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H188" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K188">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N188">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O188" t="s">
-        <v>98</v>
+        <v>201</v>
       </c>
       <c r="P188" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="Q188">
+        <v>2.25</v>
+      </c>
+      <c r="R188">
+        <v>2.2</v>
+      </c>
+      <c r="S188">
+        <v>4.75</v>
+      </c>
+      <c r="T188">
+        <v>1.37</v>
+      </c>
+      <c r="U188">
+        <v>3.01</v>
+      </c>
+      <c r="V188">
+        <v>2.88</v>
+      </c>
+      <c r="W188">
+        <v>1.4</v>
+      </c>
+      <c r="X188">
+        <v>6</v>
+      </c>
+      <c r="Y188">
+        <v>1.11</v>
+      </c>
+      <c r="Z188">
+        <v>1.65</v>
+      </c>
+      <c r="AA188">
+        <v>3.6</v>
+      </c>
+      <c r="AB188">
+        <v>4.5</v>
+      </c>
+      <c r="AC188">
+        <v>1.05</v>
+      </c>
+      <c r="AD188">
+        <v>8.5</v>
+      </c>
+      <c r="AE188">
+        <v>1.28</v>
+      </c>
+      <c r="AF188">
+        <v>3.4</v>
+      </c>
+      <c r="AG188">
+        <v>1.85</v>
+      </c>
+      <c r="AH188">
+        <v>1.95</v>
+      </c>
+      <c r="AI188">
+        <v>1.83</v>
+      </c>
+      <c r="AJ188">
+        <v>1.83</v>
+      </c>
+      <c r="AK188">
+        <v>1.12</v>
+      </c>
+      <c r="AL188">
+        <v>1.2</v>
+      </c>
+      <c r="AM188">
+        <v>2.2</v>
+      </c>
+      <c r="AN188">
+        <v>2.2</v>
+      </c>
+      <c r="AO188">
+        <v>1.22</v>
+      </c>
+      <c r="AP188">
         <v>2.38</v>
       </c>
-      <c r="R188">
-        <v>2</v>
-      </c>
-      <c r="S188">
-        <v>5.5</v>
-      </c>
-      <c r="T188">
-        <v>1.49</v>
-      </c>
-      <c r="U188">
-        <v>2.55</v>
-      </c>
-      <c r="V188">
-        <v>3.3</v>
-      </c>
-      <c r="W188">
-        <v>1.28</v>
-      </c>
-      <c r="X188">
-        <v>7.5</v>
-      </c>
-      <c r="Y188">
-        <v>1.07</v>
-      </c>
-      <c r="Z188">
-        <v>1.67</v>
-      </c>
-      <c r="AA188">
-        <v>3.3</v>
-      </c>
-      <c r="AB188">
-        <v>4.75</v>
-      </c>
-      <c r="AC188">
-        <v>1.08</v>
-      </c>
-      <c r="AD188">
-        <v>7</v>
-      </c>
-      <c r="AE188">
-        <v>1.44</v>
-      </c>
-      <c r="AF188">
-        <v>2.65</v>
-      </c>
-      <c r="AG188">
-        <v>2.3</v>
-      </c>
-      <c r="AH188">
-        <v>1.6</v>
-      </c>
-      <c r="AI188">
+      <c r="AQ188">
+        <v>1</v>
+      </c>
+      <c r="AR188">
+        <v>2.01</v>
+      </c>
+      <c r="AS188">
+        <v>1.74</v>
+      </c>
+      <c r="AT188">
+        <v>3.75</v>
+      </c>
+      <c r="AU188">
+        <v>5</v>
+      </c>
+      <c r="AV188">
+        <v>6</v>
+      </c>
+      <c r="AW188">
+        <v>3</v>
+      </c>
+      <c r="AX188">
+        <v>3</v>
+      </c>
+      <c r="AY188">
+        <v>8</v>
+      </c>
+      <c r="AZ188">
+        <v>9</v>
+      </c>
+      <c r="BA188">
+        <v>3</v>
+      </c>
+      <c r="BB188">
+        <v>6</v>
+      </c>
+      <c r="BC188">
+        <v>9</v>
+      </c>
+      <c r="BD188">
+        <v>1.59</v>
+      </c>
+      <c r="BE188">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF188">
+        <v>2.66</v>
+      </c>
+      <c r="BG188">
+        <v>1.2</v>
+      </c>
+      <c r="BH188">
+        <v>3.86</v>
+      </c>
+      <c r="BI188">
+        <v>1.39</v>
+      </c>
+      <c r="BJ188">
+        <v>2.67</v>
+      </c>
+      <c r="BK188">
+        <v>2.38</v>
+      </c>
+      <c r="BL188">
+        <v>2.06</v>
+      </c>
+      <c r="BM188">
         <v>2.2</v>
       </c>
-      <c r="AJ188">
-        <v>1.62</v>
-      </c>
-      <c r="AK188">
-        <v>1.2</v>
-      </c>
-      <c r="AL188">
-        <v>1.28</v>
-      </c>
-      <c r="AM188">
-        <v>1.85</v>
-      </c>
-      <c r="AN188">
-        <v>0.67</v>
-      </c>
-      <c r="AO188">
-        <v>0.9</v>
-      </c>
-      <c r="AP188">
-        <v>0.83</v>
-      </c>
-      <c r="AQ188">
-        <v>0.75</v>
-      </c>
-      <c r="AR188">
-        <v>1.46</v>
-      </c>
-      <c r="AS188">
-        <v>1.2</v>
-      </c>
-      <c r="AT188">
-        <v>2.66</v>
-      </c>
-      <c r="AU188">
-        <v>3</v>
-      </c>
-      <c r="AV188">
-        <v>0</v>
-      </c>
-      <c r="AW188">
-        <v>2</v>
-      </c>
-      <c r="AX188">
-        <v>5</v>
-      </c>
-      <c r="AY188">
-        <v>5</v>
-      </c>
-      <c r="AZ188">
-        <v>5</v>
-      </c>
-      <c r="BA188">
-        <v>0</v>
-      </c>
-      <c r="BB188">
-        <v>3</v>
-      </c>
-      <c r="BC188">
-        <v>3</v>
-      </c>
-      <c r="BD188">
-        <v>1.57</v>
-      </c>
-      <c r="BE188">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="BF188">
-        <v>2.78</v>
-      </c>
-      <c r="BG188">
-        <v>1.46</v>
-      </c>
-      <c r="BH188">
-        <v>2.64</v>
-      </c>
-      <c r="BI188">
-        <v>1.81</v>
-      </c>
-      <c r="BJ188">
-        <v>1.99</v>
-      </c>
-      <c r="BK188">
-        <v>2.3</v>
-      </c>
-      <c r="BL188">
-        <v>1.6</v>
-      </c>
-      <c r="BM188">
-        <v>3.08</v>
-      </c>
       <c r="BN188">
-        <v>1.3</v>
+        <v>1.66</v>
       </c>
       <c r="BO188">
-        <v>3.8</v>
+        <v>2.84</v>
       </c>
       <c r="BP188">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="189" spans="1:68">
@@ -40062,7 +40065,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>7364311</v>
+        <v>7364310</v>
       </c>
       <c r="C189" t="s">
         <v>68</v>
@@ -40077,142 +40080,142 @@
         <v>23</v>
       </c>
       <c r="G189" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H189" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J189">
         <v>0</v>
       </c>
       <c r="K189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L189">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N189">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O189" t="s">
-        <v>202</v>
+        <v>92</v>
       </c>
       <c r="P189" t="s">
-        <v>278</v>
+        <v>226</v>
       </c>
       <c r="Q189">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="R189">
-        <v>2.28</v>
+        <v>1.83</v>
       </c>
       <c r="S189">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="T189">
-        <v>1.42</v>
+        <v>1.63</v>
       </c>
       <c r="U189">
-        <v>2.81</v>
+        <v>2.24</v>
       </c>
       <c r="V189">
-        <v>3.11</v>
+        <v>3.86</v>
       </c>
       <c r="W189">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="X189">
-        <v>7</v>
+        <v>9.35</v>
       </c>
       <c r="Y189">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="Z189">
-        <v>3.2</v>
+        <v>2.63</v>
       </c>
       <c r="AA189">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="AB189">
-        <v>2.42</v>
+        <v>2.7</v>
       </c>
       <c r="AC189">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="AD189">
-        <v>10</v>
+        <v>5.52</v>
       </c>
       <c r="AE189">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AF189">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="AG189">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="AH189">
-        <v>1.94</v>
+        <v>1.4</v>
       </c>
       <c r="AI189">
-        <v>1.79</v>
+        <v>2.25</v>
       </c>
       <c r="AJ189">
-        <v>2.16</v>
+        <v>1.57</v>
       </c>
       <c r="AK189">
-        <v>1.68</v>
+        <v>1.37</v>
       </c>
       <c r="AL189">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AM189">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="AN189">
-        <v>0.91</v>
+        <v>1.45</v>
       </c>
       <c r="AO189">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AP189">
-        <v>1.08</v>
+        <v>1.46</v>
       </c>
       <c r="AQ189">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="AR189">
-        <v>1.52</v>
+        <v>1.19</v>
       </c>
       <c r="AS189">
-        <v>1.1</v>
+        <v>1.41</v>
       </c>
       <c r="AT189">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="AU189">
+        <v>2</v>
+      </c>
+      <c r="AV189">
         <v>8</v>
       </c>
-      <c r="AV189">
-        <v>4</v>
-      </c>
       <c r="AW189">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX189">
         <v>4</v>
       </c>
       <c r="AY189">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AZ189">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA189">
         <v>4</v>
@@ -40224,43 +40227,43 @@
         <v>8</v>
       </c>
       <c r="BD189">
-        <v>1.89</v>
+        <v>2.29</v>
       </c>
       <c r="BE189">
-        <v>8.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF189">
-        <v>2.12</v>
+        <v>1.79</v>
       </c>
       <c r="BG189">
-        <v>1.21</v>
+        <v>1.36</v>
       </c>
       <c r="BH189">
-        <v>3.74</v>
+        <v>2.79</v>
       </c>
       <c r="BI189">
-        <v>1.4</v>
+        <v>1.71</v>
       </c>
       <c r="BJ189">
-        <v>2.64</v>
+        <v>2.09</v>
       </c>
       <c r="BK189">
-        <v>1.74</v>
+        <v>2.16</v>
       </c>
       <c r="BL189">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="BM189">
-        <v>2.17</v>
+        <v>2.84</v>
       </c>
       <c r="BN189">
-        <v>1.66</v>
+        <v>1.35</v>
       </c>
       <c r="BO189">
-        <v>2.88</v>
+        <v>3.7</v>
       </c>
       <c r="BP189">
-        <v>1.34</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="190" spans="1:68">
@@ -40268,7 +40271,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>7364310</v>
+        <v>7364311</v>
       </c>
       <c r="C190" t="s">
         <v>68</v>
@@ -40283,142 +40286,142 @@
         <v>23</v>
       </c>
       <c r="G190" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H190" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I190">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J190">
         <v>0</v>
       </c>
       <c r="K190">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L190">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N190">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O190" t="s">
-        <v>92</v>
+        <v>202</v>
       </c>
       <c r="P190" t="s">
-        <v>226</v>
+        <v>278</v>
       </c>
       <c r="Q190">
+        <v>3.8</v>
+      </c>
+      <c r="R190">
+        <v>2.28</v>
+      </c>
+      <c r="S190">
+        <v>3.1</v>
+      </c>
+      <c r="T190">
+        <v>1.42</v>
+      </c>
+      <c r="U190">
+        <v>2.81</v>
+      </c>
+      <c r="V190">
+        <v>3.11</v>
+      </c>
+      <c r="W190">
+        <v>1.35</v>
+      </c>
+      <c r="X190">
+        <v>7</v>
+      </c>
+      <c r="Y190">
+        <v>1.08</v>
+      </c>
+      <c r="Z190">
+        <v>3.2</v>
+      </c>
+      <c r="AA190">
         <v>3.5</v>
       </c>
-      <c r="R190">
-        <v>1.83</v>
-      </c>
-      <c r="S190">
-        <v>3.6</v>
-      </c>
-      <c r="T190">
-        <v>1.63</v>
-      </c>
-      <c r="U190">
-        <v>2.24</v>
-      </c>
-      <c r="V190">
-        <v>3.86</v>
-      </c>
-      <c r="W190">
-        <v>1.22</v>
-      </c>
-      <c r="X190">
-        <v>9.35</v>
-      </c>
-      <c r="Y190">
-        <v>1.01</v>
-      </c>
-      <c r="Z190">
-        <v>2.63</v>
-      </c>
-      <c r="AA190">
-        <v>2.8</v>
-      </c>
       <c r="AB190">
-        <v>2.7</v>
+        <v>2.42</v>
       </c>
       <c r="AC190">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="AD190">
-        <v>5.52</v>
+        <v>10</v>
       </c>
       <c r="AE190">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AF190">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="AG190">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="AH190">
-        <v>1.4</v>
+        <v>1.94</v>
       </c>
       <c r="AI190">
-        <v>2.25</v>
+        <v>1.79</v>
       </c>
       <c r="AJ190">
-        <v>1.57</v>
+        <v>2.16</v>
       </c>
       <c r="AK190">
-        <v>1.37</v>
+        <v>1.68</v>
       </c>
       <c r="AL190">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AM190">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="AN190">
-        <v>1.45</v>
+        <v>0.91</v>
       </c>
       <c r="AO190">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AP190">
-        <v>1.46</v>
+        <v>1.08</v>
       </c>
       <c r="AQ190">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="AR190">
-        <v>1.19</v>
+        <v>1.52</v>
       </c>
       <c r="AS190">
-        <v>1.41</v>
+        <v>1.1</v>
       </c>
       <c r="AT190">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="AU190">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AV190">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AW190">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX190">
         <v>4</v>
       </c>
       <c r="AY190">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ190">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BA190">
         <v>4</v>
@@ -40430,43 +40433,43 @@
         <v>8</v>
       </c>
       <c r="BD190">
-        <v>2.29</v>
+        <v>1.89</v>
       </c>
       <c r="BE190">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="BF190">
-        <v>1.79</v>
+        <v>2.12</v>
       </c>
       <c r="BG190">
-        <v>1.36</v>
+        <v>1.21</v>
       </c>
       <c r="BH190">
-        <v>2.79</v>
+        <v>3.74</v>
       </c>
       <c r="BI190">
-        <v>1.71</v>
+        <v>1.4</v>
       </c>
       <c r="BJ190">
-        <v>2.09</v>
+        <v>2.64</v>
       </c>
       <c r="BK190">
-        <v>2.16</v>
+        <v>1.74</v>
       </c>
       <c r="BL190">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="BM190">
-        <v>2.84</v>
+        <v>2.17</v>
       </c>
       <c r="BN190">
-        <v>1.35</v>
+        <v>1.66</v>
       </c>
       <c r="BO190">
-        <v>3.7</v>
+        <v>2.88</v>
       </c>
       <c r="BP190">
-        <v>1.23</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="191" spans="1:68">
@@ -40597,7 +40600,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ191">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="AR191">
         <v>1.41</v>
@@ -40886,7 +40889,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>7364316</v>
+        <v>7364315</v>
       </c>
       <c r="C193" t="s">
         <v>68</v>
@@ -40901,190 +40904,190 @@
         <v>24</v>
       </c>
       <c r="G193" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H193" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J193">
         <v>0</v>
       </c>
       <c r="K193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O193" t="s">
-        <v>171</v>
+        <v>92</v>
       </c>
       <c r="P193" t="s">
-        <v>176</v>
+        <v>92</v>
       </c>
       <c r="Q193">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R193">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S193">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T193">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="U193">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V193">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="W193">
+        <v>1.33</v>
+      </c>
+      <c r="X193">
+        <v>8</v>
+      </c>
+      <c r="Y193">
+        <v>1.05</v>
+      </c>
+      <c r="Z193">
+        <v>2.5</v>
+      </c>
+      <c r="AA193">
+        <v>2.8</v>
+      </c>
+      <c r="AB193">
+        <v>3</v>
+      </c>
+      <c r="AC193">
+        <v>1.06</v>
+      </c>
+      <c r="AD193">
+        <v>7.5</v>
+      </c>
+      <c r="AE193">
+        <v>1.36</v>
+      </c>
+      <c r="AF193">
+        <v>2.9</v>
+      </c>
+      <c r="AG193">
+        <v>2.38</v>
+      </c>
+      <c r="AH193">
+        <v>1.53</v>
+      </c>
+      <c r="AI193">
+        <v>2</v>
+      </c>
+      <c r="AJ193">
+        <v>1.73</v>
+      </c>
+      <c r="AK193">
+        <v>1.36</v>
+      </c>
+      <c r="AL193">
+        <v>1.4</v>
+      </c>
+      <c r="AM193">
+        <v>1.53</v>
+      </c>
+      <c r="AN193">
+        <v>1.3</v>
+      </c>
+      <c r="AO193">
+        <v>1.42</v>
+      </c>
+      <c r="AP193">
         <v>1.25</v>
       </c>
-      <c r="X193">
-        <v>10</v>
-      </c>
-      <c r="Y193">
-        <v>1.02</v>
-      </c>
-      <c r="Z193">
-        <v>2.55</v>
-      </c>
-      <c r="AA193">
-        <v>2.7</v>
-      </c>
-      <c r="AB193">
-        <v>2.9</v>
-      </c>
-      <c r="AC193">
-        <v>1.1</v>
-      </c>
-      <c r="AD193">
-        <v>5.75</v>
-      </c>
-      <c r="AE193">
-        <v>1.5</v>
-      </c>
-      <c r="AF193">
-        <v>2.37</v>
-      </c>
-      <c r="AG193">
-        <v>2.63</v>
-      </c>
-      <c r="AH193">
-        <v>1.44</v>
-      </c>
-      <c r="AI193">
-        <v>2.2</v>
-      </c>
-      <c r="AJ193">
-        <v>1.62</v>
-      </c>
-      <c r="AK193">
+      <c r="AQ193">
         <v>1.38</v>
       </c>
-      <c r="AL193">
-        <v>1.48</v>
-      </c>
-      <c r="AM193">
-        <v>1.44</v>
-      </c>
-      <c r="AN193">
-        <v>0.3</v>
-      </c>
-      <c r="AO193">
-        <v>0.91</v>
-      </c>
-      <c r="AP193">
-        <v>0.58</v>
-      </c>
-      <c r="AQ193">
-        <v>0.92</v>
-      </c>
       <c r="AR193">
-        <v>1.2</v>
+        <v>1.69</v>
       </c>
       <c r="AS193">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="AT193">
-        <v>2.55</v>
+        <v>2.88</v>
       </c>
       <c r="AU193">
+        <v>3</v>
+      </c>
+      <c r="AV193">
+        <v>0</v>
+      </c>
+      <c r="AW193">
         <v>4</v>
       </c>
-      <c r="AV193">
+      <c r="AX193">
         <v>3</v>
       </c>
-      <c r="AW193">
+      <c r="AY193">
+        <v>7</v>
+      </c>
+      <c r="AZ193">
+        <v>3</v>
+      </c>
+      <c r="BA193">
+        <v>5</v>
+      </c>
+      <c r="BB193">
+        <v>1</v>
+      </c>
+      <c r="BC193">
         <v>6</v>
       </c>
-      <c r="AX193">
-        <v>7</v>
-      </c>
-      <c r="AY193">
-        <v>10</v>
-      </c>
-      <c r="AZ193">
-        <v>10</v>
-      </c>
-      <c r="BA193">
-        <v>4</v>
-      </c>
-      <c r="BB193">
-        <v>5</v>
-      </c>
-      <c r="BC193">
-        <v>9</v>
-      </c>
       <c r="BD193">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="BE193">
         <v>8.300000000000001</v>
       </c>
       <c r="BF193">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="BG193">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="BH193">
-        <v>2.88</v>
+        <v>3.08</v>
       </c>
       <c r="BI193">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="BJ193">
-        <v>2.15</v>
+        <v>2.26</v>
       </c>
       <c r="BK193">
-        <v>2.12</v>
+        <v>2.01</v>
       </c>
       <c r="BL193">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="BM193">
-        <v>2.78</v>
+        <v>2.57</v>
       </c>
       <c r="BN193">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="BO193">
-        <v>3.88</v>
+        <v>3.48</v>
       </c>
       <c r="BP193">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="194" spans="1:68">
@@ -41092,7 +41095,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>7364315</v>
+        <v>7364316</v>
       </c>
       <c r="C194" t="s">
         <v>68</v>
@@ -41107,190 +41110,190 @@
         <v>24</v>
       </c>
       <c r="G194" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H194" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194">
         <v>0</v>
       </c>
       <c r="K194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O194" t="s">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="P194" t="s">
-        <v>92</v>
+        <v>176</v>
       </c>
       <c r="Q194">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R194">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S194">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T194">
+        <v>1.57</v>
+      </c>
+      <c r="U194">
+        <v>2.25</v>
+      </c>
+      <c r="V194">
+        <v>3.6</v>
+      </c>
+      <c r="W194">
+        <v>1.25</v>
+      </c>
+      <c r="X194">
+        <v>10</v>
+      </c>
+      <c r="Y194">
+        <v>1.02</v>
+      </c>
+      <c r="Z194">
+        <v>2.55</v>
+      </c>
+      <c r="AA194">
+        <v>2.7</v>
+      </c>
+      <c r="AB194">
+        <v>2.9</v>
+      </c>
+      <c r="AC194">
+        <v>1.1</v>
+      </c>
+      <c r="AD194">
+        <v>5.75</v>
+      </c>
+      <c r="AE194">
+        <v>1.5</v>
+      </c>
+      <c r="AF194">
+        <v>2.37</v>
+      </c>
+      <c r="AG194">
+        <v>2.63</v>
+      </c>
+      <c r="AH194">
+        <v>1.44</v>
+      </c>
+      <c r="AI194">
+        <v>2.2</v>
+      </c>
+      <c r="AJ194">
+        <v>1.62</v>
+      </c>
+      <c r="AK194">
+        <v>1.38</v>
+      </c>
+      <c r="AL194">
         <v>1.48</v>
       </c>
-      <c r="U194">
-        <v>2.5</v>
-      </c>
-      <c r="V194">
+      <c r="AM194">
+        <v>1.44</v>
+      </c>
+      <c r="AN194">
+        <v>0.3</v>
+      </c>
+      <c r="AO194">
+        <v>0.91</v>
+      </c>
+      <c r="AP194">
+        <v>0.58</v>
+      </c>
+      <c r="AQ194">
+        <v>0.92</v>
+      </c>
+      <c r="AR194">
+        <v>1.2</v>
+      </c>
+      <c r="AS194">
+        <v>1.35</v>
+      </c>
+      <c r="AT194">
+        <v>2.55</v>
+      </c>
+      <c r="AU194">
+        <v>4</v>
+      </c>
+      <c r="AV194">
         <v>3</v>
       </c>
-      <c r="W194">
-        <v>1.33</v>
-      </c>
-      <c r="X194">
-        <v>8</v>
-      </c>
-      <c r="Y194">
-        <v>1.05</v>
-      </c>
-      <c r="Z194">
-        <v>2.5</v>
-      </c>
-      <c r="AA194">
-        <v>2.8</v>
-      </c>
-      <c r="AB194">
-        <v>3</v>
-      </c>
-      <c r="AC194">
-        <v>1.06</v>
-      </c>
-      <c r="AD194">
-        <v>7.5</v>
-      </c>
-      <c r="AE194">
-        <v>1.36</v>
-      </c>
-      <c r="AF194">
-        <v>2.9</v>
-      </c>
-      <c r="AG194">
-        <v>2.38</v>
-      </c>
-      <c r="AH194">
-        <v>1.53</v>
-      </c>
-      <c r="AI194">
-        <v>2</v>
-      </c>
-      <c r="AJ194">
-        <v>1.73</v>
-      </c>
-      <c r="AK194">
-        <v>1.36</v>
-      </c>
-      <c r="AL194">
-        <v>1.4</v>
-      </c>
-      <c r="AM194">
-        <v>1.53</v>
-      </c>
-      <c r="AN194">
-        <v>1.3</v>
-      </c>
-      <c r="AO194">
-        <v>1.42</v>
-      </c>
-      <c r="AP194">
-        <v>1.25</v>
-      </c>
-      <c r="AQ194">
-        <v>1.38</v>
-      </c>
-      <c r="AR194">
-        <v>1.69</v>
-      </c>
-      <c r="AS194">
-        <v>1.19</v>
-      </c>
-      <c r="AT194">
-        <v>2.88</v>
-      </c>
-      <c r="AU194">
-        <v>3</v>
-      </c>
-      <c r="AV194">
-        <v>0</v>
-      </c>
       <c r="AW194">
+        <v>6</v>
+      </c>
+      <c r="AX194">
+        <v>7</v>
+      </c>
+      <c r="AY194">
+        <v>10</v>
+      </c>
+      <c r="AZ194">
+        <v>10</v>
+      </c>
+      <c r="BA194">
         <v>4</v>
       </c>
-      <c r="AX194">
-        <v>3</v>
-      </c>
-      <c r="AY194">
-        <v>7</v>
-      </c>
-      <c r="AZ194">
-        <v>3</v>
-      </c>
-      <c r="BA194">
+      <c r="BB194">
         <v>5</v>
       </c>
-      <c r="BB194">
-        <v>1</v>
-      </c>
       <c r="BC194">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BD194">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="BE194">
         <v>8.300000000000001</v>
       </c>
       <c r="BF194">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="BG194">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="BH194">
-        <v>3.08</v>
+        <v>2.88</v>
       </c>
       <c r="BI194">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="BJ194">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="BK194">
-        <v>2.01</v>
+        <v>2.12</v>
       </c>
       <c r="BL194">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="BM194">
-        <v>2.57</v>
+        <v>2.78</v>
       </c>
       <c r="BN194">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="BO194">
-        <v>3.48</v>
+        <v>3.88</v>
       </c>
       <c r="BP194">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="195" spans="1:68">
@@ -41418,7 +41421,7 @@
         <v>0.27</v>
       </c>
       <c r="AP195">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AQ195">
         <v>0.23</v>
@@ -41624,7 +41627,7 @@
         <v>0.82</v>
       </c>
       <c r="AP196">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ196">
         <v>0.77</v>
@@ -42039,7 +42042,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ198">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AR198">
         <v>1.65</v>
@@ -44302,7 +44305,7 @@
         <v>1.22</v>
       </c>
       <c r="AP209">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AQ209">
         <v>1.4</v>
@@ -45624,7 +45627,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>7364336</v>
+        <v>7364335</v>
       </c>
       <c r="C216" t="s">
         <v>68</v>
@@ -45639,190 +45642,190 @@
         <v>26</v>
       </c>
       <c r="G216" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H216" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216">
         <v>0</v>
       </c>
       <c r="K216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N216">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O216" t="s">
-        <v>214</v>
+        <v>92</v>
       </c>
       <c r="P216" t="s">
         <v>314</v>
       </c>
       <c r="Q216">
-        <v>2.88</v>
+        <v>7</v>
       </c>
       <c r="R216">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S216">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T216">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="U216">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="V216">
-        <v>3.54</v>
+        <v>3.04</v>
       </c>
       <c r="W216">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="X216">
-        <v>9.800000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="Y216">
+        <v>1.06</v>
+      </c>
+      <c r="Z216">
+        <v>7</v>
+      </c>
+      <c r="AA216">
+        <v>3.9</v>
+      </c>
+      <c r="AB216">
+        <v>1.42</v>
+      </c>
+      <c r="AC216">
         <v>1.03</v>
       </c>
-      <c r="Z216">
-        <v>2.15</v>
-      </c>
-      <c r="AA216">
-        <v>3.1</v>
-      </c>
-      <c r="AB216">
-        <v>3.25</v>
-      </c>
-      <c r="AC216">
-        <v>1.08</v>
-      </c>
       <c r="AD216">
-        <v>5.9</v>
+        <v>7.9</v>
       </c>
       <c r="AE216">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="AF216">
-        <v>2.45</v>
+        <v>2.98</v>
       </c>
       <c r="AG216">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="AH216">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AI216">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="AJ216">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="AK216">
-        <v>1.25</v>
+        <v>2.42</v>
       </c>
       <c r="AL216">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="AM216">
-        <v>1.52</v>
+        <v>1.07</v>
       </c>
       <c r="AN216">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="AO216">
-        <v>0.92</v>
+        <v>2.11</v>
       </c>
       <c r="AP216">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ216">
-        <v>0.92</v>
+        <v>2.2</v>
       </c>
       <c r="AR216">
-        <v>1.64</v>
+        <v>1.42</v>
       </c>
       <c r="AS216">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT216">
-        <v>2.97</v>
+        <v>3.17</v>
       </c>
       <c r="AU216">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AV216">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW216">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX216">
         <v>3</v>
       </c>
       <c r="AY216">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AZ216">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA216">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BB216">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BC216">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BD216">
-        <v>1.59</v>
+        <v>4.6</v>
       </c>
       <c r="BE216">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="BF216">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="BG216">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="BH216">
-        <v>2.88</v>
+        <v>3.18</v>
       </c>
       <c r="BI216">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="BJ216">
-        <v>2.16</v>
+        <v>2.27</v>
       </c>
       <c r="BK216">
-        <v>2.12</v>
+        <v>1.99</v>
       </c>
       <c r="BL216">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="BM216">
-        <v>2.75</v>
+        <v>2.52</v>
       </c>
       <c r="BN216">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="BO216">
-        <v>3.88</v>
+        <v>3.48</v>
       </c>
       <c r="BP216">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="217" spans="1:68">
@@ -45830,7 +45833,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>7364335</v>
+        <v>7364336</v>
       </c>
       <c r="C217" t="s">
         <v>68</v>
@@ -45845,190 +45848,602 @@
         <v>26</v>
       </c>
       <c r="G217" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H217" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217">
         <v>0</v>
       </c>
       <c r="K217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N217">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O217" t="s">
-        <v>92</v>
+        <v>214</v>
       </c>
       <c r="P217" t="s">
         <v>315</v>
       </c>
       <c r="Q217">
+        <v>2.88</v>
+      </c>
+      <c r="R217">
+        <v>1.95</v>
+      </c>
+      <c r="S217">
+        <v>4</v>
+      </c>
+      <c r="T217">
+        <v>1.6</v>
+      </c>
+      <c r="U217">
+        <v>2.25</v>
+      </c>
+      <c r="V217">
+        <v>3.54</v>
+      </c>
+      <c r="W217">
+        <v>1.27</v>
+      </c>
+      <c r="X217">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y217">
+        <v>1.03</v>
+      </c>
+      <c r="Z217">
+        <v>2.15</v>
+      </c>
+      <c r="AA217">
+        <v>3.1</v>
+      </c>
+      <c r="AB217">
+        <v>3.25</v>
+      </c>
+      <c r="AC217">
+        <v>1.08</v>
+      </c>
+      <c r="AD217">
+        <v>5.9</v>
+      </c>
+      <c r="AE217">
+        <v>1.46</v>
+      </c>
+      <c r="AF217">
+        <v>2.45</v>
+      </c>
+      <c r="AG217">
+        <v>2.35</v>
+      </c>
+      <c r="AH217">
+        <v>1.57</v>
+      </c>
+      <c r="AI217">
+        <v>2</v>
+      </c>
+      <c r="AJ217">
+        <v>1.73</v>
+      </c>
+      <c r="AK217">
+        <v>1.25</v>
+      </c>
+      <c r="AL217">
+        <v>1.32</v>
+      </c>
+      <c r="AM217">
+        <v>1.52</v>
+      </c>
+      <c r="AN217">
+        <v>1.27</v>
+      </c>
+      <c r="AO217">
+        <v>0.92</v>
+      </c>
+      <c r="AP217">
+        <v>1.25</v>
+      </c>
+      <c r="AQ217">
+        <v>0.92</v>
+      </c>
+      <c r="AR217">
+        <v>1.64</v>
+      </c>
+      <c r="AS217">
+        <v>1.33</v>
+      </c>
+      <c r="AT217">
+        <v>2.97</v>
+      </c>
+      <c r="AU217">
         <v>7</v>
       </c>
-      <c r="R217">
-        <v>2.1</v>
-      </c>
-      <c r="S217">
-        <v>2</v>
-      </c>
-      <c r="T217">
-        <v>1.45</v>
-      </c>
-      <c r="U217">
-        <v>2.63</v>
-      </c>
-      <c r="V217">
-        <v>3.04</v>
-      </c>
-      <c r="W217">
-        <v>1.35</v>
-      </c>
-      <c r="X217">
-        <v>7.9</v>
-      </c>
-      <c r="Y217">
-        <v>1.06</v>
-      </c>
-      <c r="Z217">
-        <v>7</v>
-      </c>
-      <c r="AA217">
-        <v>3.9</v>
-      </c>
-      <c r="AB217">
-        <v>1.42</v>
-      </c>
-      <c r="AC217">
-        <v>1.03</v>
-      </c>
-      <c r="AD217">
-        <v>7.9</v>
-      </c>
-      <c r="AE217">
-        <v>1.32</v>
-      </c>
-      <c r="AF217">
-        <v>2.98</v>
-      </c>
-      <c r="AG217">
-        <v>2.05</v>
-      </c>
-      <c r="AH217">
-        <v>1.75</v>
-      </c>
-      <c r="AI217">
-        <v>2.38</v>
-      </c>
-      <c r="AJ217">
-        <v>1.53</v>
-      </c>
-      <c r="AK217">
-        <v>2.42</v>
-      </c>
-      <c r="AL217">
-        <v>1.22</v>
-      </c>
-      <c r="AM217">
-        <v>1.07</v>
-      </c>
-      <c r="AN217">
-        <v>1.5</v>
-      </c>
-      <c r="AO217">
-        <v>2.11</v>
-      </c>
-      <c r="AP217">
-        <v>1.38</v>
-      </c>
-      <c r="AQ217">
-        <v>2.2</v>
-      </c>
-      <c r="AR217">
-        <v>1.42</v>
-      </c>
-      <c r="AS217">
-        <v>1.75</v>
-      </c>
-      <c r="AT217">
-        <v>3.17</v>
-      </c>
-      <c r="AU217">
-        <v>2</v>
-      </c>
       <c r="AV217">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW217">
         <v>5</v>
       </c>
       <c r="AX217">
+        <v>2</v>
+      </c>
+      <c r="AY217">
+        <v>12</v>
+      </c>
+      <c r="AZ217">
+        <v>7</v>
+      </c>
+      <c r="BA217">
         <v>3</v>
       </c>
-      <c r="AY217">
+      <c r="BB217">
+        <v>2</v>
+      </c>
+      <c r="BC217">
+        <v>5</v>
+      </c>
+      <c r="BD217">
+        <v>1.59</v>
+      </c>
+      <c r="BE217">
+        <v>6.4</v>
+      </c>
+      <c r="BF217">
+        <v>3</v>
+      </c>
+      <c r="BG217">
+        <v>1.34</v>
+      </c>
+      <c r="BH217">
+        <v>2.88</v>
+      </c>
+      <c r="BI217">
+        <v>1.68</v>
+      </c>
+      <c r="BJ217">
+        <v>2.16</v>
+      </c>
+      <c r="BK217">
+        <v>2.12</v>
+      </c>
+      <c r="BL217">
+        <v>1.71</v>
+      </c>
+      <c r="BM217">
+        <v>2.75</v>
+      </c>
+      <c r="BN217">
+        <v>1.37</v>
+      </c>
+      <c r="BO217">
+        <v>3.88</v>
+      </c>
+      <c r="BP217">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:68">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>7364338</v>
+      </c>
+      <c r="C218" t="s">
+        <v>68</v>
+      </c>
+      <c r="D218" t="s">
+        <v>69</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45462.54166666666</v>
+      </c>
+      <c r="F218">
+        <v>26</v>
+      </c>
+      <c r="G218" t="s">
+        <v>87</v>
+      </c>
+      <c r="H218" t="s">
+        <v>82</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>1</v>
+      </c>
+      <c r="K218">
+        <v>1</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+      <c r="M218">
+        <v>1</v>
+      </c>
+      <c r="N218">
+        <v>1</v>
+      </c>
+      <c r="O218" t="s">
+        <v>92</v>
+      </c>
+      <c r="P218" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q218">
+        <v>3.1</v>
+      </c>
+      <c r="R218">
+        <v>2</v>
+      </c>
+      <c r="S218">
+        <v>3.5</v>
+      </c>
+      <c r="T218">
+        <v>1.5</v>
+      </c>
+      <c r="U218">
+        <v>2.4</v>
+      </c>
+      <c r="V218">
+        <v>3.2</v>
+      </c>
+      <c r="W218">
+        <v>1.3</v>
+      </c>
+      <c r="X218">
+        <v>7.9</v>
+      </c>
+      <c r="Y218">
+        <v>1.06</v>
+      </c>
+      <c r="Z218">
+        <v>2.38</v>
+      </c>
+      <c r="AA218">
+        <v>2.8</v>
+      </c>
+      <c r="AB218">
+        <v>3.1</v>
+      </c>
+      <c r="AC218">
+        <v>1.1</v>
+      </c>
+      <c r="AD218">
+        <v>6.25</v>
+      </c>
+      <c r="AE218">
+        <v>1.44</v>
+      </c>
+      <c r="AF218">
+        <v>2.65</v>
+      </c>
+      <c r="AG218">
+        <v>2.2</v>
+      </c>
+      <c r="AH218">
+        <v>1.65</v>
+      </c>
+      <c r="AI218">
+        <v>1.83</v>
+      </c>
+      <c r="AJ218">
+        <v>1.83</v>
+      </c>
+      <c r="AK218">
+        <v>1.3</v>
+      </c>
+      <c r="AL218">
+        <v>1.36</v>
+      </c>
+      <c r="AM218">
+        <v>1.53</v>
+      </c>
+      <c r="AN218">
+        <v>1.77</v>
+      </c>
+      <c r="AO218">
+        <v>1.67</v>
+      </c>
+      <c r="AP218">
+        <v>1.64</v>
+      </c>
+      <c r="AQ218">
+        <v>1.77</v>
+      </c>
+      <c r="AR218">
+        <v>1.55</v>
+      </c>
+      <c r="AS218">
+        <v>1.41</v>
+      </c>
+      <c r="AT218">
+        <v>2.96</v>
+      </c>
+      <c r="AU218">
         <v>7</v>
       </c>
-      <c r="AZ217">
-        <v>9</v>
-      </c>
-      <c r="BA217">
-        <v>1</v>
-      </c>
-      <c r="BB217">
+      <c r="AV218">
+        <v>4</v>
+      </c>
+      <c r="AW218">
         <v>8</v>
       </c>
-      <c r="BC217">
-        <v>9</v>
-      </c>
-      <c r="BD217">
-        <v>4.6</v>
-      </c>
-      <c r="BE217">
-        <v>7.6</v>
-      </c>
-      <c r="BF217">
-        <v>1.3</v>
-      </c>
-      <c r="BG217">
+      <c r="AX218">
+        <v>2</v>
+      </c>
+      <c r="AY218">
+        <v>15</v>
+      </c>
+      <c r="AZ218">
+        <v>6</v>
+      </c>
+      <c r="BA218">
+        <v>12</v>
+      </c>
+      <c r="BB218">
+        <v>2</v>
+      </c>
+      <c r="BC218">
+        <v>14</v>
+      </c>
+      <c r="BD218">
+        <v>1.65</v>
+      </c>
+      <c r="BE218">
+        <v>6.3</v>
+      </c>
+      <c r="BF218">
+        <v>2.83</v>
+      </c>
+      <c r="BG218">
         <v>1.28</v>
       </c>
-      <c r="BH217">
-        <v>3.18</v>
-      </c>
-      <c r="BI217">
-        <v>1.61</v>
-      </c>
-      <c r="BJ217">
-        <v>2.27</v>
-      </c>
-      <c r="BK217">
-        <v>1.99</v>
-      </c>
-      <c r="BL217">
-        <v>1.81</v>
-      </c>
-      <c r="BM217">
+      <c r="BH218">
+        <v>3.2</v>
+      </c>
+      <c r="BI218">
+        <v>1.58</v>
+      </c>
+      <c r="BJ218">
+        <v>2.31</v>
+      </c>
+      <c r="BK218">
+        <v>1.97</v>
+      </c>
+      <c r="BL218">
+        <v>1.82</v>
+      </c>
+      <c r="BM218">
         <v>2.52</v>
       </c>
-      <c r="BN217">
+      <c r="BN218">
         <v>1.5</v>
       </c>
-      <c r="BO217">
-        <v>3.48</v>
-      </c>
-      <c r="BP217">
-        <v>1.24</v>
+      <c r="BO218">
+        <v>3.42</v>
+      </c>
+      <c r="BP218">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="219" spans="1:68">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>7364337</v>
+      </c>
+      <c r="C219" t="s">
+        <v>68</v>
+      </c>
+      <c r="D219" t="s">
+        <v>69</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45462.54166666666</v>
+      </c>
+      <c r="F219">
+        <v>26</v>
+      </c>
+      <c r="G219" t="s">
+        <v>81</v>
+      </c>
+      <c r="H219" t="s">
+        <v>78</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>1</v>
+      </c>
+      <c r="K219">
+        <v>1</v>
+      </c>
+      <c r="L219">
+        <v>0</v>
+      </c>
+      <c r="M219">
+        <v>2</v>
+      </c>
+      <c r="N219">
+        <v>2</v>
+      </c>
+      <c r="O219" t="s">
+        <v>92</v>
+      </c>
+      <c r="P219" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q219">
+        <v>7.5</v>
+      </c>
+      <c r="R219">
+        <v>2.38</v>
+      </c>
+      <c r="S219">
+        <v>1.8</v>
+      </c>
+      <c r="T219">
+        <v>1.33</v>
+      </c>
+      <c r="U219">
+        <v>3.22</v>
+      </c>
+      <c r="V219">
+        <v>2.67</v>
+      </c>
+      <c r="W219">
+        <v>1.45</v>
+      </c>
+      <c r="X219">
+        <v>6</v>
+      </c>
+      <c r="Y219">
+        <v>1.11</v>
+      </c>
+      <c r="Z219">
+        <v>8</v>
+      </c>
+      <c r="AA219">
+        <v>4.5</v>
+      </c>
+      <c r="AB219">
+        <v>1.33</v>
+      </c>
+      <c r="AC219">
+        <v>1.02</v>
+      </c>
+      <c r="AD219">
+        <v>10</v>
+      </c>
+      <c r="AE219">
+        <v>1.22</v>
+      </c>
+      <c r="AF219">
+        <v>3.8</v>
+      </c>
+      <c r="AG219">
+        <v>1.8</v>
+      </c>
+      <c r="AH219">
+        <v>2</v>
+      </c>
+      <c r="AI219">
+        <v>2.2</v>
+      </c>
+      <c r="AJ219">
+        <v>1.62</v>
+      </c>
+      <c r="AK219">
+        <v>3.3</v>
+      </c>
+      <c r="AL219">
+        <v>1.16</v>
+      </c>
+      <c r="AM219">
+        <v>1.04</v>
+      </c>
+      <c r="AN219">
+        <v>1.08</v>
+      </c>
+      <c r="AO219">
+        <v>2.5</v>
+      </c>
+      <c r="AP219">
+        <v>1</v>
+      </c>
+      <c r="AQ219">
+        <v>2.55</v>
+      </c>
+      <c r="AR219">
+        <v>1.27</v>
+      </c>
+      <c r="AS219">
+        <v>1.68</v>
+      </c>
+      <c r="AT219">
+        <v>2.95</v>
+      </c>
+      <c r="AU219">
+        <v>0</v>
+      </c>
+      <c r="AV219">
+        <v>6</v>
+      </c>
+      <c r="AW219">
+        <v>3</v>
+      </c>
+      <c r="AX219">
+        <v>11</v>
+      </c>
+      <c r="AY219">
+        <v>3</v>
+      </c>
+      <c r="AZ219">
+        <v>17</v>
+      </c>
+      <c r="BA219">
+        <v>4</v>
+      </c>
+      <c r="BB219">
+        <v>8</v>
+      </c>
+      <c r="BC219">
+        <v>12</v>
+      </c>
+      <c r="BD219">
+        <v>5.5</v>
+      </c>
+      <c r="BE219">
+        <v>8.1</v>
+      </c>
+      <c r="BF219">
+        <v>1.23</v>
+      </c>
+      <c r="BG219">
+        <v>1.28</v>
+      </c>
+      <c r="BH219">
+        <v>3.2</v>
+      </c>
+      <c r="BI219">
+        <v>1.58</v>
+      </c>
+      <c r="BJ219">
+        <v>2.31</v>
+      </c>
+      <c r="BK219">
+        <v>1.96</v>
+      </c>
+      <c r="BL219">
+        <v>1.83</v>
+      </c>
+      <c r="BM219">
+        <v>2.46</v>
+      </c>
+      <c r="BN219">
+        <v>1.52</v>
+      </c>
+      <c r="BO219">
+        <v>3.42</v>
+      </c>
+      <c r="BP219">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="320">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -659,6 +659,15 @@
   </si>
   <si>
     <t>['34', '90+13']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['15', '51']</t>
+  </si>
+  <si>
+    <t>['19', '84']</t>
   </si>
   <si>
     <t>['16', '75']</t>
@@ -1326,7 +1335,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP219"/>
+  <dimension ref="A1:BP222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2075,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ4">
         <v>1.69</v>
@@ -2281,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ5">
         <v>1.5</v>
@@ -2409,7 +2418,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2821,7 +2830,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3233,7 +3242,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3645,7 +3654,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3723,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3851,7 +3860,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -4057,7 +4066,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4138,7 +4147,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ14">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4756,7 +4765,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ17">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5087,7 +5096,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5499,7 +5508,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5705,7 +5714,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5911,7 +5920,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -5989,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ23">
         <v>1.69</v>
@@ -6323,7 +6332,7 @@
         <v>105</v>
       </c>
       <c r="P25" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q25">
         <v>3.75</v>
@@ -6529,7 +6538,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6607,7 +6616,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ26">
         <v>0.83</v>
@@ -7228,7 +7237,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ29">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7353,7 +7362,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7559,7 +7568,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7637,7 +7646,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
         <v>1.08</v>
@@ -7971,7 +7980,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8464,7 +8473,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ35">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR35">
         <v>1.17</v>
@@ -8589,7 +8598,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -9001,7 +9010,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9207,7 +9216,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9413,7 +9422,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9903,7 +9912,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ42">
         <v>0.83</v>
@@ -10031,7 +10040,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10237,7 +10246,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10443,7 +10452,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10521,7 +10530,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
         <v>1.92</v>
@@ -10936,7 +10945,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ47">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR47">
         <v>1.07</v>
@@ -11061,7 +11070,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q48">
         <v>6.5</v>
@@ -11142,7 +11151,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ48">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR48">
         <v>1.22</v>
@@ -11267,7 +11276,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q49">
         <v>3.4</v>
@@ -11348,7 +11357,7 @@
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR49">
         <v>1.3</v>
@@ -11679,7 +11688,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11885,7 +11894,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12091,7 +12100,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12172,7 +12181,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ53">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR53">
         <v>1.61</v>
@@ -12378,7 +12387,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ54">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR54">
         <v>1.42</v>
@@ -12503,7 +12512,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12787,7 +12796,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ56">
         <v>1.08</v>
@@ -12915,7 +12924,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13327,7 +13336,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q59">
         <v>3.25</v>
@@ -13739,7 +13748,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -14023,7 +14032,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ62">
         <v>0.75</v>
@@ -14151,7 +14160,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14357,7 +14366,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14438,7 +14447,7 @@
         <v>2</v>
       </c>
       <c r="AQ64">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR64">
         <v>1.58</v>
@@ -14563,7 +14572,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14769,7 +14778,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -15262,7 +15271,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ68">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR68">
         <v>1.07</v>
@@ -15387,7 +15396,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -16005,7 +16014,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q72">
         <v>1.8</v>
@@ -16289,7 +16298,7 @@
         <v>1.25</v>
       </c>
       <c r="AP73">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ73">
         <v>1.08</v>
@@ -16417,7 +16426,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q74">
         <v>3.25</v>
@@ -16623,7 +16632,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -17035,7 +17044,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17241,7 +17250,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17447,7 +17456,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17528,7 +17537,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ79">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR79">
         <v>1.49</v>
@@ -17653,7 +17662,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17734,7 +17743,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ80">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR80">
         <v>2.17</v>
@@ -18683,7 +18692,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18761,7 +18770,7 @@
         <v>1.33</v>
       </c>
       <c r="AP85">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ85">
         <v>1.38</v>
@@ -18889,7 +18898,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19095,7 +19104,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19507,7 +19516,7 @@
         <v>147</v>
       </c>
       <c r="P89" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q89">
         <v>3.5</v>
@@ -19713,7 +19722,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -21155,7 +21164,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21773,7 +21782,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -21851,10 +21860,10 @@
         <v>0.6</v>
       </c>
       <c r="AP100">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ100">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR100">
         <v>0.96</v>
@@ -22185,7 +22194,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22391,7 +22400,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23215,7 +23224,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23499,7 +23508,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ108">
         <v>0.75</v>
@@ -23627,7 +23636,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23911,10 +23920,10 @@
         <v>0.2</v>
       </c>
       <c r="AP110">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ110">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR110">
         <v>1.52</v>
@@ -24039,7 +24048,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24657,7 +24666,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -24944,7 +24953,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ115">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR115">
         <v>1.53</v>
@@ -25356,7 +25365,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ117">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR117">
         <v>2.07</v>
@@ -25687,7 +25696,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25893,7 +25902,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -26099,7 +26108,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26177,7 +26186,7 @@
         <v>1.75</v>
       </c>
       <c r="AP121">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ121">
         <v>2.55</v>
@@ -26717,7 +26726,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -26923,7 +26932,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -27129,7 +27138,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q126">
         <v>6</v>
@@ -27210,7 +27219,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ126">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR126">
         <v>1.42</v>
@@ -27335,7 +27344,7 @@
         <v>148</v>
       </c>
       <c r="P127" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q127">
         <v>2.6</v>
@@ -27747,7 +27756,7 @@
         <v>94</v>
       </c>
       <c r="P129" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q129">
         <v>3.4</v>
@@ -28034,7 +28043,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ130">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR130">
         <v>1.42</v>
@@ -28159,7 +28168,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28446,7 +28455,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ132">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR132">
         <v>1.11</v>
@@ -28777,7 +28786,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -28855,7 +28864,7 @@
         <v>1.71</v>
       </c>
       <c r="AP134">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ134">
         <v>1.5</v>
@@ -28983,7 +28992,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29189,7 +29198,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29473,7 +29482,7 @@
         <v>1.86</v>
       </c>
       <c r="AP137">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ137">
         <v>1.38</v>
@@ -29682,7 +29691,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ138">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR138">
         <v>1.91</v>
@@ -29807,7 +29816,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q139">
         <v>3.15</v>
@@ -30219,7 +30228,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -30425,7 +30434,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q142">
         <v>3.75</v>
@@ -30503,10 +30512,10 @@
         <v>2</v>
       </c>
       <c r="AP142">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ142">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR142">
         <v>1.73</v>
@@ -30837,7 +30846,7 @@
         <v>92</v>
       </c>
       <c r="P144" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -31124,7 +31133,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ145">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR145">
         <v>1.15</v>
@@ -31249,7 +31258,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31536,7 +31545,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ147">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR147">
         <v>1.15</v>
@@ -31661,7 +31670,7 @@
         <v>108</v>
       </c>
       <c r="P148" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q148">
         <v>3.25</v>
@@ -32279,7 +32288,7 @@
         <v>184</v>
       </c>
       <c r="P151" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q151">
         <v>3.2</v>
@@ -32563,7 +32572,7 @@
         <v>1.88</v>
       </c>
       <c r="AP152">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ152">
         <v>1.77</v>
@@ -32897,7 +32906,7 @@
         <v>129</v>
       </c>
       <c r="P154" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33309,7 +33318,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q156">
         <v>1.91</v>
@@ -33515,7 +33524,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34008,7 +34017,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ159">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR159">
         <v>1.5</v>
@@ -34339,7 +34348,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34420,7 +34429,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ161">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR161">
         <v>1.63</v>
@@ -34545,7 +34554,7 @@
         <v>151</v>
       </c>
       <c r="P162" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -34626,7 +34635,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ162">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR162">
         <v>1.39</v>
@@ -34751,7 +34760,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -35035,7 +35044,7 @@
         <v>0.89</v>
       </c>
       <c r="AP164">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ164">
         <v>0.77</v>
@@ -35369,7 +35378,7 @@
         <v>191</v>
       </c>
       <c r="P166" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35575,7 +35584,7 @@
         <v>92</v>
       </c>
       <c r="P167" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q167">
         <v>3</v>
@@ -35781,7 +35790,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
@@ -35987,7 +35996,7 @@
         <v>192</v>
       </c>
       <c r="P169" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -36065,7 +36074,7 @@
         <v>1</v>
       </c>
       <c r="AP169">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ169">
         <v>1</v>
@@ -36271,7 +36280,7 @@
         <v>1.63</v>
       </c>
       <c r="AP170">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ170">
         <v>1.17</v>
@@ -36399,7 +36408,7 @@
         <v>194</v>
       </c>
       <c r="P171" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -36811,7 +36820,7 @@
         <v>92</v>
       </c>
       <c r="P173" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q173">
         <v>4.8</v>
@@ -37301,7 +37310,7 @@
         <v>1.4</v>
       </c>
       <c r="AP175">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ175">
         <v>1.38</v>
@@ -37510,7 +37519,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ176">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR176">
         <v>1.36</v>
@@ -37635,7 +37644,7 @@
         <v>129</v>
       </c>
       <c r="P177" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q177">
         <v>3.25</v>
@@ -38047,7 +38056,7 @@
         <v>118</v>
       </c>
       <c r="P179" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38128,7 +38137,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ179">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR179">
         <v>1.36</v>
@@ -38665,7 +38674,7 @@
         <v>92</v>
       </c>
       <c r="P182" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q182">
         <v>4.33</v>
@@ -38871,7 +38880,7 @@
         <v>200</v>
       </c>
       <c r="P183" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q183">
         <v>9</v>
@@ -38952,7 +38961,7 @@
         <v>1</v>
       </c>
       <c r="AQ183">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR183">
         <v>1.28</v>
@@ -39077,7 +39086,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q184">
         <v>3.4</v>
@@ -39283,7 +39292,7 @@
         <v>108</v>
       </c>
       <c r="P185" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -39567,7 +39576,7 @@
         <v>1.44</v>
       </c>
       <c r="AP186">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ186">
         <v>1.17</v>
@@ -40107,7 +40116,7 @@
         <v>92</v>
       </c>
       <c r="P189" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q189">
         <v>3.5</v>
@@ -40313,7 +40322,7 @@
         <v>202</v>
       </c>
       <c r="P190" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q190">
         <v>3.8</v>
@@ -40519,7 +40528,7 @@
         <v>92</v>
       </c>
       <c r="P191" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -41218,7 +41227,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ194">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR194">
         <v>1.2</v>
@@ -41424,7 +41433,7 @@
         <v>1</v>
       </c>
       <c r="AQ195">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR195">
         <v>1.26</v>
@@ -42039,7 +42048,7 @@
         <v>1.73</v>
       </c>
       <c r="AP198">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ198">
         <v>1.77</v>
@@ -42167,7 +42176,7 @@
         <v>171</v>
       </c>
       <c r="P199" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q199">
         <v>3.5</v>
@@ -42373,7 +42382,7 @@
         <v>204</v>
       </c>
       <c r="P200" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q200">
         <v>3.75</v>
@@ -42657,7 +42666,7 @@
         <v>1.09</v>
       </c>
       <c r="AP201">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AQ201">
         <v>1</v>
@@ -42785,7 +42794,7 @@
         <v>206</v>
       </c>
       <c r="P202" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q202">
         <v>3.2</v>
@@ -43609,7 +43618,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q206">
         <v>4.5</v>
@@ -43815,7 +43824,7 @@
         <v>208</v>
       </c>
       <c r="P207" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q207">
         <v>2.75</v>
@@ -44227,7 +44236,7 @@
         <v>194</v>
       </c>
       <c r="P209" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q209">
         <v>3.5</v>
@@ -44433,7 +44442,7 @@
         <v>179</v>
       </c>
       <c r="P210" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q210">
         <v>7.5</v>
@@ -44514,7 +44523,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ210">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR210">
         <v>1.33</v>
@@ -44639,7 +44648,7 @@
         <v>210</v>
       </c>
       <c r="P211" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q211">
         <v>3.75</v>
@@ -44845,7 +44854,7 @@
         <v>94</v>
       </c>
       <c r="P212" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q212">
         <v>3.4</v>
@@ -45051,7 +45060,7 @@
         <v>211</v>
       </c>
       <c r="P213" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q213">
         <v>2.78</v>
@@ -45129,7 +45138,7 @@
         <v>1.58</v>
       </c>
       <c r="AP213">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ213">
         <v>1.69</v>
@@ -45257,7 +45266,7 @@
         <v>212</v>
       </c>
       <c r="P214" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q214">
         <v>3.2</v>
@@ -45463,7 +45472,7 @@
         <v>213</v>
       </c>
       <c r="P215" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q215">
         <v>2.2</v>
@@ -45544,7 +45553,7 @@
         <v>2</v>
       </c>
       <c r="AQ215">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AR215">
         <v>1.49</v>
@@ -45669,7 +45678,7 @@
         <v>92</v>
       </c>
       <c r="P216" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q216">
         <v>7</v>
@@ -45750,7 +45759,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ216">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AR216">
         <v>1.42</v>
@@ -45875,7 +45884,7 @@
         <v>214</v>
       </c>
       <c r="P217" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q217">
         <v>2.88</v>
@@ -45956,7 +45965,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ217">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR217">
         <v>1.64</v>
@@ -46081,7 +46090,7 @@
         <v>92</v>
       </c>
       <c r="P218" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q218">
         <v>3.1</v>
@@ -46287,7 +46296,7 @@
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q219">
         <v>7.5</v>
@@ -46444,6 +46453,624 @@
       </c>
       <c r="BP219">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="220" spans="1:68">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>7364364</v>
+      </c>
+      <c r="C220" t="s">
+        <v>68</v>
+      </c>
+      <c r="D220" t="s">
+        <v>69</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45464.54166666666</v>
+      </c>
+      <c r="F220">
+        <v>12</v>
+      </c>
+      <c r="G220" t="s">
+        <v>73</v>
+      </c>
+      <c r="H220" t="s">
+        <v>72</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220">
+        <v>1</v>
+      </c>
+      <c r="K220">
+        <v>2</v>
+      </c>
+      <c r="L220">
+        <v>1</v>
+      </c>
+      <c r="M220">
+        <v>2</v>
+      </c>
+      <c r="N220">
+        <v>3</v>
+      </c>
+      <c r="O220" t="s">
+        <v>215</v>
+      </c>
+      <c r="P220" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q220">
+        <v>0</v>
+      </c>
+      <c r="R220">
+        <v>0</v>
+      </c>
+      <c r="S220">
+        <v>0</v>
+      </c>
+      <c r="T220">
+        <v>0</v>
+      </c>
+      <c r="U220">
+        <v>0</v>
+      </c>
+      <c r="V220">
+        <v>0</v>
+      </c>
+      <c r="W220">
+        <v>0</v>
+      </c>
+      <c r="X220">
+        <v>0</v>
+      </c>
+      <c r="Y220">
+        <v>0</v>
+      </c>
+      <c r="Z220">
+        <v>0</v>
+      </c>
+      <c r="AA220">
+        <v>0</v>
+      </c>
+      <c r="AB220">
+        <v>0</v>
+      </c>
+      <c r="AC220">
+        <v>0</v>
+      </c>
+      <c r="AD220">
+        <v>0</v>
+      </c>
+      <c r="AE220">
+        <v>0</v>
+      </c>
+      <c r="AF220">
+        <v>0</v>
+      </c>
+      <c r="AG220">
+        <v>0</v>
+      </c>
+      <c r="AH220">
+        <v>0</v>
+      </c>
+      <c r="AI220">
+        <v>0</v>
+      </c>
+      <c r="AJ220">
+        <v>0</v>
+      </c>
+      <c r="AK220">
+        <v>0</v>
+      </c>
+      <c r="AL220">
+        <v>0</v>
+      </c>
+      <c r="AM220">
+        <v>0</v>
+      </c>
+      <c r="AN220">
+        <v>1</v>
+      </c>
+      <c r="AO220">
+        <v>2.2</v>
+      </c>
+      <c r="AP220">
+        <v>0.92</v>
+      </c>
+      <c r="AQ220">
+        <v>2.27</v>
+      </c>
+      <c r="AR220">
+        <v>0.96</v>
+      </c>
+      <c r="AS220">
+        <v>1.71</v>
+      </c>
+      <c r="AT220">
+        <v>2.67</v>
+      </c>
+      <c r="AU220">
+        <v>-1</v>
+      </c>
+      <c r="AV220">
+        <v>-1</v>
+      </c>
+      <c r="AW220">
+        <v>-1</v>
+      </c>
+      <c r="AX220">
+        <v>-1</v>
+      </c>
+      <c r="AY220">
+        <v>-1</v>
+      </c>
+      <c r="AZ220">
+        <v>-1</v>
+      </c>
+      <c r="BA220">
+        <v>1</v>
+      </c>
+      <c r="BB220">
+        <v>7</v>
+      </c>
+      <c r="BC220">
+        <v>8</v>
+      </c>
+      <c r="BD220">
+        <v>0</v>
+      </c>
+      <c r="BE220">
+        <v>0</v>
+      </c>
+      <c r="BF220">
+        <v>0</v>
+      </c>
+      <c r="BG220">
+        <v>0</v>
+      </c>
+      <c r="BH220">
+        <v>0</v>
+      </c>
+      <c r="BI220">
+        <v>0</v>
+      </c>
+      <c r="BJ220">
+        <v>0</v>
+      </c>
+      <c r="BK220">
+        <v>0</v>
+      </c>
+      <c r="BL220">
+        <v>0</v>
+      </c>
+      <c r="BM220">
+        <v>0</v>
+      </c>
+      <c r="BN220">
+        <v>0</v>
+      </c>
+      <c r="BO220">
+        <v>0</v>
+      </c>
+      <c r="BP220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:68">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>7217699</v>
+      </c>
+      <c r="C221" t="s">
+        <v>68</v>
+      </c>
+      <c r="D221" t="s">
+        <v>69</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45464.54166666666</v>
+      </c>
+      <c r="F221">
+        <v>12</v>
+      </c>
+      <c r="G221" t="s">
+        <v>80</v>
+      </c>
+      <c r="H221" t="s">
+        <v>76</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>1</v>
+      </c>
+      <c r="L221">
+        <v>2</v>
+      </c>
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <v>2</v>
+      </c>
+      <c r="O221" t="s">
+        <v>216</v>
+      </c>
+      <c r="P221" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q221">
+        <v>2.25</v>
+      </c>
+      <c r="R221">
+        <v>2.1</v>
+      </c>
+      <c r="S221">
+        <v>5.5</v>
+      </c>
+      <c r="T221">
+        <v>1.4</v>
+      </c>
+      <c r="U221">
+        <v>2.75</v>
+      </c>
+      <c r="V221">
+        <v>3</v>
+      </c>
+      <c r="W221">
+        <v>1.33</v>
+      </c>
+      <c r="X221">
+        <v>7.5</v>
+      </c>
+      <c r="Y221">
+        <v>1.06</v>
+      </c>
+      <c r="Z221">
+        <v>1.65</v>
+      </c>
+      <c r="AA221">
+        <v>3.5</v>
+      </c>
+      <c r="AB221">
+        <v>5</v>
+      </c>
+      <c r="AC221">
+        <v>1.03</v>
+      </c>
+      <c r="AD221">
+        <v>8.5</v>
+      </c>
+      <c r="AE221">
+        <v>1.32</v>
+      </c>
+      <c r="AF221">
+        <v>2.98</v>
+      </c>
+      <c r="AG221">
+        <v>2.08</v>
+      </c>
+      <c r="AH221">
+        <v>1.73</v>
+      </c>
+      <c r="AI221">
+        <v>2</v>
+      </c>
+      <c r="AJ221">
+        <v>1.73</v>
+      </c>
+      <c r="AK221">
+        <v>1.12</v>
+      </c>
+      <c r="AL221">
+        <v>1.26</v>
+      </c>
+      <c r="AM221">
+        <v>2.25</v>
+      </c>
+      <c r="AN221">
+        <v>1.89</v>
+      </c>
+      <c r="AO221">
+        <v>0.92</v>
+      </c>
+      <c r="AP221">
+        <v>2</v>
+      </c>
+      <c r="AQ221">
+        <v>0.86</v>
+      </c>
+      <c r="AR221">
+        <v>1.69</v>
+      </c>
+      <c r="AS221">
+        <v>1.33</v>
+      </c>
+      <c r="AT221">
+        <v>3.02</v>
+      </c>
+      <c r="AU221">
+        <v>8</v>
+      </c>
+      <c r="AV221">
+        <v>0</v>
+      </c>
+      <c r="AW221">
+        <v>5</v>
+      </c>
+      <c r="AX221">
+        <v>8</v>
+      </c>
+      <c r="AY221">
+        <v>13</v>
+      </c>
+      <c r="AZ221">
+        <v>8</v>
+      </c>
+      <c r="BA221">
+        <v>9</v>
+      </c>
+      <c r="BB221">
+        <v>4</v>
+      </c>
+      <c r="BC221">
+        <v>13</v>
+      </c>
+      <c r="BD221">
+        <v>1.37</v>
+      </c>
+      <c r="BE221">
+        <v>8</v>
+      </c>
+      <c r="BF221">
+        <v>4.26</v>
+      </c>
+      <c r="BG221">
+        <v>1.38</v>
+      </c>
+      <c r="BH221">
+        <v>2.8</v>
+      </c>
+      <c r="BI221">
+        <v>1.66</v>
+      </c>
+      <c r="BJ221">
+        <v>2.2</v>
+      </c>
+      <c r="BK221">
+        <v>2.09</v>
+      </c>
+      <c r="BL221">
+        <v>1.72</v>
+      </c>
+      <c r="BM221">
+        <v>2.62</v>
+      </c>
+      <c r="BN221">
+        <v>1.42</v>
+      </c>
+      <c r="BO221">
+        <v>3.4</v>
+      </c>
+      <c r="BP221">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="222" spans="1:68">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>7217698</v>
+      </c>
+      <c r="C222" t="s">
+        <v>68</v>
+      </c>
+      <c r="D222" t="s">
+        <v>69</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45477.54166666666</v>
+      </c>
+      <c r="F222">
+        <v>29</v>
+      </c>
+      <c r="G222" t="s">
+        <v>72</v>
+      </c>
+      <c r="H222" t="s">
+        <v>73</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222">
+        <v>1</v>
+      </c>
+      <c r="K222">
+        <v>2</v>
+      </c>
+      <c r="L222">
+        <v>2</v>
+      </c>
+      <c r="M222">
+        <v>1</v>
+      </c>
+      <c r="N222">
+        <v>3</v>
+      </c>
+      <c r="O222" t="s">
+        <v>217</v>
+      </c>
+      <c r="P222" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q222">
+        <v>1.53</v>
+      </c>
+      <c r="R222">
+        <v>2.63</v>
+      </c>
+      <c r="S222">
+        <v>11</v>
+      </c>
+      <c r="T222">
+        <v>1.27</v>
+      </c>
+      <c r="U222">
+        <v>3.3</v>
+      </c>
+      <c r="V222">
+        <v>2.35</v>
+      </c>
+      <c r="W222">
+        <v>1.5</v>
+      </c>
+      <c r="X222">
+        <v>4.9</v>
+      </c>
+      <c r="Y222">
+        <v>1.13</v>
+      </c>
+      <c r="Z222">
+        <v>1.16</v>
+      </c>
+      <c r="AA222">
+        <v>6</v>
+      </c>
+      <c r="AB222">
+        <v>13</v>
+      </c>
+      <c r="AC222">
+        <v>1.02</v>
+      </c>
+      <c r="AD222">
+        <v>10</v>
+      </c>
+      <c r="AE222">
+        <v>1.15</v>
+      </c>
+      <c r="AF222">
+        <v>4.6</v>
+      </c>
+      <c r="AG222">
+        <v>1.6</v>
+      </c>
+      <c r="AH222">
+        <v>2.2</v>
+      </c>
+      <c r="AI222">
+        <v>2.63</v>
+      </c>
+      <c r="AJ222">
+        <v>1.44</v>
+      </c>
+      <c r="AK222">
+        <v>1.01</v>
+      </c>
+      <c r="AL222">
+        <v>1.04</v>
+      </c>
+      <c r="AM222">
+        <v>4.6</v>
+      </c>
+      <c r="AN222">
+        <v>2.43</v>
+      </c>
+      <c r="AO222">
+        <v>0.23</v>
+      </c>
+      <c r="AP222">
+        <v>2.5</v>
+      </c>
+      <c r="AQ222">
+        <v>0.21</v>
+      </c>
+      <c r="AR222">
+        <v>1.73</v>
+      </c>
+      <c r="AS222">
+        <v>1.06</v>
+      </c>
+      <c r="AT222">
+        <v>2.79</v>
+      </c>
+      <c r="AU222">
+        <v>6</v>
+      </c>
+      <c r="AV222">
+        <v>2</v>
+      </c>
+      <c r="AW222">
+        <v>11</v>
+      </c>
+      <c r="AX222">
+        <v>2</v>
+      </c>
+      <c r="AY222">
+        <v>17</v>
+      </c>
+      <c r="AZ222">
+        <v>4</v>
+      </c>
+      <c r="BA222">
+        <v>7</v>
+      </c>
+      <c r="BB222">
+        <v>1</v>
+      </c>
+      <c r="BC222">
+        <v>8</v>
+      </c>
+      <c r="BD222">
+        <v>1.14</v>
+      </c>
+      <c r="BE222">
+        <v>20</v>
+      </c>
+      <c r="BF222">
+        <v>6.12</v>
+      </c>
+      <c r="BG222">
+        <v>1.29</v>
+      </c>
+      <c r="BH222">
+        <v>3.3</v>
+      </c>
+      <c r="BI222">
+        <v>1.55</v>
+      </c>
+      <c r="BJ222">
+        <v>2.37</v>
+      </c>
+      <c r="BK222">
+        <v>1.95</v>
+      </c>
+      <c r="BL222">
+        <v>1.85</v>
+      </c>
+      <c r="BM222">
+        <v>2.49</v>
+      </c>
+      <c r="BN222">
+        <v>1.5</v>
+      </c>
+      <c r="BO222">
+        <v>2.9</v>
+      </c>
+      <c r="BP222">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="324">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -670,6 +670,9 @@
     <t>['11', '70']</t>
   </si>
   <si>
+    <t>['59', '63', '68']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -980,6 +983,9 @@
   </si>
   <si>
     <t>['36', '48']</t>
+  </si>
+  <si>
+    <t>['14', '86']</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP223"/>
+  <dimension ref="A1:BP226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1887,7 +1893,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ3">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2424,7 +2430,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2836,7 +2842,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3123,7 +3129,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3248,7 +3254,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3326,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ10">
         <v>1.4</v>
@@ -3660,7 +3666,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3741,7 +3747,7 @@
         <v>2</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3866,7 +3872,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -4072,7 +4078,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4150,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ14">
         <v>0.23</v>
@@ -4768,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ17">
         <v>0.86</v>
@@ -5102,7 +5108,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5389,7 +5395,7 @@
         <v>2</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR20">
         <v>1.31</v>
@@ -5514,7 +5520,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5720,7 +5726,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5801,7 +5807,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR22">
         <v>1.22</v>
@@ -5926,7 +5932,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -6132,7 +6138,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6622,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ26">
         <v>1.5</v>
@@ -6750,7 +6756,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q27">
         <v>1.91</v>
@@ -6831,7 +6837,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ27">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>2</v>
@@ -7034,7 +7040,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ28">
         <v>1.15</v>
@@ -7368,7 +7374,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7780,7 +7786,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7986,7 +7992,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8270,7 +8276,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ34">
         <v>2.55</v>
@@ -8604,7 +8610,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -8682,7 +8688,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ36">
         <v>1.69</v>
@@ -9016,7 +9022,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9222,7 +9228,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9428,7 +9434,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9509,7 +9515,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR40">
         <v>1.72</v>
@@ -9715,7 +9721,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR41">
         <v>1.48</v>
@@ -9921,7 +9927,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ42">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>0.84</v>
@@ -10046,7 +10052,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10252,7 +10258,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10458,7 +10464,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -11076,7 +11082,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11282,7 +11288,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11488,7 +11494,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11772,7 +11778,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ51">
         <v>1.5</v>
@@ -11900,7 +11906,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11978,7 +11984,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ52">
         <v>0.77</v>
@@ -12106,7 +12112,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12518,7 +12524,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12596,10 +12602,10 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ55">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR55">
         <v>1.67</v>
@@ -12930,7 +12936,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13008,7 +13014,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ57">
         <v>1.4</v>
@@ -13548,7 +13554,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13629,7 +13635,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR60">
         <v>1.41</v>
@@ -13960,7 +13966,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q62">
         <v>3.25</v>
@@ -14166,7 +14172,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14247,7 +14253,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR63">
         <v>1</v>
@@ -14372,7 +14378,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14578,7 +14584,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14784,7 +14790,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -15402,7 +15408,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15686,10 +15692,10 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR70">
         <v>1.2</v>
@@ -15814,7 +15820,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q71">
         <v>1.8</v>
@@ -15892,7 +15898,7 @@
         <v>1.67</v>
       </c>
       <c r="AP71">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ71">
         <v>0.75</v>
@@ -16098,7 +16104,7 @@
         <v>1.75</v>
       </c>
       <c r="AP72">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ72">
         <v>1.4</v>
@@ -16432,7 +16438,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q74">
         <v>3.25</v>
@@ -16513,7 +16519,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ74">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR74">
         <v>1.37</v>
@@ -16638,7 +16644,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16925,7 +16931,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ76">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR76">
         <v>1.17</v>
@@ -17050,7 +17056,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17256,7 +17262,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17462,7 +17468,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17668,7 +17674,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -18161,7 +18167,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR82">
         <v>1.14</v>
@@ -18698,7 +18704,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18904,7 +18910,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -18982,10 +18988,10 @@
         <v>0.2</v>
       </c>
       <c r="AP86">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ86">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR86">
         <v>1.42</v>
@@ -19110,7 +19116,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19522,7 +19528,7 @@
         <v>147</v>
       </c>
       <c r="P89" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q89">
         <v>3.5</v>
@@ -19728,7 +19734,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -20427,7 +20433,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ93">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR93">
         <v>1.44</v>
@@ -21042,7 +21048,7 @@
         <v>1.75</v>
       </c>
       <c r="AP96">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ96">
         <v>1.38</v>
@@ -21170,7 +21176,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21248,10 +21254,10 @@
         <v>0.83</v>
       </c>
       <c r="AP97">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ97">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR97">
         <v>1.11</v>
@@ -21788,7 +21794,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -22072,7 +22078,7 @@
         <v>1.2</v>
       </c>
       <c r="AP101">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ101">
         <v>0.75</v>
@@ -22200,7 +22206,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22281,7 +22287,7 @@
         <v>1</v>
       </c>
       <c r="AQ102">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR102">
         <v>1.24</v>
@@ -22406,7 +22412,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22899,7 +22905,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ105">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR105">
         <v>1.44</v>
@@ -23230,7 +23236,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23642,7 +23648,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24054,7 +24060,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24341,7 +24347,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ112">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR112">
         <v>1.82</v>
@@ -24672,7 +24678,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -25162,7 +25168,7 @@
         <v>1.17</v>
       </c>
       <c r="AP116">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ116">
         <v>1.07</v>
@@ -25368,7 +25374,7 @@
         <v>0.67</v>
       </c>
       <c r="AP117">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ117">
         <v>0.86</v>
@@ -25574,7 +25580,7 @@
         <v>1.71</v>
       </c>
       <c r="AP118">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ118">
         <v>1.92</v>
@@ -25702,7 +25708,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25908,7 +25914,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -25989,7 +25995,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ120">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR120">
         <v>1.23</v>
@@ -26114,7 +26120,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26401,7 +26407,7 @@
         <v>2</v>
       </c>
       <c r="AQ122">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR122">
         <v>1.59</v>
@@ -26732,7 +26738,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -26938,7 +26944,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27144,7 +27150,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27350,7 +27356,7 @@
         <v>148</v>
       </c>
       <c r="P127" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q127">
         <v>2.6</v>
@@ -27762,7 +27768,7 @@
         <v>94</v>
       </c>
       <c r="P129" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q129">
         <v>3.4</v>
@@ -27843,7 +27849,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ129">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR129">
         <v>1.41</v>
@@ -27968,7 +27974,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q130">
         <v>2.6</v>
@@ -28046,7 +28052,7 @@
         <v>1.67</v>
       </c>
       <c r="AP130">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ130">
         <v>1.38</v>
@@ -28664,7 +28670,7 @@
         <v>1.29</v>
       </c>
       <c r="AP133">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ133">
         <v>1.15</v>
@@ -28792,7 +28798,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -28998,7 +29004,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29204,7 +29210,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29282,7 +29288,7 @@
         <v>1.83</v>
       </c>
       <c r="AP136">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ136">
         <v>1.77</v>
@@ -29822,7 +29828,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q139">
         <v>3.15</v>
@@ -30234,7 +30240,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -30440,7 +30446,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q142">
         <v>3.75</v>
@@ -30852,7 +30858,7 @@
         <v>92</v>
       </c>
       <c r="P144" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -31264,7 +31270,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31470,7 +31476,7 @@
         <v>108</v>
       </c>
       <c r="P147" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31754,7 +31760,7 @@
         <v>0.75</v>
       </c>
       <c r="AP148">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ148">
         <v>0.86</v>
@@ -31963,7 +31969,7 @@
         <v>1</v>
       </c>
       <c r="AQ149">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR149">
         <v>1.23</v>
@@ -32294,7 +32300,7 @@
         <v>184</v>
       </c>
       <c r="P151" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q151">
         <v>3.2</v>
@@ -32375,7 +32381,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ151">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR151">
         <v>1.4</v>
@@ -32912,7 +32918,7 @@
         <v>128</v>
       </c>
       <c r="P154" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33324,7 +33330,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q156">
         <v>1.91</v>
@@ -33402,7 +33408,7 @@
         <v>1</v>
       </c>
       <c r="AP156">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ156">
         <v>0.77</v>
@@ -33530,7 +33536,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34020,7 +34026,7 @@
         <v>0.33</v>
       </c>
       <c r="AP159">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ159">
         <v>0.23</v>
@@ -34354,7 +34360,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34560,7 +34566,7 @@
         <v>151</v>
       </c>
       <c r="P162" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -34766,7 +34772,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -35256,7 +35262,7 @@
         <v>1.44</v>
       </c>
       <c r="AP165">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ165">
         <v>1.15</v>
@@ -35384,7 +35390,7 @@
         <v>92</v>
       </c>
       <c r="P166" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q166">
         <v>3</v>
@@ -35465,7 +35471,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ166">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR166">
         <v>1.75</v>
@@ -35590,7 +35596,7 @@
         <v>191</v>
       </c>
       <c r="P167" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35796,7 +35802,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
@@ -35877,7 +35883,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ168">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR168">
         <v>1.5</v>
@@ -36208,7 +36214,7 @@
         <v>193</v>
       </c>
       <c r="P170" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q170">
         <v>6</v>
@@ -36289,7 +36295,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ170">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR170">
         <v>0.93</v>
@@ -36620,7 +36626,7 @@
         <v>194</v>
       </c>
       <c r="P172" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -36826,7 +36832,7 @@
         <v>92</v>
       </c>
       <c r="P173" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q173">
         <v>4.8</v>
@@ -37110,7 +37116,7 @@
         <v>1.78</v>
       </c>
       <c r="AP174">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ174">
         <v>1.77</v>
@@ -37650,7 +37656,7 @@
         <v>128</v>
       </c>
       <c r="P177" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q177">
         <v>3.25</v>
@@ -38062,7 +38068,7 @@
         <v>118</v>
       </c>
       <c r="P179" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38346,7 +38352,7 @@
         <v>0.8</v>
       </c>
       <c r="AP180">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ180">
         <v>0.77</v>
@@ -38680,7 +38686,7 @@
         <v>200</v>
       </c>
       <c r="P182" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q182">
         <v>9</v>
@@ -38886,7 +38892,7 @@
         <v>92</v>
       </c>
       <c r="P183" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q183">
         <v>4.33</v>
@@ -38964,7 +38970,7 @@
         <v>2.38</v>
       </c>
       <c r="AP183">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ183">
         <v>2.55</v>
@@ -39092,7 +39098,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q184">
         <v>3.4</v>
@@ -39298,7 +39304,7 @@
         <v>108</v>
       </c>
       <c r="P185" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -39379,7 +39385,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ185">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR185">
         <v>1.47</v>
@@ -39994,10 +40000,10 @@
         <v>1.22</v>
       </c>
       <c r="AP188">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ188">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR188">
         <v>2.01</v>
@@ -40122,7 +40128,7 @@
         <v>202</v>
       </c>
       <c r="P189" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q189">
         <v>3.8</v>
@@ -40328,7 +40334,7 @@
         <v>92</v>
       </c>
       <c r="P190" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q190">
         <v>3.5</v>
@@ -40534,7 +40540,7 @@
         <v>92</v>
       </c>
       <c r="P191" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -40818,7 +40824,7 @@
         <v>1.6</v>
       </c>
       <c r="AP192">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AQ192">
         <v>1.5</v>
@@ -42182,7 +42188,7 @@
         <v>172</v>
       </c>
       <c r="P199" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q199">
         <v>3.5</v>
@@ -42388,7 +42394,7 @@
         <v>204</v>
       </c>
       <c r="P200" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q200">
         <v>3.75</v>
@@ -42469,7 +42475,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ200">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AR200">
         <v>1.16</v>
@@ -42675,7 +42681,7 @@
         <v>0.92</v>
       </c>
       <c r="AQ201">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR201">
         <v>0.93</v>
@@ -42800,7 +42806,7 @@
         <v>206</v>
       </c>
       <c r="P202" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q202">
         <v>3.2</v>
@@ -42881,7 +42887,7 @@
         <v>1.08</v>
       </c>
       <c r="AQ202">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR202">
         <v>1.51</v>
@@ -43290,7 +43296,7 @@
         <v>1.64</v>
       </c>
       <c r="AP204">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ204">
         <v>1.69</v>
@@ -43496,7 +43502,7 @@
         <v>1.4</v>
       </c>
       <c r="AP205">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ205">
         <v>1.08</v>
@@ -43624,7 +43630,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q206">
         <v>4.5</v>
@@ -43908,7 +43914,7 @@
         <v>1.17</v>
       </c>
       <c r="AP207">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AQ207">
         <v>1.07</v>
@@ -44036,7 +44042,7 @@
         <v>209</v>
       </c>
       <c r="P208" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q208">
         <v>2.75</v>
@@ -44114,7 +44120,7 @@
         <v>1.27</v>
       </c>
       <c r="AP208">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ208">
         <v>1.08</v>
@@ -44242,7 +44248,7 @@
         <v>194</v>
       </c>
       <c r="P209" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q209">
         <v>3.5</v>
@@ -44448,7 +44454,7 @@
         <v>179</v>
       </c>
       <c r="P210" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q210">
         <v>7.5</v>
@@ -44654,7 +44660,7 @@
         <v>210</v>
       </c>
       <c r="P211" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q211">
         <v>3.75</v>
@@ -44860,7 +44866,7 @@
         <v>94</v>
       </c>
       <c r="P212" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q212">
         <v>3.4</v>
@@ -45066,7 +45072,7 @@
         <v>211</v>
       </c>
       <c r="P213" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q213">
         <v>2.78</v>
@@ -45272,7 +45278,7 @@
         <v>212</v>
       </c>
       <c r="P214" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q214">
         <v>3.2</v>
@@ -45478,7 +45484,7 @@
         <v>213</v>
       </c>
       <c r="P215" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q215">
         <v>2.2</v>
@@ -45684,7 +45690,7 @@
         <v>92</v>
       </c>
       <c r="P216" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q216">
         <v>7</v>
@@ -45890,7 +45896,7 @@
         <v>214</v>
       </c>
       <c r="P217" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q217">
         <v>2.88</v>
@@ -46096,7 +46102,7 @@
         <v>92</v>
       </c>
       <c r="P218" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q218">
         <v>3.1</v>
@@ -46302,7 +46308,7 @@
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q219">
         <v>7.5</v>
@@ -46508,7 +46514,7 @@
         <v>215</v>
       </c>
       <c r="P220" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q220">
         <v>0</v>
@@ -47126,7 +47132,7 @@
         <v>217</v>
       </c>
       <c r="P223" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q223">
         <v>3.4</v>
@@ -47283,6 +47289,624 @@
       </c>
       <c r="BP223">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="224" spans="1:68">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>7364341</v>
+      </c>
+      <c r="C224" t="s">
+        <v>68</v>
+      </c>
+      <c r="D224" t="s">
+        <v>69</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45466.41666666666</v>
+      </c>
+      <c r="F224">
+        <v>27</v>
+      </c>
+      <c r="G224" t="s">
+        <v>82</v>
+      </c>
+      <c r="H224" t="s">
+        <v>86</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>1</v>
+      </c>
+      <c r="K224">
+        <v>1</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>1</v>
+      </c>
+      <c r="N224">
+        <v>1</v>
+      </c>
+      <c r="O224" t="s">
+        <v>92</v>
+      </c>
+      <c r="P224" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q224">
+        <v>3.35</v>
+      </c>
+      <c r="R224">
+        <v>2</v>
+      </c>
+      <c r="S224">
+        <v>4.2</v>
+      </c>
+      <c r="T224">
+        <v>1.55</v>
+      </c>
+      <c r="U224">
+        <v>2.3</v>
+      </c>
+      <c r="V224">
+        <v>3.5</v>
+      </c>
+      <c r="W224">
+        <v>1.25</v>
+      </c>
+      <c r="X224">
+        <v>10.2</v>
+      </c>
+      <c r="Y224">
+        <v>1.03</v>
+      </c>
+      <c r="Z224">
+        <v>2</v>
+      </c>
+      <c r="AA224">
+        <v>3</v>
+      </c>
+      <c r="AB224">
+        <v>3.6</v>
+      </c>
+      <c r="AC224">
+        <v>1.11</v>
+      </c>
+      <c r="AD224">
+        <v>6</v>
+      </c>
+      <c r="AE224">
+        <v>1.55</v>
+      </c>
+      <c r="AF224">
+        <v>2.3</v>
+      </c>
+      <c r="AG224">
+        <v>2.5</v>
+      </c>
+      <c r="AH224">
+        <v>1.5</v>
+      </c>
+      <c r="AI224">
+        <v>2.2</v>
+      </c>
+      <c r="AJ224">
+        <v>1.71</v>
+      </c>
+      <c r="AK224">
+        <v>1.3</v>
+      </c>
+      <c r="AL224">
+        <v>1.33</v>
+      </c>
+      <c r="AM224">
+        <v>1.6</v>
+      </c>
+      <c r="AN224">
+        <v>1.25</v>
+      </c>
+      <c r="AO224">
+        <v>0.83</v>
+      </c>
+      <c r="AP224">
+        <v>1.15</v>
+      </c>
+      <c r="AQ224">
+        <v>1</v>
+      </c>
+      <c r="AR224">
+        <v>1.16</v>
+      </c>
+      <c r="AS224">
+        <v>1.56</v>
+      </c>
+      <c r="AT224">
+        <v>2.72</v>
+      </c>
+      <c r="AU224">
+        <v>6</v>
+      </c>
+      <c r="AV224">
+        <v>2</v>
+      </c>
+      <c r="AW224">
+        <v>5</v>
+      </c>
+      <c r="AX224">
+        <v>3</v>
+      </c>
+      <c r="AY224">
+        <v>11</v>
+      </c>
+      <c r="AZ224">
+        <v>5</v>
+      </c>
+      <c r="BA224">
+        <v>9</v>
+      </c>
+      <c r="BB224">
+        <v>12</v>
+      </c>
+      <c r="BC224">
+        <v>21</v>
+      </c>
+      <c r="BD224">
+        <v>1.68</v>
+      </c>
+      <c r="BE224">
+        <v>6.3</v>
+      </c>
+      <c r="BF224">
+        <v>2.75</v>
+      </c>
+      <c r="BG224">
+        <v>1.36</v>
+      </c>
+      <c r="BH224">
+        <v>2.79</v>
+      </c>
+      <c r="BI224">
+        <v>1.72</v>
+      </c>
+      <c r="BJ224">
+        <v>2.08</v>
+      </c>
+      <c r="BK224">
+        <v>2.17</v>
+      </c>
+      <c r="BL224">
+        <v>1.66</v>
+      </c>
+      <c r="BM224">
+        <v>2.84</v>
+      </c>
+      <c r="BN224">
+        <v>1.35</v>
+      </c>
+      <c r="BO224">
+        <v>3.6</v>
+      </c>
+      <c r="BP224">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="225" spans="1:68">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>7364342</v>
+      </c>
+      <c r="C225" t="s">
+        <v>68</v>
+      </c>
+      <c r="D225" t="s">
+        <v>69</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45466.54166666666</v>
+      </c>
+      <c r="F225">
+        <v>27</v>
+      </c>
+      <c r="G225" t="s">
+        <v>85</v>
+      </c>
+      <c r="H225" t="s">
+        <v>87</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>1</v>
+      </c>
+      <c r="K225">
+        <v>1</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>2</v>
+      </c>
+      <c r="N225">
+        <v>2</v>
+      </c>
+      <c r="O225" t="s">
+        <v>92</v>
+      </c>
+      <c r="P225" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q225">
+        <v>3</v>
+      </c>
+      <c r="R225">
+        <v>2.1</v>
+      </c>
+      <c r="S225">
+        <v>3.25</v>
+      </c>
+      <c r="T225">
+        <v>1.4</v>
+      </c>
+      <c r="U225">
+        <v>2.75</v>
+      </c>
+      <c r="V225">
+        <v>2.8</v>
+      </c>
+      <c r="W225">
+        <v>1.38</v>
+      </c>
+      <c r="X225">
+        <v>7.2</v>
+      </c>
+      <c r="Y225">
+        <v>1.08</v>
+      </c>
+      <c r="Z225">
+        <v>2.38</v>
+      </c>
+      <c r="AA225">
+        <v>3.1</v>
+      </c>
+      <c r="AB225">
+        <v>2.7</v>
+      </c>
+      <c r="AC225">
+        <v>1.06</v>
+      </c>
+      <c r="AD225">
+        <v>8</v>
+      </c>
+      <c r="AE225">
+        <v>1.3</v>
+      </c>
+      <c r="AF225">
+        <v>3.25</v>
+      </c>
+      <c r="AG225">
+        <v>1.95</v>
+      </c>
+      <c r="AH225">
+        <v>1.85</v>
+      </c>
+      <c r="AI225">
+        <v>1.73</v>
+      </c>
+      <c r="AJ225">
+        <v>2</v>
+      </c>
+      <c r="AK225">
+        <v>1.36</v>
+      </c>
+      <c r="AL225">
+        <v>1.3</v>
+      </c>
+      <c r="AM225">
+        <v>1.53</v>
+      </c>
+      <c r="AN225">
+        <v>1.67</v>
+      </c>
+      <c r="AO225">
+        <v>1</v>
+      </c>
+      <c r="AP225">
+        <v>1.54</v>
+      </c>
+      <c r="AQ225">
+        <v>1.17</v>
+      </c>
+      <c r="AR225">
+        <v>1.45</v>
+      </c>
+      <c r="AS225">
+        <v>1.69</v>
+      </c>
+      <c r="AT225">
+        <v>3.14</v>
+      </c>
+      <c r="AU225">
+        <v>3</v>
+      </c>
+      <c r="AV225">
+        <v>6</v>
+      </c>
+      <c r="AW225">
+        <v>5</v>
+      </c>
+      <c r="AX225">
+        <v>2</v>
+      </c>
+      <c r="AY225">
+        <v>8</v>
+      </c>
+      <c r="AZ225">
+        <v>8</v>
+      </c>
+      <c r="BA225">
+        <v>3</v>
+      </c>
+      <c r="BB225">
+        <v>2</v>
+      </c>
+      <c r="BC225">
+        <v>5</v>
+      </c>
+      <c r="BD225">
+        <v>1.93</v>
+      </c>
+      <c r="BE225">
+        <v>6.15</v>
+      </c>
+      <c r="BF225">
+        <v>2.29</v>
+      </c>
+      <c r="BG225">
+        <v>1.25</v>
+      </c>
+      <c r="BH225">
+        <v>3.42</v>
+      </c>
+      <c r="BI225">
+        <v>1.7</v>
+      </c>
+      <c r="BJ225">
+        <v>2.1</v>
+      </c>
+      <c r="BK225">
+        <v>2.11</v>
+      </c>
+      <c r="BL225">
+        <v>1.7</v>
+      </c>
+      <c r="BM225">
+        <v>2.42</v>
+      </c>
+      <c r="BN225">
+        <v>1.53</v>
+      </c>
+      <c r="BO225">
+        <v>3.2</v>
+      </c>
+      <c r="BP225">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="226" spans="1:68">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>7364343</v>
+      </c>
+      <c r="C226" t="s">
+        <v>68</v>
+      </c>
+      <c r="D226" t="s">
+        <v>69</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45466.54166666666</v>
+      </c>
+      <c r="F226">
+        <v>27</v>
+      </c>
+      <c r="G226" t="s">
+        <v>78</v>
+      </c>
+      <c r="H226" t="s">
+        <v>74</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>1</v>
+      </c>
+      <c r="K226">
+        <v>1</v>
+      </c>
+      <c r="L226">
+        <v>3</v>
+      </c>
+      <c r="M226">
+        <v>1</v>
+      </c>
+      <c r="N226">
+        <v>4</v>
+      </c>
+      <c r="O226" t="s">
+        <v>218</v>
+      </c>
+      <c r="P226" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q226">
+        <v>1.9</v>
+      </c>
+      <c r="R226">
+        <v>2.62</v>
+      </c>
+      <c r="S226">
+        <v>9.4</v>
+      </c>
+      <c r="T226">
+        <v>1.36</v>
+      </c>
+      <c r="U226">
+        <v>2.9</v>
+      </c>
+      <c r="V226">
+        <v>2.7</v>
+      </c>
+      <c r="W226">
+        <v>1.4</v>
+      </c>
+      <c r="X226">
+        <v>6.65</v>
+      </c>
+      <c r="Y226">
+        <v>1.09</v>
+      </c>
+      <c r="Z226">
+        <v>1.25</v>
+      </c>
+      <c r="AA226">
+        <v>4.75</v>
+      </c>
+      <c r="AB226">
+        <v>9.5</v>
+      </c>
+      <c r="AC226">
+        <v>1.04</v>
+      </c>
+      <c r="AD226">
+        <v>9</v>
+      </c>
+      <c r="AE226">
+        <v>1.25</v>
+      </c>
+      <c r="AF226">
+        <v>3.6</v>
+      </c>
+      <c r="AG226">
+        <v>1.95</v>
+      </c>
+      <c r="AH226">
+        <v>1.85</v>
+      </c>
+      <c r="AI226">
+        <v>2.24</v>
+      </c>
+      <c r="AJ226">
+        <v>1.7</v>
+      </c>
+      <c r="AK226">
+        <v>1.06</v>
+      </c>
+      <c r="AL226">
+        <v>1.17</v>
+      </c>
+      <c r="AM226">
+        <v>2.65</v>
+      </c>
+      <c r="AN226">
+        <v>2.38</v>
+      </c>
+      <c r="AO226">
+        <v>1</v>
+      </c>
+      <c r="AP226">
+        <v>2.43</v>
+      </c>
+      <c r="AQ226">
+        <v>0.92</v>
+      </c>
+      <c r="AR226">
+        <v>1.92</v>
+      </c>
+      <c r="AS226">
+        <v>1.24</v>
+      </c>
+      <c r="AT226">
+        <v>3.16</v>
+      </c>
+      <c r="AU226">
+        <v>7</v>
+      </c>
+      <c r="AV226">
+        <v>5</v>
+      </c>
+      <c r="AW226">
+        <v>3</v>
+      </c>
+      <c r="AX226">
+        <v>0</v>
+      </c>
+      <c r="AY226">
+        <v>10</v>
+      </c>
+      <c r="AZ226">
+        <v>5</v>
+      </c>
+      <c r="BA226">
+        <v>8</v>
+      </c>
+      <c r="BB226">
+        <v>0</v>
+      </c>
+      <c r="BC226">
+        <v>8</v>
+      </c>
+      <c r="BD226">
+        <v>1.18</v>
+      </c>
+      <c r="BE226">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF226">
+        <v>6.4</v>
+      </c>
+      <c r="BG226">
+        <v>1.26</v>
+      </c>
+      <c r="BH226">
+        <v>3.34</v>
+      </c>
+      <c r="BI226">
+        <v>1.6</v>
+      </c>
+      <c r="BJ226">
+        <v>2.26</v>
+      </c>
+      <c r="BK226">
+        <v>2.02</v>
+      </c>
+      <c r="BL226">
+        <v>1.79</v>
+      </c>
+      <c r="BM226">
+        <v>2.57</v>
+      </c>
+      <c r="BN226">
+        <v>1.48</v>
+      </c>
+      <c r="BO226">
+        <v>3.28</v>
+      </c>
+      <c r="BP226">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="325">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -671,6 +671,9 @@
   </si>
   <si>
     <t>['59', '63', '68']</t>
+  </si>
+  <si>
+    <t>['19', '53', '72', '86', '90+1']</t>
   </si>
   <si>
     <t>['16', '75']</t>
@@ -1347,7 +1350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP226"/>
+  <dimension ref="A1:BP229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2302,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ5">
         <v>1.5</v>
@@ -2430,7 +2433,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2511,7 +2514,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ6">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2842,7 +2845,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2920,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
         <v>1.77</v>
@@ -3254,7 +3257,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3538,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ11">
         <v>2.55</v>
@@ -3666,7 +3669,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3872,7 +3875,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -4078,7 +4081,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4571,7 +4574,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ16">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4983,7 +4986,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ18">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5108,7 +5111,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5189,7 +5192,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ19">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR19">
         <v>1.91</v>
@@ -5520,7 +5523,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5726,7 +5729,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5804,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
         <v>1.17</v>
@@ -5932,7 +5935,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -6010,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ23">
         <v>1.69</v>
@@ -6138,7 +6141,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6216,7 +6219,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ24">
         <v>1.4</v>
@@ -6756,7 +6759,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q27">
         <v>1.91</v>
@@ -7374,7 +7377,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7455,7 +7458,7 @@
         <v>1</v>
       </c>
       <c r="AQ30">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR30">
         <v>1.5</v>
@@ -7786,7 +7789,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7992,7 +7995,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8073,7 +8076,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ33">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR33">
         <v>1.31</v>
@@ -8610,7 +8613,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -9022,7 +9025,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9100,7 +9103,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
         <v>1.08</v>
@@ -9228,7 +9231,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9434,7 +9437,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9924,7 +9927,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -10052,7 +10055,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10130,7 +10133,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ43">
         <v>1.77</v>
@@ -10258,7 +10261,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10339,7 +10342,7 @@
         <v>2</v>
       </c>
       <c r="AQ44">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR44">
         <v>1.33</v>
@@ -10464,7 +10467,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10545,7 +10548,7 @@
         <v>2</v>
       </c>
       <c r="AQ45">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR45">
         <v>1.58</v>
@@ -11082,7 +11085,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11288,7 +11291,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11494,7 +11497,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11906,7 +11909,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12112,7 +12115,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12524,7 +12527,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12936,7 +12939,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13223,7 +13226,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ58">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR58">
         <v>1.7</v>
@@ -13554,7 +13557,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13632,7 +13635,7 @@
         <v>0.33</v>
       </c>
       <c r="AP60">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ60">
         <v>0.92</v>
@@ -13838,10 +13841,10 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ61">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR61">
         <v>0.8100000000000001</v>
@@ -13966,7 +13969,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q62">
         <v>3.25</v>
@@ -14172,7 +14175,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14250,7 +14253,7 @@
         <v>0.33</v>
       </c>
       <c r="AP63">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ63">
         <v>1.17</v>
@@ -14378,7 +14381,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14584,7 +14587,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14790,7 +14793,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -15408,7 +15411,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15486,7 +15489,7 @@
         <v>1.5</v>
       </c>
       <c r="AP69">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ69">
         <v>1.08</v>
@@ -15820,7 +15823,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q71">
         <v>1.8</v>
@@ -15901,7 +15904,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ71">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR71">
         <v>1.89</v>
@@ -16310,7 +16313,7 @@
         <v>1.25</v>
       </c>
       <c r="AP73">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ73">
         <v>1.07</v>
@@ -16438,7 +16441,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q74">
         <v>3.25</v>
@@ -16644,7 +16647,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -16722,10 +16725,10 @@
         <v>2</v>
       </c>
       <c r="AP75">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ75">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR75">
         <v>1.39</v>
@@ -17056,7 +17059,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17262,7 +17265,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17468,7 +17471,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17674,7 +17677,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -18164,7 +18167,7 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ82">
         <v>0.92</v>
@@ -18373,7 +18376,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ83">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR83">
         <v>1.06</v>
@@ -18579,7 +18582,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ84">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR84">
         <v>1.49</v>
@@ -18704,7 +18707,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18782,10 +18785,10 @@
         <v>1.33</v>
       </c>
       <c r="AP85">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ85">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR85">
         <v>0.83</v>
@@ -18910,7 +18913,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19116,7 +19119,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19528,7 +19531,7 @@
         <v>147</v>
       </c>
       <c r="P89" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q89">
         <v>3.5</v>
@@ -19734,7 +19737,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -20636,10 +20639,10 @@
         <v>1.83</v>
       </c>
       <c r="AP94">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ94">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR94">
         <v>1.2</v>
@@ -21051,7 +21054,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ96">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR96">
         <v>2.02</v>
@@ -21176,7 +21179,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21794,7 +21797,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -21872,7 +21875,7 @@
         <v>0.6</v>
       </c>
       <c r="AP100">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ100">
         <v>0.86</v>
@@ -22081,7 +22084,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ101">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR101">
         <v>1.35</v>
@@ -22206,7 +22209,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22412,7 +22415,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22490,7 +22493,7 @@
         <v>1.33</v>
       </c>
       <c r="AP103">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ103">
         <v>1.15</v>
@@ -23236,7 +23239,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23523,7 +23526,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ108">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR108">
         <v>1.69</v>
@@ -23648,7 +23651,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24060,7 +24063,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24138,7 +24141,7 @@
         <v>1.14</v>
       </c>
       <c r="AP111">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ111">
         <v>0.77</v>
@@ -24553,7 +24556,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ113">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR113">
         <v>1.4</v>
@@ -24678,7 +24681,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -24759,7 +24762,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ114">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR114">
         <v>1.07</v>
@@ -25583,7 +25586,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ118">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR118">
         <v>1.16</v>
@@ -25708,7 +25711,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25914,7 +25917,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -26120,7 +26123,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26198,7 +26201,7 @@
         <v>1.75</v>
       </c>
       <c r="AP121">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ121">
         <v>2.55</v>
@@ -26738,7 +26741,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -26944,7 +26947,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27022,7 +27025,7 @@
         <v>2.33</v>
       </c>
       <c r="AP125">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ125">
         <v>2.27</v>
@@ -27150,7 +27153,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27356,7 +27359,7 @@
         <v>148</v>
       </c>
       <c r="P127" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q127">
         <v>2.6</v>
@@ -27437,7 +27440,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ127">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR127">
         <v>1.82</v>
@@ -27768,7 +27771,7 @@
         <v>94</v>
       </c>
       <c r="P129" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q129">
         <v>3.4</v>
@@ -27974,7 +27977,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q130">
         <v>2.6</v>
@@ -28055,7 +28058,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ130">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR130">
         <v>1.35</v>
@@ -28464,7 +28467,7 @@
         <v>0.29</v>
       </c>
       <c r="AP132">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ132">
         <v>0.23</v>
@@ -28798,7 +28801,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -29004,7 +29007,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29210,7 +29213,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29703,7 +29706,7 @@
         <v>2</v>
       </c>
       <c r="AQ138">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR138">
         <v>1.74</v>
@@ -29828,7 +29831,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q139">
         <v>3.15</v>
@@ -30240,7 +30243,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -30446,7 +30449,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q142">
         <v>3.75</v>
@@ -30858,7 +30861,7 @@
         <v>92</v>
       </c>
       <c r="P144" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -30936,7 +30939,7 @@
         <v>1.25</v>
       </c>
       <c r="AP144">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ144">
         <v>1.15</v>
@@ -31270,7 +31273,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31351,7 +31354,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ146">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR146">
         <v>1.68</v>
@@ -31476,7 +31479,7 @@
         <v>108</v>
       </c>
       <c r="P147" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31557,7 +31560,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ147">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR147">
         <v>1.4</v>
@@ -32300,7 +32303,7 @@
         <v>184</v>
       </c>
       <c r="P151" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q151">
         <v>3.2</v>
@@ -32584,7 +32587,7 @@
         <v>1.88</v>
       </c>
       <c r="AP152">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ152">
         <v>1.77</v>
@@ -32793,7 +32796,7 @@
         <v>2</v>
       </c>
       <c r="AQ153">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR153">
         <v>1.59</v>
@@ -32918,7 +32921,7 @@
         <v>128</v>
       </c>
       <c r="P154" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -32996,7 +32999,7 @@
         <v>1.5</v>
       </c>
       <c r="AP154">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ154">
         <v>1.69</v>
@@ -33330,7 +33333,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q156">
         <v>1.91</v>
@@ -33536,7 +33539,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33617,7 +33620,7 @@
         <v>1</v>
       </c>
       <c r="AQ157">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR157">
         <v>1.29</v>
@@ -33823,7 +33826,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ158">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR158">
         <v>1.34</v>
@@ -34360,7 +34363,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34566,7 +34569,7 @@
         <v>151</v>
       </c>
       <c r="P162" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -34772,7 +34775,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -35390,7 +35393,7 @@
         <v>92</v>
       </c>
       <c r="P166" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q166">
         <v>3</v>
@@ -35596,7 +35599,7 @@
         <v>191</v>
       </c>
       <c r="P167" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35677,7 +35680,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ167">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR167">
         <v>1.39</v>
@@ -35802,7 +35805,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
@@ -35880,7 +35883,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP168">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ168">
         <v>1</v>
@@ -36214,7 +36217,7 @@
         <v>193</v>
       </c>
       <c r="P170" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q170">
         <v>6</v>
@@ -36292,7 +36295,7 @@
         <v>1</v>
       </c>
       <c r="AP170">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ170">
         <v>1.17</v>
@@ -36626,7 +36629,7 @@
         <v>194</v>
       </c>
       <c r="P172" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -36704,7 +36707,7 @@
         <v>1.44</v>
       </c>
       <c r="AP172">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ172">
         <v>1.5</v>
@@ -36832,7 +36835,7 @@
         <v>92</v>
       </c>
       <c r="P173" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q173">
         <v>4.8</v>
@@ -37325,7 +37328,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ175">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR175">
         <v>1.72</v>
@@ -37656,7 +37659,7 @@
         <v>128</v>
       </c>
       <c r="P177" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q177">
         <v>3.25</v>
@@ -37737,7 +37740,7 @@
         <v>2</v>
       </c>
       <c r="AQ177">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AR177">
         <v>1.5</v>
@@ -38068,7 +38071,7 @@
         <v>118</v>
       </c>
       <c r="P179" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38561,7 +38564,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ181">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR181">
         <v>1.23</v>
@@ -38686,7 +38689,7 @@
         <v>200</v>
       </c>
       <c r="P182" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q182">
         <v>9</v>
@@ -38892,7 +38895,7 @@
         <v>92</v>
       </c>
       <c r="P183" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q183">
         <v>4.33</v>
@@ -39098,7 +39101,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q184">
         <v>3.4</v>
@@ -39304,7 +39307,7 @@
         <v>108</v>
       </c>
       <c r="P185" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -39588,7 +39591,7 @@
         <v>1.44</v>
       </c>
       <c r="AP186">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ186">
         <v>1.08</v>
@@ -39794,10 +39797,10 @@
         <v>0.9</v>
       </c>
       <c r="AP187">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ187">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR187">
         <v>1.46</v>
@@ -40128,7 +40131,7 @@
         <v>202</v>
       </c>
       <c r="P189" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q189">
         <v>3.8</v>
@@ -40206,7 +40209,7 @@
         <v>1.8</v>
       </c>
       <c r="AP189">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ189">
         <v>1.69</v>
@@ -40334,7 +40337,7 @@
         <v>92</v>
       </c>
       <c r="P190" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q190">
         <v>3.5</v>
@@ -40540,7 +40543,7 @@
         <v>92</v>
       </c>
       <c r="P191" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -41239,7 +41242,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ194">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AR194">
         <v>1.69</v>
@@ -42188,7 +42191,7 @@
         <v>172</v>
       </c>
       <c r="P199" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q199">
         <v>3.5</v>
@@ -42266,7 +42269,7 @@
         <v>1.18</v>
       </c>
       <c r="AP199">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ199">
         <v>1.07</v>
@@ -42394,7 +42397,7 @@
         <v>204</v>
       </c>
       <c r="P200" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q200">
         <v>3.75</v>
@@ -42678,7 +42681,7 @@
         <v>1.09</v>
       </c>
       <c r="AP201">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ201">
         <v>0.92</v>
@@ -42806,7 +42809,7 @@
         <v>206</v>
       </c>
       <c r="P202" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q202">
         <v>3.2</v>
@@ -42884,7 +42887,7 @@
         <v>0.82</v>
       </c>
       <c r="AP202">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AQ202">
         <v>1</v>
@@ -43093,7 +43096,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ203">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AR203">
         <v>1.41</v>
@@ -43630,7 +43633,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q206">
         <v>4.5</v>
@@ -44042,7 +44045,7 @@
         <v>209</v>
       </c>
       <c r="P208" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q208">
         <v>2.75</v>
@@ -44248,7 +44251,7 @@
         <v>194</v>
       </c>
       <c r="P209" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q209">
         <v>3.5</v>
@@ -44454,7 +44457,7 @@
         <v>179</v>
       </c>
       <c r="P210" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q210">
         <v>7.5</v>
@@ -44532,7 +44535,7 @@
         <v>2</v>
       </c>
       <c r="AP210">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AQ210">
         <v>2.27</v>
@@ -44660,7 +44663,7 @@
         <v>210</v>
       </c>
       <c r="P211" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q211">
         <v>3.75</v>
@@ -44866,7 +44869,7 @@
         <v>94</v>
       </c>
       <c r="P212" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q212">
         <v>3.4</v>
@@ -45072,7 +45075,7 @@
         <v>211</v>
       </c>
       <c r="P213" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q213">
         <v>2.78</v>
@@ -45278,7 +45281,7 @@
         <v>212</v>
       </c>
       <c r="P214" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q214">
         <v>3.2</v>
@@ -45484,7 +45487,7 @@
         <v>213</v>
       </c>
       <c r="P215" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q215">
         <v>2.2</v>
@@ -45690,7 +45693,7 @@
         <v>92</v>
       </c>
       <c r="P216" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q216">
         <v>7</v>
@@ -45896,7 +45899,7 @@
         <v>214</v>
       </c>
       <c r="P217" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q217">
         <v>2.88</v>
@@ -46102,7 +46105,7 @@
         <v>92</v>
       </c>
       <c r="P218" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q218">
         <v>3.1</v>
@@ -46308,7 +46311,7 @@
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q219">
         <v>7.5</v>
@@ -46514,7 +46517,7 @@
         <v>215</v>
       </c>
       <c r="P220" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q220">
         <v>0</v>
@@ -46592,7 +46595,7 @@
         <v>2.2</v>
       </c>
       <c r="AP220">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AQ220">
         <v>2.27</v>
@@ -47132,7 +47135,7 @@
         <v>217</v>
       </c>
       <c r="P223" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q223">
         <v>3.4</v>
@@ -47544,7 +47547,7 @@
         <v>92</v>
       </c>
       <c r="P225" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q225">
         <v>3</v>
@@ -47750,7 +47753,7 @@
         <v>218</v>
       </c>
       <c r="P226" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q226">
         <v>1.9</v>
@@ -47907,6 +47910,624 @@
       </c>
       <c r="BP226">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="227" spans="1:68">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>7364344</v>
+      </c>
+      <c r="C227" t="s">
+        <v>68</v>
+      </c>
+      <c r="D227" t="s">
+        <v>69</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45467.41666666666</v>
+      </c>
+      <c r="F227">
+        <v>27</v>
+      </c>
+      <c r="G227" t="s">
+        <v>79</v>
+      </c>
+      <c r="H227" t="s">
+        <v>81</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>1</v>
+      </c>
+      <c r="L227">
+        <v>5</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>5</v>
+      </c>
+      <c r="O227" t="s">
+        <v>219</v>
+      </c>
+      <c r="P227" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q227">
+        <v>2.24</v>
+      </c>
+      <c r="R227">
+        <v>2.36</v>
+      </c>
+      <c r="S227">
+        <v>6.4</v>
+      </c>
+      <c r="T227">
+        <v>1.42</v>
+      </c>
+      <c r="U227">
+        <v>2.65</v>
+      </c>
+      <c r="V227">
+        <v>2.85</v>
+      </c>
+      <c r="W227">
+        <v>1.36</v>
+      </c>
+      <c r="X227">
+        <v>7.2</v>
+      </c>
+      <c r="Y227">
+        <v>1.08</v>
+      </c>
+      <c r="Z227">
+        <v>1.8</v>
+      </c>
+      <c r="AA227">
+        <v>3.4</v>
+      </c>
+      <c r="AB227">
+        <v>3.8</v>
+      </c>
+      <c r="AC227">
+        <v>1.06</v>
+      </c>
+      <c r="AD227">
+        <v>8</v>
+      </c>
+      <c r="AE227">
+        <v>1.33</v>
+      </c>
+      <c r="AF227">
+        <v>3.1</v>
+      </c>
+      <c r="AG227">
+        <v>2</v>
+      </c>
+      <c r="AH227">
+        <v>1.8</v>
+      </c>
+      <c r="AI227">
+        <v>1.93</v>
+      </c>
+      <c r="AJ227">
+        <v>1.91</v>
+      </c>
+      <c r="AK227">
+        <v>1.11</v>
+      </c>
+      <c r="AL227">
+        <v>1.22</v>
+      </c>
+      <c r="AM227">
+        <v>2.15</v>
+      </c>
+      <c r="AN227">
+        <v>1.08</v>
+      </c>
+      <c r="AO227">
+        <v>0.75</v>
+      </c>
+      <c r="AP227">
+        <v>1.21</v>
+      </c>
+      <c r="AQ227">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AR227">
+        <v>1.5</v>
+      </c>
+      <c r="AS227">
+        <v>1.17</v>
+      </c>
+      <c r="AT227">
+        <v>2.67</v>
+      </c>
+      <c r="AU227">
+        <v>6</v>
+      </c>
+      <c r="AV227">
+        <v>0</v>
+      </c>
+      <c r="AW227">
+        <v>7</v>
+      </c>
+      <c r="AX227">
+        <v>5</v>
+      </c>
+      <c r="AY227">
+        <v>13</v>
+      </c>
+      <c r="AZ227">
+        <v>5</v>
+      </c>
+      <c r="BA227">
+        <v>4</v>
+      </c>
+      <c r="BB227">
+        <v>5</v>
+      </c>
+      <c r="BC227">
+        <v>9</v>
+      </c>
+      <c r="BD227">
+        <v>1.31</v>
+      </c>
+      <c r="BE227">
+        <v>7.4</v>
+      </c>
+      <c r="BF227">
+        <v>4.55</v>
+      </c>
+      <c r="BG227">
+        <v>1.36</v>
+      </c>
+      <c r="BH227">
+        <v>2.79</v>
+      </c>
+      <c r="BI227">
+        <v>1.74</v>
+      </c>
+      <c r="BJ227">
+        <v>2.06</v>
+      </c>
+      <c r="BK227">
+        <v>2.23</v>
+      </c>
+      <c r="BL227">
+        <v>1.63</v>
+      </c>
+      <c r="BM227">
+        <v>2.88</v>
+      </c>
+      <c r="BN227">
+        <v>1.34</v>
+      </c>
+      <c r="BO227">
+        <v>3.6</v>
+      </c>
+      <c r="BP227">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="228" spans="1:68">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>7364345</v>
+      </c>
+      <c r="C228" t="s">
+        <v>68</v>
+      </c>
+      <c r="D228" t="s">
+        <v>69</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45467.54166666666</v>
+      </c>
+      <c r="F228">
+        <v>27</v>
+      </c>
+      <c r="G228" t="s">
+        <v>73</v>
+      </c>
+      <c r="H228" t="s">
+        <v>71</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>1</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>1</v>
+      </c>
+      <c r="O228" t="s">
+        <v>200</v>
+      </c>
+      <c r="P228" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q228">
+        <v>7</v>
+      </c>
+      <c r="R228">
+        <v>2.2</v>
+      </c>
+      <c r="S228">
+        <v>2.34</v>
+      </c>
+      <c r="T228">
+        <v>1.5</v>
+      </c>
+      <c r="U228">
+        <v>2.46</v>
+      </c>
+      <c r="V228">
+        <v>3.45</v>
+      </c>
+      <c r="W228">
+        <v>1.25</v>
+      </c>
+      <c r="X228">
+        <v>9.5</v>
+      </c>
+      <c r="Y228">
+        <v>1.04</v>
+      </c>
+      <c r="Z228">
+        <v>5</v>
+      </c>
+      <c r="AA228">
+        <v>3.2</v>
+      </c>
+      <c r="AB228">
+        <v>1.67</v>
+      </c>
+      <c r="AC228">
+        <v>1.09</v>
+      </c>
+      <c r="AD228">
+        <v>6.5</v>
+      </c>
+      <c r="AE228">
+        <v>1.25</v>
+      </c>
+      <c r="AF228">
+        <v>2.2</v>
+      </c>
+      <c r="AG228">
+        <v>2.38</v>
+      </c>
+      <c r="AH228">
+        <v>1.53</v>
+      </c>
+      <c r="AI228">
+        <v>2.32</v>
+      </c>
+      <c r="AJ228">
+        <v>1.66</v>
+      </c>
+      <c r="AK228">
+        <v>1.92</v>
+      </c>
+      <c r="AL228">
+        <v>1.01</v>
+      </c>
+      <c r="AM228">
+        <v>1.01</v>
+      </c>
+      <c r="AN228">
+        <v>0.92</v>
+      </c>
+      <c r="AO228">
+        <v>1.92</v>
+      </c>
+      <c r="AP228">
+        <v>1.07</v>
+      </c>
+      <c r="AQ228">
+        <v>1.77</v>
+      </c>
+      <c r="AR228">
+        <v>0.96</v>
+      </c>
+      <c r="AS228">
+        <v>1.32</v>
+      </c>
+      <c r="AT228">
+        <v>2.28</v>
+      </c>
+      <c r="AU228">
+        <v>4</v>
+      </c>
+      <c r="AV228">
+        <v>4</v>
+      </c>
+      <c r="AW228">
+        <v>4</v>
+      </c>
+      <c r="AX228">
+        <v>10</v>
+      </c>
+      <c r="AY228">
+        <v>8</v>
+      </c>
+      <c r="AZ228">
+        <v>14</v>
+      </c>
+      <c r="BA228">
+        <v>2</v>
+      </c>
+      <c r="BB228">
+        <v>4</v>
+      </c>
+      <c r="BC228">
+        <v>6</v>
+      </c>
+      <c r="BD228">
+        <v>3.62</v>
+      </c>
+      <c r="BE228">
+        <v>6.8</v>
+      </c>
+      <c r="BF228">
+        <v>1.44</v>
+      </c>
+      <c r="BG228">
+        <v>1.31</v>
+      </c>
+      <c r="BH228">
+        <v>3.04</v>
+      </c>
+      <c r="BI228">
+        <v>1.73</v>
+      </c>
+      <c r="BJ228">
+        <v>2.08</v>
+      </c>
+      <c r="BK228">
+        <v>2.21</v>
+      </c>
+      <c r="BL228">
+        <v>1.65</v>
+      </c>
+      <c r="BM228">
+        <v>2.6</v>
+      </c>
+      <c r="BN228">
+        <v>1.41</v>
+      </c>
+      <c r="BO228">
+        <v>3.64</v>
+      </c>
+      <c r="BP228">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="229" spans="1:68">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>7364346</v>
+      </c>
+      <c r="C229" t="s">
+        <v>68</v>
+      </c>
+      <c r="D229" t="s">
+        <v>69</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45467.54166666666</v>
+      </c>
+      <c r="F229">
+        <v>27</v>
+      </c>
+      <c r="G229" t="s">
+        <v>76</v>
+      </c>
+      <c r="H229" t="s">
+        <v>77</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>1</v>
+      </c>
+      <c r="L229">
+        <v>1</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>1</v>
+      </c>
+      <c r="O229" t="s">
+        <v>139</v>
+      </c>
+      <c r="P229" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q229">
+        <v>3.8</v>
+      </c>
+      <c r="R229">
+        <v>2.04</v>
+      </c>
+      <c r="S229">
+        <v>3.6</v>
+      </c>
+      <c r="T229">
+        <v>1.5</v>
+      </c>
+      <c r="U229">
+        <v>2.46</v>
+      </c>
+      <c r="V229">
+        <v>3.4</v>
+      </c>
+      <c r="W229">
+        <v>1.28</v>
+      </c>
+      <c r="X229">
+        <v>9.5</v>
+      </c>
+      <c r="Y229">
+        <v>1.04</v>
+      </c>
+      <c r="Z229">
+        <v>2.8</v>
+      </c>
+      <c r="AA229">
+        <v>2.8</v>
+      </c>
+      <c r="AB229">
+        <v>2.5</v>
+      </c>
+      <c r="AC229">
+        <v>1.1</v>
+      </c>
+      <c r="AD229">
+        <v>6.25</v>
+      </c>
+      <c r="AE229">
+        <v>1.3</v>
+      </c>
+      <c r="AF229">
+        <v>2.2</v>
+      </c>
+      <c r="AG229">
+        <v>2.75</v>
+      </c>
+      <c r="AH229">
+        <v>1.4</v>
+      </c>
+      <c r="AI229">
+        <v>2.1</v>
+      </c>
+      <c r="AJ229">
+        <v>1.79</v>
+      </c>
+      <c r="AK229">
+        <v>1.23</v>
+      </c>
+      <c r="AL229">
+        <v>1.01</v>
+      </c>
+      <c r="AM229">
+        <v>1.2</v>
+      </c>
+      <c r="AN229">
+        <v>0.83</v>
+      </c>
+      <c r="AO229">
+        <v>1.38</v>
+      </c>
+      <c r="AP229">
+        <v>1</v>
+      </c>
+      <c r="AQ229">
+        <v>1.29</v>
+      </c>
+      <c r="AR229">
+        <v>1.33</v>
+      </c>
+      <c r="AS229">
+        <v>1.13</v>
+      </c>
+      <c r="AT229">
+        <v>2.46</v>
+      </c>
+      <c r="AU229">
+        <v>4</v>
+      </c>
+      <c r="AV229">
+        <v>4</v>
+      </c>
+      <c r="AW229">
+        <v>4</v>
+      </c>
+      <c r="AX229">
+        <v>4</v>
+      </c>
+      <c r="AY229">
+        <v>8</v>
+      </c>
+      <c r="AZ229">
+        <v>8</v>
+      </c>
+      <c r="BA229">
+        <v>2</v>
+      </c>
+      <c r="BB229">
+        <v>7</v>
+      </c>
+      <c r="BC229">
+        <v>9</v>
+      </c>
+      <c r="BD229">
+        <v>1.98</v>
+      </c>
+      <c r="BE229">
+        <v>6</v>
+      </c>
+      <c r="BF229">
+        <v>2.24</v>
+      </c>
+      <c r="BG229">
+        <v>1.41</v>
+      </c>
+      <c r="BH229">
+        <v>2.6</v>
+      </c>
+      <c r="BI229">
+        <v>1.75</v>
+      </c>
+      <c r="BJ229">
+        <v>1.92</v>
+      </c>
+      <c r="BK229">
+        <v>2.27</v>
+      </c>
+      <c r="BL229">
+        <v>1.53</v>
+      </c>
+      <c r="BM229">
+        <v>3.08</v>
+      </c>
+      <c r="BN229">
+        <v>1.3</v>
+      </c>
+      <c r="BO229">
+        <v>3.6</v>
+      </c>
+      <c r="BP229">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="326">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -674,6 +674,9 @@
   </si>
   <si>
     <t>['19', '53', '72', '86', '90+1']</t>
+  </si>
+  <si>
+    <t>['-1', '-1']</t>
   </si>
   <si>
     <t>['16', '75']</t>
@@ -1350,7 +1353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP229"/>
+  <dimension ref="A1:BP230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2099,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ4">
         <v>1.69</v>
@@ -2433,7 +2436,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2845,7 +2848,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3257,7 +3260,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3338,7 +3341,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ10">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3669,7 +3672,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3875,7 +3878,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -4081,7 +4084,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -5111,7 +5114,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5523,7 +5526,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5729,7 +5732,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5935,7 +5938,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -6141,7 +6144,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6222,7 +6225,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ24">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR24">
         <v>0.44</v>
@@ -6759,7 +6762,7 @@
         <v>107</v>
       </c>
       <c r="P27" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q27">
         <v>1.91</v>
@@ -6837,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -7377,7 +7380,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7789,7 +7792,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q32">
         <v>2.5</v>
@@ -7995,7 +7998,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8613,7 +8616,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -8900,7 +8903,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ37">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR37">
         <v>1.06</v>
@@ -9025,7 +9028,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9231,7 +9234,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q39">
         <v>2.5</v>
@@ -9437,7 +9440,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -10055,7 +10058,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10261,7 +10264,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10467,7 +10470,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -11085,7 +11088,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11291,7 +11294,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11497,7 +11500,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q50">
         <v>3.2</v>
@@ -11909,7 +11912,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12115,7 +12118,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12527,7 +12530,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12811,7 +12814,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ56">
         <v>1.07</v>
@@ -12939,7 +12942,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13020,7 +13023,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ57">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR57">
         <v>1.05</v>
@@ -13557,7 +13560,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13969,7 +13972,7 @@
         <v>130</v>
       </c>
       <c r="P62" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q62">
         <v>3.25</v>
@@ -14175,7 +14178,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14381,7 +14384,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14587,7 +14590,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14793,7 +14796,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q66">
         <v>2.63</v>
@@ -15411,7 +15414,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15823,7 +15826,7 @@
         <v>136</v>
       </c>
       <c r="P71" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q71">
         <v>1.8</v>
@@ -16110,7 +16113,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ72">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR72">
         <v>1.39</v>
@@ -16441,7 +16444,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q74">
         <v>3.25</v>
@@ -16647,7 +16650,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q75">
         <v>3.75</v>
@@ -17059,7 +17062,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17265,7 +17268,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17471,7 +17474,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17677,7 +17680,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -18707,7 +18710,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18913,7 +18916,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19119,7 +19122,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19531,7 +19534,7 @@
         <v>147</v>
       </c>
       <c r="P89" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q89">
         <v>3.5</v>
@@ -19737,7 +19740,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q90">
         <v>3.6</v>
@@ -21179,7 +21182,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21466,7 +21469,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ98">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR98">
         <v>1.43</v>
@@ -21797,7 +21800,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -22209,7 +22212,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22415,7 +22418,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23239,7 +23242,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23523,7 +23526,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ108">
         <v>0.6899999999999999</v>
@@ -23651,7 +23654,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24063,7 +24066,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24681,7 +24684,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -25711,7 +25714,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25917,7 +25920,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -26123,7 +26126,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26741,7 +26744,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -26947,7 +26950,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27153,7 +27156,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27234,7 +27237,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ126">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR126">
         <v>1.36</v>
@@ -27359,7 +27362,7 @@
         <v>148</v>
       </c>
       <c r="P127" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q127">
         <v>2.6</v>
@@ -27771,7 +27774,7 @@
         <v>94</v>
       </c>
       <c r="P129" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q129">
         <v>3.4</v>
@@ -27977,7 +27980,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q130">
         <v>2.6</v>
@@ -28801,7 +28804,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -28879,7 +28882,7 @@
         <v>1.71</v>
       </c>
       <c r="AP134">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ134">
         <v>1.5</v>
@@ -29007,7 +29010,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29213,7 +29216,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29831,7 +29834,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q139">
         <v>3.15</v>
@@ -30243,7 +30246,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -30449,7 +30452,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q142">
         <v>3.75</v>
@@ -30861,7 +30864,7 @@
         <v>92</v>
       </c>
       <c r="P144" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -31273,7 +31276,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31479,7 +31482,7 @@
         <v>108</v>
       </c>
       <c r="P147" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -32303,7 +32306,7 @@
         <v>184</v>
       </c>
       <c r="P151" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q151">
         <v>3.2</v>
@@ -32921,7 +32924,7 @@
         <v>128</v>
       </c>
       <c r="P154" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33333,7 +33336,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q156">
         <v>1.91</v>
@@ -33539,7 +33542,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34363,7 +34366,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34569,7 +34572,7 @@
         <v>151</v>
       </c>
       <c r="P162" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -34775,7 +34778,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -35393,7 +35396,7 @@
         <v>92</v>
       </c>
       <c r="P166" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q166">
         <v>3</v>
@@ -35599,7 +35602,7 @@
         <v>191</v>
       </c>
       <c r="P167" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35805,7 +35808,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
@@ -36089,7 +36092,7 @@
         <v>1.63</v>
       </c>
       <c r="AP169">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ169">
         <v>1.08</v>
@@ -36217,7 +36220,7 @@
         <v>193</v>
       </c>
       <c r="P170" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q170">
         <v>6</v>
@@ -36504,7 +36507,7 @@
         <v>2</v>
       </c>
       <c r="AQ171">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR171">
         <v>1.57</v>
@@ -36629,7 +36632,7 @@
         <v>194</v>
       </c>
       <c r="P172" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -36835,7 +36838,7 @@
         <v>92</v>
       </c>
       <c r="P173" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q173">
         <v>4.8</v>
@@ -37325,7 +37328,7 @@
         <v>1.4</v>
       </c>
       <c r="AP175">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ175">
         <v>1.29</v>
@@ -37659,7 +37662,7 @@
         <v>128</v>
       </c>
       <c r="P177" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q177">
         <v>3.25</v>
@@ -38071,7 +38074,7 @@
         <v>118</v>
       </c>
       <c r="P179" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38689,7 +38692,7 @@
         <v>200</v>
       </c>
       <c r="P182" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q182">
         <v>9</v>
@@ -38895,7 +38898,7 @@
         <v>92</v>
       </c>
       <c r="P183" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q183">
         <v>4.33</v>
@@ -39101,7 +39104,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q184">
         <v>3.4</v>
@@ -39307,7 +39310,7 @@
         <v>108</v>
       </c>
       <c r="P185" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -40131,7 +40134,7 @@
         <v>202</v>
       </c>
       <c r="P189" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q189">
         <v>3.8</v>
@@ -40337,7 +40340,7 @@
         <v>92</v>
       </c>
       <c r="P190" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q190">
         <v>3.5</v>
@@ -40543,7 +40546,7 @@
         <v>92</v>
       </c>
       <c r="P191" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -42191,7 +42194,7 @@
         <v>172</v>
       </c>
       <c r="P199" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q199">
         <v>3.5</v>
@@ -42397,7 +42400,7 @@
         <v>204</v>
       </c>
       <c r="P200" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q200">
         <v>3.75</v>
@@ -42809,7 +42812,7 @@
         <v>206</v>
       </c>
       <c r="P202" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q202">
         <v>3.2</v>
@@ -43633,7 +43636,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q206">
         <v>4.5</v>
@@ -43714,7 +43717,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ206">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR206">
         <v>1.4</v>
@@ -44045,7 +44048,7 @@
         <v>209</v>
       </c>
       <c r="P208" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q208">
         <v>2.75</v>
@@ -44251,7 +44254,7 @@
         <v>194</v>
       </c>
       <c r="P209" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q209">
         <v>3.5</v>
@@ -44332,7 +44335,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ209">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR209">
         <v>1.55</v>
@@ -44457,7 +44460,7 @@
         <v>179</v>
       </c>
       <c r="P210" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q210">
         <v>7.5</v>
@@ -44663,7 +44666,7 @@
         <v>210</v>
       </c>
       <c r="P211" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q211">
         <v>3.75</v>
@@ -44869,7 +44872,7 @@
         <v>94</v>
       </c>
       <c r="P212" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q212">
         <v>3.4</v>
@@ -45075,7 +45078,7 @@
         <v>211</v>
       </c>
       <c r="P213" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q213">
         <v>2.78</v>
@@ -45281,7 +45284,7 @@
         <v>212</v>
       </c>
       <c r="P214" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q214">
         <v>3.2</v>
@@ -45487,7 +45490,7 @@
         <v>213</v>
       </c>
       <c r="P215" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q215">
         <v>2.2</v>
@@ -45693,7 +45696,7 @@
         <v>92</v>
       </c>
       <c r="P216" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q216">
         <v>7</v>
@@ -45899,7 +45902,7 @@
         <v>214</v>
       </c>
       <c r="P217" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q217">
         <v>2.88</v>
@@ -46105,7 +46108,7 @@
         <v>92</v>
       </c>
       <c r="P218" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q218">
         <v>3.1</v>
@@ -46311,7 +46314,7 @@
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q219">
         <v>7.5</v>
@@ -46517,7 +46520,7 @@
         <v>215</v>
       </c>
       <c r="P220" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q220">
         <v>0</v>
@@ -47135,7 +47138,7 @@
         <v>217</v>
       </c>
       <c r="P223" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q223">
         <v>3.4</v>
@@ -47547,7 +47550,7 @@
         <v>92</v>
       </c>
       <c r="P225" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q225">
         <v>3</v>
@@ -47753,7 +47756,7 @@
         <v>218</v>
       </c>
       <c r="P226" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q226">
         <v>1.9</v>
@@ -48528,6 +48531,212 @@
       </c>
       <c r="BP229">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="230" spans="1:68">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>7364347</v>
+      </c>
+      <c r="C230" t="s">
+        <v>68</v>
+      </c>
+      <c r="D230" t="s">
+        <v>69</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45468.54166666666</v>
+      </c>
+      <c r="F230">
+        <v>27</v>
+      </c>
+      <c r="G230" t="s">
+        <v>72</v>
+      </c>
+      <c r="H230" t="s">
+        <v>80</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>2</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>2</v>
+      </c>
+      <c r="O230" t="s">
+        <v>220</v>
+      </c>
+      <c r="P230" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q230">
+        <v>2.36</v>
+      </c>
+      <c r="R230">
+        <v>2.32</v>
+      </c>
+      <c r="S230">
+        <v>5.3</v>
+      </c>
+      <c r="T230">
+        <v>1.35</v>
+      </c>
+      <c r="U230">
+        <v>3.14</v>
+      </c>
+      <c r="V230">
+        <v>2.75</v>
+      </c>
+      <c r="W230">
+        <v>1.43</v>
+      </c>
+      <c r="X230">
+        <v>6.6</v>
+      </c>
+      <c r="Y230">
+        <v>1.09</v>
+      </c>
+      <c r="Z230">
+        <v>1.73</v>
+      </c>
+      <c r="AA230">
+        <v>3.5</v>
+      </c>
+      <c r="AB230">
+        <v>4</v>
+      </c>
+      <c r="AC230">
+        <v>1.01</v>
+      </c>
+      <c r="AD230">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE230">
+        <v>1.24</v>
+      </c>
+      <c r="AF230">
+        <v>3.48</v>
+      </c>
+      <c r="AG230">
+        <v>2.05</v>
+      </c>
+      <c r="AH230">
+        <v>1.75</v>
+      </c>
+      <c r="AI230">
+        <v>1.83</v>
+      </c>
+      <c r="AJ230">
+        <v>2.06</v>
+      </c>
+      <c r="AK230">
+        <v>1.15</v>
+      </c>
+      <c r="AL230">
+        <v>1.22</v>
+      </c>
+      <c r="AM230">
+        <v>2.05</v>
+      </c>
+      <c r="AN230">
+        <v>2.43</v>
+      </c>
+      <c r="AO230">
+        <v>1.4</v>
+      </c>
+      <c r="AP230">
+        <v>2.5</v>
+      </c>
+      <c r="AQ230">
+        <v>1.27</v>
+      </c>
+      <c r="AR230">
+        <v>1.73</v>
+      </c>
+      <c r="AS230">
+        <v>1.66</v>
+      </c>
+      <c r="AT230">
+        <v>3.39</v>
+      </c>
+      <c r="AU230">
+        <v>-1</v>
+      </c>
+      <c r="AV230">
+        <v>-1</v>
+      </c>
+      <c r="AW230">
+        <v>-1</v>
+      </c>
+      <c r="AX230">
+        <v>-1</v>
+      </c>
+      <c r="AY230">
+        <v>-1</v>
+      </c>
+      <c r="AZ230">
+        <v>-1</v>
+      </c>
+      <c r="BA230">
+        <v>-1</v>
+      </c>
+      <c r="BB230">
+        <v>-1</v>
+      </c>
+      <c r="BC230">
+        <v>-1</v>
+      </c>
+      <c r="BD230">
+        <v>1.37</v>
+      </c>
+      <c r="BE230">
+        <v>7.4</v>
+      </c>
+      <c r="BF230">
+        <v>3.96</v>
+      </c>
+      <c r="BG230">
+        <v>1.23</v>
+      </c>
+      <c r="BH230">
+        <v>3.56</v>
+      </c>
+      <c r="BI230">
+        <v>1.49</v>
+      </c>
+      <c r="BJ230">
+        <v>2.54</v>
+      </c>
+      <c r="BK230">
+        <v>1.74</v>
+      </c>
+      <c r="BL230">
+        <v>2.05</v>
+      </c>
+      <c r="BM230">
+        <v>2.19</v>
+      </c>
+      <c r="BN230">
+        <v>1.65</v>
+      </c>
+      <c r="BO230">
+        <v>3.08</v>
+      </c>
+      <c r="BP230">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="328">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -679,6 +679,9 @@
     <t>['-1', '-1']</t>
   </si>
   <si>
+    <t>['10', '29', '50', '79']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -992,6 +995,9 @@
   </si>
   <si>
     <t>['14', '86']</t>
+  </si>
+  <si>
+    <t>['38', '45+11']</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP230"/>
+  <dimension ref="A1:BP233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1896,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -2105,7 +2111,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ4">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2436,7 +2442,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2848,7 +2854,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2929,7 +2935,7 @@
         <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3260,7 +3266,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3672,7 +3678,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3878,7 +3884,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -4084,7 +4090,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4371,7 +4377,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ15">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4574,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ16">
         <v>1.77</v>
@@ -4986,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ18">
         <v>1.29</v>
@@ -5114,7 +5120,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5192,7 +5198,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ19">
         <v>0.6899999999999999</v>
@@ -5526,7 +5532,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5732,7 +5738,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5938,7 +5944,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -6019,7 +6025,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ23">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR23">
         <v>0.65</v>
@@ -6144,7 +6150,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6431,7 +6437,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ25">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR25">
         <v>1.15</v>
@@ -6556,7 +6562,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -7049,7 +7055,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ28">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR28">
         <v>1.47</v>
@@ -7380,7 +7386,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7586,7 +7592,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7998,7 +8004,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8282,7 +8288,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ34">
         <v>0.86</v>
@@ -8616,7 +8622,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -8697,7 +8703,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ36">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR36">
         <v>1.67</v>
@@ -9028,7 +9034,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9234,7 +9240,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9440,7 +9446,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9518,7 +9524,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ40">
         <v>1.07</v>
@@ -10058,7 +10064,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10139,7 +10145,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ43">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR43">
         <v>0.91</v>
@@ -10264,7 +10270,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10470,7 +10476,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10960,7 +10966,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ47">
         <v>0.23</v>
@@ -11088,7 +11094,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11294,7 +11300,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11706,7 +11712,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11784,10 +11790,10 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ51">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR51">
         <v>1.33</v>
@@ -11912,7 +11918,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12118,7 +12124,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12402,7 +12408,7 @@
         <v>3</v>
       </c>
       <c r="AP54">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ54">
         <v>2.27</v>
@@ -12530,7 +12536,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12942,7 +12948,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13560,7 +13566,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13766,7 +13772,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -13847,7 +13853,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ61">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR61">
         <v>1.23</v>
@@ -14178,7 +14184,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14384,7 +14390,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14590,7 +14596,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14671,7 +14677,7 @@
         <v>1</v>
       </c>
       <c r="AQ65">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR65">
         <v>1.25</v>
@@ -14874,7 +14880,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ66">
         <v>0.77</v>
@@ -15002,7 +15008,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15414,7 +15420,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -16032,7 +16038,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q72">
         <v>1.8</v>
@@ -16444,7 +16450,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16650,7 +16656,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -17062,7 +17068,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17140,7 +17146,7 @@
         <v>0.75</v>
       </c>
       <c r="AP77">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ77">
         <v>1.5</v>
@@ -17268,7 +17274,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17474,7 +17480,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17680,7 +17686,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17758,7 +17764,7 @@
         <v>0.25</v>
       </c>
       <c r="AP80">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ80">
         <v>0.23</v>
@@ -17967,7 +17973,7 @@
         <v>2</v>
       </c>
       <c r="AQ81">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR81">
         <v>1.59</v>
@@ -18710,7 +18716,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18916,7 +18922,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19122,7 +19128,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19200,10 +19206,10 @@
         <v>1.5</v>
       </c>
       <c r="AP87">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ87">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR87">
         <v>1.51</v>
@@ -19534,7 +19540,7 @@
         <v>92</v>
       </c>
       <c r="P89" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q89">
         <v>3.6</v>
@@ -19740,7 +19746,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q90">
         <v>3.5</v>
@@ -19821,7 +19827,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ90">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR90">
         <v>1.45</v>
@@ -20024,7 +20030,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ91">
         <v>2.55</v>
@@ -20233,7 +20239,7 @@
         <v>1</v>
       </c>
       <c r="AQ92">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR92">
         <v>1.28</v>
@@ -20436,7 +20442,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ93">
         <v>1.17</v>
@@ -21182,7 +21188,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21466,7 +21472,7 @@
         <v>1.4</v>
       </c>
       <c r="AP98">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ98">
         <v>1.27</v>
@@ -21800,7 +21806,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -22212,7 +22218,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22418,7 +22424,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22499,7 +22505,7 @@
         <v>1</v>
       </c>
       <c r="AQ103">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR103">
         <v>1.37</v>
@@ -22908,7 +22914,7 @@
         <v>0.33</v>
       </c>
       <c r="AP105">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ105">
         <v>1</v>
@@ -23114,7 +23120,7 @@
         <v>1.5</v>
       </c>
       <c r="AP106">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ106">
         <v>1.5</v>
@@ -23242,7 +23248,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23323,7 +23329,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ107">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR107">
         <v>1.23</v>
@@ -23654,7 +23660,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23735,7 +23741,7 @@
         <v>2</v>
       </c>
       <c r="AQ109">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR109">
         <v>1.64</v>
@@ -24066,7 +24072,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24556,7 +24562,7 @@
         <v>0.86</v>
       </c>
       <c r="AP113">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ113">
         <v>0.6899999999999999</v>
@@ -24684,7 +24690,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -25714,7 +25720,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25920,7 +25926,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -26126,7 +26132,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26619,7 +26625,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ123">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR123">
         <v>1.48</v>
@@ -26744,7 +26750,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -26822,10 +26828,10 @@
         <v>1.67</v>
       </c>
       <c r="AP124">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ124">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR124">
         <v>1.91</v>
@@ -26950,7 +26956,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27156,7 +27162,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27234,7 +27240,7 @@
         <v>1.33</v>
       </c>
       <c r="AP126">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ126">
         <v>1.27</v>
@@ -27362,7 +27368,7 @@
         <v>94</v>
       </c>
       <c r="P127" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q127">
         <v>3.4</v>
@@ -27440,7 +27446,7 @@
         <v>0.75</v>
       </c>
       <c r="AP127">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ127">
         <v>0.92</v>
@@ -27646,7 +27652,7 @@
         <v>1</v>
       </c>
       <c r="AP128">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ128">
         <v>1.07</v>
@@ -27774,7 +27780,7 @@
         <v>148</v>
       </c>
       <c r="P129" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q129">
         <v>2.6</v>
@@ -28186,7 +28192,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28679,7 +28685,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ133">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR133">
         <v>1.99</v>
@@ -28804,7 +28810,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -29010,7 +29016,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29088,7 +29094,7 @@
         <v>2</v>
       </c>
       <c r="AP135">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ135">
         <v>2.55</v>
@@ -29216,7 +29222,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29297,7 +29303,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ136">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR136">
         <v>1.46</v>
@@ -29706,7 +29712,7 @@
         <v>1.75</v>
       </c>
       <c r="AP138">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ138">
         <v>2.27</v>
@@ -29834,7 +29840,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q139">
         <v>3.15</v>
@@ -29915,7 +29921,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ139">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR139">
         <v>1.76</v>
@@ -30118,10 +30124,10 @@
         <v>2</v>
       </c>
       <c r="AP140">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ140">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR140">
         <v>1.42</v>
@@ -30246,7 +30252,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -30452,7 +30458,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q142">
         <v>3.75</v>
@@ -30736,7 +30742,7 @@
         <v>0.88</v>
       </c>
       <c r="AP143">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ143">
         <v>1.07</v>
@@ -30864,7 +30870,7 @@
         <v>92</v>
       </c>
       <c r="P144" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -30945,7 +30951,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ144">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR144">
         <v>1.47</v>
@@ -31276,7 +31282,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31482,7 +31488,7 @@
         <v>108</v>
       </c>
       <c r="P147" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31560,7 +31566,7 @@
         <v>1.56</v>
       </c>
       <c r="AP147">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ147">
         <v>1.77</v>
@@ -32178,7 +32184,7 @@
         <v>1.86</v>
       </c>
       <c r="AP150">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ150">
         <v>1.08</v>
@@ -32387,7 +32393,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ151">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR151">
         <v>0.89</v>
@@ -32512,7 +32518,7 @@
         <v>185</v>
       </c>
       <c r="P152" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q152">
         <v>3.2</v>
@@ -32924,7 +32930,7 @@
         <v>128</v>
       </c>
       <c r="P154" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33005,7 +33011,7 @@
         <v>1</v>
       </c>
       <c r="AQ154">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR154">
         <v>1.46</v>
@@ -33336,7 +33342,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q156">
         <v>1.91</v>
@@ -33542,7 +33548,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33826,7 +33832,7 @@
         <v>1.56</v>
       </c>
       <c r="AP158">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ158">
         <v>1.29</v>
@@ -34366,7 +34372,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34572,7 +34578,7 @@
         <v>92</v>
       </c>
       <c r="P162" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -34778,7 +34784,7 @@
         <v>151</v>
       </c>
       <c r="P163" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -34856,7 +34862,7 @@
         <v>1.67</v>
       </c>
       <c r="AP163">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ163">
         <v>2.27</v>
@@ -35065,7 +35071,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ164">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR164">
         <v>1.13</v>
@@ -35396,7 +35402,7 @@
         <v>92</v>
       </c>
       <c r="P166" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q166">
         <v>3</v>
@@ -35474,7 +35480,7 @@
         <v>0.9</v>
       </c>
       <c r="AP166">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ166">
         <v>0.92</v>
@@ -35602,7 +35608,7 @@
         <v>191</v>
       </c>
       <c r="P167" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35808,7 +35814,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
@@ -36220,7 +36226,7 @@
         <v>193</v>
       </c>
       <c r="P170" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q170">
         <v>6</v>
@@ -36632,7 +36638,7 @@
         <v>194</v>
       </c>
       <c r="P172" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -36919,7 +36925,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ173">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR173">
         <v>1.97</v>
@@ -37044,7 +37050,7 @@
         <v>92</v>
       </c>
       <c r="P174" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q174">
         <v>4.8</v>
@@ -37125,7 +37131,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ174">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR174">
         <v>1.47</v>
@@ -37534,7 +37540,7 @@
         <v>0.3</v>
       </c>
       <c r="AP176">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ176">
         <v>0.23</v>
@@ -37662,7 +37668,7 @@
         <v>128</v>
       </c>
       <c r="P177" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q177">
         <v>3.25</v>
@@ -37949,7 +37955,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ178">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR178">
         <v>1.64</v>
@@ -38280,7 +38286,7 @@
         <v>118</v>
       </c>
       <c r="P180" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q180">
         <v>3.5</v>
@@ -38358,7 +38364,7 @@
         <v>0.7</v>
       </c>
       <c r="AP180">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ180">
         <v>0.86</v>
@@ -38692,7 +38698,7 @@
         <v>92</v>
       </c>
       <c r="P182" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q182">
         <v>4.33</v>
@@ -38898,7 +38904,7 @@
         <v>200</v>
       </c>
       <c r="P183" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q183">
         <v>9</v>
@@ -39104,7 +39110,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q184">
         <v>3.4</v>
@@ -39310,7 +39316,7 @@
         <v>108</v>
       </c>
       <c r="P185" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -40134,7 +40140,7 @@
         <v>92</v>
       </c>
       <c r="P189" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q189">
         <v>3.5</v>
@@ -40215,7 +40221,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ189">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR189">
         <v>1.19</v>
@@ -40340,7 +40346,7 @@
         <v>202</v>
       </c>
       <c r="P190" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q190">
         <v>3.8</v>
@@ -40421,7 +40427,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ190">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR190">
         <v>1.52</v>
@@ -40546,7 +40552,7 @@
         <v>92</v>
       </c>
       <c r="P191" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -40624,7 +40630,7 @@
         <v>2.44</v>
       </c>
       <c r="AP191">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ191">
         <v>2.55</v>
@@ -41036,7 +41042,7 @@
         <v>1.42</v>
       </c>
       <c r="AP193">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ193">
         <v>1.29</v>
@@ -41654,10 +41660,10 @@
         <v>1.27</v>
       </c>
       <c r="AP196">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ196">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR196">
         <v>1.35</v>
@@ -42069,7 +42075,7 @@
         <v>2</v>
       </c>
       <c r="AQ198">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR198">
         <v>1.65</v>
@@ -42194,7 +42200,7 @@
         <v>204</v>
       </c>
       <c r="P199" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q199">
         <v>3.75</v>
@@ -42400,7 +42406,7 @@
         <v>171</v>
       </c>
       <c r="P200" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q200">
         <v>3.5</v>
@@ -42812,7 +42818,7 @@
         <v>206</v>
       </c>
       <c r="P202" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q202">
         <v>3.2</v>
@@ -43099,7 +43105,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ203">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR203">
         <v>1.19</v>
@@ -43636,7 +43642,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q206">
         <v>4.5</v>
@@ -43842,7 +43848,7 @@
         <v>208</v>
       </c>
       <c r="P207" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q207">
         <v>2.75</v>
@@ -44254,7 +44260,7 @@
         <v>194</v>
       </c>
       <c r="P209" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q209">
         <v>3.5</v>
@@ -44460,7 +44466,7 @@
         <v>179</v>
       </c>
       <c r="P210" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q210">
         <v>7.5</v>
@@ -44666,7 +44672,7 @@
         <v>210</v>
       </c>
       <c r="P211" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q211">
         <v>3.75</v>
@@ -44747,7 +44753,7 @@
         <v>0.58</v>
       </c>
       <c r="AQ211">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AR211">
         <v>1.19</v>
@@ -44872,7 +44878,7 @@
         <v>94</v>
       </c>
       <c r="P212" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q212">
         <v>3.4</v>
@@ -44950,7 +44956,7 @@
         <v>0.75</v>
       </c>
       <c r="AP212">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ212">
         <v>0.77</v>
@@ -45078,7 +45084,7 @@
         <v>211</v>
       </c>
       <c r="P213" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q213">
         <v>3.2</v>
@@ -45156,7 +45162,7 @@
         <v>1.55</v>
       </c>
       <c r="AP213">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ213">
         <v>1.5</v>
@@ -45284,7 +45290,7 @@
         <v>212</v>
       </c>
       <c r="P214" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q214">
         <v>2.78</v>
@@ -45365,7 +45371,7 @@
         <v>2</v>
       </c>
       <c r="AQ214">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AR214">
         <v>1.69</v>
@@ -45490,7 +45496,7 @@
         <v>213</v>
       </c>
       <c r="P215" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q215">
         <v>2.2</v>
@@ -45696,7 +45702,7 @@
         <v>214</v>
       </c>
       <c r="P216" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q216">
         <v>2.88</v>
@@ -45774,7 +45780,7 @@
         <v>0.92</v>
       </c>
       <c r="AP216">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ216">
         <v>0.86</v>
@@ -45902,7 +45908,7 @@
         <v>92</v>
       </c>
       <c r="P217" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q217">
         <v>7</v>
@@ -46108,7 +46114,7 @@
         <v>92</v>
       </c>
       <c r="P218" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q218">
         <v>3.1</v>
@@ -46189,7 +46195,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ218">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR218">
         <v>1.55</v>
@@ -46314,7 +46320,7 @@
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q219">
         <v>7.5</v>
@@ -46726,7 +46732,7 @@
         <v>216</v>
       </c>
       <c r="P221" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q221">
         <v>0</v>
@@ -47138,7 +47144,7 @@
         <v>217</v>
       </c>
       <c r="P223" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q223">
         <v>3.4</v>
@@ -47550,7 +47556,7 @@
         <v>92</v>
       </c>
       <c r="P225" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q225">
         <v>3</v>
@@ -47756,7 +47762,7 @@
         <v>218</v>
       </c>
       <c r="P226" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q226">
         <v>1.9</v>
@@ -48737,6 +48743,624 @@
       </c>
       <c r="BP230">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:68">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>7364348</v>
+      </c>
+      <c r="C231" t="s">
+        <v>68</v>
+      </c>
+      <c r="D231" t="s">
+        <v>69</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45470.41666666666</v>
+      </c>
+      <c r="F231">
+        <v>28</v>
+      </c>
+      <c r="G231" t="s">
+        <v>84</v>
+      </c>
+      <c r="H231" t="s">
+        <v>82</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>2</v>
+      </c>
+      <c r="K231">
+        <v>2</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>2</v>
+      </c>
+      <c r="N231">
+        <v>2</v>
+      </c>
+      <c r="O231" t="s">
+        <v>92</v>
+      </c>
+      <c r="P231" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q231">
+        <v>4.75</v>
+      </c>
+      <c r="R231">
+        <v>1.91</v>
+      </c>
+      <c r="S231">
+        <v>2.63</v>
+      </c>
+      <c r="T231">
+        <v>1.56</v>
+      </c>
+      <c r="U231">
+        <v>2.33</v>
+      </c>
+      <c r="V231">
+        <v>3.62</v>
+      </c>
+      <c r="W231">
+        <v>1.26</v>
+      </c>
+      <c r="X231">
+        <v>10.2</v>
+      </c>
+      <c r="Y231">
+        <v>1.03</v>
+      </c>
+      <c r="Z231">
+        <v>4</v>
+      </c>
+      <c r="AA231">
+        <v>3</v>
+      </c>
+      <c r="AB231">
+        <v>1.91</v>
+      </c>
+      <c r="AC231">
+        <v>1.1</v>
+      </c>
+      <c r="AD231">
+        <v>6</v>
+      </c>
+      <c r="AE231">
+        <v>1.5</v>
+      </c>
+      <c r="AF231">
+        <v>2.4</v>
+      </c>
+      <c r="AG231">
+        <v>2.5</v>
+      </c>
+      <c r="AH231">
+        <v>1.5</v>
+      </c>
+      <c r="AI231">
+        <v>2.2</v>
+      </c>
+      <c r="AJ231">
+        <v>1.62</v>
+      </c>
+      <c r="AK231">
+        <v>1.72</v>
+      </c>
+      <c r="AL231">
+        <v>1.3</v>
+      </c>
+      <c r="AM231">
+        <v>1.22</v>
+      </c>
+      <c r="AN231">
+        <v>1.21</v>
+      </c>
+      <c r="AO231">
+        <v>1.77</v>
+      </c>
+      <c r="AP231">
+        <v>1.13</v>
+      </c>
+      <c r="AQ231">
+        <v>1.86</v>
+      </c>
+      <c r="AR231">
+        <v>1.32</v>
+      </c>
+      <c r="AS231">
+        <v>1.37</v>
+      </c>
+      <c r="AT231">
+        <v>2.69</v>
+      </c>
+      <c r="AU231">
+        <v>2</v>
+      </c>
+      <c r="AV231">
+        <v>9</v>
+      </c>
+      <c r="AW231">
+        <v>6</v>
+      </c>
+      <c r="AX231">
+        <v>4</v>
+      </c>
+      <c r="AY231">
+        <v>8</v>
+      </c>
+      <c r="AZ231">
+        <v>13</v>
+      </c>
+      <c r="BA231">
+        <v>2</v>
+      </c>
+      <c r="BB231">
+        <v>11</v>
+      </c>
+      <c r="BC231">
+        <v>13</v>
+      </c>
+      <c r="BD231">
+        <v>3.04</v>
+      </c>
+      <c r="BE231">
+        <v>6.4</v>
+      </c>
+      <c r="BF231">
+        <v>1.58</v>
+      </c>
+      <c r="BG231">
+        <v>1.36</v>
+      </c>
+      <c r="BH231">
+        <v>2.9</v>
+      </c>
+      <c r="BI231">
+        <v>1.63</v>
+      </c>
+      <c r="BJ231">
+        <v>2.23</v>
+      </c>
+      <c r="BK231">
+        <v>2.03</v>
+      </c>
+      <c r="BL231">
+        <v>1.76</v>
+      </c>
+      <c r="BM231">
+        <v>2.5</v>
+      </c>
+      <c r="BN231">
+        <v>1.48</v>
+      </c>
+      <c r="BO231">
+        <v>3.3</v>
+      </c>
+      <c r="BP231">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="232" spans="1:68">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>7364349</v>
+      </c>
+      <c r="C232" t="s">
+        <v>68</v>
+      </c>
+      <c r="D232" t="s">
+        <v>69</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45470.54166666666</v>
+      </c>
+      <c r="F232">
+        <v>28</v>
+      </c>
+      <c r="G232" t="s">
+        <v>86</v>
+      </c>
+      <c r="H232" t="s">
+        <v>85</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>1</v>
+      </c>
+      <c r="K232">
+        <v>1</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>1</v>
+      </c>
+      <c r="N232">
+        <v>1</v>
+      </c>
+      <c r="O232" t="s">
+        <v>92</v>
+      </c>
+      <c r="P232" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q232">
+        <v>4.3</v>
+      </c>
+      <c r="R232">
+        <v>2.14</v>
+      </c>
+      <c r="S232">
+        <v>3.1</v>
+      </c>
+      <c r="T232">
+        <v>1.33</v>
+      </c>
+      <c r="U232">
+        <v>3</v>
+      </c>
+      <c r="V232">
+        <v>2.55</v>
+      </c>
+      <c r="W232">
+        <v>1.45</v>
+      </c>
+      <c r="X232">
+        <v>5.7</v>
+      </c>
+      <c r="Y232">
+        <v>1.12</v>
+      </c>
+      <c r="Z232">
+        <v>3.8</v>
+      </c>
+      <c r="AA232">
+        <v>3.1</v>
+      </c>
+      <c r="AB232">
+        <v>2.36</v>
+      </c>
+      <c r="AC232">
+        <v>1.11</v>
+      </c>
+      <c r="AD232">
+        <v>9</v>
+      </c>
+      <c r="AE232">
+        <v>1.46</v>
+      </c>
+      <c r="AF232">
+        <v>3.05</v>
+      </c>
+      <c r="AG232">
+        <v>2.44</v>
+      </c>
+      <c r="AH232">
+        <v>1.68</v>
+      </c>
+      <c r="AI232">
+        <v>1.99</v>
+      </c>
+      <c r="AJ232">
+        <v>1.96</v>
+      </c>
+      <c r="AK232">
+        <v>1.74</v>
+      </c>
+      <c r="AL232">
+        <v>1.45</v>
+      </c>
+      <c r="AM232">
+        <v>1.33</v>
+      </c>
+      <c r="AN232">
+        <v>1.29</v>
+      </c>
+      <c r="AO232">
+        <v>1.69</v>
+      </c>
+      <c r="AP232">
+        <v>1.2</v>
+      </c>
+      <c r="AQ232">
+        <v>1.79</v>
+      </c>
+      <c r="AR232">
+        <v>1.4</v>
+      </c>
+      <c r="AS232">
+        <v>1.02</v>
+      </c>
+      <c r="AT232">
+        <v>2.42</v>
+      </c>
+      <c r="AU232">
+        <v>5</v>
+      </c>
+      <c r="AV232">
+        <v>2</v>
+      </c>
+      <c r="AW232">
+        <v>10</v>
+      </c>
+      <c r="AX232">
+        <v>3</v>
+      </c>
+      <c r="AY232">
+        <v>15</v>
+      </c>
+      <c r="AZ232">
+        <v>5</v>
+      </c>
+      <c r="BA232">
+        <v>9</v>
+      </c>
+      <c r="BB232">
+        <v>9</v>
+      </c>
+      <c r="BC232">
+        <v>18</v>
+      </c>
+      <c r="BD232">
+        <v>2.23</v>
+      </c>
+      <c r="BE232">
+        <v>6.2</v>
+      </c>
+      <c r="BF232">
+        <v>1.97</v>
+      </c>
+      <c r="BG232">
+        <v>1.4</v>
+      </c>
+      <c r="BH232">
+        <v>2.7</v>
+      </c>
+      <c r="BI232">
+        <v>1.68</v>
+      </c>
+      <c r="BJ232">
+        <v>2.15</v>
+      </c>
+      <c r="BK232">
+        <v>2.1</v>
+      </c>
+      <c r="BL232">
+        <v>1.7</v>
+      </c>
+      <c r="BM232">
+        <v>2.62</v>
+      </c>
+      <c r="BN232">
+        <v>1.42</v>
+      </c>
+      <c r="BO232">
+        <v>3.6</v>
+      </c>
+      <c r="BP232">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="233" spans="1:68">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>7364350</v>
+      </c>
+      <c r="C233" t="s">
+        <v>68</v>
+      </c>
+      <c r="D233" t="s">
+        <v>69</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45470.54166666666</v>
+      </c>
+      <c r="F233">
+        <v>28</v>
+      </c>
+      <c r="G233" t="s">
+        <v>71</v>
+      </c>
+      <c r="H233" t="s">
+        <v>70</v>
+      </c>
+      <c r="I233">
+        <v>2</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>2</v>
+      </c>
+      <c r="L233">
+        <v>4</v>
+      </c>
+      <c r="M233">
+        <v>1</v>
+      </c>
+      <c r="N233">
+        <v>5</v>
+      </c>
+      <c r="O233" t="s">
+        <v>221</v>
+      </c>
+      <c r="P233" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q233">
+        <v>2.63</v>
+      </c>
+      <c r="R233">
+        <v>1.91</v>
+      </c>
+      <c r="S233">
+        <v>4.75</v>
+      </c>
+      <c r="T233">
+        <v>1.57</v>
+      </c>
+      <c r="U233">
+        <v>2.35</v>
+      </c>
+      <c r="V233">
+        <v>3.6</v>
+      </c>
+      <c r="W233">
+        <v>1.25</v>
+      </c>
+      <c r="X233">
+        <v>10</v>
+      </c>
+      <c r="Y233">
+        <v>1.02</v>
+      </c>
+      <c r="Z233">
+        <v>1.9</v>
+      </c>
+      <c r="AA233">
+        <v>3.2</v>
+      </c>
+      <c r="AB233">
+        <v>4</v>
+      </c>
+      <c r="AC233">
+        <v>1.11</v>
+      </c>
+      <c r="AD233">
+        <v>6</v>
+      </c>
+      <c r="AE233">
+        <v>1.5</v>
+      </c>
+      <c r="AF233">
+        <v>2.4</v>
+      </c>
+      <c r="AG233">
+        <v>2.5</v>
+      </c>
+      <c r="AH233">
+        <v>1.5</v>
+      </c>
+      <c r="AI233">
+        <v>2.25</v>
+      </c>
+      <c r="AJ233">
+        <v>1.57</v>
+      </c>
+      <c r="AK233">
+        <v>1.33</v>
+      </c>
+      <c r="AL233">
+        <v>1.33</v>
+      </c>
+      <c r="AM233">
+        <v>1.53</v>
+      </c>
+      <c r="AN233">
+        <v>1.25</v>
+      </c>
+      <c r="AO233">
+        <v>1.15</v>
+      </c>
+      <c r="AP233">
+        <v>1.38</v>
+      </c>
+      <c r="AQ233">
+        <v>1.07</v>
+      </c>
+      <c r="AR233">
+        <v>1.67</v>
+      </c>
+      <c r="AS233">
+        <v>1.27</v>
+      </c>
+      <c r="AT233">
+        <v>2.94</v>
+      </c>
+      <c r="AU233">
+        <v>8</v>
+      </c>
+      <c r="AV233">
+        <v>5</v>
+      </c>
+      <c r="AW233">
+        <v>2</v>
+      </c>
+      <c r="AX233">
+        <v>5</v>
+      </c>
+      <c r="AY233">
+        <v>10</v>
+      </c>
+      <c r="AZ233">
+        <v>10</v>
+      </c>
+      <c r="BA233">
+        <v>4</v>
+      </c>
+      <c r="BB233">
+        <v>8</v>
+      </c>
+      <c r="BC233">
+        <v>12</v>
+      </c>
+      <c r="BD233">
+        <v>1.56</v>
+      </c>
+      <c r="BE233">
+        <v>6.35</v>
+      </c>
+      <c r="BF233">
+        <v>3.12</v>
+      </c>
+      <c r="BG233">
+        <v>1.42</v>
+      </c>
+      <c r="BH233">
+        <v>2.62</v>
+      </c>
+      <c r="BI233">
+        <v>1.75</v>
+      </c>
+      <c r="BJ233">
+        <v>2.05</v>
+      </c>
+      <c r="BK233">
+        <v>2.23</v>
+      </c>
+      <c r="BL233">
+        <v>1.64</v>
+      </c>
+      <c r="BM233">
+        <v>2.8</v>
+      </c>
+      <c r="BN233">
+        <v>1.38</v>
+      </c>
+      <c r="BO233">
+        <v>3.6</v>
+      </c>
+      <c r="BP233">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="330">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -682,6 +682,12 @@
     <t>['10', '29', '50', '79']</t>
   </si>
   <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['39', '57']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -803,9 +809,6 @@
   </si>
   <si>
     <t>['68', '84']</t>
-  </si>
-  <si>
-    <t>['51']</t>
   </si>
   <si>
     <t>['87']</t>
@@ -998,6 +1001,9 @@
   </si>
   <si>
     <t>['38', '45+11']</t>
+  </si>
+  <si>
+    <t>['1', '14', '69', '83']</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP233"/>
+  <dimension ref="A1:BP235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1699,7 +1705,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ2">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2108,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ4">
         <v>1.79</v>
@@ -2442,7 +2448,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2520,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ6">
         <v>0.6899999999999999</v>
@@ -2854,7 +2860,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3266,7 +3272,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3678,7 +3684,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3884,7 +3890,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -4090,7 +4096,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4789,7 +4795,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ17">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5120,7 +5126,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5532,7 +5538,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5738,7 +5744,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5944,7 +5950,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -6150,7 +6156,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6562,7 +6568,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6640,7 +6646,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -7386,7 +7392,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7592,7 +7598,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7879,7 +7885,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ32">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR32">
         <v>0.38</v>
@@ -8004,7 +8010,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8082,7 +8088,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ33">
         <v>1.77</v>
@@ -8291,7 +8297,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ34">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR34">
         <v>1.17</v>
@@ -8622,7 +8628,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -9034,7 +9040,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9240,7 +9246,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9446,7 +9452,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -10064,7 +10070,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10270,7 +10276,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10476,7 +10482,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -11094,7 +11100,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11175,7 +11181,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR48">
         <v>1.3</v>
@@ -11300,7 +11306,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11378,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ49">
         <v>2.27</v>
@@ -11712,7 +11718,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11918,7 +11924,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -11999,7 +12005,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ52">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR52">
         <v>1.27</v>
@@ -12124,7 +12130,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12536,7 +12542,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12820,7 +12826,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ56">
         <v>1.07</v>
@@ -12948,7 +12954,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13566,7 +13572,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13772,7 +13778,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -14184,7 +14190,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14390,7 +14396,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14471,7 +14477,7 @@
         <v>2</v>
       </c>
       <c r="AQ64">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR64">
         <v>1.58</v>
@@ -14596,7 +14602,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14883,7 +14889,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ66">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR66">
         <v>1.54</v>
@@ -15008,7 +15014,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15292,7 +15298,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ68">
         <v>0.23</v>
@@ -15420,7 +15426,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -16038,7 +16044,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q72">
         <v>1.8</v>
@@ -16450,7 +16456,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16656,7 +16662,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -17068,7 +17074,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17274,7 +17280,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17355,7 +17361,7 @@
         <v>1</v>
       </c>
       <c r="AQ78">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR78">
         <v>1.22</v>
@@ -17480,7 +17486,7 @@
         <v>141</v>
       </c>
       <c r="P79" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="Q79">
         <v>2.75</v>
@@ -17561,7 +17567,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ79">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR79">
         <v>1.49</v>
@@ -17686,7 +17692,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -18716,7 +18722,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18922,7 +18928,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19128,7 +19134,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19415,7 +19421,7 @@
         <v>2</v>
       </c>
       <c r="AQ88">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR88">
         <v>1.62</v>
@@ -19540,7 +19546,7 @@
         <v>92</v>
       </c>
       <c r="P89" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q89">
         <v>3.6</v>
@@ -19618,7 +19624,7 @@
         <v>1.2</v>
       </c>
       <c r="AP89">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ89">
         <v>1.5</v>
@@ -19746,7 +19752,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q90">
         <v>3.5</v>
@@ -21188,7 +21194,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21806,7 +21812,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -21887,7 +21893,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ100">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR100">
         <v>0.96</v>
@@ -22218,7 +22224,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22424,7 +22430,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22711,7 +22717,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ104">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR104">
         <v>1.48</v>
@@ -23248,7 +23254,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23326,7 +23332,7 @@
         <v>1.4</v>
       </c>
       <c r="AP107">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ107">
         <v>1.79</v>
@@ -23532,7 +23538,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ108">
         <v>0.6899999999999999</v>
@@ -23660,7 +23666,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24072,7 +24078,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24153,7 +24159,7 @@
         <v>1</v>
       </c>
       <c r="AQ111">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR111">
         <v>1.38</v>
@@ -24690,7 +24696,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -25389,7 +25395,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ117">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR117">
         <v>2.07</v>
@@ -25720,7 +25726,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25926,7 +25932,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -26004,7 +26010,7 @@
         <v>0.43</v>
       </c>
       <c r="AP120">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ120">
         <v>1</v>
@@ -26132,7 +26138,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26750,7 +26756,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -26956,7 +26962,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27162,7 +27168,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27368,7 +27374,7 @@
         <v>94</v>
       </c>
       <c r="P127" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q127">
         <v>3.4</v>
@@ -27780,7 +27786,7 @@
         <v>148</v>
       </c>
       <c r="P129" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q129">
         <v>2.6</v>
@@ -28192,7 +28198,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28479,7 +28485,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ132">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR132">
         <v>1.11</v>
@@ -28810,7 +28816,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -28888,7 +28894,7 @@
         <v>1.71</v>
       </c>
       <c r="AP134">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ134">
         <v>1.5</v>
@@ -29016,7 +29022,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29222,7 +29228,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29840,7 +29846,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q139">
         <v>3.15</v>
@@ -30252,7 +30258,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -30330,7 +30336,7 @@
         <v>2.17</v>
       </c>
       <c r="AP141">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ141">
         <v>2.55</v>
@@ -30458,7 +30464,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q142">
         <v>3.75</v>
@@ -30870,7 +30876,7 @@
         <v>92</v>
       </c>
       <c r="P144" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -31282,7 +31288,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31488,7 +31494,7 @@
         <v>108</v>
       </c>
       <c r="P147" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31775,7 +31781,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ148">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR148">
         <v>1.15</v>
@@ -32518,7 +32524,7 @@
         <v>185</v>
       </c>
       <c r="P152" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q152">
         <v>3.2</v>
@@ -32930,7 +32936,7 @@
         <v>128</v>
       </c>
       <c r="P154" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33342,7 +33348,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q156">
         <v>1.91</v>
@@ -33423,7 +33429,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ156">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR156">
         <v>2.03</v>
@@ -33548,7 +33554,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34244,7 +34250,7 @@
         <v>0.78</v>
       </c>
       <c r="AP160">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ160">
         <v>1.07</v>
@@ -34372,7 +34378,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34453,7 +34459,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ161">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR161">
         <v>1.63</v>
@@ -34578,7 +34584,7 @@
         <v>92</v>
       </c>
       <c r="P162" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -34784,7 +34790,7 @@
         <v>151</v>
       </c>
       <c r="P163" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -35277,7 +35283,7 @@
         <v>2</v>
       </c>
       <c r="AQ165">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR165">
         <v>1.65</v>
@@ -35402,7 +35408,7 @@
         <v>92</v>
       </c>
       <c r="P166" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q166">
         <v>3</v>
@@ -35608,7 +35614,7 @@
         <v>191</v>
       </c>
       <c r="P167" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35814,7 +35820,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
@@ -36098,7 +36104,7 @@
         <v>1.63</v>
       </c>
       <c r="AP169">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ169">
         <v>1.08</v>
@@ -36226,7 +36232,7 @@
         <v>193</v>
       </c>
       <c r="P170" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q170">
         <v>6</v>
@@ -36638,7 +36644,7 @@
         <v>194</v>
       </c>
       <c r="P172" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -37050,7 +37056,7 @@
         <v>92</v>
       </c>
       <c r="P174" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q174">
         <v>4.8</v>
@@ -37334,7 +37340,7 @@
         <v>1.4</v>
       </c>
       <c r="AP175">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ175">
         <v>1.29</v>
@@ -37668,7 +37674,7 @@
         <v>128</v>
       </c>
       <c r="P177" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q177">
         <v>3.25</v>
@@ -38161,7 +38167,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ179">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR179">
         <v>1.2</v>
@@ -38286,7 +38292,7 @@
         <v>118</v>
       </c>
       <c r="P180" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q180">
         <v>3.5</v>
@@ -38367,7 +38373,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ180">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR180">
         <v>1.36</v>
@@ -38570,7 +38576,7 @@
         <v>1.27</v>
       </c>
       <c r="AP181">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ181">
         <v>1.29</v>
@@ -38698,7 +38704,7 @@
         <v>92</v>
       </c>
       <c r="P182" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q182">
         <v>4.33</v>
@@ -38904,7 +38910,7 @@
         <v>200</v>
       </c>
       <c r="P183" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q183">
         <v>9</v>
@@ -39110,7 +39116,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q184">
         <v>3.4</v>
@@ -39316,7 +39322,7 @@
         <v>108</v>
       </c>
       <c r="P185" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -40140,7 +40146,7 @@
         <v>92</v>
       </c>
       <c r="P189" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q189">
         <v>3.5</v>
@@ -40346,7 +40352,7 @@
         <v>202</v>
       </c>
       <c r="P190" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q190">
         <v>3.8</v>
@@ -40552,7 +40558,7 @@
         <v>92</v>
       </c>
       <c r="P191" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -41248,10 +41254,10 @@
         <v>0.91</v>
       </c>
       <c r="AP194">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ194">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR194">
         <v>1.2</v>
@@ -41869,7 +41875,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ197">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR197">
         <v>1.61</v>
@@ -42200,7 +42206,7 @@
         <v>204</v>
       </c>
       <c r="P199" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q199">
         <v>3.75</v>
@@ -42406,7 +42412,7 @@
         <v>171</v>
       </c>
       <c r="P200" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q200">
         <v>3.5</v>
@@ -42818,7 +42824,7 @@
         <v>206</v>
       </c>
       <c r="P202" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q202">
         <v>3.2</v>
@@ -43642,7 +43648,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q206">
         <v>4.5</v>
@@ -43848,7 +43854,7 @@
         <v>208</v>
       </c>
       <c r="P207" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q207">
         <v>2.75</v>
@@ -44260,7 +44266,7 @@
         <v>194</v>
       </c>
       <c r="P209" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q209">
         <v>3.5</v>
@@ -44466,7 +44472,7 @@
         <v>179</v>
       </c>
       <c r="P210" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q210">
         <v>7.5</v>
@@ -44672,7 +44678,7 @@
         <v>210</v>
       </c>
       <c r="P211" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q211">
         <v>3.75</v>
@@ -44750,7 +44756,7 @@
         <v>1.25</v>
       </c>
       <c r="AP211">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AQ211">
         <v>1.07</v>
@@ -44878,7 +44884,7 @@
         <v>94</v>
       </c>
       <c r="P212" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q212">
         <v>3.4</v>
@@ -44959,7 +44965,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ212">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR212">
         <v>1.37</v>
@@ -45084,7 +45090,7 @@
         <v>211</v>
       </c>
       <c r="P213" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q213">
         <v>3.2</v>
@@ -45290,7 +45296,7 @@
         <v>212</v>
       </c>
       <c r="P214" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q214">
         <v>2.78</v>
@@ -45496,7 +45502,7 @@
         <v>213</v>
       </c>
       <c r="P215" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q215">
         <v>2.2</v>
@@ -45702,7 +45708,7 @@
         <v>214</v>
       </c>
       <c r="P216" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q216">
         <v>2.88</v>
@@ -45783,7 +45789,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ216">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR216">
         <v>1.64</v>
@@ -45908,7 +45914,7 @@
         <v>92</v>
       </c>
       <c r="P217" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q217">
         <v>7</v>
@@ -46114,7 +46120,7 @@
         <v>92</v>
       </c>
       <c r="P218" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q218">
         <v>3.1</v>
@@ -46320,7 +46326,7 @@
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q219">
         <v>7.5</v>
@@ -46607,7 +46613,7 @@
         <v>2</v>
       </c>
       <c r="AQ220">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="AR220">
         <v>1.69</v>
@@ -46732,7 +46738,7 @@
         <v>216</v>
       </c>
       <c r="P221" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q221">
         <v>0</v>
@@ -47144,7 +47150,7 @@
         <v>217</v>
       </c>
       <c r="P223" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q223">
         <v>3.4</v>
@@ -47556,7 +47562,7 @@
         <v>92</v>
       </c>
       <c r="P225" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q225">
         <v>3</v>
@@ -47762,7 +47768,7 @@
         <v>218</v>
       </c>
       <c r="P226" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q226">
         <v>1.9</v>
@@ -48664,7 +48670,7 @@
         <v>1.4</v>
       </c>
       <c r="AP230">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ230">
         <v>1.27</v>
@@ -48792,7 +48798,7 @@
         <v>92</v>
       </c>
       <c r="P231" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q231">
         <v>4.75</v>
@@ -49204,7 +49210,7 @@
         <v>221</v>
       </c>
       <c r="P233" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q233">
         <v>2.63</v>
@@ -49361,6 +49367,418 @@
       </c>
       <c r="BP233">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="234" spans="1:68">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>7364351</v>
+      </c>
+      <c r="C234" t="s">
+        <v>68</v>
+      </c>
+      <c r="D234" t="s">
+        <v>69</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45471.41666666666</v>
+      </c>
+      <c r="F234">
+        <v>28</v>
+      </c>
+      <c r="G234" t="s">
+        <v>74</v>
+      </c>
+      <c r="H234" t="s">
+        <v>79</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>2</v>
+      </c>
+      <c r="K234">
+        <v>2</v>
+      </c>
+      <c r="L234">
+        <v>1</v>
+      </c>
+      <c r="M234">
+        <v>4</v>
+      </c>
+      <c r="N234">
+        <v>5</v>
+      </c>
+      <c r="O234" t="s">
+        <v>222</v>
+      </c>
+      <c r="P234" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q234">
+        <v>3.6</v>
+      </c>
+      <c r="R234">
+        <v>2</v>
+      </c>
+      <c r="S234">
+        <v>3</v>
+      </c>
+      <c r="T234">
+        <v>1.48</v>
+      </c>
+      <c r="U234">
+        <v>2.45</v>
+      </c>
+      <c r="V234">
+        <v>3.2</v>
+      </c>
+      <c r="W234">
+        <v>1.3</v>
+      </c>
+      <c r="X234">
+        <v>7.3</v>
+      </c>
+      <c r="Y234">
+        <v>1.07</v>
+      </c>
+      <c r="Z234">
+        <v>2.9</v>
+      </c>
+      <c r="AA234">
+        <v>3.2</v>
+      </c>
+      <c r="AB234">
+        <v>2.25</v>
+      </c>
+      <c r="AC234">
+        <v>1.07</v>
+      </c>
+      <c r="AD234">
+        <v>7.5</v>
+      </c>
+      <c r="AE234">
+        <v>1.4</v>
+      </c>
+      <c r="AF234">
+        <v>2.8</v>
+      </c>
+      <c r="AG234">
+        <v>2.25</v>
+      </c>
+      <c r="AH234">
+        <v>1.62</v>
+      </c>
+      <c r="AI234">
+        <v>2</v>
+      </c>
+      <c r="AJ234">
+        <v>1.73</v>
+      </c>
+      <c r="AK234">
+        <v>1.5</v>
+      </c>
+      <c r="AL234">
+        <v>1.3</v>
+      </c>
+      <c r="AM234">
+        <v>1.38</v>
+      </c>
+      <c r="AN234">
+        <v>0.58</v>
+      </c>
+      <c r="AO234">
+        <v>0.77</v>
+      </c>
+      <c r="AP234">
+        <v>0.54</v>
+      </c>
+      <c r="AQ234">
+        <v>0.93</v>
+      </c>
+      <c r="AR234">
+        <v>1.21</v>
+      </c>
+      <c r="AS234">
+        <v>1.38</v>
+      </c>
+      <c r="AT234">
+        <v>2.59</v>
+      </c>
+      <c r="AU234">
+        <v>4</v>
+      </c>
+      <c r="AV234">
+        <v>9</v>
+      </c>
+      <c r="AW234">
+        <v>2</v>
+      </c>
+      <c r="AX234">
+        <v>5</v>
+      </c>
+      <c r="AY234">
+        <v>6</v>
+      </c>
+      <c r="AZ234">
+        <v>14</v>
+      </c>
+      <c r="BA234">
+        <v>6</v>
+      </c>
+      <c r="BB234">
+        <v>4</v>
+      </c>
+      <c r="BC234">
+        <v>10</v>
+      </c>
+      <c r="BD234">
+        <v>2.1</v>
+      </c>
+      <c r="BE234">
+        <v>6.2</v>
+      </c>
+      <c r="BF234">
+        <v>2.08</v>
+      </c>
+      <c r="BG234">
+        <v>1.38</v>
+      </c>
+      <c r="BH234">
+        <v>2.8</v>
+      </c>
+      <c r="BI234">
+        <v>1.58</v>
+      </c>
+      <c r="BJ234">
+        <v>2.31</v>
+      </c>
+      <c r="BK234">
+        <v>1.97</v>
+      </c>
+      <c r="BL234">
+        <v>1.83</v>
+      </c>
+      <c r="BM234">
+        <v>2.53</v>
+      </c>
+      <c r="BN234">
+        <v>1.49</v>
+      </c>
+      <c r="BO234">
+        <v>3.4</v>
+      </c>
+      <c r="BP234">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="235" spans="1:68">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>7364352</v>
+      </c>
+      <c r="C235" t="s">
+        <v>68</v>
+      </c>
+      <c r="D235" t="s">
+        <v>69</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45471.54166666666</v>
+      </c>
+      <c r="F235">
+        <v>28</v>
+      </c>
+      <c r="G235" t="s">
+        <v>72</v>
+      </c>
+      <c r="H235" t="s">
+        <v>76</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <v>1</v>
+      </c>
+      <c r="L235">
+        <v>2</v>
+      </c>
+      <c r="M235">
+        <v>1</v>
+      </c>
+      <c r="N235">
+        <v>3</v>
+      </c>
+      <c r="O235" t="s">
+        <v>223</v>
+      </c>
+      <c r="P235" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q235">
+        <v>1.62</v>
+      </c>
+      <c r="R235">
+        <v>2.6</v>
+      </c>
+      <c r="S235">
+        <v>9</v>
+      </c>
+      <c r="T235">
+        <v>1.25</v>
+      </c>
+      <c r="U235">
+        <v>3.45</v>
+      </c>
+      <c r="V235">
+        <v>2.25</v>
+      </c>
+      <c r="W235">
+        <v>1.57</v>
+      </c>
+      <c r="X235">
+        <v>5.1</v>
+      </c>
+      <c r="Y235">
+        <v>1.14</v>
+      </c>
+      <c r="Z235">
+        <v>1.2</v>
+      </c>
+      <c r="AA235">
+        <v>5.5</v>
+      </c>
+      <c r="AB235">
+        <v>10</v>
+      </c>
+      <c r="AC235">
+        <v>1.03</v>
+      </c>
+      <c r="AD235">
+        <v>10</v>
+      </c>
+      <c r="AE235">
+        <v>1.17</v>
+      </c>
+      <c r="AF235">
+        <v>4.75</v>
+      </c>
+      <c r="AG235">
+        <v>1.62</v>
+      </c>
+      <c r="AH235">
+        <v>2.25</v>
+      </c>
+      <c r="AI235">
+        <v>2.25</v>
+      </c>
+      <c r="AJ235">
+        <v>1.57</v>
+      </c>
+      <c r="AK235">
+        <v>1.05</v>
+      </c>
+      <c r="AL235">
+        <v>1.09</v>
+      </c>
+      <c r="AM235">
+        <v>2.89</v>
+      </c>
+      <c r="AN235">
+        <v>2.5</v>
+      </c>
+      <c r="AO235">
+        <v>0.86</v>
+      </c>
+      <c r="AP235">
+        <v>2.56</v>
+      </c>
+      <c r="AQ235">
+        <v>0.8</v>
+      </c>
+      <c r="AR235">
+        <v>1.73</v>
+      </c>
+      <c r="AS235">
+        <v>1.3</v>
+      </c>
+      <c r="AT235">
+        <v>3.03</v>
+      </c>
+      <c r="AU235">
+        <v>4</v>
+      </c>
+      <c r="AV235">
+        <v>5</v>
+      </c>
+      <c r="AW235">
+        <v>7</v>
+      </c>
+      <c r="AX235">
+        <v>4</v>
+      </c>
+      <c r="AY235">
+        <v>11</v>
+      </c>
+      <c r="AZ235">
+        <v>9</v>
+      </c>
+      <c r="BA235">
+        <v>3</v>
+      </c>
+      <c r="BB235">
+        <v>2</v>
+      </c>
+      <c r="BC235">
+        <v>5</v>
+      </c>
+      <c r="BD235">
+        <v>1.07</v>
+      </c>
+      <c r="BE235">
+        <v>11.75</v>
+      </c>
+      <c r="BF235">
+        <v>10.5</v>
+      </c>
+      <c r="BG235">
+        <v>1.33</v>
+      </c>
+      <c r="BH235">
+        <v>3</v>
+      </c>
+      <c r="BI235">
+        <v>1.58</v>
+      </c>
+      <c r="BJ235">
+        <v>2.31</v>
+      </c>
+      <c r="BK235">
+        <v>1.99</v>
+      </c>
+      <c r="BL235">
+        <v>1.81</v>
+      </c>
+      <c r="BM235">
+        <v>2.57</v>
+      </c>
+      <c r="BN235">
+        <v>1.48</v>
+      </c>
+      <c r="BO235">
+        <v>3.2</v>
+      </c>
+      <c r="BP235">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="332">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -688,6 +688,9 @@
     <t>['39', '57']</t>
   </si>
   <si>
+    <t>['4', '41', '89', '90+1']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -1004,6 +1007,9 @@
   </si>
   <si>
     <t>['1', '14', '69', '83']</t>
+  </si>
+  <si>
+    <t>['21', '72']</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP235"/>
+  <dimension ref="A1:BP238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2323,7 +2329,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ5">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2448,7 +2454,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2860,7 +2866,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3144,10 +3150,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ9">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3272,7 +3278,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3684,7 +3690,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3762,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ12">
         <v>0.92</v>
@@ -3890,7 +3896,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -4096,7 +4102,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4177,7 +4183,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ14">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -5126,7 +5132,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5538,7 +5544,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5616,7 +5622,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ21">
         <v>1.08</v>
@@ -5744,7 +5750,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5825,7 +5831,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR22">
         <v>1.22</v>
@@ -5950,7 +5956,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -6156,7 +6162,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6568,7 +6574,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6855,7 +6861,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ27">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR27">
         <v>2.1</v>
@@ -7267,7 +7273,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ29">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7392,7 +7398,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7598,7 +7604,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7676,7 +7682,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ31">
         <v>1.07</v>
@@ -8010,7 +8016,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8628,7 +8634,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -9040,7 +9046,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9246,7 +9252,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9324,7 +9330,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ39">
         <v>0.92</v>
@@ -9452,7 +9458,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9739,7 +9745,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ41">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR41">
         <v>1.48</v>
@@ -10070,7 +10076,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10276,7 +10282,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10482,7 +10488,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10560,7 +10566,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ45">
         <v>1.77</v>
@@ -10975,7 +10981,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ47">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR47">
         <v>1.07</v>
@@ -11100,7 +11106,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11306,7 +11312,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11593,7 +11599,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ50">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR50">
         <v>1.07</v>
@@ -11718,7 +11724,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11924,7 +11930,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12130,7 +12136,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12542,7 +12548,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12954,7 +12960,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13238,7 +13244,7 @@
         <v>2.33</v>
       </c>
       <c r="AP58">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ58">
         <v>1.77</v>
@@ -13572,7 +13578,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13778,7 +13784,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -14190,7 +14196,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14271,7 +14277,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ63">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR63">
         <v>1</v>
@@ -14396,7 +14402,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14602,7 +14608,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -15014,7 +15020,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15095,7 +15101,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ67">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR67">
         <v>1.71</v>
@@ -15301,7 +15307,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ68">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR68">
         <v>1.07</v>
@@ -15426,7 +15432,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15713,7 +15719,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ70">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR70">
         <v>1.2</v>
@@ -16044,7 +16050,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q72">
         <v>1.8</v>
@@ -16456,7 +16462,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16662,7 +16668,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -17074,7 +17080,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17155,7 +17161,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ77">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR77">
         <v>1.32</v>
@@ -17280,7 +17286,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17564,7 +17570,7 @@
         <v>0.75</v>
       </c>
       <c r="AP79">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ79">
         <v>0.8</v>
@@ -17692,7 +17698,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17773,7 +17779,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ80">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR80">
         <v>2.17</v>
@@ -18722,7 +18728,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18928,7 +18934,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19134,7 +19140,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19546,7 +19552,7 @@
         <v>92</v>
       </c>
       <c r="P89" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q89">
         <v>3.6</v>
@@ -19627,7 +19633,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ89">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR89">
         <v>1.19</v>
@@ -19752,7 +19758,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q90">
         <v>3.5</v>
@@ -19830,7 +19836,7 @@
         <v>1.4</v>
       </c>
       <c r="AP90">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ90">
         <v>1.07</v>
@@ -20451,7 +20457,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ93">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR93">
         <v>1.44</v>
@@ -21194,7 +21200,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21812,7 +21818,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -22224,7 +22230,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22305,7 +22311,7 @@
         <v>1</v>
       </c>
       <c r="AQ102">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR102">
         <v>1.24</v>
@@ -22430,7 +22436,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22714,7 +22720,7 @@
         <v>1.17</v>
       </c>
       <c r="AP104">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ104">
         <v>0.93</v>
@@ -23129,7 +23135,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ106">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR106">
         <v>2.1</v>
@@ -23254,7 +23260,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23666,7 +23672,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23950,10 +23956,10 @@
         <v>0.2</v>
       </c>
       <c r="AP110">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ110">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR110">
         <v>1.52</v>
@@ -24078,7 +24084,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24696,7 +24702,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -24983,7 +24989,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ115">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR115">
         <v>1.53</v>
@@ -25726,7 +25732,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25932,7 +25938,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -26138,7 +26144,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26425,7 +26431,7 @@
         <v>2</v>
       </c>
       <c r="AQ122">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR122">
         <v>1.59</v>
@@ -26628,7 +26634,7 @@
         <v>2</v>
       </c>
       <c r="AP123">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ123">
         <v>1.86</v>
@@ -26756,7 +26762,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -26962,7 +26968,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27168,7 +27174,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27374,7 +27380,7 @@
         <v>94</v>
       </c>
       <c r="P127" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q127">
         <v>3.4</v>
@@ -27786,7 +27792,7 @@
         <v>148</v>
       </c>
       <c r="P129" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q129">
         <v>2.6</v>
@@ -28073,7 +28079,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ130">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR130">
         <v>1.42</v>
@@ -28198,7 +28204,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28816,7 +28822,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -28897,7 +28903,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ134">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR134">
         <v>1.63</v>
@@ -29022,7 +29028,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29228,7 +29234,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29512,7 +29518,7 @@
         <v>1.86</v>
       </c>
       <c r="AP137">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ137">
         <v>1.29</v>
@@ -29846,7 +29852,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q139">
         <v>3.15</v>
@@ -30258,7 +30264,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -30464,7 +30470,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q142">
         <v>3.75</v>
@@ -30542,7 +30548,7 @@
         <v>2</v>
       </c>
       <c r="AP142">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ142">
         <v>2.27</v>
@@ -30876,7 +30882,7 @@
         <v>92</v>
       </c>
       <c r="P144" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q144">
         <v>3.2</v>
@@ -31163,7 +31169,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ145">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR145">
         <v>1.15</v>
@@ -31288,7 +31294,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31494,7 +31500,7 @@
         <v>108</v>
       </c>
       <c r="P147" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -32524,7 +32530,7 @@
         <v>185</v>
       </c>
       <c r="P152" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q152">
         <v>3.2</v>
@@ -32602,7 +32608,7 @@
         <v>0.5</v>
       </c>
       <c r="AP152">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ152">
         <v>1</v>
@@ -32936,7 +32942,7 @@
         <v>128</v>
       </c>
       <c r="P154" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33223,7 +33229,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ155">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR155">
         <v>1.48</v>
@@ -33348,7 +33354,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q156">
         <v>1.91</v>
@@ -33554,7 +33560,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34047,7 +34053,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ159">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR159">
         <v>1.5</v>
@@ -34378,7 +34384,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34584,7 +34590,7 @@
         <v>92</v>
       </c>
       <c r="P162" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -34790,7 +34796,7 @@
         <v>151</v>
       </c>
       <c r="P163" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -35280,7 +35286,7 @@
         <v>0.89</v>
       </c>
       <c r="AP165">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ165">
         <v>0.93</v>
@@ -35408,7 +35414,7 @@
         <v>92</v>
       </c>
       <c r="P166" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q166">
         <v>3</v>
@@ -35614,7 +35620,7 @@
         <v>191</v>
       </c>
       <c r="P167" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35692,7 +35698,7 @@
         <v>1</v>
       </c>
       <c r="AP167">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ167">
         <v>0.6899999999999999</v>
@@ -35820,7 +35826,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
@@ -36232,7 +36238,7 @@
         <v>193</v>
       </c>
       <c r="P170" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q170">
         <v>6</v>
@@ -36313,7 +36319,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ170">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR170">
         <v>0.93</v>
@@ -36644,7 +36650,7 @@
         <v>194</v>
       </c>
       <c r="P172" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -36725,7 +36731,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ172">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR172">
         <v>1.49</v>
@@ -37056,7 +37062,7 @@
         <v>92</v>
       </c>
       <c r="P174" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q174">
         <v>4.8</v>
@@ -37549,7 +37555,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ176">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR176">
         <v>1.36</v>
@@ -37674,7 +37680,7 @@
         <v>128</v>
       </c>
       <c r="P177" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q177">
         <v>3.25</v>
@@ -38292,7 +38298,7 @@
         <v>118</v>
       </c>
       <c r="P180" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q180">
         <v>3.5</v>
@@ -38704,7 +38710,7 @@
         <v>92</v>
       </c>
       <c r="P182" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q182">
         <v>4.33</v>
@@ -38910,7 +38916,7 @@
         <v>200</v>
       </c>
       <c r="P183" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q183">
         <v>9</v>
@@ -39116,7 +39122,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q184">
         <v>3.4</v>
@@ -39194,7 +39200,7 @@
         <v>1</v>
       </c>
       <c r="AP184">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ184">
         <v>1.07</v>
@@ -39322,7 +39328,7 @@
         <v>108</v>
       </c>
       <c r="P185" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -39815,7 +39821,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ187">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR187">
         <v>2.01</v>
@@ -40146,7 +40152,7 @@
         <v>92</v>
       </c>
       <c r="P189" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q189">
         <v>3.5</v>
@@ -40352,7 +40358,7 @@
         <v>202</v>
       </c>
       <c r="P190" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q190">
         <v>3.8</v>
@@ -40558,7 +40564,7 @@
         <v>92</v>
       </c>
       <c r="P191" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -40845,7 +40851,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ192">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR192">
         <v>1.47</v>
@@ -41463,7 +41469,7 @@
         <v>1</v>
       </c>
       <c r="AQ195">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR195">
         <v>1.26</v>
@@ -42078,7 +42084,7 @@
         <v>1.73</v>
       </c>
       <c r="AP198">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ198">
         <v>1.86</v>
@@ -42206,7 +42212,7 @@
         <v>204</v>
       </c>
       <c r="P199" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q199">
         <v>3.75</v>
@@ -42287,7 +42293,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ199">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR199">
         <v>1.16</v>
@@ -42412,7 +42418,7 @@
         <v>171</v>
       </c>
       <c r="P200" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q200">
         <v>3.5</v>
@@ -42824,7 +42830,7 @@
         <v>206</v>
       </c>
       <c r="P202" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q202">
         <v>3.2</v>
@@ -43648,7 +43654,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q206">
         <v>4.5</v>
@@ -43726,7 +43732,7 @@
         <v>1</v>
       </c>
       <c r="AP206">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ206">
         <v>1.27</v>
@@ -43854,7 +43860,7 @@
         <v>208</v>
       </c>
       <c r="P207" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q207">
         <v>2.75</v>
@@ -44266,7 +44272,7 @@
         <v>194</v>
       </c>
       <c r="P209" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q209">
         <v>3.5</v>
@@ -44472,7 +44478,7 @@
         <v>179</v>
       </c>
       <c r="P210" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q210">
         <v>7.5</v>
@@ -44678,7 +44684,7 @@
         <v>210</v>
       </c>
       <c r="P211" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q211">
         <v>3.75</v>
@@ -44884,7 +44890,7 @@
         <v>94</v>
       </c>
       <c r="P212" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q212">
         <v>3.4</v>
@@ -45090,7 +45096,7 @@
         <v>211</v>
       </c>
       <c r="P213" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q213">
         <v>3.2</v>
@@ -45171,7 +45177,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ213">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AR213">
         <v>1.39</v>
@@ -45296,7 +45302,7 @@
         <v>212</v>
       </c>
       <c r="P214" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q214">
         <v>2.78</v>
@@ -45374,7 +45380,7 @@
         <v>1.58</v>
       </c>
       <c r="AP214">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ214">
         <v>1.79</v>
@@ -45502,7 +45508,7 @@
         <v>213</v>
       </c>
       <c r="P215" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q215">
         <v>2.2</v>
@@ -45583,7 +45589,7 @@
         <v>2</v>
       </c>
       <c r="AQ215">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="AR215">
         <v>1.49</v>
@@ -45708,7 +45714,7 @@
         <v>214</v>
       </c>
       <c r="P216" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q216">
         <v>2.88</v>
@@ -45914,7 +45920,7 @@
         <v>92</v>
       </c>
       <c r="P217" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q217">
         <v>7</v>
@@ -45992,7 +45998,7 @@
         <v>2.11</v>
       </c>
       <c r="AP217">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ217">
         <v>2.27</v>
@@ -46120,7 +46126,7 @@
         <v>92</v>
       </c>
       <c r="P218" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q218">
         <v>3.1</v>
@@ -46326,7 +46332,7 @@
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q219">
         <v>7.5</v>
@@ -46610,7 +46616,7 @@
         <v>0.92</v>
       </c>
       <c r="AP220">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ220">
         <v>0.8</v>
@@ -46738,7 +46744,7 @@
         <v>216</v>
       </c>
       <c r="P221" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q221">
         <v>0</v>
@@ -47150,7 +47156,7 @@
         <v>217</v>
       </c>
       <c r="P223" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q223">
         <v>3.4</v>
@@ -47562,7 +47568,7 @@
         <v>92</v>
       </c>
       <c r="P225" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q225">
         <v>3</v>
@@ -47643,7 +47649,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ225">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AR225">
         <v>1.45</v>
@@ -47768,7 +47774,7 @@
         <v>218</v>
       </c>
       <c r="P226" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q226">
         <v>1.9</v>
@@ -48798,7 +48804,7 @@
         <v>92</v>
       </c>
       <c r="P231" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q231">
         <v>4.75</v>
@@ -49210,7 +49216,7 @@
         <v>221</v>
       </c>
       <c r="P233" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q233">
         <v>2.63</v>
@@ -49416,7 +49422,7 @@
         <v>222</v>
       </c>
       <c r="P234" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q234">
         <v>3.6</v>
@@ -49622,7 +49628,7 @@
         <v>223</v>
       </c>
       <c r="P235" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q235">
         <v>1.62</v>
@@ -49779,6 +49785,624 @@
       </c>
       <c r="BP235">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:68">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>7364354</v>
+      </c>
+      <c r="C236" t="s">
+        <v>68</v>
+      </c>
+      <c r="D236" t="s">
+        <v>69</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45472.41666666666</v>
+      </c>
+      <c r="F236">
+        <v>28</v>
+      </c>
+      <c r="G236" t="s">
+        <v>81</v>
+      </c>
+      <c r="H236" t="s">
+        <v>83</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>0</v>
+      </c>
+      <c r="O236" t="s">
+        <v>92</v>
+      </c>
+      <c r="P236" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q236">
+        <v>5</v>
+      </c>
+      <c r="R236">
+        <v>2</v>
+      </c>
+      <c r="S236">
+        <v>2.4</v>
+      </c>
+      <c r="T236">
+        <v>1.48</v>
+      </c>
+      <c r="U236">
+        <v>2.45</v>
+      </c>
+      <c r="V236">
+        <v>3.2</v>
+      </c>
+      <c r="W236">
+        <v>1.3</v>
+      </c>
+      <c r="X236">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y236">
+        <v>1.05</v>
+      </c>
+      <c r="Z236">
+        <v>5</v>
+      </c>
+      <c r="AA236">
+        <v>3.3</v>
+      </c>
+      <c r="AB236">
+        <v>1.73</v>
+      </c>
+      <c r="AC236">
+        <v>1.07</v>
+      </c>
+      <c r="AD236">
+        <v>7.5</v>
+      </c>
+      <c r="AE236">
+        <v>1.42</v>
+      </c>
+      <c r="AF236">
+        <v>2.75</v>
+      </c>
+      <c r="AG236">
+        <v>2.2</v>
+      </c>
+      <c r="AH236">
+        <v>1.65</v>
+      </c>
+      <c r="AI236">
+        <v>2.1</v>
+      </c>
+      <c r="AJ236">
+        <v>1.67</v>
+      </c>
+      <c r="AK236">
+        <v>1.95</v>
+      </c>
+      <c r="AL236">
+        <v>1.25</v>
+      </c>
+      <c r="AM236">
+        <v>1.15</v>
+      </c>
+      <c r="AN236">
+        <v>1</v>
+      </c>
+      <c r="AO236">
+        <v>1.5</v>
+      </c>
+      <c r="AP236">
+        <v>1</v>
+      </c>
+      <c r="AQ236">
+        <v>1.46</v>
+      </c>
+      <c r="AR236">
+        <v>1.2</v>
+      </c>
+      <c r="AS236">
+        <v>1.41</v>
+      </c>
+      <c r="AT236">
+        <v>2.61</v>
+      </c>
+      <c r="AU236">
+        <v>4</v>
+      </c>
+      <c r="AV236">
+        <v>4</v>
+      </c>
+      <c r="AW236">
+        <v>5</v>
+      </c>
+      <c r="AX236">
+        <v>7</v>
+      </c>
+      <c r="AY236">
+        <v>9</v>
+      </c>
+      <c r="AZ236">
+        <v>11</v>
+      </c>
+      <c r="BA236">
+        <v>8</v>
+      </c>
+      <c r="BB236">
+        <v>8</v>
+      </c>
+      <c r="BC236">
+        <v>16</v>
+      </c>
+      <c r="BD236">
+        <v>2.95</v>
+      </c>
+      <c r="BE236">
+        <v>6.2</v>
+      </c>
+      <c r="BF236">
+        <v>1.62</v>
+      </c>
+      <c r="BG236">
+        <v>1.5</v>
+      </c>
+      <c r="BH236">
+        <v>2.52</v>
+      </c>
+      <c r="BI236">
+        <v>1.84</v>
+      </c>
+      <c r="BJ236">
+        <v>1.95</v>
+      </c>
+      <c r="BK236">
+        <v>2.33</v>
+      </c>
+      <c r="BL236">
+        <v>1.57</v>
+      </c>
+      <c r="BM236">
+        <v>3</v>
+      </c>
+      <c r="BN236">
+        <v>1.33</v>
+      </c>
+      <c r="BO236">
+        <v>4</v>
+      </c>
+      <c r="BP236">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:68">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>7364355</v>
+      </c>
+      <c r="C237" t="s">
+        <v>68</v>
+      </c>
+      <c r="D237" t="s">
+        <v>69</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45472.47916666666</v>
+      </c>
+      <c r="F237">
+        <v>28</v>
+      </c>
+      <c r="G237" t="s">
+        <v>77</v>
+      </c>
+      <c r="H237" t="s">
+        <v>73</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+      <c r="L237">
+        <v>1</v>
+      </c>
+      <c r="M237">
+        <v>1</v>
+      </c>
+      <c r="N237">
+        <v>2</v>
+      </c>
+      <c r="O237" t="s">
+        <v>222</v>
+      </c>
+      <c r="P237" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q237">
+        <v>2.38</v>
+      </c>
+      <c r="R237">
+        <v>1.95</v>
+      </c>
+      <c r="S237">
+        <v>5.5</v>
+      </c>
+      <c r="T237">
+        <v>1.55</v>
+      </c>
+      <c r="U237">
+        <v>2.3</v>
+      </c>
+      <c r="V237">
+        <v>3.55</v>
+      </c>
+      <c r="W237">
+        <v>1.25</v>
+      </c>
+      <c r="X237">
+        <v>9</v>
+      </c>
+      <c r="Y237">
+        <v>1.03</v>
+      </c>
+      <c r="Z237">
+        <v>1.8</v>
+      </c>
+      <c r="AA237">
+        <v>3.1</v>
+      </c>
+      <c r="AB237">
+        <v>4.1</v>
+      </c>
+      <c r="AC237">
+        <v>1.1</v>
+      </c>
+      <c r="AD237">
+        <v>6.25</v>
+      </c>
+      <c r="AE237">
+        <v>1.49</v>
+      </c>
+      <c r="AF237">
+        <v>2.43</v>
+      </c>
+      <c r="AG237">
+        <v>2.49</v>
+      </c>
+      <c r="AH237">
+        <v>1.49</v>
+      </c>
+      <c r="AI237">
+        <v>2.25</v>
+      </c>
+      <c r="AJ237">
+        <v>1.57</v>
+      </c>
+      <c r="AK237">
+        <v>1.2</v>
+      </c>
+      <c r="AL237">
+        <v>1.3</v>
+      </c>
+      <c r="AM237">
+        <v>1.85</v>
+      </c>
+      <c r="AN237">
+        <v>1.38</v>
+      </c>
+      <c r="AO237">
+        <v>0.23</v>
+      </c>
+      <c r="AP237">
+        <v>1.36</v>
+      </c>
+      <c r="AQ237">
+        <v>0.29</v>
+      </c>
+      <c r="AR237">
+        <v>1.38</v>
+      </c>
+      <c r="AS237">
+        <v>1.06</v>
+      </c>
+      <c r="AT237">
+        <v>2.44</v>
+      </c>
+      <c r="AU237">
+        <v>4</v>
+      </c>
+      <c r="AV237">
+        <v>2</v>
+      </c>
+      <c r="AW237">
+        <v>8</v>
+      </c>
+      <c r="AX237">
+        <v>2</v>
+      </c>
+      <c r="AY237">
+        <v>12</v>
+      </c>
+      <c r="AZ237">
+        <v>4</v>
+      </c>
+      <c r="BA237">
+        <v>5</v>
+      </c>
+      <c r="BB237">
+        <v>6</v>
+      </c>
+      <c r="BC237">
+        <v>11</v>
+      </c>
+      <c r="BD237">
+        <v>1.33</v>
+      </c>
+      <c r="BE237">
+        <v>6.95</v>
+      </c>
+      <c r="BF237">
+        <v>4.5</v>
+      </c>
+      <c r="BG237">
+        <v>1.44</v>
+      </c>
+      <c r="BH237">
+        <v>2.68</v>
+      </c>
+      <c r="BI237">
+        <v>1.79</v>
+      </c>
+      <c r="BJ237">
+        <v>2.01</v>
+      </c>
+      <c r="BK237">
+        <v>2.28</v>
+      </c>
+      <c r="BL237">
+        <v>1.59</v>
+      </c>
+      <c r="BM237">
+        <v>2.88</v>
+      </c>
+      <c r="BN237">
+        <v>1.36</v>
+      </c>
+      <c r="BO237">
+        <v>3.8</v>
+      </c>
+      <c r="BP237">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="238" spans="1:68">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>7364356</v>
+      </c>
+      <c r="C238" t="s">
+        <v>68</v>
+      </c>
+      <c r="D238" t="s">
+        <v>69</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45472.54166666666</v>
+      </c>
+      <c r="F238">
+        <v>28</v>
+      </c>
+      <c r="G238" t="s">
+        <v>80</v>
+      </c>
+      <c r="H238" t="s">
+        <v>87</v>
+      </c>
+      <c r="I238">
+        <v>2</v>
+      </c>
+      <c r="J238">
+        <v>1</v>
+      </c>
+      <c r="K238">
+        <v>3</v>
+      </c>
+      <c r="L238">
+        <v>4</v>
+      </c>
+      <c r="M238">
+        <v>2</v>
+      </c>
+      <c r="N238">
+        <v>6</v>
+      </c>
+      <c r="O238" t="s">
+        <v>224</v>
+      </c>
+      <c r="P238" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q238">
+        <v>2.5</v>
+      </c>
+      <c r="R238">
+        <v>2.2</v>
+      </c>
+      <c r="S238">
+        <v>4</v>
+      </c>
+      <c r="T238">
+        <v>1.3</v>
+      </c>
+      <c r="U238">
+        <v>3.1</v>
+      </c>
+      <c r="V238">
+        <v>2.6</v>
+      </c>
+      <c r="W238">
+        <v>1.42</v>
+      </c>
+      <c r="X238">
+        <v>5.5</v>
+      </c>
+      <c r="Y238">
+        <v>1.1</v>
+      </c>
+      <c r="Z238">
+        <v>1.9</v>
+      </c>
+      <c r="AA238">
+        <v>3.2</v>
+      </c>
+      <c r="AB238">
+        <v>3.9</v>
+      </c>
+      <c r="AC238">
+        <v>1.05</v>
+      </c>
+      <c r="AD238">
+        <v>8</v>
+      </c>
+      <c r="AE238">
+        <v>1.22</v>
+      </c>
+      <c r="AF238">
+        <v>3.7</v>
+      </c>
+      <c r="AG238">
+        <v>1.85</v>
+      </c>
+      <c r="AH238">
+        <v>1.95</v>
+      </c>
+      <c r="AI238">
+        <v>1.73</v>
+      </c>
+      <c r="AJ238">
+        <v>2</v>
+      </c>
+      <c r="AK238">
+        <v>1.13</v>
+      </c>
+      <c r="AL238">
+        <v>1.28</v>
+      </c>
+      <c r="AM238">
+        <v>1.85</v>
+      </c>
+      <c r="AN238">
+        <v>2</v>
+      </c>
+      <c r="AO238">
+        <v>1.17</v>
+      </c>
+      <c r="AP238">
+        <v>2.09</v>
+      </c>
+      <c r="AQ238">
+        <v>1.08</v>
+      </c>
+      <c r="AR238">
+        <v>1.7</v>
+      </c>
+      <c r="AS238">
+        <v>1.65</v>
+      </c>
+      <c r="AT238">
+        <v>3.35</v>
+      </c>
+      <c r="AU238">
+        <v>13</v>
+      </c>
+      <c r="AV238">
+        <v>5</v>
+      </c>
+      <c r="AW238">
+        <v>5</v>
+      </c>
+      <c r="AX238">
+        <v>5</v>
+      </c>
+      <c r="AY238">
+        <v>18</v>
+      </c>
+      <c r="AZ238">
+        <v>10</v>
+      </c>
+      <c r="BA238">
+        <v>10</v>
+      </c>
+      <c r="BB238">
+        <v>5</v>
+      </c>
+      <c r="BC238">
+        <v>15</v>
+      </c>
+      <c r="BD238">
+        <v>1.64</v>
+      </c>
+      <c r="BE238">
+        <v>6.5</v>
+      </c>
+      <c r="BF238">
+        <v>2.82</v>
+      </c>
+      <c r="BG238">
+        <v>1.29</v>
+      </c>
+      <c r="BH238">
+        <v>3.4</v>
+      </c>
+      <c r="BI238">
+        <v>1.48</v>
+      </c>
+      <c r="BJ238">
+        <v>2.5</v>
+      </c>
+      <c r="BK238">
+        <v>2.38</v>
+      </c>
+      <c r="BL238">
+        <v>2</v>
+      </c>
+      <c r="BM238">
+        <v>2.24</v>
+      </c>
+      <c r="BN238">
+        <v>1.62</v>
+      </c>
+      <c r="BO238">
+        <v>2.8</v>
+      </c>
+      <c r="BP238">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="334">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -568,10 +568,10 @@
     <t>['8', '22', '34']</t>
   </si>
   <si>
-    <t>['34']</t>
+    <t>['21']</t>
   </si>
   <si>
-    <t>['21']</t>
+    <t>['34']</t>
   </si>
   <si>
     <t>['32', '42', '49', '82']</t>
@@ -592,10 +592,10 @@
     <t>['42', '76']</t>
   </si>
   <si>
-    <t>['37', '62', '80']</t>
+    <t>['66']</t>
   </si>
   <si>
-    <t>['66']</t>
+    <t>['37', '62', '80']</t>
   </si>
   <si>
     <t>['26']</t>
@@ -640,19 +640,19 @@
     <t>['90+3']</t>
   </si>
   <si>
-    <t>['22', '63', '90+3']</t>
+    <t>['18', '24', '68']</t>
   </si>
   <si>
-    <t>['18', '24', '68']</t>
+    <t>['22', '63', '90+3']</t>
   </si>
   <si>
     <t>['55', '70', '74']</t>
   </si>
   <si>
-    <t>['29', '90+5']</t>
+    <t>['90+6']</t>
   </si>
   <si>
-    <t>['90+6']</t>
+    <t>['29', '90+5']</t>
   </si>
   <si>
     <t>['14', '90+1', '90+9']</t>
@@ -689,6 +689,9 @@
   </si>
   <si>
     <t>['4', '41', '89', '90+1']</t>
+  </si>
+  <si>
+    <t>['19', '54']</t>
   </si>
   <si>
     <t>['16', '75']</t>
@@ -952,10 +955,10 @@
     <t>['51', '75']</t>
   </si>
   <si>
-    <t>['5', '45+2']</t>
+    <t>['22']</t>
   </si>
   <si>
-    <t>['22']</t>
+    <t>['5', '45+2']</t>
   </si>
   <si>
     <t>['80', '90+6']</t>
@@ -976,19 +979,19 @@
     <t>['52']</t>
   </si>
   <si>
-    <t>['45+5', '69']</t>
+    <t>['20', '86']</t>
   </si>
   <si>
-    <t>['20', '86']</t>
+    <t>['45+5', '69']</t>
   </si>
   <si>
     <t>['45+2', '48']</t>
   </si>
   <si>
-    <t>['49', '74']</t>
+    <t>['68']</t>
   </si>
   <si>
-    <t>['68']</t>
+    <t>['49', '74']</t>
   </si>
   <si>
     <t>['24', '74']</t>
@@ -1010,6 +1013,9 @@
   </si>
   <si>
     <t>['21', '72']</t>
+  </si>
+  <si>
+    <t>['12', '34', '38', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP238"/>
+  <dimension ref="A1:BP240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1708,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ2">
         <v>0.93</v>
@@ -2454,7 +2460,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2741,7 +2747,7 @@
         <v>2</v>
       </c>
       <c r="AQ7">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2866,7 +2872,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3278,7 +3284,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3690,7 +3696,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3896,7 +3902,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -4102,7 +4108,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4798,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ17">
         <v>0.8</v>
@@ -5132,7 +5138,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5544,7 +5550,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5625,7 +5631,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ21">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR21">
         <v>1.13</v>
@@ -5750,7 +5756,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5956,7 +5962,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -6162,7 +6168,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6446,7 +6452,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ25">
         <v>1.86</v>
@@ -6574,7 +6580,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -7064,7 +7070,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ28">
         <v>1.07</v>
@@ -7398,7 +7404,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7604,7 +7610,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -8016,7 +8022,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8634,7 +8640,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -9046,7 +9052,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9127,7 +9133,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR38">
         <v>1.37</v>
@@ -9252,7 +9258,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9458,7 +9464,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9742,7 +9748,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ41">
         <v>1.08</v>
@@ -10076,7 +10082,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10282,7 +10288,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10488,7 +10494,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -11106,7 +11112,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11312,7 +11318,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11393,7 +11399,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ49">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR49">
         <v>1.22</v>
@@ -11724,7 +11730,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11930,7 +11936,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12008,7 +12014,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ52">
         <v>0.93</v>
@@ -12136,7 +12142,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12217,7 +12223,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ53">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR53">
         <v>1.61</v>
@@ -12423,7 +12429,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ54">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR54">
         <v>1.42</v>
@@ -12548,7 +12554,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12960,7 +12966,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13450,10 +13456,10 @@
         <v>1.67</v>
       </c>
       <c r="AP59">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ59">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR59">
         <v>1.51</v>
@@ -13578,7 +13584,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13784,7 +13790,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -14196,7 +14202,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14402,7 +14408,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14608,7 +14614,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -15020,7 +15026,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15432,7 +15438,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15513,7 +15519,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ69">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR69">
         <v>1.06</v>
@@ -15922,7 +15928,7 @@
         <v>1.75</v>
       </c>
       <c r="AP71">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ71">
         <v>1.27</v>
@@ -16050,7 +16056,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q72">
         <v>1.8</v>
@@ -16462,7 +16468,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16668,7 +16674,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16746,7 +16752,7 @@
         <v>0.5</v>
       </c>
       <c r="AP75">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ75">
         <v>0.92</v>
@@ -17080,7 +17086,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17286,7 +17292,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17698,7 +17704,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -18600,7 +18606,7 @@
         <v>2.2</v>
       </c>
       <c r="AP84">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ84">
         <v>1.77</v>
@@ -18728,7 +18734,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18934,7 +18940,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19012,7 +19018,7 @@
         <v>0.2</v>
       </c>
       <c r="AP86">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ86">
         <v>1</v>
@@ -19140,7 +19146,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19552,7 +19558,7 @@
         <v>92</v>
       </c>
       <c r="P89" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q89">
         <v>3.6</v>
@@ -19758,7 +19764,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q90">
         <v>3.5</v>
@@ -21200,7 +21206,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21693,7 +21699,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ99">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR99">
         <v>1.69</v>
@@ -21818,7 +21824,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -22102,7 +22108,7 @@
         <v>1.2</v>
       </c>
       <c r="AP101">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ101">
         <v>0.6899999999999999</v>
@@ -22230,7 +22236,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22436,7 +22442,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23260,7 +23266,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23672,7 +23678,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24084,7 +24090,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24702,7 +24708,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -24986,7 +24992,7 @@
         <v>0.17</v>
       </c>
       <c r="AP115">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ115">
         <v>0.29</v>
@@ -25192,7 +25198,7 @@
         <v>1.17</v>
       </c>
       <c r="AP116">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ116">
         <v>1.07</v>
@@ -25732,7 +25738,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25813,7 +25819,7 @@
         <v>1</v>
       </c>
       <c r="AQ119">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR119">
         <v>1.25</v>
@@ -25938,7 +25944,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -26144,7 +26150,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26762,7 +26768,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -26968,7 +26974,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27049,7 +27055,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ125">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR125">
         <v>1.42</v>
@@ -27174,7 +27180,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27380,7 +27386,7 @@
         <v>94</v>
       </c>
       <c r="P127" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q127">
         <v>3.4</v>
@@ -27792,7 +27798,7 @@
         <v>148</v>
       </c>
       <c r="P129" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q129">
         <v>2.6</v>
@@ -28204,7 +28210,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28282,7 +28288,7 @@
         <v>1.67</v>
       </c>
       <c r="AP131">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ131">
         <v>1.29</v>
@@ -28822,7 +28828,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -29028,7 +29034,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29234,7 +29240,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29312,7 +29318,7 @@
         <v>1.83</v>
       </c>
       <c r="AP136">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ136">
         <v>1.86</v>
@@ -29727,7 +29733,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ138">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR138">
         <v>1.91</v>
@@ -29852,7 +29858,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q139">
         <v>3.15</v>
@@ -30264,7 +30270,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -30470,7 +30476,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q142">
         <v>3.75</v>
@@ -30551,7 +30557,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ142">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR142">
         <v>1.73</v>
@@ -30840,7 +30846,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>7364260</v>
+        <v>7364259</v>
       </c>
       <c r="C144" t="s">
         <v>68</v>
@@ -30855,10 +30861,10 @@
         <v>18</v>
       </c>
       <c r="G144" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H144" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -30873,172 +30879,172 @@
         <v>0</v>
       </c>
       <c r="M144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O144" t="s">
         <v>92</v>
       </c>
       <c r="P144" t="s">
-        <v>293</v>
+        <v>92</v>
       </c>
       <c r="Q144">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="R144">
+        <v>1.83</v>
+      </c>
+      <c r="S144">
+        <v>6</v>
+      </c>
+      <c r="T144">
+        <v>1.83</v>
+      </c>
+      <c r="U144">
+        <v>1.96</v>
+      </c>
+      <c r="V144">
+        <v>4.64</v>
+      </c>
+      <c r="W144">
+        <v>1.16</v>
+      </c>
+      <c r="X144">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Y144">
+        <v>1.01</v>
+      </c>
+      <c r="Z144">
+        <v>1.73</v>
+      </c>
+      <c r="AA144">
+        <v>3.1</v>
+      </c>
+      <c r="AB144">
+        <v>5</v>
+      </c>
+      <c r="AC144">
+        <v>1.2</v>
+      </c>
+      <c r="AD144">
+        <v>4.2</v>
+      </c>
+      <c r="AE144">
         <v>1.91</v>
       </c>
-      <c r="S144">
-        <v>3.75</v>
-      </c>
-      <c r="T144">
-        <v>1.54</v>
-      </c>
-      <c r="U144">
-        <v>2.42</v>
-      </c>
-      <c r="V144">
-        <v>3.5</v>
-      </c>
-      <c r="W144">
-        <v>1.26</v>
-      </c>
-      <c r="X144">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="Y144">
-        <v>1.02</v>
-      </c>
-      <c r="Z144">
-        <v>2.38</v>
-      </c>
-      <c r="AA144">
+      <c r="AF144">
+        <v>1.8</v>
+      </c>
+      <c r="AG144">
         <v>2.75</v>
       </c>
-      <c r="AB144">
-        <v>3.2</v>
-      </c>
-      <c r="AC144">
+      <c r="AH144">
+        <v>1.4</v>
+      </c>
+      <c r="AI144">
+        <v>2.63</v>
+      </c>
+      <c r="AJ144">
+        <v>1.44</v>
+      </c>
+      <c r="AK144">
         <v>1.09</v>
       </c>
-      <c r="AD144">
-        <v>6</v>
-      </c>
-      <c r="AE144">
-        <v>1.49</v>
-      </c>
-      <c r="AF144">
-        <v>2.52</v>
-      </c>
-      <c r="AG144">
-        <v>2.5</v>
-      </c>
-      <c r="AH144">
-        <v>1.5</v>
-      </c>
-      <c r="AI144">
-        <v>2.1</v>
-      </c>
-      <c r="AJ144">
+      <c r="AL144">
+        <v>1.33</v>
+      </c>
+      <c r="AM144">
+        <v>2.01</v>
+      </c>
+      <c r="AN144">
         <v>1.67</v>
       </c>
-      <c r="AK144">
-        <v>1.32</v>
-      </c>
-      <c r="AL144">
-        <v>1.34</v>
-      </c>
-      <c r="AM144">
-        <v>1.4</v>
-      </c>
-      <c r="AN144">
-        <v>1.11</v>
-      </c>
       <c r="AO144">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="AP144">
-        <v>1.21</v>
+        <v>1.57</v>
       </c>
       <c r="AQ144">
-        <v>1.07</v>
+        <v>0.29</v>
       </c>
       <c r="AR144">
-        <v>1.47</v>
+        <v>1.15</v>
       </c>
       <c r="AS144">
-        <v>1.24</v>
+        <v>0.99</v>
       </c>
       <c r="AT144">
-        <v>2.71</v>
+        <v>2.14</v>
       </c>
       <c r="AU144">
         <v>4</v>
       </c>
       <c r="AV144">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW144">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX144">
         <v>3</v>
       </c>
       <c r="AY144">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ144">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA144">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="BB144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC144">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="BD144">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="BE144">
         <v>8.199999999999999</v>
       </c>
       <c r="BF144">
-        <v>2.53</v>
+        <v>2.92</v>
       </c>
       <c r="BG144">
+        <v>1.46</v>
+      </c>
+      <c r="BH144">
+        <v>2.65</v>
+      </c>
+      <c r="BI144">
+        <v>1.8</v>
+      </c>
+      <c r="BJ144">
+        <v>2</v>
+      </c>
+      <c r="BK144">
+        <v>2.29</v>
+      </c>
+      <c r="BL144">
+        <v>1.6</v>
+      </c>
+      <c r="BM144">
+        <v>2.9</v>
+      </c>
+      <c r="BN144">
         <v>1.36</v>
       </c>
-      <c r="BH144">
-        <v>2.9</v>
-      </c>
-      <c r="BI144">
-        <v>1.63</v>
-      </c>
-      <c r="BJ144">
-        <v>2.25</v>
-      </c>
-      <c r="BK144">
-        <v>2.03</v>
-      </c>
-      <c r="BL144">
-        <v>1.77</v>
-      </c>
-      <c r="BM144">
-        <v>2.5</v>
-      </c>
-      <c r="BN144">
-        <v>1.48</v>
-      </c>
       <c r="BO144">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="BP144">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="145" spans="1:68">
@@ -31046,7 +31052,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>7364259</v>
+        <v>7364260</v>
       </c>
       <c r="C145" t="s">
         <v>68</v>
@@ -31061,10 +31067,10 @@
         <v>18</v>
       </c>
       <c r="G145" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H145" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -31079,172 +31085,172 @@
         <v>0</v>
       </c>
       <c r="M145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O145" t="s">
         <v>92</v>
       </c>
       <c r="P145" t="s">
-        <v>92</v>
+        <v>294</v>
       </c>
       <c r="Q145">
+        <v>3.2</v>
+      </c>
+      <c r="R145">
+        <v>1.91</v>
+      </c>
+      <c r="S145">
+        <v>3.75</v>
+      </c>
+      <c r="T145">
+        <v>1.54</v>
+      </c>
+      <c r="U145">
+        <v>2.42</v>
+      </c>
+      <c r="V145">
+        <v>3.5</v>
+      </c>
+      <c r="W145">
+        <v>1.26</v>
+      </c>
+      <c r="X145">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y145">
+        <v>1.02</v>
+      </c>
+      <c r="Z145">
+        <v>2.38</v>
+      </c>
+      <c r="AA145">
+        <v>2.75</v>
+      </c>
+      <c r="AB145">
+        <v>3.2</v>
+      </c>
+      <c r="AC145">
+        <v>1.09</v>
+      </c>
+      <c r="AD145">
+        <v>6</v>
+      </c>
+      <c r="AE145">
+        <v>1.49</v>
+      </c>
+      <c r="AF145">
+        <v>2.52</v>
+      </c>
+      <c r="AG145">
         <v>2.5</v>
       </c>
-      <c r="R145">
-        <v>1.83</v>
-      </c>
-      <c r="S145">
-        <v>6</v>
-      </c>
-      <c r="T145">
-        <v>1.83</v>
-      </c>
-      <c r="U145">
-        <v>1.96</v>
-      </c>
-      <c r="V145">
-        <v>4.64</v>
-      </c>
-      <c r="W145">
-        <v>1.16</v>
-      </c>
-      <c r="X145">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="Y145">
-        <v>1.01</v>
-      </c>
-      <c r="Z145">
-        <v>1.73</v>
-      </c>
-      <c r="AA145">
-        <v>3.1</v>
-      </c>
-      <c r="AB145">
-        <v>5</v>
-      </c>
-      <c r="AC145">
-        <v>1.2</v>
-      </c>
-      <c r="AD145">
-        <v>4.2</v>
-      </c>
-      <c r="AE145">
-        <v>1.91</v>
-      </c>
-      <c r="AF145">
-        <v>1.8</v>
-      </c>
-      <c r="AG145">
-        <v>2.75</v>
-      </c>
       <c r="AH145">
+        <v>1.5</v>
+      </c>
+      <c r="AI145">
+        <v>2.1</v>
+      </c>
+      <c r="AJ145">
+        <v>1.67</v>
+      </c>
+      <c r="AK145">
+        <v>1.32</v>
+      </c>
+      <c r="AL145">
+        <v>1.34</v>
+      </c>
+      <c r="AM145">
         <v>1.4</v>
       </c>
-      <c r="AI145">
-        <v>2.63</v>
-      </c>
-      <c r="AJ145">
-        <v>1.44</v>
-      </c>
-      <c r="AK145">
-        <v>1.09</v>
-      </c>
-      <c r="AL145">
-        <v>1.33</v>
-      </c>
-      <c r="AM145">
-        <v>2.01</v>
-      </c>
       <c r="AN145">
-        <v>1.67</v>
+        <v>1.11</v>
       </c>
       <c r="AO145">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="AP145">
-        <v>1.57</v>
+        <v>1.21</v>
       </c>
       <c r="AQ145">
-        <v>0.29</v>
+        <v>1.07</v>
       </c>
       <c r="AR145">
-        <v>1.15</v>
+        <v>1.47</v>
       </c>
       <c r="AS145">
-        <v>0.99</v>
+        <v>1.24</v>
       </c>
       <c r="AT145">
-        <v>2.14</v>
+        <v>2.71</v>
       </c>
       <c r="AU145">
         <v>4</v>
       </c>
       <c r="AV145">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW145">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX145">
         <v>3</v>
       </c>
       <c r="AY145">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ145">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA145">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="BB145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC145">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="BD145">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="BE145">
         <v>8.199999999999999</v>
       </c>
       <c r="BF145">
-        <v>2.92</v>
+        <v>2.53</v>
       </c>
       <c r="BG145">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="BH145">
-        <v>2.65</v>
+        <v>2.9</v>
       </c>
       <c r="BI145">
-        <v>1.8</v>
+        <v>1.63</v>
       </c>
       <c r="BJ145">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="BK145">
-        <v>2.29</v>
+        <v>2.03</v>
       </c>
       <c r="BL145">
-        <v>1.6</v>
+        <v>1.77</v>
       </c>
       <c r="BM145">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="BN145">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="BO145">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="BP145">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="146" spans="1:68">
@@ -31294,7 +31300,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31500,7 +31506,7 @@
         <v>108</v>
       </c>
       <c r="P147" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -32199,7 +32205,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ150">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR150">
         <v>1.76</v>
@@ -32282,7 +32288,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>7364268</v>
+        <v>7364269</v>
       </c>
       <c r="C151" t="s">
         <v>68</v>
@@ -32297,19 +32303,19 @@
         <v>19</v>
       </c>
       <c r="G151" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H151" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I151">
         <v>1</v>
       </c>
       <c r="J151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L151">
         <v>1</v>
@@ -32324,106 +32330,106 @@
         <v>184</v>
       </c>
       <c r="P151" t="s">
-        <v>108</v>
+        <v>297</v>
       </c>
       <c r="Q151">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="R151">
+        <v>1.95</v>
+      </c>
+      <c r="S151">
+        <v>3.5</v>
+      </c>
+      <c r="T151">
+        <v>1.5</v>
+      </c>
+      <c r="U151">
+        <v>2.4</v>
+      </c>
+      <c r="V151">
+        <v>3.2</v>
+      </c>
+      <c r="W151">
+        <v>1.3</v>
+      </c>
+      <c r="X151">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y151">
+        <v>1.05</v>
+      </c>
+      <c r="Z151">
+        <v>2.7</v>
+      </c>
+      <c r="AA151">
+        <v>2.75</v>
+      </c>
+      <c r="AB151">
+        <v>2.8</v>
+      </c>
+      <c r="AC151">
+        <v>1.08</v>
+      </c>
+      <c r="AD151">
+        <v>7</v>
+      </c>
+      <c r="AE151">
+        <v>1.42</v>
+      </c>
+      <c r="AF151">
+        <v>2.75</v>
+      </c>
+      <c r="AG151">
+        <v>2.3</v>
+      </c>
+      <c r="AH151">
+        <v>1.6</v>
+      </c>
+      <c r="AI151">
         <v>1.91</v>
       </c>
-      <c r="S151">
-        <v>2.63</v>
-      </c>
-      <c r="T151">
-        <v>1.6</v>
-      </c>
-      <c r="U151">
-        <v>2.2</v>
-      </c>
-      <c r="V151">
-        <v>3.8</v>
-      </c>
-      <c r="W151">
-        <v>1.22</v>
-      </c>
-      <c r="X151">
-        <v>10.75</v>
-      </c>
-      <c r="Y151">
-        <v>1.02</v>
-      </c>
-      <c r="Z151">
-        <v>4.33</v>
-      </c>
-      <c r="AA151">
-        <v>3</v>
-      </c>
-      <c r="AB151">
-        <v>1.91</v>
-      </c>
-      <c r="AC151">
-        <v>1.11</v>
-      </c>
-      <c r="AD151">
-        <v>6</v>
-      </c>
-      <c r="AE151">
-        <v>1.55</v>
-      </c>
-      <c r="AF151">
-        <v>2.3</v>
-      </c>
-      <c r="AG151">
-        <v>2.63</v>
-      </c>
-      <c r="AH151">
-        <v>1.44</v>
-      </c>
-      <c r="AI151">
-        <v>2.38</v>
-      </c>
       <c r="AJ151">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="AK151">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="AL151">
         <v>1.3</v>
       </c>
       <c r="AM151">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AN151">
-        <v>0.88</v>
+        <v>1.75</v>
       </c>
       <c r="AO151">
-        <v>1.88</v>
+        <v>0.5</v>
       </c>
       <c r="AP151">
-        <v>1.07</v>
+        <v>1.36</v>
       </c>
       <c r="AQ151">
-        <v>1.86</v>
+        <v>1</v>
       </c>
       <c r="AR151">
-        <v>0.89</v>
+        <v>1.4</v>
       </c>
       <c r="AS151">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="AT151">
-        <v>2.35</v>
+        <v>2.95</v>
       </c>
       <c r="AU151">
+        <v>4</v>
+      </c>
+      <c r="AV151">
         <v>5</v>
       </c>
-      <c r="AV151">
-        <v>6</v>
-      </c>
       <c r="AW151">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX151">
         <v>5</v>
@@ -32432,55 +32438,55 @@
         <v>9</v>
       </c>
       <c r="AZ151">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA151">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BB151">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BC151">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD151">
-        <v>2.91</v>
+        <v>1.86</v>
       </c>
       <c r="BE151">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="BF151">
-        <v>1.52</v>
+        <v>2.17</v>
       </c>
       <c r="BG151">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="BH151">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="BI151">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="BJ151">
-        <v>2.09</v>
+        <v>2.28</v>
       </c>
       <c r="BK151">
-        <v>2.07</v>
+        <v>1.91</v>
       </c>
       <c r="BL151">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="BM151">
-        <v>2.78</v>
+        <v>2.51</v>
       </c>
       <c r="BN151">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="BO151">
-        <v>3.68</v>
+        <v>3.42</v>
       </c>
       <c r="BP151">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="152" spans="1:68">
@@ -32488,7 +32494,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>7364269</v>
+        <v>7364268</v>
       </c>
       <c r="C152" t="s">
         <v>68</v>
@@ -32503,19 +32509,19 @@
         <v>19</v>
       </c>
       <c r="G152" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H152" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I152">
         <v>1</v>
       </c>
       <c r="J152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L152">
         <v>1</v>
@@ -32530,106 +32536,106 @@
         <v>185</v>
       </c>
       <c r="P152" t="s">
-        <v>296</v>
+        <v>108</v>
       </c>
       <c r="Q152">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="R152">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S152">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="T152">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="U152">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="V152">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="W152">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="X152">
-        <v>8.699999999999999</v>
+        <v>10.75</v>
       </c>
       <c r="Y152">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="Z152">
-        <v>2.7</v>
+        <v>4.33</v>
       </c>
       <c r="AA152">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AB152">
-        <v>2.8</v>
+        <v>1.91</v>
       </c>
       <c r="AC152">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AD152">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE152">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="AF152">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="AG152">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="AH152">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="AI152">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="AJ152">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="AK152">
-        <v>1.38</v>
+        <v>1.83</v>
       </c>
       <c r="AL152">
         <v>1.3</v>
       </c>
       <c r="AM152">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AN152">
-        <v>1.75</v>
+        <v>0.88</v>
       </c>
       <c r="AO152">
-        <v>0.5</v>
+        <v>1.88</v>
       </c>
       <c r="AP152">
-        <v>1.36</v>
+        <v>1.07</v>
       </c>
       <c r="AQ152">
-        <v>1</v>
+        <v>1.86</v>
       </c>
       <c r="AR152">
-        <v>1.4</v>
+        <v>0.89</v>
       </c>
       <c r="AS152">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="AT152">
-        <v>2.95</v>
+        <v>2.35</v>
       </c>
       <c r="AU152">
+        <v>5</v>
+      </c>
+      <c r="AV152">
+        <v>6</v>
+      </c>
+      <c r="AW152">
         <v>4</v>
-      </c>
-      <c r="AV152">
-        <v>5</v>
-      </c>
-      <c r="AW152">
-        <v>5</v>
       </c>
       <c r="AX152">
         <v>5</v>
@@ -32638,55 +32644,55 @@
         <v>9</v>
       </c>
       <c r="AZ152">
+        <v>11</v>
+      </c>
+      <c r="BA152">
+        <v>3</v>
+      </c>
+      <c r="BB152">
         <v>10</v>
       </c>
-      <c r="BA152">
-        <v>7</v>
-      </c>
-      <c r="BB152">
-        <v>8</v>
-      </c>
       <c r="BC152">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BD152">
-        <v>1.86</v>
+        <v>2.91</v>
       </c>
       <c r="BE152">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="BF152">
-        <v>2.17</v>
+        <v>1.52</v>
       </c>
       <c r="BG152">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="BH152">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="BI152">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="BJ152">
-        <v>2.28</v>
+        <v>2.09</v>
       </c>
       <c r="BK152">
-        <v>1.91</v>
+        <v>2.07</v>
       </c>
       <c r="BL152">
-        <v>1.76</v>
+        <v>1.64</v>
       </c>
       <c r="BM152">
-        <v>2.51</v>
+        <v>2.78</v>
       </c>
       <c r="BN152">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="BO152">
-        <v>3.42</v>
+        <v>3.68</v>
       </c>
       <c r="BP152">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="153" spans="1:68">
@@ -32942,7 +32948,7 @@
         <v>128</v>
       </c>
       <c r="P154" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33226,7 +33232,7 @@
         <v>1.63</v>
       </c>
       <c r="AP155">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ155">
         <v>1.46</v>
@@ -33354,7 +33360,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q156">
         <v>1.91</v>
@@ -33560,7 +33566,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34050,7 +34056,7 @@
         <v>0.33</v>
       </c>
       <c r="AP159">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ159">
         <v>0.29</v>
@@ -34384,7 +34390,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34548,7 +34554,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>7364281</v>
+        <v>7364282</v>
       </c>
       <c r="C162" t="s">
         <v>68</v>
@@ -34563,190 +34569,190 @@
         <v>20</v>
       </c>
       <c r="G162" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H162" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I162">
         <v>0</v>
       </c>
       <c r="J162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O162" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="P162" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="Q162">
         <v>6</v>
       </c>
       <c r="R162">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S162">
+        <v>2.05</v>
+      </c>
+      <c r="T162">
+        <v>1.39</v>
+      </c>
+      <c r="U162">
+        <v>2.94</v>
+      </c>
+      <c r="V162">
+        <v>2.95</v>
+      </c>
+      <c r="W162">
+        <v>1.38</v>
+      </c>
+      <c r="X162">
+        <v>6.13</v>
+      </c>
+      <c r="Y162">
+        <v>1.09</v>
+      </c>
+      <c r="Z162">
+        <v>6.5</v>
+      </c>
+      <c r="AA162">
+        <v>3.75</v>
+      </c>
+      <c r="AB162">
+        <v>1.5</v>
+      </c>
+      <c r="AC162">
+        <v>1.03</v>
+      </c>
+      <c r="AD162">
+        <v>9</v>
+      </c>
+      <c r="AE162">
+        <v>1.3</v>
+      </c>
+      <c r="AF162">
+        <v>3.43</v>
+      </c>
+      <c r="AG162">
+        <v>2</v>
+      </c>
+      <c r="AH162">
+        <v>1.8</v>
+      </c>
+      <c r="AI162">
+        <v>2.1</v>
+      </c>
+      <c r="AJ162">
+        <v>1.67</v>
+      </c>
+      <c r="AK162">
         <v>2.3</v>
       </c>
-      <c r="T162">
-        <v>1.44</v>
-      </c>
-      <c r="U162">
-        <v>2.73</v>
-      </c>
-      <c r="V162">
-        <v>3.22</v>
-      </c>
-      <c r="W162">
-        <v>1.33</v>
-      </c>
-      <c r="X162">
-        <v>7</v>
-      </c>
-      <c r="Y162">
-        <v>1.07</v>
-      </c>
-      <c r="Z162">
-        <v>5.25</v>
-      </c>
-      <c r="AA162">
-        <v>3.4</v>
-      </c>
-      <c r="AB162">
-        <v>1.62</v>
-      </c>
-      <c r="AC162">
-        <v>1.05</v>
-      </c>
-      <c r="AD162">
-        <v>8</v>
-      </c>
-      <c r="AE162">
-        <v>1.35</v>
-      </c>
-      <c r="AF162">
-        <v>3.11</v>
-      </c>
-      <c r="AG162">
-        <v>2.35</v>
-      </c>
-      <c r="AH162">
-        <v>1.57</v>
-      </c>
-      <c r="AI162">
-        <v>2.25</v>
-      </c>
-      <c r="AJ162">
-        <v>1.57</v>
-      </c>
-      <c r="AK162">
-        <v>2.28</v>
-      </c>
       <c r="AL162">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AM162">
         <v>1.1</v>
       </c>
       <c r="AN162">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AO162">
-        <v>2.29</v>
+        <v>1.67</v>
       </c>
       <c r="AP162">
-        <v>1.57</v>
+        <v>1.2</v>
       </c>
       <c r="AQ162">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="AR162">
-        <v>1.17</v>
+        <v>1.39</v>
       </c>
       <c r="AS162">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="AT162">
-        <v>2.88</v>
+        <v>3.22</v>
       </c>
       <c r="AU162">
+        <v>6</v>
+      </c>
+      <c r="AV162">
+        <v>3</v>
+      </c>
+      <c r="AW162">
+        <v>0</v>
+      </c>
+      <c r="AX162">
         <v>5</v>
       </c>
-      <c r="AV162">
+      <c r="AY162">
         <v>6</v>
       </c>
-      <c r="AW162">
-        <v>6</v>
-      </c>
-      <c r="AX162">
-        <v>7</v>
-      </c>
-      <c r="AY162">
-        <v>11</v>
-      </c>
       <c r="AZ162">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BA162">
+        <v>2</v>
+      </c>
+      <c r="BB162">
+        <v>3</v>
+      </c>
+      <c r="BC162">
         <v>5</v>
       </c>
-      <c r="BB162">
-        <v>5</v>
-      </c>
-      <c r="BC162">
-        <v>10</v>
-      </c>
       <c r="BD162">
-        <v>3.26</v>
+        <v>3.08</v>
       </c>
       <c r="BE162">
-        <v>8.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF162">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="BG162">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="BH162">
-        <v>3.28</v>
+        <v>3.74</v>
       </c>
       <c r="BI162">
-        <v>1.58</v>
+        <v>1.4</v>
       </c>
       <c r="BJ162">
-        <v>2.31</v>
+        <v>2.64</v>
       </c>
       <c r="BK162">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="BL162">
-        <v>1.85</v>
+        <v>2.09</v>
       </c>
       <c r="BM162">
-        <v>2.46</v>
+        <v>2.12</v>
       </c>
       <c r="BN162">
-        <v>1.52</v>
+        <v>1.69</v>
       </c>
       <c r="BO162">
-        <v>3.34</v>
+        <v>2.84</v>
       </c>
       <c r="BP162">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="163" spans="1:68">
@@ -34754,7 +34760,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>7364282</v>
+        <v>7364281</v>
       </c>
       <c r="C163" t="s">
         <v>68</v>
@@ -34769,190 +34775,190 @@
         <v>20</v>
       </c>
       <c r="G163" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H163" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I163">
         <v>0</v>
       </c>
       <c r="J163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O163" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="Q163">
         <v>6</v>
       </c>
       <c r="R163">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S163">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="T163">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="U163">
-        <v>2.94</v>
+        <v>2.73</v>
       </c>
       <c r="V163">
-        <v>2.95</v>
+        <v>3.22</v>
       </c>
       <c r="W163">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="X163">
-        <v>6.13</v>
+        <v>7</v>
       </c>
       <c r="Y163">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="Z163">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="AA163">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AB163">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AC163">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AD163">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE163">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AF163">
-        <v>3.43</v>
+        <v>3.11</v>
       </c>
       <c r="AG163">
-        <v>2</v>
+        <v>2.35</v>
       </c>
       <c r="AH163">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="AI163">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AJ163">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AK163">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="AL163">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AM163">
         <v>1.1</v>
       </c>
       <c r="AN163">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AO163">
-        <v>1.67</v>
+        <v>2.29</v>
       </c>
       <c r="AP163">
-        <v>1.2</v>
+        <v>1.57</v>
       </c>
       <c r="AQ163">
-        <v>2.27</v>
+        <v>2.55</v>
       </c>
       <c r="AR163">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AS163">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AT163">
-        <v>3.22</v>
+        <v>2.88</v>
       </c>
       <c r="AU163">
+        <v>5</v>
+      </c>
+      <c r="AV163">
         <v>6</v>
       </c>
-      <c r="AV163">
-        <v>3</v>
-      </c>
       <c r="AW163">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AX163">
+        <v>7</v>
+      </c>
+      <c r="AY163">
+        <v>11</v>
+      </c>
+      <c r="AZ163">
+        <v>13</v>
+      </c>
+      <c r="BA163">
         <v>5</v>
       </c>
-      <c r="AY163">
-        <v>6</v>
-      </c>
-      <c r="AZ163">
-        <v>8</v>
-      </c>
-      <c r="BA163">
-        <v>2</v>
-      </c>
       <c r="BB163">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC163">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BD163">
-        <v>3.08</v>
+        <v>3.26</v>
       </c>
       <c r="BE163">
-        <v>9.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="BF163">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="BG163">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="BH163">
-        <v>3.74</v>
+        <v>3.28</v>
       </c>
       <c r="BI163">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="BJ163">
-        <v>2.64</v>
+        <v>2.31</v>
       </c>
       <c r="BK163">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="BL163">
-        <v>2.09</v>
+        <v>1.85</v>
       </c>
       <c r="BM163">
-        <v>2.12</v>
+        <v>2.46</v>
       </c>
       <c r="BN163">
-        <v>1.69</v>
+        <v>1.52</v>
       </c>
       <c r="BO163">
-        <v>2.84</v>
+        <v>3.34</v>
       </c>
       <c r="BP163">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="164" spans="1:68">
@@ -35414,7 +35420,7 @@
         <v>92</v>
       </c>
       <c r="P166" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q166">
         <v>3</v>
@@ -35620,7 +35626,7 @@
         <v>191</v>
       </c>
       <c r="P167" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35826,7 +35832,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
@@ -35990,7 +35996,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>7364288</v>
+        <v>7364289</v>
       </c>
       <c r="C169" t="s">
         <v>68</v>
@@ -36005,190 +36011,190 @@
         <v>21</v>
       </c>
       <c r="G169" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H169" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K169">
         <v>1</v>
       </c>
       <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169">
         <v>3</v>
       </c>
-      <c r="M169">
-        <v>0</v>
-      </c>
       <c r="N169">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O169" t="s">
         <v>192</v>
       </c>
       <c r="P169" t="s">
-        <v>92</v>
+        <v>304</v>
       </c>
       <c r="Q169">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="R169">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="S169">
-        <v>7</v>
+        <v>2.1</v>
       </c>
       <c r="T169">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="U169">
-        <v>3.26</v>
+        <v>2.83</v>
       </c>
       <c r="V169">
-        <v>2.48</v>
+        <v>3.08</v>
       </c>
       <c r="W169">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="X169">
-        <v>5.85</v>
+        <v>7.7</v>
       </c>
       <c r="Y169">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="Z169">
-        <v>1.36</v>
+        <v>6</v>
       </c>
       <c r="AA169">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="AB169">
-        <v>8</v>
+        <v>1.53</v>
       </c>
       <c r="AC169">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD169">
-        <v>11</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AE169">
-        <v>1.19</v>
+        <v>1.32</v>
       </c>
       <c r="AF169">
-        <v>4</v>
+        <v>2.98</v>
       </c>
       <c r="AG169">
-        <v>1.73</v>
+        <v>2.15</v>
       </c>
       <c r="AH169">
-        <v>2.08</v>
+        <v>1.67</v>
       </c>
       <c r="AI169">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AJ169">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AK169">
-        <v>1.04</v>
+        <v>2.16</v>
       </c>
       <c r="AL169">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="AM169">
-        <v>3.02</v>
+        <v>1.12</v>
       </c>
       <c r="AN169">
-        <v>2.2</v>
+        <v>0.89</v>
       </c>
       <c r="AO169">
-        <v>1.63</v>
+        <v>1</v>
       </c>
       <c r="AP169">
-        <v>2.56</v>
+        <v>1.07</v>
       </c>
       <c r="AQ169">
         <v>1.08</v>
       </c>
       <c r="AR169">
-        <v>1.74</v>
+        <v>0.93</v>
       </c>
       <c r="AS169">
-        <v>1.41</v>
+        <v>1.79</v>
       </c>
       <c r="AT169">
-        <v>3.15</v>
+        <v>2.72</v>
       </c>
       <c r="AU169">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV169">
         <v>4</v>
       </c>
       <c r="AW169">
+        <v>6</v>
+      </c>
+      <c r="AX169">
+        <v>8</v>
+      </c>
+      <c r="AY169">
+        <v>10</v>
+      </c>
+      <c r="AZ169">
+        <v>12</v>
+      </c>
+      <c r="BA169">
+        <v>1</v>
+      </c>
+      <c r="BB169">
+        <v>4</v>
+      </c>
+      <c r="BC169">
         <v>5</v>
       </c>
-      <c r="AX169">
-        <v>5</v>
-      </c>
-      <c r="AY169">
-        <v>11</v>
-      </c>
-      <c r="AZ169">
-        <v>9</v>
-      </c>
-      <c r="BA169">
-        <v>9</v>
-      </c>
-      <c r="BB169">
-        <v>5</v>
-      </c>
-      <c r="BC169">
-        <v>14</v>
-      </c>
       <c r="BD169">
-        <v>1.13</v>
+        <v>3.64</v>
       </c>
       <c r="BE169">
-        <v>12.75</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BF169">
-        <v>6.35</v>
+        <v>1.35</v>
       </c>
       <c r="BG169">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="BH169">
-        <v>4</v>
+        <v>3.34</v>
       </c>
       <c r="BI169">
-        <v>1.35</v>
+        <v>1.55</v>
       </c>
       <c r="BJ169">
-        <v>2.84</v>
+        <v>2.38</v>
       </c>
       <c r="BK169">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="BL169">
-        <v>2.2</v>
+        <v>1.89</v>
       </c>
       <c r="BM169">
-        <v>2.08</v>
+        <v>2.39</v>
       </c>
       <c r="BN169">
-        <v>1.74</v>
+        <v>1.54</v>
       </c>
       <c r="BO169">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="BP169">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="170" spans="1:68">
@@ -36196,7 +36202,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>7364289</v>
+        <v>7364288</v>
       </c>
       <c r="C170" t="s">
         <v>68</v>
@@ -36211,190 +36217,190 @@
         <v>21</v>
       </c>
       <c r="G170" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H170" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K170">
         <v>1</v>
       </c>
       <c r="L170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
         <v>3</v>
-      </c>
-      <c r="N170">
-        <v>4</v>
       </c>
       <c r="O170" t="s">
         <v>193</v>
       </c>
       <c r="P170" t="s">
-        <v>303</v>
+        <v>92</v>
       </c>
       <c r="Q170">
+        <v>1.8</v>
+      </c>
+      <c r="R170">
+        <v>2.4</v>
+      </c>
+      <c r="S170">
+        <v>7</v>
+      </c>
+      <c r="T170">
+        <v>1.31</v>
+      </c>
+      <c r="U170">
+        <v>3.26</v>
+      </c>
+      <c r="V170">
+        <v>2.48</v>
+      </c>
+      <c r="W170">
+        <v>1.5</v>
+      </c>
+      <c r="X170">
+        <v>5.85</v>
+      </c>
+      <c r="Y170">
+        <v>1.11</v>
+      </c>
+      <c r="Z170">
+        <v>1.36</v>
+      </c>
+      <c r="AA170">
+        <v>4.5</v>
+      </c>
+      <c r="AB170">
+        <v>8</v>
+      </c>
+      <c r="AC170">
+        <v>1.01</v>
+      </c>
+      <c r="AD170">
+        <v>11</v>
+      </c>
+      <c r="AE170">
+        <v>1.19</v>
+      </c>
+      <c r="AF170">
+        <v>4</v>
+      </c>
+      <c r="AG170">
+        <v>1.73</v>
+      </c>
+      <c r="AH170">
+        <v>2.08</v>
+      </c>
+      <c r="AI170">
+        <v>2.1</v>
+      </c>
+      <c r="AJ170">
+        <v>1.67</v>
+      </c>
+      <c r="AK170">
+        <v>1.04</v>
+      </c>
+      <c r="AL170">
+        <v>1.14</v>
+      </c>
+      <c r="AM170">
+        <v>3.02</v>
+      </c>
+      <c r="AN170">
+        <v>2.2</v>
+      </c>
+      <c r="AO170">
+        <v>1.63</v>
+      </c>
+      <c r="AP170">
+        <v>2.56</v>
+      </c>
+      <c r="AQ170">
+        <v>1</v>
+      </c>
+      <c r="AR170">
+        <v>1.74</v>
+      </c>
+      <c r="AS170">
+        <v>1.41</v>
+      </c>
+      <c r="AT170">
+        <v>3.15</v>
+      </c>
+      <c r="AU170">
         <v>6</v>
-      </c>
-      <c r="R170">
-        <v>2.1</v>
-      </c>
-      <c r="S170">
-        <v>2.1</v>
-      </c>
-      <c r="T170">
-        <v>1.41</v>
-      </c>
-      <c r="U170">
-        <v>2.83</v>
-      </c>
-      <c r="V170">
-        <v>3.08</v>
-      </c>
-      <c r="W170">
-        <v>1.36</v>
-      </c>
-      <c r="X170">
-        <v>7.7</v>
-      </c>
-      <c r="Y170">
-        <v>1.06</v>
-      </c>
-      <c r="Z170">
-        <v>6</v>
-      </c>
-      <c r="AA170">
-        <v>3.5</v>
-      </c>
-      <c r="AB170">
-        <v>1.53</v>
-      </c>
-      <c r="AC170">
-        <v>1.03</v>
-      </c>
-      <c r="AD170">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="AE170">
-        <v>1.32</v>
-      </c>
-      <c r="AF170">
-        <v>2.98</v>
-      </c>
-      <c r="AG170">
-        <v>2.15</v>
-      </c>
-      <c r="AH170">
-        <v>1.67</v>
-      </c>
-      <c r="AI170">
-        <v>2.2</v>
-      </c>
-      <c r="AJ170">
-        <v>1.62</v>
-      </c>
-      <c r="AK170">
-        <v>2.16</v>
-      </c>
-      <c r="AL170">
-        <v>1.24</v>
-      </c>
-      <c r="AM170">
-        <v>1.12</v>
-      </c>
-      <c r="AN170">
-        <v>0.89</v>
-      </c>
-      <c r="AO170">
-        <v>1</v>
-      </c>
-      <c r="AP170">
-        <v>1.07</v>
-      </c>
-      <c r="AQ170">
-        <v>1.08</v>
-      </c>
-      <c r="AR170">
-        <v>0.93</v>
-      </c>
-      <c r="AS170">
-        <v>1.79</v>
-      </c>
-      <c r="AT170">
-        <v>2.72</v>
-      </c>
-      <c r="AU170">
-        <v>4</v>
       </c>
       <c r="AV170">
         <v>4</v>
       </c>
       <c r="AW170">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX170">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AY170">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ170">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA170">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BB170">
+        <v>5</v>
+      </c>
+      <c r="BC170">
+        <v>14</v>
+      </c>
+      <c r="BD170">
+        <v>1.13</v>
+      </c>
+      <c r="BE170">
+        <v>12.75</v>
+      </c>
+      <c r="BF170">
+        <v>6.35</v>
+      </c>
+      <c r="BG170">
+        <v>1.2</v>
+      </c>
+      <c r="BH170">
         <v>4</v>
       </c>
-      <c r="BC170">
-        <v>5</v>
-      </c>
-      <c r="BD170">
-        <v>3.64</v>
-      </c>
-      <c r="BE170">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="BF170">
+      <c r="BI170">
         <v>1.35</v>
       </c>
-      <c r="BG170">
-        <v>1.26</v>
-      </c>
-      <c r="BH170">
-        <v>3.34</v>
-      </c>
-      <c r="BI170">
-        <v>1.55</v>
-      </c>
       <c r="BJ170">
-        <v>2.38</v>
+        <v>2.84</v>
       </c>
       <c r="BK170">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="BL170">
-        <v>1.89</v>
+        <v>2.2</v>
       </c>
       <c r="BM170">
-        <v>2.39</v>
+        <v>2.08</v>
       </c>
       <c r="BN170">
-        <v>1.54</v>
+        <v>1.74</v>
       </c>
       <c r="BO170">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="BP170">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="171" spans="1:68">
@@ -36650,7 +36656,7 @@
         <v>194</v>
       </c>
       <c r="P172" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -37062,7 +37068,7 @@
         <v>92</v>
       </c>
       <c r="P174" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q174">
         <v>4.8</v>
@@ -37140,7 +37146,7 @@
         <v>1.67</v>
       </c>
       <c r="AP174">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ174">
         <v>1.79</v>
@@ -37680,7 +37686,7 @@
         <v>128</v>
       </c>
       <c r="P177" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q177">
         <v>3.25</v>
@@ -38050,7 +38056,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>7364299</v>
+        <v>7364298</v>
       </c>
       <c r="C179" t="s">
         <v>68</v>
@@ -38065,187 +38071,187 @@
         <v>22</v>
       </c>
       <c r="G179" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H179" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I179">
         <v>1</v>
       </c>
       <c r="J179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L179">
         <v>1</v>
       </c>
       <c r="M179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O179" t="s">
-        <v>199</v>
+        <v>118</v>
       </c>
       <c r="P179" t="s">
-        <v>119</v>
+        <v>308</v>
       </c>
       <c r="Q179">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="R179">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S179">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="T179">
-        <v>1.54</v>
+        <v>1.49</v>
       </c>
       <c r="U179">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="V179">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W179">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="X179">
-        <v>8.6</v>
+        <v>9.1</v>
       </c>
       <c r="Y179">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="Z179">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="AA179">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AB179">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="AC179">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AD179">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AE179">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="AF179">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="AG179">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AH179">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="AI179">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AJ179">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AK179">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="AL179">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AM179">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="AN179">
-        <v>1.11</v>
+        <v>1.36</v>
       </c>
       <c r="AO179">
+        <v>0.7</v>
+      </c>
+      <c r="AP179">
+        <v>1.13</v>
+      </c>
+      <c r="AQ179">
         <v>0.8</v>
       </c>
-      <c r="AP179">
-        <v>1.15</v>
-      </c>
-      <c r="AQ179">
-        <v>0.93</v>
-      </c>
       <c r="AR179">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AS179">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="AT179">
-        <v>2.61</v>
+        <v>2.66</v>
       </c>
       <c r="AU179">
         <v>3</v>
       </c>
       <c r="AV179">
+        <v>7</v>
+      </c>
+      <c r="AW179">
+        <v>8</v>
+      </c>
+      <c r="AX179">
+        <v>7</v>
+      </c>
+      <c r="AY179">
+        <v>11</v>
+      </c>
+      <c r="AZ179">
+        <v>14</v>
+      </c>
+      <c r="BA179">
         <v>3</v>
       </c>
-      <c r="AW179">
-        <v>6</v>
-      </c>
-      <c r="AX179">
-        <v>4</v>
-      </c>
-      <c r="AY179">
-        <v>9</v>
-      </c>
-      <c r="AZ179">
-        <v>7</v>
-      </c>
-      <c r="BA179">
-        <v>2</v>
-      </c>
       <c r="BB179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC179">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BD179">
-        <v>1.83</v>
+        <v>2.08</v>
       </c>
       <c r="BE179">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="BF179">
-        <v>2.31</v>
+        <v>2.13</v>
       </c>
       <c r="BG179">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="BH179">
-        <v>3.56</v>
+        <v>3.11</v>
       </c>
       <c r="BI179">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="BJ179">
-        <v>2.51</v>
+        <v>2.34</v>
       </c>
       <c r="BK179">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="BL179">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="BM179">
-        <v>2.28</v>
+        <v>2.49</v>
       </c>
       <c r="BN179">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="BO179">
-        <v>3.08</v>
+        <v>3.18</v>
       </c>
       <c r="BP179">
         <v>1.3</v>
@@ -38256,7 +38262,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>7364298</v>
+        <v>7364299</v>
       </c>
       <c r="C180" t="s">
         <v>68</v>
@@ -38271,187 +38277,187 @@
         <v>22</v>
       </c>
       <c r="G180" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H180" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I180">
         <v>1</v>
       </c>
       <c r="J180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K180">
+        <v>2</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180">
+        <v>2</v>
+      </c>
+      <c r="O180" t="s">
+        <v>199</v>
+      </c>
+      <c r="P180" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q180">
         <v>3</v>
       </c>
-      <c r="L180">
-        <v>1</v>
-      </c>
-      <c r="M180">
-        <v>2</v>
-      </c>
-      <c r="N180">
+      <c r="R180">
+        <v>2</v>
+      </c>
+      <c r="S180">
+        <v>3.6</v>
+      </c>
+      <c r="T180">
+        <v>1.54</v>
+      </c>
+      <c r="U180">
+        <v>2.42</v>
+      </c>
+      <c r="V180">
+        <v>3.5</v>
+      </c>
+      <c r="W180">
+        <v>1.26</v>
+      </c>
+      <c r="X180">
+        <v>8.6</v>
+      </c>
+      <c r="Y180">
+        <v>1.02</v>
+      </c>
+      <c r="Z180">
+        <v>2.3</v>
+      </c>
+      <c r="AA180">
         <v>3</v>
       </c>
-      <c r="O180" t="s">
-        <v>118</v>
-      </c>
-      <c r="P180" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q180">
-        <v>3.5</v>
-      </c>
-      <c r="R180">
-        <v>1.91</v>
-      </c>
-      <c r="S180">
-        <v>3.25</v>
-      </c>
-      <c r="T180">
-        <v>1.49</v>
-      </c>
-      <c r="U180">
-        <v>2.56</v>
-      </c>
-      <c r="V180">
-        <v>3.4</v>
-      </c>
-      <c r="W180">
-        <v>1.29</v>
-      </c>
-      <c r="X180">
-        <v>9.1</v>
-      </c>
-      <c r="Y180">
-        <v>1.04</v>
-      </c>
-      <c r="Z180">
-        <v>2.9</v>
-      </c>
-      <c r="AA180">
-        <v>2.7</v>
-      </c>
       <c r="AB180">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="AC180">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="AD180">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AE180">
+        <v>1.48</v>
+      </c>
+      <c r="AF180">
+        <v>2.48</v>
+      </c>
+      <c r="AG180">
+        <v>2.2</v>
+      </c>
+      <c r="AH180">
+        <v>1.65</v>
+      </c>
+      <c r="AI180">
+        <v>1.83</v>
+      </c>
+      <c r="AJ180">
+        <v>1.83</v>
+      </c>
+      <c r="AK180">
+        <v>1.27</v>
+      </c>
+      <c r="AL180">
+        <v>1.35</v>
+      </c>
+      <c r="AM180">
+        <v>1.45</v>
+      </c>
+      <c r="AN180">
+        <v>1.11</v>
+      </c>
+      <c r="AO180">
+        <v>0.8</v>
+      </c>
+      <c r="AP180">
+        <v>1.15</v>
+      </c>
+      <c r="AQ180">
+        <v>0.93</v>
+      </c>
+      <c r="AR180">
+        <v>1.2</v>
+      </c>
+      <c r="AS180">
         <v>1.41</v>
       </c>
-      <c r="AF180">
-        <v>2.6</v>
-      </c>
-      <c r="AG180">
-        <v>2.38</v>
-      </c>
-      <c r="AH180">
-        <v>1.53</v>
-      </c>
-      <c r="AI180">
-        <v>2</v>
-      </c>
-      <c r="AJ180">
-        <v>1.73</v>
-      </c>
-      <c r="AK180">
-        <v>1.39</v>
-      </c>
-      <c r="AL180">
-        <v>1.38</v>
-      </c>
-      <c r="AM180">
-        <v>1.39</v>
-      </c>
-      <c r="AN180">
-        <v>1.36</v>
-      </c>
-      <c r="AO180">
-        <v>0.7</v>
-      </c>
-      <c r="AP180">
-        <v>1.13</v>
-      </c>
-      <c r="AQ180">
-        <v>0.8</v>
-      </c>
-      <c r="AR180">
-        <v>1.36</v>
-      </c>
-      <c r="AS180">
-        <v>1.3</v>
-      </c>
       <c r="AT180">
-        <v>2.66</v>
+        <v>2.61</v>
       </c>
       <c r="AU180">
         <v>3</v>
       </c>
       <c r="AV180">
+        <v>3</v>
+      </c>
+      <c r="AW180">
+        <v>6</v>
+      </c>
+      <c r="AX180">
+        <v>4</v>
+      </c>
+      <c r="AY180">
+        <v>9</v>
+      </c>
+      <c r="AZ180">
         <v>7</v>
       </c>
-      <c r="AW180">
-        <v>8</v>
-      </c>
-      <c r="AX180">
-        <v>7</v>
-      </c>
-      <c r="AY180">
-        <v>11</v>
-      </c>
-      <c r="AZ180">
-        <v>14</v>
-      </c>
       <c r="BA180">
+        <v>2</v>
+      </c>
+      <c r="BB180">
+        <v>1</v>
+      </c>
+      <c r="BC180">
         <v>3</v>
       </c>
-      <c r="BB180">
-        <v>2</v>
-      </c>
-      <c r="BC180">
-        <v>5</v>
-      </c>
       <c r="BD180">
-        <v>2.08</v>
+        <v>1.83</v>
       </c>
       <c r="BE180">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="BF180">
-        <v>2.13</v>
+        <v>2.31</v>
       </c>
       <c r="BG180">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="BH180">
-        <v>3.11</v>
+        <v>3.56</v>
       </c>
       <c r="BI180">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="BJ180">
-        <v>2.34</v>
+        <v>2.51</v>
       </c>
       <c r="BK180">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="BL180">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="BM180">
-        <v>2.49</v>
+        <v>2.28</v>
       </c>
       <c r="BN180">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="BO180">
-        <v>3.18</v>
+        <v>3.08</v>
       </c>
       <c r="BP180">
         <v>1.3</v>
@@ -38710,7 +38716,7 @@
         <v>92</v>
       </c>
       <c r="P182" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q182">
         <v>4.33</v>
@@ -38788,7 +38794,7 @@
         <v>2.38</v>
       </c>
       <c r="AP182">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ182">
         <v>2.55</v>
@@ -38916,7 +38922,7 @@
         <v>200</v>
       </c>
       <c r="P183" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q183">
         <v>9</v>
@@ -38997,7 +39003,7 @@
         <v>1</v>
       </c>
       <c r="AQ183">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR183">
         <v>1.28</v>
@@ -39122,7 +39128,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q184">
         <v>3.4</v>
@@ -39328,7 +39334,7 @@
         <v>108</v>
       </c>
       <c r="P185" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -39406,7 +39412,7 @@
         <v>0.8</v>
       </c>
       <c r="AP185">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ185">
         <v>1</v>
@@ -39615,7 +39621,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ186">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR186">
         <v>0.95</v>
@@ -40152,7 +40158,7 @@
         <v>92</v>
       </c>
       <c r="P189" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q189">
         <v>3.5</v>
@@ -40358,7 +40364,7 @@
         <v>202</v>
       </c>
       <c r="P190" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q190">
         <v>3.8</v>
@@ -40564,7 +40570,7 @@
         <v>92</v>
       </c>
       <c r="P191" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -40848,7 +40854,7 @@
         <v>1.6</v>
       </c>
       <c r="AP192">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ192">
         <v>1.46</v>
@@ -41385,7 +41391,7 @@
         <v>1</v>
       </c>
       <c r="O195" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P195" t="s">
         <v>92</v>
@@ -42003,7 +42009,7 @@
         <v>2</v>
       </c>
       <c r="O198" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P198" t="s">
         <v>118</v>
@@ -42170,7 +42176,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>7364321</v>
+        <v>7364322</v>
       </c>
       <c r="C199" t="s">
         <v>68</v>
@@ -42185,82 +42191,82 @@
         <v>25</v>
       </c>
       <c r="G199" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="H199" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K199">
         <v>2</v>
       </c>
       <c r="L199">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N199">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O199" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="P199" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q199">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R199">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S199">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T199">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="U199">
-        <v>2.51</v>
+        <v>2.3</v>
       </c>
       <c r="V199">
-        <v>3.26</v>
+        <v>3.3</v>
       </c>
       <c r="W199">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="X199">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Y199">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="Z199">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="AA199">
+        <v>2.75</v>
+      </c>
+      <c r="AB199">
         <v>2.7</v>
-      </c>
-      <c r="AB199">
-        <v>2.45</v>
       </c>
       <c r="AC199">
         <v>1.09</v>
       </c>
       <c r="AD199">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE199">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AF199">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="AG199">
         <v>2.63</v>
@@ -42269,103 +42275,103 @@
         <v>1.44</v>
       </c>
       <c r="AI199">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AJ199">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AK199">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="AL199">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="AM199">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="AN199">
-        <v>1.33</v>
+        <v>0.9</v>
       </c>
       <c r="AO199">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AP199">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AQ199">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR199">
-        <v>1.16</v>
+        <v>1.39</v>
       </c>
       <c r="AS199">
-        <v>1.71</v>
+        <v>1.34</v>
       </c>
       <c r="AT199">
-        <v>2.87</v>
+        <v>2.73</v>
       </c>
       <c r="AU199">
+        <v>4</v>
+      </c>
+      <c r="AV199">
+        <v>4</v>
+      </c>
+      <c r="AW199">
+        <v>1</v>
+      </c>
+      <c r="AX199">
+        <v>3</v>
+      </c>
+      <c r="AY199">
+        <v>5</v>
+      </c>
+      <c r="AZ199">
+        <v>7</v>
+      </c>
+      <c r="BA199">
+        <v>2</v>
+      </c>
+      <c r="BB199">
         <v>9</v>
       </c>
-      <c r="AV199">
-        <v>5</v>
-      </c>
-      <c r="AW199">
-        <v>10</v>
-      </c>
-      <c r="AX199">
-        <v>8</v>
-      </c>
-      <c r="AY199">
-        <v>19</v>
-      </c>
-      <c r="AZ199">
-        <v>13</v>
-      </c>
-      <c r="BA199">
-        <v>8</v>
-      </c>
-      <c r="BB199">
-        <v>6</v>
-      </c>
       <c r="BC199">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BD199">
-        <v>2.52</v>
+        <v>1.93</v>
       </c>
       <c r="BE199">
         <v>8.1</v>
       </c>
       <c r="BF199">
-        <v>1.71</v>
+        <v>2.1</v>
       </c>
       <c r="BG199">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="BH199">
-        <v>3.18</v>
+        <v>2.75</v>
       </c>
       <c r="BI199">
-        <v>1.53</v>
+        <v>1.68</v>
       </c>
       <c r="BJ199">
-        <v>2.27</v>
+        <v>2.01</v>
       </c>
       <c r="BK199">
-        <v>1.92</v>
+        <v>2.15</v>
       </c>
       <c r="BL199">
-        <v>1.75</v>
+        <v>1.59</v>
       </c>
       <c r="BM199">
-        <v>2.51</v>
+        <v>2.91</v>
       </c>
       <c r="BN199">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="BO199">
-        <v>3.42</v>
+        <v>3.6</v>
       </c>
       <c r="BP199">
         <v>1.25</v>
@@ -42376,7 +42382,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>7364322</v>
+        <v>7364321</v>
       </c>
       <c r="C200" t="s">
         <v>68</v>
@@ -42391,82 +42397,82 @@
         <v>25</v>
       </c>
       <c r="G200" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H200" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K200">
         <v>2</v>
       </c>
       <c r="L200">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N200">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O200" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="P200" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q200">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R200">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S200">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="T200">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="U200">
-        <v>2.3</v>
+        <v>2.51</v>
       </c>
       <c r="V200">
-        <v>3.3</v>
+        <v>3.26</v>
       </c>
       <c r="W200">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="X200">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y200">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="Z200">
+        <v>3.1</v>
+      </c>
+      <c r="AA200">
         <v>2.7</v>
       </c>
-      <c r="AA200">
-        <v>2.75</v>
-      </c>
       <c r="AB200">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="AC200">
         <v>1.09</v>
       </c>
       <c r="AD200">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE200">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AF200">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="AG200">
         <v>2.63</v>
@@ -42475,103 +42481,103 @@
         <v>1.44</v>
       </c>
       <c r="AI200">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AJ200">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AK200">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AL200">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AM200">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AN200">
-        <v>0.9</v>
+        <v>1.33</v>
       </c>
       <c r="AO200">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="AP200">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AQ200">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AR200">
-        <v>1.39</v>
+        <v>1.16</v>
       </c>
       <c r="AS200">
-        <v>1.34</v>
+        <v>1.71</v>
       </c>
       <c r="AT200">
-        <v>2.73</v>
+        <v>2.87</v>
       </c>
       <c r="AU200">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AV200">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW200">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AX200">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AY200">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AZ200">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BA200">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BB200">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BC200">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BD200">
-        <v>1.93</v>
+        <v>2.52</v>
       </c>
       <c r="BE200">
         <v>8.1</v>
       </c>
       <c r="BF200">
-        <v>2.1</v>
+        <v>1.71</v>
       </c>
       <c r="BG200">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="BH200">
-        <v>2.75</v>
+        <v>3.18</v>
       </c>
       <c r="BI200">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="BJ200">
-        <v>2.01</v>
+        <v>2.27</v>
       </c>
       <c r="BK200">
-        <v>2.15</v>
+        <v>1.92</v>
       </c>
       <c r="BL200">
-        <v>1.59</v>
+        <v>1.75</v>
       </c>
       <c r="BM200">
-        <v>2.91</v>
+        <v>2.51</v>
       </c>
       <c r="BN200">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="BO200">
-        <v>3.6</v>
+        <v>3.42</v>
       </c>
       <c r="BP200">
         <v>1.25</v>
@@ -42830,7 +42836,7 @@
         <v>206</v>
       </c>
       <c r="P202" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q202">
         <v>3.2</v>
@@ -43320,7 +43326,7 @@
         <v>0.82</v>
       </c>
       <c r="AP204">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ204">
         <v>0.6899999999999999</v>
@@ -43529,7 +43535,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ205">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AR205">
         <v>1.95</v>
@@ -43654,7 +43660,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q206">
         <v>4.5</v>
@@ -43818,7 +43824,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>7217683</v>
+        <v>7217688</v>
       </c>
       <c r="C207" t="s">
         <v>68</v>
@@ -43833,16 +43839,16 @@
         <v>11</v>
       </c>
       <c r="G207" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H207" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K207">
         <v>2</v>
@@ -43851,172 +43857,172 @@
         <v>3</v>
       </c>
       <c r="M207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N207">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O207" t="s">
         <v>208</v>
       </c>
       <c r="P207" t="s">
-        <v>316</v>
+        <v>92</v>
       </c>
       <c r="Q207">
+        <v>2.1</v>
+      </c>
+      <c r="R207">
+        <v>2.1</v>
+      </c>
+      <c r="S207">
+        <v>5.5</v>
+      </c>
+      <c r="T207">
+        <v>1.36</v>
+      </c>
+      <c r="U207">
+        <v>3</v>
+      </c>
+      <c r="V207">
         <v>2.75</v>
       </c>
-      <c r="R207">
-        <v>1.91</v>
-      </c>
-      <c r="S207">
-        <v>4.75</v>
-      </c>
-      <c r="T207">
-        <v>1.53</v>
-      </c>
-      <c r="U207">
-        <v>2.49</v>
-      </c>
-      <c r="V207">
-        <v>3.4</v>
-      </c>
       <c r="W207">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="X207">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y207">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="Z207">
-        <v>1.95</v>
+        <v>1.55</v>
       </c>
       <c r="AA207">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="AB207">
-        <v>4.1</v>
+        <v>5.75</v>
       </c>
       <c r="AC207">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="AD207">
-        <v>6.86</v>
+        <v>10</v>
       </c>
       <c r="AE207">
-        <v>1.51</v>
+        <v>1.29</v>
       </c>
       <c r="AF207">
-        <v>2.46</v>
+        <v>3.3</v>
       </c>
       <c r="AG207">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="AH207">
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="AI207">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AJ207">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AK207">
-        <v>1.19</v>
+        <v>1.11</v>
       </c>
       <c r="AL207">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM207">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="AN207">
-        <v>1.09</v>
+        <v>2.33</v>
       </c>
       <c r="AO207">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AP207">
-        <v>1.15</v>
+        <v>2.43</v>
       </c>
       <c r="AQ207">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR207">
-        <v>1.16</v>
+        <v>1.92</v>
       </c>
       <c r="AS207">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AT207">
-        <v>2.45</v>
+        <v>3.24</v>
       </c>
       <c r="AU207">
+        <v>7</v>
+      </c>
+      <c r="AV207">
         <v>5</v>
       </c>
-      <c r="AV207">
-        <v>3</v>
-      </c>
       <c r="AW207">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AX207">
         <v>3</v>
       </c>
       <c r="AY207">
+        <v>16</v>
+      </c>
+      <c r="AZ207">
+        <v>8</v>
+      </c>
+      <c r="BA207">
+        <v>4</v>
+      </c>
+      <c r="BB207">
+        <v>2</v>
+      </c>
+      <c r="BC207">
         <v>6</v>
       </c>
-      <c r="AZ207">
-        <v>6</v>
-      </c>
-      <c r="BA207">
-        <v>5</v>
-      </c>
-      <c r="BB207">
-        <v>4</v>
-      </c>
-      <c r="BC207">
-        <v>9</v>
-      </c>
       <c r="BD207">
-        <v>1.53</v>
+        <v>1.24</v>
       </c>
       <c r="BE207">
-        <v>8.699999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF207">
-        <v>2.86</v>
+        <v>5.3</v>
       </c>
       <c r="BG207">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="BH207">
-        <v>3.28</v>
+        <v>3.3</v>
       </c>
       <c r="BI207">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="BJ207">
-        <v>2.37</v>
+        <v>2.59</v>
       </c>
       <c r="BK207">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="BL207">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="BM207">
-        <v>2.49</v>
+        <v>2.29</v>
       </c>
       <c r="BN207">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="BO207">
-        <v>3.34</v>
+        <v>2.8</v>
       </c>
       <c r="BP207">
-        <v>1.26</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="208" spans="1:68">
@@ -44024,7 +44030,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>7217688</v>
+        <v>7217683</v>
       </c>
       <c r="C208" t="s">
         <v>68</v>
@@ -44039,16 +44045,16 @@
         <v>11</v>
       </c>
       <c r="G208" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H208" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K208">
         <v>2</v>
@@ -44057,172 +44063,172 @@
         <v>3</v>
       </c>
       <c r="M208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N208">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O208" t="s">
         <v>209</v>
       </c>
       <c r="P208" t="s">
-        <v>92</v>
+        <v>317</v>
       </c>
       <c r="Q208">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="R208">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="S208">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="T208">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="U208">
+        <v>2.49</v>
+      </c>
+      <c r="V208">
+        <v>3.4</v>
+      </c>
+      <c r="W208">
+        <v>1.3</v>
+      </c>
+      <c r="X208">
+        <v>8.5</v>
+      </c>
+      <c r="Y208">
+        <v>1.05</v>
+      </c>
+      <c r="Z208">
+        <v>1.95</v>
+      </c>
+      <c r="AA208">
+        <v>2.9</v>
+      </c>
+      <c r="AB208">
+        <v>4.1</v>
+      </c>
+      <c r="AC208">
+        <v>1.1</v>
+      </c>
+      <c r="AD208">
+        <v>6.86</v>
+      </c>
+      <c r="AE208">
+        <v>1.51</v>
+      </c>
+      <c r="AF208">
+        <v>2.46</v>
+      </c>
+      <c r="AG208">
+        <v>2.63</v>
+      </c>
+      <c r="AH208">
+        <v>1.44</v>
+      </c>
+      <c r="AI208">
+        <v>2.25</v>
+      </c>
+      <c r="AJ208">
+        <v>1.57</v>
+      </c>
+      <c r="AK208">
+        <v>1.19</v>
+      </c>
+      <c r="AL208">
+        <v>1.28</v>
+      </c>
+      <c r="AM208">
+        <v>1.83</v>
+      </c>
+      <c r="AN208">
+        <v>1.09</v>
+      </c>
+      <c r="AO208">
+        <v>1.27</v>
+      </c>
+      <c r="AP208">
+        <v>1.15</v>
+      </c>
+      <c r="AQ208">
+        <v>1</v>
+      </c>
+      <c r="AR208">
+        <v>1.16</v>
+      </c>
+      <c r="AS208">
+        <v>1.29</v>
+      </c>
+      <c r="AT208">
+        <v>2.45</v>
+      </c>
+      <c r="AU208">
+        <v>5</v>
+      </c>
+      <c r="AV208">
         <v>3</v>
       </c>
-      <c r="V208">
-        <v>2.75</v>
-      </c>
-      <c r="W208">
-        <v>1.4</v>
-      </c>
-      <c r="X208">
-        <v>6.5</v>
-      </c>
-      <c r="Y208">
-        <v>1.1</v>
-      </c>
-      <c r="Z208">
-        <v>1.55</v>
-      </c>
-      <c r="AA208">
-        <v>3.5</v>
-      </c>
-      <c r="AB208">
-        <v>5.75</v>
-      </c>
-      <c r="AC208">
-        <v>1.02</v>
-      </c>
-      <c r="AD208">
-        <v>10</v>
-      </c>
-      <c r="AE208">
-        <v>1.29</v>
-      </c>
-      <c r="AF208">
-        <v>3.3</v>
-      </c>
-      <c r="AG208">
-        <v>2</v>
-      </c>
-      <c r="AH208">
-        <v>1.8</v>
-      </c>
-      <c r="AI208">
-        <v>2.1</v>
-      </c>
-      <c r="AJ208">
-        <v>1.67</v>
-      </c>
-      <c r="AK208">
-        <v>1.11</v>
-      </c>
-      <c r="AL208">
-        <v>1.25</v>
-      </c>
-      <c r="AM208">
-        <v>2.5</v>
-      </c>
-      <c r="AN208">
-        <v>2.33</v>
-      </c>
-      <c r="AO208">
-        <v>1.17</v>
-      </c>
-      <c r="AP208">
-        <v>2.43</v>
-      </c>
-      <c r="AQ208">
-        <v>1.07</v>
-      </c>
-      <c r="AR208">
-        <v>1.92</v>
-      </c>
-      <c r="AS208">
-        <v>1.32</v>
-      </c>
-      <c r="AT208">
-        <v>3.24</v>
-      </c>
-      <c r="AU208">
-        <v>7</v>
-      </c>
-      <c r="AV208">
-        <v>5</v>
-      </c>
       <c r="AW208">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AX208">
         <v>3</v>
       </c>
       <c r="AY208">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AZ208">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA208">
+        <v>5</v>
+      </c>
+      <c r="BB208">
         <v>4</v>
       </c>
-      <c r="BB208">
-        <v>2</v>
-      </c>
       <c r="BC208">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BD208">
-        <v>1.24</v>
+        <v>1.53</v>
       </c>
       <c r="BE208">
-        <v>8.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="BF208">
-        <v>5.3</v>
+        <v>2.86</v>
       </c>
       <c r="BG208">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="BH208">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="BI208">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="BJ208">
-        <v>2.59</v>
+        <v>2.37</v>
       </c>
       <c r="BK208">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="BL208">
-        <v>1.97</v>
+        <v>1.84</v>
       </c>
       <c r="BM208">
-        <v>2.29</v>
+        <v>2.49</v>
       </c>
       <c r="BN208">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="BO208">
-        <v>2.8</v>
+        <v>3.34</v>
       </c>
       <c r="BP208">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="209" spans="1:68">
@@ -44272,7 +44278,7 @@
         <v>194</v>
       </c>
       <c r="P209" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q209">
         <v>3.5</v>
@@ -44478,7 +44484,7 @@
         <v>179</v>
       </c>
       <c r="P210" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q210">
         <v>7.5</v>
@@ -44559,7 +44565,7 @@
         <v>1</v>
       </c>
       <c r="AQ210">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR210">
         <v>1.33</v>
@@ -44684,7 +44690,7 @@
         <v>210</v>
       </c>
       <c r="P211" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q211">
         <v>3.75</v>
@@ -44890,7 +44896,7 @@
         <v>94</v>
       </c>
       <c r="P212" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q212">
         <v>3.4</v>
@@ -45054,7 +45060,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>7364332</v>
+        <v>7364333</v>
       </c>
       <c r="C213" t="s">
         <v>68</v>
@@ -45069,190 +45075,190 @@
         <v>26</v>
       </c>
       <c r="G213" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H213" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213">
         <v>1</v>
       </c>
       <c r="K213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M213">
         <v>2</v>
       </c>
       <c r="N213">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O213" t="s">
         <v>211</v>
       </c>
       <c r="P213" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q213">
-        <v>3.2</v>
+        <v>2.78</v>
       </c>
       <c r="R213">
-        <v>1.91</v>
+        <v>2.26</v>
       </c>
       <c r="S213">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="T213">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="U213">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="V213">
-        <v>3.4</v>
+        <v>2.81</v>
       </c>
       <c r="W213">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="X213">
-        <v>9</v>
+        <v>7.1</v>
       </c>
       <c r="Y213">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="Z213">
-        <v>2.38</v>
+        <v>2.12</v>
       </c>
       <c r="AA213">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="AB213">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="AC213">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AD213">
-        <v>6</v>
+        <v>11.5</v>
       </c>
       <c r="AE213">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="AF213">
-        <v>2.52</v>
+        <v>3.7</v>
       </c>
       <c r="AG213">
-        <v>2.5</v>
+        <v>2.08</v>
       </c>
       <c r="AH213">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="AI213">
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
       <c r="AJ213">
-        <v>1.67</v>
+        <v>2.06</v>
       </c>
       <c r="AK213">
+        <v>1.3</v>
+      </c>
+      <c r="AL213">
         <v>1.4</v>
       </c>
-      <c r="AL213">
-        <v>1.44</v>
-      </c>
       <c r="AM213">
-        <v>1.44</v>
+        <v>1.87</v>
       </c>
       <c r="AN213">
-        <v>1.31</v>
+        <v>2.13</v>
       </c>
       <c r="AO213">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="AP213">
-        <v>1.2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ213">
-        <v>1.46</v>
+        <v>1.79</v>
       </c>
       <c r="AR213">
-        <v>1.39</v>
+        <v>1.69</v>
       </c>
       <c r="AS213">
-        <v>1.38</v>
+        <v>1.02</v>
       </c>
       <c r="AT213">
-        <v>2.77</v>
+        <v>2.71</v>
       </c>
       <c r="AU213">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV213">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW213">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY213">
         <v>10</v>
       </c>
       <c r="AZ213">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA213">
         <v>2</v>
       </c>
       <c r="BB213">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC213">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD213">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="BE213">
-        <v>6.25</v>
+        <v>6.6</v>
       </c>
       <c r="BF213">
-        <v>2.76</v>
+        <v>3.04</v>
       </c>
       <c r="BG213">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="BH213">
-        <v>2.71</v>
+        <v>3.56</v>
       </c>
       <c r="BI213">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="BJ213">
-        <v>1.98</v>
+        <v>2.38</v>
       </c>
       <c r="BK213">
-        <v>2.17</v>
+        <v>1.96</v>
       </c>
       <c r="BL213">
-        <v>1.58</v>
+        <v>1.85</v>
       </c>
       <c r="BM213">
-        <v>2.93</v>
+        <v>2.44</v>
       </c>
       <c r="BN213">
-        <v>1.33</v>
+        <v>1.52</v>
       </c>
       <c r="BO213">
-        <v>3.9</v>
+        <v>3.04</v>
       </c>
       <c r="BP213">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="214" spans="1:68">
@@ -45260,7 +45266,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>7364333</v>
+        <v>7364332</v>
       </c>
       <c r="C214" t="s">
         <v>68</v>
@@ -45275,190 +45281,190 @@
         <v>26</v>
       </c>
       <c r="G214" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H214" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214">
         <v>1</v>
       </c>
       <c r="K214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M214">
         <v>2</v>
       </c>
       <c r="N214">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O214" t="s">
         <v>212</v>
       </c>
       <c r="P214" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q214">
-        <v>2.78</v>
+        <v>3.2</v>
       </c>
       <c r="R214">
-        <v>2.26</v>
+        <v>1.91</v>
       </c>
       <c r="S214">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="T214">
-        <v>1.43</v>
+        <v>1.57</v>
       </c>
       <c r="U214">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="V214">
-        <v>2.81</v>
+        <v>3.4</v>
       </c>
       <c r="W214">
+        <v>1.29</v>
+      </c>
+      <c r="X214">
+        <v>9</v>
+      </c>
+      <c r="Y214">
+        <v>1.03</v>
+      </c>
+      <c r="Z214">
+        <v>2.38</v>
+      </c>
+      <c r="AA214">
+        <v>2.8</v>
+      </c>
+      <c r="AB214">
+        <v>3.2</v>
+      </c>
+      <c r="AC214">
+        <v>1.09</v>
+      </c>
+      <c r="AD214">
+        <v>6</v>
+      </c>
+      <c r="AE214">
+        <v>1.49</v>
+      </c>
+      <c r="AF214">
+        <v>2.52</v>
+      </c>
+      <c r="AG214">
+        <v>2.5</v>
+      </c>
+      <c r="AH214">
+        <v>1.5</v>
+      </c>
+      <c r="AI214">
+        <v>2.1</v>
+      </c>
+      <c r="AJ214">
+        <v>1.67</v>
+      </c>
+      <c r="AK214">
         <v>1.4</v>
       </c>
-      <c r="X214">
-        <v>7.1</v>
-      </c>
-      <c r="Y214">
-        <v>1.08</v>
-      </c>
-      <c r="Z214">
-        <v>2.12</v>
-      </c>
-      <c r="AA214">
-        <v>3.3</v>
-      </c>
-      <c r="AB214">
-        <v>4.1</v>
-      </c>
-      <c r="AC214">
-        <v>1.08</v>
-      </c>
-      <c r="AD214">
-        <v>11.5</v>
-      </c>
-      <c r="AE214">
-        <v>1.35</v>
-      </c>
-      <c r="AF214">
-        <v>3.7</v>
-      </c>
-      <c r="AG214">
-        <v>2.08</v>
-      </c>
-      <c r="AH214">
-        <v>1.9</v>
-      </c>
-      <c r="AI214">
-        <v>1.89</v>
-      </c>
-      <c r="AJ214">
-        <v>2.06</v>
-      </c>
-      <c r="AK214">
-        <v>1.3</v>
-      </c>
       <c r="AL214">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AM214">
-        <v>1.87</v>
+        <v>1.44</v>
       </c>
       <c r="AN214">
-        <v>2.13</v>
+        <v>1.31</v>
       </c>
       <c r="AO214">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AP214">
-        <v>2.09</v>
+        <v>1.2</v>
       </c>
       <c r="AQ214">
-        <v>1.79</v>
+        <v>1.46</v>
       </c>
       <c r="AR214">
-        <v>1.69</v>
+        <v>1.39</v>
       </c>
       <c r="AS214">
-        <v>1.02</v>
+        <v>1.38</v>
       </c>
       <c r="AT214">
-        <v>2.71</v>
+        <v>2.77</v>
       </c>
       <c r="AU214">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV214">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW214">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY214">
         <v>10</v>
       </c>
       <c r="AZ214">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA214">
         <v>2</v>
       </c>
       <c r="BB214">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC214">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD214">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="BE214">
-        <v>6.6</v>
+        <v>6.25</v>
       </c>
       <c r="BF214">
-        <v>3.04</v>
+        <v>2.76</v>
       </c>
       <c r="BG214">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="BH214">
-        <v>3.56</v>
+        <v>2.71</v>
       </c>
       <c r="BI214">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="BJ214">
-        <v>2.38</v>
+        <v>1.98</v>
       </c>
       <c r="BK214">
-        <v>1.96</v>
+        <v>2.17</v>
       </c>
       <c r="BL214">
-        <v>1.85</v>
+        <v>1.58</v>
       </c>
       <c r="BM214">
-        <v>2.44</v>
+        <v>2.93</v>
       </c>
       <c r="BN214">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="BO214">
-        <v>3.04</v>
+        <v>3.9</v>
       </c>
       <c r="BP214">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="215" spans="1:68">
@@ -45508,7 +45514,7 @@
         <v>213</v>
       </c>
       <c r="P215" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q215">
         <v>2.2</v>
@@ -45672,7 +45678,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>7364336</v>
+        <v>7364335</v>
       </c>
       <c r="C216" t="s">
         <v>68</v>
@@ -45687,127 +45693,127 @@
         <v>26</v>
       </c>
       <c r="G216" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H216" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216">
         <v>0</v>
       </c>
       <c r="K216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N216">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O216" t="s">
-        <v>214</v>
+        <v>92</v>
       </c>
       <c r="P216" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q216">
-        <v>2.88</v>
+        <v>7</v>
       </c>
       <c r="R216">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S216">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T216">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="U216">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="V216">
-        <v>3.54</v>
+        <v>3.04</v>
       </c>
       <c r="W216">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="X216">
-        <v>9.800000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="Y216">
+        <v>1.06</v>
+      </c>
+      <c r="Z216">
+        <v>7</v>
+      </c>
+      <c r="AA216">
+        <v>3.9</v>
+      </c>
+      <c r="AB216">
+        <v>1.42</v>
+      </c>
+      <c r="AC216">
         <v>1.03</v>
       </c>
-      <c r="Z216">
-        <v>2.15</v>
-      </c>
-      <c r="AA216">
-        <v>3.1</v>
-      </c>
-      <c r="AB216">
-        <v>3.25</v>
-      </c>
-      <c r="AC216">
-        <v>1.08</v>
-      </c>
       <c r="AD216">
-        <v>5.9</v>
+        <v>7.9</v>
       </c>
       <c r="AE216">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="AF216">
-        <v>2.45</v>
+        <v>2.98</v>
       </c>
       <c r="AG216">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="AH216">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AI216">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="AJ216">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="AK216">
-        <v>1.25</v>
+        <v>2.42</v>
       </c>
       <c r="AL216">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="AM216">
-        <v>1.52</v>
+        <v>1.07</v>
       </c>
       <c r="AN216">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="AO216">
-        <v>0.92</v>
+        <v>2.11</v>
       </c>
       <c r="AP216">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ216">
-        <v>0.8</v>
+        <v>2.33</v>
       </c>
       <c r="AR216">
-        <v>1.64</v>
+        <v>1.42</v>
       </c>
       <c r="AS216">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT216">
-        <v>2.97</v>
+        <v>3.17</v>
       </c>
       <c r="AU216">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AV216">
         <v>5</v>
@@ -45816,61 +45822,61 @@
         <v>5</v>
       </c>
       <c r="AX216">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY216">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AZ216">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA216">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BB216">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BC216">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BD216">
-        <v>1.59</v>
+        <v>4.6</v>
       </c>
       <c r="BE216">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="BF216">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="BG216">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="BH216">
-        <v>2.88</v>
+        <v>3.18</v>
       </c>
       <c r="BI216">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="BJ216">
-        <v>2.16</v>
+        <v>2.27</v>
       </c>
       <c r="BK216">
-        <v>2.12</v>
+        <v>1.99</v>
       </c>
       <c r="BL216">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="BM216">
-        <v>2.75</v>
+        <v>2.52</v>
       </c>
       <c r="BN216">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="BO216">
-        <v>3.88</v>
+        <v>3.48</v>
       </c>
       <c r="BP216">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="217" spans="1:68">
@@ -45878,7 +45884,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>7364335</v>
+        <v>7364336</v>
       </c>
       <c r="C217" t="s">
         <v>68</v>
@@ -45893,127 +45899,127 @@
         <v>26</v>
       </c>
       <c r="G217" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H217" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217">
         <v>0</v>
       </c>
       <c r="K217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L217">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N217">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O217" t="s">
-        <v>92</v>
+        <v>214</v>
       </c>
       <c r="P217" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q217">
+        <v>2.88</v>
+      </c>
+      <c r="R217">
+        <v>1.95</v>
+      </c>
+      <c r="S217">
+        <v>4</v>
+      </c>
+      <c r="T217">
+        <v>1.6</v>
+      </c>
+      <c r="U217">
+        <v>2.25</v>
+      </c>
+      <c r="V217">
+        <v>3.54</v>
+      </c>
+      <c r="W217">
+        <v>1.27</v>
+      </c>
+      <c r="X217">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y217">
+        <v>1.03</v>
+      </c>
+      <c r="Z217">
+        <v>2.15</v>
+      </c>
+      <c r="AA217">
+        <v>3.1</v>
+      </c>
+      <c r="AB217">
+        <v>3.25</v>
+      </c>
+      <c r="AC217">
+        <v>1.08</v>
+      </c>
+      <c r="AD217">
+        <v>5.9</v>
+      </c>
+      <c r="AE217">
+        <v>1.46</v>
+      </c>
+      <c r="AF217">
+        <v>2.45</v>
+      </c>
+      <c r="AG217">
+        <v>2.35</v>
+      </c>
+      <c r="AH217">
+        <v>1.57</v>
+      </c>
+      <c r="AI217">
+        <v>2</v>
+      </c>
+      <c r="AJ217">
+        <v>1.73</v>
+      </c>
+      <c r="AK217">
+        <v>1.25</v>
+      </c>
+      <c r="AL217">
+        <v>1.32</v>
+      </c>
+      <c r="AM217">
+        <v>1.52</v>
+      </c>
+      <c r="AN217">
+        <v>1.27</v>
+      </c>
+      <c r="AO217">
+        <v>0.92</v>
+      </c>
+      <c r="AP217">
+        <v>1.38</v>
+      </c>
+      <c r="AQ217">
+        <v>0.8</v>
+      </c>
+      <c r="AR217">
+        <v>1.64</v>
+      </c>
+      <c r="AS217">
+        <v>1.33</v>
+      </c>
+      <c r="AT217">
+        <v>2.97</v>
+      </c>
+      <c r="AU217">
         <v>7</v>
-      </c>
-      <c r="R217">
-        <v>2.1</v>
-      </c>
-      <c r="S217">
-        <v>2</v>
-      </c>
-      <c r="T217">
-        <v>1.45</v>
-      </c>
-      <c r="U217">
-        <v>2.63</v>
-      </c>
-      <c r="V217">
-        <v>3.04</v>
-      </c>
-      <c r="W217">
-        <v>1.35</v>
-      </c>
-      <c r="X217">
-        <v>7.9</v>
-      </c>
-      <c r="Y217">
-        <v>1.06</v>
-      </c>
-      <c r="Z217">
-        <v>7</v>
-      </c>
-      <c r="AA217">
-        <v>3.9</v>
-      </c>
-      <c r="AB217">
-        <v>1.42</v>
-      </c>
-      <c r="AC217">
-        <v>1.03</v>
-      </c>
-      <c r="AD217">
-        <v>7.9</v>
-      </c>
-      <c r="AE217">
-        <v>1.32</v>
-      </c>
-      <c r="AF217">
-        <v>2.98</v>
-      </c>
-      <c r="AG217">
-        <v>2.05</v>
-      </c>
-      <c r="AH217">
-        <v>1.75</v>
-      </c>
-      <c r="AI217">
-        <v>2.38</v>
-      </c>
-      <c r="AJ217">
-        <v>1.53</v>
-      </c>
-      <c r="AK217">
-        <v>2.42</v>
-      </c>
-      <c r="AL217">
-        <v>1.22</v>
-      </c>
-      <c r="AM217">
-        <v>1.07</v>
-      </c>
-      <c r="AN217">
-        <v>1.5</v>
-      </c>
-      <c r="AO217">
-        <v>2.11</v>
-      </c>
-      <c r="AP217">
-        <v>1.36</v>
-      </c>
-      <c r="AQ217">
-        <v>2.27</v>
-      </c>
-      <c r="AR217">
-        <v>1.42</v>
-      </c>
-      <c r="AS217">
-        <v>1.75</v>
-      </c>
-      <c r="AT217">
-        <v>3.17</v>
-      </c>
-      <c r="AU217">
-        <v>2</v>
       </c>
       <c r="AV217">
         <v>5</v>
@@ -46022,61 +46028,61 @@
         <v>5</v>
       </c>
       <c r="AX217">
+        <v>2</v>
+      </c>
+      <c r="AY217">
+        <v>12</v>
+      </c>
+      <c r="AZ217">
+        <v>7</v>
+      </c>
+      <c r="BA217">
         <v>3</v>
       </c>
-      <c r="AY217">
-        <v>7</v>
-      </c>
-      <c r="AZ217">
-        <v>8</v>
-      </c>
-      <c r="BA217">
-        <v>1</v>
-      </c>
       <c r="BB217">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BC217">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BD217">
-        <v>4.6</v>
+        <v>1.59</v>
       </c>
       <c r="BE217">
-        <v>7.6</v>
+        <v>6.4</v>
       </c>
       <c r="BF217">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="BG217">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="BH217">
-        <v>3.18</v>
+        <v>2.88</v>
       </c>
       <c r="BI217">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="BJ217">
-        <v>2.27</v>
+        <v>2.16</v>
       </c>
       <c r="BK217">
-        <v>1.99</v>
+        <v>2.12</v>
       </c>
       <c r="BL217">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="BM217">
-        <v>2.52</v>
+        <v>2.75</v>
       </c>
       <c r="BN217">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="BO217">
-        <v>3.48</v>
+        <v>3.88</v>
       </c>
       <c r="BP217">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="218" spans="1:68">
@@ -46084,7 +46090,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>7364338</v>
+        <v>7364337</v>
       </c>
       <c r="C218" t="s">
         <v>68</v>
@@ -46099,10 +46105,10 @@
         <v>26</v>
       </c>
       <c r="G218" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H218" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I218">
         <v>0</v>
@@ -46117,142 +46123,142 @@
         <v>0</v>
       </c>
       <c r="M218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O218" t="s">
         <v>92</v>
       </c>
       <c r="P218" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="Q218">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="R218">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="S218">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="T218">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="U218">
-        <v>2.4</v>
+        <v>3.22</v>
       </c>
       <c r="V218">
-        <v>3.2</v>
+        <v>2.67</v>
       </c>
       <c r="W218">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="X218">
-        <v>7.9</v>
+        <v>6</v>
       </c>
       <c r="Y218">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="Z218">
-        <v>2.38</v>
+        <v>8</v>
       </c>
       <c r="AA218">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="AB218">
-        <v>3.1</v>
+        <v>1.33</v>
       </c>
       <c r="AC218">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="AD218">
-        <v>6.25</v>
+        <v>10</v>
       </c>
       <c r="AE218">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="AF218">
-        <v>2.65</v>
+        <v>3.8</v>
       </c>
       <c r="AG218">
+        <v>1.8</v>
+      </c>
+      <c r="AH218">
+        <v>2</v>
+      </c>
+      <c r="AI218">
         <v>2.2</v>
       </c>
-      <c r="AH218">
-        <v>1.65</v>
-      </c>
-      <c r="AI218">
-        <v>1.83</v>
-      </c>
       <c r="AJ218">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="AK218">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="AL218">
-        <v>1.36</v>
+        <v>1.16</v>
       </c>
       <c r="AM218">
-        <v>1.53</v>
+        <v>1.04</v>
       </c>
       <c r="AN218">
-        <v>1.77</v>
+        <v>1.08</v>
       </c>
       <c r="AO218">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="AP218">
-        <v>1.64</v>
+        <v>1</v>
       </c>
       <c r="AQ218">
-        <v>1.86</v>
+        <v>2.55</v>
       </c>
       <c r="AR218">
-        <v>1.55</v>
+        <v>1.27</v>
       </c>
       <c r="AS218">
-        <v>1.41</v>
+        <v>1.68</v>
       </c>
       <c r="AT218">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
       <c r="AU218">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AV218">
+        <v>6</v>
+      </c>
+      <c r="AW218">
+        <v>3</v>
+      </c>
+      <c r="AX218">
+        <v>11</v>
+      </c>
+      <c r="AY218">
+        <v>3</v>
+      </c>
+      <c r="AZ218">
+        <v>17</v>
+      </c>
+      <c r="BA218">
         <v>4</v>
       </c>
-      <c r="AW218">
+      <c r="BB218">
         <v>8</v>
       </c>
-      <c r="AX218">
-        <v>2</v>
-      </c>
-      <c r="AY218">
-        <v>15</v>
-      </c>
-      <c r="AZ218">
-        <v>6</v>
-      </c>
-      <c r="BA218">
+      <c r="BC218">
         <v>12</v>
       </c>
-      <c r="BB218">
-        <v>2</v>
-      </c>
-      <c r="BC218">
-        <v>14</v>
-      </c>
       <c r="BD218">
-        <v>1.65</v>
+        <v>5.5</v>
       </c>
       <c r="BE218">
-        <v>6.3</v>
+        <v>8.1</v>
       </c>
       <c r="BF218">
-        <v>2.83</v>
+        <v>1.23</v>
       </c>
       <c r="BG218">
         <v>1.28</v>
@@ -46267,16 +46273,16 @@
         <v>2.31</v>
       </c>
       <c r="BK218">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="BL218">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="BM218">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="BN218">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="BO218">
         <v>3.42</v>
@@ -46290,7 +46296,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>7364337</v>
+        <v>7364338</v>
       </c>
       <c r="C219" t="s">
         <v>68</v>
@@ -46305,10 +46311,10 @@
         <v>26</v>
       </c>
       <c r="G219" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H219" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I219">
         <v>0</v>
@@ -46323,142 +46329,142 @@
         <v>0</v>
       </c>
       <c r="M219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O219" t="s">
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>325</v>
+        <v>253</v>
       </c>
       <c r="Q219">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="R219">
+        <v>2</v>
+      </c>
+      <c r="S219">
+        <v>3.5</v>
+      </c>
+      <c r="T219">
+        <v>1.5</v>
+      </c>
+      <c r="U219">
+        <v>2.4</v>
+      </c>
+      <c r="V219">
+        <v>3.2</v>
+      </c>
+      <c r="W219">
+        <v>1.3</v>
+      </c>
+      <c r="X219">
+        <v>7.9</v>
+      </c>
+      <c r="Y219">
+        <v>1.06</v>
+      </c>
+      <c r="Z219">
         <v>2.38</v>
       </c>
-      <c r="S219">
-        <v>1.8</v>
-      </c>
-      <c r="T219">
-        <v>1.33</v>
-      </c>
-      <c r="U219">
-        <v>3.22</v>
-      </c>
-      <c r="V219">
-        <v>2.67</v>
-      </c>
-      <c r="W219">
-        <v>1.45</v>
-      </c>
-      <c r="X219">
+      <c r="AA219">
+        <v>2.8</v>
+      </c>
+      <c r="AB219">
+        <v>3.1</v>
+      </c>
+      <c r="AC219">
+        <v>1.1</v>
+      </c>
+      <c r="AD219">
+        <v>6.25</v>
+      </c>
+      <c r="AE219">
+        <v>1.44</v>
+      </c>
+      <c r="AF219">
+        <v>2.65</v>
+      </c>
+      <c r="AG219">
+        <v>2.2</v>
+      </c>
+      <c r="AH219">
+        <v>1.65</v>
+      </c>
+      <c r="AI219">
+        <v>1.83</v>
+      </c>
+      <c r="AJ219">
+        <v>1.83</v>
+      </c>
+      <c r="AK219">
+        <v>1.3</v>
+      </c>
+      <c r="AL219">
+        <v>1.36</v>
+      </c>
+      <c r="AM219">
+        <v>1.53</v>
+      </c>
+      <c r="AN219">
+        <v>1.77</v>
+      </c>
+      <c r="AO219">
+        <v>1.67</v>
+      </c>
+      <c r="AP219">
+        <v>1.64</v>
+      </c>
+      <c r="AQ219">
+        <v>1.86</v>
+      </c>
+      <c r="AR219">
+        <v>1.55</v>
+      </c>
+      <c r="AS219">
+        <v>1.41</v>
+      </c>
+      <c r="AT219">
+        <v>2.96</v>
+      </c>
+      <c r="AU219">
+        <v>7</v>
+      </c>
+      <c r="AV219">
+        <v>4</v>
+      </c>
+      <c r="AW219">
+        <v>8</v>
+      </c>
+      <c r="AX219">
+        <v>2</v>
+      </c>
+      <c r="AY219">
+        <v>15</v>
+      </c>
+      <c r="AZ219">
         <v>6</v>
       </c>
-      <c r="Y219">
-        <v>1.11</v>
-      </c>
-      <c r="Z219">
-        <v>8</v>
-      </c>
-      <c r="AA219">
-        <v>4.5</v>
-      </c>
-      <c r="AB219">
-        <v>1.33</v>
-      </c>
-      <c r="AC219">
-        <v>1.02</v>
-      </c>
-      <c r="AD219">
-        <v>10</v>
-      </c>
-      <c r="AE219">
-        <v>1.22</v>
-      </c>
-      <c r="AF219">
-        <v>3.8</v>
-      </c>
-      <c r="AG219">
-        <v>1.8</v>
-      </c>
-      <c r="AH219">
-        <v>2</v>
-      </c>
-      <c r="AI219">
-        <v>2.2</v>
-      </c>
-      <c r="AJ219">
-        <v>1.62</v>
-      </c>
-      <c r="AK219">
-        <v>3.3</v>
-      </c>
-      <c r="AL219">
-        <v>1.16</v>
-      </c>
-      <c r="AM219">
-        <v>1.04</v>
-      </c>
-      <c r="AN219">
-        <v>1.08</v>
-      </c>
-      <c r="AO219">
-        <v>2.5</v>
-      </c>
-      <c r="AP219">
-        <v>1</v>
-      </c>
-      <c r="AQ219">
-        <v>2.55</v>
-      </c>
-      <c r="AR219">
-        <v>1.27</v>
-      </c>
-      <c r="AS219">
-        <v>1.68</v>
-      </c>
-      <c r="AT219">
-        <v>2.95</v>
-      </c>
-      <c r="AU219">
-        <v>0</v>
-      </c>
-      <c r="AV219">
-        <v>6</v>
-      </c>
-      <c r="AW219">
-        <v>3</v>
-      </c>
-      <c r="AX219">
-        <v>11</v>
-      </c>
-      <c r="AY219">
-        <v>3</v>
-      </c>
-      <c r="AZ219">
-        <v>17</v>
-      </c>
       <c r="BA219">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BB219">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BC219">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD219">
-        <v>5.5</v>
+        <v>1.65</v>
       </c>
       <c r="BE219">
-        <v>8.1</v>
+        <v>6.3</v>
       </c>
       <c r="BF219">
-        <v>1.23</v>
+        <v>2.83</v>
       </c>
       <c r="BG219">
         <v>1.28</v>
@@ -46473,16 +46479,16 @@
         <v>2.31</v>
       </c>
       <c r="BK219">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="BL219">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="BM219">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="BN219">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="BO219">
         <v>3.42</v>
@@ -46744,7 +46750,7 @@
         <v>216</v>
       </c>
       <c r="P221" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q221">
         <v>0</v>
@@ -46825,7 +46831,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ221">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AR221">
         <v>0.96</v>
@@ -46908,7 +46914,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>7364339</v>
+        <v>7364340</v>
       </c>
       <c r="C222" t="s">
         <v>68</v>
@@ -46923,88 +46929,88 @@
         <v>27</v>
       </c>
       <c r="G222" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H222" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K222">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M222">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N222">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O222" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
       <c r="P222" t="s">
-        <v>92</v>
+        <v>328</v>
       </c>
       <c r="Q222">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="R222">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S222">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="T222">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="U222">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="V222">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="W222">
         <v>1.3</v>
       </c>
       <c r="X222">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="Y222">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z222">
-        <v>2.05</v>
+        <v>2.63</v>
       </c>
       <c r="AA222">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AB222">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="AC222">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AD222">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="AE222">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AF222">
-        <v>2.55</v>
+        <v>2.43</v>
       </c>
       <c r="AG222">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AH222">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AI222">
         <v>2.1</v>
@@ -47013,100 +47019,100 @@
         <v>1.67</v>
       </c>
       <c r="AK222">
+        <v>1.38</v>
+      </c>
+      <c r="AL222">
+        <v>1.43</v>
+      </c>
+      <c r="AM222">
+        <v>1.42</v>
+      </c>
+      <c r="AN222">
+        <v>1.64</v>
+      </c>
+      <c r="AO222">
+        <v>1.08</v>
+      </c>
+      <c r="AP222">
+        <v>1.46</v>
+      </c>
+      <c r="AQ222">
+        <v>1.07</v>
+      </c>
+      <c r="AR222">
+        <v>1.41</v>
+      </c>
+      <c r="AS222">
+        <v>1.31</v>
+      </c>
+      <c r="AT222">
+        <v>2.72</v>
+      </c>
+      <c r="AU222">
+        <v>4</v>
+      </c>
+      <c r="AV222">
+        <v>8</v>
+      </c>
+      <c r="AW222">
+        <v>2</v>
+      </c>
+      <c r="AX222">
+        <v>10</v>
+      </c>
+      <c r="AY222">
+        <v>6</v>
+      </c>
+      <c r="AZ222">
+        <v>18</v>
+      </c>
+      <c r="BA222">
+        <v>5</v>
+      </c>
+      <c r="BB222">
+        <v>7</v>
+      </c>
+      <c r="BC222">
+        <v>12</v>
+      </c>
+      <c r="BD222">
+        <v>2.11</v>
+      </c>
+      <c r="BE222">
+        <v>5.95</v>
+      </c>
+      <c r="BF222">
+        <v>2.1</v>
+      </c>
+      <c r="BG222">
+        <v>1.5</v>
+      </c>
+      <c r="BH222">
+        <v>2.49</v>
+      </c>
+      <c r="BI222">
+        <v>1.91</v>
+      </c>
+      <c r="BJ222">
+        <v>1.89</v>
+      </c>
+      <c r="BK222">
+        <v>2.38</v>
+      </c>
+      <c r="BL222">
+        <v>1.55</v>
+      </c>
+      <c r="BM222">
+        <v>2.88</v>
+      </c>
+      <c r="BN222">
+        <v>1.36</v>
+      </c>
+      <c r="BO222">
+        <v>3.8</v>
+      </c>
+      <c r="BP222">
         <v>1.22</v>
-      </c>
-      <c r="AL222">
-        <v>1.3</v>
-      </c>
-      <c r="AM222">
-        <v>1.75</v>
-      </c>
-      <c r="AN222">
-        <v>1.46</v>
-      </c>
-      <c r="AO222">
-        <v>1.17</v>
-      </c>
-      <c r="AP222">
-        <v>1.57</v>
-      </c>
-      <c r="AQ222">
-        <v>1.08</v>
-      </c>
-      <c r="AR222">
-        <v>1.25</v>
-      </c>
-      <c r="AS222">
-        <v>1.28</v>
-      </c>
-      <c r="AT222">
-        <v>2.53</v>
-      </c>
-      <c r="AU222">
-        <v>8</v>
-      </c>
-      <c r="AV222">
-        <v>2</v>
-      </c>
-      <c r="AW222">
-        <v>8</v>
-      </c>
-      <c r="AX222">
-        <v>5</v>
-      </c>
-      <c r="AY222">
-        <v>16</v>
-      </c>
-      <c r="AZ222">
-        <v>7</v>
-      </c>
-      <c r="BA222">
-        <v>12</v>
-      </c>
-      <c r="BB222">
-        <v>3</v>
-      </c>
-      <c r="BC222">
-        <v>15</v>
-      </c>
-      <c r="BD222">
-        <v>1.63</v>
-      </c>
-      <c r="BE222">
-        <v>6.3</v>
-      </c>
-      <c r="BF222">
-        <v>2.89</v>
-      </c>
-      <c r="BG222">
-        <v>1.4</v>
-      </c>
-      <c r="BH222">
-        <v>2.7</v>
-      </c>
-      <c r="BI222">
-        <v>1.72</v>
-      </c>
-      <c r="BJ222">
-        <v>2.07</v>
-      </c>
-      <c r="BK222">
-        <v>2.19</v>
-      </c>
-      <c r="BL222">
-        <v>1.65</v>
-      </c>
-      <c r="BM222">
-        <v>2.7</v>
-      </c>
-      <c r="BN222">
-        <v>1.4</v>
-      </c>
-      <c r="BO222">
-        <v>3.6</v>
-      </c>
-      <c r="BP222">
-        <v>1.25</v>
       </c>
     </row>
     <row r="223" spans="1:68">
@@ -47114,7 +47120,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>7364340</v>
+        <v>7364339</v>
       </c>
       <c r="C223" t="s">
         <v>68</v>
@@ -47129,88 +47135,88 @@
         <v>27</v>
       </c>
       <c r="G223" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="H223" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K223">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M223">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N223">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O223" t="s">
-        <v>217</v>
+        <v>130</v>
       </c>
       <c r="P223" t="s">
-        <v>327</v>
+        <v>92</v>
       </c>
       <c r="Q223">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="R223">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S223">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="T223">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="U223">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="V223">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="W223">
         <v>1.3</v>
       </c>
       <c r="X223">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y223">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z223">
-        <v>2.63</v>
+        <v>2.05</v>
       </c>
       <c r="AA223">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AB223">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="AC223">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AD223">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="AE223">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="AF223">
-        <v>2.43</v>
+        <v>2.55</v>
       </c>
       <c r="AG223">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AH223">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AI223">
         <v>2.1</v>
@@ -47219,100 +47225,100 @@
         <v>1.67</v>
       </c>
       <c r="AK223">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AL223">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="AM223">
-        <v>1.42</v>
+        <v>1.75</v>
       </c>
       <c r="AN223">
-        <v>1.64</v>
+        <v>1.46</v>
       </c>
       <c r="AO223">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="AP223">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="AQ223">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR223">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="AS223">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="AT223">
-        <v>2.72</v>
+        <v>2.53</v>
       </c>
       <c r="AU223">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AV223">
+        <v>2</v>
+      </c>
+      <c r="AW223">
         <v>8</v>
       </c>
-      <c r="AW223">
-        <v>2</v>
-      </c>
       <c r="AX223">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AY223">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AZ223">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="BA223">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BB223">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BC223">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BD223">
-        <v>2.11</v>
+        <v>1.63</v>
       </c>
       <c r="BE223">
-        <v>5.95</v>
+        <v>6.3</v>
       </c>
       <c r="BF223">
-        <v>2.1</v>
+        <v>2.89</v>
       </c>
       <c r="BG223">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="BH223">
-        <v>2.49</v>
+        <v>2.7</v>
       </c>
       <c r="BI223">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="BJ223">
-        <v>1.89</v>
+        <v>2.07</v>
       </c>
       <c r="BK223">
-        <v>2.38</v>
+        <v>2.19</v>
       </c>
       <c r="BL223">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="BM223">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="BN223">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="BO223">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="BP223">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="224" spans="1:68">
@@ -47568,7 +47574,7 @@
         <v>92</v>
       </c>
       <c r="P225" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q225">
         <v>3</v>
@@ -47646,7 +47652,7 @@
         <v>1</v>
       </c>
       <c r="AP225">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AQ225">
         <v>1.08</v>
@@ -47774,7 +47780,7 @@
         <v>218</v>
       </c>
       <c r="P226" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q226">
         <v>1.9</v>
@@ -48804,7 +48810,7 @@
         <v>92</v>
       </c>
       <c r="P231" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q231">
         <v>4.75</v>
@@ -48968,7 +48974,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>7364349</v>
+        <v>7364350</v>
       </c>
       <c r="C232" t="s">
         <v>68</v>
@@ -48983,184 +48989,184 @@
         <v>28</v>
       </c>
       <c r="G232" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="H232" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I232">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L232">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M232">
         <v>1</v>
       </c>
       <c r="N232">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O232" t="s">
-        <v>92</v>
+        <v>221</v>
       </c>
       <c r="P232" t="s">
-        <v>107</v>
+        <v>311</v>
       </c>
       <c r="Q232">
-        <v>4.3</v>
+        <v>2.63</v>
       </c>
       <c r="R232">
-        <v>2.14</v>
+        <v>1.91</v>
       </c>
       <c r="S232">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="T232">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="U232">
-        <v>3</v>
+        <v>2.35</v>
       </c>
       <c r="V232">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="W232">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="X232">
-        <v>5.7</v>
+        <v>10</v>
       </c>
       <c r="Y232">
-        <v>1.12</v>
+        <v>1.02</v>
       </c>
       <c r="Z232">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="AA232">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AB232">
-        <v>2.36</v>
+        <v>4</v>
       </c>
       <c r="AC232">
         <v>1.11</v>
       </c>
       <c r="AD232">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AE232">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AF232">
-        <v>3.05</v>
+        <v>2.4</v>
       </c>
       <c r="AG232">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AH232">
-        <v>1.68</v>
+        <v>1.5</v>
       </c>
       <c r="AI232">
-        <v>1.99</v>
+        <v>2.25</v>
       </c>
       <c r="AJ232">
-        <v>1.96</v>
+        <v>1.57</v>
       </c>
       <c r="AK232">
-        <v>1.74</v>
+        <v>1.33</v>
       </c>
       <c r="AL232">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AM232">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AN232">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AO232">
-        <v>1.69</v>
+        <v>1.15</v>
       </c>
       <c r="AP232">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="AQ232">
-        <v>1.79</v>
+        <v>1.07</v>
       </c>
       <c r="AR232">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AS232">
-        <v>1.02</v>
+        <v>1.27</v>
       </c>
       <c r="AT232">
-        <v>2.42</v>
+        <v>2.94</v>
       </c>
       <c r="AU232">
+        <v>8</v>
+      </c>
+      <c r="AV232">
         <v>5</v>
       </c>
-      <c r="AV232">
-        <v>2</v>
-      </c>
       <c r="AW232">
+        <v>2</v>
+      </c>
+      <c r="AX232">
+        <v>5</v>
+      </c>
+      <c r="AY232">
         <v>10</v>
       </c>
-      <c r="AX232">
-        <v>3</v>
-      </c>
-      <c r="AY232">
-        <v>15</v>
-      </c>
       <c r="AZ232">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BA232">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BB232">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC232">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="BD232">
+        <v>1.56</v>
+      </c>
+      <c r="BE232">
+        <v>6.35</v>
+      </c>
+      <c r="BF232">
+        <v>3.12</v>
+      </c>
+      <c r="BG232">
+        <v>1.42</v>
+      </c>
+      <c r="BH232">
+        <v>2.62</v>
+      </c>
+      <c r="BI232">
+        <v>1.75</v>
+      </c>
+      <c r="BJ232">
+        <v>2.05</v>
+      </c>
+      <c r="BK232">
         <v>2.23</v>
       </c>
-      <c r="BE232">
-        <v>6.2</v>
-      </c>
-      <c r="BF232">
-        <v>1.97</v>
-      </c>
-      <c r="BG232">
-        <v>1.4</v>
-      </c>
-      <c r="BH232">
-        <v>2.7</v>
-      </c>
-      <c r="BI232">
-        <v>1.68</v>
-      </c>
-      <c r="BJ232">
-        <v>2.15</v>
-      </c>
-      <c r="BK232">
-        <v>2.1</v>
-      </c>
       <c r="BL232">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="BM232">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="BN232">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="BO232">
         <v>3.6</v>
@@ -49174,7 +49180,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>7364350</v>
+        <v>7364349</v>
       </c>
       <c r="C233" t="s">
         <v>68</v>
@@ -49189,184 +49195,184 @@
         <v>28</v>
       </c>
       <c r="G233" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="H233" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="I233">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L233">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M233">
         <v>1</v>
       </c>
       <c r="N233">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O233" t="s">
-        <v>221</v>
+        <v>92</v>
       </c>
       <c r="P233" t="s">
-        <v>310</v>
+        <v>107</v>
       </c>
       <c r="Q233">
-        <v>2.63</v>
+        <v>4.3</v>
       </c>
       <c r="R233">
-        <v>1.91</v>
+        <v>2.14</v>
       </c>
       <c r="S233">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="T233">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="U233">
-        <v>2.35</v>
+        <v>3</v>
       </c>
       <c r="V233">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="W233">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="X233">
-        <v>10</v>
+        <v>5.7</v>
       </c>
       <c r="Y233">
-        <v>1.02</v>
+        <v>1.12</v>
       </c>
       <c r="Z233">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="AA233">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AB233">
-        <v>4</v>
+        <v>2.36</v>
       </c>
       <c r="AC233">
         <v>1.11</v>
       </c>
       <c r="AD233">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE233">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AF233">
-        <v>2.4</v>
+        <v>3.05</v>
       </c>
       <c r="AG233">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="AH233">
-        <v>1.5</v>
+        <v>1.68</v>
       </c>
       <c r="AI233">
-        <v>2.25</v>
+        <v>1.99</v>
       </c>
       <c r="AJ233">
-        <v>1.57</v>
+        <v>1.96</v>
       </c>
       <c r="AK233">
+        <v>1.74</v>
+      </c>
+      <c r="AL233">
+        <v>1.45</v>
+      </c>
+      <c r="AM233">
         <v>1.33</v>
       </c>
-      <c r="AL233">
-        <v>1.33</v>
-      </c>
-      <c r="AM233">
-        <v>1.53</v>
-      </c>
       <c r="AN233">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AO233">
-        <v>1.15</v>
+        <v>1.69</v>
       </c>
       <c r="AP233">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="AQ233">
-        <v>1.07</v>
+        <v>1.79</v>
       </c>
       <c r="AR233">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="AS233">
-        <v>1.27</v>
+        <v>1.02</v>
       </c>
       <c r="AT233">
-        <v>2.94</v>
+        <v>2.42</v>
       </c>
       <c r="AU233">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV233">
+        <v>2</v>
+      </c>
+      <c r="AW233">
+        <v>10</v>
+      </c>
+      <c r="AX233">
+        <v>3</v>
+      </c>
+      <c r="AY233">
+        <v>15</v>
+      </c>
+      <c r="AZ233">
         <v>5</v>
       </c>
-      <c r="AW233">
-        <v>2</v>
-      </c>
-      <c r="AX233">
-        <v>5</v>
-      </c>
-      <c r="AY233">
-        <v>10</v>
-      </c>
-      <c r="AZ233">
-        <v>10</v>
-      </c>
       <c r="BA233">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BB233">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC233">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BD233">
-        <v>1.56</v>
+        <v>2.23</v>
       </c>
       <c r="BE233">
-        <v>6.35</v>
+        <v>6.2</v>
       </c>
       <c r="BF233">
-        <v>3.12</v>
+        <v>1.97</v>
       </c>
       <c r="BG233">
+        <v>1.4</v>
+      </c>
+      <c r="BH233">
+        <v>2.7</v>
+      </c>
+      <c r="BI233">
+        <v>1.68</v>
+      </c>
+      <c r="BJ233">
+        <v>2.15</v>
+      </c>
+      <c r="BK233">
+        <v>2.1</v>
+      </c>
+      <c r="BL233">
+        <v>1.7</v>
+      </c>
+      <c r="BM233">
+        <v>2.62</v>
+      </c>
+      <c r="BN233">
         <v>1.42</v>
-      </c>
-      <c r="BH233">
-        <v>2.62</v>
-      </c>
-      <c r="BI233">
-        <v>1.75</v>
-      </c>
-      <c r="BJ233">
-        <v>2.05</v>
-      </c>
-      <c r="BK233">
-        <v>2.23</v>
-      </c>
-      <c r="BL233">
-        <v>1.64</v>
-      </c>
-      <c r="BM233">
-        <v>2.8</v>
-      </c>
-      <c r="BN233">
-        <v>1.38</v>
       </c>
       <c r="BO233">
         <v>3.6</v>
@@ -49422,7 +49428,7 @@
         <v>222</v>
       </c>
       <c r="P234" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q234">
         <v>3.6</v>
@@ -49628,7 +49634,7 @@
         <v>223</v>
       </c>
       <c r="P235" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q235">
         <v>1.62</v>
@@ -50246,7 +50252,7 @@
         <v>224</v>
       </c>
       <c r="P238" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q238">
         <v>2.5</v>
@@ -50403,6 +50409,418 @@
       </c>
       <c r="BP238">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="239" spans="1:68">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>7364357</v>
+      </c>
+      <c r="C239" t="s">
+        <v>68</v>
+      </c>
+      <c r="D239" t="s">
+        <v>69</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45474.54166666666</v>
+      </c>
+      <c r="F239">
+        <v>29</v>
+      </c>
+      <c r="G239" t="s">
+        <v>85</v>
+      </c>
+      <c r="H239" t="s">
+        <v>84</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239">
+        <v>1</v>
+      </c>
+      <c r="K239">
+        <v>2</v>
+      </c>
+      <c r="L239">
+        <v>2</v>
+      </c>
+      <c r="M239">
+        <v>1</v>
+      </c>
+      <c r="N239">
+        <v>3</v>
+      </c>
+      <c r="O239" t="s">
+        <v>225</v>
+      </c>
+      <c r="P239" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q239">
+        <v>2.4</v>
+      </c>
+      <c r="R239">
+        <v>2.05</v>
+      </c>
+      <c r="S239">
+        <v>5</v>
+      </c>
+      <c r="T239">
+        <v>1.45</v>
+      </c>
+      <c r="U239">
+        <v>2.55</v>
+      </c>
+      <c r="V239">
+        <v>3.1</v>
+      </c>
+      <c r="W239">
+        <v>1.33</v>
+      </c>
+      <c r="X239">
+        <v>7</v>
+      </c>
+      <c r="Y239">
+        <v>1.08</v>
+      </c>
+      <c r="Z239">
+        <v>1.75</v>
+      </c>
+      <c r="AA239">
+        <v>3.25</v>
+      </c>
+      <c r="AB239">
+        <v>4.5</v>
+      </c>
+      <c r="AC239">
+        <v>1.04</v>
+      </c>
+      <c r="AD239">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE239">
+        <v>1.2</v>
+      </c>
+      <c r="AF239">
+        <v>2.68</v>
+      </c>
+      <c r="AG239">
+        <v>2.25</v>
+      </c>
+      <c r="AH239">
+        <v>1.62</v>
+      </c>
+      <c r="AI239">
+        <v>2.1</v>
+      </c>
+      <c r="AJ239">
+        <v>1.67</v>
+      </c>
+      <c r="AK239">
+        <v>1.01</v>
+      </c>
+      <c r="AL239">
+        <v>1.05</v>
+      </c>
+      <c r="AM239">
+        <v>2.12</v>
+      </c>
+      <c r="AN239">
+        <v>1.54</v>
+      </c>
+      <c r="AO239">
+        <v>1.08</v>
+      </c>
+      <c r="AP239">
+        <v>1.64</v>
+      </c>
+      <c r="AQ239">
+        <v>1</v>
+      </c>
+      <c r="AR239">
+        <v>1.43</v>
+      </c>
+      <c r="AS239">
+        <v>1.25</v>
+      </c>
+      <c r="AT239">
+        <v>2.68</v>
+      </c>
+      <c r="AU239">
+        <v>4</v>
+      </c>
+      <c r="AV239">
+        <v>6</v>
+      </c>
+      <c r="AW239">
+        <v>1</v>
+      </c>
+      <c r="AX239">
+        <v>6</v>
+      </c>
+      <c r="AY239">
+        <v>5</v>
+      </c>
+      <c r="AZ239">
+        <v>12</v>
+      </c>
+      <c r="BA239">
+        <v>5</v>
+      </c>
+      <c r="BB239">
+        <v>6</v>
+      </c>
+      <c r="BC239">
+        <v>11</v>
+      </c>
+      <c r="BD239">
+        <v>1.35</v>
+      </c>
+      <c r="BE239">
+        <v>7.4</v>
+      </c>
+      <c r="BF239">
+        <v>4.15</v>
+      </c>
+      <c r="BG239">
+        <v>1.25</v>
+      </c>
+      <c r="BH239">
+        <v>3.42</v>
+      </c>
+      <c r="BI239">
+        <v>1.53</v>
+      </c>
+      <c r="BJ239">
+        <v>2.46</v>
+      </c>
+      <c r="BK239">
+        <v>1.89</v>
+      </c>
+      <c r="BL239">
+        <v>1.91</v>
+      </c>
+      <c r="BM239">
+        <v>2.4</v>
+      </c>
+      <c r="BN239">
+        <v>1.55</v>
+      </c>
+      <c r="BO239">
+        <v>3.2</v>
+      </c>
+      <c r="BP239">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="240" spans="1:68">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>7217703</v>
+      </c>
+      <c r="C240" t="s">
+        <v>68</v>
+      </c>
+      <c r="D240" t="s">
+        <v>69</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45474.54166666666</v>
+      </c>
+      <c r="F240">
+        <v>13</v>
+      </c>
+      <c r="G240" t="s">
+        <v>70</v>
+      </c>
+      <c r="H240" t="s">
+        <v>72</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>3</v>
+      </c>
+      <c r="K240">
+        <v>3</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+      <c r="M240">
+        <v>4</v>
+      </c>
+      <c r="N240">
+        <v>4</v>
+      </c>
+      <c r="O240" t="s">
+        <v>92</v>
+      </c>
+      <c r="P240" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q240">
+        <v>7.5</v>
+      </c>
+      <c r="R240">
+        <v>2.25</v>
+      </c>
+      <c r="S240">
+        <v>1.91</v>
+      </c>
+      <c r="T240">
+        <v>1.37</v>
+      </c>
+      <c r="U240">
+        <v>2.88</v>
+      </c>
+      <c r="V240">
+        <v>2.92</v>
+      </c>
+      <c r="W240">
+        <v>1.37</v>
+      </c>
+      <c r="X240">
+        <v>6.6</v>
+      </c>
+      <c r="Y240">
+        <v>1.09</v>
+      </c>
+      <c r="Z240">
+        <v>8</v>
+      </c>
+      <c r="AA240">
+        <v>4.1</v>
+      </c>
+      <c r="AB240">
+        <v>1.38</v>
+      </c>
+      <c r="AC240">
+        <v>1.04</v>
+      </c>
+      <c r="AD240">
+        <v>9.6</v>
+      </c>
+      <c r="AE240">
+        <v>1.31</v>
+      </c>
+      <c r="AF240">
+        <v>3.3</v>
+      </c>
+      <c r="AG240">
+        <v>1.95</v>
+      </c>
+      <c r="AH240">
+        <v>1.85</v>
+      </c>
+      <c r="AI240">
+        <v>2.25</v>
+      </c>
+      <c r="AJ240">
+        <v>1.57</v>
+      </c>
+      <c r="AK240">
+        <v>2.12</v>
+      </c>
+      <c r="AL240">
+        <v>1.18</v>
+      </c>
+      <c r="AM240">
+        <v>1.11</v>
+      </c>
+      <c r="AN240">
+        <v>1.58</v>
+      </c>
+      <c r="AO240">
+        <v>2.27</v>
+      </c>
+      <c r="AP240">
+        <v>1.46</v>
+      </c>
+      <c r="AQ240">
+        <v>2.33</v>
+      </c>
+      <c r="AR240">
+        <v>1.36</v>
+      </c>
+      <c r="AS240">
+        <v>1.71</v>
+      </c>
+      <c r="AT240">
+        <v>3.07</v>
+      </c>
+      <c r="AU240">
+        <v>3</v>
+      </c>
+      <c r="AV240">
+        <v>8</v>
+      </c>
+      <c r="AW240">
+        <v>5</v>
+      </c>
+      <c r="AX240">
+        <v>12</v>
+      </c>
+      <c r="AY240">
+        <v>8</v>
+      </c>
+      <c r="AZ240">
+        <v>20</v>
+      </c>
+      <c r="BA240">
+        <v>3</v>
+      </c>
+      <c r="BB240">
+        <v>10</v>
+      </c>
+      <c r="BC240">
+        <v>13</v>
+      </c>
+      <c r="BD240">
+        <v>6.1</v>
+      </c>
+      <c r="BE240">
+        <v>8.6</v>
+      </c>
+      <c r="BF240">
+        <v>1.19</v>
+      </c>
+      <c r="BG240">
+        <v>1.33</v>
+      </c>
+      <c r="BH240">
+        <v>2.93</v>
+      </c>
+      <c r="BI240">
+        <v>1.68</v>
+      </c>
+      <c r="BJ240">
+        <v>2.15</v>
+      </c>
+      <c r="BK240">
+        <v>2.07</v>
+      </c>
+      <c r="BL240">
+        <v>1.72</v>
+      </c>
+      <c r="BM240">
+        <v>2.71</v>
+      </c>
+      <c r="BN240">
+        <v>1.38</v>
+      </c>
+      <c r="BO240">
+        <v>3.74</v>
+      </c>
+      <c r="BP240">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="338">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -685,6 +685,9 @@
     <t>['51']</t>
   </si>
   <si>
+    <t>['15', '90+1']</t>
+  </si>
+  <si>
     <t>['39', '57']</t>
   </si>
   <si>
@@ -692,6 +695,9 @@
   </si>
   <si>
     <t>['19', '54']</t>
+  </si>
+  <si>
+    <t>['10', '90+16']</t>
   </si>
   <si>
     <t>['16', '75']</t>
@@ -1012,10 +1018,16 @@
     <t>['1', '14', '69', '83']</t>
   </si>
   <si>
+    <t>['45+2', '72', '79']</t>
+  </si>
+  <si>
     <t>['21', '72']</t>
   </si>
   <si>
     <t>['12', '34', '38', '90+3']</t>
+  </si>
+  <si>
+    <t>['38', '46']</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP240"/>
+  <dimension ref="A1:BP242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2460,7 +2472,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2744,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2872,7 +2884,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3284,7 +3296,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3571,7 +3583,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ11">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3696,7 +3708,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3777,7 +3789,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ12">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3902,7 +3914,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -4108,7 +4120,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4392,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ15">
         <v>1.07</v>
@@ -5138,7 +5150,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5422,10 +5434,10 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ20">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR20">
         <v>1.31</v>
@@ -5550,7 +5562,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5756,7 +5768,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5962,7 +5974,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -6168,7 +6180,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6580,7 +6592,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -7404,7 +7416,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7610,7 +7622,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7894,7 +7906,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ32">
         <v>0.93</v>
@@ -8022,7 +8034,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8515,7 +8527,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ35">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AR35">
         <v>1.72</v>
@@ -8640,7 +8652,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -8924,7 +8936,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ37">
         <v>1.27</v>
@@ -9052,7 +9064,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9258,7 +9270,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9339,7 +9351,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ39">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR39">
         <v>1.72</v>
@@ -9464,7 +9476,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -10082,7 +10094,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10288,7 +10300,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10366,7 +10378,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ44">
         <v>1.29</v>
@@ -10494,7 +10506,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10781,7 +10793,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ46">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AR46">
         <v>2.1</v>
@@ -11112,7 +11124,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11318,7 +11330,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11730,7 +11742,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11936,7 +11948,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12142,7 +12154,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12554,7 +12566,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12966,7 +12978,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13584,7 +13596,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13665,7 +13677,7 @@
         <v>1</v>
       </c>
       <c r="AQ60">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR60">
         <v>1.41</v>
@@ -13790,7 +13802,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -13868,7 +13880,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ61">
         <v>1.79</v>
@@ -14202,7 +14214,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14408,7 +14420,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14486,7 +14498,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ64">
         <v>0.8</v>
@@ -14614,7 +14626,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -15026,7 +15038,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15438,7 +15450,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -16056,7 +16068,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q72">
         <v>1.8</v>
@@ -16468,7 +16480,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16674,7 +16686,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16755,7 +16767,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ75">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR75">
         <v>1.37</v>
@@ -16958,7 +16970,7 @@
         <v>0.25</v>
       </c>
       <c r="AP76">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ76">
         <v>1</v>
@@ -17086,7 +17098,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17292,7 +17304,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17704,7 +17716,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17988,7 +18000,7 @@
         <v>1.75</v>
       </c>
       <c r="AP81">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ81">
         <v>1.07</v>
@@ -18197,7 +18209,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ82">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR82">
         <v>1.14</v>
@@ -18400,7 +18412,7 @@
         <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ83">
         <v>0.6899999999999999</v>
@@ -18734,7 +18746,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18940,7 +18952,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19146,7 +19158,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19430,7 +19442,7 @@
         <v>1.2</v>
       </c>
       <c r="AP88">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ88">
         <v>0.93</v>
@@ -19558,7 +19570,7 @@
         <v>92</v>
       </c>
       <c r="P89" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q89">
         <v>3.6</v>
@@ -19764,7 +19776,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q90">
         <v>3.5</v>
@@ -20051,7 +20063,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ91">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AR91">
         <v>2.39</v>
@@ -20666,7 +20678,7 @@
         <v>1.2</v>
       </c>
       <c r="AP94">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ94">
         <v>1.07</v>
@@ -21206,7 +21218,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21287,7 +21299,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ97">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR97">
         <v>1.11</v>
@@ -21824,7 +21836,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -22236,7 +22248,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22442,7 +22454,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23266,7 +23278,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23678,7 +23690,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23756,7 +23768,7 @@
         <v>2.25</v>
       </c>
       <c r="AP109">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ109">
         <v>1.86</v>
@@ -24090,7 +24102,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24377,7 +24389,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ112">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR112">
         <v>1.82</v>
@@ -24708,7 +24720,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -24786,7 +24798,7 @@
         <v>1.4</v>
       </c>
       <c r="AP114">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ114">
         <v>1.29</v>
@@ -25738,7 +25750,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25944,7 +25956,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -26150,7 +26162,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26231,7 +26243,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ121">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AR121">
         <v>0.92</v>
@@ -26434,7 +26446,7 @@
         <v>1.14</v>
       </c>
       <c r="AP122">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ122">
         <v>1.08</v>
@@ -26768,7 +26780,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -26974,7 +26986,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27180,7 +27192,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27386,7 +27398,7 @@
         <v>94</v>
       </c>
       <c r="P127" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q127">
         <v>3.4</v>
@@ -27467,7 +27479,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ127">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR127">
         <v>1.41</v>
@@ -27798,7 +27810,7 @@
         <v>148</v>
       </c>
       <c r="P129" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q129">
         <v>2.6</v>
@@ -28210,7 +28222,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28494,7 +28506,7 @@
         <v>0.71</v>
       </c>
       <c r="AP132">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ132">
         <v>0.8</v>
@@ -28828,7 +28840,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -29034,7 +29046,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29115,7 +29127,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ135">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AR135">
         <v>1.42</v>
@@ -29240,7 +29252,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29858,7 +29870,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q139">
         <v>3.15</v>
@@ -30270,7 +30282,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -30351,7 +30363,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ141">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AR141">
         <v>1.27</v>
@@ -30476,7 +30488,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q142">
         <v>3.75</v>
@@ -30966,7 +30978,7 @@
         <v>0.25</v>
       </c>
       <c r="AP144">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ144">
         <v>0.29</v>
@@ -31094,7 +31106,7 @@
         <v>92</v>
       </c>
       <c r="P145" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31300,7 +31312,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31506,7 +31518,7 @@
         <v>108</v>
       </c>
       <c r="P147" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31999,7 +32011,7 @@
         <v>1</v>
       </c>
       <c r="AQ149">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR149">
         <v>1.23</v>
@@ -32330,7 +32342,7 @@
         <v>184</v>
       </c>
       <c r="P151" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q151">
         <v>3.2</v>
@@ -32820,7 +32832,7 @@
         <v>1.13</v>
       </c>
       <c r="AP153">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ153">
         <v>0.6899999999999999</v>
@@ -32948,7 +32960,7 @@
         <v>128</v>
       </c>
       <c r="P154" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33360,7 +33372,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q156">
         <v>1.91</v>
@@ -33566,7 +33578,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34390,7 +34402,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34596,7 +34608,7 @@
         <v>151</v>
       </c>
       <c r="P162" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -34802,7 +34814,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -34880,10 +34892,10 @@
         <v>2.29</v>
       </c>
       <c r="AP163">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ163">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AR163">
         <v>1.17</v>
@@ -35420,7 +35432,7 @@
         <v>92</v>
       </c>
       <c r="P166" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q166">
         <v>3</v>
@@ -35501,7 +35513,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ166">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR166">
         <v>1.75</v>
@@ -35626,7 +35638,7 @@
         <v>191</v>
       </c>
       <c r="P167" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35832,7 +35844,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
@@ -36038,7 +36050,7 @@
         <v>192</v>
       </c>
       <c r="P169" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -36528,7 +36540,7 @@
         <v>1.14</v>
       </c>
       <c r="AP171">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ171">
         <v>1.27</v>
@@ -36656,7 +36668,7 @@
         <v>194</v>
       </c>
       <c r="P172" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -37068,7 +37080,7 @@
         <v>92</v>
       </c>
       <c r="P174" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q174">
         <v>4.8</v>
@@ -37686,7 +37698,7 @@
         <v>128</v>
       </c>
       <c r="P177" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q177">
         <v>3.25</v>
@@ -37764,7 +37776,7 @@
         <v>1.82</v>
       </c>
       <c r="AP177">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ177">
         <v>1.77</v>
@@ -38098,7 +38110,7 @@
         <v>118</v>
       </c>
       <c r="P179" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38716,7 +38728,7 @@
         <v>92</v>
       </c>
       <c r="P182" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q182">
         <v>4.33</v>
@@ -38797,7 +38809,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ182">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AR182">
         <v>1.54</v>
@@ -38922,7 +38934,7 @@
         <v>200</v>
       </c>
       <c r="P183" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q183">
         <v>9</v>
@@ -39128,7 +39140,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q184">
         <v>3.4</v>
@@ -39334,7 +39346,7 @@
         <v>108</v>
       </c>
       <c r="P185" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -40158,7 +40170,7 @@
         <v>92</v>
       </c>
       <c r="P189" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q189">
         <v>3.5</v>
@@ -40236,7 +40248,7 @@
         <v>1.6</v>
       </c>
       <c r="AP189">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ189">
         <v>1.86</v>
@@ -40364,7 +40376,7 @@
         <v>202</v>
       </c>
       <c r="P190" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q190">
         <v>3.8</v>
@@ -40570,7 +40582,7 @@
         <v>92</v>
       </c>
       <c r="P191" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -40651,7 +40663,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ191">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AR191">
         <v>1.41</v>
@@ -42218,7 +42230,7 @@
         <v>171</v>
       </c>
       <c r="P199" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q199">
         <v>3.5</v>
@@ -42424,7 +42436,7 @@
         <v>204</v>
       </c>
       <c r="P200" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q200">
         <v>3.75</v>
@@ -42502,7 +42514,7 @@
         <v>1.1</v>
       </c>
       <c r="AP200">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ200">
         <v>1.08</v>
@@ -42711,7 +42723,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ201">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR201">
         <v>0.93</v>
@@ -42836,7 +42848,7 @@
         <v>206</v>
       </c>
       <c r="P202" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q202">
         <v>3.2</v>
@@ -43660,7 +43672,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q206">
         <v>4.5</v>
@@ -44072,7 +44084,7 @@
         <v>209</v>
       </c>
       <c r="P208" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q208">
         <v>2.75</v>
@@ -44278,7 +44290,7 @@
         <v>194</v>
       </c>
       <c r="P209" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q209">
         <v>3.5</v>
@@ -44484,7 +44496,7 @@
         <v>179</v>
       </c>
       <c r="P210" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q210">
         <v>7.5</v>
@@ -44690,7 +44702,7 @@
         <v>210</v>
       </c>
       <c r="P211" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q211">
         <v>3.75</v>
@@ -44896,7 +44908,7 @@
         <v>94</v>
       </c>
       <c r="P212" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q212">
         <v>3.4</v>
@@ -45102,7 +45114,7 @@
         <v>211</v>
       </c>
       <c r="P213" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q213">
         <v>2.78</v>
@@ -45308,7 +45320,7 @@
         <v>212</v>
       </c>
       <c r="P214" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q214">
         <v>3.2</v>
@@ -45514,7 +45526,7 @@
         <v>213</v>
       </c>
       <c r="P215" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q215">
         <v>2.2</v>
@@ -45592,7 +45604,7 @@
         <v>0.25</v>
       </c>
       <c r="AP215">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AQ215">
         <v>0.29</v>
@@ -45720,7 +45732,7 @@
         <v>92</v>
       </c>
       <c r="P216" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q216">
         <v>7</v>
@@ -45926,7 +45938,7 @@
         <v>214</v>
       </c>
       <c r="P217" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q217">
         <v>2.88</v>
@@ -46132,7 +46144,7 @@
         <v>92</v>
       </c>
       <c r="P218" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q218">
         <v>7.5</v>
@@ -46213,7 +46225,7 @@
         <v>1</v>
       </c>
       <c r="AQ218">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AR218">
         <v>1.27</v>
@@ -46338,7 +46350,7 @@
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q219">
         <v>3.1</v>
@@ -46750,7 +46762,7 @@
         <v>216</v>
       </c>
       <c r="P221" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q221">
         <v>0</v>
@@ -46956,7 +46968,7 @@
         <v>217</v>
       </c>
       <c r="P222" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q222">
         <v>3.4</v>
@@ -47240,7 +47252,7 @@
         <v>1.17</v>
       </c>
       <c r="AP223">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ223">
         <v>1</v>
@@ -47574,7 +47586,7 @@
         <v>92</v>
       </c>
       <c r="P225" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q225">
         <v>3</v>
@@ -47780,7 +47792,7 @@
         <v>218</v>
       </c>
       <c r="P226" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q226">
         <v>1.9</v>
@@ -47861,7 +47873,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ226">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AR226">
         <v>1.92</v>
@@ -48810,7 +48822,7 @@
         <v>92</v>
       </c>
       <c r="P231" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q231">
         <v>4.75</v>
@@ -49016,7 +49028,7 @@
         <v>221</v>
       </c>
       <c r="P232" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q232">
         <v>2.63</v>
@@ -49428,7 +49440,7 @@
         <v>222</v>
       </c>
       <c r="P234" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q234">
         <v>3.6</v>
@@ -49592,7 +49604,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>7364352</v>
+        <v>7364353</v>
       </c>
       <c r="C235" t="s">
         <v>68</v>
@@ -49607,190 +49619,190 @@
         <v>28</v>
       </c>
       <c r="G235" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H235" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I235">
         <v>1</v>
       </c>
       <c r="J235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L235">
         <v>2</v>
       </c>
       <c r="M235">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N235">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O235" t="s">
         <v>223</v>
       </c>
       <c r="P235" t="s">
-        <v>246</v>
+        <v>334</v>
       </c>
       <c r="Q235">
-        <v>1.62</v>
+        <v>5</v>
       </c>
       <c r="R235">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="S235">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="T235">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="U235">
-        <v>3.45</v>
+        <v>2.75</v>
       </c>
       <c r="V235">
-        <v>2.25</v>
+        <v>2.85</v>
       </c>
       <c r="W235">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="X235">
-        <v>5.1</v>
+        <v>7.5</v>
       </c>
       <c r="Y235">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="Z235">
-        <v>1.2</v>
+        <v>4.75</v>
       </c>
       <c r="AA235">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="AB235">
-        <v>10</v>
+        <v>1.67</v>
       </c>
       <c r="AC235">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AD235">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AE235">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="AF235">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="AG235">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="AH235">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="AI235">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="AJ235">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="AK235">
-        <v>1.05</v>
+        <v>2.45</v>
       </c>
       <c r="AL235">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="AM235">
-        <v>2.89</v>
+        <v>1.07</v>
       </c>
       <c r="AN235">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO235">
-        <v>0.86</v>
+        <v>2.55</v>
       </c>
       <c r="AP235">
-        <v>2.56</v>
+        <v>1.85</v>
       </c>
       <c r="AQ235">
-        <v>0.8</v>
+        <v>2.58</v>
       </c>
       <c r="AR235">
-        <v>1.73</v>
+        <v>1.55</v>
       </c>
       <c r="AS235">
-        <v>1.3</v>
+        <v>1.71</v>
       </c>
       <c r="AT235">
-        <v>3.03</v>
+        <v>3.26</v>
       </c>
       <c r="AU235">
+        <v>3</v>
+      </c>
+      <c r="AV235">
+        <v>3</v>
+      </c>
+      <c r="AW235">
+        <v>1</v>
+      </c>
+      <c r="AX235">
+        <v>0</v>
+      </c>
+      <c r="AY235">
         <v>4</v>
       </c>
-      <c r="AV235">
-        <v>5</v>
-      </c>
-      <c r="AW235">
-        <v>7</v>
-      </c>
-      <c r="AX235">
-        <v>4</v>
-      </c>
-      <c r="AY235">
-        <v>11</v>
-      </c>
       <c r="AZ235">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BA235">
         <v>3</v>
       </c>
       <c r="BB235">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC235">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD235">
-        <v>1.07</v>
+        <v>3.24</v>
       </c>
       <c r="BE235">
-        <v>11.75</v>
+        <v>6.6</v>
       </c>
       <c r="BF235">
-        <v>10.5</v>
+        <v>1.52</v>
       </c>
       <c r="BG235">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="BH235">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="BI235">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="BJ235">
-        <v>2.31</v>
+        <v>2.23</v>
       </c>
       <c r="BK235">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="BL235">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="BM235">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="BN235">
         <v>1.48</v>
       </c>
       <c r="BO235">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="BP235">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="236" spans="1:68">
@@ -49798,7 +49810,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>7364354</v>
+        <v>7364352</v>
       </c>
       <c r="C236" t="s">
         <v>68</v>
@@ -49807,196 +49819,196 @@
         <v>69</v>
       </c>
       <c r="E236" s="2">
-        <v>45472.41666666666</v>
+        <v>45471.54166666666</v>
       </c>
       <c r="F236">
         <v>28</v>
       </c>
       <c r="G236" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="H236" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236">
         <v>0</v>
       </c>
       <c r="K236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L236">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N236">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O236" t="s">
-        <v>92</v>
+        <v>224</v>
       </c>
       <c r="P236" t="s">
-        <v>92</v>
+        <v>248</v>
       </c>
       <c r="Q236">
-        <v>5</v>
+        <v>1.62</v>
       </c>
       <c r="R236">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="S236">
-        <v>2.4</v>
+        <v>9</v>
       </c>
       <c r="T236">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="U236">
-        <v>2.45</v>
+        <v>3.45</v>
       </c>
       <c r="V236">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="W236">
+        <v>1.57</v>
+      </c>
+      <c r="X236">
+        <v>5.1</v>
+      </c>
+      <c r="Y236">
+        <v>1.14</v>
+      </c>
+      <c r="Z236">
+        <v>1.2</v>
+      </c>
+      <c r="AA236">
+        <v>5.5</v>
+      </c>
+      <c r="AB236">
+        <v>10</v>
+      </c>
+      <c r="AC236">
+        <v>1.03</v>
+      </c>
+      <c r="AD236">
+        <v>10</v>
+      </c>
+      <c r="AE236">
+        <v>1.17</v>
+      </c>
+      <c r="AF236">
+        <v>4.75</v>
+      </c>
+      <c r="AG236">
+        <v>1.62</v>
+      </c>
+      <c r="AH236">
+        <v>2.25</v>
+      </c>
+      <c r="AI236">
+        <v>2.25</v>
+      </c>
+      <c r="AJ236">
+        <v>1.57</v>
+      </c>
+      <c r="AK236">
+        <v>1.05</v>
+      </c>
+      <c r="AL236">
+        <v>1.09</v>
+      </c>
+      <c r="AM236">
+        <v>2.89</v>
+      </c>
+      <c r="AN236">
+        <v>2.5</v>
+      </c>
+      <c r="AO236">
+        <v>0.86</v>
+      </c>
+      <c r="AP236">
+        <v>2.56</v>
+      </c>
+      <c r="AQ236">
+        <v>0.8</v>
+      </c>
+      <c r="AR236">
+        <v>1.73</v>
+      </c>
+      <c r="AS236">
         <v>1.3</v>
       </c>
-      <c r="X236">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Y236">
-        <v>1.05</v>
-      </c>
-      <c r="Z236">
-        <v>5</v>
-      </c>
-      <c r="AA236">
-        <v>3.3</v>
-      </c>
-      <c r="AB236">
-        <v>1.73</v>
-      </c>
-      <c r="AC236">
-        <v>1.07</v>
-      </c>
-      <c r="AD236">
-        <v>7.5</v>
-      </c>
-      <c r="AE236">
-        <v>1.42</v>
-      </c>
-      <c r="AF236">
-        <v>2.75</v>
-      </c>
-      <c r="AG236">
-        <v>2.2</v>
-      </c>
-      <c r="AH236">
-        <v>1.65</v>
-      </c>
-      <c r="AI236">
-        <v>2.1</v>
-      </c>
-      <c r="AJ236">
-        <v>1.67</v>
-      </c>
-      <c r="AK236">
-        <v>1.95</v>
-      </c>
-      <c r="AL236">
-        <v>1.25</v>
-      </c>
-      <c r="AM236">
-        <v>1.15</v>
-      </c>
-      <c r="AN236">
-        <v>1</v>
-      </c>
-      <c r="AO236">
-        <v>1.5</v>
-      </c>
-      <c r="AP236">
-        <v>1</v>
-      </c>
-      <c r="AQ236">
-        <v>1.46</v>
-      </c>
-      <c r="AR236">
-        <v>1.2</v>
-      </c>
-      <c r="AS236">
-        <v>1.41</v>
-      </c>
       <c r="AT236">
-        <v>2.61</v>
+        <v>3.03</v>
       </c>
       <c r="AU236">
         <v>4</v>
       </c>
       <c r="AV236">
+        <v>5</v>
+      </c>
+      <c r="AW236">
+        <v>7</v>
+      </c>
+      <c r="AX236">
         <v>4</v>
       </c>
-      <c r="AW236">
+      <c r="AY236">
+        <v>11</v>
+      </c>
+      <c r="AZ236">
+        <v>9</v>
+      </c>
+      <c r="BA236">
+        <v>3</v>
+      </c>
+      <c r="BB236">
+        <v>2</v>
+      </c>
+      <c r="BC236">
         <v>5</v>
       </c>
-      <c r="AX236">
-        <v>7</v>
-      </c>
-      <c r="AY236">
-        <v>9</v>
-      </c>
-      <c r="AZ236">
-        <v>11</v>
-      </c>
-      <c r="BA236">
-        <v>8</v>
-      </c>
-      <c r="BB236">
-        <v>8</v>
-      </c>
-      <c r="BC236">
-        <v>16</v>
-      </c>
       <c r="BD236">
-        <v>2.95</v>
+        <v>1.07</v>
       </c>
       <c r="BE236">
-        <v>6.2</v>
+        <v>11.75</v>
       </c>
       <c r="BF236">
-        <v>1.62</v>
+        <v>10.5</v>
       </c>
       <c r="BG236">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="BH236">
-        <v>2.52</v>
+        <v>3</v>
       </c>
       <c r="BI236">
-        <v>1.84</v>
+        <v>1.58</v>
       </c>
       <c r="BJ236">
-        <v>1.95</v>
+        <v>2.31</v>
       </c>
       <c r="BK236">
-        <v>2.33</v>
+        <v>1.99</v>
       </c>
       <c r="BL236">
-        <v>1.57</v>
+        <v>1.81</v>
       </c>
       <c r="BM236">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="BN236">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="BO236">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="BP236">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="237" spans="1:68">
@@ -50004,7 +50016,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>7364355</v>
+        <v>7364354</v>
       </c>
       <c r="C237" t="s">
         <v>68</v>
@@ -50013,16 +50025,16 @@
         <v>69</v>
       </c>
       <c r="E237" s="2">
-        <v>45472.47916666666</v>
+        <v>45472.41666666666</v>
       </c>
       <c r="F237">
         <v>28</v>
       </c>
       <c r="G237" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H237" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I237">
         <v>0</v>
@@ -50034,175 +50046,175 @@
         <v>0</v>
       </c>
       <c r="L237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N237">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O237" t="s">
-        <v>222</v>
+        <v>92</v>
       </c>
       <c r="P237" t="s">
-        <v>324</v>
+        <v>92</v>
       </c>
       <c r="Q237">
-        <v>2.38</v>
+        <v>5</v>
       </c>
       <c r="R237">
+        <v>2</v>
+      </c>
+      <c r="S237">
+        <v>2.4</v>
+      </c>
+      <c r="T237">
+        <v>1.48</v>
+      </c>
+      <c r="U237">
+        <v>2.45</v>
+      </c>
+      <c r="V237">
+        <v>3.2</v>
+      </c>
+      <c r="W237">
+        <v>1.3</v>
+      </c>
+      <c r="X237">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y237">
+        <v>1.05</v>
+      </c>
+      <c r="Z237">
+        <v>5</v>
+      </c>
+      <c r="AA237">
+        <v>3.3</v>
+      </c>
+      <c r="AB237">
+        <v>1.73</v>
+      </c>
+      <c r="AC237">
+        <v>1.07</v>
+      </c>
+      <c r="AD237">
+        <v>7.5</v>
+      </c>
+      <c r="AE237">
+        <v>1.42</v>
+      </c>
+      <c r="AF237">
+        <v>2.75</v>
+      </c>
+      <c r="AG237">
+        <v>2.2</v>
+      </c>
+      <c r="AH237">
+        <v>1.65</v>
+      </c>
+      <c r="AI237">
+        <v>2.1</v>
+      </c>
+      <c r="AJ237">
+        <v>1.67</v>
+      </c>
+      <c r="AK237">
         <v>1.95</v>
       </c>
-      <c r="S237">
-        <v>5.5</v>
-      </c>
-      <c r="T237">
-        <v>1.55</v>
-      </c>
-      <c r="U237">
-        <v>2.3</v>
-      </c>
-      <c r="V237">
-        <v>3.55</v>
-      </c>
-      <c r="W237">
+      <c r="AL237">
         <v>1.25</v>
       </c>
-      <c r="X237">
-        <v>9</v>
-      </c>
-      <c r="Y237">
-        <v>1.03</v>
-      </c>
-      <c r="Z237">
-        <v>1.8</v>
-      </c>
-      <c r="AA237">
-        <v>3.1</v>
-      </c>
-      <c r="AB237">
-        <v>4.1</v>
-      </c>
-      <c r="AC237">
-        <v>1.1</v>
-      </c>
-      <c r="AD237">
-        <v>6.25</v>
-      </c>
-      <c r="AE237">
-        <v>1.49</v>
-      </c>
-      <c r="AF237">
-        <v>2.43</v>
-      </c>
-      <c r="AG237">
-        <v>2.49</v>
-      </c>
-      <c r="AH237">
-        <v>1.49</v>
-      </c>
-      <c r="AI237">
-        <v>2.25</v>
-      </c>
-      <c r="AJ237">
-        <v>1.57</v>
-      </c>
-      <c r="AK237">
+      <c r="AM237">
+        <v>1.15</v>
+      </c>
+      <c r="AN237">
+        <v>1</v>
+      </c>
+      <c r="AO237">
+        <v>1.5</v>
+      </c>
+      <c r="AP237">
+        <v>1</v>
+      </c>
+      <c r="AQ237">
+        <v>1.46</v>
+      </c>
+      <c r="AR237">
         <v>1.2</v>
       </c>
-      <c r="AL237">
-        <v>1.3</v>
-      </c>
-      <c r="AM237">
-        <v>1.85</v>
-      </c>
-      <c r="AN237">
-        <v>1.38</v>
-      </c>
-      <c r="AO237">
-        <v>0.23</v>
-      </c>
-      <c r="AP237">
-        <v>1.36</v>
-      </c>
-      <c r="AQ237">
-        <v>0.29</v>
-      </c>
-      <c r="AR237">
-        <v>1.38</v>
-      </c>
       <c r="AS237">
-        <v>1.06</v>
+        <v>1.41</v>
       </c>
       <c r="AT237">
-        <v>2.44</v>
+        <v>2.61</v>
       </c>
       <c r="AU237">
         <v>4</v>
       </c>
       <c r="AV237">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW237">
+        <v>5</v>
+      </c>
+      <c r="AX237">
+        <v>7</v>
+      </c>
+      <c r="AY237">
+        <v>9</v>
+      </c>
+      <c r="AZ237">
+        <v>11</v>
+      </c>
+      <c r="BA237">
         <v>8</v>
       </c>
-      <c r="AX237">
-        <v>2</v>
-      </c>
-      <c r="AY237">
-        <v>12</v>
-      </c>
-      <c r="AZ237">
+      <c r="BB237">
+        <v>8</v>
+      </c>
+      <c r="BC237">
+        <v>16</v>
+      </c>
+      <c r="BD237">
+        <v>2.95</v>
+      </c>
+      <c r="BE237">
+        <v>6.2</v>
+      </c>
+      <c r="BF237">
+        <v>1.62</v>
+      </c>
+      <c r="BG237">
+        <v>1.5</v>
+      </c>
+      <c r="BH237">
+        <v>2.52</v>
+      </c>
+      <c r="BI237">
+        <v>1.84</v>
+      </c>
+      <c r="BJ237">
+        <v>1.95</v>
+      </c>
+      <c r="BK237">
+        <v>2.33</v>
+      </c>
+      <c r="BL237">
+        <v>1.57</v>
+      </c>
+      <c r="BM237">
+        <v>3</v>
+      </c>
+      <c r="BN237">
+        <v>1.33</v>
+      </c>
+      <c r="BO237">
         <v>4</v>
       </c>
-      <c r="BA237">
-        <v>5</v>
-      </c>
-      <c r="BB237">
-        <v>6</v>
-      </c>
-      <c r="BC237">
-        <v>11</v>
-      </c>
-      <c r="BD237">
-        <v>1.33</v>
-      </c>
-      <c r="BE237">
-        <v>6.95</v>
-      </c>
-      <c r="BF237">
-        <v>4.5</v>
-      </c>
-      <c r="BG237">
-        <v>1.44</v>
-      </c>
-      <c r="BH237">
-        <v>2.68</v>
-      </c>
-      <c r="BI237">
-        <v>1.79</v>
-      </c>
-      <c r="BJ237">
-        <v>2.01</v>
-      </c>
-      <c r="BK237">
-        <v>2.28</v>
-      </c>
-      <c r="BL237">
-        <v>1.59</v>
-      </c>
-      <c r="BM237">
-        <v>2.88</v>
-      </c>
-      <c r="BN237">
-        <v>1.36</v>
-      </c>
-      <c r="BO237">
-        <v>3.8</v>
-      </c>
       <c r="BP237">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="238" spans="1:68">
@@ -50210,7 +50222,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>7364356</v>
+        <v>7364355</v>
       </c>
       <c r="C238" t="s">
         <v>68</v>
@@ -50219,196 +50231,196 @@
         <v>69</v>
       </c>
       <c r="E238" s="2">
-        <v>45472.54166666666</v>
+        <v>45472.47916666666</v>
       </c>
       <c r="F238">
         <v>28</v>
       </c>
       <c r="G238" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H238" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="I238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K238">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L238">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N238">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O238" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="P238" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="Q238">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R238">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="S238">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="T238">
+        <v>1.55</v>
+      </c>
+      <c r="U238">
+        <v>2.3</v>
+      </c>
+      <c r="V238">
+        <v>3.55</v>
+      </c>
+      <c r="W238">
+        <v>1.25</v>
+      </c>
+      <c r="X238">
+        <v>9</v>
+      </c>
+      <c r="Y238">
+        <v>1.03</v>
+      </c>
+      <c r="Z238">
+        <v>1.8</v>
+      </c>
+      <c r="AA238">
+        <v>3.1</v>
+      </c>
+      <c r="AB238">
+        <v>4.1</v>
+      </c>
+      <c r="AC238">
+        <v>1.1</v>
+      </c>
+      <c r="AD238">
+        <v>6.25</v>
+      </c>
+      <c r="AE238">
+        <v>1.49</v>
+      </c>
+      <c r="AF238">
+        <v>2.43</v>
+      </c>
+      <c r="AG238">
+        <v>2.49</v>
+      </c>
+      <c r="AH238">
+        <v>1.49</v>
+      </c>
+      <c r="AI238">
+        <v>2.25</v>
+      </c>
+      <c r="AJ238">
+        <v>1.57</v>
+      </c>
+      <c r="AK238">
+        <v>1.2</v>
+      </c>
+      <c r="AL238">
         <v>1.3</v>
-      </c>
-      <c r="U238">
-        <v>3.1</v>
-      </c>
-      <c r="V238">
-        <v>2.6</v>
-      </c>
-      <c r="W238">
-        <v>1.42</v>
-      </c>
-      <c r="X238">
-        <v>5.5</v>
-      </c>
-      <c r="Y238">
-        <v>1.1</v>
-      </c>
-      <c r="Z238">
-        <v>1.9</v>
-      </c>
-      <c r="AA238">
-        <v>3.2</v>
-      </c>
-      <c r="AB238">
-        <v>3.9</v>
-      </c>
-      <c r="AC238">
-        <v>1.05</v>
-      </c>
-      <c r="AD238">
-        <v>8</v>
-      </c>
-      <c r="AE238">
-        <v>1.22</v>
-      </c>
-      <c r="AF238">
-        <v>3.7</v>
-      </c>
-      <c r="AG238">
-        <v>1.85</v>
-      </c>
-      <c r="AH238">
-        <v>1.95</v>
-      </c>
-      <c r="AI238">
-        <v>1.73</v>
-      </c>
-      <c r="AJ238">
-        <v>2</v>
-      </c>
-      <c r="AK238">
-        <v>1.13</v>
-      </c>
-      <c r="AL238">
-        <v>1.28</v>
       </c>
       <c r="AM238">
         <v>1.85</v>
       </c>
       <c r="AN238">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="AO238">
-        <v>1.17</v>
+        <v>0.23</v>
       </c>
       <c r="AP238">
-        <v>2.09</v>
+        <v>1.36</v>
       </c>
       <c r="AQ238">
-        <v>1.08</v>
+        <v>0.29</v>
       </c>
       <c r="AR238">
-        <v>1.7</v>
+        <v>1.38</v>
       </c>
       <c r="AS238">
-        <v>1.65</v>
+        <v>1.06</v>
       </c>
       <c r="AT238">
-        <v>3.35</v>
+        <v>2.44</v>
       </c>
       <c r="AU238">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AV238">
+        <v>2</v>
+      </c>
+      <c r="AW238">
+        <v>8</v>
+      </c>
+      <c r="AX238">
+        <v>2</v>
+      </c>
+      <c r="AY238">
+        <v>12</v>
+      </c>
+      <c r="AZ238">
+        <v>4</v>
+      </c>
+      <c r="BA238">
         <v>5</v>
       </c>
-      <c r="AW238">
-        <v>5</v>
-      </c>
-      <c r="AX238">
-        <v>5</v>
-      </c>
-      <c r="AY238">
-        <v>18</v>
-      </c>
-      <c r="AZ238">
-        <v>10</v>
-      </c>
-      <c r="BA238">
-        <v>10</v>
-      </c>
       <c r="BB238">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC238">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BD238">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="BE238">
-        <v>6.5</v>
+        <v>6.95</v>
       </c>
       <c r="BF238">
-        <v>2.82</v>
+        <v>4.5</v>
       </c>
       <c r="BG238">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="BH238">
-        <v>3.4</v>
+        <v>2.68</v>
       </c>
       <c r="BI238">
-        <v>1.48</v>
+        <v>1.79</v>
       </c>
       <c r="BJ238">
-        <v>2.5</v>
+        <v>2.01</v>
       </c>
       <c r="BK238">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="BL238">
-        <v>2</v>
+        <v>1.59</v>
       </c>
       <c r="BM238">
-        <v>2.24</v>
+        <v>2.88</v>
       </c>
       <c r="BN238">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="BO238">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="BP238">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="239" spans="1:68">
@@ -50416,7 +50428,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>7364357</v>
+        <v>7364356</v>
       </c>
       <c r="C239" t="s">
         <v>68</v>
@@ -50425,196 +50437,196 @@
         <v>69</v>
       </c>
       <c r="E239" s="2">
-        <v>45474.54166666666</v>
+        <v>45472.54166666666</v>
       </c>
       <c r="F239">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G239" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H239" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J239">
         <v>1</v>
       </c>
       <c r="K239">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L239">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N239">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O239" t="s">
         <v>225</v>
       </c>
       <c r="P239" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="Q239">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R239">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S239">
+        <v>4</v>
+      </c>
+      <c r="T239">
+        <v>1.3</v>
+      </c>
+      <c r="U239">
+        <v>3.1</v>
+      </c>
+      <c r="V239">
+        <v>2.6</v>
+      </c>
+      <c r="W239">
+        <v>1.42</v>
+      </c>
+      <c r="X239">
+        <v>5.5</v>
+      </c>
+      <c r="Y239">
+        <v>1.1</v>
+      </c>
+      <c r="Z239">
+        <v>1.9</v>
+      </c>
+      <c r="AA239">
+        <v>3.2</v>
+      </c>
+      <c r="AB239">
+        <v>3.9</v>
+      </c>
+      <c r="AC239">
+        <v>1.05</v>
+      </c>
+      <c r="AD239">
+        <v>8</v>
+      </c>
+      <c r="AE239">
+        <v>1.22</v>
+      </c>
+      <c r="AF239">
+        <v>3.7</v>
+      </c>
+      <c r="AG239">
+        <v>1.85</v>
+      </c>
+      <c r="AH239">
+        <v>1.95</v>
+      </c>
+      <c r="AI239">
+        <v>1.73</v>
+      </c>
+      <c r="AJ239">
+        <v>2</v>
+      </c>
+      <c r="AK239">
+        <v>1.13</v>
+      </c>
+      <c r="AL239">
+        <v>1.28</v>
+      </c>
+      <c r="AM239">
+        <v>1.85</v>
+      </c>
+      <c r="AN239">
+        <v>2</v>
+      </c>
+      <c r="AO239">
+        <v>1.17</v>
+      </c>
+      <c r="AP239">
+        <v>2.09</v>
+      </c>
+      <c r="AQ239">
+        <v>1.08</v>
+      </c>
+      <c r="AR239">
+        <v>1.7</v>
+      </c>
+      <c r="AS239">
+        <v>1.65</v>
+      </c>
+      <c r="AT239">
+        <v>3.35</v>
+      </c>
+      <c r="AU239">
+        <v>13</v>
+      </c>
+      <c r="AV239">
         <v>5</v>
       </c>
-      <c r="T239">
-        <v>1.45</v>
-      </c>
-      <c r="U239">
-        <v>2.55</v>
-      </c>
-      <c r="V239">
-        <v>3.1</v>
-      </c>
-      <c r="W239">
-        <v>1.33</v>
-      </c>
-      <c r="X239">
-        <v>7</v>
-      </c>
-      <c r="Y239">
-        <v>1.08</v>
-      </c>
-      <c r="Z239">
-        <v>1.75</v>
-      </c>
-      <c r="AA239">
-        <v>3.25</v>
-      </c>
-      <c r="AB239">
-        <v>4.5</v>
-      </c>
-      <c r="AC239">
-        <v>1.04</v>
-      </c>
-      <c r="AD239">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AE239">
-        <v>1.2</v>
-      </c>
-      <c r="AF239">
-        <v>2.68</v>
-      </c>
-      <c r="AG239">
-        <v>2.25</v>
-      </c>
-      <c r="AH239">
+      <c r="AW239">
+        <v>5</v>
+      </c>
+      <c r="AX239">
+        <v>5</v>
+      </c>
+      <c r="AY239">
+        <v>18</v>
+      </c>
+      <c r="AZ239">
+        <v>10</v>
+      </c>
+      <c r="BA239">
+        <v>10</v>
+      </c>
+      <c r="BB239">
+        <v>5</v>
+      </c>
+      <c r="BC239">
+        <v>15</v>
+      </c>
+      <c r="BD239">
+        <v>1.64</v>
+      </c>
+      <c r="BE239">
+        <v>6.5</v>
+      </c>
+      <c r="BF239">
+        <v>2.82</v>
+      </c>
+      <c r="BG239">
+        <v>1.29</v>
+      </c>
+      <c r="BH239">
+        <v>3.4</v>
+      </c>
+      <c r="BI239">
+        <v>1.48</v>
+      </c>
+      <c r="BJ239">
+        <v>2.5</v>
+      </c>
+      <c r="BK239">
+        <v>2.38</v>
+      </c>
+      <c r="BL239">
+        <v>2</v>
+      </c>
+      <c r="BM239">
+        <v>2.24</v>
+      </c>
+      <c r="BN239">
         <v>1.62</v>
       </c>
-      <c r="AI239">
-        <v>2.1</v>
-      </c>
-      <c r="AJ239">
-        <v>1.67</v>
-      </c>
-      <c r="AK239">
-        <v>1.01</v>
-      </c>
-      <c r="AL239">
-        <v>1.05</v>
-      </c>
-      <c r="AM239">
-        <v>2.12</v>
-      </c>
-      <c r="AN239">
-        <v>1.54</v>
-      </c>
-      <c r="AO239">
-        <v>1.08</v>
-      </c>
-      <c r="AP239">
-        <v>1.64</v>
-      </c>
-      <c r="AQ239">
-        <v>1</v>
-      </c>
-      <c r="AR239">
-        <v>1.43</v>
-      </c>
-      <c r="AS239">
-        <v>1.25</v>
-      </c>
-      <c r="AT239">
-        <v>2.68</v>
-      </c>
-      <c r="AU239">
-        <v>4</v>
-      </c>
-      <c r="AV239">
-        <v>6</v>
-      </c>
-      <c r="AW239">
-        <v>1</v>
-      </c>
-      <c r="AX239">
-        <v>6</v>
-      </c>
-      <c r="AY239">
-        <v>5</v>
-      </c>
-      <c r="AZ239">
-        <v>12</v>
-      </c>
-      <c r="BA239">
-        <v>5</v>
-      </c>
-      <c r="BB239">
-        <v>6</v>
-      </c>
-      <c r="BC239">
-        <v>11</v>
-      </c>
-      <c r="BD239">
-        <v>1.35</v>
-      </c>
-      <c r="BE239">
-        <v>7.4</v>
-      </c>
-      <c r="BF239">
-        <v>4.15</v>
-      </c>
-      <c r="BG239">
-        <v>1.25</v>
-      </c>
-      <c r="BH239">
-        <v>3.42</v>
-      </c>
-      <c r="BI239">
-        <v>1.53</v>
-      </c>
-      <c r="BJ239">
-        <v>2.46</v>
-      </c>
-      <c r="BK239">
-        <v>1.89</v>
-      </c>
-      <c r="BL239">
-        <v>1.91</v>
-      </c>
-      <c r="BM239">
-        <v>2.4</v>
-      </c>
-      <c r="BN239">
-        <v>1.55</v>
-      </c>
       <c r="BO239">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="BP239">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="240" spans="1:68">
@@ -50622,7 +50634,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>7217703</v>
+        <v>7364357</v>
       </c>
       <c r="C240" t="s">
         <v>68</v>
@@ -50634,193 +50646,605 @@
         <v>45474.54166666666</v>
       </c>
       <c r="F240">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="G240" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H240" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="I240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J240">
+        <v>1</v>
+      </c>
+      <c r="K240">
+        <v>2</v>
+      </c>
+      <c r="L240">
+        <v>2</v>
+      </c>
+      <c r="M240">
+        <v>1</v>
+      </c>
+      <c r="N240">
         <v>3</v>
       </c>
-      <c r="K240">
-        <v>3</v>
-      </c>
-      <c r="L240">
-        <v>0</v>
-      </c>
-      <c r="M240">
-        <v>4</v>
-      </c>
-      <c r="N240">
-        <v>4</v>
-      </c>
       <c r="O240" t="s">
-        <v>92</v>
+        <v>226</v>
       </c>
       <c r="P240" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="Q240">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="R240">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="S240">
-        <v>1.91</v>
+        <v>5</v>
       </c>
       <c r="T240">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="U240">
-        <v>2.88</v>
+        <v>2.55</v>
       </c>
       <c r="V240">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="W240">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="X240">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="Y240">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="Z240">
-        <v>8</v>
+        <v>1.75</v>
       </c>
       <c r="AA240">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="AB240">
-        <v>1.38</v>
+        <v>4.5</v>
       </c>
       <c r="AC240">
         <v>1.04</v>
       </c>
       <c r="AD240">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE240">
+        <v>1.2</v>
+      </c>
+      <c r="AF240">
+        <v>2.68</v>
+      </c>
+      <c r="AG240">
+        <v>2.25</v>
+      </c>
+      <c r="AH240">
+        <v>1.62</v>
+      </c>
+      <c r="AI240">
+        <v>2.1</v>
+      </c>
+      <c r="AJ240">
+        <v>1.67</v>
+      </c>
+      <c r="AK240">
+        <v>1.01</v>
+      </c>
+      <c r="AL240">
+        <v>1.05</v>
+      </c>
+      <c r="AM240">
+        <v>2.12</v>
+      </c>
+      <c r="AN240">
+        <v>1.54</v>
+      </c>
+      <c r="AO240">
+        <v>1.08</v>
+      </c>
+      <c r="AP240">
+        <v>1.64</v>
+      </c>
+      <c r="AQ240">
+        <v>1</v>
+      </c>
+      <c r="AR240">
+        <v>1.43</v>
+      </c>
+      <c r="AS240">
+        <v>1.25</v>
+      </c>
+      <c r="AT240">
+        <v>2.68</v>
+      </c>
+      <c r="AU240">
+        <v>4</v>
+      </c>
+      <c r="AV240">
+        <v>6</v>
+      </c>
+      <c r="AW240">
+        <v>1</v>
+      </c>
+      <c r="AX240">
+        <v>6</v>
+      </c>
+      <c r="AY240">
+        <v>5</v>
+      </c>
+      <c r="AZ240">
+        <v>12</v>
+      </c>
+      <c r="BA240">
+        <v>5</v>
+      </c>
+      <c r="BB240">
+        <v>6</v>
+      </c>
+      <c r="BC240">
+        <v>11</v>
+      </c>
+      <c r="BD240">
+        <v>1.35</v>
+      </c>
+      <c r="BE240">
+        <v>7.4</v>
+      </c>
+      <c r="BF240">
+        <v>4.15</v>
+      </c>
+      <c r="BG240">
+        <v>1.25</v>
+      </c>
+      <c r="BH240">
+        <v>3.42</v>
+      </c>
+      <c r="BI240">
+        <v>1.53</v>
+      </c>
+      <c r="BJ240">
+        <v>2.46</v>
+      </c>
+      <c r="BK240">
+        <v>1.89</v>
+      </c>
+      <c r="BL240">
+        <v>1.91</v>
+      </c>
+      <c r="BM240">
+        <v>2.4</v>
+      </c>
+      <c r="BN240">
+        <v>1.55</v>
+      </c>
+      <c r="BO240">
+        <v>3.2</v>
+      </c>
+      <c r="BP240">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="241" spans="1:68">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>7217703</v>
+      </c>
+      <c r="C241" t="s">
+        <v>68</v>
+      </c>
+      <c r="D241" t="s">
+        <v>69</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45474.54166666666</v>
+      </c>
+      <c r="F241">
+        <v>13</v>
+      </c>
+      <c r="G241" t="s">
+        <v>70</v>
+      </c>
+      <c r="H241" t="s">
+        <v>72</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>3</v>
+      </c>
+      <c r="K241">
+        <v>3</v>
+      </c>
+      <c r="L241">
+        <v>0</v>
+      </c>
+      <c r="M241">
+        <v>4</v>
+      </c>
+      <c r="N241">
+        <v>4</v>
+      </c>
+      <c r="O241" t="s">
+        <v>92</v>
+      </c>
+      <c r="P241" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q241">
+        <v>7.5</v>
+      </c>
+      <c r="R241">
+        <v>2.25</v>
+      </c>
+      <c r="S241">
+        <v>1.91</v>
+      </c>
+      <c r="T241">
+        <v>1.37</v>
+      </c>
+      <c r="U241">
+        <v>2.88</v>
+      </c>
+      <c r="V241">
+        <v>2.92</v>
+      </c>
+      <c r="W241">
+        <v>1.37</v>
+      </c>
+      <c r="X241">
+        <v>6.6</v>
+      </c>
+      <c r="Y241">
+        <v>1.09</v>
+      </c>
+      <c r="Z241">
+        <v>8</v>
+      </c>
+      <c r="AA241">
+        <v>4.1</v>
+      </c>
+      <c r="AB241">
+        <v>1.38</v>
+      </c>
+      <c r="AC241">
+        <v>1.04</v>
+      </c>
+      <c r="AD241">
         <v>9.6</v>
       </c>
-      <c r="AE240">
+      <c r="AE241">
         <v>1.31</v>
       </c>
-      <c r="AF240">
+      <c r="AF241">
         <v>3.3</v>
       </c>
-      <c r="AG240">
+      <c r="AG241">
         <v>1.95</v>
       </c>
-      <c r="AH240">
+      <c r="AH241">
         <v>1.85</v>
       </c>
-      <c r="AI240">
+      <c r="AI241">
         <v>2.25</v>
       </c>
-      <c r="AJ240">
+      <c r="AJ241">
         <v>1.57</v>
       </c>
-      <c r="AK240">
+      <c r="AK241">
         <v>2.12</v>
       </c>
-      <c r="AL240">
+      <c r="AL241">
         <v>1.18</v>
       </c>
-      <c r="AM240">
+      <c r="AM241">
         <v>1.11</v>
       </c>
-      <c r="AN240">
+      <c r="AN241">
         <v>1.58</v>
       </c>
-      <c r="AO240">
+      <c r="AO241">
         <v>2.27</v>
       </c>
-      <c r="AP240">
+      <c r="AP241">
         <v>1.46</v>
       </c>
-      <c r="AQ240">
+      <c r="AQ241">
         <v>2.33</v>
       </c>
-      <c r="AR240">
+      <c r="AR241">
         <v>1.36</v>
       </c>
-      <c r="AS240">
+      <c r="AS241">
         <v>1.71</v>
       </c>
-      <c r="AT240">
+      <c r="AT241">
         <v>3.07</v>
       </c>
-      <c r="AU240">
+      <c r="AU241">
         <v>3</v>
       </c>
-      <c r="AV240">
+      <c r="AV241">
         <v>8</v>
       </c>
-      <c r="AW240">
+      <c r="AW241">
         <v>5</v>
       </c>
-      <c r="AX240">
+      <c r="AX241">
         <v>12</v>
       </c>
-      <c r="AY240">
+      <c r="AY241">
         <v>8</v>
       </c>
-      <c r="AZ240">
+      <c r="AZ241">
         <v>20</v>
       </c>
-      <c r="BA240">
+      <c r="BA241">
         <v>3</v>
       </c>
-      <c r="BB240">
+      <c r="BB241">
         <v>10</v>
       </c>
-      <c r="BC240">
+      <c r="BC241">
         <v>13</v>
       </c>
-      <c r="BD240">
+      <c r="BD241">
         <v>6.1</v>
       </c>
-      <c r="BE240">
+      <c r="BE241">
         <v>8.6</v>
       </c>
-      <c r="BF240">
+      <c r="BF241">
         <v>1.19</v>
       </c>
-      <c r="BG240">
+      <c r="BG241">
         <v>1.33</v>
       </c>
-      <c r="BH240">
+      <c r="BH241">
         <v>2.93</v>
       </c>
-      <c r="BI240">
+      <c r="BI241">
         <v>1.68</v>
       </c>
-      <c r="BJ240">
+      <c r="BJ241">
         <v>2.15</v>
       </c>
-      <c r="BK240">
+      <c r="BK241">
         <v>2.07</v>
       </c>
-      <c r="BL240">
+      <c r="BL241">
         <v>1.72</v>
       </c>
-      <c r="BM240">
+      <c r="BM241">
         <v>2.71</v>
       </c>
-      <c r="BN240">
+      <c r="BN241">
         <v>1.38</v>
       </c>
-      <c r="BO240">
+      <c r="BO241">
         <v>3.74</v>
       </c>
-      <c r="BP240">
+      <c r="BP241">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="242" spans="1:68">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>7364365</v>
+      </c>
+      <c r="C242" t="s">
+        <v>68</v>
+      </c>
+      <c r="D242" t="s">
+        <v>69</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45475.54166666666</v>
+      </c>
+      <c r="F242">
+        <v>29</v>
+      </c>
+      <c r="G242" t="s">
+        <v>83</v>
+      </c>
+      <c r="H242" t="s">
+        <v>74</v>
+      </c>
+      <c r="I242">
+        <v>1</v>
+      </c>
+      <c r="J242">
+        <v>1</v>
+      </c>
+      <c r="K242">
+        <v>2</v>
+      </c>
+      <c r="L242">
+        <v>2</v>
+      </c>
+      <c r="M242">
+        <v>2</v>
+      </c>
+      <c r="N242">
+        <v>4</v>
+      </c>
+      <c r="O242" t="s">
+        <v>227</v>
+      </c>
+      <c r="P242" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q242">
+        <v>2.4</v>
+      </c>
+      <c r="R242">
+        <v>1.95</v>
+      </c>
+      <c r="S242">
+        <v>5</v>
+      </c>
+      <c r="T242">
+        <v>1.5</v>
+      </c>
+      <c r="U242">
+        <v>2.45</v>
+      </c>
+      <c r="V242">
+        <v>3.45</v>
+      </c>
+      <c r="W242">
+        <v>1.25</v>
+      </c>
+      <c r="X242">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y242">
+        <v>1.05</v>
+      </c>
+      <c r="Z242">
+        <v>1.75</v>
+      </c>
+      <c r="AA242">
+        <v>3.1</v>
+      </c>
+      <c r="AB242">
+        <v>5</v>
+      </c>
+      <c r="AC242">
+        <v>1.1</v>
+      </c>
+      <c r="AD242">
+        <v>6.25</v>
+      </c>
+      <c r="AE242">
+        <v>1.5</v>
+      </c>
+      <c r="AF242">
+        <v>2.5</v>
+      </c>
+      <c r="AG242">
+        <v>2.38</v>
+      </c>
+      <c r="AH242">
+        <v>1.53</v>
+      </c>
+      <c r="AI242">
+        <v>2.25</v>
+      </c>
+      <c r="AJ242">
+        <v>1.57</v>
+      </c>
+      <c r="AK242">
+        <v>1.22</v>
+      </c>
+      <c r="AL242">
+        <v>1.3</v>
+      </c>
+      <c r="AM242">
+        <v>1.75</v>
+      </c>
+      <c r="AN242">
+        <v>1.57</v>
+      </c>
+      <c r="AO242">
+        <v>0.92</v>
+      </c>
+      <c r="AP242">
+        <v>1.53</v>
+      </c>
+      <c r="AQ242">
+        <v>0.93</v>
+      </c>
+      <c r="AR242">
+        <v>1.3</v>
+      </c>
+      <c r="AS242">
+        <v>1.2</v>
+      </c>
+      <c r="AT242">
+        <v>2.5</v>
+      </c>
+      <c r="AU242">
+        <v>5</v>
+      </c>
+      <c r="AV242">
+        <v>2</v>
+      </c>
+      <c r="AW242">
+        <v>9</v>
+      </c>
+      <c r="AX242">
+        <v>6</v>
+      </c>
+      <c r="AY242">
+        <v>14</v>
+      </c>
+      <c r="AZ242">
+        <v>8</v>
+      </c>
+      <c r="BA242">
+        <v>5</v>
+      </c>
+      <c r="BB242">
+        <v>2</v>
+      </c>
+      <c r="BC242">
+        <v>7</v>
+      </c>
+      <c r="BD242">
+        <v>1.56</v>
+      </c>
+      <c r="BE242">
+        <v>6.5</v>
+      </c>
+      <c r="BF242">
+        <v>3.1</v>
+      </c>
+      <c r="BG242">
+        <v>1.34</v>
+      </c>
+      <c r="BH242">
+        <v>2.88</v>
+      </c>
+      <c r="BI242">
+        <v>1.69</v>
+      </c>
+      <c r="BJ242">
+        <v>2.14</v>
+      </c>
+      <c r="BK242">
+        <v>2.13</v>
+      </c>
+      <c r="BL242">
+        <v>1.7</v>
+      </c>
+      <c r="BM242">
+        <v>2.78</v>
+      </c>
+      <c r="BN242">
+        <v>1.36</v>
+      </c>
+      <c r="BO242">
+        <v>3.9</v>
+      </c>
+      <c r="BP242">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="338">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -700,6 +700,9 @@
     <t>['10', '90+16']</t>
   </si>
   <si>
+    <t>['39']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -911,9 +914,6 @@
   </si>
   <si>
     <t>['19', '44']</t>
-  </si>
-  <si>
-    <t>['39']</t>
   </si>
   <si>
     <t>['4', '54']</t>
@@ -1389,7 +1389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP242"/>
+  <dimension ref="A1:BP245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1935,7 +1935,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2472,7 +2472,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2553,7 +2553,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ6">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2884,7 +2884,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3296,7 +3296,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3377,7 +3377,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ10">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3914,7 +3914,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -4120,7 +4120,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ14">
         <v>0.29</v>
@@ -5150,7 +5150,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5231,7 +5231,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ19">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR19">
         <v>1.91</v>
@@ -5562,7 +5562,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5768,7 +5768,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5974,7 +5974,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -6180,7 +6180,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6261,7 +6261,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ24">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR24">
         <v>0.44</v>
@@ -6592,7 +6592,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6673,7 +6673,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR26">
         <v>2</v>
@@ -7288,7 +7288,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ29">
         <v>0.29</v>
@@ -7416,7 +7416,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7622,7 +7622,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -8034,7 +8034,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8524,7 +8524,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ35">
         <v>2.58</v>
@@ -8652,7 +8652,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -8939,7 +8939,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ37">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR37">
         <v>1.06</v>
@@ -9064,7 +9064,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9270,7 +9270,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9476,7 +9476,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9969,7 +9969,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR42">
         <v>0.84</v>
@@ -10094,7 +10094,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10300,7 +10300,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10506,7 +10506,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10790,7 +10790,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ46">
         <v>2.58</v>
@@ -11124,7 +11124,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11330,7 +11330,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11614,7 +11614,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ50">
         <v>1.46</v>
@@ -11742,7 +11742,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11948,7 +11948,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12154,7 +12154,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12232,7 +12232,7 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ53">
         <v>2.33</v>
@@ -12566,7 +12566,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12647,7 +12647,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR55">
         <v>1.67</v>
@@ -12978,7 +12978,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13056,10 +13056,10 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ57">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR57">
         <v>1.05</v>
@@ -13596,7 +13596,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13802,7 +13802,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -14089,7 +14089,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ62">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR62">
         <v>0.8100000000000001</v>
@@ -14214,7 +14214,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14420,7 +14420,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14626,7 +14626,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -15038,7 +15038,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15116,7 +15116,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ67">
         <v>1.46</v>
@@ -15450,7 +15450,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15734,7 +15734,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ70">
         <v>1.08</v>
@@ -15943,7 +15943,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ71">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR71">
         <v>1.39</v>
@@ -16068,7 +16068,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q72">
         <v>1.8</v>
@@ -16149,7 +16149,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ72">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR72">
         <v>1.89</v>
@@ -16480,7 +16480,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16686,7 +16686,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16973,7 +16973,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ76">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR76">
         <v>1.17</v>
@@ -17098,7 +17098,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17304,7 +17304,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17716,7 +17716,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -18415,7 +18415,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ83">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR83">
         <v>1.06</v>
@@ -18746,7 +18746,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18952,7 +18952,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19033,7 +19033,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ86">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR86">
         <v>1.42</v>
@@ -19158,7 +19158,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19570,7 +19570,7 @@
         <v>92</v>
       </c>
       <c r="P89" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q89">
         <v>3.6</v>
@@ -19776,7 +19776,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q90">
         <v>3.5</v>
@@ -21218,7 +21218,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21296,7 +21296,7 @@
         <v>0.83</v>
       </c>
       <c r="AP97">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ97">
         <v>0.93</v>
@@ -21505,7 +21505,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ98">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR98">
         <v>1.43</v>
@@ -21708,7 +21708,7 @@
         <v>1.8</v>
       </c>
       <c r="AP99">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ99">
         <v>1</v>
@@ -21836,7 +21836,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -22123,7 +22123,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ101">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR101">
         <v>1.35</v>
@@ -22248,7 +22248,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22454,7 +22454,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22947,7 +22947,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ105">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR105">
         <v>1.44</v>
@@ -23278,7 +23278,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23565,7 +23565,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ108">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR108">
         <v>1.69</v>
@@ -23690,7 +23690,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24102,7 +24102,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24386,7 +24386,7 @@
         <v>0.86</v>
       </c>
       <c r="AP112">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ112">
         <v>0.93</v>
@@ -24595,7 +24595,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ113">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR113">
         <v>1.4</v>
@@ -24720,7 +24720,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -25622,7 +25622,7 @@
         <v>1.71</v>
       </c>
       <c r="AP118">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ118">
         <v>1.77</v>
@@ -25750,7 +25750,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25956,7 +25956,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -26037,7 +26037,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ120">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR120">
         <v>1.23</v>
@@ -26162,7 +26162,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26780,7 +26780,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -26986,7 +26986,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27192,7 +27192,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27273,7 +27273,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ126">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR126">
         <v>1.36</v>
@@ -27398,7 +27398,7 @@
         <v>94</v>
       </c>
       <c r="P127" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q127">
         <v>3.4</v>
@@ -27810,7 +27810,7 @@
         <v>148</v>
       </c>
       <c r="P129" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q129">
         <v>2.6</v>
@@ -27888,7 +27888,7 @@
         <v>1.63</v>
       </c>
       <c r="AP129">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ129">
         <v>1.77</v>
@@ -28222,7 +28222,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28840,7 +28840,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -29046,7 +29046,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29252,7 +29252,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29870,7 +29870,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q139">
         <v>3.15</v>
@@ -29948,7 +29948,7 @@
         <v>1.57</v>
       </c>
       <c r="AP139">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ139">
         <v>1.79</v>
@@ -30282,7 +30282,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -30488,7 +30488,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q142">
         <v>3.75</v>
@@ -31106,7 +31106,7 @@
         <v>92</v>
       </c>
       <c r="P145" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31312,7 +31312,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31390,7 +31390,7 @@
         <v>1.63</v>
       </c>
       <c r="AP146">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ146">
         <v>1.29</v>
@@ -31518,7 +31518,7 @@
         <v>108</v>
       </c>
       <c r="P147" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31802,7 +31802,7 @@
         <v>0.75</v>
       </c>
       <c r="AP148">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ148">
         <v>0.8</v>
@@ -32342,7 +32342,7 @@
         <v>184</v>
       </c>
       <c r="P151" t="s">
-        <v>299</v>
+        <v>228</v>
       </c>
       <c r="Q151">
         <v>3.2</v>
@@ -32423,7 +32423,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ151">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR151">
         <v>1.4</v>
@@ -32835,7 +32835,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ153">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR153">
         <v>1.59</v>
@@ -34402,7 +34402,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34480,7 +34480,7 @@
         <v>0.67</v>
       </c>
       <c r="AP161">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ161">
         <v>0.8</v>
@@ -34814,7 +34814,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -35098,7 +35098,7 @@
         <v>1.44</v>
       </c>
       <c r="AP164">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ164">
         <v>1.07</v>
@@ -35638,7 +35638,7 @@
         <v>191</v>
       </c>
       <c r="P167" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35719,7 +35719,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ167">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR167">
         <v>1.39</v>
@@ -35925,7 +35925,7 @@
         <v>1</v>
       </c>
       <c r="AQ168">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR168">
         <v>1.5</v>
@@ -36543,7 +36543,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ171">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR171">
         <v>1.57</v>
@@ -37982,7 +37982,7 @@
         <v>1.4</v>
       </c>
       <c r="AP178">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ178">
         <v>1.07</v>
@@ -38394,7 +38394,7 @@
         <v>0.8</v>
       </c>
       <c r="AP180">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ180">
         <v>0.93</v>
@@ -38728,7 +38728,7 @@
         <v>92</v>
       </c>
       <c r="P182" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q182">
         <v>4.33</v>
@@ -39427,7 +39427,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ185">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR185">
         <v>1.47</v>
@@ -40045,7 +40045,7 @@
         <v>1</v>
       </c>
       <c r="AQ188">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR188">
         <v>1.46</v>
@@ -40170,7 +40170,7 @@
         <v>92</v>
       </c>
       <c r="P189" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q189">
         <v>3.5</v>
@@ -40376,7 +40376,7 @@
         <v>202</v>
       </c>
       <c r="P190" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q190">
         <v>3.8</v>
@@ -41896,7 +41896,7 @@
         <v>0.82</v>
       </c>
       <c r="AP197">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ197">
         <v>0.93</v>
@@ -42929,7 +42929,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ202">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR202">
         <v>1.51</v>
@@ -43132,7 +43132,7 @@
         <v>1.64</v>
       </c>
       <c r="AP203">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ203">
         <v>1.79</v>
@@ -43341,7 +43341,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ204">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR204">
         <v>1.41</v>
@@ -43753,7 +43753,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ206">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR206">
         <v>1.4</v>
@@ -44162,7 +44162,7 @@
         <v>1.27</v>
       </c>
       <c r="AP208">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ208">
         <v>1</v>
@@ -44368,10 +44368,10 @@
         <v>1.22</v>
       </c>
       <c r="AP209">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ209">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR209">
         <v>1.55</v>
@@ -44702,7 +44702,7 @@
         <v>210</v>
       </c>
       <c r="P211" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q211">
         <v>3.75</v>
@@ -46350,7 +46350,7 @@
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q219">
         <v>3.1</v>
@@ -46428,7 +46428,7 @@
         <v>1.67</v>
       </c>
       <c r="AP219">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AQ219">
         <v>1.86</v>
@@ -47458,10 +47458,10 @@
         <v>0.83</v>
       </c>
       <c r="AP224">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AQ224">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR224">
         <v>1.16</v>
@@ -47792,7 +47792,7 @@
         <v>218</v>
       </c>
       <c r="P226" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q226">
         <v>1.9</v>
@@ -48079,7 +48079,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ227">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AR227">
         <v>1.5</v>
@@ -48697,7 +48697,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ230">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR230">
         <v>1.73</v>
@@ -49852,7 +49852,7 @@
         <v>224</v>
       </c>
       <c r="P236" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q236">
         <v>1.62</v>
@@ -50676,7 +50676,7 @@
         <v>226</v>
       </c>
       <c r="P240" t="s">
-        <v>299</v>
+        <v>228</v>
       </c>
       <c r="Q240">
         <v>2.4</v>
@@ -51245,6 +51245,624 @@
       </c>
       <c r="BP242">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="243" spans="1:68">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>7364360</v>
+      </c>
+      <c r="C243" t="s">
+        <v>68</v>
+      </c>
+      <c r="D243" t="s">
+        <v>69</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45476.41666666666</v>
+      </c>
+      <c r="F243">
+        <v>29</v>
+      </c>
+      <c r="G243" t="s">
+        <v>82</v>
+      </c>
+      <c r="H243" t="s">
+        <v>81</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>0</v>
+      </c>
+      <c r="L243">
+        <v>1</v>
+      </c>
+      <c r="M243">
+        <v>0</v>
+      </c>
+      <c r="N243">
+        <v>1</v>
+      </c>
+      <c r="O243" t="s">
+        <v>145</v>
+      </c>
+      <c r="P243" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q243">
+        <v>2.05</v>
+      </c>
+      <c r="R243">
+        <v>2.1</v>
+      </c>
+      <c r="S243">
+        <v>6.5</v>
+      </c>
+      <c r="T243">
+        <v>1.4</v>
+      </c>
+      <c r="U243">
+        <v>2.85</v>
+      </c>
+      <c r="V243">
+        <v>3.04</v>
+      </c>
+      <c r="W243">
+        <v>1.36</v>
+      </c>
+      <c r="X243">
+        <v>6.8</v>
+      </c>
+      <c r="Y243">
+        <v>1.08</v>
+      </c>
+      <c r="Z243">
+        <v>1.5</v>
+      </c>
+      <c r="AA243">
+        <v>3.75</v>
+      </c>
+      <c r="AB243">
+        <v>6.5</v>
+      </c>
+      <c r="AC243">
+        <v>1.05</v>
+      </c>
+      <c r="AD243">
+        <v>8.5</v>
+      </c>
+      <c r="AE243">
+        <v>1.33</v>
+      </c>
+      <c r="AF243">
+        <v>3.1</v>
+      </c>
+      <c r="AG243">
+        <v>2.15</v>
+      </c>
+      <c r="AH243">
+        <v>1.67</v>
+      </c>
+      <c r="AI243">
+        <v>2.25</v>
+      </c>
+      <c r="AJ243">
+        <v>1.57</v>
+      </c>
+      <c r="AK243">
+        <v>1.05</v>
+      </c>
+      <c r="AL243">
+        <v>1.18</v>
+      </c>
+      <c r="AM243">
+        <v>2.74</v>
+      </c>
+      <c r="AN243">
+        <v>1.15</v>
+      </c>
+      <c r="AO243">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP243">
+        <v>1.29</v>
+      </c>
+      <c r="AQ243">
+        <v>0.64</v>
+      </c>
+      <c r="AR243">
+        <v>1.21</v>
+      </c>
+      <c r="AS243">
+        <v>1.13</v>
+      </c>
+      <c r="AT243">
+        <v>2.34</v>
+      </c>
+      <c r="AU243">
+        <v>6</v>
+      </c>
+      <c r="AV243">
+        <v>2</v>
+      </c>
+      <c r="AW243">
+        <v>7</v>
+      </c>
+      <c r="AX243">
+        <v>4</v>
+      </c>
+      <c r="AY243">
+        <v>13</v>
+      </c>
+      <c r="AZ243">
+        <v>6</v>
+      </c>
+      <c r="BA243">
+        <v>3</v>
+      </c>
+      <c r="BB243">
+        <v>0</v>
+      </c>
+      <c r="BC243">
+        <v>3</v>
+      </c>
+      <c r="BD243">
+        <v>1.26</v>
+      </c>
+      <c r="BE243">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF243">
+        <v>4.65</v>
+      </c>
+      <c r="BG243">
+        <v>1.38</v>
+      </c>
+      <c r="BH243">
+        <v>2.8</v>
+      </c>
+      <c r="BI243">
+        <v>1.69</v>
+      </c>
+      <c r="BJ243">
+        <v>2.12</v>
+      </c>
+      <c r="BK243">
+        <v>2.16</v>
+      </c>
+      <c r="BL243">
+        <v>1.67</v>
+      </c>
+      <c r="BM243">
+        <v>2.62</v>
+      </c>
+      <c r="BN243">
+        <v>1.42</v>
+      </c>
+      <c r="BO243">
+        <v>3.6</v>
+      </c>
+      <c r="BP243">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="244" spans="1:68">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>7364361</v>
+      </c>
+      <c r="C244" t="s">
+        <v>68</v>
+      </c>
+      <c r="D244" t="s">
+        <v>69</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45476.54166666666</v>
+      </c>
+      <c r="F244">
+        <v>29</v>
+      </c>
+      <c r="G244" t="s">
+        <v>87</v>
+      </c>
+      <c r="H244" t="s">
+        <v>86</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
+      <c r="L244">
+        <v>1</v>
+      </c>
+      <c r="M244">
+        <v>0</v>
+      </c>
+      <c r="N244">
+        <v>1</v>
+      </c>
+      <c r="O244" t="s">
+        <v>174</v>
+      </c>
+      <c r="P244" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q244">
+        <v>2.63</v>
+      </c>
+      <c r="R244">
+        <v>2.05</v>
+      </c>
+      <c r="S244">
+        <v>4</v>
+      </c>
+      <c r="T244">
+        <v>1.42</v>
+      </c>
+      <c r="U244">
+        <v>2.85</v>
+      </c>
+      <c r="V244">
+        <v>3.13</v>
+      </c>
+      <c r="W244">
+        <v>1.36</v>
+      </c>
+      <c r="X244">
+        <v>7.1</v>
+      </c>
+      <c r="Y244">
+        <v>1.08</v>
+      </c>
+      <c r="Z244">
+        <v>2</v>
+      </c>
+      <c r="AA244">
+        <v>3.2</v>
+      </c>
+      <c r="AB244">
+        <v>3.9</v>
+      </c>
+      <c r="AC244">
+        <v>1.06</v>
+      </c>
+      <c r="AD244">
+        <v>8</v>
+      </c>
+      <c r="AE244">
+        <v>1.36</v>
+      </c>
+      <c r="AF244">
+        <v>3</v>
+      </c>
+      <c r="AG244">
+        <v>2.1</v>
+      </c>
+      <c r="AH244">
+        <v>1.7</v>
+      </c>
+      <c r="AI244">
+        <v>1.83</v>
+      </c>
+      <c r="AJ244">
+        <v>1.83</v>
+      </c>
+      <c r="AK244">
+        <v>1.25</v>
+      </c>
+      <c r="AL244">
+        <v>1.25</v>
+      </c>
+      <c r="AM244">
+        <v>1.77</v>
+      </c>
+      <c r="AN244">
+        <v>1.64</v>
+      </c>
+      <c r="AO244">
+        <v>1</v>
+      </c>
+      <c r="AP244">
+        <v>1.73</v>
+      </c>
+      <c r="AQ244">
+        <v>0.93</v>
+      </c>
+      <c r="AR244">
+        <v>1.57</v>
+      </c>
+      <c r="AS244">
+        <v>1.49</v>
+      </c>
+      <c r="AT244">
+        <v>3.06</v>
+      </c>
+      <c r="AU244">
+        <v>3</v>
+      </c>
+      <c r="AV244">
+        <v>2</v>
+      </c>
+      <c r="AW244">
+        <v>1</v>
+      </c>
+      <c r="AX244">
+        <v>4</v>
+      </c>
+      <c r="AY244">
+        <v>4</v>
+      </c>
+      <c r="AZ244">
+        <v>6</v>
+      </c>
+      <c r="BA244">
+        <v>5</v>
+      </c>
+      <c r="BB244">
+        <v>8</v>
+      </c>
+      <c r="BC244">
+        <v>13</v>
+      </c>
+      <c r="BD244">
+        <v>1.55</v>
+      </c>
+      <c r="BE244">
+        <v>8.4</v>
+      </c>
+      <c r="BF244">
+        <v>2.83</v>
+      </c>
+      <c r="BG244">
+        <v>1.3</v>
+      </c>
+      <c r="BH244">
+        <v>3.2</v>
+      </c>
+      <c r="BI244">
+        <v>1.55</v>
+      </c>
+      <c r="BJ244">
+        <v>2.41</v>
+      </c>
+      <c r="BK244">
+        <v>1.92</v>
+      </c>
+      <c r="BL244">
+        <v>1.88</v>
+      </c>
+      <c r="BM244">
+        <v>2.44</v>
+      </c>
+      <c r="BN244">
+        <v>1.53</v>
+      </c>
+      <c r="BO244">
+        <v>3</v>
+      </c>
+      <c r="BP244">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="245" spans="1:68">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>7364362</v>
+      </c>
+      <c r="C245" t="s">
+        <v>68</v>
+      </c>
+      <c r="D245" t="s">
+        <v>69</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45476.54166666666</v>
+      </c>
+      <c r="F245">
+        <v>29</v>
+      </c>
+      <c r="G245" t="s">
+        <v>76</v>
+      </c>
+      <c r="H245" t="s">
+        <v>80</v>
+      </c>
+      <c r="I245">
+        <v>1</v>
+      </c>
+      <c r="J245">
+        <v>1</v>
+      </c>
+      <c r="K245">
+        <v>2</v>
+      </c>
+      <c r="L245">
+        <v>1</v>
+      </c>
+      <c r="M245">
+        <v>1</v>
+      </c>
+      <c r="N245">
+        <v>2</v>
+      </c>
+      <c r="O245" t="s">
+        <v>228</v>
+      </c>
+      <c r="P245" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q245">
+        <v>4.5</v>
+      </c>
+      <c r="R245">
+        <v>2.1</v>
+      </c>
+      <c r="S245">
+        <v>2.4</v>
+      </c>
+      <c r="T245">
+        <v>1.38</v>
+      </c>
+      <c r="U245">
+        <v>2.85</v>
+      </c>
+      <c r="V245">
+        <v>2.96</v>
+      </c>
+      <c r="W245">
+        <v>1.36</v>
+      </c>
+      <c r="X245">
+        <v>6.7</v>
+      </c>
+      <c r="Y245">
+        <v>1.09</v>
+      </c>
+      <c r="Z245">
+        <v>4.33</v>
+      </c>
+      <c r="AA245">
+        <v>3.3</v>
+      </c>
+      <c r="AB245">
+        <v>1.8</v>
+      </c>
+      <c r="AC245">
+        <v>1.06</v>
+      </c>
+      <c r="AD245">
+        <v>8</v>
+      </c>
+      <c r="AE245">
+        <v>1.33</v>
+      </c>
+      <c r="AF245">
+        <v>3.1</v>
+      </c>
+      <c r="AG245">
+        <v>2.05</v>
+      </c>
+      <c r="AH245">
+        <v>1.75</v>
+      </c>
+      <c r="AI245">
+        <v>1.91</v>
+      </c>
+      <c r="AJ245">
+        <v>1.8</v>
+      </c>
+      <c r="AK245">
+        <v>2.05</v>
+      </c>
+      <c r="AL245">
+        <v>1.22</v>
+      </c>
+      <c r="AM245">
+        <v>1.14</v>
+      </c>
+      <c r="AN245">
+        <v>1</v>
+      </c>
+      <c r="AO245">
+        <v>1.27</v>
+      </c>
+      <c r="AP245">
+        <v>1</v>
+      </c>
+      <c r="AQ245">
+        <v>1.25</v>
+      </c>
+      <c r="AR245">
+        <v>1.31</v>
+      </c>
+      <c r="AS245">
+        <v>1.66</v>
+      </c>
+      <c r="AT245">
+        <v>2.97</v>
+      </c>
+      <c r="AU245">
+        <v>4</v>
+      </c>
+      <c r="AV245">
+        <v>8</v>
+      </c>
+      <c r="AW245">
+        <v>3</v>
+      </c>
+      <c r="AX245">
+        <v>11</v>
+      </c>
+      <c r="AY245">
+        <v>7</v>
+      </c>
+      <c r="AZ245">
+        <v>19</v>
+      </c>
+      <c r="BA245">
+        <v>5</v>
+      </c>
+      <c r="BB245">
+        <v>7</v>
+      </c>
+      <c r="BC245">
+        <v>12</v>
+      </c>
+      <c r="BD245">
+        <v>3</v>
+      </c>
+      <c r="BE245">
+        <v>8.5</v>
+      </c>
+      <c r="BF245">
+        <v>1.5</v>
+      </c>
+      <c r="BG245">
+        <v>1.3</v>
+      </c>
+      <c r="BH245">
+        <v>3.2</v>
+      </c>
+      <c r="BI245">
+        <v>1.54</v>
+      </c>
+      <c r="BJ245">
+        <v>2.39</v>
+      </c>
+      <c r="BK245">
+        <v>1.91</v>
+      </c>
+      <c r="BL245">
+        <v>1.88</v>
+      </c>
+      <c r="BM245">
+        <v>2.39</v>
+      </c>
+      <c r="BN245">
+        <v>1.54</v>
+      </c>
+      <c r="BO245">
+        <v>3</v>
+      </c>
+      <c r="BP245">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="339">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -703,6 +703,9 @@
     <t>['39']</t>
   </si>
   <si>
+    <t>['35', '41', '60', '90+3']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -1389,7 +1392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP245"/>
+  <dimension ref="A1:BP247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1726,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ2">
         <v>0.93</v>
@@ -2138,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ4">
         <v>1.79</v>
@@ -2472,7 +2475,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2884,7 +2887,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3296,7 +3299,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3708,7 +3711,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3914,7 +3917,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -4120,7 +4123,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4201,7 +4204,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ14">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -5025,7 +5028,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ18">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5150,7 +5153,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5562,7 +5565,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5768,7 +5771,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5974,7 +5977,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -6180,7 +6183,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6464,7 +6467,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ25">
         <v>1.86</v>
@@ -6592,7 +6595,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6670,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ26">
         <v>0.93</v>
@@ -7291,7 +7294,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ29">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7416,7 +7419,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7497,7 +7500,7 @@
         <v>1</v>
       </c>
       <c r="AQ30">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR30">
         <v>1.5</v>
@@ -7622,7 +7625,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -8034,7 +8037,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8652,7 +8655,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -9064,7 +9067,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9270,7 +9273,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9476,7 +9479,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9760,7 +9763,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ41">
         <v>1.08</v>
@@ -10094,7 +10097,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10300,7 +10303,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10381,7 +10384,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ44">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR44">
         <v>1.33</v>
@@ -10506,7 +10509,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10999,7 +11002,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ47">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AR47">
         <v>1.07</v>
@@ -11124,7 +11127,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11330,7 +11333,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11742,7 +11745,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11948,7 +11951,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12154,7 +12157,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12566,7 +12569,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12850,7 +12853,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ56">
         <v>1.07</v>
@@ -12978,7 +12981,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13468,7 +13471,7 @@
         <v>1.67</v>
       </c>
       <c r="AP59">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -13596,7 +13599,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13802,7 +13805,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -14214,7 +14217,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14420,7 +14423,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14626,7 +14629,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -15038,7 +15041,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15325,7 +15328,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ68">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AR68">
         <v>1.07</v>
@@ -15450,7 +15453,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -16068,7 +16071,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q72">
         <v>1.8</v>
@@ -16480,7 +16483,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16686,7 +16689,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16764,7 +16767,7 @@
         <v>0.5</v>
       </c>
       <c r="AP75">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ75">
         <v>0.93</v>
@@ -17098,7 +17101,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17304,7 +17307,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17716,7 +17719,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17797,7 +17800,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ80">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AR80">
         <v>2.17</v>
@@ -18618,7 +18621,7 @@
         <v>2.2</v>
       </c>
       <c r="AP84">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ84">
         <v>1.77</v>
@@ -18746,7 +18749,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18827,7 +18830,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ85">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR85">
         <v>0.83</v>
@@ -18952,7 +18955,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19158,7 +19161,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19570,7 +19573,7 @@
         <v>92</v>
       </c>
       <c r="P89" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q89">
         <v>3.6</v>
@@ -19776,7 +19779,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q90">
         <v>3.5</v>
@@ -21093,7 +21096,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ96">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR96">
         <v>2.02</v>
@@ -21218,7 +21221,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21836,7 +21839,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -22248,7 +22251,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22454,7 +22457,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23278,7 +23281,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23562,7 +23565,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ108">
         <v>0.64</v>
@@ -23690,7 +23693,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23977,7 +23980,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ110">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AR110">
         <v>1.52</v>
@@ -24102,7 +24105,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24720,7 +24723,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -24801,7 +24804,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ114">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR114">
         <v>1.07</v>
@@ -25004,10 +25007,10 @@
         <v>0.17</v>
       </c>
       <c r="AP115">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ115">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AR115">
         <v>1.53</v>
@@ -25750,7 +25753,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25956,7 +25959,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -26162,7 +26165,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26780,7 +26783,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -26986,7 +26989,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27192,7 +27195,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27398,7 +27401,7 @@
         <v>94</v>
       </c>
       <c r="P127" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q127">
         <v>3.4</v>
@@ -27810,7 +27813,7 @@
         <v>148</v>
       </c>
       <c r="P129" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q129">
         <v>2.6</v>
@@ -28097,7 +28100,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ130">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AR130">
         <v>1.42</v>
@@ -28222,7 +28225,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28303,7 +28306,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ131">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR131">
         <v>1.35</v>
@@ -28840,7 +28843,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -28918,7 +28921,7 @@
         <v>1.71</v>
       </c>
       <c r="AP134">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ134">
         <v>1.46</v>
@@ -29046,7 +29049,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29252,7 +29255,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29539,7 +29542,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ137">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR137">
         <v>1.74</v>
@@ -29870,7 +29873,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q139">
         <v>3.15</v>
@@ -30282,7 +30285,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -30488,7 +30491,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q142">
         <v>3.75</v>
@@ -30981,7 +30984,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ144">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AR144">
         <v>1.15</v>
@@ -31106,7 +31109,7 @@
         <v>92</v>
       </c>
       <c r="P145" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31312,7 +31315,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31393,7 +31396,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ146">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR146">
         <v>1.68</v>
@@ -31518,7 +31521,7 @@
         <v>108</v>
       </c>
       <c r="P147" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -32960,7 +32963,7 @@
         <v>128</v>
       </c>
       <c r="P154" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33244,7 +33247,7 @@
         <v>1.63</v>
       </c>
       <c r="AP155">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ155">
         <v>1.46</v>
@@ -33372,7 +33375,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q156">
         <v>1.91</v>
@@ -33578,7 +33581,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33865,7 +33868,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ158">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR158">
         <v>1.34</v>
@@ -34071,7 +34074,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ159">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AR159">
         <v>1.5</v>
@@ -34402,7 +34405,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34608,7 +34611,7 @@
         <v>151</v>
       </c>
       <c r="P162" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -34814,7 +34817,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -35432,7 +35435,7 @@
         <v>92</v>
       </c>
       <c r="P166" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q166">
         <v>3</v>
@@ -35638,7 +35641,7 @@
         <v>191</v>
       </c>
       <c r="P167" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35844,7 +35847,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
@@ -36050,7 +36053,7 @@
         <v>192</v>
       </c>
       <c r="P169" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -36334,7 +36337,7 @@
         <v>1.63</v>
       </c>
       <c r="AP170">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ170">
         <v>1</v>
@@ -36668,7 +36671,7 @@
         <v>194</v>
       </c>
       <c r="P172" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -37080,7 +37083,7 @@
         <v>92</v>
       </c>
       <c r="P174" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q174">
         <v>4.8</v>
@@ -37158,7 +37161,7 @@
         <v>1.67</v>
       </c>
       <c r="AP174">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ174">
         <v>1.79</v>
@@ -37364,10 +37367,10 @@
         <v>1.4</v>
       </c>
       <c r="AP175">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ175">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR175">
         <v>1.72</v>
@@ -37573,7 +37576,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ176">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AR176">
         <v>1.36</v>
@@ -37698,7 +37701,7 @@
         <v>128</v>
       </c>
       <c r="P177" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q177">
         <v>3.25</v>
@@ -38110,7 +38113,7 @@
         <v>118</v>
       </c>
       <c r="P179" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38603,7 +38606,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ181">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR181">
         <v>1.23</v>
@@ -38728,7 +38731,7 @@
         <v>92</v>
       </c>
       <c r="P182" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q182">
         <v>4.33</v>
@@ -38934,7 +38937,7 @@
         <v>200</v>
       </c>
       <c r="P183" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q183">
         <v>9</v>
@@ -39140,7 +39143,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q184">
         <v>3.4</v>
@@ -39346,7 +39349,7 @@
         <v>108</v>
       </c>
       <c r="P185" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -39424,7 +39427,7 @@
         <v>0.8</v>
       </c>
       <c r="AP185">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ185">
         <v>0.93</v>
@@ -40170,7 +40173,7 @@
         <v>92</v>
       </c>
       <c r="P189" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q189">
         <v>3.5</v>
@@ -40376,7 +40379,7 @@
         <v>202</v>
       </c>
       <c r="P190" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q190">
         <v>3.8</v>
@@ -40582,7 +40585,7 @@
         <v>92</v>
       </c>
       <c r="P191" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -41075,7 +41078,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ193">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR193">
         <v>1.69</v>
@@ -41487,7 +41490,7 @@
         <v>1</v>
       </c>
       <c r="AQ195">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AR195">
         <v>1.26</v>
@@ -42230,7 +42233,7 @@
         <v>171</v>
       </c>
       <c r="P199" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q199">
         <v>3.5</v>
@@ -42436,7 +42439,7 @@
         <v>204</v>
       </c>
       <c r="P200" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q200">
         <v>3.75</v>
@@ -42848,7 +42851,7 @@
         <v>206</v>
       </c>
       <c r="P202" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q202">
         <v>3.2</v>
@@ -43338,7 +43341,7 @@
         <v>0.82</v>
       </c>
       <c r="AP204">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ204">
         <v>0.64</v>
@@ -43672,7 +43675,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q206">
         <v>4.5</v>
@@ -44084,7 +44087,7 @@
         <v>209</v>
       </c>
       <c r="P208" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q208">
         <v>2.75</v>
@@ -44290,7 +44293,7 @@
         <v>194</v>
       </c>
       <c r="P209" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q209">
         <v>3.5</v>
@@ -44496,7 +44499,7 @@
         <v>179</v>
       </c>
       <c r="P210" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q210">
         <v>7.5</v>
@@ -44702,7 +44705,7 @@
         <v>210</v>
       </c>
       <c r="P211" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q211">
         <v>3.75</v>
@@ -44908,7 +44911,7 @@
         <v>94</v>
       </c>
       <c r="P212" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q212">
         <v>3.4</v>
@@ -45114,7 +45117,7 @@
         <v>211</v>
       </c>
       <c r="P213" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q213">
         <v>2.78</v>
@@ -45320,7 +45323,7 @@
         <v>212</v>
       </c>
       <c r="P214" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q214">
         <v>3.2</v>
@@ -45526,7 +45529,7 @@
         <v>213</v>
       </c>
       <c r="P215" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q215">
         <v>2.2</v>
@@ -45607,7 +45610,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ215">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AR215">
         <v>1.49</v>
@@ -45732,7 +45735,7 @@
         <v>92</v>
       </c>
       <c r="P216" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q216">
         <v>7</v>
@@ -45938,7 +45941,7 @@
         <v>214</v>
       </c>
       <c r="P217" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q217">
         <v>2.88</v>
@@ -46144,7 +46147,7 @@
         <v>92</v>
       </c>
       <c r="P218" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q218">
         <v>7.5</v>
@@ -46350,7 +46353,7 @@
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q219">
         <v>3.1</v>
@@ -46762,7 +46765,7 @@
         <v>216</v>
       </c>
       <c r="P221" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q221">
         <v>0</v>
@@ -46968,7 +46971,7 @@
         <v>217</v>
       </c>
       <c r="P222" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q222">
         <v>3.4</v>
@@ -47046,7 +47049,7 @@
         <v>1.08</v>
       </c>
       <c r="AP222">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ222">
         <v>1.07</v>
@@ -47586,7 +47589,7 @@
         <v>92</v>
       </c>
       <c r="P225" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q225">
         <v>3</v>
@@ -47792,7 +47795,7 @@
         <v>218</v>
       </c>
       <c r="P226" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q226">
         <v>1.9</v>
@@ -48491,7 +48494,7 @@
         <v>1</v>
       </c>
       <c r="AQ229">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AR229">
         <v>1.33</v>
@@ -48694,7 +48697,7 @@
         <v>1.4</v>
       </c>
       <c r="AP230">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ230">
         <v>1.25</v>
@@ -48822,7 +48825,7 @@
         <v>92</v>
       </c>
       <c r="P231" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q231">
         <v>4.75</v>
@@ -49028,7 +49031,7 @@
         <v>221</v>
       </c>
       <c r="P232" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q232">
         <v>2.63</v>
@@ -49440,7 +49443,7 @@
         <v>222</v>
       </c>
       <c r="P234" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q234">
         <v>3.6</v>
@@ -49646,7 +49649,7 @@
         <v>223</v>
       </c>
       <c r="P235" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q235">
         <v>5</v>
@@ -49852,7 +49855,7 @@
         <v>224</v>
       </c>
       <c r="P236" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q236">
         <v>1.62</v>
@@ -49930,7 +49933,7 @@
         <v>0.86</v>
       </c>
       <c r="AP236">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ236">
         <v>0.8</v>
@@ -50264,7 +50267,7 @@
         <v>222</v>
       </c>
       <c r="P238" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q238">
         <v>2.38</v>
@@ -50345,7 +50348,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ238">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="AR238">
         <v>1.38</v>
@@ -50470,7 +50473,7 @@
         <v>225</v>
       </c>
       <c r="P239" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q239">
         <v>2.5</v>
@@ -50882,7 +50885,7 @@
         <v>92</v>
       </c>
       <c r="P241" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q241">
         <v>7.5</v>
@@ -50960,7 +50963,7 @@
         <v>2.27</v>
       </c>
       <c r="AP241">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AQ241">
         <v>2.33</v>
@@ -51088,7 +51091,7 @@
         <v>227</v>
       </c>
       <c r="P242" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q242">
         <v>2.4</v>
@@ -51863,6 +51866,418 @@
       </c>
       <c r="BP245">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="246" spans="1:68">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>7364363</v>
+      </c>
+      <c r="C246" t="s">
+        <v>68</v>
+      </c>
+      <c r="D246" t="s">
+        <v>69</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45477.54166666666</v>
+      </c>
+      <c r="F246">
+        <v>29</v>
+      </c>
+      <c r="G246" t="s">
+        <v>70</v>
+      </c>
+      <c r="H246" t="s">
+        <v>77</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>0</v>
+      </c>
+      <c r="L246">
+        <v>0</v>
+      </c>
+      <c r="M246">
+        <v>0</v>
+      </c>
+      <c r="N246">
+        <v>0</v>
+      </c>
+      <c r="O246" t="s">
+        <v>92</v>
+      </c>
+      <c r="P246" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q246">
+        <v>3.75</v>
+      </c>
+      <c r="R246">
+        <v>1.83</v>
+      </c>
+      <c r="S246">
+        <v>3.25</v>
+      </c>
+      <c r="T246">
+        <v>1.55</v>
+      </c>
+      <c r="U246">
+        <v>2.3</v>
+      </c>
+      <c r="V246">
+        <v>3.55</v>
+      </c>
+      <c r="W246">
+        <v>1.25</v>
+      </c>
+      <c r="X246">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y246">
+        <v>1.03</v>
+      </c>
+      <c r="Z246">
+        <v>2.8</v>
+      </c>
+      <c r="AA246">
+        <v>2.9</v>
+      </c>
+      <c r="AB246">
+        <v>2.4</v>
+      </c>
+      <c r="AC246">
+        <v>1.11</v>
+      </c>
+      <c r="AD246">
+        <v>5.89</v>
+      </c>
+      <c r="AE246">
+        <v>1.5</v>
+      </c>
+      <c r="AF246">
+        <v>2.4</v>
+      </c>
+      <c r="AG246">
+        <v>2.63</v>
+      </c>
+      <c r="AH246">
+        <v>1.44</v>
+      </c>
+      <c r="AI246">
+        <v>2.2</v>
+      </c>
+      <c r="AJ246">
+        <v>1.62</v>
+      </c>
+      <c r="AK246">
+        <v>1.4</v>
+      </c>
+      <c r="AL246">
+        <v>1.35</v>
+      </c>
+      <c r="AM246">
+        <v>1.45</v>
+      </c>
+      <c r="AN246">
+        <v>1.46</v>
+      </c>
+      <c r="AO246">
+        <v>1.29</v>
+      </c>
+      <c r="AP246">
+        <v>1.43</v>
+      </c>
+      <c r="AQ246">
+        <v>1.27</v>
+      </c>
+      <c r="AR246">
+        <v>1.33</v>
+      </c>
+      <c r="AS246">
+        <v>1.14</v>
+      </c>
+      <c r="AT246">
+        <v>2.47</v>
+      </c>
+      <c r="AU246">
+        <v>2</v>
+      </c>
+      <c r="AV246">
+        <v>2</v>
+      </c>
+      <c r="AW246">
+        <v>5</v>
+      </c>
+      <c r="AX246">
+        <v>3</v>
+      </c>
+      <c r="AY246">
+        <v>7</v>
+      </c>
+      <c r="AZ246">
+        <v>5</v>
+      </c>
+      <c r="BA246">
+        <v>5</v>
+      </c>
+      <c r="BB246">
+        <v>3</v>
+      </c>
+      <c r="BC246">
+        <v>8</v>
+      </c>
+      <c r="BD246">
+        <v>2.26</v>
+      </c>
+      <c r="BE246">
+        <v>5.95</v>
+      </c>
+      <c r="BF246">
+        <v>1.97</v>
+      </c>
+      <c r="BG246">
+        <v>1.46</v>
+      </c>
+      <c r="BH246">
+        <v>2.61</v>
+      </c>
+      <c r="BI246">
+        <v>1.79</v>
+      </c>
+      <c r="BJ246">
+        <v>2.01</v>
+      </c>
+      <c r="BK246">
+        <v>2.27</v>
+      </c>
+      <c r="BL246">
+        <v>1.6</v>
+      </c>
+      <c r="BM246">
+        <v>3.08</v>
+      </c>
+      <c r="BN246">
+        <v>1.3</v>
+      </c>
+      <c r="BO246">
+        <v>4</v>
+      </c>
+      <c r="BP246">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:68">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>7469620</v>
+      </c>
+      <c r="C247" t="s">
+        <v>68</v>
+      </c>
+      <c r="D247" t="s">
+        <v>69</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45477.54166666666</v>
+      </c>
+      <c r="F247">
+        <v>29</v>
+      </c>
+      <c r="G247" t="s">
+        <v>72</v>
+      </c>
+      <c r="H247" t="s">
+        <v>73</v>
+      </c>
+      <c r="I247">
+        <v>2</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>2</v>
+      </c>
+      <c r="L247">
+        <v>4</v>
+      </c>
+      <c r="M247">
+        <v>1</v>
+      </c>
+      <c r="N247">
+        <v>5</v>
+      </c>
+      <c r="O247" t="s">
+        <v>229</v>
+      </c>
+      <c r="P247" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q247">
+        <v>1.5</v>
+      </c>
+      <c r="R247">
+        <v>2.75</v>
+      </c>
+      <c r="S247">
+        <v>13</v>
+      </c>
+      <c r="T247">
+        <v>1.3</v>
+      </c>
+      <c r="U247">
+        <v>3.4</v>
+      </c>
+      <c r="V247">
+        <v>2.5</v>
+      </c>
+      <c r="W247">
+        <v>1.5</v>
+      </c>
+      <c r="X247">
+        <v>5.5</v>
+      </c>
+      <c r="Y247">
+        <v>1.13</v>
+      </c>
+      <c r="Z247">
+        <v>1.13</v>
+      </c>
+      <c r="AA247">
+        <v>6.5</v>
+      </c>
+      <c r="AB247">
+        <v>19</v>
+      </c>
+      <c r="AC247">
+        <v>1.01</v>
+      </c>
+      <c r="AD247">
+        <v>12</v>
+      </c>
+      <c r="AE247">
+        <v>1.15</v>
+      </c>
+      <c r="AF247">
+        <v>5.38</v>
+      </c>
+      <c r="AG247">
+        <v>1.53</v>
+      </c>
+      <c r="AH247">
+        <v>2.38</v>
+      </c>
+      <c r="AI247">
+        <v>2.75</v>
+      </c>
+      <c r="AJ247">
+        <v>1.4</v>
+      </c>
+      <c r="AK247">
+        <v>1.02</v>
+      </c>
+      <c r="AL247">
+        <v>1.03</v>
+      </c>
+      <c r="AM247">
+        <v>5</v>
+      </c>
+      <c r="AN247">
+        <v>2.56</v>
+      </c>
+      <c r="AO247">
+        <v>0.29</v>
+      </c>
+      <c r="AP247">
+        <v>2.6</v>
+      </c>
+      <c r="AQ247">
+        <v>0.27</v>
+      </c>
+      <c r="AR247">
+        <v>1.69</v>
+      </c>
+      <c r="AS247">
+        <v>1.03</v>
+      </c>
+      <c r="AT247">
+        <v>2.72</v>
+      </c>
+      <c r="AU247">
+        <v>2</v>
+      </c>
+      <c r="AV247">
+        <v>0</v>
+      </c>
+      <c r="AW247">
+        <v>2</v>
+      </c>
+      <c r="AX247">
+        <v>2</v>
+      </c>
+      <c r="AY247">
+        <v>4</v>
+      </c>
+      <c r="AZ247">
+        <v>2</v>
+      </c>
+      <c r="BA247">
+        <v>11</v>
+      </c>
+      <c r="BB247">
+        <v>2</v>
+      </c>
+      <c r="BC247">
+        <v>13</v>
+      </c>
+      <c r="BD247">
+        <v>1.04</v>
+      </c>
+      <c r="BE247">
+        <v>20</v>
+      </c>
+      <c r="BF247">
+        <v>12.8</v>
+      </c>
+      <c r="BG247">
+        <v>1.24</v>
+      </c>
+      <c r="BH247">
+        <v>3.48</v>
+      </c>
+      <c r="BI247">
+        <v>1.7</v>
+      </c>
+      <c r="BJ247">
+        <v>2.05</v>
+      </c>
+      <c r="BK247">
+        <v>1.8</v>
+      </c>
+      <c r="BL247">
+        <v>1.86</v>
+      </c>
+      <c r="BM247">
+        <v>2.32</v>
+      </c>
+      <c r="BN247">
+        <v>1.51</v>
+      </c>
+      <c r="BO247">
+        <v>3.14</v>
+      </c>
+      <c r="BP247">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -703,7 +703,7 @@
     <t>['39']</t>
   </si>
   <si>
-    <t>['35', '41', '60', '90+3']</t>
+    <t>['35', '35', '41', '90+2']</t>
   </si>
   <si>
     <t>['16', '75']</t>
@@ -52100,13 +52100,13 @@
         <v>73</v>
       </c>
       <c r="I247">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K247">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L247">
         <v>4</v>
@@ -52121,7 +52121,7 @@
         <v>229</v>
       </c>
       <c r="P247" t="s">
-        <v>241</v>
+        <v>171</v>
       </c>
       <c r="Q247">
         <v>1.5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="342">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -706,6 +706,12 @@
     <t>['35', '35', '41', '90+2']</t>
   </si>
   <si>
+    <t>['70', '90']</t>
+  </si>
+  <si>
+    <t>['77', '82']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -1031,6 +1037,9 @@
   </si>
   <si>
     <t>['38', '46']</t>
+  </si>
+  <si>
+    <t>['45+4']</t>
   </si>
 </sst>
 </file>
@@ -1392,7 +1401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP247"/>
+  <dimension ref="A1:BP252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1732,7 +1741,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ2">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1935,10 +1944,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ3">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2144,7 +2153,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ4">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2350,7 +2359,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ5">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2475,7 +2484,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2759,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2887,7 +2896,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3174,7 +3183,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ9">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3299,7 +3308,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3711,7 +3720,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3789,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ12">
         <v>0.93</v>
@@ -3917,7 +3926,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -3995,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ13">
         <v>1.07</v>
@@ -4123,7 +4132,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -5153,7 +5162,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5231,7 +5240,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ19">
         <v>0.64</v>
@@ -5437,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ20">
         <v>0.93</v>
@@ -5565,7 +5574,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5771,7 +5780,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5852,7 +5861,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR22">
         <v>1.22</v>
@@ -5977,7 +5986,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -6058,7 +6067,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ23">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR23">
         <v>0.65</v>
@@ -6183,7 +6192,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6595,7 +6604,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6676,7 +6685,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ26">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR26">
         <v>2</v>
@@ -6882,7 +6891,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ27">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR27">
         <v>2.1</v>
@@ -7419,7 +7428,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7497,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ30">
         <v>1.27</v>
@@ -7625,7 +7634,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7703,7 +7712,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ31">
         <v>1.07</v>
@@ -7912,7 +7921,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ32">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR32">
         <v>0.38</v>
@@ -8037,7 +8046,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8655,7 +8664,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -8736,7 +8745,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ36">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR36">
         <v>1.67</v>
@@ -9067,7 +9076,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9273,7 +9282,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9479,7 +9488,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9557,7 +9566,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ40">
         <v>1.07</v>
@@ -9766,7 +9775,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ41">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR41">
         <v>1.48</v>
@@ -9972,7 +9981,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ42">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR42">
         <v>0.84</v>
@@ -10097,7 +10106,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10303,7 +10312,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10381,7 +10390,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ44">
         <v>1.27</v>
@@ -10509,7 +10518,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10587,7 +10596,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ45">
         <v>1.77</v>
@@ -11127,7 +11136,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11205,7 +11214,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ48">
         <v>0.8</v>
@@ -11333,7 +11342,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11620,7 +11629,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ50">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR50">
         <v>1.07</v>
@@ -11745,7 +11754,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11951,7 +11960,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12032,7 +12041,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ52">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR52">
         <v>1.27</v>
@@ -12157,7 +12166,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12569,7 +12578,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12650,7 +12659,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ55">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR55">
         <v>1.67</v>
@@ -12981,7 +12990,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13599,7 +13608,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13805,7 +13814,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -13886,7 +13895,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ61">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR61">
         <v>1.23</v>
@@ -14217,7 +14226,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14298,7 +14307,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ63">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR63">
         <v>1</v>
@@ -14423,7 +14432,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14501,7 +14510,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ64">
         <v>0.8</v>
@@ -14629,7 +14638,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14707,7 +14716,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ65">
         <v>1.07</v>
@@ -14916,7 +14925,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ66">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR66">
         <v>1.54</v>
@@ -15041,7 +15050,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15122,7 +15131,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ67">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR67">
         <v>1.71</v>
@@ -15453,7 +15462,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15740,7 +15749,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ70">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR70">
         <v>1.2</v>
@@ -16071,7 +16080,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q72">
         <v>1.8</v>
@@ -16483,7 +16492,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16689,7 +16698,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16976,7 +16985,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ76">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR76">
         <v>1.17</v>
@@ -17101,7 +17110,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17182,7 +17191,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ77">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR77">
         <v>1.32</v>
@@ -17307,7 +17316,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17385,10 +17394,10 @@
         <v>0.75</v>
       </c>
       <c r="AP78">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ78">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR78">
         <v>1.22</v>
@@ -17719,7 +17728,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17797,7 +17806,7 @@
         <v>0.25</v>
       </c>
       <c r="AP80">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ80">
         <v>0.27</v>
@@ -18003,7 +18012,7 @@
         <v>1.75</v>
       </c>
       <c r="AP81">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ81">
         <v>1.07</v>
@@ -18749,7 +18758,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18955,7 +18964,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19036,7 +19045,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ86">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR86">
         <v>1.42</v>
@@ -19161,7 +19170,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19242,7 +19251,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ87">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR87">
         <v>1.51</v>
@@ -19445,10 +19454,10 @@
         <v>1.2</v>
       </c>
       <c r="AP88">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ88">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR88">
         <v>1.62</v>
@@ -19573,7 +19582,7 @@
         <v>92</v>
       </c>
       <c r="P89" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q89">
         <v>3.6</v>
@@ -19654,7 +19663,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ89">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR89">
         <v>1.19</v>
@@ -19779,7 +19788,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q90">
         <v>3.5</v>
@@ -20063,7 +20072,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ91">
         <v>2.58</v>
@@ -20269,7 +20278,7 @@
         <v>3</v>
       </c>
       <c r="AP92">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ92">
         <v>1.86</v>
@@ -20478,7 +20487,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ93">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR93">
         <v>1.44</v>
@@ -21221,7 +21230,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21839,7 +21848,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -22251,7 +22260,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22329,10 +22338,10 @@
         <v>0.83</v>
       </c>
       <c r="AP102">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ102">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR102">
         <v>1.24</v>
@@ -22457,7 +22466,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22744,7 +22753,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ104">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR104">
         <v>1.48</v>
@@ -22950,7 +22959,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ105">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR105">
         <v>1.44</v>
@@ -23153,10 +23162,10 @@
         <v>1.5</v>
       </c>
       <c r="AP106">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ106">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR106">
         <v>2.1</v>
@@ -23281,7 +23290,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23362,7 +23371,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ107">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR107">
         <v>1.23</v>
@@ -23693,7 +23702,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23771,7 +23780,7 @@
         <v>2.25</v>
       </c>
       <c r="AP109">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ109">
         <v>1.86</v>
@@ -23977,7 +23986,7 @@
         <v>0.2</v>
       </c>
       <c r="AP110">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ110">
         <v>0.27</v>
@@ -24105,7 +24114,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24186,7 +24195,7 @@
         <v>1</v>
       </c>
       <c r="AQ111">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR111">
         <v>1.38</v>
@@ -24723,7 +24732,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -25753,7 +25762,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25831,7 +25840,7 @@
         <v>1.67</v>
       </c>
       <c r="AP119">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ119">
         <v>1</v>
@@ -25959,7 +25968,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -26040,7 +26049,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ120">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR120">
         <v>1.23</v>
@@ -26165,7 +26174,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26449,10 +26458,10 @@
         <v>1.14</v>
       </c>
       <c r="AP122">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ122">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR122">
         <v>1.59</v>
@@ -26783,7 +26792,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -26861,10 +26870,10 @@
         <v>1.67</v>
       </c>
       <c r="AP124">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ124">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR124">
         <v>1.91</v>
@@ -26989,7 +26998,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27195,7 +27204,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27401,7 +27410,7 @@
         <v>94</v>
       </c>
       <c r="P127" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q127">
         <v>3.4</v>
@@ -27813,7 +27822,7 @@
         <v>148</v>
       </c>
       <c r="P129" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q129">
         <v>2.6</v>
@@ -28225,7 +28234,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28843,7 +28852,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -28924,7 +28933,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ134">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR134">
         <v>1.63</v>
@@ -29049,7 +29058,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29255,7 +29264,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29539,7 +29548,7 @@
         <v>1.86</v>
       </c>
       <c r="AP137">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ137">
         <v>1.27</v>
@@ -29745,7 +29754,7 @@
         <v>1.75</v>
       </c>
       <c r="AP138">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ138">
         <v>2.33</v>
@@ -29873,7 +29882,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q139">
         <v>3.15</v>
@@ -29954,7 +29963,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ139">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR139">
         <v>1.76</v>
@@ -30285,7 +30294,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -30491,7 +30500,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q142">
         <v>3.75</v>
@@ -30569,7 +30578,7 @@
         <v>2</v>
       </c>
       <c r="AP142">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ142">
         <v>2.33</v>
@@ -31109,7 +31118,7 @@
         <v>92</v>
       </c>
       <c r="P145" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31315,7 +31324,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31521,7 +31530,7 @@
         <v>108</v>
       </c>
       <c r="P147" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -32011,7 +32020,7 @@
         <v>1</v>
       </c>
       <c r="AP149">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ149">
         <v>0.93</v>
@@ -32217,7 +32226,7 @@
         <v>1.86</v>
       </c>
       <c r="AP150">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ150">
         <v>1</v>
@@ -32426,7 +32435,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ151">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR151">
         <v>1.4</v>
@@ -32835,7 +32844,7 @@
         <v>1.13</v>
       </c>
       <c r="AP153">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ153">
         <v>0.64</v>
@@ -32963,7 +32972,7 @@
         <v>128</v>
       </c>
       <c r="P154" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33044,7 +33053,7 @@
         <v>1</v>
       </c>
       <c r="AQ154">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR154">
         <v>1.46</v>
@@ -33250,7 +33259,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ155">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR155">
         <v>1.48</v>
@@ -33375,7 +33384,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q156">
         <v>1.91</v>
@@ -33456,7 +33465,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ156">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR156">
         <v>2.03</v>
@@ -33581,7 +33590,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33659,7 +33668,7 @@
         <v>1.7</v>
       </c>
       <c r="AP157">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ157">
         <v>1.77</v>
@@ -34405,7 +34414,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34611,7 +34620,7 @@
         <v>151</v>
       </c>
       <c r="P162" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -34817,7 +34826,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -35307,10 +35316,10 @@
         <v>0.89</v>
       </c>
       <c r="AP165">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ165">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR165">
         <v>1.65</v>
@@ -35435,7 +35444,7 @@
         <v>92</v>
       </c>
       <c r="P166" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q166">
         <v>3</v>
@@ -35513,7 +35522,7 @@
         <v>0.9</v>
       </c>
       <c r="AP166">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ166">
         <v>0.93</v>
@@ -35641,7 +35650,7 @@
         <v>191</v>
       </c>
       <c r="P167" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35847,7 +35856,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
@@ -35928,7 +35937,7 @@
         <v>1</v>
       </c>
       <c r="AQ168">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR168">
         <v>1.5</v>
@@ -36053,7 +36062,7 @@
         <v>192</v>
       </c>
       <c r="P169" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -36134,7 +36143,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ169">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR169">
         <v>0.93</v>
@@ -36543,7 +36552,7 @@
         <v>1.14</v>
       </c>
       <c r="AP171">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ171">
         <v>1.25</v>
@@ -36671,7 +36680,7 @@
         <v>194</v>
       </c>
       <c r="P172" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -36752,7 +36761,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ172">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR172">
         <v>1.49</v>
@@ -37083,7 +37092,7 @@
         <v>92</v>
       </c>
       <c r="P174" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q174">
         <v>4.8</v>
@@ -37164,7 +37173,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ174">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR174">
         <v>1.47</v>
@@ -37701,7 +37710,7 @@
         <v>128</v>
       </c>
       <c r="P177" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q177">
         <v>3.25</v>
@@ -37779,7 +37788,7 @@
         <v>1.82</v>
       </c>
       <c r="AP177">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ177">
         <v>1.77</v>
@@ -38113,7 +38122,7 @@
         <v>118</v>
       </c>
       <c r="P179" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38400,7 +38409,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ180">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR180">
         <v>1.2</v>
@@ -38731,7 +38740,7 @@
         <v>92</v>
       </c>
       <c r="P182" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q182">
         <v>4.33</v>
@@ -38937,7 +38946,7 @@
         <v>200</v>
       </c>
       <c r="P183" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q183">
         <v>9</v>
@@ -39015,7 +39024,7 @@
         <v>1.86</v>
       </c>
       <c r="AP183">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ183">
         <v>2.33</v>
@@ -39143,7 +39152,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q184">
         <v>3.4</v>
@@ -39349,7 +39358,7 @@
         <v>108</v>
       </c>
       <c r="P185" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -39430,7 +39439,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ185">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR185">
         <v>1.47</v>
@@ -39842,7 +39851,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ187">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR187">
         <v>2.01</v>
@@ -40173,7 +40182,7 @@
         <v>92</v>
       </c>
       <c r="P189" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q189">
         <v>3.5</v>
@@ -40379,7 +40388,7 @@
         <v>202</v>
       </c>
       <c r="P190" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q190">
         <v>3.8</v>
@@ -40460,7 +40469,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ190">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR190">
         <v>1.52</v>
@@ -40585,7 +40594,7 @@
         <v>92</v>
       </c>
       <c r="P191" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -40872,7 +40881,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ192">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR192">
         <v>1.47</v>
@@ -41075,7 +41084,7 @@
         <v>1.42</v>
       </c>
       <c r="AP193">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ193">
         <v>1.27</v>
@@ -41487,7 +41496,7 @@
         <v>0.27</v>
       </c>
       <c r="AP195">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ195">
         <v>0.27</v>
@@ -41902,7 +41911,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ197">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR197">
         <v>1.61</v>
@@ -42105,7 +42114,7 @@
         <v>1.73</v>
       </c>
       <c r="AP198">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ198">
         <v>1.86</v>
@@ -42233,7 +42242,7 @@
         <v>171</v>
       </c>
       <c r="P199" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q199">
         <v>3.5</v>
@@ -42439,7 +42448,7 @@
         <v>204</v>
       </c>
       <c r="P200" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q200">
         <v>3.75</v>
@@ -42520,7 +42529,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ200">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR200">
         <v>1.16</v>
@@ -42851,7 +42860,7 @@
         <v>206</v>
       </c>
       <c r="P202" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q202">
         <v>3.2</v>
@@ -42932,7 +42941,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ202">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR202">
         <v>1.51</v>
@@ -43138,7 +43147,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ203">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR203">
         <v>1.19</v>
@@ -43675,7 +43684,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q206">
         <v>4.5</v>
@@ -44087,7 +44096,7 @@
         <v>209</v>
       </c>
       <c r="P208" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q208">
         <v>2.75</v>
@@ -44293,7 +44302,7 @@
         <v>194</v>
       </c>
       <c r="P209" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q209">
         <v>3.5</v>
@@ -44499,7 +44508,7 @@
         <v>179</v>
       </c>
       <c r="P210" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q210">
         <v>7.5</v>
@@ -44705,7 +44714,7 @@
         <v>210</v>
       </c>
       <c r="P211" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q211">
         <v>3.75</v>
@@ -44911,7 +44920,7 @@
         <v>94</v>
       </c>
       <c r="P212" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q212">
         <v>3.4</v>
@@ -44992,7 +45001,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ212">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR212">
         <v>1.37</v>
@@ -45117,7 +45126,7 @@
         <v>211</v>
       </c>
       <c r="P213" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q213">
         <v>2.78</v>
@@ -45195,10 +45204,10 @@
         <v>1.58</v>
       </c>
       <c r="AP213">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ213">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR213">
         <v>1.69</v>
@@ -45323,7 +45332,7 @@
         <v>212</v>
       </c>
       <c r="P214" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q214">
         <v>3.2</v>
@@ -45404,7 +45413,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ214">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR214">
         <v>1.39</v>
@@ -45529,7 +45538,7 @@
         <v>213</v>
       </c>
       <c r="P215" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q215">
         <v>2.2</v>
@@ -45607,7 +45616,7 @@
         <v>0.25</v>
       </c>
       <c r="AP215">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ215">
         <v>0.27</v>
@@ -45735,7 +45744,7 @@
         <v>92</v>
       </c>
       <c r="P216" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q216">
         <v>7</v>
@@ -45941,7 +45950,7 @@
         <v>214</v>
       </c>
       <c r="P217" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q217">
         <v>2.88</v>
@@ -46019,7 +46028,7 @@
         <v>0.92</v>
       </c>
       <c r="AP217">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ217">
         <v>0.8</v>
@@ -46147,7 +46156,7 @@
         <v>92</v>
       </c>
       <c r="P218" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q218">
         <v>7.5</v>
@@ -46225,7 +46234,7 @@
         <v>2.5</v>
       </c>
       <c r="AP218">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ218">
         <v>2.58</v>
@@ -46353,7 +46362,7 @@
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q219">
         <v>3.1</v>
@@ -46637,7 +46646,7 @@
         <v>0.92</v>
       </c>
       <c r="AP220">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ220">
         <v>0.8</v>
@@ -46765,7 +46774,7 @@
         <v>216</v>
       </c>
       <c r="P221" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q221">
         <v>0</v>
@@ -46971,7 +46980,7 @@
         <v>217</v>
       </c>
       <c r="P222" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q222">
         <v>3.4</v>
@@ -47464,7 +47473,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ224">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR224">
         <v>1.16</v>
@@ -47589,7 +47598,7 @@
         <v>92</v>
       </c>
       <c r="P225" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q225">
         <v>3</v>
@@ -47670,7 +47679,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ225">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR225">
         <v>1.45</v>
@@ -47795,7 +47804,7 @@
         <v>218</v>
       </c>
       <c r="P226" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q226">
         <v>1.9</v>
@@ -48825,7 +48834,7 @@
         <v>92</v>
       </c>
       <c r="P231" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q231">
         <v>4.75</v>
@@ -49031,7 +49040,7 @@
         <v>221</v>
       </c>
       <c r="P232" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q232">
         <v>2.63</v>
@@ -49109,7 +49118,7 @@
         <v>1.15</v>
       </c>
       <c r="AP232">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ232">
         <v>1.07</v>
@@ -49318,7 +49327,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ233">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="AR233">
         <v>1.4</v>
@@ -49443,7 +49452,7 @@
         <v>222</v>
       </c>
       <c r="P234" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q234">
         <v>3.6</v>
@@ -49524,7 +49533,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ234">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AR234">
         <v>1.21</v>
@@ -49649,7 +49658,7 @@
         <v>223</v>
       </c>
       <c r="P235" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q235">
         <v>5</v>
@@ -49727,7 +49736,7 @@
         <v>2.55</v>
       </c>
       <c r="AP235">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AQ235">
         <v>2.58</v>
@@ -49855,7 +49864,7 @@
         <v>224</v>
       </c>
       <c r="P236" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q236">
         <v>1.62</v>
@@ -50139,10 +50148,10 @@
         <v>1.5</v>
       </c>
       <c r="AP237">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ237">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR237">
         <v>1.2</v>
@@ -50267,7 +50276,7 @@
         <v>222</v>
       </c>
       <c r="P238" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q238">
         <v>2.38</v>
@@ -50473,7 +50482,7 @@
         <v>225</v>
       </c>
       <c r="P239" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q239">
         <v>2.5</v>
@@ -50551,10 +50560,10 @@
         <v>1.17</v>
       </c>
       <c r="AP239">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ239">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR239">
         <v>1.7</v>
@@ -50885,7 +50894,7 @@
         <v>92</v>
       </c>
       <c r="P241" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q241">
         <v>7.5</v>
@@ -51091,7 +51100,7 @@
         <v>227</v>
       </c>
       <c r="P242" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q242">
         <v>2.4</v>
@@ -51584,7 +51593,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ244">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="AR244">
         <v>1.57</v>
@@ -52278,6 +52287,1036 @@
       </c>
       <c r="BP247">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="248" spans="1:68">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248">
+        <v>7364368</v>
+      </c>
+      <c r="C248" t="s">
+        <v>68</v>
+      </c>
+      <c r="D248" t="s">
+        <v>69</v>
+      </c>
+      <c r="E248" s="2">
+        <v>45479.47916666666</v>
+      </c>
+      <c r="F248">
+        <v>30</v>
+      </c>
+      <c r="G248" t="s">
+        <v>75</v>
+      </c>
+      <c r="H248" t="s">
+        <v>83</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <v>2</v>
+      </c>
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248">
+        <v>2</v>
+      </c>
+      <c r="O248" t="s">
+        <v>230</v>
+      </c>
+      <c r="P248" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q248">
+        <v>3.25</v>
+      </c>
+      <c r="R248">
+        <v>1.91</v>
+      </c>
+      <c r="S248">
+        <v>3.6</v>
+      </c>
+      <c r="T248">
+        <v>1.59</v>
+      </c>
+      <c r="U248">
+        <v>2.27</v>
+      </c>
+      <c r="V248">
+        <v>3.8</v>
+      </c>
+      <c r="W248">
+        <v>1.24</v>
+      </c>
+      <c r="X248">
+        <v>10.75</v>
+      </c>
+      <c r="Y248">
+        <v>1.02</v>
+      </c>
+      <c r="Z248">
+        <v>2.55</v>
+      </c>
+      <c r="AA248">
+        <v>2.75</v>
+      </c>
+      <c r="AB248">
+        <v>2.9</v>
+      </c>
+      <c r="AC248">
+        <v>1.01</v>
+      </c>
+      <c r="AD248">
+        <v>2.32</v>
+      </c>
+      <c r="AE248">
+        <v>1.55</v>
+      </c>
+      <c r="AF248">
+        <v>2.36</v>
+      </c>
+      <c r="AG248">
+        <v>2.43</v>
+      </c>
+      <c r="AH248">
+        <v>1.38</v>
+      </c>
+      <c r="AI248">
+        <v>2.1</v>
+      </c>
+      <c r="AJ248">
+        <v>1.67</v>
+      </c>
+      <c r="AK248">
+        <v>1.39</v>
+      </c>
+      <c r="AL248">
+        <v>1.44</v>
+      </c>
+      <c r="AM248">
+        <v>1.48</v>
+      </c>
+      <c r="AN248">
+        <v>1.85</v>
+      </c>
+      <c r="AO248">
+        <v>1.46</v>
+      </c>
+      <c r="AP248">
+        <v>1.93</v>
+      </c>
+      <c r="AQ248">
+        <v>1.36</v>
+      </c>
+      <c r="AR248">
+        <v>1.49</v>
+      </c>
+      <c r="AS248">
+        <v>1.41</v>
+      </c>
+      <c r="AT248">
+        <v>2.9</v>
+      </c>
+      <c r="AU248">
+        <v>5</v>
+      </c>
+      <c r="AV248">
+        <v>0</v>
+      </c>
+      <c r="AW248">
+        <v>3</v>
+      </c>
+      <c r="AX248">
+        <v>8</v>
+      </c>
+      <c r="AY248">
+        <v>8</v>
+      </c>
+      <c r="AZ248">
+        <v>8</v>
+      </c>
+      <c r="BA248">
+        <v>6</v>
+      </c>
+      <c r="BB248">
+        <v>3</v>
+      </c>
+      <c r="BC248">
+        <v>9</v>
+      </c>
+      <c r="BD248">
+        <v>1.92</v>
+      </c>
+      <c r="BE248">
+        <v>6</v>
+      </c>
+      <c r="BF248">
+        <v>2.32</v>
+      </c>
+      <c r="BG248">
+        <v>1.4</v>
+      </c>
+      <c r="BH248">
+        <v>2.7</v>
+      </c>
+      <c r="BI248">
+        <v>1.72</v>
+      </c>
+      <c r="BJ248">
+        <v>2.1</v>
+      </c>
+      <c r="BK248">
+        <v>2.17</v>
+      </c>
+      <c r="BL248">
+        <v>1.68</v>
+      </c>
+      <c r="BM248">
+        <v>2.7</v>
+      </c>
+      <c r="BN248">
+        <v>1.4</v>
+      </c>
+      <c r="BO248">
+        <v>3.6</v>
+      </c>
+      <c r="BP248">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="249" spans="1:68">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249">
+        <v>7364367</v>
+      </c>
+      <c r="C249" t="s">
+        <v>68</v>
+      </c>
+      <c r="D249" t="s">
+        <v>69</v>
+      </c>
+      <c r="E249" s="2">
+        <v>45479.54166666666</v>
+      </c>
+      <c r="F249">
+        <v>30</v>
+      </c>
+      <c r="G249" t="s">
+        <v>71</v>
+      </c>
+      <c r="H249" t="s">
+        <v>79</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>0</v>
+      </c>
+      <c r="L249">
+        <v>0</v>
+      </c>
+      <c r="M249">
+        <v>1</v>
+      </c>
+      <c r="N249">
+        <v>1</v>
+      </c>
+      <c r="O249" t="s">
+        <v>92</v>
+      </c>
+      <c r="P249" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q249">
+        <v>3.1</v>
+      </c>
+      <c r="R249">
+        <v>2.05</v>
+      </c>
+      <c r="S249">
+        <v>3.4</v>
+      </c>
+      <c r="T249">
+        <v>1.44</v>
+      </c>
+      <c r="U249">
+        <v>2.65</v>
+      </c>
+      <c r="V249">
+        <v>3.1</v>
+      </c>
+      <c r="W249">
+        <v>1.34</v>
+      </c>
+      <c r="X249">
+        <v>8.1</v>
+      </c>
+      <c r="Y249">
+        <v>1.06</v>
+      </c>
+      <c r="Z249">
+        <v>2.4</v>
+      </c>
+      <c r="AA249">
+        <v>3.1</v>
+      </c>
+      <c r="AB249">
+        <v>2.63</v>
+      </c>
+      <c r="AC249">
+        <v>1.01</v>
+      </c>
+      <c r="AD249">
+        <v>2.96</v>
+      </c>
+      <c r="AE249">
+        <v>1.4</v>
+      </c>
+      <c r="AF249">
+        <v>2.96</v>
+      </c>
+      <c r="AG249">
+        <v>2.08</v>
+      </c>
+      <c r="AH249">
+        <v>1.73</v>
+      </c>
+      <c r="AI249">
+        <v>1.83</v>
+      </c>
+      <c r="AJ249">
+        <v>1.83</v>
+      </c>
+      <c r="AK249">
+        <v>1.45</v>
+      </c>
+      <c r="AL249">
+        <v>1.4</v>
+      </c>
+      <c r="AM249">
+        <v>1.52</v>
+      </c>
+      <c r="AN249">
+        <v>1.38</v>
+      </c>
+      <c r="AO249">
+        <v>0.93</v>
+      </c>
+      <c r="AP249">
+        <v>1.29</v>
+      </c>
+      <c r="AQ249">
+        <v>1.07</v>
+      </c>
+      <c r="AR249">
+        <v>1.66</v>
+      </c>
+      <c r="AS249">
+        <v>1.41</v>
+      </c>
+      <c r="AT249">
+        <v>3.07</v>
+      </c>
+      <c r="AU249">
+        <v>5</v>
+      </c>
+      <c r="AV249">
+        <v>4</v>
+      </c>
+      <c r="AW249">
+        <v>8</v>
+      </c>
+      <c r="AX249">
+        <v>7</v>
+      </c>
+      <c r="AY249">
+        <v>13</v>
+      </c>
+      <c r="AZ249">
+        <v>11</v>
+      </c>
+      <c r="BA249">
+        <v>7</v>
+      </c>
+      <c r="BB249">
+        <v>1</v>
+      </c>
+      <c r="BC249">
+        <v>8</v>
+      </c>
+      <c r="BD249">
+        <v>1.89</v>
+      </c>
+      <c r="BE249">
+        <v>6.2</v>
+      </c>
+      <c r="BF249">
+        <v>2.34</v>
+      </c>
+      <c r="BG249">
+        <v>1.33</v>
+      </c>
+      <c r="BH249">
+        <v>3</v>
+      </c>
+      <c r="BI249">
+        <v>1.6</v>
+      </c>
+      <c r="BJ249">
+        <v>2.28</v>
+      </c>
+      <c r="BK249">
+        <v>1.99</v>
+      </c>
+      <c r="BL249">
+        <v>1.81</v>
+      </c>
+      <c r="BM249">
+        <v>2.54</v>
+      </c>
+      <c r="BN249">
+        <v>1.48</v>
+      </c>
+      <c r="BO249">
+        <v>3.2</v>
+      </c>
+      <c r="BP249">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:68">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250">
+        <v>7364369</v>
+      </c>
+      <c r="C250" t="s">
+        <v>68</v>
+      </c>
+      <c r="D250" t="s">
+        <v>69</v>
+      </c>
+      <c r="E250" s="2">
+        <v>45480.41666666666</v>
+      </c>
+      <c r="F250">
+        <v>30</v>
+      </c>
+      <c r="G250" t="s">
+        <v>81</v>
+      </c>
+      <c r="H250" t="s">
+        <v>85</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>1</v>
+      </c>
+      <c r="K250">
+        <v>1</v>
+      </c>
+      <c r="L250">
+        <v>0</v>
+      </c>
+      <c r="M250">
+        <v>1</v>
+      </c>
+      <c r="N250">
+        <v>1</v>
+      </c>
+      <c r="O250" t="s">
+        <v>92</v>
+      </c>
+      <c r="P250" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q250">
+        <v>5</v>
+      </c>
+      <c r="R250">
+        <v>2.2</v>
+      </c>
+      <c r="S250">
+        <v>2.2</v>
+      </c>
+      <c r="T250">
+        <v>1.4</v>
+      </c>
+      <c r="U250">
+        <v>2.75</v>
+      </c>
+      <c r="V250">
+        <v>2.8</v>
+      </c>
+      <c r="W250">
+        <v>1.38</v>
+      </c>
+      <c r="X250">
+        <v>7.2</v>
+      </c>
+      <c r="Y250">
+        <v>1.08</v>
+      </c>
+      <c r="Z250">
+        <v>4.75</v>
+      </c>
+      <c r="AA250">
+        <v>3.7</v>
+      </c>
+      <c r="AB250">
+        <v>1.57</v>
+      </c>
+      <c r="AC250">
+        <v>1.05</v>
+      </c>
+      <c r="AD250">
+        <v>8.5</v>
+      </c>
+      <c r="AE250">
+        <v>1.14</v>
+      </c>
+      <c r="AF250">
+        <v>2.3</v>
+      </c>
+      <c r="AG250">
+        <v>1.9</v>
+      </c>
+      <c r="AH250">
+        <v>1.9</v>
+      </c>
+      <c r="AI250">
+        <v>1.91</v>
+      </c>
+      <c r="AJ250">
+        <v>1.8</v>
+      </c>
+      <c r="AK250">
+        <v>2</v>
+      </c>
+      <c r="AL250">
+        <v>1.16</v>
+      </c>
+      <c r="AM250">
+        <v>1.02</v>
+      </c>
+      <c r="AN250">
+        <v>1</v>
+      </c>
+      <c r="AO250">
+        <v>1.79</v>
+      </c>
+      <c r="AP250">
+        <v>0.93</v>
+      </c>
+      <c r="AQ250">
+        <v>1.87</v>
+      </c>
+      <c r="AR250">
+        <v>1.2</v>
+      </c>
+      <c r="AS250">
+        <v>0.98</v>
+      </c>
+      <c r="AT250">
+        <v>2.18</v>
+      </c>
+      <c r="AU250">
+        <v>3</v>
+      </c>
+      <c r="AV250">
+        <v>5</v>
+      </c>
+      <c r="AW250">
+        <v>4</v>
+      </c>
+      <c r="AX250">
+        <v>5</v>
+      </c>
+      <c r="AY250">
+        <v>7</v>
+      </c>
+      <c r="AZ250">
+        <v>10</v>
+      </c>
+      <c r="BA250">
+        <v>3</v>
+      </c>
+      <c r="BB250">
+        <v>5</v>
+      </c>
+      <c r="BC250">
+        <v>8</v>
+      </c>
+      <c r="BD250">
+        <v>3.22</v>
+      </c>
+      <c r="BE250">
+        <v>6.5</v>
+      </c>
+      <c r="BF250">
+        <v>1.53</v>
+      </c>
+      <c r="BG250">
+        <v>1.42</v>
+      </c>
+      <c r="BH250">
+        <v>2.62</v>
+      </c>
+      <c r="BI250">
+        <v>1.75</v>
+      </c>
+      <c r="BJ250">
+        <v>2.06</v>
+      </c>
+      <c r="BK250">
+        <v>2.19</v>
+      </c>
+      <c r="BL250">
+        <v>1.66</v>
+      </c>
+      <c r="BM250">
+        <v>2.8</v>
+      </c>
+      <c r="BN250">
+        <v>1.38</v>
+      </c>
+      <c r="BO250">
+        <v>3.6</v>
+      </c>
+      <c r="BP250">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="251" spans="1:68">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251">
+        <v>7364371</v>
+      </c>
+      <c r="C251" t="s">
+        <v>68</v>
+      </c>
+      <c r="D251" t="s">
+        <v>69</v>
+      </c>
+      <c r="E251" s="2">
+        <v>45480.54166666666</v>
+      </c>
+      <c r="F251">
+        <v>30</v>
+      </c>
+      <c r="G251" t="s">
+        <v>80</v>
+      </c>
+      <c r="H251" t="s">
+        <v>86</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <v>2</v>
+      </c>
+      <c r="M251">
+        <v>1</v>
+      </c>
+      <c r="N251">
+        <v>3</v>
+      </c>
+      <c r="O251" t="s">
+        <v>231</v>
+      </c>
+      <c r="P251" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q251">
+        <v>2.1</v>
+      </c>
+      <c r="R251">
+        <v>2.2</v>
+      </c>
+      <c r="S251">
+        <v>5.5</v>
+      </c>
+      <c r="T251">
+        <v>1.4</v>
+      </c>
+      <c r="U251">
+        <v>2.75</v>
+      </c>
+      <c r="V251">
+        <v>2.8</v>
+      </c>
+      <c r="W251">
+        <v>1.38</v>
+      </c>
+      <c r="X251">
+        <v>7.2</v>
+      </c>
+      <c r="Y251">
+        <v>1.07</v>
+      </c>
+      <c r="Z251">
+        <v>1.53</v>
+      </c>
+      <c r="AA251">
+        <v>3.6</v>
+      </c>
+      <c r="AB251">
+        <v>5.25</v>
+      </c>
+      <c r="AC251">
+        <v>1.02</v>
+      </c>
+      <c r="AD251">
+        <v>10.5</v>
+      </c>
+      <c r="AE251">
+        <v>1.23</v>
+      </c>
+      <c r="AF251">
+        <v>3</v>
+      </c>
+      <c r="AG251">
+        <v>1.95</v>
+      </c>
+      <c r="AH251">
+        <v>1.85</v>
+      </c>
+      <c r="AI251">
+        <v>2</v>
+      </c>
+      <c r="AJ251">
+        <v>1.73</v>
+      </c>
+      <c r="AK251">
+        <v>1.01</v>
+      </c>
+      <c r="AL251">
+        <v>1.12</v>
+      </c>
+      <c r="AM251">
+        <v>1.97</v>
+      </c>
+      <c r="AN251">
+        <v>2.09</v>
+      </c>
+      <c r="AO251">
+        <v>0.93</v>
+      </c>
+      <c r="AP251">
+        <v>2.17</v>
+      </c>
+      <c r="AQ251">
+        <v>0.87</v>
+      </c>
+      <c r="AR251">
+        <v>1.77</v>
+      </c>
+      <c r="AS251">
+        <v>1.46</v>
+      </c>
+      <c r="AT251">
+        <v>3.23</v>
+      </c>
+      <c r="AU251">
+        <v>3</v>
+      </c>
+      <c r="AV251">
+        <v>2</v>
+      </c>
+      <c r="AW251">
+        <v>0</v>
+      </c>
+      <c r="AX251">
+        <v>5</v>
+      </c>
+      <c r="AY251">
+        <v>3</v>
+      </c>
+      <c r="AZ251">
+        <v>7</v>
+      </c>
+      <c r="BA251">
+        <v>2</v>
+      </c>
+      <c r="BB251">
+        <v>6</v>
+      </c>
+      <c r="BC251">
+        <v>8</v>
+      </c>
+      <c r="BD251">
+        <v>1.35</v>
+      </c>
+      <c r="BE251">
+        <v>7.4</v>
+      </c>
+      <c r="BF251">
+        <v>4.15</v>
+      </c>
+      <c r="BG251">
+        <v>1.3</v>
+      </c>
+      <c r="BH251">
+        <v>3.2</v>
+      </c>
+      <c r="BI251">
+        <v>1.51</v>
+      </c>
+      <c r="BJ251">
+        <v>2.5</v>
+      </c>
+      <c r="BK251">
+        <v>1.87</v>
+      </c>
+      <c r="BL251">
+        <v>1.93</v>
+      </c>
+      <c r="BM251">
+        <v>2.36</v>
+      </c>
+      <c r="BN251">
+        <v>1.56</v>
+      </c>
+      <c r="BO251">
+        <v>2.9</v>
+      </c>
+      <c r="BP251">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="252" spans="1:68">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252">
+        <v>7364370</v>
+      </c>
+      <c r="C252" t="s">
+        <v>68</v>
+      </c>
+      <c r="D252" t="s">
+        <v>69</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45480.54166666666</v>
+      </c>
+      <c r="F252">
+        <v>30</v>
+      </c>
+      <c r="G252" t="s">
+        <v>84</v>
+      </c>
+      <c r="H252" t="s">
+        <v>87</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+      <c r="L252">
+        <v>0</v>
+      </c>
+      <c r="M252">
+        <v>0</v>
+      </c>
+      <c r="N252">
+        <v>0</v>
+      </c>
+      <c r="O252" t="s">
+        <v>92</v>
+      </c>
+      <c r="P252" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q252">
+        <v>4</v>
+      </c>
+      <c r="R252">
+        <v>2.05</v>
+      </c>
+      <c r="S252">
+        <v>2.63</v>
+      </c>
+      <c r="T252">
+        <v>1.4</v>
+      </c>
+      <c r="U252">
+        <v>2.75</v>
+      </c>
+      <c r="V252">
+        <v>2.8</v>
+      </c>
+      <c r="W252">
+        <v>1.38</v>
+      </c>
+      <c r="X252">
+        <v>7.1</v>
+      </c>
+      <c r="Y252">
+        <v>1.08</v>
+      </c>
+      <c r="Z252">
+        <v>3.5</v>
+      </c>
+      <c r="AA252">
+        <v>3.1</v>
+      </c>
+      <c r="AB252">
+        <v>1.95</v>
+      </c>
+      <c r="AC252">
+        <v>1.06</v>
+      </c>
+      <c r="AD252">
+        <v>9.4</v>
+      </c>
+      <c r="AE252">
+        <v>1.19</v>
+      </c>
+      <c r="AF252">
+        <v>2.38</v>
+      </c>
+      <c r="AG252">
+        <v>2.1</v>
+      </c>
+      <c r="AH252">
+        <v>1.7</v>
+      </c>
+      <c r="AI252">
+        <v>1.91</v>
+      </c>
+      <c r="AJ252">
+        <v>1.8</v>
+      </c>
+      <c r="AK252">
+        <v>1.83</v>
+      </c>
+      <c r="AL252">
+        <v>1.01</v>
+      </c>
+      <c r="AM252">
+        <v>1.08</v>
+      </c>
+      <c r="AN252">
+        <v>1.13</v>
+      </c>
+      <c r="AO252">
+        <v>1.08</v>
+      </c>
+      <c r="AP252">
+        <v>1.13</v>
+      </c>
+      <c r="AQ252">
+        <v>1.07</v>
+      </c>
+      <c r="AR252">
+        <v>1.3</v>
+      </c>
+      <c r="AS252">
+        <v>1.62</v>
+      </c>
+      <c r="AT252">
+        <v>2.92</v>
+      </c>
+      <c r="AU252">
+        <v>3</v>
+      </c>
+      <c r="AV252">
+        <v>4</v>
+      </c>
+      <c r="AW252">
+        <v>7</v>
+      </c>
+      <c r="AX252">
+        <v>3</v>
+      </c>
+      <c r="AY252">
+        <v>10</v>
+      </c>
+      <c r="AZ252">
+        <v>7</v>
+      </c>
+      <c r="BA252">
+        <v>5</v>
+      </c>
+      <c r="BB252">
+        <v>2</v>
+      </c>
+      <c r="BC252">
+        <v>7</v>
+      </c>
+      <c r="BD252">
+        <v>2.89</v>
+      </c>
+      <c r="BE252">
+        <v>6.55</v>
+      </c>
+      <c r="BF252">
+        <v>1.62</v>
+      </c>
+      <c r="BG252">
+        <v>1.25</v>
+      </c>
+      <c r="BH252">
+        <v>3.6</v>
+      </c>
+      <c r="BI252">
+        <v>1.44</v>
+      </c>
+      <c r="BJ252">
+        <v>2.6</v>
+      </c>
+      <c r="BK252">
+        <v>1.75</v>
+      </c>
+      <c r="BL252">
+        <v>2.05</v>
+      </c>
+      <c r="BM252">
+        <v>2.19</v>
+      </c>
+      <c r="BN252">
+        <v>1.67</v>
+      </c>
+      <c r="BO252">
+        <v>2.7</v>
+      </c>
+      <c r="BP252">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="345">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -712,6 +712,12 @@
     <t>['77', '82']</t>
   </si>
   <si>
+    <t>['86', '90+3']</t>
+  </si>
+  <si>
+    <t>['50', '54']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -1040,6 +1046,9 @@
   </si>
   <si>
     <t>['45+4']</t>
+  </si>
+  <si>
+    <t>['28', '48', '58', '69']</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +1410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP252"/>
+  <dimension ref="A1:BP255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2150,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ4">
         <v>1.87</v>
@@ -2484,7 +2493,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2896,7 +2905,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2974,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ8">
         <v>1.86</v>
@@ -3180,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ9">
         <v>1.07</v>
@@ -3308,7 +3317,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3595,7 +3604,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ11">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3720,7 +3729,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3926,7 +3935,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -4132,7 +4141,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4213,7 +4222,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ14">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4419,7 +4428,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ15">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -5162,7 +5171,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5574,7 +5583,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5652,7 +5661,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ21">
         <v>1</v>
@@ -5780,7 +5789,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5858,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ22">
         <v>1.07</v>
@@ -5986,7 +5995,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -6192,7 +6201,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6604,7 +6613,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6682,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ26">
         <v>0.87</v>
@@ -7097,7 +7106,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ28">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>1.47</v>
@@ -7303,7 +7312,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ29">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7428,7 +7437,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7634,7 +7643,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -8046,7 +8055,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8539,7 +8548,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ35">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AR35">
         <v>1.72</v>
@@ -8664,7 +8673,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -9076,7 +9085,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9154,7 +9163,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ38">
         <v>1</v>
@@ -9282,7 +9291,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9360,7 +9369,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ39">
         <v>0.93</v>
@@ -9488,7 +9497,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -10106,7 +10115,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10312,7 +10321,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10518,7 +10527,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10805,7 +10814,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ46">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AR46">
         <v>2.1</v>
@@ -11011,7 +11020,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ47">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR47">
         <v>1.07</v>
@@ -11136,7 +11145,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11342,7 +11351,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11754,7 +11763,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11835,7 +11844,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ51">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR51">
         <v>1.33</v>
@@ -11960,7 +11969,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12166,7 +12175,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12578,7 +12587,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12862,7 +12871,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ56">
         <v>1.07</v>
@@ -12990,7 +12999,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13274,7 +13283,7 @@
         <v>2.33</v>
       </c>
       <c r="AP58">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ58">
         <v>1.77</v>
@@ -13608,7 +13617,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13686,7 +13695,7 @@
         <v>0.33</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ60">
         <v>0.93</v>
@@ -13814,7 +13823,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -14226,7 +14235,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14432,7 +14441,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14638,7 +14647,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14719,7 +14728,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ65">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR65">
         <v>1.25</v>
@@ -15050,7 +15059,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15337,7 +15346,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ68">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR68">
         <v>1.07</v>
@@ -15462,7 +15471,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -16080,7 +16089,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q72">
         <v>1.8</v>
@@ -16492,7 +16501,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16570,7 +16579,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ74">
         <v>1.77</v>
@@ -16698,7 +16707,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -17110,7 +17119,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17316,7 +17325,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17600,7 +17609,7 @@
         <v>0.75</v>
       </c>
       <c r="AP79">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ79">
         <v>0.8</v>
@@ -17728,7 +17737,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17809,7 +17818,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ80">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR80">
         <v>2.17</v>
@@ -18015,7 +18024,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ81">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR81">
         <v>1.59</v>
@@ -18758,7 +18767,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18964,7 +18973,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19170,7 +19179,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19582,7 +19591,7 @@
         <v>92</v>
       </c>
       <c r="P89" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q89">
         <v>3.6</v>
@@ -19788,7 +19797,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q90">
         <v>3.5</v>
@@ -19866,10 +19875,10 @@
         <v>1.4</v>
       </c>
       <c r="AP90">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ90">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR90">
         <v>1.45</v>
@@ -20075,7 +20084,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ91">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AR91">
         <v>2.39</v>
@@ -21230,7 +21239,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21848,7 +21857,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -22260,7 +22269,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22466,7 +22475,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22544,10 +22553,10 @@
         <v>1.33</v>
       </c>
       <c r="AP103">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ103">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR103">
         <v>1.37</v>
@@ -22750,7 +22759,7 @@
         <v>1.17</v>
       </c>
       <c r="AP104">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ104">
         <v>1.07</v>
@@ -23290,7 +23299,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23574,7 +23583,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ108">
         <v>0.64</v>
@@ -23702,7 +23711,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23989,7 +23998,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ110">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR110">
         <v>1.52</v>
@@ -24114,7 +24123,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24192,7 +24201,7 @@
         <v>1.14</v>
       </c>
       <c r="AP111">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ111">
         <v>1.07</v>
@@ -24732,7 +24741,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -25019,7 +25028,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ115">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR115">
         <v>1.53</v>
@@ -25762,7 +25771,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25968,7 +25977,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -26174,7 +26183,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26255,7 +26264,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ121">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AR121">
         <v>0.92</v>
@@ -26664,7 +26673,7 @@
         <v>2</v>
       </c>
       <c r="AP123">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ123">
         <v>1.86</v>
@@ -26792,7 +26801,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -26998,7 +27007,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27204,7 +27213,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27410,7 +27419,7 @@
         <v>94</v>
       </c>
       <c r="P127" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q127">
         <v>3.4</v>
@@ -27822,7 +27831,7 @@
         <v>148</v>
       </c>
       <c r="P129" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q129">
         <v>2.6</v>
@@ -28109,7 +28118,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ130">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR130">
         <v>1.42</v>
@@ -28234,7 +28243,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28727,7 +28736,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ133">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR133">
         <v>1.99</v>
@@ -28852,7 +28861,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -28930,7 +28939,7 @@
         <v>1.71</v>
       </c>
       <c r="AP134">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ134">
         <v>1.36</v>
@@ -29058,7 +29067,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29139,7 +29148,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ135">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AR135">
         <v>1.42</v>
@@ -29264,7 +29273,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29882,7 +29891,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q139">
         <v>3.15</v>
@@ -30294,7 +30303,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -30375,7 +30384,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ141">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AR141">
         <v>1.27</v>
@@ -30500,7 +30509,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q142">
         <v>3.75</v>
@@ -30993,7 +31002,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ144">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR144">
         <v>1.15</v>
@@ -31118,7 +31127,7 @@
         <v>92</v>
       </c>
       <c r="P145" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31199,7 +31208,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ145">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR145">
         <v>1.47</v>
@@ -31324,7 +31333,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31530,7 +31539,7 @@
         <v>108</v>
       </c>
       <c r="P147" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -32432,7 +32441,7 @@
         <v>0.5</v>
       </c>
       <c r="AP151">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ151">
         <v>0.87</v>
@@ -32972,7 +32981,7 @@
         <v>128</v>
       </c>
       <c r="P154" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33050,7 +33059,7 @@
         <v>1.5</v>
       </c>
       <c r="AP154">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ154">
         <v>1.87</v>
@@ -33384,7 +33393,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q156">
         <v>1.91</v>
@@ -33590,7 +33599,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34083,7 +34092,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ159">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR159">
         <v>1.5</v>
@@ -34414,7 +34423,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34620,7 +34629,7 @@
         <v>151</v>
       </c>
       <c r="P162" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -34826,7 +34835,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -34907,7 +34916,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ163">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AR163">
         <v>1.17</v>
@@ -35113,7 +35122,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ164">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR164">
         <v>1.13</v>
@@ -35444,7 +35453,7 @@
         <v>92</v>
       </c>
       <c r="P166" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q166">
         <v>3</v>
@@ -35650,7 +35659,7 @@
         <v>191</v>
       </c>
       <c r="P167" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35728,7 +35737,7 @@
         <v>1</v>
       </c>
       <c r="AP167">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ167">
         <v>0.64</v>
@@ -35856,7 +35865,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
@@ -35934,7 +35943,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP168">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ168">
         <v>0.87</v>
@@ -36062,7 +36071,7 @@
         <v>192</v>
       </c>
       <c r="P169" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -36346,7 +36355,7 @@
         <v>1.63</v>
       </c>
       <c r="AP170">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ170">
         <v>1</v>
@@ -36680,7 +36689,7 @@
         <v>194</v>
       </c>
       <c r="P172" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -37092,7 +37101,7 @@
         <v>92</v>
       </c>
       <c r="P174" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q174">
         <v>4.8</v>
@@ -37376,7 +37385,7 @@
         <v>1.4</v>
       </c>
       <c r="AP175">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ175">
         <v>1.27</v>
@@ -37585,7 +37594,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ176">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR176">
         <v>1.36</v>
@@ -37710,7 +37719,7 @@
         <v>128</v>
       </c>
       <c r="P177" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q177">
         <v>3.25</v>
@@ -37997,7 +38006,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ178">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR178">
         <v>1.64</v>
@@ -38122,7 +38131,7 @@
         <v>118</v>
       </c>
       <c r="P179" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38740,7 +38749,7 @@
         <v>92</v>
       </c>
       <c r="P182" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q182">
         <v>4.33</v>
@@ -38821,7 +38830,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ182">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AR182">
         <v>1.54</v>
@@ -38946,7 +38955,7 @@
         <v>200</v>
       </c>
       <c r="P183" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q183">
         <v>9</v>
@@ -39152,7 +39161,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q184">
         <v>3.4</v>
@@ -39230,7 +39239,7 @@
         <v>1</v>
       </c>
       <c r="AP184">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ184">
         <v>1.07</v>
@@ -39358,7 +39367,7 @@
         <v>108</v>
       </c>
       <c r="P185" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -40054,7 +40063,7 @@
         <v>0.9</v>
       </c>
       <c r="AP188">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ188">
         <v>0.64</v>
@@ -40182,7 +40191,7 @@
         <v>92</v>
       </c>
       <c r="P189" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q189">
         <v>3.5</v>
@@ -40388,7 +40397,7 @@
         <v>202</v>
       </c>
       <c r="P190" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q190">
         <v>3.8</v>
@@ -40594,7 +40603,7 @@
         <v>92</v>
       </c>
       <c r="P191" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -40675,7 +40684,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ191">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AR191">
         <v>1.41</v>
@@ -41499,7 +41508,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ195">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR195">
         <v>1.26</v>
@@ -41705,7 +41714,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ196">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR196">
         <v>1.35</v>
@@ -42242,7 +42251,7 @@
         <v>171</v>
       </c>
       <c r="P199" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q199">
         <v>3.5</v>
@@ -42320,7 +42329,7 @@
         <v>1.18</v>
       </c>
       <c r="AP199">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ199">
         <v>1.07</v>
@@ -42448,7 +42457,7 @@
         <v>204</v>
       </c>
       <c r="P200" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q200">
         <v>3.75</v>
@@ -42860,7 +42869,7 @@
         <v>206</v>
       </c>
       <c r="P202" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q202">
         <v>3.2</v>
@@ -43684,7 +43693,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q206">
         <v>4.5</v>
@@ -43762,7 +43771,7 @@
         <v>1</v>
       </c>
       <c r="AP206">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ206">
         <v>1.25</v>
@@ -44096,7 +44105,7 @@
         <v>209</v>
       </c>
       <c r="P208" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q208">
         <v>2.75</v>
@@ -44302,7 +44311,7 @@
         <v>194</v>
       </c>
       <c r="P209" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q209">
         <v>3.5</v>
@@ -44508,7 +44517,7 @@
         <v>179</v>
       </c>
       <c r="P210" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q210">
         <v>7.5</v>
@@ -44586,7 +44595,7 @@
         <v>2</v>
       </c>
       <c r="AP210">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ210">
         <v>2.33</v>
@@ -44714,7 +44723,7 @@
         <v>210</v>
       </c>
       <c r="P211" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q211">
         <v>3.75</v>
@@ -44795,7 +44804,7 @@
         <v>0.54</v>
       </c>
       <c r="AQ211">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR211">
         <v>1.19</v>
@@ -44920,7 +44929,7 @@
         <v>94</v>
       </c>
       <c r="P212" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q212">
         <v>3.4</v>
@@ -45126,7 +45135,7 @@
         <v>211</v>
       </c>
       <c r="P213" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q213">
         <v>2.78</v>
@@ -45332,7 +45341,7 @@
         <v>212</v>
       </c>
       <c r="P214" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q214">
         <v>3.2</v>
@@ -45538,7 +45547,7 @@
         <v>213</v>
       </c>
       <c r="P215" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q215">
         <v>2.2</v>
@@ -45619,7 +45628,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ215">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR215">
         <v>1.49</v>
@@ -45744,7 +45753,7 @@
         <v>92</v>
       </c>
       <c r="P216" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q216">
         <v>7</v>
@@ -45822,7 +45831,7 @@
         <v>2.11</v>
       </c>
       <c r="AP216">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ216">
         <v>2.33</v>
@@ -45950,7 +45959,7 @@
         <v>214</v>
       </c>
       <c r="P217" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q217">
         <v>2.88</v>
@@ -46156,7 +46165,7 @@
         <v>92</v>
       </c>
       <c r="P218" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q218">
         <v>7.5</v>
@@ -46237,7 +46246,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ218">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AR218">
         <v>1.27</v>
@@ -46362,7 +46371,7 @@
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q219">
         <v>3.1</v>
@@ -46774,7 +46783,7 @@
         <v>216</v>
       </c>
       <c r="P221" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q221">
         <v>0</v>
@@ -46980,7 +46989,7 @@
         <v>217</v>
       </c>
       <c r="P222" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q222">
         <v>3.4</v>
@@ -47598,7 +47607,7 @@
         <v>92</v>
       </c>
       <c r="P225" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q225">
         <v>3</v>
@@ -47804,7 +47813,7 @@
         <v>218</v>
       </c>
       <c r="P226" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q226">
         <v>1.9</v>
@@ -48500,7 +48509,7 @@
         <v>1.38</v>
       </c>
       <c r="AP229">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ229">
         <v>1.27</v>
@@ -48706,7 +48715,7 @@
         <v>1.4</v>
       </c>
       <c r="AP230">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ230">
         <v>1.25</v>
@@ -48834,7 +48843,7 @@
         <v>92</v>
       </c>
       <c r="P231" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q231">
         <v>4.75</v>
@@ -49040,7 +49049,7 @@
         <v>221</v>
       </c>
       <c r="P232" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q232">
         <v>2.63</v>
@@ -49121,7 +49130,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ232">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR232">
         <v>1.67</v>
@@ -49452,7 +49461,7 @@
         <v>222</v>
       </c>
       <c r="P234" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q234">
         <v>3.6</v>
@@ -49658,7 +49667,7 @@
         <v>223</v>
       </c>
       <c r="P235" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q235">
         <v>5</v>
@@ -49739,7 +49748,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ235">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="AR235">
         <v>1.55</v>
@@ -49864,7 +49873,7 @@
         <v>224</v>
       </c>
       <c r="P236" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q236">
         <v>1.62</v>
@@ -49942,7 +49951,7 @@
         <v>0.86</v>
       </c>
       <c r="AP236">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ236">
         <v>0.8</v>
@@ -50276,7 +50285,7 @@
         <v>222</v>
       </c>
       <c r="P238" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q238">
         <v>2.38</v>
@@ -50354,10 +50363,10 @@
         <v>0.23</v>
       </c>
       <c r="AP238">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ238">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR238">
         <v>1.38</v>
@@ -50482,7 +50491,7 @@
         <v>225</v>
       </c>
       <c r="P239" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q239">
         <v>2.5</v>
@@ -50894,7 +50903,7 @@
         <v>92</v>
       </c>
       <c r="P241" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q241">
         <v>7.5</v>
@@ -51100,7 +51109,7 @@
         <v>227</v>
       </c>
       <c r="P242" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q242">
         <v>2.4</v>
@@ -51796,7 +51805,7 @@
         <v>1.27</v>
       </c>
       <c r="AP245">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AQ245">
         <v>1.25</v>
@@ -52208,10 +52217,10 @@
         <v>0.29</v>
       </c>
       <c r="AP247">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AQ247">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR247">
         <v>1.69</v>
@@ -52748,7 +52757,7 @@
         <v>92</v>
       </c>
       <c r="P250" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q250">
         <v>5</v>
@@ -52954,7 +52963,7 @@
         <v>231</v>
       </c>
       <c r="P251" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q251">
         <v>2.1</v>
@@ -53317,6 +53326,624 @@
       </c>
       <c r="BP252">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:68">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253">
+        <v>7364372</v>
+      </c>
+      <c r="C253" t="s">
+        <v>68</v>
+      </c>
+      <c r="D253" t="s">
+        <v>69</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45481.41666666666</v>
+      </c>
+      <c r="F253">
+        <v>30</v>
+      </c>
+      <c r="G253" t="s">
+        <v>76</v>
+      </c>
+      <c r="H253" t="s">
+        <v>73</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
+      <c r="L253">
+        <v>2</v>
+      </c>
+      <c r="M253">
+        <v>0</v>
+      </c>
+      <c r="N253">
+        <v>2</v>
+      </c>
+      <c r="O253" t="s">
+        <v>232</v>
+      </c>
+      <c r="P253" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q253">
+        <v>2.4</v>
+      </c>
+      <c r="R253">
+        <v>2</v>
+      </c>
+      <c r="S253">
+        <v>5</v>
+      </c>
+      <c r="T253">
+        <v>1.48</v>
+      </c>
+      <c r="U253">
+        <v>2.45</v>
+      </c>
+      <c r="V253">
+        <v>3.2</v>
+      </c>
+      <c r="W253">
+        <v>1.3</v>
+      </c>
+      <c r="X253">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y253">
+        <v>1.05</v>
+      </c>
+      <c r="Z253">
+        <v>1.73</v>
+      </c>
+      <c r="AA253">
+        <v>3.1</v>
+      </c>
+      <c r="AB253">
+        <v>4.5</v>
+      </c>
+      <c r="AC253">
+        <v>1.08</v>
+      </c>
+      <c r="AD253">
+        <v>7</v>
+      </c>
+      <c r="AE253">
+        <v>1.45</v>
+      </c>
+      <c r="AF253">
+        <v>2.48</v>
+      </c>
+      <c r="AG253">
+        <v>2.3</v>
+      </c>
+      <c r="AH253">
+        <v>1.6</v>
+      </c>
+      <c r="AI253">
+        <v>2.1</v>
+      </c>
+      <c r="AJ253">
+        <v>1.67</v>
+      </c>
+      <c r="AK253">
+        <v>1.12</v>
+      </c>
+      <c r="AL253">
+        <v>1.25</v>
+      </c>
+      <c r="AM253">
+        <v>2.05</v>
+      </c>
+      <c r="AN253">
+        <v>1</v>
+      </c>
+      <c r="AO253">
+        <v>0.27</v>
+      </c>
+      <c r="AP253">
+        <v>1.13</v>
+      </c>
+      <c r="AQ253">
+        <v>0.25</v>
+      </c>
+      <c r="AR253">
+        <v>1.28</v>
+      </c>
+      <c r="AS253">
+        <v>0.99</v>
+      </c>
+      <c r="AT253">
+        <v>2.27</v>
+      </c>
+      <c r="AU253">
+        <v>7</v>
+      </c>
+      <c r="AV253">
+        <v>3</v>
+      </c>
+      <c r="AW253">
+        <v>5</v>
+      </c>
+      <c r="AX253">
+        <v>1</v>
+      </c>
+      <c r="AY253">
+        <v>12</v>
+      </c>
+      <c r="AZ253">
+        <v>4</v>
+      </c>
+      <c r="BA253">
+        <v>2</v>
+      </c>
+      <c r="BB253">
+        <v>1</v>
+      </c>
+      <c r="BC253">
+        <v>3</v>
+      </c>
+      <c r="BD253">
+        <v>1.42</v>
+      </c>
+      <c r="BE253">
+        <v>6.7</v>
+      </c>
+      <c r="BF253">
+        <v>3.78</v>
+      </c>
+      <c r="BG253">
+        <v>1.44</v>
+      </c>
+      <c r="BH253">
+        <v>2.51</v>
+      </c>
+      <c r="BI253">
+        <v>1.79</v>
+      </c>
+      <c r="BJ253">
+        <v>1.87</v>
+      </c>
+      <c r="BK253">
+        <v>2.32</v>
+      </c>
+      <c r="BL253">
+        <v>1.51</v>
+      </c>
+      <c r="BM253">
+        <v>3.2</v>
+      </c>
+      <c r="BN253">
+        <v>1.28</v>
+      </c>
+      <c r="BO253">
+        <v>4</v>
+      </c>
+      <c r="BP253">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:68">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254">
+        <v>7364374</v>
+      </c>
+      <c r="C254" t="s">
+        <v>68</v>
+      </c>
+      <c r="D254" t="s">
+        <v>69</v>
+      </c>
+      <c r="E254" s="2">
+        <v>45481.47916666666</v>
+      </c>
+      <c r="F254">
+        <v>30</v>
+      </c>
+      <c r="G254" t="s">
+        <v>77</v>
+      </c>
+      <c r="H254" t="s">
+        <v>78</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>1</v>
+      </c>
+      <c r="K254">
+        <v>1</v>
+      </c>
+      <c r="L254">
+        <v>0</v>
+      </c>
+      <c r="M254">
+        <v>4</v>
+      </c>
+      <c r="N254">
+        <v>4</v>
+      </c>
+      <c r="O254" t="s">
+        <v>92</v>
+      </c>
+      <c r="P254" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q254">
+        <v>6.5</v>
+      </c>
+      <c r="R254">
+        <v>2.2</v>
+      </c>
+      <c r="S254">
+        <v>2</v>
+      </c>
+      <c r="T254">
+        <v>1.4</v>
+      </c>
+      <c r="U254">
+        <v>2.7</v>
+      </c>
+      <c r="V254">
+        <v>2.88</v>
+      </c>
+      <c r="W254">
+        <v>1.36</v>
+      </c>
+      <c r="X254">
+        <v>7</v>
+      </c>
+      <c r="Y254">
+        <v>1.07</v>
+      </c>
+      <c r="Z254">
+        <v>5.6</v>
+      </c>
+      <c r="AA254">
+        <v>3.66</v>
+      </c>
+      <c r="AB254">
+        <v>1.44</v>
+      </c>
+      <c r="AC254">
+        <v>1.04</v>
+      </c>
+      <c r="AD254">
+        <v>8.5</v>
+      </c>
+      <c r="AE254">
+        <v>1.3</v>
+      </c>
+      <c r="AF254">
+        <v>3.2</v>
+      </c>
+      <c r="AG254">
+        <v>1.99</v>
+      </c>
+      <c r="AH254">
+        <v>1.83</v>
+      </c>
+      <c r="AI254">
+        <v>2.2</v>
+      </c>
+      <c r="AJ254">
+        <v>1.62</v>
+      </c>
+      <c r="AK254">
+        <v>2.5</v>
+      </c>
+      <c r="AL254">
+        <v>1.25</v>
+      </c>
+      <c r="AM254">
+        <v>1.11</v>
+      </c>
+      <c r="AN254">
+        <v>1.36</v>
+      </c>
+      <c r="AO254">
+        <v>2.58</v>
+      </c>
+      <c r="AP254">
+        <v>1.27</v>
+      </c>
+      <c r="AQ254">
+        <v>2.62</v>
+      </c>
+      <c r="AR254">
+        <v>1.39</v>
+      </c>
+      <c r="AS254">
+        <v>1.64</v>
+      </c>
+      <c r="AT254">
+        <v>3.03</v>
+      </c>
+      <c r="AU254">
+        <v>3</v>
+      </c>
+      <c r="AV254">
+        <v>10</v>
+      </c>
+      <c r="AW254">
+        <v>3</v>
+      </c>
+      <c r="AX254">
+        <v>7</v>
+      </c>
+      <c r="AY254">
+        <v>6</v>
+      </c>
+      <c r="AZ254">
+        <v>17</v>
+      </c>
+      <c r="BA254">
+        <v>6</v>
+      </c>
+      <c r="BB254">
+        <v>2</v>
+      </c>
+      <c r="BC254">
+        <v>8</v>
+      </c>
+      <c r="BD254">
+        <v>3.88</v>
+      </c>
+      <c r="BE254">
+        <v>7.1</v>
+      </c>
+      <c r="BF254">
+        <v>1.39</v>
+      </c>
+      <c r="BG254">
+        <v>1.28</v>
+      </c>
+      <c r="BH254">
+        <v>3.18</v>
+      </c>
+      <c r="BI254">
+        <v>1.59</v>
+      </c>
+      <c r="BJ254">
+        <v>2.28</v>
+      </c>
+      <c r="BK254">
+        <v>2.38</v>
+      </c>
+      <c r="BL254">
+        <v>1.82</v>
+      </c>
+      <c r="BM254">
+        <v>2.49</v>
+      </c>
+      <c r="BN254">
+        <v>1.5</v>
+      </c>
+      <c r="BO254">
+        <v>3.48</v>
+      </c>
+      <c r="BP254">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="255" spans="1:68">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255">
+        <v>7364373</v>
+      </c>
+      <c r="C255" t="s">
+        <v>68</v>
+      </c>
+      <c r="D255" t="s">
+        <v>69</v>
+      </c>
+      <c r="E255" s="2">
+        <v>45481.54166666666</v>
+      </c>
+      <c r="F255">
+        <v>30</v>
+      </c>
+      <c r="G255" t="s">
+        <v>72</v>
+      </c>
+      <c r="H255" t="s">
+        <v>70</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+      <c r="L255">
+        <v>2</v>
+      </c>
+      <c r="M255">
+        <v>0</v>
+      </c>
+      <c r="N255">
+        <v>2</v>
+      </c>
+      <c r="O255" t="s">
+        <v>233</v>
+      </c>
+      <c r="P255" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q255">
+        <v>1.53</v>
+      </c>
+      <c r="R255">
+        <v>2.75</v>
+      </c>
+      <c r="S255">
+        <v>9.5</v>
+      </c>
+      <c r="T255">
+        <v>1.33</v>
+      </c>
+      <c r="U255">
+        <v>3</v>
+      </c>
+      <c r="V255">
+        <v>2.55</v>
+      </c>
+      <c r="W255">
+        <v>1.45</v>
+      </c>
+      <c r="X255">
+        <v>6.1</v>
+      </c>
+      <c r="Y255">
+        <v>1.1</v>
+      </c>
+      <c r="Z255">
+        <v>1.18</v>
+      </c>
+      <c r="AA255">
+        <v>6</v>
+      </c>
+      <c r="AB255">
+        <v>13</v>
+      </c>
+      <c r="AC255">
+        <v>1.04</v>
+      </c>
+      <c r="AD255">
+        <v>9.5</v>
+      </c>
+      <c r="AE255">
+        <v>1.22</v>
+      </c>
+      <c r="AF255">
+        <v>3.85</v>
+      </c>
+      <c r="AG255">
+        <v>1.5</v>
+      </c>
+      <c r="AH255">
+        <v>2.5</v>
+      </c>
+      <c r="AI255">
+        <v>2.2</v>
+      </c>
+      <c r="AJ255">
+        <v>1.62</v>
+      </c>
+      <c r="AK255">
+        <v>1.03</v>
+      </c>
+      <c r="AL255">
+        <v>1.14</v>
+      </c>
+      <c r="AM255">
+        <v>3.35</v>
+      </c>
+      <c r="AN255">
+        <v>2.6</v>
+      </c>
+      <c r="AO255">
+        <v>1.07</v>
+      </c>
+      <c r="AP255">
+        <v>2.64</v>
+      </c>
+      <c r="AQ255">
+        <v>1</v>
+      </c>
+      <c r="AR255">
+        <v>1.63</v>
+      </c>
+      <c r="AS255">
+        <v>1.28</v>
+      </c>
+      <c r="AT255">
+        <v>2.91</v>
+      </c>
+      <c r="AU255">
+        <v>6</v>
+      </c>
+      <c r="AV255">
+        <v>4</v>
+      </c>
+      <c r="AW255">
+        <v>7</v>
+      </c>
+      <c r="AX255">
+        <v>2</v>
+      </c>
+      <c r="AY255">
+        <v>13</v>
+      </c>
+      <c r="AZ255">
+        <v>6</v>
+      </c>
+      <c r="BA255">
+        <v>9</v>
+      </c>
+      <c r="BB255">
+        <v>4</v>
+      </c>
+      <c r="BC255">
+        <v>13</v>
+      </c>
+      <c r="BD255">
+        <v>1.05</v>
+      </c>
+      <c r="BE255">
+        <v>12.5</v>
+      </c>
+      <c r="BF255">
+        <v>11.5</v>
+      </c>
+      <c r="BG255">
+        <v>1.29</v>
+      </c>
+      <c r="BH255">
+        <v>3.14</v>
+      </c>
+      <c r="BI255">
+        <v>1.54</v>
+      </c>
+      <c r="BJ255">
+        <v>2.25</v>
+      </c>
+      <c r="BK255">
+        <v>2.25</v>
+      </c>
+      <c r="BL255">
+        <v>1.75</v>
+      </c>
+      <c r="BM255">
+        <v>2.54</v>
+      </c>
+      <c r="BN255">
+        <v>1.43</v>
+      </c>
+      <c r="BO255">
+        <v>3.48</v>
+      </c>
+      <c r="BP255">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="347">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -718,6 +718,9 @@
     <t>['50', '54']</t>
   </si>
   <si>
+    <t>['73']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -919,9 +922,6 @@
     <t>['8', '73']</t>
   </si>
   <si>
-    <t>['73']</t>
-  </si>
-  <si>
     <t>['74']</t>
   </si>
   <si>
@@ -1049,6 +1049,12 @@
   </si>
   <si>
     <t>['28', '48', '58', '69']</t>
+  </si>
+  <si>
+    <t>['21', '45']</t>
+  </si>
+  <si>
+    <t>['43', '54']</t>
   </si>
 </sst>
 </file>
@@ -1410,7 +1416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP255"/>
+  <dimension ref="A1:BP257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1747,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ2">
         <v>1.07</v>
@@ -2493,7 +2499,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2571,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AQ6">
         <v>0.64</v>
@@ -2905,7 +2911,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -2986,7 +2992,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ8">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3317,7 +3323,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3398,7 +3404,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ10">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3729,7 +3735,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3935,7 +3941,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -4141,7 +4147,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -5171,7 +5177,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5583,7 +5589,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5789,7 +5795,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5995,7 +6001,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -6201,7 +6207,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6282,7 +6288,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ24">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR24">
         <v>0.44</v>
@@ -6485,10 +6491,10 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ25">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR25">
         <v>1.15</v>
@@ -6613,7 +6619,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -7437,7 +7443,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7643,7 +7649,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -8055,7 +8061,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8133,7 +8139,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AQ33">
         <v>1.77</v>
@@ -8673,7 +8679,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -8960,7 +8966,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ37">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR37">
         <v>1.06</v>
@@ -9085,7 +9091,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9291,7 +9297,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9497,7 +9503,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9781,7 +9787,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ41">
         <v>1.07</v>
@@ -10115,7 +10121,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10196,7 +10202,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ43">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR43">
         <v>0.91</v>
@@ -10321,7 +10327,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10527,7 +10533,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -11145,7 +11151,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11351,7 +11357,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11429,7 +11435,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AQ49">
         <v>2.33</v>
@@ -11763,7 +11769,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11969,7 +11975,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12175,7 +12181,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12587,7 +12593,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12999,7 +13005,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13080,7 +13086,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ57">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR57">
         <v>1.05</v>
@@ -13489,7 +13495,7 @@
         <v>1.67</v>
       </c>
       <c r="AP59">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -13617,7 +13623,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13823,7 +13829,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -14235,7 +14241,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14441,7 +14447,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14647,7 +14653,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -15059,7 +15065,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15343,7 +15349,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AQ68">
         <v>0.25</v>
@@ -15471,7 +15477,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15964,7 +15970,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ71">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR71">
         <v>1.39</v>
@@ -16089,7 +16095,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q72">
         <v>1.8</v>
@@ -16501,7 +16507,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16707,7 +16713,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16785,7 +16791,7 @@
         <v>0.5</v>
       </c>
       <c r="AP75">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ75">
         <v>0.93</v>
@@ -17119,7 +17125,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17325,7 +17331,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17737,7 +17743,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -18639,7 +18645,7 @@
         <v>2.2</v>
       </c>
       <c r="AP84">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ84">
         <v>1.77</v>
@@ -18767,7 +18773,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18973,7 +18979,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19179,7 +19185,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19591,7 +19597,7 @@
         <v>92</v>
       </c>
       <c r="P89" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q89">
         <v>3.6</v>
@@ -19669,7 +19675,7 @@
         <v>1.2</v>
       </c>
       <c r="AP89">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AQ89">
         <v>1.36</v>
@@ -19797,7 +19803,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q90">
         <v>3.5</v>
@@ -20290,7 +20296,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ92">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR92">
         <v>1.28</v>
@@ -21239,7 +21245,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21526,7 +21532,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ98">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR98">
         <v>1.43</v>
@@ -21857,7 +21863,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -22269,7 +22275,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22475,7 +22481,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23299,7 +23305,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23377,7 +23383,7 @@
         <v>1.4</v>
       </c>
       <c r="AP107">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AQ107">
         <v>1.87</v>
@@ -23711,7 +23717,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23792,7 +23798,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ109">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR109">
         <v>1.64</v>
@@ -24123,7 +24129,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24741,7 +24747,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -25025,7 +25031,7 @@
         <v>0.17</v>
       </c>
       <c r="AP115">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ115">
         <v>0.25</v>
@@ -25771,7 +25777,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25977,7 +25983,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -26055,7 +26061,7 @@
         <v>0.43</v>
       </c>
       <c r="AP120">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AQ120">
         <v>0.87</v>
@@ -26183,7 +26189,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26676,7 +26682,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ123">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR123">
         <v>1.48</v>
@@ -26801,7 +26807,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -27007,7 +27013,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27213,7 +27219,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27294,7 +27300,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ126">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR126">
         <v>1.36</v>
@@ -27419,7 +27425,7 @@
         <v>94</v>
       </c>
       <c r="P127" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q127">
         <v>3.4</v>
@@ -27831,7 +27837,7 @@
         <v>148</v>
       </c>
       <c r="P129" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q129">
         <v>2.6</v>
@@ -28243,7 +28249,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28861,7 +28867,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -29067,7 +29073,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29273,7 +29279,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29354,7 +29360,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ136">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR136">
         <v>1.46</v>
@@ -29891,7 +29897,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q139">
         <v>3.15</v>
@@ -30178,7 +30184,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ140">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR140">
         <v>1.42</v>
@@ -30303,7 +30309,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -30381,7 +30387,7 @@
         <v>2.17</v>
       </c>
       <c r="AP141">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AQ141">
         <v>2.62</v>
@@ -30509,7 +30515,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>301</v>
+        <v>234</v>
       </c>
       <c r="Q142">
         <v>3.75</v>
@@ -32650,7 +32656,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ152">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR152">
         <v>0.89</v>
@@ -33265,7 +33271,7 @@
         <v>1.63</v>
       </c>
       <c r="AP155">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ155">
         <v>1.36</v>
@@ -34295,7 +34301,7 @@
         <v>0.78</v>
       </c>
       <c r="AP160">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AQ160">
         <v>1.07</v>
@@ -34423,7 +34429,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34835,7 +34841,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -35659,7 +35665,7 @@
         <v>191</v>
       </c>
       <c r="P167" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -36564,7 +36570,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ171">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR171">
         <v>1.57</v>
@@ -36976,7 +36982,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ173">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR173">
         <v>1.97</v>
@@ -37179,7 +37185,7 @@
         <v>1.67</v>
       </c>
       <c r="AP174">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ174">
         <v>1.87</v>
@@ -38621,7 +38627,7 @@
         <v>1.27</v>
       </c>
       <c r="AP181">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AQ181">
         <v>1.27</v>
@@ -38749,7 +38755,7 @@
         <v>92</v>
       </c>
       <c r="P182" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q182">
         <v>4.33</v>
@@ -39445,7 +39451,7 @@
         <v>0.8</v>
       </c>
       <c r="AP185">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ185">
         <v>0.87</v>
@@ -40191,7 +40197,7 @@
         <v>92</v>
       </c>
       <c r="P189" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q189">
         <v>3.5</v>
@@ -40272,7 +40278,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ189">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR189">
         <v>1.19</v>
@@ -40397,7 +40403,7 @@
         <v>202</v>
       </c>
       <c r="P190" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q190">
         <v>3.8</v>
@@ -41299,7 +41305,7 @@
         <v>0.91</v>
       </c>
       <c r="AP194">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AQ194">
         <v>0.8</v>
@@ -42126,7 +42132,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ198">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR198">
         <v>1.65</v>
@@ -43359,7 +43365,7 @@
         <v>0.82</v>
       </c>
       <c r="AP204">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ204">
         <v>0.64</v>
@@ -43774,7 +43780,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ206">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR206">
         <v>1.4</v>
@@ -44392,7 +44398,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ209">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR209">
         <v>1.55</v>
@@ -44723,7 +44729,7 @@
         <v>210</v>
       </c>
       <c r="P211" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q211">
         <v>3.75</v>
@@ -44801,7 +44807,7 @@
         <v>1.25</v>
       </c>
       <c r="AP211">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AQ211">
         <v>1</v>
@@ -46371,7 +46377,7 @@
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q219">
         <v>3.1</v>
@@ -46452,7 +46458,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ219">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR219">
         <v>1.55</v>
@@ -47067,7 +47073,7 @@
         <v>1.08</v>
       </c>
       <c r="AP222">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ222">
         <v>1.07</v>
@@ -47813,7 +47819,7 @@
         <v>218</v>
       </c>
       <c r="P226" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q226">
         <v>1.9</v>
@@ -48718,7 +48724,7 @@
         <v>2.64</v>
       </c>
       <c r="AQ230">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR230">
         <v>1.73</v>
@@ -48924,7 +48930,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ231">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR231">
         <v>1.32</v>
@@ -49539,7 +49545,7 @@
         <v>0.77</v>
       </c>
       <c r="AP234">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="AQ234">
         <v>1.07</v>
@@ -49873,7 +49879,7 @@
         <v>224</v>
       </c>
       <c r="P236" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q236">
         <v>1.62</v>
@@ -50981,7 +50987,7 @@
         <v>2.27</v>
       </c>
       <c r="AP241">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ241">
         <v>2.33</v>
@@ -51808,7 +51814,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ245">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AR245">
         <v>1.31</v>
@@ -52011,7 +52017,7 @@
         <v>1.29</v>
       </c>
       <c r="AP246">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AQ246">
         <v>1.27</v>
@@ -52963,7 +52969,7 @@
         <v>231</v>
       </c>
       <c r="P251" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q251">
         <v>2.1</v>
@@ -53944,6 +53950,418 @@
       </c>
       <c r="BP255">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="256" spans="1:68">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256">
+        <v>7364366</v>
+      </c>
+      <c r="C256" t="s">
+        <v>68</v>
+      </c>
+      <c r="D256" t="s">
+        <v>69</v>
+      </c>
+      <c r="E256" s="2">
+        <v>45484.625</v>
+      </c>
+      <c r="F256">
+        <v>30</v>
+      </c>
+      <c r="G256" t="s">
+        <v>74</v>
+      </c>
+      <c r="H256" t="s">
+        <v>82</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>2</v>
+      </c>
+      <c r="K256">
+        <v>2</v>
+      </c>
+      <c r="L256">
+        <v>1</v>
+      </c>
+      <c r="M256">
+        <v>2</v>
+      </c>
+      <c r="N256">
+        <v>3</v>
+      </c>
+      <c r="O256" t="s">
+        <v>234</v>
+      </c>
+      <c r="P256" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q256">
+        <v>4.75</v>
+      </c>
+      <c r="R256">
+        <v>2.05</v>
+      </c>
+      <c r="S256">
+        <v>2.5</v>
+      </c>
+      <c r="T256">
+        <v>1.55</v>
+      </c>
+      <c r="U256">
+        <v>2.3</v>
+      </c>
+      <c r="V256">
+        <v>3.55</v>
+      </c>
+      <c r="W256">
+        <v>1.25</v>
+      </c>
+      <c r="X256">
+        <v>10.25</v>
+      </c>
+      <c r="Y256">
+        <v>1.03</v>
+      </c>
+      <c r="Z256">
+        <v>3.7</v>
+      </c>
+      <c r="AA256">
+        <v>3.6</v>
+      </c>
+      <c r="AB256">
+        <v>1.83</v>
+      </c>
+      <c r="AC256">
+        <v>1.01</v>
+      </c>
+      <c r="AD256">
+        <v>2.42</v>
+      </c>
+      <c r="AE256">
+        <v>1.5</v>
+      </c>
+      <c r="AF256">
+        <v>2.47</v>
+      </c>
+      <c r="AG256">
+        <v>2.2</v>
+      </c>
+      <c r="AH256">
+        <v>1.65</v>
+      </c>
+      <c r="AI256">
+        <v>2.1</v>
+      </c>
+      <c r="AJ256">
+        <v>1.67</v>
+      </c>
+      <c r="AK256">
+        <v>1.72</v>
+      </c>
+      <c r="AL256">
+        <v>1.45</v>
+      </c>
+      <c r="AM256">
+        <v>1.26</v>
+      </c>
+      <c r="AN256">
+        <v>0.54</v>
+      </c>
+      <c r="AO256">
+        <v>1.86</v>
+      </c>
+      <c r="AP256">
+        <v>0.5</v>
+      </c>
+      <c r="AQ256">
+        <v>1.93</v>
+      </c>
+      <c r="AR256">
+        <v>1.19</v>
+      </c>
+      <c r="AS256">
+        <v>1.4</v>
+      </c>
+      <c r="AT256">
+        <v>2.59</v>
+      </c>
+      <c r="AU256">
+        <v>3</v>
+      </c>
+      <c r="AV256">
+        <v>4</v>
+      </c>
+      <c r="AW256">
+        <v>5</v>
+      </c>
+      <c r="AX256">
+        <v>5</v>
+      </c>
+      <c r="AY256">
+        <v>8</v>
+      </c>
+      <c r="AZ256">
+        <v>9</v>
+      </c>
+      <c r="BA256">
+        <v>5</v>
+      </c>
+      <c r="BB256">
+        <v>2</v>
+      </c>
+      <c r="BC256">
+        <v>7</v>
+      </c>
+      <c r="BD256">
+        <v>2.85</v>
+      </c>
+      <c r="BE256">
+        <v>6.35</v>
+      </c>
+      <c r="BF256">
+        <v>1.64</v>
+      </c>
+      <c r="BG256">
+        <v>1.36</v>
+      </c>
+      <c r="BH256">
+        <v>2.88</v>
+      </c>
+      <c r="BI256">
+        <v>1.66</v>
+      </c>
+      <c r="BJ256">
+        <v>2.18</v>
+      </c>
+      <c r="BK256">
+        <v>2.08</v>
+      </c>
+      <c r="BL256">
+        <v>1.72</v>
+      </c>
+      <c r="BM256">
+        <v>2.6</v>
+      </c>
+      <c r="BN256">
+        <v>1.44</v>
+      </c>
+      <c r="BO256">
+        <v>3.3</v>
+      </c>
+      <c r="BP256">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="257" spans="1:68">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257">
+        <v>7217735</v>
+      </c>
+      <c r="C257" t="s">
+        <v>68</v>
+      </c>
+      <c r="D257" t="s">
+        <v>69</v>
+      </c>
+      <c r="E257" s="2">
+        <v>45484.625</v>
+      </c>
+      <c r="F257">
+        <v>16</v>
+      </c>
+      <c r="G257" t="s">
+        <v>70</v>
+      </c>
+      <c r="H257" t="s">
+        <v>80</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <v>1</v>
+      </c>
+      <c r="K257">
+        <v>1</v>
+      </c>
+      <c r="L257">
+        <v>1</v>
+      </c>
+      <c r="M257">
+        <v>2</v>
+      </c>
+      <c r="N257">
+        <v>3</v>
+      </c>
+      <c r="O257" t="s">
+        <v>174</v>
+      </c>
+      <c r="P257" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q257">
+        <v>5.5</v>
+      </c>
+      <c r="R257">
+        <v>2.1</v>
+      </c>
+      <c r="S257">
+        <v>2.25</v>
+      </c>
+      <c r="T257">
+        <v>1.44</v>
+      </c>
+      <c r="U257">
+        <v>2.63</v>
+      </c>
+      <c r="V257">
+        <v>3.25</v>
+      </c>
+      <c r="W257">
+        <v>1.33</v>
+      </c>
+      <c r="X257">
+        <v>8</v>
+      </c>
+      <c r="Y257">
+        <v>1.06</v>
+      </c>
+      <c r="Z257">
+        <v>5</v>
+      </c>
+      <c r="AA257">
+        <v>3.4</v>
+      </c>
+      <c r="AB257">
+        <v>1.65</v>
+      </c>
+      <c r="AC257">
+        <v>1.03</v>
+      </c>
+      <c r="AD257">
+        <v>8.1</v>
+      </c>
+      <c r="AE257">
+        <v>1.33</v>
+      </c>
+      <c r="AF257">
+        <v>2.93</v>
+      </c>
+      <c r="AG257">
+        <v>2.08</v>
+      </c>
+      <c r="AH257">
+        <v>1.73</v>
+      </c>
+      <c r="AI257">
+        <v>2</v>
+      </c>
+      <c r="AJ257">
+        <v>1.73</v>
+      </c>
+      <c r="AK257">
+        <v>1.01</v>
+      </c>
+      <c r="AL257">
+        <v>1.21</v>
+      </c>
+      <c r="AM257">
+        <v>1.17</v>
+      </c>
+      <c r="AN257">
+        <v>1.43</v>
+      </c>
+      <c r="AO257">
+        <v>1.25</v>
+      </c>
+      <c r="AP257">
+        <v>1.33</v>
+      </c>
+      <c r="AQ257">
+        <v>1.38</v>
+      </c>
+      <c r="AR257">
+        <v>1.29</v>
+      </c>
+      <c r="AS257">
+        <v>1.71</v>
+      </c>
+      <c r="AT257">
+        <v>3</v>
+      </c>
+      <c r="AU257">
+        <v>4</v>
+      </c>
+      <c r="AV257">
+        <v>5</v>
+      </c>
+      <c r="AW257">
+        <v>9</v>
+      </c>
+      <c r="AX257">
+        <v>3</v>
+      </c>
+      <c r="AY257">
+        <v>13</v>
+      </c>
+      <c r="AZ257">
+        <v>8</v>
+      </c>
+      <c r="BA257">
+        <v>3</v>
+      </c>
+      <c r="BB257">
+        <v>3</v>
+      </c>
+      <c r="BC257">
+        <v>6</v>
+      </c>
+      <c r="BD257">
+        <v>3.9</v>
+      </c>
+      <c r="BE257">
+        <v>7.1</v>
+      </c>
+      <c r="BF257">
+        <v>1.39</v>
+      </c>
+      <c r="BG257">
+        <v>1.36</v>
+      </c>
+      <c r="BH257">
+        <v>2.88</v>
+      </c>
+      <c r="BI257">
+        <v>1.62</v>
+      </c>
+      <c r="BJ257">
+        <v>2.24</v>
+      </c>
+      <c r="BK257">
+        <v>2.04</v>
+      </c>
+      <c r="BL257">
+        <v>1.75</v>
+      </c>
+      <c r="BM257">
+        <v>2.3</v>
+      </c>
+      <c r="BN257">
+        <v>1.58</v>
+      </c>
+      <c r="BO257">
+        <v>3.3</v>
+      </c>
+      <c r="BP257">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1604" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="349">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -721,6 +721,9 @@
     <t>['73']</t>
   </si>
   <si>
+    <t>['17', '63', '86']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -1055,6 +1058,9 @@
   </si>
   <si>
     <t>['43', '54']</t>
+  </si>
+  <si>
+    <t>['25', '51']</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP257"/>
+  <dimension ref="A1:BP258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2165,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ4">
         <v>1.87</v>
@@ -2499,7 +2505,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2911,7 +2917,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3323,7 +3329,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3610,7 +3616,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ11">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3735,7 +3741,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3941,7 +3947,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -4147,7 +4153,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -5177,7 +5183,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5589,7 +5595,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5795,7 +5801,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -6001,7 +6007,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -6207,7 +6213,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6619,7 +6625,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6697,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ26">
         <v>0.87</v>
@@ -7443,7 +7449,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7649,7 +7655,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -8061,7 +8067,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8554,7 +8560,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ35">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AR35">
         <v>1.72</v>
@@ -8679,7 +8685,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -9091,7 +9097,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9297,7 +9303,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9503,7 +9509,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -10121,7 +10127,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10327,7 +10333,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10533,7 +10539,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10820,7 +10826,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ46">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AR46">
         <v>2.1</v>
@@ -11151,7 +11157,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11357,7 +11363,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11769,7 +11775,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11975,7 +11981,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12181,7 +12187,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12593,7 +12599,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12877,7 +12883,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ56">
         <v>1.07</v>
@@ -13005,7 +13011,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13623,7 +13629,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13829,7 +13835,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -14241,7 +14247,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14447,7 +14453,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14653,7 +14659,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -15065,7 +15071,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15477,7 +15483,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -16095,7 +16101,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q72">
         <v>1.8</v>
@@ -16507,7 +16513,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16713,7 +16719,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -17125,7 +17131,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17331,7 +17337,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17743,7 +17749,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -18773,7 +18779,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18979,7 +18985,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19185,7 +19191,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19597,7 +19603,7 @@
         <v>92</v>
       </c>
       <c r="P89" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q89">
         <v>3.6</v>
@@ -19803,7 +19809,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q90">
         <v>3.5</v>
@@ -20090,7 +20096,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ91">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AR91">
         <v>2.39</v>
@@ -21245,7 +21251,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21863,7 +21869,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -22275,7 +22281,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22481,7 +22487,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23305,7 +23311,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23589,7 +23595,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ108">
         <v>0.64</v>
@@ -23717,7 +23723,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24129,7 +24135,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24747,7 +24753,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -25777,7 +25783,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25983,7 +25989,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -26189,7 +26195,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26270,7 +26276,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ121">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AR121">
         <v>0.92</v>
@@ -26807,7 +26813,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -27013,7 +27019,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27219,7 +27225,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27425,7 +27431,7 @@
         <v>94</v>
       </c>
       <c r="P127" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q127">
         <v>3.4</v>
@@ -27837,7 +27843,7 @@
         <v>148</v>
       </c>
       <c r="P129" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q129">
         <v>2.6</v>
@@ -28249,7 +28255,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28867,7 +28873,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -28945,7 +28951,7 @@
         <v>1.71</v>
       </c>
       <c r="AP134">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ134">
         <v>1.36</v>
@@ -29073,7 +29079,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29154,7 +29160,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ135">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AR135">
         <v>1.42</v>
@@ -29279,7 +29285,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29897,7 +29903,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q139">
         <v>3.15</v>
@@ -30309,7 +30315,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -30390,7 +30396,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ141">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AR141">
         <v>1.27</v>
@@ -31133,7 +31139,7 @@
         <v>92</v>
       </c>
       <c r="P145" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31339,7 +31345,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31545,7 +31551,7 @@
         <v>108</v>
       </c>
       <c r="P147" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -32987,7 +32993,7 @@
         <v>128</v>
       </c>
       <c r="P154" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33399,7 +33405,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q156">
         <v>1.91</v>
@@ -33605,7 +33611,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34429,7 +34435,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34635,7 +34641,7 @@
         <v>151</v>
       </c>
       <c r="P162" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -34841,7 +34847,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -34922,7 +34928,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ163">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AR163">
         <v>1.17</v>
@@ -35459,7 +35465,7 @@
         <v>92</v>
       </c>
       <c r="P166" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q166">
         <v>3</v>
@@ -35665,7 +35671,7 @@
         <v>191</v>
       </c>
       <c r="P167" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35871,7 +35877,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
@@ -36077,7 +36083,7 @@
         <v>192</v>
       </c>
       <c r="P169" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -36361,7 +36367,7 @@
         <v>1.63</v>
       </c>
       <c r="AP170">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ170">
         <v>1</v>
@@ -36695,7 +36701,7 @@
         <v>194</v>
       </c>
       <c r="P172" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -37107,7 +37113,7 @@
         <v>92</v>
       </c>
       <c r="P174" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q174">
         <v>4.8</v>
@@ -37391,7 +37397,7 @@
         <v>1.4</v>
       </c>
       <c r="AP175">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ175">
         <v>1.27</v>
@@ -37725,7 +37731,7 @@
         <v>128</v>
       </c>
       <c r="P177" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q177">
         <v>3.25</v>
@@ -38137,7 +38143,7 @@
         <v>118</v>
       </c>
       <c r="P179" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38755,7 +38761,7 @@
         <v>92</v>
       </c>
       <c r="P182" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q182">
         <v>4.33</v>
@@ -38836,7 +38842,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ182">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AR182">
         <v>1.54</v>
@@ -38961,7 +38967,7 @@
         <v>200</v>
       </c>
       <c r="P183" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q183">
         <v>9</v>
@@ -39167,7 +39173,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q184">
         <v>3.4</v>
@@ -39373,7 +39379,7 @@
         <v>108</v>
       </c>
       <c r="P185" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -40197,7 +40203,7 @@
         <v>92</v>
       </c>
       <c r="P189" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q189">
         <v>3.5</v>
@@ -40403,7 +40409,7 @@
         <v>202</v>
       </c>
       <c r="P190" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q190">
         <v>3.8</v>
@@ -40609,7 +40615,7 @@
         <v>92</v>
       </c>
       <c r="P191" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -40690,7 +40696,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ191">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AR191">
         <v>1.41</v>
@@ -42257,7 +42263,7 @@
         <v>171</v>
       </c>
       <c r="P199" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q199">
         <v>3.5</v>
@@ -42463,7 +42469,7 @@
         <v>204</v>
       </c>
       <c r="P200" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q200">
         <v>3.75</v>
@@ -42875,7 +42881,7 @@
         <v>206</v>
       </c>
       <c r="P202" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q202">
         <v>3.2</v>
@@ -43699,7 +43705,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q206">
         <v>4.5</v>
@@ -44111,7 +44117,7 @@
         <v>209</v>
       </c>
       <c r="P208" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q208">
         <v>2.75</v>
@@ -44317,7 +44323,7 @@
         <v>194</v>
       </c>
       <c r="P209" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q209">
         <v>3.5</v>
@@ -44523,7 +44529,7 @@
         <v>179</v>
       </c>
       <c r="P210" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q210">
         <v>7.5</v>
@@ -44729,7 +44735,7 @@
         <v>210</v>
       </c>
       <c r="P211" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q211">
         <v>3.75</v>
@@ -44935,7 +44941,7 @@
         <v>94</v>
       </c>
       <c r="P212" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q212">
         <v>3.4</v>
@@ -45141,7 +45147,7 @@
         <v>211</v>
       </c>
       <c r="P213" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q213">
         <v>2.78</v>
@@ -45347,7 +45353,7 @@
         <v>212</v>
       </c>
       <c r="P214" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q214">
         <v>3.2</v>
@@ -45553,7 +45559,7 @@
         <v>213</v>
       </c>
       <c r="P215" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q215">
         <v>2.2</v>
@@ -45759,7 +45765,7 @@
         <v>92</v>
       </c>
       <c r="P216" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q216">
         <v>7</v>
@@ -45965,7 +45971,7 @@
         <v>214</v>
       </c>
       <c r="P217" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q217">
         <v>2.88</v>
@@ -46171,7 +46177,7 @@
         <v>92</v>
       </c>
       <c r="P218" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q218">
         <v>7.5</v>
@@ -46252,7 +46258,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ218">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AR218">
         <v>1.27</v>
@@ -46377,7 +46383,7 @@
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q219">
         <v>3.1</v>
@@ -46789,7 +46795,7 @@
         <v>216</v>
       </c>
       <c r="P221" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q221">
         <v>0</v>
@@ -46995,7 +47001,7 @@
         <v>217</v>
       </c>
       <c r="P222" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q222">
         <v>3.4</v>
@@ -47613,7 +47619,7 @@
         <v>92</v>
       </c>
       <c r="P225" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q225">
         <v>3</v>
@@ -47819,7 +47825,7 @@
         <v>218</v>
       </c>
       <c r="P226" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q226">
         <v>1.9</v>
@@ -48721,7 +48727,7 @@
         <v>1.4</v>
       </c>
       <c r="AP230">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ230">
         <v>1.38</v>
@@ -48849,7 +48855,7 @@
         <v>92</v>
       </c>
       <c r="P231" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q231">
         <v>4.75</v>
@@ -49055,7 +49061,7 @@
         <v>221</v>
       </c>
       <c r="P232" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q232">
         <v>2.63</v>
@@ -49467,7 +49473,7 @@
         <v>222</v>
       </c>
       <c r="P234" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q234">
         <v>3.6</v>
@@ -49673,7 +49679,7 @@
         <v>223</v>
       </c>
       <c r="P235" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q235">
         <v>5</v>
@@ -49754,7 +49760,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ235">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AR235">
         <v>1.55</v>
@@ -49879,7 +49885,7 @@
         <v>224</v>
       </c>
       <c r="P236" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q236">
         <v>1.62</v>
@@ -49957,7 +49963,7 @@
         <v>0.86</v>
       </c>
       <c r="AP236">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ236">
         <v>0.8</v>
@@ -50291,7 +50297,7 @@
         <v>222</v>
       </c>
       <c r="P238" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q238">
         <v>2.38</v>
@@ -50497,7 +50503,7 @@
         <v>225</v>
       </c>
       <c r="P239" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q239">
         <v>2.5</v>
@@ -50909,7 +50915,7 @@
         <v>92</v>
       </c>
       <c r="P241" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q241">
         <v>7.5</v>
@@ -51115,7 +51121,7 @@
         <v>227</v>
       </c>
       <c r="P242" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q242">
         <v>2.4</v>
@@ -52223,7 +52229,7 @@
         <v>0.29</v>
       </c>
       <c r="AP247">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ247">
         <v>0.25</v>
@@ -52763,7 +52769,7 @@
         <v>92</v>
       </c>
       <c r="P250" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q250">
         <v>5</v>
@@ -52969,7 +52975,7 @@
         <v>231</v>
       </c>
       <c r="P251" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q251">
         <v>2.1</v>
@@ -53587,7 +53593,7 @@
         <v>92</v>
       </c>
       <c r="P254" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q254">
         <v>6.5</v>
@@ -53668,7 +53674,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ254">
-        <v>2.62</v>
+        <v>2.43</v>
       </c>
       <c r="AR254">
         <v>1.39</v>
@@ -53871,7 +53877,7 @@
         <v>1.07</v>
       </c>
       <c r="AP255">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AQ255">
         <v>1</v>
@@ -53999,7 +54005,7 @@
         <v>234</v>
       </c>
       <c r="P256" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q256">
         <v>4.75</v>
@@ -54205,7 +54211,7 @@
         <v>174</v>
       </c>
       <c r="P257" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q257">
         <v>5.5</v>
@@ -54362,6 +54368,212 @@
       </c>
       <c r="BP257">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="258" spans="1:68">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258">
+        <v>7217715</v>
+      </c>
+      <c r="C258" t="s">
+        <v>68</v>
+      </c>
+      <c r="D258" t="s">
+        <v>69</v>
+      </c>
+      <c r="E258" s="2">
+        <v>45485.625</v>
+      </c>
+      <c r="F258">
+        <v>14</v>
+      </c>
+      <c r="G258" t="s">
+        <v>72</v>
+      </c>
+      <c r="H258" t="s">
+        <v>78</v>
+      </c>
+      <c r="I258">
+        <v>1</v>
+      </c>
+      <c r="J258">
+        <v>1</v>
+      </c>
+      <c r="K258">
+        <v>2</v>
+      </c>
+      <c r="L258">
+        <v>3</v>
+      </c>
+      <c r="M258">
+        <v>2</v>
+      </c>
+      <c r="N258">
+        <v>5</v>
+      </c>
+      <c r="O258" t="s">
+        <v>235</v>
+      </c>
+      <c r="P258" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q258">
+        <v>2.75</v>
+      </c>
+      <c r="R258">
+        <v>2.1</v>
+      </c>
+      <c r="S258">
+        <v>3.75</v>
+      </c>
+      <c r="T258">
+        <v>1.42</v>
+      </c>
+      <c r="U258">
+        <v>2.73</v>
+      </c>
+      <c r="V258">
+        <v>2.94</v>
+      </c>
+      <c r="W258">
+        <v>1.37</v>
+      </c>
+      <c r="X258">
+        <v>7.4</v>
+      </c>
+      <c r="Y258">
+        <v>1.07</v>
+      </c>
+      <c r="Z258">
+        <v>2.1</v>
+      </c>
+      <c r="AA258">
+        <v>2.9</v>
+      </c>
+      <c r="AB258">
+        <v>3.7</v>
+      </c>
+      <c r="AC258">
+        <v>1.02</v>
+      </c>
+      <c r="AD258">
+        <v>8.6</v>
+      </c>
+      <c r="AE258">
+        <v>1.32</v>
+      </c>
+      <c r="AF258">
+        <v>3.31</v>
+      </c>
+      <c r="AG258">
+        <v>2.05</v>
+      </c>
+      <c r="AH258">
+        <v>1.75</v>
+      </c>
+      <c r="AI258">
+        <v>1.8</v>
+      </c>
+      <c r="AJ258">
+        <v>1.91</v>
+      </c>
+      <c r="AK258">
+        <v>1.33</v>
+      </c>
+      <c r="AL258">
+        <v>1.28</v>
+      </c>
+      <c r="AM258">
+        <v>1.59</v>
+      </c>
+      <c r="AN258">
+        <v>2.64</v>
+      </c>
+      <c r="AO258">
+        <v>2.62</v>
+      </c>
+      <c r="AP258">
+        <v>2.67</v>
+      </c>
+      <c r="AQ258">
+        <v>2.43</v>
+      </c>
+      <c r="AR258">
+        <v>1.63</v>
+      </c>
+      <c r="AS258">
+        <v>1.67</v>
+      </c>
+      <c r="AT258">
+        <v>3.3</v>
+      </c>
+      <c r="AU258">
+        <v>4</v>
+      </c>
+      <c r="AV258">
+        <v>4</v>
+      </c>
+      <c r="AW258">
+        <v>4</v>
+      </c>
+      <c r="AX258">
+        <v>1</v>
+      </c>
+      <c r="AY258">
+        <v>8</v>
+      </c>
+      <c r="AZ258">
+        <v>5</v>
+      </c>
+      <c r="BA258">
+        <v>3</v>
+      </c>
+      <c r="BB258">
+        <v>4</v>
+      </c>
+      <c r="BC258">
+        <v>7</v>
+      </c>
+      <c r="BD258">
+        <v>1.51</v>
+      </c>
+      <c r="BE258">
+        <v>6.75</v>
+      </c>
+      <c r="BF258">
+        <v>3.25</v>
+      </c>
+      <c r="BG258">
+        <v>1.28</v>
+      </c>
+      <c r="BH258">
+        <v>3.2</v>
+      </c>
+      <c r="BI258">
+        <v>1.52</v>
+      </c>
+      <c r="BJ258">
+        <v>2.3</v>
+      </c>
+      <c r="BK258">
+        <v>1.88</v>
+      </c>
+      <c r="BL258">
+        <v>1.78</v>
+      </c>
+      <c r="BM258">
+        <v>2.48</v>
+      </c>
+      <c r="BN258">
+        <v>1.45</v>
+      </c>
+      <c r="BO258">
+        <v>3.42</v>
+      </c>
+      <c r="BP258">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -54513,16 +54513,16 @@
         <v>4</v>
       </c>
       <c r="AV258">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW258">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX258">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY258">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ258">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1610" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="350">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -724,6 +724,9 @@
     <t>['17', '63', '86']</t>
   </si>
   <si>
+    <t>['22']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -979,9 +982,6 @@
     <t>['51', '75']</t>
   </si>
   <si>
-    <t>['22']</t>
-  </si>
-  <si>
     <t>['5', '45+2']</t>
   </si>
   <si>
@@ -1061,6 +1061,9 @@
   </si>
   <si>
     <t>['25', '51']</t>
+  </si>
+  <si>
+    <t>['28', '56']</t>
   </si>
 </sst>
 </file>
@@ -1422,7 +1425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP258"/>
+  <dimension ref="A1:BP259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2505,7 +2508,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2917,7 +2920,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3329,7 +3332,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3613,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ11">
         <v>2.43</v>
@@ -3741,7 +3744,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3947,7 +3950,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -4028,7 +4031,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ13">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4153,7 +4156,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -5183,7 +5186,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5595,7 +5598,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5801,7 +5804,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -6007,7 +6010,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -6213,7 +6216,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6291,7 +6294,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ24">
         <v>1.38</v>
@@ -6625,7 +6628,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -7449,7 +7452,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7655,7 +7658,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7736,7 +7739,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ31">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR31">
         <v>1.53</v>
@@ -8067,7 +8070,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8685,7 +8688,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -9097,7 +9100,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9303,7 +9306,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9509,7 +9512,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9590,7 +9593,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ40">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR40">
         <v>1.93</v>
@@ -10127,7 +10130,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10205,7 +10208,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ43">
         <v>1.93</v>
@@ -10333,7 +10336,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10539,7 +10542,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -11157,7 +11160,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11363,7 +11366,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11775,7 +11778,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11981,7 +11984,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12187,7 +12190,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12599,7 +12602,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12886,7 +12889,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ56">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR56">
         <v>1.78</v>
@@ -13011,7 +13014,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13629,7 +13632,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13835,7 +13838,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -14247,7 +14250,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14325,7 +14328,7 @@
         <v>0.33</v>
       </c>
       <c r="AP63">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ63">
         <v>1.07</v>
@@ -14453,7 +14456,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14659,7 +14662,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -15071,7 +15074,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15483,7 +15486,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15561,7 +15564,7 @@
         <v>1.5</v>
       </c>
       <c r="AP69">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ69">
         <v>1</v>
@@ -16101,7 +16104,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q72">
         <v>1.8</v>
@@ -16388,7 +16391,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ73">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR73">
         <v>0.83</v>
@@ -16513,7 +16516,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16719,7 +16722,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -17131,7 +17134,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17337,7 +17340,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17749,7 +17752,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -18239,7 +18242,7 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ82">
         <v>0.93</v>
@@ -18779,7 +18782,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18985,7 +18988,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19191,7 +19194,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19603,7 +19606,7 @@
         <v>92</v>
       </c>
       <c r="P89" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q89">
         <v>3.6</v>
@@ -19809,7 +19812,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q90">
         <v>3.5</v>
@@ -20714,7 +20717,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ94">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR94">
         <v>1.11</v>
@@ -20917,7 +20920,7 @@
         <v>1.83</v>
       </c>
       <c r="AP95">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ95">
         <v>1.77</v>
@@ -21251,7 +21254,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21869,7 +21872,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -22281,7 +22284,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22487,7 +22490,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23311,7 +23314,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23723,7 +23726,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24135,7 +24138,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24753,7 +24756,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -25246,7 +25249,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ116">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR116">
         <v>1.36</v>
@@ -25783,7 +25786,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25989,7 +25992,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -26195,7 +26198,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26813,7 +26816,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -27019,7 +27022,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27097,7 +27100,7 @@
         <v>2.33</v>
       </c>
       <c r="AP125">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ125">
         <v>2.33</v>
@@ -27225,7 +27228,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27431,7 +27434,7 @@
         <v>94</v>
       </c>
       <c r="P127" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q127">
         <v>3.4</v>
@@ -27718,7 +27721,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ128">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR128">
         <v>1.4</v>
@@ -27843,7 +27846,7 @@
         <v>148</v>
       </c>
       <c r="P129" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q129">
         <v>2.6</v>
@@ -28127,7 +28130,7 @@
         <v>0.29</v>
       </c>
       <c r="AP130">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ130">
         <v>0.25</v>
@@ -28255,7 +28258,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28873,7 +28876,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -29079,7 +29082,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29285,7 +29288,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29903,7 +29906,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q139">
         <v>3.15</v>
@@ -30315,7 +30318,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -30808,7 +30811,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ143">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR143">
         <v>1.38</v>
@@ -31139,7 +31142,7 @@
         <v>92</v>
       </c>
       <c r="P145" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31217,7 +31220,7 @@
         <v>1.25</v>
       </c>
       <c r="AP145">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ145">
         <v>1</v>
@@ -31345,7 +31348,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31551,7 +31554,7 @@
         <v>108</v>
       </c>
       <c r="P147" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -32993,7 +32996,7 @@
         <v>128</v>
       </c>
       <c r="P154" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33405,7 +33408,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q156">
         <v>1.91</v>
@@ -33611,7 +33614,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34310,7 +34313,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ160">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR160">
         <v>1.22</v>
@@ -34435,7 +34438,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34641,7 +34644,7 @@
         <v>151</v>
       </c>
       <c r="P162" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -34847,7 +34850,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -35465,7 +35468,7 @@
         <v>92</v>
       </c>
       <c r="P166" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q166">
         <v>3</v>
@@ -35671,7 +35674,7 @@
         <v>191</v>
       </c>
       <c r="P167" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35877,7 +35880,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
@@ -36083,7 +36086,7 @@
         <v>192</v>
       </c>
       <c r="P169" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -36701,7 +36704,7 @@
         <v>194</v>
       </c>
       <c r="P172" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -36779,7 +36782,7 @@
         <v>1.44</v>
       </c>
       <c r="AP172">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ172">
         <v>1.36</v>
@@ -37113,7 +37116,7 @@
         <v>92</v>
       </c>
       <c r="P174" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q174">
         <v>4.8</v>
@@ -37731,7 +37734,7 @@
         <v>128</v>
       </c>
       <c r="P177" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q177">
         <v>3.25</v>
@@ -38143,7 +38146,7 @@
         <v>118</v>
       </c>
       <c r="P179" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38761,7 +38764,7 @@
         <v>92</v>
       </c>
       <c r="P182" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q182">
         <v>4.33</v>
@@ -38967,7 +38970,7 @@
         <v>200</v>
       </c>
       <c r="P183" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q183">
         <v>9</v>
@@ -39173,7 +39176,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q184">
         <v>3.4</v>
@@ -39254,7 +39257,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ184">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR184">
         <v>1.39</v>
@@ -39379,7 +39382,7 @@
         <v>108</v>
       </c>
       <c r="P185" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -40203,7 +40206,7 @@
         <v>92</v>
       </c>
       <c r="P189" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q189">
         <v>3.5</v>
@@ -40409,7 +40412,7 @@
         <v>202</v>
       </c>
       <c r="P190" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q190">
         <v>3.8</v>
@@ -40487,7 +40490,7 @@
         <v>1.8</v>
       </c>
       <c r="AP190">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ190">
         <v>1.87</v>
@@ -40615,7 +40618,7 @@
         <v>92</v>
       </c>
       <c r="P191" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -42263,7 +42266,7 @@
         <v>171</v>
       </c>
       <c r="P199" t="s">
-        <v>321</v>
+        <v>236</v>
       </c>
       <c r="Q199">
         <v>3.5</v>
@@ -42344,7 +42347,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ199">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR199">
         <v>1.39</v>
@@ -42959,7 +42962,7 @@
         <v>0.82</v>
       </c>
       <c r="AP202">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ202">
         <v>0.87</v>
@@ -43992,7 +43995,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ207">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR207">
         <v>1.92</v>
@@ -44735,7 +44738,7 @@
         <v>210</v>
       </c>
       <c r="P211" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q211">
         <v>3.75</v>
@@ -46383,7 +46386,7 @@
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q219">
         <v>3.1</v>
@@ -47082,7 +47085,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ222">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="AR222">
         <v>1.41</v>
@@ -47825,7 +47828,7 @@
         <v>218</v>
       </c>
       <c r="P226" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q226">
         <v>1.9</v>
@@ -48109,7 +48112,7 @@
         <v>0.75</v>
       </c>
       <c r="AP227">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ227">
         <v>0.64</v>
@@ -49061,7 +49064,7 @@
         <v>221</v>
       </c>
       <c r="P232" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q232">
         <v>2.63</v>
@@ -49885,7 +49888,7 @@
         <v>224</v>
       </c>
       <c r="P236" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q236">
         <v>1.62</v>
@@ -52975,7 +52978,7 @@
         <v>231</v>
       </c>
       <c r="P251" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q251">
         <v>2.1</v>
@@ -54574,6 +54577,212 @@
       </c>
       <c r="BP258">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="259" spans="1:68">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259">
+        <v>7364358</v>
+      </c>
+      <c r="C259" t="s">
+        <v>68</v>
+      </c>
+      <c r="D259" t="s">
+        <v>69</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45486.625</v>
+      </c>
+      <c r="F259">
+        <v>29</v>
+      </c>
+      <c r="G259" t="s">
+        <v>79</v>
+      </c>
+      <c r="H259" t="s">
+        <v>75</v>
+      </c>
+      <c r="I259">
+        <v>1</v>
+      </c>
+      <c r="J259">
+        <v>1</v>
+      </c>
+      <c r="K259">
+        <v>2</v>
+      </c>
+      <c r="L259">
+        <v>1</v>
+      </c>
+      <c r="M259">
+        <v>2</v>
+      </c>
+      <c r="N259">
+        <v>3</v>
+      </c>
+      <c r="O259" t="s">
+        <v>236</v>
+      </c>
+      <c r="P259" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q259">
+        <v>3</v>
+      </c>
+      <c r="R259">
+        <v>2.1</v>
+      </c>
+      <c r="S259">
+        <v>3.4</v>
+      </c>
+      <c r="T259">
+        <v>1.45</v>
+      </c>
+      <c r="U259">
+        <v>2.55</v>
+      </c>
+      <c r="V259">
+        <v>3</v>
+      </c>
+      <c r="W259">
+        <v>1.33</v>
+      </c>
+      <c r="X259">
+        <v>7.4</v>
+      </c>
+      <c r="Y259">
+        <v>1.07</v>
+      </c>
+      <c r="Z259">
+        <v>2.21</v>
+      </c>
+      <c r="AA259">
+        <v>3.15</v>
+      </c>
+      <c r="AB259">
+        <v>2.83</v>
+      </c>
+      <c r="AC259">
+        <v>1.08</v>
+      </c>
+      <c r="AD259">
+        <v>7</v>
+      </c>
+      <c r="AE259">
+        <v>1.38</v>
+      </c>
+      <c r="AF259">
+        <v>2.9</v>
+      </c>
+      <c r="AG259">
+        <v>1.99</v>
+      </c>
+      <c r="AH259">
+        <v>1.81</v>
+      </c>
+      <c r="AI259">
+        <v>1.8</v>
+      </c>
+      <c r="AJ259">
+        <v>1.91</v>
+      </c>
+      <c r="AK259">
+        <v>1.34</v>
+      </c>
+      <c r="AL259">
+        <v>1.3</v>
+      </c>
+      <c r="AM259">
+        <v>1.41</v>
+      </c>
+      <c r="AN259">
+        <v>1.21</v>
+      </c>
+      <c r="AO259">
+        <v>1.07</v>
+      </c>
+      <c r="AP259">
+        <v>1.13</v>
+      </c>
+      <c r="AQ259">
+        <v>1.2</v>
+      </c>
+      <c r="AR259">
+        <v>1.51</v>
+      </c>
+      <c r="AS259">
+        <v>1.37</v>
+      </c>
+      <c r="AT259">
+        <v>2.88</v>
+      </c>
+      <c r="AU259">
+        <v>5</v>
+      </c>
+      <c r="AV259">
+        <v>2</v>
+      </c>
+      <c r="AW259">
+        <v>4</v>
+      </c>
+      <c r="AX259">
+        <v>8</v>
+      </c>
+      <c r="AY259">
+        <v>9</v>
+      </c>
+      <c r="AZ259">
+        <v>10</v>
+      </c>
+      <c r="BA259">
+        <v>2</v>
+      </c>
+      <c r="BB259">
+        <v>2</v>
+      </c>
+      <c r="BC259">
+        <v>4</v>
+      </c>
+      <c r="BD259">
+        <v>1.94</v>
+      </c>
+      <c r="BE259">
+        <v>6.25</v>
+      </c>
+      <c r="BF259">
+        <v>2.26</v>
+      </c>
+      <c r="BG259">
+        <v>1.32</v>
+      </c>
+      <c r="BH259">
+        <v>2.98</v>
+      </c>
+      <c r="BI259">
+        <v>1.65</v>
+      </c>
+      <c r="BJ259">
+        <v>2.22</v>
+      </c>
+      <c r="BK259">
+        <v>2.2</v>
+      </c>
+      <c r="BL259">
+        <v>1.75</v>
+      </c>
+      <c r="BM259">
+        <v>2.67</v>
+      </c>
+      <c r="BN259">
+        <v>1.39</v>
+      </c>
+      <c r="BO259">
+        <v>3.65</v>
+      </c>
+      <c r="BP259">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="350">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1425,7 +1425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP259"/>
+  <dimension ref="A1:BP260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2589,7 +2589,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ6">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ12">
         <v>0.93</v>
@@ -5267,7 +5267,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ19">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR19">
         <v>1.91</v>
@@ -7736,7 +7736,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ31">
         <v>1.2</v>
@@ -10620,7 +10620,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ45">
         <v>1.77</v>
@@ -14125,7 +14125,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ62">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR62">
         <v>0.8100000000000001</v>
@@ -16185,7 +16185,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ72">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR72">
         <v>1.89</v>
@@ -18451,7 +18451,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ83">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR83">
         <v>1.06</v>
@@ -22159,7 +22159,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ101">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR101">
         <v>1.35</v>
@@ -23601,7 +23601,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ108">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR108">
         <v>1.69</v>
@@ -24010,7 +24010,7 @@
         <v>0.2</v>
       </c>
       <c r="AP110">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ110">
         <v>0.25</v>
@@ -24631,7 +24631,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ113">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR113">
         <v>1.4</v>
@@ -29572,7 +29572,7 @@
         <v>1.86</v>
       </c>
       <c r="AP137">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ137">
         <v>1.27</v>
@@ -30602,7 +30602,7 @@
         <v>2</v>
       </c>
       <c r="AP142">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ142">
         <v>2.33</v>
@@ -32871,7 +32871,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ153">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR153">
         <v>1.59</v>
@@ -35340,7 +35340,7 @@
         <v>0.89</v>
       </c>
       <c r="AP165">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ165">
         <v>1.07</v>
@@ -35755,7 +35755,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ167">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR167">
         <v>1.39</v>
@@ -40081,7 +40081,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ188">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR188">
         <v>1.46</v>
@@ -42138,7 +42138,7 @@
         <v>1.73</v>
       </c>
       <c r="AP198">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ198">
         <v>1.93</v>
@@ -43377,7 +43377,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ204">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR204">
         <v>1.41</v>
@@ -45228,7 +45228,7 @@
         <v>1.58</v>
       </c>
       <c r="AP213">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ213">
         <v>1.87</v>
@@ -46670,7 +46670,7 @@
         <v>0.92</v>
       </c>
       <c r="AP220">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ220">
         <v>0.8</v>
@@ -48115,7 +48115,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ227">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR227">
         <v>1.5</v>
@@ -50584,7 +50584,7 @@
         <v>1.17</v>
       </c>
       <c r="AP239">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ239">
         <v>1.07</v>
@@ -51411,7 +51411,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ243">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR243">
         <v>1.21</v>
@@ -53056,7 +53056,7 @@
         <v>0.93</v>
       </c>
       <c r="AP251">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AQ251">
         <v>0.87</v>
@@ -54783,6 +54783,212 @@
       </c>
       <c r="BP259">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="260" spans="1:68">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260">
+        <v>7217744</v>
+      </c>
+      <c r="C260" t="s">
+        <v>68</v>
+      </c>
+      <c r="D260" t="s">
+        <v>69</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45488.625</v>
+      </c>
+      <c r="F260">
+        <v>17</v>
+      </c>
+      <c r="G260" t="s">
+        <v>80</v>
+      </c>
+      <c r="H260" t="s">
+        <v>81</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+      <c r="L260">
+        <v>0</v>
+      </c>
+      <c r="M260">
+        <v>0</v>
+      </c>
+      <c r="N260">
+        <v>0</v>
+      </c>
+      <c r="O260" t="s">
+        <v>92</v>
+      </c>
+      <c r="P260" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q260">
+        <v>1.73</v>
+      </c>
+      <c r="R260">
+        <v>2.4</v>
+      </c>
+      <c r="S260">
+        <v>8</v>
+      </c>
+      <c r="T260">
+        <v>1.3</v>
+      </c>
+      <c r="U260">
+        <v>3.2</v>
+      </c>
+      <c r="V260">
+        <v>2.4</v>
+      </c>
+      <c r="W260">
+        <v>1.5</v>
+      </c>
+      <c r="X260">
+        <v>5.75</v>
+      </c>
+      <c r="Y260">
+        <v>1.12</v>
+      </c>
+      <c r="Z260">
+        <v>1.29</v>
+      </c>
+      <c r="AA260">
+        <v>5</v>
+      </c>
+      <c r="AB260">
+        <v>7.5</v>
+      </c>
+      <c r="AC260">
+        <v>1.03</v>
+      </c>
+      <c r="AD260">
+        <v>10</v>
+      </c>
+      <c r="AE260">
+        <v>1.07</v>
+      </c>
+      <c r="AF260">
+        <v>2.88</v>
+      </c>
+      <c r="AG260">
+        <v>1.75</v>
+      </c>
+      <c r="AH260">
+        <v>2.05</v>
+      </c>
+      <c r="AI260">
+        <v>2.25</v>
+      </c>
+      <c r="AJ260">
+        <v>1.57</v>
+      </c>
+      <c r="AK260">
+        <v>1.03</v>
+      </c>
+      <c r="AL260">
+        <v>1.17</v>
+      </c>
+      <c r="AM260">
+        <v>3.45</v>
+      </c>
+      <c r="AN260">
+        <v>2.17</v>
+      </c>
+      <c r="AO260">
+        <v>0.64</v>
+      </c>
+      <c r="AP260">
+        <v>2.08</v>
+      </c>
+      <c r="AQ260">
+        <v>0.67</v>
+      </c>
+      <c r="AR260">
+        <v>1.67</v>
+      </c>
+      <c r="AS260">
+        <v>1.11</v>
+      </c>
+      <c r="AT260">
+        <v>2.78</v>
+      </c>
+      <c r="AU260">
+        <v>3</v>
+      </c>
+      <c r="AV260">
+        <v>4</v>
+      </c>
+      <c r="AW260">
+        <v>5</v>
+      </c>
+      <c r="AX260">
+        <v>8</v>
+      </c>
+      <c r="AY260">
+        <v>8</v>
+      </c>
+      <c r="AZ260">
+        <v>12</v>
+      </c>
+      <c r="BA260">
+        <v>2</v>
+      </c>
+      <c r="BB260">
+        <v>5</v>
+      </c>
+      <c r="BC260">
+        <v>7</v>
+      </c>
+      <c r="BD260">
+        <v>1.14</v>
+      </c>
+      <c r="BE260">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF260">
+        <v>7.3</v>
+      </c>
+      <c r="BG260">
+        <v>1.28</v>
+      </c>
+      <c r="BH260">
+        <v>3.2</v>
+      </c>
+      <c r="BI260">
+        <v>1.53</v>
+      </c>
+      <c r="BJ260">
+        <v>2.28</v>
+      </c>
+      <c r="BK260">
+        <v>1.91</v>
+      </c>
+      <c r="BL260">
+        <v>1.76</v>
+      </c>
+      <c r="BM260">
+        <v>2.51</v>
+      </c>
+      <c r="BN260">
+        <v>1.44</v>
+      </c>
+      <c r="BO260">
+        <v>3.42</v>
+      </c>
+      <c r="BP260">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="351">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1065,6 +1065,9 @@
   <si>
     <t>['28', '56']</t>
   </si>
+  <si>
+    <t>['45', '63']</t>
+  </si>
 </sst>
 </file>
 
@@ -1425,7 +1428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP260"/>
+  <dimension ref="A1:BP261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4234,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ14">
         <v>0.25</v>
@@ -8560,7 +8563,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ35">
         <v>2.43</v>
@@ -11447,7 +11450,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ49">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR49">
         <v>1.22</v>
@@ -11650,7 +11653,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ50">
         <v>1.36</v>
@@ -12271,7 +12274,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ53">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR53">
         <v>1.61</v>
@@ -12477,7 +12480,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ54">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR54">
         <v>1.42</v>
@@ -13092,7 +13095,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ57">
         <v>1.38</v>
@@ -15770,7 +15773,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ70">
         <v>1.07</v>
@@ -21332,7 +21335,7 @@
         <v>0.83</v>
       </c>
       <c r="AP97">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ97">
         <v>0.93</v>
@@ -25658,7 +25661,7 @@
         <v>1.71</v>
       </c>
       <c r="AP118">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ118">
         <v>1.77</v>
@@ -27103,7 +27106,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ125">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR125">
         <v>1.42</v>
@@ -29781,7 +29784,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ138">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR138">
         <v>1.91</v>
@@ -30605,7 +30608,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ142">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR142">
         <v>1.73</v>
@@ -31838,7 +31841,7 @@
         <v>0.75</v>
       </c>
       <c r="AP148">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ148">
         <v>0.8</v>
@@ -34725,7 +34728,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ162">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR162">
         <v>1.39</v>
@@ -35134,7 +35137,7 @@
         <v>1.44</v>
       </c>
       <c r="AP164">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ164">
         <v>1</v>
@@ -38430,7 +38433,7 @@
         <v>0.8</v>
       </c>
       <c r="AP180">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ180">
         <v>1.07</v>
@@ -39051,7 +39054,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ183">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR183">
         <v>1.28</v>
@@ -43168,7 +43171,7 @@
         <v>1.64</v>
       </c>
       <c r="AP203">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ203">
         <v>1.87</v>
@@ -44198,7 +44201,7 @@
         <v>1.27</v>
       </c>
       <c r="AP208">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ208">
         <v>1</v>
@@ -44613,7 +44616,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ210">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR210">
         <v>1.33</v>
@@ -45849,7 +45852,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ216">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR216">
         <v>1.42</v>
@@ -46879,7 +46882,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ221">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR221">
         <v>0.96</v>
@@ -47494,7 +47497,7 @@
         <v>0.83</v>
       </c>
       <c r="AP224">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ224">
         <v>0.87</v>
@@ -50999,7 +51002,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ241">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AR241">
         <v>1.36</v>
@@ -51408,7 +51411,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP243">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ243">
         <v>0.67</v>
@@ -54989,6 +54992,212 @@
       </c>
       <c r="BP260">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="261" spans="1:68">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261">
+        <v>7217739</v>
+      </c>
+      <c r="C261" t="s">
+        <v>68</v>
+      </c>
+      <c r="D261" t="s">
+        <v>69</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45489.625</v>
+      </c>
+      <c r="F261">
+        <v>17</v>
+      </c>
+      <c r="G261" t="s">
+        <v>82</v>
+      </c>
+      <c r="H261" t="s">
+        <v>72</v>
+      </c>
+      <c r="I261">
+        <v>1</v>
+      </c>
+      <c r="J261">
+        <v>1</v>
+      </c>
+      <c r="K261">
+        <v>2</v>
+      </c>
+      <c r="L261">
+        <v>1</v>
+      </c>
+      <c r="M261">
+        <v>2</v>
+      </c>
+      <c r="N261">
+        <v>3</v>
+      </c>
+      <c r="O261" t="s">
+        <v>194</v>
+      </c>
+      <c r="P261" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q261">
+        <v>6</v>
+      </c>
+      <c r="R261">
+        <v>2.05</v>
+      </c>
+      <c r="S261">
+        <v>2.1</v>
+      </c>
+      <c r="T261">
+        <v>1.44</v>
+      </c>
+      <c r="U261">
+        <v>2.63</v>
+      </c>
+      <c r="V261">
+        <v>3.25</v>
+      </c>
+      <c r="W261">
+        <v>1.33</v>
+      </c>
+      <c r="X261">
+        <v>7.5</v>
+      </c>
+      <c r="Y261">
+        <v>1.07</v>
+      </c>
+      <c r="Z261">
+        <v>5.5</v>
+      </c>
+      <c r="AA261">
+        <v>3.6</v>
+      </c>
+      <c r="AB261">
+        <v>1.53</v>
+      </c>
+      <c r="AC261">
+        <v>1.05</v>
+      </c>
+      <c r="AD261">
+        <v>8.5</v>
+      </c>
+      <c r="AE261">
+        <v>1.33</v>
+      </c>
+      <c r="AF261">
+        <v>3.1</v>
+      </c>
+      <c r="AG261">
+        <v>2.15</v>
+      </c>
+      <c r="AH261">
+        <v>1.67</v>
+      </c>
+      <c r="AI261">
+        <v>2.25</v>
+      </c>
+      <c r="AJ261">
+        <v>1.57</v>
+      </c>
+      <c r="AK261">
+        <v>2.45</v>
+      </c>
+      <c r="AL261">
+        <v>1.18</v>
+      </c>
+      <c r="AM261">
+        <v>1.07</v>
+      </c>
+      <c r="AN261">
+        <v>1.29</v>
+      </c>
+      <c r="AO261">
+        <v>2.33</v>
+      </c>
+      <c r="AP261">
+        <v>1.2</v>
+      </c>
+      <c r="AQ261">
+        <v>2.38</v>
+      </c>
+      <c r="AR261">
+        <v>1.25</v>
+      </c>
+      <c r="AS261">
+        <v>1.76</v>
+      </c>
+      <c r="AT261">
+        <v>3.01</v>
+      </c>
+      <c r="AU261">
+        <v>2</v>
+      </c>
+      <c r="AV261">
+        <v>5</v>
+      </c>
+      <c r="AW261">
+        <v>2</v>
+      </c>
+      <c r="AX261">
+        <v>8</v>
+      </c>
+      <c r="AY261">
+        <v>4</v>
+      </c>
+      <c r="AZ261">
+        <v>13</v>
+      </c>
+      <c r="BA261">
+        <v>0</v>
+      </c>
+      <c r="BB261">
+        <v>9</v>
+      </c>
+      <c r="BC261">
+        <v>9</v>
+      </c>
+      <c r="BD261">
+        <v>4.05</v>
+      </c>
+      <c r="BE261">
+        <v>7.3</v>
+      </c>
+      <c r="BF261">
+        <v>1.36</v>
+      </c>
+      <c r="BG261">
+        <v>1.29</v>
+      </c>
+      <c r="BH261">
+        <v>3.14</v>
+      </c>
+      <c r="BI261">
+        <v>1.54</v>
+      </c>
+      <c r="BJ261">
+        <v>2.25</v>
+      </c>
+      <c r="BK261">
+        <v>2.38</v>
+      </c>
+      <c r="BL261">
+        <v>1.75</v>
+      </c>
+      <c r="BM261">
+        <v>2.54</v>
+      </c>
+      <c r="BN261">
+        <v>1.43</v>
+      </c>
+      <c r="BO261">
+        <v>3.48</v>
+      </c>
+      <c r="BP261">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="355">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -727,6 +727,15 @@
     <t>['22']</t>
   </si>
   <si>
+    <t>['3', '17', '43', '78']</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -812,9 +821,6 @@
   </si>
   <si>
     <t>['39', '45+3']</t>
-  </si>
-  <si>
-    <t>['65']</t>
   </si>
   <si>
     <t>['36', '90+3']</t>
@@ -1067,6 +1073,12 @@
   </si>
   <si>
     <t>['45', '63']</t>
+  </si>
+  <si>
+    <t>['16', '38', '43', '63']</t>
+  </si>
+  <si>
+    <t>['19', '55']</t>
   </si>
 </sst>
 </file>
@@ -1428,7 +1440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP261"/>
+  <dimension ref="A1:BP267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1765,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ2">
         <v>1.07</v>
@@ -2383,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
         <v>1.36</v>
@@ -2511,7 +2523,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2592,7 +2604,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ6">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2923,7 +2935,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3335,7 +3347,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3416,7 +3428,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ10">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3747,7 +3759,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3953,7 +3965,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -4159,7 +4171,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4443,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4652,7 +4664,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ16">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4855,10 +4867,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ17">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5064,7 +5076,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ18">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5189,7 +5201,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5270,7 +5282,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ19">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR19">
         <v>1.91</v>
@@ -5601,7 +5613,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5807,7 +5819,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -6013,7 +6025,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -6091,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
         <v>1.87</v>
@@ -6219,7 +6231,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6300,7 +6312,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ24">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR24">
         <v>0.44</v>
@@ -6503,7 +6515,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ25">
         <v>1.93</v>
@@ -6631,7 +6643,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -7121,7 +7133,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -7327,7 +7339,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ29">
         <v>0.25</v>
@@ -7455,7 +7467,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7536,7 +7548,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ30">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR30">
         <v>1.5</v>
@@ -7661,7 +7673,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7945,7 +7957,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ32">
         <v>1.07</v>
@@ -8073,7 +8085,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8154,7 +8166,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ33">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR33">
         <v>1.31</v>
@@ -8360,7 +8372,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ34">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR34">
         <v>1.17</v>
@@ -8691,7 +8703,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -8975,10 +8987,10 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ37">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR37">
         <v>1.06</v>
@@ -9103,7 +9115,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9309,7 +9321,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9515,7 +9527,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9799,7 +9811,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ41">
         <v>1.07</v>
@@ -10005,7 +10017,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ42">
         <v>0.87</v>
@@ -10133,7 +10145,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10339,7 +10351,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10420,7 +10432,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ44">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR44">
         <v>1.33</v>
@@ -10545,7 +10557,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10626,7 +10638,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ45">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR45">
         <v>1.58</v>
@@ -10829,7 +10841,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ46">
         <v>2.43</v>
@@ -11163,7 +11175,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11244,7 +11256,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ48">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR48">
         <v>1.3</v>
@@ -11369,7 +11381,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11781,7 +11793,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11987,7 +11999,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12065,7 +12077,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ52">
         <v>1.07</v>
@@ -12193,7 +12205,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12271,7 +12283,7 @@
         <v>3</v>
       </c>
       <c r="AP53">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ53">
         <v>2.38</v>
@@ -12605,7 +12617,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -13017,7 +13029,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13098,7 +13110,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ57">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR57">
         <v>1.05</v>
@@ -13304,7 +13316,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ58">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR58">
         <v>1.7</v>
@@ -13507,7 +13519,7 @@
         <v>1.67</v>
       </c>
       <c r="AP59">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -13635,7 +13647,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="Q60">
         <v>3.25</v>
@@ -13841,7 +13853,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -13919,7 +13931,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ61">
         <v>1.87</v>
@@ -14125,10 +14137,10 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ62">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR62">
         <v>0.8100000000000001</v>
@@ -14253,7 +14265,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14459,7 +14471,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14540,7 +14552,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ64">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR64">
         <v>1.58</v>
@@ -14665,7 +14677,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -15077,7 +15089,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15155,7 +15167,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ67">
         <v>1.36</v>
@@ -15489,7 +15501,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15979,10 +15991,10 @@
         <v>1.75</v>
       </c>
       <c r="AP71">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ71">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR71">
         <v>1.39</v>
@@ -16107,7 +16119,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q72">
         <v>1.8</v>
@@ -16188,7 +16200,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ72">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR72">
         <v>1.89</v>
@@ -16391,7 +16403,7 @@
         <v>1.25</v>
       </c>
       <c r="AP73">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ73">
         <v>1.2</v>
@@ -16519,7 +16531,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16600,7 +16612,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ74">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR74">
         <v>1.39</v>
@@ -16725,7 +16737,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16803,7 +16815,7 @@
         <v>0.5</v>
       </c>
       <c r="AP75">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ75">
         <v>0.93</v>
@@ -17009,7 +17021,7 @@
         <v>0.25</v>
       </c>
       <c r="AP76">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ76">
         <v>0.87</v>
@@ -17137,7 +17149,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17343,7 +17355,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17630,7 +17642,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ79">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR79">
         <v>1.49</v>
@@ -17755,7 +17767,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -18451,10 +18463,10 @@
         <v>1.5</v>
       </c>
       <c r="AP83">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ83">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR83">
         <v>1.06</v>
@@ -18657,10 +18669,10 @@
         <v>2.2</v>
       </c>
       <c r="AP84">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ84">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR84">
         <v>1.49</v>
@@ -18785,7 +18797,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18863,10 +18875,10 @@
         <v>1.33</v>
       </c>
       <c r="AP85">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ85">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR85">
         <v>0.83</v>
@@ -18991,7 +19003,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19069,7 +19081,7 @@
         <v>0.2</v>
       </c>
       <c r="AP86">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ86">
         <v>0.87</v>
@@ -19197,7 +19209,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19609,7 +19621,7 @@
         <v>92</v>
       </c>
       <c r="P89" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q89">
         <v>3.6</v>
@@ -19815,7 +19827,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q90">
         <v>3.5</v>
@@ -20717,7 +20729,7 @@
         <v>1.2</v>
       </c>
       <c r="AP94">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ94">
         <v>1.2</v>
@@ -20926,7 +20938,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ95">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR95">
         <v>1.2</v>
@@ -21132,7 +21144,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ96">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR96">
         <v>2.02</v>
@@ -21257,7 +21269,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21544,7 +21556,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ98">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR98">
         <v>1.43</v>
@@ -21747,7 +21759,7 @@
         <v>1.8</v>
       </c>
       <c r="AP99">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ99">
         <v>1</v>
@@ -21875,7 +21887,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -21953,10 +21965,10 @@
         <v>0.6</v>
       </c>
       <c r="AP100">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ100">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR100">
         <v>0.96</v>
@@ -22159,10 +22171,10 @@
         <v>1.2</v>
       </c>
       <c r="AP101">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ101">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR101">
         <v>1.35</v>
@@ -22287,7 +22299,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22493,7 +22505,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23317,7 +23329,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23604,7 +23616,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ108">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR108">
         <v>1.69</v>
@@ -23729,7 +23741,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24141,7 +24153,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24425,7 +24437,7 @@
         <v>0.86</v>
       </c>
       <c r="AP112">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ112">
         <v>0.93</v>
@@ -24634,7 +24646,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ113">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR113">
         <v>1.4</v>
@@ -24759,7 +24771,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -24837,10 +24849,10 @@
         <v>1.4</v>
       </c>
       <c r="AP114">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ114">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR114">
         <v>1.07</v>
@@ -25043,7 +25055,7 @@
         <v>0.17</v>
       </c>
       <c r="AP115">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ115">
         <v>0.25</v>
@@ -25249,7 +25261,7 @@
         <v>1.17</v>
       </c>
       <c r="AP116">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ116">
         <v>1.2</v>
@@ -25458,7 +25470,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ117">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR117">
         <v>2.07</v>
@@ -25664,7 +25676,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ118">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR118">
         <v>1.16</v>
@@ -25789,7 +25801,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25995,7 +26007,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -26201,7 +26213,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26279,7 +26291,7 @@
         <v>1.75</v>
       </c>
       <c r="AP121">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ121">
         <v>2.43</v>
@@ -26819,7 +26831,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -27025,7 +27037,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27231,7 +27243,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27312,7 +27324,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ126">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR126">
         <v>1.36</v>
@@ -27437,7 +27449,7 @@
         <v>94</v>
       </c>
       <c r="P127" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q127">
         <v>3.4</v>
@@ -27849,7 +27861,7 @@
         <v>148</v>
       </c>
       <c r="P129" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q129">
         <v>2.6</v>
@@ -27927,10 +27939,10 @@
         <v>1.63</v>
       </c>
       <c r="AP129">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ129">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR129">
         <v>1.82</v>
@@ -28261,7 +28273,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28339,10 +28351,10 @@
         <v>1.67</v>
       </c>
       <c r="AP131">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ131">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR131">
         <v>1.35</v>
@@ -28545,10 +28557,10 @@
         <v>0.71</v>
       </c>
       <c r="AP132">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ132">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR132">
         <v>1.11</v>
@@ -28879,7 +28891,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -29085,7 +29097,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29291,7 +29303,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29369,7 +29381,7 @@
         <v>1.83</v>
       </c>
       <c r="AP136">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ136">
         <v>1.93</v>
@@ -29578,7 +29590,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ137">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR137">
         <v>1.74</v>
@@ -29909,7 +29921,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q139">
         <v>3.15</v>
@@ -29987,7 +29999,7 @@
         <v>1.57</v>
       </c>
       <c r="AP139">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ139">
         <v>1.87</v>
@@ -30321,7 +30333,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -31017,7 +31029,7 @@
         <v>0.25</v>
       </c>
       <c r="AP144">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ144">
         <v>0.25</v>
@@ -31145,7 +31157,7 @@
         <v>92</v>
       </c>
       <c r="P145" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31351,7 +31363,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31429,10 +31441,10 @@
         <v>1.63</v>
       </c>
       <c r="AP146">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ146">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR146">
         <v>1.68</v>
@@ -31557,7 +31569,7 @@
         <v>108</v>
       </c>
       <c r="P147" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31638,7 +31650,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ147">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR147">
         <v>1.4</v>
@@ -31844,7 +31856,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ148">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR148">
         <v>1.15</v>
@@ -32665,7 +32677,7 @@
         <v>1.88</v>
       </c>
       <c r="AP152">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ152">
         <v>1.93</v>
@@ -32874,7 +32886,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ153">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR153">
         <v>1.59</v>
@@ -32999,7 +33011,7 @@
         <v>128</v>
       </c>
       <c r="P154" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33283,7 +33295,7 @@
         <v>1.63</v>
       </c>
       <c r="AP155">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ155">
         <v>1.36</v>
@@ -33411,7 +33423,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q156">
         <v>1.91</v>
@@ -33617,7 +33629,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33698,7 +33710,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ157">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR157">
         <v>1.29</v>
@@ -33904,7 +33916,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ158">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR158">
         <v>1.34</v>
@@ -34107,7 +34119,7 @@
         <v>0.33</v>
       </c>
       <c r="AP159">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ159">
         <v>0.25</v>
@@ -34441,7 +34453,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34519,10 +34531,10 @@
         <v>0.67</v>
       </c>
       <c r="AP161">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ161">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR161">
         <v>1.63</v>
@@ -34647,7 +34659,7 @@
         <v>151</v>
       </c>
       <c r="P162" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -34853,7 +34865,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -34931,7 +34943,7 @@
         <v>2.29</v>
       </c>
       <c r="AP163">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ163">
         <v>2.43</v>
@@ -35471,7 +35483,7 @@
         <v>92</v>
       </c>
       <c r="P166" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q166">
         <v>3</v>
@@ -35677,7 +35689,7 @@
         <v>191</v>
       </c>
       <c r="P167" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35758,7 +35770,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ167">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR167">
         <v>1.39</v>
@@ -35883,7 +35895,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
@@ -36089,7 +36101,7 @@
         <v>192</v>
       </c>
       <c r="P169" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -36167,7 +36179,7 @@
         <v>1</v>
       </c>
       <c r="AP169">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ169">
         <v>1.07</v>
@@ -36582,7 +36594,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ171">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR171">
         <v>1.57</v>
@@ -36707,7 +36719,7 @@
         <v>194</v>
       </c>
       <c r="P172" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -37119,7 +37131,7 @@
         <v>92</v>
       </c>
       <c r="P174" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q174">
         <v>4.8</v>
@@ -37197,7 +37209,7 @@
         <v>1.67</v>
       </c>
       <c r="AP174">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ174">
         <v>1.87</v>
@@ -37406,7 +37418,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ175">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR175">
         <v>1.72</v>
@@ -37737,7 +37749,7 @@
         <v>128</v>
       </c>
       <c r="P177" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q177">
         <v>3.25</v>
@@ -37818,7 +37830,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ177">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR177">
         <v>1.5</v>
@@ -38021,7 +38033,7 @@
         <v>1.4</v>
       </c>
       <c r="AP178">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ178">
         <v>1</v>
@@ -38149,7 +38161,7 @@
         <v>118</v>
       </c>
       <c r="P179" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38230,7 +38242,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ179">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR179">
         <v>1.36</v>
@@ -38642,7 +38654,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ181">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR181">
         <v>1.23</v>
@@ -38767,7 +38779,7 @@
         <v>92</v>
       </c>
       <c r="P182" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q182">
         <v>4.33</v>
@@ -38845,7 +38857,7 @@
         <v>2.38</v>
       </c>
       <c r="AP182">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ182">
         <v>2.43</v>
@@ -38973,7 +38985,7 @@
         <v>200</v>
       </c>
       <c r="P183" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q183">
         <v>9</v>
@@ -39179,7 +39191,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q184">
         <v>3.4</v>
@@ -39385,7 +39397,7 @@
         <v>108</v>
       </c>
       <c r="P185" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -39463,7 +39475,7 @@
         <v>0.8</v>
       </c>
       <c r="AP185">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ185">
         <v>0.87</v>
@@ -39669,7 +39681,7 @@
         <v>1.44</v>
       </c>
       <c r="AP186">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ186">
         <v>1</v>
@@ -40084,7 +40096,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ188">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR188">
         <v>1.46</v>
@@ -40209,7 +40221,7 @@
         <v>92</v>
       </c>
       <c r="P189" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q189">
         <v>3.5</v>
@@ -40287,7 +40299,7 @@
         <v>1.6</v>
       </c>
       <c r="AP189">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ189">
         <v>1.93</v>
@@ -40415,7 +40427,7 @@
         <v>202</v>
       </c>
       <c r="P190" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q190">
         <v>3.8</v>
@@ -40621,7 +40633,7 @@
         <v>92</v>
       </c>
       <c r="P191" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -40905,7 +40917,7 @@
         <v>1.6</v>
       </c>
       <c r="AP192">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ192">
         <v>1.36</v>
@@ -41114,7 +41126,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ193">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR193">
         <v>1.69</v>
@@ -41320,7 +41332,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ194">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR194">
         <v>1.2</v>
@@ -41935,7 +41947,7 @@
         <v>0.82</v>
       </c>
       <c r="AP197">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ197">
         <v>1.07</v>
@@ -42475,7 +42487,7 @@
         <v>204</v>
       </c>
       <c r="P200" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q200">
         <v>3.75</v>
@@ -42553,7 +42565,7 @@
         <v>1.1</v>
       </c>
       <c r="AP200">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ200">
         <v>1.07</v>
@@ -42759,7 +42771,7 @@
         <v>1.09</v>
       </c>
       <c r="AP201">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ201">
         <v>0.93</v>
@@ -42887,7 +42899,7 @@
         <v>206</v>
       </c>
       <c r="P202" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q202">
         <v>3.2</v>
@@ -43377,10 +43389,10 @@
         <v>0.82</v>
       </c>
       <c r="AP204">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ204">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR204">
         <v>1.41</v>
@@ -43711,7 +43723,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q206">
         <v>4.5</v>
@@ -43792,7 +43804,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ206">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR206">
         <v>1.4</v>
@@ -44123,7 +44135,7 @@
         <v>209</v>
       </c>
       <c r="P208" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q208">
         <v>2.75</v>
@@ -44329,7 +44341,7 @@
         <v>194</v>
       </c>
       <c r="P209" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q209">
         <v>3.5</v>
@@ -44407,10 +44419,10 @@
         <v>1.22</v>
       </c>
       <c r="AP209">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ209">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR209">
         <v>1.55</v>
@@ -44535,7 +44547,7 @@
         <v>179</v>
       </c>
       <c r="P210" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q210">
         <v>7.5</v>
@@ -44741,7 +44753,7 @@
         <v>210</v>
       </c>
       <c r="P211" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q211">
         <v>3.75</v>
@@ -44947,7 +44959,7 @@
         <v>94</v>
       </c>
       <c r="P212" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q212">
         <v>3.4</v>
@@ -45153,7 +45165,7 @@
         <v>211</v>
       </c>
       <c r="P213" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q213">
         <v>2.78</v>
@@ -45359,7 +45371,7 @@
         <v>212</v>
       </c>
       <c r="P214" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q214">
         <v>3.2</v>
@@ -45565,7 +45577,7 @@
         <v>213</v>
       </c>
       <c r="P215" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q215">
         <v>2.2</v>
@@ -45771,7 +45783,7 @@
         <v>92</v>
       </c>
       <c r="P216" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q216">
         <v>7</v>
@@ -45977,7 +45989,7 @@
         <v>214</v>
       </c>
       <c r="P217" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q217">
         <v>2.88</v>
@@ -46058,7 +46070,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ217">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR217">
         <v>1.64</v>
@@ -46183,7 +46195,7 @@
         <v>92</v>
       </c>
       <c r="P218" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q218">
         <v>7.5</v>
@@ -46389,7 +46401,7 @@
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q219">
         <v>3.1</v>
@@ -46467,7 +46479,7 @@
         <v>1.67</v>
       </c>
       <c r="AP219">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ219">
         <v>1.93</v>
@@ -46676,7 +46688,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ220">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR220">
         <v>1.69</v>
@@ -46801,7 +46813,7 @@
         <v>216</v>
       </c>
       <c r="P221" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q221">
         <v>0</v>
@@ -46879,7 +46891,7 @@
         <v>2.2</v>
       </c>
       <c r="AP221">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ221">
         <v>2.38</v>
@@ -47007,7 +47019,7 @@
         <v>217</v>
       </c>
       <c r="P222" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q222">
         <v>3.4</v>
@@ -47085,7 +47097,7 @@
         <v>1.08</v>
       </c>
       <c r="AP222">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ222">
         <v>1.2</v>
@@ -47291,7 +47303,7 @@
         <v>1.17</v>
       </c>
       <c r="AP223">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ223">
         <v>1</v>
@@ -47625,7 +47637,7 @@
         <v>92</v>
       </c>
       <c r="P225" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q225">
         <v>3</v>
@@ -47703,7 +47715,7 @@
         <v>1</v>
       </c>
       <c r="AP225">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ225">
         <v>1.07</v>
@@ -47831,7 +47843,7 @@
         <v>218</v>
       </c>
       <c r="P226" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q226">
         <v>1.9</v>
@@ -48118,7 +48130,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ227">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR227">
         <v>1.5</v>
@@ -48321,10 +48333,10 @@
         <v>1.92</v>
       </c>
       <c r="AP228">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ228">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AR228">
         <v>0.96</v>
@@ -48530,7 +48542,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ229">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR229">
         <v>1.33</v>
@@ -48736,7 +48748,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ230">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR230">
         <v>1.73</v>
@@ -48861,7 +48873,7 @@
         <v>92</v>
       </c>
       <c r="P231" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q231">
         <v>4.75</v>
@@ -49067,7 +49079,7 @@
         <v>221</v>
       </c>
       <c r="P232" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q232">
         <v>2.63</v>
@@ -49479,7 +49491,7 @@
         <v>222</v>
       </c>
       <c r="P234" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q234">
         <v>3.6</v>
@@ -49685,7 +49697,7 @@
         <v>223</v>
       </c>
       <c r="P235" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q235">
         <v>5</v>
@@ -49891,7 +49903,7 @@
         <v>224</v>
       </c>
       <c r="P236" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q236">
         <v>1.62</v>
@@ -49972,7 +49984,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ236">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR236">
         <v>1.73</v>
@@ -50303,7 +50315,7 @@
         <v>222</v>
       </c>
       <c r="P238" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q238">
         <v>2.38</v>
@@ -50509,7 +50521,7 @@
         <v>225</v>
       </c>
       <c r="P239" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q239">
         <v>2.5</v>
@@ -50793,7 +50805,7 @@
         <v>1.08</v>
       </c>
       <c r="AP240">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AQ240">
         <v>1</v>
@@ -50921,7 +50933,7 @@
         <v>92</v>
       </c>
       <c r="P241" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q241">
         <v>7.5</v>
@@ -50999,7 +51011,7 @@
         <v>2.27</v>
       </c>
       <c r="AP241">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ241">
         <v>2.38</v>
@@ -51127,7 +51139,7 @@
         <v>227</v>
       </c>
       <c r="P242" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q242">
         <v>2.4</v>
@@ -51205,7 +51217,7 @@
         <v>0.92</v>
       </c>
       <c r="AP242">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AQ242">
         <v>0.93</v>
@@ -51414,7 +51426,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ243">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR243">
         <v>1.21</v>
@@ -51617,7 +51629,7 @@
         <v>1</v>
       </c>
       <c r="AP244">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ244">
         <v>0.87</v>
@@ -51826,7 +51838,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ245">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR245">
         <v>1.31</v>
@@ -52029,10 +52041,10 @@
         <v>1.29</v>
       </c>
       <c r="AP246">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ246">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AR246">
         <v>1.33</v>
@@ -52775,7 +52787,7 @@
         <v>92</v>
       </c>
       <c r="P250" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q250">
         <v>5</v>
@@ -52981,7 +52993,7 @@
         <v>231</v>
       </c>
       <c r="P251" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q251">
         <v>2.1</v>
@@ -53599,7 +53611,7 @@
         <v>92</v>
       </c>
       <c r="P254" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q254">
         <v>6.5</v>
@@ -54011,7 +54023,7 @@
         <v>234</v>
       </c>
       <c r="P256" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q256">
         <v>4.75</v>
@@ -54217,7 +54229,7 @@
         <v>174</v>
       </c>
       <c r="P257" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q257">
         <v>5.5</v>
@@ -54295,10 +54307,10 @@
         <v>1.25</v>
       </c>
       <c r="AP257">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AQ257">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR257">
         <v>1.29</v>
@@ -54423,7 +54435,7 @@
         <v>235</v>
       </c>
       <c r="P258" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q258">
         <v>2.75</v>
@@ -54629,7 +54641,7 @@
         <v>236</v>
       </c>
       <c r="P259" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q259">
         <v>3</v>
@@ -54916,7 +54928,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ260">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR260">
         <v>1.67</v>
@@ -55041,7 +55053,7 @@
         <v>194</v>
       </c>
       <c r="P261" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q261">
         <v>6</v>
@@ -55197,6 +55209,1242 @@
         <v>3.48</v>
       </c>
       <c r="BP261">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="262" spans="1:68">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262">
+        <v>7476121</v>
+      </c>
+      <c r="C262" t="s">
+        <v>68</v>
+      </c>
+      <c r="D262" t="s">
+        <v>69</v>
+      </c>
+      <c r="E262" s="2">
+        <v>45493.47916666666</v>
+      </c>
+      <c r="F262">
+        <v>31</v>
+      </c>
+      <c r="G262" t="s">
+        <v>70</v>
+      </c>
+      <c r="H262" t="s">
+        <v>76</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+      <c r="L262">
+        <v>0</v>
+      </c>
+      <c r="M262">
+        <v>0</v>
+      </c>
+      <c r="N262">
+        <v>0</v>
+      </c>
+      <c r="O262" t="s">
+        <v>92</v>
+      </c>
+      <c r="P262" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q262">
+        <v>3.1</v>
+      </c>
+      <c r="R262">
+        <v>1.91</v>
+      </c>
+      <c r="S262">
+        <v>3.75</v>
+      </c>
+      <c r="T262">
+        <v>1.55</v>
+      </c>
+      <c r="U262">
+        <v>2.3</v>
+      </c>
+      <c r="V262">
+        <v>3.4</v>
+      </c>
+      <c r="W262">
+        <v>1.28</v>
+      </c>
+      <c r="X262">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Y262">
+        <v>1.03</v>
+      </c>
+      <c r="Z262">
+        <v>2.95</v>
+      </c>
+      <c r="AA262">
+        <v>2.65</v>
+      </c>
+      <c r="AB262">
+        <v>2.7</v>
+      </c>
+      <c r="AC262">
+        <v>1.11</v>
+      </c>
+      <c r="AD262">
+        <v>6</v>
+      </c>
+      <c r="AE262">
+        <v>1.47</v>
+      </c>
+      <c r="AF262">
+        <v>2.5</v>
+      </c>
+      <c r="AG262">
+        <v>2.31</v>
+      </c>
+      <c r="AH262">
+        <v>1.42</v>
+      </c>
+      <c r="AI262">
+        <v>2.1</v>
+      </c>
+      <c r="AJ262">
+        <v>1.67</v>
+      </c>
+      <c r="AK262">
+        <v>1.45</v>
+      </c>
+      <c r="AL262">
+        <v>1.36</v>
+      </c>
+      <c r="AM262">
+        <v>1.38</v>
+      </c>
+      <c r="AN262">
+        <v>1.33</v>
+      </c>
+      <c r="AO262">
+        <v>0.8</v>
+      </c>
+      <c r="AP262">
+        <v>1.31</v>
+      </c>
+      <c r="AQ262">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR262">
+        <v>1.31</v>
+      </c>
+      <c r="AS262">
+        <v>1.29</v>
+      </c>
+      <c r="AT262">
+        <v>2.6</v>
+      </c>
+      <c r="AU262">
+        <v>2</v>
+      </c>
+      <c r="AV262">
+        <v>2</v>
+      </c>
+      <c r="AW262">
+        <v>5</v>
+      </c>
+      <c r="AX262">
+        <v>4</v>
+      </c>
+      <c r="AY262">
+        <v>7</v>
+      </c>
+      <c r="AZ262">
+        <v>6</v>
+      </c>
+      <c r="BA262">
+        <v>7</v>
+      </c>
+      <c r="BB262">
+        <v>3</v>
+      </c>
+      <c r="BC262">
+        <v>10</v>
+      </c>
+      <c r="BD262">
+        <v>1.99</v>
+      </c>
+      <c r="BE262">
+        <v>5.85</v>
+      </c>
+      <c r="BF262">
+        <v>2.25</v>
+      </c>
+      <c r="BG262">
+        <v>1.48</v>
+      </c>
+      <c r="BH262">
+        <v>2.5</v>
+      </c>
+      <c r="BI262">
+        <v>1.75</v>
+      </c>
+      <c r="BJ262">
+        <v>1.95</v>
+      </c>
+      <c r="BK262">
+        <v>2.25</v>
+      </c>
+      <c r="BL262">
+        <v>1.57</v>
+      </c>
+      <c r="BM262">
+        <v>2.9</v>
+      </c>
+      <c r="BN262">
+        <v>1.36</v>
+      </c>
+      <c r="BO262">
+        <v>3.8</v>
+      </c>
+      <c r="BP262">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="263" spans="1:68">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263">
+        <v>7476123</v>
+      </c>
+      <c r="C263" t="s">
+        <v>68</v>
+      </c>
+      <c r="D263" t="s">
+        <v>69</v>
+      </c>
+      <c r="E263" s="2">
+        <v>45493.625</v>
+      </c>
+      <c r="F263">
+        <v>31</v>
+      </c>
+      <c r="G263" t="s">
+        <v>87</v>
+      </c>
+      <c r="H263" t="s">
+        <v>81</v>
+      </c>
+      <c r="I263">
+        <v>3</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>3</v>
+      </c>
+      <c r="L263">
+        <v>4</v>
+      </c>
+      <c r="M263">
+        <v>0</v>
+      </c>
+      <c r="N263">
+        <v>4</v>
+      </c>
+      <c r="O263" t="s">
+        <v>237</v>
+      </c>
+      <c r="P263" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q263">
+        <v>2.25</v>
+      </c>
+      <c r="R263">
+        <v>2.2</v>
+      </c>
+      <c r="S263">
+        <v>5</v>
+      </c>
+      <c r="T263">
+        <v>1.35</v>
+      </c>
+      <c r="U263">
+        <v>2.95</v>
+      </c>
+      <c r="V263">
+        <v>2.6</v>
+      </c>
+      <c r="W263">
+        <v>1.44</v>
+      </c>
+      <c r="X263">
+        <v>6.7</v>
+      </c>
+      <c r="Y263">
+        <v>1.09</v>
+      </c>
+      <c r="Z263">
+        <v>1.65</v>
+      </c>
+      <c r="AA263">
+        <v>3.4</v>
+      </c>
+      <c r="AB263">
+        <v>5</v>
+      </c>
+      <c r="AC263">
+        <v>1.04</v>
+      </c>
+      <c r="AD263">
+        <v>9</v>
+      </c>
+      <c r="AE263">
+        <v>1.25</v>
+      </c>
+      <c r="AF263">
+        <v>3.6</v>
+      </c>
+      <c r="AG263">
+        <v>1.95</v>
+      </c>
+      <c r="AH263">
+        <v>1.85</v>
+      </c>
+      <c r="AI263">
+        <v>1.91</v>
+      </c>
+      <c r="AJ263">
+        <v>1.8</v>
+      </c>
+      <c r="AK263">
+        <v>1.1</v>
+      </c>
+      <c r="AL263">
+        <v>1.18</v>
+      </c>
+      <c r="AM263">
+        <v>2.4</v>
+      </c>
+      <c r="AN263">
+        <v>1.73</v>
+      </c>
+      <c r="AO263">
+        <v>0.67</v>
+      </c>
+      <c r="AP263">
+        <v>1.81</v>
+      </c>
+      <c r="AQ263">
+        <v>0.63</v>
+      </c>
+      <c r="AR263">
+        <v>1.52</v>
+      </c>
+      <c r="AS263">
+        <v>1.13</v>
+      </c>
+      <c r="AT263">
+        <v>2.65</v>
+      </c>
+      <c r="AU263">
+        <v>7</v>
+      </c>
+      <c r="AV263">
+        <v>5</v>
+      </c>
+      <c r="AW263">
+        <v>4</v>
+      </c>
+      <c r="AX263">
+        <v>4</v>
+      </c>
+      <c r="AY263">
+        <v>11</v>
+      </c>
+      <c r="AZ263">
+        <v>9</v>
+      </c>
+      <c r="BA263">
+        <v>2</v>
+      </c>
+      <c r="BB263">
+        <v>4</v>
+      </c>
+      <c r="BC263">
+        <v>6</v>
+      </c>
+      <c r="BD263">
+        <v>1.52</v>
+      </c>
+      <c r="BE263">
+        <v>6.7</v>
+      </c>
+      <c r="BF263">
+        <v>3.22</v>
+      </c>
+      <c r="BG263">
+        <v>1.33</v>
+      </c>
+      <c r="BH263">
+        <v>3</v>
+      </c>
+      <c r="BI263">
+        <v>1.57</v>
+      </c>
+      <c r="BJ263">
+        <v>2.25</v>
+      </c>
+      <c r="BK263">
+        <v>1.95</v>
+      </c>
+      <c r="BL263">
+        <v>1.75</v>
+      </c>
+      <c r="BM263">
+        <v>2.4</v>
+      </c>
+      <c r="BN263">
+        <v>1.5</v>
+      </c>
+      <c r="BO263">
+        <v>3.2</v>
+      </c>
+      <c r="BP263">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:68">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264">
+        <v>7476122</v>
+      </c>
+      <c r="C264" t="s">
+        <v>68</v>
+      </c>
+      <c r="D264" t="s">
+        <v>69</v>
+      </c>
+      <c r="E264" s="2">
+        <v>45493.625</v>
+      </c>
+      <c r="F264">
+        <v>31</v>
+      </c>
+      <c r="G264" t="s">
+        <v>79</v>
+      </c>
+      <c r="H264" t="s">
+        <v>77</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>0</v>
+      </c>
+      <c r="L264">
+        <v>0</v>
+      </c>
+      <c r="M264">
+        <v>0</v>
+      </c>
+      <c r="N264">
+        <v>0</v>
+      </c>
+      <c r="O264" t="s">
+        <v>92</v>
+      </c>
+      <c r="P264" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q264">
+        <v>2.5</v>
+      </c>
+      <c r="R264">
+        <v>2.1</v>
+      </c>
+      <c r="S264">
+        <v>4.33</v>
+      </c>
+      <c r="T264">
+        <v>1.42</v>
+      </c>
+      <c r="U264">
+        <v>2.65</v>
+      </c>
+      <c r="V264">
+        <v>2.85</v>
+      </c>
+      <c r="W264">
+        <v>1.36</v>
+      </c>
+      <c r="X264">
+        <v>7.6</v>
+      </c>
+      <c r="Y264">
+        <v>1.07</v>
+      </c>
+      <c r="Z264">
+        <v>1.9</v>
+      </c>
+      <c r="AA264">
+        <v>3.4</v>
+      </c>
+      <c r="AB264">
+        <v>3.8</v>
+      </c>
+      <c r="AC264">
+        <v>1.06</v>
+      </c>
+      <c r="AD264">
+        <v>8</v>
+      </c>
+      <c r="AE264">
+        <v>1.35</v>
+      </c>
+      <c r="AF264">
+        <v>3</v>
+      </c>
+      <c r="AG264">
+        <v>1.95</v>
+      </c>
+      <c r="AH264">
+        <v>1.85</v>
+      </c>
+      <c r="AI264">
+        <v>1.83</v>
+      </c>
+      <c r="AJ264">
+        <v>1.83</v>
+      </c>
+      <c r="AK264">
+        <v>1.22</v>
+      </c>
+      <c r="AL264">
+        <v>1.28</v>
+      </c>
+      <c r="AM264">
+        <v>1.8</v>
+      </c>
+      <c r="AN264">
+        <v>1.13</v>
+      </c>
+      <c r="AO264">
+        <v>1.27</v>
+      </c>
+      <c r="AP264">
+        <v>1.13</v>
+      </c>
+      <c r="AQ264">
+        <v>1.25</v>
+      </c>
+      <c r="AR264">
+        <v>1.49</v>
+      </c>
+      <c r="AS264">
+        <v>1.11</v>
+      </c>
+      <c r="AT264">
+        <v>2.6</v>
+      </c>
+      <c r="AU264">
+        <v>5</v>
+      </c>
+      <c r="AV264">
+        <v>2</v>
+      </c>
+      <c r="AW264">
+        <v>4</v>
+      </c>
+      <c r="AX264">
+        <v>4</v>
+      </c>
+      <c r="AY264">
+        <v>9</v>
+      </c>
+      <c r="AZ264">
+        <v>6</v>
+      </c>
+      <c r="BA264">
+        <v>8</v>
+      </c>
+      <c r="BB264">
+        <v>6</v>
+      </c>
+      <c r="BC264">
+        <v>14</v>
+      </c>
+      <c r="BD264">
+        <v>1.63</v>
+      </c>
+      <c r="BE264">
+        <v>6.4</v>
+      </c>
+      <c r="BF264">
+        <v>2.88</v>
+      </c>
+      <c r="BG264">
+        <v>1.36</v>
+      </c>
+      <c r="BH264">
+        <v>2.88</v>
+      </c>
+      <c r="BI264">
+        <v>1.65</v>
+      </c>
+      <c r="BJ264">
+        <v>2.1</v>
+      </c>
+      <c r="BK264">
+        <v>2</v>
+      </c>
+      <c r="BL264">
+        <v>1.73</v>
+      </c>
+      <c r="BM264">
+        <v>2.6</v>
+      </c>
+      <c r="BN264">
+        <v>1.44</v>
+      </c>
+      <c r="BO264">
+        <v>3.3</v>
+      </c>
+      <c r="BP264">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="265" spans="1:68">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265">
+        <v>7476124</v>
+      </c>
+      <c r="C265" t="s">
+        <v>68</v>
+      </c>
+      <c r="D265" t="s">
+        <v>69</v>
+      </c>
+      <c r="E265" s="2">
+        <v>45494.47916666666</v>
+      </c>
+      <c r="F265">
+        <v>31</v>
+      </c>
+      <c r="G265" t="s">
+        <v>85</v>
+      </c>
+      <c r="H265" t="s">
+        <v>74</v>
+      </c>
+      <c r="I265">
+        <v>1</v>
+      </c>
+      <c r="J265">
+        <v>1</v>
+      </c>
+      <c r="K265">
+        <v>2</v>
+      </c>
+      <c r="L265">
+        <v>1</v>
+      </c>
+      <c r="M265">
+        <v>1</v>
+      </c>
+      <c r="N265">
+        <v>2</v>
+      </c>
+      <c r="O265" t="s">
+        <v>238</v>
+      </c>
+      <c r="P265" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q265">
+        <v>2.6</v>
+      </c>
+      <c r="R265">
+        <v>1.91</v>
+      </c>
+      <c r="S265">
+        <v>5</v>
+      </c>
+      <c r="T265">
+        <v>1.42</v>
+      </c>
+      <c r="U265">
+        <v>2.77</v>
+      </c>
+      <c r="V265">
+        <v>3.14</v>
+      </c>
+      <c r="W265">
+        <v>1.34</v>
+      </c>
+      <c r="X265">
+        <v>8</v>
+      </c>
+      <c r="Y265">
+        <v>1.06</v>
+      </c>
+      <c r="Z265">
+        <v>1.65</v>
+      </c>
+      <c r="AA265">
+        <v>3.5</v>
+      </c>
+      <c r="AB265">
+        <v>5</v>
+      </c>
+      <c r="AC265">
+        <v>1.05</v>
+      </c>
+      <c r="AD265">
+        <v>8</v>
+      </c>
+      <c r="AE265">
+        <v>1.48</v>
+      </c>
+      <c r="AF265">
+        <v>2.45</v>
+      </c>
+      <c r="AG265">
+        <v>2.05</v>
+      </c>
+      <c r="AH265">
+        <v>1.68</v>
+      </c>
+      <c r="AI265">
+        <v>2.25</v>
+      </c>
+      <c r="AJ265">
+        <v>1.57</v>
+      </c>
+      <c r="AK265">
+        <v>1.16</v>
+      </c>
+      <c r="AL265">
+        <v>1.26</v>
+      </c>
+      <c r="AM265">
+        <v>1.97</v>
+      </c>
+      <c r="AN265">
+        <v>1.64</v>
+      </c>
+      <c r="AO265">
+        <v>0.93</v>
+      </c>
+      <c r="AP265">
+        <v>1.6</v>
+      </c>
+      <c r="AQ265">
+        <v>0.93</v>
+      </c>
+      <c r="AR265">
+        <v>1.39</v>
+      </c>
+      <c r="AS265">
+        <v>1.18</v>
+      </c>
+      <c r="AT265">
+        <v>2.57</v>
+      </c>
+      <c r="AU265">
+        <v>2</v>
+      </c>
+      <c r="AV265">
+        <v>3</v>
+      </c>
+      <c r="AW265">
+        <v>4</v>
+      </c>
+      <c r="AX265">
+        <v>4</v>
+      </c>
+      <c r="AY265">
+        <v>6</v>
+      </c>
+      <c r="AZ265">
+        <v>7</v>
+      </c>
+      <c r="BA265">
+        <v>3</v>
+      </c>
+      <c r="BB265">
+        <v>5</v>
+      </c>
+      <c r="BC265">
+        <v>8</v>
+      </c>
+      <c r="BD265">
+        <v>1.55</v>
+      </c>
+      <c r="BE265">
+        <v>7.5</v>
+      </c>
+      <c r="BF265">
+        <v>3.2</v>
+      </c>
+      <c r="BG265">
+        <v>1.35</v>
+      </c>
+      <c r="BH265">
+        <v>2.9</v>
+      </c>
+      <c r="BI265">
+        <v>1.63</v>
+      </c>
+      <c r="BJ265">
+        <v>2.24</v>
+      </c>
+      <c r="BK265">
+        <v>2.04</v>
+      </c>
+      <c r="BL265">
+        <v>1.76</v>
+      </c>
+      <c r="BM265">
+        <v>2.55</v>
+      </c>
+      <c r="BN265">
+        <v>1.45</v>
+      </c>
+      <c r="BO265">
+        <v>3.4</v>
+      </c>
+      <c r="BP265">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="266" spans="1:68">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266">
+        <v>7476125</v>
+      </c>
+      <c r="C266" t="s">
+        <v>68</v>
+      </c>
+      <c r="D266" t="s">
+        <v>69</v>
+      </c>
+      <c r="E266" s="2">
+        <v>45494.625</v>
+      </c>
+      <c r="F266">
+        <v>31</v>
+      </c>
+      <c r="G266" t="s">
+        <v>83</v>
+      </c>
+      <c r="H266" t="s">
+        <v>71</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266">
+        <v>3</v>
+      </c>
+      <c r="K266">
+        <v>3</v>
+      </c>
+      <c r="L266">
+        <v>1</v>
+      </c>
+      <c r="M266">
+        <v>4</v>
+      </c>
+      <c r="N266">
+        <v>5</v>
+      </c>
+      <c r="O266" t="s">
+        <v>200</v>
+      </c>
+      <c r="P266" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q266">
+        <v>3.25</v>
+      </c>
+      <c r="R266">
+        <v>1.91</v>
+      </c>
+      <c r="S266">
+        <v>3.75</v>
+      </c>
+      <c r="T266">
+        <v>1.53</v>
+      </c>
+      <c r="U266">
+        <v>2.4</v>
+      </c>
+      <c r="V266">
+        <v>3.54</v>
+      </c>
+      <c r="W266">
+        <v>1.27</v>
+      </c>
+      <c r="X266">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Y266">
+        <v>1.03</v>
+      </c>
+      <c r="Z266">
+        <v>2.5</v>
+      </c>
+      <c r="AA266">
+        <v>2.63</v>
+      </c>
+      <c r="AB266">
+        <v>3.3</v>
+      </c>
+      <c r="AC266">
+        <v>1.1</v>
+      </c>
+      <c r="AD266">
+        <v>6.35</v>
+      </c>
+      <c r="AE266">
+        <v>1.45</v>
+      </c>
+      <c r="AF266">
+        <v>2.68</v>
+      </c>
+      <c r="AG266">
+        <v>2.63</v>
+      </c>
+      <c r="AH266">
+        <v>1.44</v>
+      </c>
+      <c r="AI266">
+        <v>2.1</v>
+      </c>
+      <c r="AJ266">
+        <v>1.67</v>
+      </c>
+      <c r="AK266">
+        <v>1.33</v>
+      </c>
+      <c r="AL266">
+        <v>1.33</v>
+      </c>
+      <c r="AM266">
+        <v>1.53</v>
+      </c>
+      <c r="AN266">
+        <v>1.53</v>
+      </c>
+      <c r="AO266">
+        <v>1.77</v>
+      </c>
+      <c r="AP266">
+        <v>1.44</v>
+      </c>
+      <c r="AQ266">
+        <v>1.86</v>
+      </c>
+      <c r="AR266">
+        <v>1.33</v>
+      </c>
+      <c r="AS266">
+        <v>1.34</v>
+      </c>
+      <c r="AT266">
+        <v>2.67</v>
+      </c>
+      <c r="AU266">
+        <v>4</v>
+      </c>
+      <c r="AV266">
+        <v>8</v>
+      </c>
+      <c r="AW266">
+        <v>6</v>
+      </c>
+      <c r="AX266">
+        <v>3</v>
+      </c>
+      <c r="AY266">
+        <v>10</v>
+      </c>
+      <c r="AZ266">
+        <v>11</v>
+      </c>
+      <c r="BA266">
+        <v>3</v>
+      </c>
+      <c r="BB266">
+        <v>3</v>
+      </c>
+      <c r="BC266">
+        <v>6</v>
+      </c>
+      <c r="BD266">
+        <v>2.05</v>
+      </c>
+      <c r="BE266">
+        <v>6.05</v>
+      </c>
+      <c r="BF266">
+        <v>2.15</v>
+      </c>
+      <c r="BG266">
+        <v>1.3</v>
+      </c>
+      <c r="BH266">
+        <v>3.08</v>
+      </c>
+      <c r="BI266">
+        <v>1.64</v>
+      </c>
+      <c r="BJ266">
+        <v>2.21</v>
+      </c>
+      <c r="BK266">
+        <v>2.03</v>
+      </c>
+      <c r="BL266">
+        <v>1.75</v>
+      </c>
+      <c r="BM266">
+        <v>2.57</v>
+      </c>
+      <c r="BN266">
+        <v>1.42</v>
+      </c>
+      <c r="BO266">
+        <v>3.56</v>
+      </c>
+      <c r="BP266">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="267" spans="1:68">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267">
+        <v>7476126</v>
+      </c>
+      <c r="C267" t="s">
+        <v>68</v>
+      </c>
+      <c r="D267" t="s">
+        <v>69</v>
+      </c>
+      <c r="E267" s="2">
+        <v>45494.625</v>
+      </c>
+      <c r="F267">
+        <v>31</v>
+      </c>
+      <c r="G267" t="s">
+        <v>73</v>
+      </c>
+      <c r="H267" t="s">
+        <v>80</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <v>1</v>
+      </c>
+      <c r="K267">
+        <v>1</v>
+      </c>
+      <c r="L267">
+        <v>1</v>
+      </c>
+      <c r="M267">
+        <v>2</v>
+      </c>
+      <c r="N267">
+        <v>3</v>
+      </c>
+      <c r="O267" t="s">
+        <v>239</v>
+      </c>
+      <c r="P267" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q267">
+        <v>7</v>
+      </c>
+      <c r="R267">
+        <v>2.25</v>
+      </c>
+      <c r="S267">
+        <v>1.91</v>
+      </c>
+      <c r="T267">
+        <v>1.33</v>
+      </c>
+      <c r="U267">
+        <v>3.12</v>
+      </c>
+      <c r="V267">
+        <v>2.57</v>
+      </c>
+      <c r="W267">
+        <v>1.47</v>
+      </c>
+      <c r="X267">
+        <v>6.2</v>
+      </c>
+      <c r="Y267">
+        <v>1.1</v>
+      </c>
+      <c r="Z267">
+        <v>8</v>
+      </c>
+      <c r="AA267">
+        <v>4</v>
+      </c>
+      <c r="AB267">
+        <v>1.38</v>
+      </c>
+      <c r="AC267">
+        <v>1.02</v>
+      </c>
+      <c r="AD267">
+        <v>10.5</v>
+      </c>
+      <c r="AE267">
+        <v>1.23</v>
+      </c>
+      <c r="AF267">
+        <v>3.83</v>
+      </c>
+      <c r="AG267">
+        <v>1.85</v>
+      </c>
+      <c r="AH267">
+        <v>1.95</v>
+      </c>
+      <c r="AI267">
+        <v>2.2</v>
+      </c>
+      <c r="AJ267">
+        <v>1.62</v>
+      </c>
+      <c r="AK267">
+        <v>2.64</v>
+      </c>
+      <c r="AL267">
+        <v>1.17</v>
+      </c>
+      <c r="AM267">
+        <v>1.07</v>
+      </c>
+      <c r="AN267">
+        <v>1.07</v>
+      </c>
+      <c r="AO267">
+        <v>1.38</v>
+      </c>
+      <c r="AP267">
+        <v>1</v>
+      </c>
+      <c r="AQ267">
+        <v>1.5</v>
+      </c>
+      <c r="AR267">
+        <v>0.97</v>
+      </c>
+      <c r="AS267">
+        <v>1.67</v>
+      </c>
+      <c r="AT267">
+        <v>2.64</v>
+      </c>
+      <c r="AU267">
+        <v>6</v>
+      </c>
+      <c r="AV267">
+        <v>3</v>
+      </c>
+      <c r="AW267">
+        <v>5</v>
+      </c>
+      <c r="AX267">
+        <v>5</v>
+      </c>
+      <c r="AY267">
+        <v>11</v>
+      </c>
+      <c r="AZ267">
+        <v>8</v>
+      </c>
+      <c r="BA267">
+        <v>5</v>
+      </c>
+      <c r="BB267">
+        <v>2</v>
+      </c>
+      <c r="BC267">
+        <v>7</v>
+      </c>
+      <c r="BD267">
+        <v>4.1</v>
+      </c>
+      <c r="BE267">
+        <v>7.1</v>
+      </c>
+      <c r="BF267">
+        <v>1.36</v>
+      </c>
+      <c r="BG267">
+        <v>1.29</v>
+      </c>
+      <c r="BH267">
+        <v>3.14</v>
+      </c>
+      <c r="BI267">
+        <v>1.55</v>
+      </c>
+      <c r="BJ267">
+        <v>2.23</v>
+      </c>
+      <c r="BK267">
+        <v>1.94</v>
+      </c>
+      <c r="BL267">
+        <v>1.73</v>
+      </c>
+      <c r="BM267">
+        <v>2.54</v>
+      </c>
+      <c r="BN267">
+        <v>1.43</v>
+      </c>
+      <c r="BO267">
+        <v>3.48</v>
+      </c>
+      <c r="BP267">
         <v>1.24</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="356">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -736,6 +736,9 @@
     <t>['65']</t>
   </si>
   <si>
+    <t>['3', '29', '52']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -1440,7 +1443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP267"/>
+  <dimension ref="A1:BP270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2523,7 +2526,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2935,7 +2938,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3347,7 +3350,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3425,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AQ10">
         <v>1.5</v>
@@ -3759,7 +3762,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3965,7 +3968,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -4046,7 +4049,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ13">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4171,7 +4174,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4249,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ14">
         <v>0.25</v>
@@ -5073,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ18">
         <v>1.25</v>
@@ -5201,7 +5204,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5613,7 +5616,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5819,7 +5822,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -6025,7 +6028,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -6231,7 +6234,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6643,7 +6646,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6927,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AQ27">
         <v>1.36</v>
@@ -7467,7 +7470,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7673,7 +7676,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7754,7 +7757,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ31">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR31">
         <v>1.53</v>
@@ -8085,7 +8088,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8369,7 +8372,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ34">
         <v>0.8100000000000001</v>
@@ -8575,7 +8578,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ35">
         <v>2.43</v>
@@ -8703,7 +8706,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -8781,7 +8784,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AQ36">
         <v>1.87</v>
@@ -9115,7 +9118,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9321,7 +9324,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9527,7 +9530,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9608,7 +9611,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ40">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR40">
         <v>1.93</v>
@@ -10145,7 +10148,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10351,7 +10354,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10557,7 +10560,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -11175,7 +11178,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11381,7 +11384,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11462,7 +11465,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ49">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR49">
         <v>1.22</v>
@@ -11665,7 +11668,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ50">
         <v>1.36</v>
@@ -11793,7 +11796,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11871,7 +11874,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -11999,7 +12002,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12205,7 +12208,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12286,7 +12289,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ53">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR53">
         <v>1.61</v>
@@ -12492,7 +12495,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ54">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR54">
         <v>1.42</v>
@@ -12617,7 +12620,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12695,7 +12698,7 @@
         <v>0.33</v>
       </c>
       <c r="AP55">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AQ55">
         <v>0.87</v>
@@ -12904,7 +12907,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ56">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR56">
         <v>1.78</v>
@@ -13029,7 +13032,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13107,7 +13110,7 @@
         <v>1.33</v>
       </c>
       <c r="AP57">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ57">
         <v>1.5</v>
@@ -13853,7 +13856,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -14265,7 +14268,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14471,7 +14474,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14677,7 +14680,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14961,7 +14964,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ66">
         <v>1.07</v>
@@ -15089,7 +15092,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15501,7 +15504,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15785,7 +15788,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ70">
         <v>1.07</v>
@@ -16119,7 +16122,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q72">
         <v>1.8</v>
@@ -16197,7 +16200,7 @@
         <v>1.67</v>
       </c>
       <c r="AP72">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AQ72">
         <v>0.63</v>
@@ -16406,7 +16409,7 @@
         <v>1</v>
       </c>
       <c r="AQ73">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR73">
         <v>0.83</v>
@@ -16531,7 +16534,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16737,7 +16740,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -17149,7 +17152,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17355,7 +17358,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17767,7 +17770,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -18797,7 +18800,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -19003,7 +19006,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19209,7 +19212,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19621,7 +19624,7 @@
         <v>92</v>
       </c>
       <c r="P89" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q89">
         <v>3.6</v>
@@ -19827,7 +19830,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q90">
         <v>3.5</v>
@@ -20523,7 +20526,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ93">
         <v>1.07</v>
@@ -20732,7 +20735,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ94">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR94">
         <v>1.11</v>
@@ -21141,7 +21144,7 @@
         <v>1.75</v>
       </c>
       <c r="AP96">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AQ96">
         <v>1.25</v>
@@ -21269,7 +21272,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21347,7 +21350,7 @@
         <v>0.83</v>
       </c>
       <c r="AP97">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ97">
         <v>0.93</v>
@@ -21553,7 +21556,7 @@
         <v>1.4</v>
       </c>
       <c r="AP98">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ98">
         <v>1.5</v>
@@ -21887,7 +21890,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -22299,7 +22302,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22505,7 +22508,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23329,7 +23332,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23741,7 +23744,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24153,7 +24156,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24643,7 +24646,7 @@
         <v>0.86</v>
       </c>
       <c r="AP113">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ113">
         <v>0.63</v>
@@ -24771,7 +24774,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -25264,7 +25267,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ116">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR116">
         <v>1.36</v>
@@ -25467,7 +25470,7 @@
         <v>0.67</v>
       </c>
       <c r="AP117">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AQ117">
         <v>0.8100000000000001</v>
@@ -25673,7 +25676,7 @@
         <v>1.71</v>
       </c>
       <c r="AP118">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ118">
         <v>1.86</v>
@@ -25801,7 +25804,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -26007,7 +26010,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -26213,7 +26216,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26831,7 +26834,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -27037,7 +27040,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27118,7 +27121,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ125">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR125">
         <v>1.42</v>
@@ -27243,7 +27246,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27449,7 +27452,7 @@
         <v>94</v>
       </c>
       <c r="P127" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q127">
         <v>3.4</v>
@@ -27733,10 +27736,10 @@
         <v>1</v>
       </c>
       <c r="AP128">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ128">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR128">
         <v>1.4</v>
@@ -27861,7 +27864,7 @@
         <v>148</v>
       </c>
       <c r="P129" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q129">
         <v>2.6</v>
@@ -28273,7 +28276,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28763,7 +28766,7 @@
         <v>1.29</v>
       </c>
       <c r="AP133">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AQ133">
         <v>1</v>
@@ -28891,7 +28894,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -29097,7 +29100,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29303,7 +29306,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29796,7 +29799,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ138">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR138">
         <v>1.91</v>
@@ -29921,7 +29924,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q139">
         <v>3.15</v>
@@ -30205,7 +30208,7 @@
         <v>2</v>
       </c>
       <c r="AP140">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ140">
         <v>1.93</v>
@@ -30333,7 +30336,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -30620,7 +30623,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ142">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR142">
         <v>1.73</v>
@@ -30826,7 +30829,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ143">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR143">
         <v>1.38</v>
@@ -31157,7 +31160,7 @@
         <v>92</v>
       </c>
       <c r="P145" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31363,7 +31366,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31569,7 +31572,7 @@
         <v>108</v>
       </c>
       <c r="P147" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31647,7 +31650,7 @@
         <v>1.56</v>
       </c>
       <c r="AP147">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ147">
         <v>1.86</v>
@@ -31853,7 +31856,7 @@
         <v>0.75</v>
       </c>
       <c r="AP148">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ148">
         <v>0.8100000000000001</v>
@@ -33011,7 +33014,7 @@
         <v>128</v>
       </c>
       <c r="P154" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33423,7 +33426,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q156">
         <v>1.91</v>
@@ -33501,7 +33504,7 @@
         <v>1</v>
       </c>
       <c r="AP156">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AQ156">
         <v>1.07</v>
@@ -33629,7 +33632,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34328,7 +34331,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ160">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR160">
         <v>1.22</v>
@@ -34453,7 +34456,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34659,7 +34662,7 @@
         <v>151</v>
       </c>
       <c r="P162" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -34737,10 +34740,10 @@
         <v>1.67</v>
       </c>
       <c r="AP162">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ162">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR162">
         <v>1.39</v>
@@ -34865,7 +34868,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -35149,7 +35152,7 @@
         <v>1.44</v>
       </c>
       <c r="AP164">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ164">
         <v>1</v>
@@ -35483,7 +35486,7 @@
         <v>92</v>
       </c>
       <c r="P166" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q166">
         <v>3</v>
@@ -35689,7 +35692,7 @@
         <v>191</v>
       </c>
       <c r="P167" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35895,7 +35898,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
@@ -36101,7 +36104,7 @@
         <v>192</v>
       </c>
       <c r="P169" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -36719,7 +36722,7 @@
         <v>194</v>
       </c>
       <c r="P172" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -37003,7 +37006,7 @@
         <v>1.78</v>
       </c>
       <c r="AP173">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AQ173">
         <v>1.93</v>
@@ -37131,7 +37134,7 @@
         <v>92</v>
       </c>
       <c r="P174" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q174">
         <v>4.8</v>
@@ -37621,7 +37624,7 @@
         <v>0.3</v>
       </c>
       <c r="AP176">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ176">
         <v>0.25</v>
@@ -37749,7 +37752,7 @@
         <v>128</v>
       </c>
       <c r="P177" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q177">
         <v>3.25</v>
@@ -38161,7 +38164,7 @@
         <v>118</v>
       </c>
       <c r="P179" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38445,7 +38448,7 @@
         <v>0.8</v>
       </c>
       <c r="AP180">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ180">
         <v>1.07</v>
@@ -38779,7 +38782,7 @@
         <v>92</v>
       </c>
       <c r="P182" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q182">
         <v>4.33</v>
@@ -38985,7 +38988,7 @@
         <v>200</v>
       </c>
       <c r="P183" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q183">
         <v>9</v>
@@ -39066,7 +39069,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ183">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR183">
         <v>1.28</v>
@@ -39191,7 +39194,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q184">
         <v>3.4</v>
@@ -39272,7 +39275,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ184">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR184">
         <v>1.39</v>
@@ -39397,7 +39400,7 @@
         <v>108</v>
       </c>
       <c r="P185" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -39887,7 +39890,7 @@
         <v>1.22</v>
       </c>
       <c r="AP187">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AQ187">
         <v>1.07</v>
@@ -40221,7 +40224,7 @@
         <v>92</v>
       </c>
       <c r="P189" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q189">
         <v>3.5</v>
@@ -40427,7 +40430,7 @@
         <v>202</v>
       </c>
       <c r="P190" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q190">
         <v>3.8</v>
@@ -40633,7 +40636,7 @@
         <v>92</v>
       </c>
       <c r="P191" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -40711,7 +40714,7 @@
         <v>2.44</v>
       </c>
       <c r="AP191">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ191">
         <v>2.43</v>
@@ -42362,7 +42365,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ199">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR199">
         <v>1.39</v>
@@ -42487,7 +42490,7 @@
         <v>204</v>
       </c>
       <c r="P200" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q200">
         <v>3.75</v>
@@ -42899,7 +42902,7 @@
         <v>206</v>
       </c>
       <c r="P202" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q202">
         <v>3.2</v>
@@ -43183,7 +43186,7 @@
         <v>1.64</v>
       </c>
       <c r="AP203">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ203">
         <v>1.87</v>
@@ -43595,7 +43598,7 @@
         <v>1.4</v>
       </c>
       <c r="AP205">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AQ205">
         <v>1</v>
@@ -43723,7 +43726,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q206">
         <v>4.5</v>
@@ -44007,10 +44010,10 @@
         <v>1.17</v>
       </c>
       <c r="AP207">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AQ207">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR207">
         <v>1.92</v>
@@ -44135,7 +44138,7 @@
         <v>209</v>
       </c>
       <c r="P208" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q208">
         <v>2.75</v>
@@ -44213,7 +44216,7 @@
         <v>1.27</v>
       </c>
       <c r="AP208">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ208">
         <v>1</v>
@@ -44341,7 +44344,7 @@
         <v>194</v>
       </c>
       <c r="P209" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q209">
         <v>3.5</v>
@@ -44547,7 +44550,7 @@
         <v>179</v>
       </c>
       <c r="P210" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q210">
         <v>7.5</v>
@@ -44628,7 +44631,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ210">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR210">
         <v>1.33</v>
@@ -44753,7 +44756,7 @@
         <v>210</v>
       </c>
       <c r="P211" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q211">
         <v>3.75</v>
@@ -44959,7 +44962,7 @@
         <v>94</v>
       </c>
       <c r="P212" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q212">
         <v>3.4</v>
@@ -45165,7 +45168,7 @@
         <v>211</v>
       </c>
       <c r="P213" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q213">
         <v>2.78</v>
@@ -45371,7 +45374,7 @@
         <v>212</v>
       </c>
       <c r="P214" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q214">
         <v>3.2</v>
@@ -45449,7 +45452,7 @@
         <v>1.55</v>
       </c>
       <c r="AP214">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ214">
         <v>1.36</v>
@@ -45577,7 +45580,7 @@
         <v>213</v>
       </c>
       <c r="P215" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q215">
         <v>2.2</v>
@@ -45783,7 +45786,7 @@
         <v>92</v>
       </c>
       <c r="P216" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q216">
         <v>7</v>
@@ -45864,7 +45867,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ216">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR216">
         <v>1.42</v>
@@ -45989,7 +45992,7 @@
         <v>214</v>
       </c>
       <c r="P217" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q217">
         <v>2.88</v>
@@ -46195,7 +46198,7 @@
         <v>92</v>
       </c>
       <c r="P218" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q218">
         <v>7.5</v>
@@ -46401,7 +46404,7 @@
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q219">
         <v>3.1</v>
@@ -46813,7 +46816,7 @@
         <v>216</v>
       </c>
       <c r="P221" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q221">
         <v>0</v>
@@ -46894,7 +46897,7 @@
         <v>1</v>
       </c>
       <c r="AQ221">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR221">
         <v>0.96</v>
@@ -47019,7 +47022,7 @@
         <v>217</v>
       </c>
       <c r="P222" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q222">
         <v>3.4</v>
@@ -47100,7 +47103,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ222">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR222">
         <v>1.41</v>
@@ -47509,7 +47512,7 @@
         <v>0.83</v>
       </c>
       <c r="AP224">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ224">
         <v>0.87</v>
@@ -47637,7 +47640,7 @@
         <v>92</v>
       </c>
       <c r="P225" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q225">
         <v>3</v>
@@ -47843,7 +47846,7 @@
         <v>218</v>
       </c>
       <c r="P226" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q226">
         <v>1.9</v>
@@ -47921,7 +47924,7 @@
         <v>1</v>
       </c>
       <c r="AP226">
-        <v>2.43</v>
+        <v>2.27</v>
       </c>
       <c r="AQ226">
         <v>0.93</v>
@@ -48873,7 +48876,7 @@
         <v>92</v>
       </c>
       <c r="P231" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q231">
         <v>4.75</v>
@@ -49079,7 +49082,7 @@
         <v>221</v>
       </c>
       <c r="P232" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q232">
         <v>2.63</v>
@@ -49363,7 +49366,7 @@
         <v>1.69</v>
       </c>
       <c r="AP233">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AQ233">
         <v>1.87</v>
@@ -49491,7 +49494,7 @@
         <v>222</v>
       </c>
       <c r="P234" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q234">
         <v>3.6</v>
@@ -49697,7 +49700,7 @@
         <v>223</v>
       </c>
       <c r="P235" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q235">
         <v>5</v>
@@ -49903,7 +49906,7 @@
         <v>224</v>
       </c>
       <c r="P236" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q236">
         <v>1.62</v>
@@ -50315,7 +50318,7 @@
         <v>222</v>
       </c>
       <c r="P238" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q238">
         <v>2.38</v>
@@ -50521,7 +50524,7 @@
         <v>225</v>
       </c>
       <c r="P239" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q239">
         <v>2.5</v>
@@ -50933,7 +50936,7 @@
         <v>92</v>
       </c>
       <c r="P241" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q241">
         <v>7.5</v>
@@ -51014,7 +51017,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ241">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR241">
         <v>1.36</v>
@@ -51139,7 +51142,7 @@
         <v>227</v>
       </c>
       <c r="P242" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q242">
         <v>2.4</v>
@@ -51423,7 +51426,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP243">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ243">
         <v>0.63</v>
@@ -52787,7 +52790,7 @@
         <v>92</v>
       </c>
       <c r="P250" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q250">
         <v>5</v>
@@ -52993,7 +52996,7 @@
         <v>231</v>
       </c>
       <c r="P251" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q251">
         <v>2.1</v>
@@ -53611,7 +53614,7 @@
         <v>92</v>
       </c>
       <c r="P254" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q254">
         <v>6.5</v>
@@ -54023,7 +54026,7 @@
         <v>234</v>
       </c>
       <c r="P256" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q256">
         <v>4.75</v>
@@ -54229,7 +54232,7 @@
         <v>174</v>
       </c>
       <c r="P257" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q257">
         <v>5.5</v>
@@ -54435,7 +54438,7 @@
         <v>235</v>
       </c>
       <c r="P258" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q258">
         <v>2.75</v>
@@ -54641,7 +54644,7 @@
         <v>236</v>
       </c>
       <c r="P259" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q259">
         <v>3</v>
@@ -54722,7 +54725,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ259">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AR259">
         <v>1.51</v>
@@ -55053,7 +55056,7 @@
         <v>194</v>
       </c>
       <c r="P261" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q261">
         <v>6</v>
@@ -55131,10 +55134,10 @@
         <v>2.33</v>
       </c>
       <c r="AP261">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AQ261">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AR261">
         <v>1.25</v>
@@ -55877,7 +55880,7 @@
         <v>238</v>
       </c>
       <c r="P265" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q265">
         <v>2.6</v>
@@ -56083,7 +56086,7 @@
         <v>200</v>
       </c>
       <c r="P266" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q266">
         <v>3.25</v>
@@ -56289,7 +56292,7 @@
         <v>239</v>
       </c>
       <c r="P267" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q267">
         <v>7</v>
@@ -56446,6 +56449,624 @@
       </c>
       <c r="BP267">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="268" spans="1:68">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268">
+        <v>7476127</v>
+      </c>
+      <c r="C268" t="s">
+        <v>68</v>
+      </c>
+      <c r="D268" t="s">
+        <v>69</v>
+      </c>
+      <c r="E268" s="2">
+        <v>45495.47916666666</v>
+      </c>
+      <c r="F268">
+        <v>31</v>
+      </c>
+      <c r="G268" t="s">
+        <v>86</v>
+      </c>
+      <c r="H268" t="s">
+        <v>84</v>
+      </c>
+      <c r="I268">
+        <v>1</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <v>1</v>
+      </c>
+      <c r="L268">
+        <v>1</v>
+      </c>
+      <c r="M268">
+        <v>1</v>
+      </c>
+      <c r="N268">
+        <v>2</v>
+      </c>
+      <c r="O268" t="s">
+        <v>238</v>
+      </c>
+      <c r="P268" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q268">
+        <v>2.75</v>
+      </c>
+      <c r="R268">
+        <v>1.91</v>
+      </c>
+      <c r="S268">
+        <v>4.33</v>
+      </c>
+      <c r="T268">
+        <v>1.48</v>
+      </c>
+      <c r="U268">
+        <v>2.56</v>
+      </c>
+      <c r="V268">
+        <v>3.33</v>
+      </c>
+      <c r="W268">
+        <v>1.31</v>
+      </c>
+      <c r="X268">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y268">
+        <v>1.04</v>
+      </c>
+      <c r="Z268">
+        <v>1.91</v>
+      </c>
+      <c r="AA268">
+        <v>3.1</v>
+      </c>
+      <c r="AB268">
+        <v>3.7</v>
+      </c>
+      <c r="AC268">
+        <v>1.07</v>
+      </c>
+      <c r="AD268">
+        <v>7</v>
+      </c>
+      <c r="AE268">
+        <v>1.42</v>
+      </c>
+      <c r="AF268">
+        <v>2.75</v>
+      </c>
+      <c r="AG268">
+        <v>2.2</v>
+      </c>
+      <c r="AH268">
+        <v>1.61</v>
+      </c>
+      <c r="AI268">
+        <v>2.1</v>
+      </c>
+      <c r="AJ268">
+        <v>1.67</v>
+      </c>
+      <c r="AK268">
+        <v>1.21</v>
+      </c>
+      <c r="AL268">
+        <v>1.28</v>
+      </c>
+      <c r="AM268">
+        <v>1.81</v>
+      </c>
+      <c r="AN268">
+        <v>1.2</v>
+      </c>
+      <c r="AO268">
+        <v>1</v>
+      </c>
+      <c r="AP268">
+        <v>1.19</v>
+      </c>
+      <c r="AQ268">
+        <v>1</v>
+      </c>
+      <c r="AR268">
+        <v>1.42</v>
+      </c>
+      <c r="AS268">
+        <v>1.28</v>
+      </c>
+      <c r="AT268">
+        <v>2.7</v>
+      </c>
+      <c r="AU268">
+        <v>6</v>
+      </c>
+      <c r="AV268">
+        <v>5</v>
+      </c>
+      <c r="AW268">
+        <v>0</v>
+      </c>
+      <c r="AX268">
+        <v>2</v>
+      </c>
+      <c r="AY268">
+        <v>6</v>
+      </c>
+      <c r="AZ268">
+        <v>7</v>
+      </c>
+      <c r="BA268">
+        <v>6</v>
+      </c>
+      <c r="BB268">
+        <v>6</v>
+      </c>
+      <c r="BC268">
+        <v>12</v>
+      </c>
+      <c r="BD268">
+        <v>1.43</v>
+      </c>
+      <c r="BE268">
+        <v>6.95</v>
+      </c>
+      <c r="BF268">
+        <v>3.64</v>
+      </c>
+      <c r="BG268">
+        <v>1.25</v>
+      </c>
+      <c r="BH268">
+        <v>3.42</v>
+      </c>
+      <c r="BI268">
+        <v>1.52</v>
+      </c>
+      <c r="BJ268">
+        <v>2.48</v>
+      </c>
+      <c r="BK268">
+        <v>1.88</v>
+      </c>
+      <c r="BL268">
+        <v>1.92</v>
+      </c>
+      <c r="BM268">
+        <v>2.38</v>
+      </c>
+      <c r="BN268">
+        <v>1.56</v>
+      </c>
+      <c r="BO268">
+        <v>3.18</v>
+      </c>
+      <c r="BP268">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="269" spans="1:68">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269">
+        <v>7476129</v>
+      </c>
+      <c r="C269" t="s">
+        <v>68</v>
+      </c>
+      <c r="D269" t="s">
+        <v>69</v>
+      </c>
+      <c r="E269" s="2">
+        <v>45495.625</v>
+      </c>
+      <c r="F269">
+        <v>31</v>
+      </c>
+      <c r="G269" t="s">
+        <v>82</v>
+      </c>
+      <c r="H269" t="s">
+        <v>75</v>
+      </c>
+      <c r="I269">
+        <v>2</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>2</v>
+      </c>
+      <c r="L269">
+        <v>3</v>
+      </c>
+      <c r="M269">
+        <v>0</v>
+      </c>
+      <c r="N269">
+        <v>3</v>
+      </c>
+      <c r="O269" t="s">
+        <v>240</v>
+      </c>
+      <c r="P269" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q269">
+        <v>3.2</v>
+      </c>
+      <c r="R269">
+        <v>1.91</v>
+      </c>
+      <c r="S269">
+        <v>3.75</v>
+      </c>
+      <c r="T269">
+        <v>1.52</v>
+      </c>
+      <c r="U269">
+        <v>2.45</v>
+      </c>
+      <c r="V269">
+        <v>3.3</v>
+      </c>
+      <c r="W269">
+        <v>1.29</v>
+      </c>
+      <c r="X269">
+        <v>9</v>
+      </c>
+      <c r="Y269">
+        <v>1.03</v>
+      </c>
+      <c r="Z269">
+        <v>2.38</v>
+      </c>
+      <c r="AA269">
+        <v>3</v>
+      </c>
+      <c r="AB269">
+        <v>3</v>
+      </c>
+      <c r="AC269">
+        <v>1.09</v>
+      </c>
+      <c r="AD269">
+        <v>6</v>
+      </c>
+      <c r="AE269">
+        <v>1.47</v>
+      </c>
+      <c r="AF269">
+        <v>2.62</v>
+      </c>
+      <c r="AG269">
+        <v>2.5</v>
+      </c>
+      <c r="AH269">
+        <v>1.5</v>
+      </c>
+      <c r="AI269">
+        <v>2.1</v>
+      </c>
+      <c r="AJ269">
+        <v>1.67</v>
+      </c>
+      <c r="AK269">
+        <v>1.36</v>
+      </c>
+      <c r="AL269">
+        <v>1.4</v>
+      </c>
+      <c r="AM269">
+        <v>1.53</v>
+      </c>
+      <c r="AN269">
+        <v>1.2</v>
+      </c>
+      <c r="AO269">
+        <v>1.2</v>
+      </c>
+      <c r="AP269">
+        <v>1.31</v>
+      </c>
+      <c r="AQ269">
+        <v>1.13</v>
+      </c>
+      <c r="AR269">
+        <v>1.22</v>
+      </c>
+      <c r="AS269">
+        <v>1.35</v>
+      </c>
+      <c r="AT269">
+        <v>2.57</v>
+      </c>
+      <c r="AU269">
+        <v>5</v>
+      </c>
+      <c r="AV269">
+        <v>2</v>
+      </c>
+      <c r="AW269">
+        <v>2</v>
+      </c>
+      <c r="AX269">
+        <v>11</v>
+      </c>
+      <c r="AY269">
+        <v>7</v>
+      </c>
+      <c r="AZ269">
+        <v>13</v>
+      </c>
+      <c r="BA269">
+        <v>5</v>
+      </c>
+      <c r="BB269">
+        <v>6</v>
+      </c>
+      <c r="BC269">
+        <v>11</v>
+      </c>
+      <c r="BD269">
+        <v>1.85</v>
+      </c>
+      <c r="BE269">
+        <v>7.4</v>
+      </c>
+      <c r="BF269">
+        <v>2.42</v>
+      </c>
+      <c r="BG269">
+        <v>1.32</v>
+      </c>
+      <c r="BH269">
+        <v>2.98</v>
+      </c>
+      <c r="BI269">
+        <v>1.66</v>
+      </c>
+      <c r="BJ269">
+        <v>2.18</v>
+      </c>
+      <c r="BK269">
+        <v>2.07</v>
+      </c>
+      <c r="BL269">
+        <v>1.72</v>
+      </c>
+      <c r="BM269">
+        <v>2.67</v>
+      </c>
+      <c r="BN269">
+        <v>1.39</v>
+      </c>
+      <c r="BO269">
+        <v>3.65</v>
+      </c>
+      <c r="BP269">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="270" spans="1:68">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270">
+        <v>7476128</v>
+      </c>
+      <c r="C270" t="s">
+        <v>68</v>
+      </c>
+      <c r="D270" t="s">
+        <v>69</v>
+      </c>
+      <c r="E270" s="2">
+        <v>45495.625</v>
+      </c>
+      <c r="F270">
+        <v>31</v>
+      </c>
+      <c r="G270" t="s">
+        <v>78</v>
+      </c>
+      <c r="H270" t="s">
+        <v>72</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>1</v>
+      </c>
+      <c r="K270">
+        <v>1</v>
+      </c>
+      <c r="L270">
+        <v>0</v>
+      </c>
+      <c r="M270">
+        <v>1</v>
+      </c>
+      <c r="N270">
+        <v>1</v>
+      </c>
+      <c r="O270" t="s">
+        <v>92</v>
+      </c>
+      <c r="P270" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q270">
+        <v>3.4</v>
+      </c>
+      <c r="R270">
+        <v>2.05</v>
+      </c>
+      <c r="S270">
+        <v>3.1</v>
+      </c>
+      <c r="T270">
+        <v>1.37</v>
+      </c>
+      <c r="U270">
+        <v>2.98</v>
+      </c>
+      <c r="V270">
+        <v>2.87</v>
+      </c>
+      <c r="W270">
+        <v>1.39</v>
+      </c>
+      <c r="X270">
+        <v>6.5</v>
+      </c>
+      <c r="Y270">
+        <v>1.08</v>
+      </c>
+      <c r="Z270">
+        <v>2.8</v>
+      </c>
+      <c r="AA270">
+        <v>2.9</v>
+      </c>
+      <c r="AB270">
+        <v>2.55</v>
+      </c>
+      <c r="AC270">
+        <v>1.03</v>
+      </c>
+      <c r="AD270">
+        <v>9</v>
+      </c>
+      <c r="AE270">
+        <v>1.29</v>
+      </c>
+      <c r="AF270">
+        <v>3.44</v>
+      </c>
+      <c r="AG270">
+        <v>2.08</v>
+      </c>
+      <c r="AH270">
+        <v>1.73</v>
+      </c>
+      <c r="AI270">
+        <v>1.8</v>
+      </c>
+      <c r="AJ270">
+        <v>1.91</v>
+      </c>
+      <c r="AK270">
+        <v>1.45</v>
+      </c>
+      <c r="AL270">
+        <v>1.35</v>
+      </c>
+      <c r="AM270">
+        <v>1.5</v>
+      </c>
+      <c r="AN270">
+        <v>2.43</v>
+      </c>
+      <c r="AO270">
+        <v>2.38</v>
+      </c>
+      <c r="AP270">
+        <v>2.27</v>
+      </c>
+      <c r="AQ270">
+        <v>2.43</v>
+      </c>
+      <c r="AR270">
+        <v>1.9</v>
+      </c>
+      <c r="AS270">
+        <v>1.77</v>
+      </c>
+      <c r="AT270">
+        <v>3.67</v>
+      </c>
+      <c r="AU270">
+        <v>2</v>
+      </c>
+      <c r="AV270">
+        <v>2</v>
+      </c>
+      <c r="AW270">
+        <v>4</v>
+      </c>
+      <c r="AX270">
+        <v>2</v>
+      </c>
+      <c r="AY270">
+        <v>6</v>
+      </c>
+      <c r="AZ270">
+        <v>4</v>
+      </c>
+      <c r="BA270">
+        <v>2</v>
+      </c>
+      <c r="BB270">
+        <v>1</v>
+      </c>
+      <c r="BC270">
+        <v>3</v>
+      </c>
+      <c r="BD270">
+        <v>2.08</v>
+      </c>
+      <c r="BE270">
+        <v>7.3</v>
+      </c>
+      <c r="BF270">
+        <v>2.08</v>
+      </c>
+      <c r="BG270">
+        <v>1.25</v>
+      </c>
+      <c r="BH270">
+        <v>3.42</v>
+      </c>
+      <c r="BI270">
+        <v>1.54</v>
+      </c>
+      <c r="BJ270">
+        <v>2.42</v>
+      </c>
+      <c r="BK270">
+        <v>2.2</v>
+      </c>
+      <c r="BL270">
+        <v>1.9</v>
+      </c>
+      <c r="BM270">
+        <v>2.4</v>
+      </c>
+      <c r="BN270">
+        <v>1.55</v>
+      </c>
+      <c r="BO270">
+        <v>3.2</v>
+      </c>
+      <c r="BP270">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="356">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1443,7 +1443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP270"/>
+  <dimension ref="A1:BP272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3637,7 +3637,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ11">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>0.93</v>
@@ -4870,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17">
         <v>0.8100000000000001</v>
@@ -7136,7 +7136,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -7754,7 +7754,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
         <v>1.13</v>
@@ -8581,7 +8581,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ35">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AR35">
         <v>1.72</v>
@@ -10638,7 +10638,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
         <v>1.86</v>
@@ -10847,7 +10847,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ46">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AR46">
         <v>2.1</v>
@@ -11465,7 +11465,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ49">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AR49">
         <v>1.22</v>
@@ -12080,7 +12080,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ52">
         <v>1.07</v>
@@ -12289,7 +12289,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ53">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AR53">
         <v>1.61</v>
@@ -12495,7 +12495,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ54">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AR54">
         <v>1.42</v>
@@ -15994,7 +15994,7 @@
         <v>1.75</v>
       </c>
       <c r="AP71">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ71">
         <v>1.5</v>
@@ -19084,7 +19084,7 @@
         <v>0.2</v>
       </c>
       <c r="AP86">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ86">
         <v>0.87</v>
@@ -20117,7 +20117,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ91">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AR91">
         <v>2.39</v>
@@ -22174,7 +22174,7 @@
         <v>1.2</v>
       </c>
       <c r="AP101">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ101">
         <v>0.63</v>
@@ -24028,7 +24028,7 @@
         <v>0.2</v>
       </c>
       <c r="AP110">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ110">
         <v>0.25</v>
@@ -25264,7 +25264,7 @@
         <v>1.17</v>
       </c>
       <c r="AP116">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ116">
         <v>1.13</v>
@@ -26297,7 +26297,7 @@
         <v>1</v>
       </c>
       <c r="AQ121">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AR121">
         <v>0.92</v>
@@ -27121,7 +27121,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ125">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AR125">
         <v>1.42</v>
@@ -28354,7 +28354,7 @@
         <v>1.67</v>
       </c>
       <c r="AP131">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ131">
         <v>1.25</v>
@@ -29181,7 +29181,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ135">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AR135">
         <v>1.42</v>
@@ -29384,7 +29384,7 @@
         <v>1.83</v>
       </c>
       <c r="AP136">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ136">
         <v>1.93</v>
@@ -29590,7 +29590,7 @@
         <v>1.86</v>
       </c>
       <c r="AP137">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ137">
         <v>1.25</v>
@@ -29799,7 +29799,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ138">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AR138">
         <v>1.91</v>
@@ -30417,7 +30417,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ141">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AR141">
         <v>1.27</v>
@@ -30620,10 +30620,10 @@
         <v>2</v>
       </c>
       <c r="AP142">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ142">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AR142">
         <v>1.73</v>
@@ -34122,7 +34122,7 @@
         <v>0.33</v>
       </c>
       <c r="AP159">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ159">
         <v>0.25</v>
@@ -34743,7 +34743,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ162">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AR162">
         <v>1.39</v>
@@ -34949,7 +34949,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ163">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AR163">
         <v>1.17</v>
@@ -35358,7 +35358,7 @@
         <v>0.89</v>
       </c>
       <c r="AP165">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ165">
         <v>1.07</v>
@@ -38860,10 +38860,10 @@
         <v>2.38</v>
       </c>
       <c r="AP182">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ182">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AR182">
         <v>1.54</v>
@@ -39069,7 +39069,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ183">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AR183">
         <v>1.28</v>
@@ -40717,7 +40717,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ191">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AR191">
         <v>1.41</v>
@@ -40920,7 +40920,7 @@
         <v>1.6</v>
       </c>
       <c r="AP192">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ192">
         <v>1.36</v>
@@ -42156,7 +42156,7 @@
         <v>1.73</v>
       </c>
       <c r="AP198">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ198">
         <v>1.93</v>
@@ -44631,7 +44631,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ210">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AR210">
         <v>1.33</v>
@@ -45246,7 +45246,7 @@
         <v>1.58</v>
       </c>
       <c r="AP213">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ213">
         <v>1.87</v>
@@ -45867,7 +45867,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ216">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AR216">
         <v>1.42</v>
@@ -46279,7 +46279,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ218">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AR218">
         <v>1.27</v>
@@ -46688,7 +46688,7 @@
         <v>0.92</v>
       </c>
       <c r="AP220">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ220">
         <v>0.8100000000000001</v>
@@ -46897,7 +46897,7 @@
         <v>1</v>
       </c>
       <c r="AQ221">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AR221">
         <v>0.96</v>
@@ -47718,7 +47718,7 @@
         <v>1</v>
       </c>
       <c r="AP225">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ225">
         <v>1.07</v>
@@ -49781,7 +49781,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ235">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AR235">
         <v>1.55</v>
@@ -50602,7 +50602,7 @@
         <v>1.17</v>
       </c>
       <c r="AP239">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ239">
         <v>1.07</v>
@@ -50808,7 +50808,7 @@
         <v>1.08</v>
       </c>
       <c r="AP240">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ240">
         <v>1</v>
@@ -51017,7 +51017,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ241">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AR241">
         <v>1.36</v>
@@ -53074,7 +53074,7 @@
         <v>0.93</v>
       </c>
       <c r="AP251">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ251">
         <v>0.87</v>
@@ -53695,7 +53695,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ254">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AR254">
         <v>1.39</v>
@@ -54519,7 +54519,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ258">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="AR258">
         <v>1.63</v>
@@ -54928,7 +54928,7 @@
         <v>0.64</v>
       </c>
       <c r="AP260">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AQ260">
         <v>0.63</v>
@@ -55137,7 +55137,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ261">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AR261">
         <v>1.25</v>
@@ -55958,7 +55958,7 @@
         <v>0.93</v>
       </c>
       <c r="AP265">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ265">
         <v>0.93</v>
@@ -56991,7 +56991,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ270">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AR270">
         <v>1.9</v>
@@ -57067,6 +57067,418 @@
       </c>
       <c r="BP270">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="271" spans="1:68">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>7364266</v>
+      </c>
+      <c r="C271" t="s">
+        <v>68</v>
+      </c>
+      <c r="D271" t="s">
+        <v>69</v>
+      </c>
+      <c r="E271" s="2">
+        <v>45499.625</v>
+      </c>
+      <c r="F271">
+        <v>18</v>
+      </c>
+      <c r="G271" t="s">
+        <v>80</v>
+      </c>
+      <c r="H271" t="s">
+        <v>78</v>
+      </c>
+      <c r="I271">
+        <v>1</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>1</v>
+      </c>
+      <c r="L271">
+        <v>1</v>
+      </c>
+      <c r="M271">
+        <v>1</v>
+      </c>
+      <c r="N271">
+        <v>2</v>
+      </c>
+      <c r="O271" t="s">
+        <v>91</v>
+      </c>
+      <c r="P271" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q271">
+        <v>4.5</v>
+      </c>
+      <c r="R271">
+        <v>2.2</v>
+      </c>
+      <c r="S271">
+        <v>2.38</v>
+      </c>
+      <c r="T271">
+        <v>1.37</v>
+      </c>
+      <c r="U271">
+        <v>3.01</v>
+      </c>
+      <c r="V271">
+        <v>2.87</v>
+      </c>
+      <c r="W271">
+        <v>1.4</v>
+      </c>
+      <c r="X271">
+        <v>6</v>
+      </c>
+      <c r="Y271">
+        <v>1.09</v>
+      </c>
+      <c r="Z271">
+        <v>4.33</v>
+      </c>
+      <c r="AA271">
+        <v>3.6</v>
+      </c>
+      <c r="AB271">
+        <v>1.73</v>
+      </c>
+      <c r="AC271">
+        <v>1.01</v>
+      </c>
+      <c r="AD271">
+        <v>2.6</v>
+      </c>
+      <c r="AE271">
+        <v>1.16</v>
+      </c>
+      <c r="AF271">
+        <v>2.6</v>
+      </c>
+      <c r="AG271">
+        <v>1.75</v>
+      </c>
+      <c r="AH271">
+        <v>2.05</v>
+      </c>
+      <c r="AI271">
+        <v>1.73</v>
+      </c>
+      <c r="AJ271">
+        <v>2</v>
+      </c>
+      <c r="AK271">
+        <v>1.63</v>
+      </c>
+      <c r="AL271">
+        <v>1.36</v>
+      </c>
+      <c r="AM271">
+        <v>1.29</v>
+      </c>
+      <c r="AN271">
+        <v>2.08</v>
+      </c>
+      <c r="AO271">
+        <v>2.43</v>
+      </c>
+      <c r="AP271">
+        <v>2</v>
+      </c>
+      <c r="AQ271">
+        <v>2.33</v>
+      </c>
+      <c r="AR271">
+        <v>1.63</v>
+      </c>
+      <c r="AS271">
+        <v>1.61</v>
+      </c>
+      <c r="AT271">
+        <v>3.24</v>
+      </c>
+      <c r="AU271">
+        <v>2</v>
+      </c>
+      <c r="AV271">
+        <v>7</v>
+      </c>
+      <c r="AW271">
+        <v>4</v>
+      </c>
+      <c r="AX271">
+        <v>15</v>
+      </c>
+      <c r="AY271">
+        <v>6</v>
+      </c>
+      <c r="AZ271">
+        <v>22</v>
+      </c>
+      <c r="BA271">
+        <v>0</v>
+      </c>
+      <c r="BB271">
+        <v>7</v>
+      </c>
+      <c r="BC271">
+        <v>7</v>
+      </c>
+      <c r="BD271">
+        <v>2.47</v>
+      </c>
+      <c r="BE271">
+        <v>7.4</v>
+      </c>
+      <c r="BF271">
+        <v>1.82</v>
+      </c>
+      <c r="BG271">
+        <v>1.3</v>
+      </c>
+      <c r="BH271">
+        <v>3.2</v>
+      </c>
+      <c r="BI271">
+        <v>1.56</v>
+      </c>
+      <c r="BJ271">
+        <v>2.38</v>
+      </c>
+      <c r="BK271">
+        <v>2.38</v>
+      </c>
+      <c r="BL271">
+        <v>1.87</v>
+      </c>
+      <c r="BM271">
+        <v>2.43</v>
+      </c>
+      <c r="BN271">
+        <v>1.54</v>
+      </c>
+      <c r="BO271">
+        <v>3</v>
+      </c>
+      <c r="BP271">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="272" spans="1:68">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>7364265</v>
+      </c>
+      <c r="C272" t="s">
+        <v>68</v>
+      </c>
+      <c r="D272" t="s">
+        <v>69</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45499.625</v>
+      </c>
+      <c r="F272">
+        <v>18</v>
+      </c>
+      <c r="G272" t="s">
+        <v>85</v>
+      </c>
+      <c r="H272" t="s">
+        <v>72</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <v>0</v>
+      </c>
+      <c r="L272">
+        <v>0</v>
+      </c>
+      <c r="M272">
+        <v>1</v>
+      </c>
+      <c r="N272">
+        <v>1</v>
+      </c>
+      <c r="O272" t="s">
+        <v>92</v>
+      </c>
+      <c r="P272" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q272">
+        <v>6.5</v>
+      </c>
+      <c r="R272">
+        <v>2.3</v>
+      </c>
+      <c r="S272">
+        <v>1.91</v>
+      </c>
+      <c r="T272">
+        <v>1.4</v>
+      </c>
+      <c r="U272">
+        <v>2.75</v>
+      </c>
+      <c r="V272">
+        <v>2.8</v>
+      </c>
+      <c r="W272">
+        <v>1.38</v>
+      </c>
+      <c r="X272">
+        <v>6.4</v>
+      </c>
+      <c r="Y272">
+        <v>1.1</v>
+      </c>
+      <c r="Z272">
+        <v>7</v>
+      </c>
+      <c r="AA272">
+        <v>4.1</v>
+      </c>
+      <c r="AB272">
+        <v>1.42</v>
+      </c>
+      <c r="AC272">
+        <v>1.05</v>
+      </c>
+      <c r="AD272">
+        <v>8.5</v>
+      </c>
+      <c r="AE272">
+        <v>1.3</v>
+      </c>
+      <c r="AF272">
+        <v>3.3</v>
+      </c>
+      <c r="AG272">
+        <v>1.8</v>
+      </c>
+      <c r="AH272">
+        <v>2</v>
+      </c>
+      <c r="AI272">
+        <v>2</v>
+      </c>
+      <c r="AJ272">
+        <v>1.73</v>
+      </c>
+      <c r="AK272">
+        <v>2.4</v>
+      </c>
+      <c r="AL272">
+        <v>1.18</v>
+      </c>
+      <c r="AM272">
+        <v>1.09</v>
+      </c>
+      <c r="AN272">
+        <v>1.6</v>
+      </c>
+      <c r="AO272">
+        <v>2.43</v>
+      </c>
+      <c r="AP272">
+        <v>1.5</v>
+      </c>
+      <c r="AQ272">
+        <v>2.47</v>
+      </c>
+      <c r="AR272">
+        <v>1.36</v>
+      </c>
+      <c r="AS272">
+        <v>1.69</v>
+      </c>
+      <c r="AT272">
+        <v>3.05</v>
+      </c>
+      <c r="AU272">
+        <v>3</v>
+      </c>
+      <c r="AV272">
+        <v>6</v>
+      </c>
+      <c r="AW272">
+        <v>5</v>
+      </c>
+      <c r="AX272">
+        <v>5</v>
+      </c>
+      <c r="AY272">
+        <v>8</v>
+      </c>
+      <c r="AZ272">
+        <v>11</v>
+      </c>
+      <c r="BA272">
+        <v>5</v>
+      </c>
+      <c r="BB272">
+        <v>5</v>
+      </c>
+      <c r="BC272">
+        <v>10</v>
+      </c>
+      <c r="BD272">
+        <v>4.06</v>
+      </c>
+      <c r="BE272">
+        <v>8</v>
+      </c>
+      <c r="BF272">
+        <v>1.39</v>
+      </c>
+      <c r="BG272">
+        <v>1.33</v>
+      </c>
+      <c r="BH272">
+        <v>3</v>
+      </c>
+      <c r="BI272">
+        <v>1.55</v>
+      </c>
+      <c r="BJ272">
+        <v>2.37</v>
+      </c>
+      <c r="BK272">
+        <v>2.25</v>
+      </c>
+      <c r="BL272">
+        <v>1.88</v>
+      </c>
+      <c r="BM272">
+        <v>2.4</v>
+      </c>
+      <c r="BN272">
+        <v>1.54</v>
+      </c>
+      <c r="BO272">
+        <v>3.2</v>
+      </c>
+      <c r="BP272">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -57212,19 +57212,19 @@
         <v>2</v>
       </c>
       <c r="AV271">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW271">
+        <v>2</v>
+      </c>
+      <c r="AX271">
+        <v>12</v>
+      </c>
+      <c r="AY271">
         <v>4</v>
       </c>
-      <c r="AX271">
-        <v>15</v>
-      </c>
-      <c r="AY271">
-        <v>6</v>
-      </c>
       <c r="AZ271">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="BA271">
         <v>0</v>
@@ -57415,22 +57415,22 @@
         <v>3.05</v>
       </c>
       <c r="AU272">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV272">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW272">
         <v>5</v>
       </c>
       <c r="AX272">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY272">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ272">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA272">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="358">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -739,6 +739,12 @@
     <t>['3', '29', '52']</t>
   </si>
   <si>
+    <t>['30', '53']</t>
+  </si>
+  <si>
+    <t>['37', '64', '90+6', '90+8']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -1443,7 +1449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP272"/>
+  <dimension ref="A1:BP274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2192,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ4">
         <v>1.87</v>
@@ -2526,7 +2532,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2604,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ6">
         <v>0.63</v>
@@ -2938,7 +2944,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3225,7 +3231,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ9">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3350,7 +3356,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3431,7 +3437,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3762,7 +3768,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3968,7 +3974,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -4174,7 +4180,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -5204,7 +5210,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5616,7 +5622,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5822,7 +5828,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -5903,7 +5909,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ22">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>1.22</v>
@@ -6028,7 +6034,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -6234,7 +6240,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6315,7 +6321,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ24">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR24">
         <v>0.44</v>
@@ -6646,7 +6652,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6724,7 +6730,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ26">
         <v>0.87</v>
@@ -7470,7 +7476,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7676,7 +7682,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -8088,7 +8094,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8166,7 +8172,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ33">
         <v>1.86</v>
@@ -8706,7 +8712,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -8993,7 +8999,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ37">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR37">
         <v>1.06</v>
@@ -9118,7 +9124,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9324,7 +9330,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9530,7 +9536,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9817,7 +9823,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ41">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.48</v>
@@ -10148,7 +10154,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10354,7 +10360,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10560,7 +10566,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -11178,7 +11184,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11384,7 +11390,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11462,7 +11468,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ49">
         <v>2.47</v>
@@ -11796,7 +11802,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -12002,7 +12008,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12208,7 +12214,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12620,7 +12626,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12904,7 +12910,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ56">
         <v>1.13</v>
@@ -13032,7 +13038,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13113,7 +13119,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ57">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR57">
         <v>1.05</v>
@@ -13856,7 +13862,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -14268,7 +14274,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14349,7 +14355,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ63">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR63">
         <v>1</v>
@@ -14474,7 +14480,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14680,7 +14686,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -15092,7 +15098,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15376,7 +15382,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ68">
         <v>0.25</v>
@@ -15504,7 +15510,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15791,7 +15797,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ70">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>1.2</v>
@@ -15997,7 +16003,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ71">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR71">
         <v>1.39</v>
@@ -16122,7 +16128,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q72">
         <v>1.8</v>
@@ -16534,7 +16540,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16740,7 +16746,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -17152,7 +17158,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17358,7 +17364,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17770,7 +17776,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -18800,7 +18806,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -19006,7 +19012,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19212,7 +19218,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19624,7 +19630,7 @@
         <v>92</v>
       </c>
       <c r="P89" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q89">
         <v>3.6</v>
@@ -19702,7 +19708,7 @@
         <v>1.2</v>
       </c>
       <c r="AP89">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ89">
         <v>1.36</v>
@@ -19830,7 +19836,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q90">
         <v>3.5</v>
@@ -20529,7 +20535,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ93">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR93">
         <v>1.44</v>
@@ -21272,7 +21278,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21559,7 +21565,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ98">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR98">
         <v>1.43</v>
@@ -21890,7 +21896,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -22302,7 +22308,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22383,7 +22389,7 @@
         <v>0.93</v>
       </c>
       <c r="AQ102">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR102">
         <v>1.24</v>
@@ -22508,7 +22514,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23332,7 +23338,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23410,7 +23416,7 @@
         <v>1.4</v>
       </c>
       <c r="AP107">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ107">
         <v>1.87</v>
@@ -23616,7 +23622,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ108">
         <v>0.63</v>
@@ -23744,7 +23750,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24156,7 +24162,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24774,7 +24780,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -25804,7 +25810,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -26010,7 +26016,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -26088,7 +26094,7 @@
         <v>0.43</v>
       </c>
       <c r="AP120">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ120">
         <v>0.87</v>
@@ -26216,7 +26222,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26503,7 +26509,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ122">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR122">
         <v>1.59</v>
@@ -26834,7 +26840,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -27040,7 +27046,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27246,7 +27252,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27327,7 +27333,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ126">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR126">
         <v>1.36</v>
@@ -27452,7 +27458,7 @@
         <v>94</v>
       </c>
       <c r="P127" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q127">
         <v>3.4</v>
@@ -27864,7 +27870,7 @@
         <v>148</v>
       </c>
       <c r="P129" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q129">
         <v>2.6</v>
@@ -28276,7 +28282,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28894,7 +28900,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -28972,7 +28978,7 @@
         <v>1.71</v>
       </c>
       <c r="AP134">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ134">
         <v>1.36</v>
@@ -29100,7 +29106,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29306,7 +29312,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29924,7 +29930,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q139">
         <v>3.15</v>
@@ -30336,7 +30342,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -30414,7 +30420,7 @@
         <v>2.17</v>
       </c>
       <c r="AP141">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ141">
         <v>2.33</v>
@@ -31160,7 +31166,7 @@
         <v>92</v>
       </c>
       <c r="P145" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31366,7 +31372,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31572,7 +31578,7 @@
         <v>108</v>
       </c>
       <c r="P147" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -33014,7 +33020,7 @@
         <v>128</v>
       </c>
       <c r="P154" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33426,7 +33432,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q156">
         <v>1.91</v>
@@ -33632,7 +33638,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34328,7 +34334,7 @@
         <v>0.78</v>
       </c>
       <c r="AP160">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ160">
         <v>1.13</v>
@@ -34456,7 +34462,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34662,7 +34668,7 @@
         <v>151</v>
       </c>
       <c r="P162" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -34868,7 +34874,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -35486,7 +35492,7 @@
         <v>92</v>
       </c>
       <c r="P166" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q166">
         <v>3</v>
@@ -35692,7 +35698,7 @@
         <v>191</v>
       </c>
       <c r="P167" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35898,7 +35904,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
@@ -36104,7 +36110,7 @@
         <v>192</v>
       </c>
       <c r="P169" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -36185,7 +36191,7 @@
         <v>1</v>
       </c>
       <c r="AQ169">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR169">
         <v>0.93</v>
@@ -36388,7 +36394,7 @@
         <v>1.63</v>
       </c>
       <c r="AP170">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ170">
         <v>1</v>
@@ -36597,7 +36603,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ171">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR171">
         <v>1.57</v>
@@ -36722,7 +36728,7 @@
         <v>194</v>
       </c>
       <c r="P172" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -37134,7 +37140,7 @@
         <v>92</v>
       </c>
       <c r="P174" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q174">
         <v>4.8</v>
@@ -37418,7 +37424,7 @@
         <v>1.4</v>
       </c>
       <c r="AP175">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ175">
         <v>1.25</v>
@@ -37752,7 +37758,7 @@
         <v>128</v>
       </c>
       <c r="P177" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q177">
         <v>3.25</v>
@@ -38164,7 +38170,7 @@
         <v>118</v>
       </c>
       <c r="P179" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38654,7 +38660,7 @@
         <v>1.27</v>
       </c>
       <c r="AP181">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ181">
         <v>1.25</v>
@@ -38782,7 +38788,7 @@
         <v>92</v>
       </c>
       <c r="P182" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q182">
         <v>4.33</v>
@@ -38988,7 +38994,7 @@
         <v>200</v>
       </c>
       <c r="P183" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q183">
         <v>9</v>
@@ -39194,7 +39200,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q184">
         <v>3.4</v>
@@ -39400,7 +39406,7 @@
         <v>108</v>
       </c>
       <c r="P185" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -39893,7 +39899,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ187">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR187">
         <v>2.01</v>
@@ -40224,7 +40230,7 @@
         <v>92</v>
       </c>
       <c r="P189" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q189">
         <v>3.5</v>
@@ -40430,7 +40436,7 @@
         <v>202</v>
       </c>
       <c r="P190" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q190">
         <v>3.8</v>
@@ -40636,7 +40642,7 @@
         <v>92</v>
       </c>
       <c r="P191" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -41332,7 +41338,7 @@
         <v>0.91</v>
       </c>
       <c r="AP194">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ194">
         <v>0.8100000000000001</v>
@@ -42490,7 +42496,7 @@
         <v>204</v>
       </c>
       <c r="P200" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q200">
         <v>3.75</v>
@@ -42571,7 +42577,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ200">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR200">
         <v>1.16</v>
@@ -42902,7 +42908,7 @@
         <v>206</v>
       </c>
       <c r="P202" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q202">
         <v>3.2</v>
@@ -43726,7 +43732,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q206">
         <v>4.5</v>
@@ -43807,7 +43813,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ206">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR206">
         <v>1.4</v>
@@ -44138,7 +44144,7 @@
         <v>209</v>
       </c>
       <c r="P208" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q208">
         <v>2.75</v>
@@ -44344,7 +44350,7 @@
         <v>194</v>
       </c>
       <c r="P209" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q209">
         <v>3.5</v>
@@ -44425,7 +44431,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ209">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR209">
         <v>1.55</v>
@@ -44550,7 +44556,7 @@
         <v>179</v>
       </c>
       <c r="P210" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q210">
         <v>7.5</v>
@@ -44756,7 +44762,7 @@
         <v>210</v>
       </c>
       <c r="P211" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q211">
         <v>3.75</v>
@@ -44834,7 +44840,7 @@
         <v>1.25</v>
       </c>
       <c r="AP211">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ211">
         <v>1</v>
@@ -44962,7 +44968,7 @@
         <v>94</v>
       </c>
       <c r="P212" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q212">
         <v>3.4</v>
@@ -45168,7 +45174,7 @@
         <v>211</v>
       </c>
       <c r="P213" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q213">
         <v>2.78</v>
@@ -45374,7 +45380,7 @@
         <v>212</v>
       </c>
       <c r="P214" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q214">
         <v>3.2</v>
@@ -45580,7 +45586,7 @@
         <v>213</v>
       </c>
       <c r="P215" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q215">
         <v>2.2</v>
@@ -45786,7 +45792,7 @@
         <v>92</v>
       </c>
       <c r="P216" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q216">
         <v>7</v>
@@ -45992,7 +45998,7 @@
         <v>214</v>
       </c>
       <c r="P217" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q217">
         <v>2.88</v>
@@ -46198,7 +46204,7 @@
         <v>92</v>
       </c>
       <c r="P218" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q218">
         <v>7.5</v>
@@ -46404,7 +46410,7 @@
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q219">
         <v>3.1</v>
@@ -46816,7 +46822,7 @@
         <v>216</v>
       </c>
       <c r="P221" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q221">
         <v>0</v>
@@ -47022,7 +47028,7 @@
         <v>217</v>
       </c>
       <c r="P222" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q222">
         <v>3.4</v>
@@ -47640,7 +47646,7 @@
         <v>92</v>
       </c>
       <c r="P225" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q225">
         <v>3</v>
@@ -47721,7 +47727,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ225">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR225">
         <v>1.45</v>
@@ -47846,7 +47852,7 @@
         <v>218</v>
       </c>
       <c r="P226" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q226">
         <v>1.9</v>
@@ -48748,10 +48754,10 @@
         <v>1.4</v>
       </c>
       <c r="AP230">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ230">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR230">
         <v>1.73</v>
@@ -48876,7 +48882,7 @@
         <v>92</v>
       </c>
       <c r="P231" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q231">
         <v>4.75</v>
@@ -49082,7 +49088,7 @@
         <v>221</v>
       </c>
       <c r="P232" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q232">
         <v>2.63</v>
@@ -49494,7 +49500,7 @@
         <v>222</v>
       </c>
       <c r="P234" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q234">
         <v>3.6</v>
@@ -49572,7 +49578,7 @@
         <v>0.77</v>
       </c>
       <c r="AP234">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ234">
         <v>1.07</v>
@@ -49700,7 +49706,7 @@
         <v>223</v>
       </c>
       <c r="P235" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q235">
         <v>5</v>
@@ -49906,7 +49912,7 @@
         <v>224</v>
       </c>
       <c r="P236" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q236">
         <v>1.62</v>
@@ -49984,7 +49990,7 @@
         <v>0.86</v>
       </c>
       <c r="AP236">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ236">
         <v>0.8100000000000001</v>
@@ -50318,7 +50324,7 @@
         <v>222</v>
       </c>
       <c r="P238" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q238">
         <v>2.38</v>
@@ -50524,7 +50530,7 @@
         <v>225</v>
       </c>
       <c r="P239" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q239">
         <v>2.5</v>
@@ -50605,7 +50611,7 @@
         <v>2</v>
       </c>
       <c r="AQ239">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR239">
         <v>1.7</v>
@@ -50936,7 +50942,7 @@
         <v>92</v>
       </c>
       <c r="P241" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q241">
         <v>7.5</v>
@@ -51142,7 +51148,7 @@
         <v>227</v>
       </c>
       <c r="P242" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q242">
         <v>2.4</v>
@@ -51841,7 +51847,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ245">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR245">
         <v>1.31</v>
@@ -52250,7 +52256,7 @@
         <v>0.29</v>
       </c>
       <c r="AP247">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ247">
         <v>0.25</v>
@@ -52790,7 +52796,7 @@
         <v>92</v>
       </c>
       <c r="P250" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q250">
         <v>5</v>
@@ -52996,7 +53002,7 @@
         <v>231</v>
       </c>
       <c r="P251" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q251">
         <v>2.1</v>
@@ -53283,7 +53289,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ252">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR252">
         <v>1.3</v>
@@ -53614,7 +53620,7 @@
         <v>92</v>
       </c>
       <c r="P254" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q254">
         <v>6.5</v>
@@ -53898,7 +53904,7 @@
         <v>1.07</v>
       </c>
       <c r="AP255">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ255">
         <v>1</v>
@@ -54026,7 +54032,7 @@
         <v>234</v>
       </c>
       <c r="P256" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q256">
         <v>4.75</v>
@@ -54104,7 +54110,7 @@
         <v>1.86</v>
       </c>
       <c r="AP256">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ256">
         <v>1.93</v>
@@ -54232,7 +54238,7 @@
         <v>174</v>
       </c>
       <c r="P257" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q257">
         <v>5.5</v>
@@ -54313,7 +54319,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ257">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR257">
         <v>1.29</v>
@@ -54438,7 +54444,7 @@
         <v>235</v>
       </c>
       <c r="P258" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q258">
         <v>2.75</v>
@@ -54516,7 +54522,7 @@
         <v>2.62</v>
       </c>
       <c r="AP258">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
       <c r="AQ258">
         <v>2.33</v>
@@ -54644,7 +54650,7 @@
         <v>236</v>
       </c>
       <c r="P259" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q259">
         <v>3</v>
@@ -55056,7 +55062,7 @@
         <v>194</v>
       </c>
       <c r="P261" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q261">
         <v>6</v>
@@ -55880,7 +55886,7 @@
         <v>238</v>
       </c>
       <c r="P265" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q265">
         <v>2.6</v>
@@ -56086,7 +56092,7 @@
         <v>200</v>
       </c>
       <c r="P266" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q266">
         <v>3.25</v>
@@ -56292,7 +56298,7 @@
         <v>239</v>
       </c>
       <c r="P267" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q267">
         <v>7</v>
@@ -56373,7 +56379,7 @@
         <v>1</v>
       </c>
       <c r="AQ267">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR267">
         <v>0.97</v>
@@ -57116,7 +57122,7 @@
         <v>91</v>
       </c>
       <c r="P271" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q271">
         <v>4.5</v>
@@ -57322,7 +57328,7 @@
         <v>92</v>
       </c>
       <c r="P272" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q272">
         <v>6.5</v>
@@ -57479,6 +57485,418 @@
       </c>
       <c r="BP272">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:68">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>7364274</v>
+      </c>
+      <c r="C273" t="s">
+        <v>68</v>
+      </c>
+      <c r="D273" t="s">
+        <v>69</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45502.625</v>
+      </c>
+      <c r="F273">
+        <v>19</v>
+      </c>
+      <c r="G273" t="s">
+        <v>74</v>
+      </c>
+      <c r="H273" t="s">
+        <v>80</v>
+      </c>
+      <c r="I273">
+        <v>1</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="K273">
+        <v>1</v>
+      </c>
+      <c r="L273">
+        <v>2</v>
+      </c>
+      <c r="M273">
+        <v>1</v>
+      </c>
+      <c r="N273">
+        <v>3</v>
+      </c>
+      <c r="O273" t="s">
+        <v>241</v>
+      </c>
+      <c r="P273" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q273">
+        <v>4.75</v>
+      </c>
+      <c r="R273">
+        <v>2.1</v>
+      </c>
+      <c r="S273">
+        <v>2.3</v>
+      </c>
+      <c r="T273">
+        <v>1.36</v>
+      </c>
+      <c r="U273">
+        <v>3</v>
+      </c>
+      <c r="V273">
+        <v>2.62</v>
+      </c>
+      <c r="W273">
+        <v>1.44</v>
+      </c>
+      <c r="X273">
+        <v>6.5</v>
+      </c>
+      <c r="Y273">
+        <v>1.1</v>
+      </c>
+      <c r="Z273">
+        <v>4.1</v>
+      </c>
+      <c r="AA273">
+        <v>3.6</v>
+      </c>
+      <c r="AB273">
+        <v>1.67</v>
+      </c>
+      <c r="AC273">
+        <v>1.02</v>
+      </c>
+      <c r="AD273">
+        <v>8.9</v>
+      </c>
+      <c r="AE273">
+        <v>1.31</v>
+      </c>
+      <c r="AF273">
+        <v>3.3</v>
+      </c>
+      <c r="AG273">
+        <v>2.05</v>
+      </c>
+      <c r="AH273">
+        <v>1.75</v>
+      </c>
+      <c r="AI273">
+        <v>1.91</v>
+      </c>
+      <c r="AJ273">
+        <v>1.8</v>
+      </c>
+      <c r="AK273">
+        <v>2.26</v>
+      </c>
+      <c r="AL273">
+        <v>1.28</v>
+      </c>
+      <c r="AM273">
+        <v>1.16</v>
+      </c>
+      <c r="AN273">
+        <v>0.5</v>
+      </c>
+      <c r="AO273">
+        <v>1.5</v>
+      </c>
+      <c r="AP273">
+        <v>0.67</v>
+      </c>
+      <c r="AQ273">
+        <v>1.4</v>
+      </c>
+      <c r="AR273">
+        <v>1.19</v>
+      </c>
+      <c r="AS273">
+        <v>1.64</v>
+      </c>
+      <c r="AT273">
+        <v>2.83</v>
+      </c>
+      <c r="AU273">
+        <v>5</v>
+      </c>
+      <c r="AV273">
+        <v>2</v>
+      </c>
+      <c r="AW273">
+        <v>4</v>
+      </c>
+      <c r="AX273">
+        <v>5</v>
+      </c>
+      <c r="AY273">
+        <v>9</v>
+      </c>
+      <c r="AZ273">
+        <v>7</v>
+      </c>
+      <c r="BA273">
+        <v>7</v>
+      </c>
+      <c r="BB273">
+        <v>5</v>
+      </c>
+      <c r="BC273">
+        <v>12</v>
+      </c>
+      <c r="BD273">
+        <v>3.24</v>
+      </c>
+      <c r="BE273">
+        <v>6.8</v>
+      </c>
+      <c r="BF273">
+        <v>1.51</v>
+      </c>
+      <c r="BG273">
+        <v>1.25</v>
+      </c>
+      <c r="BH273">
+        <v>3.42</v>
+      </c>
+      <c r="BI273">
+        <v>1.47</v>
+      </c>
+      <c r="BJ273">
+        <v>2.42</v>
+      </c>
+      <c r="BK273">
+        <v>1.81</v>
+      </c>
+      <c r="BL273">
+        <v>1.85</v>
+      </c>
+      <c r="BM273">
+        <v>2.34</v>
+      </c>
+      <c r="BN273">
+        <v>1.5</v>
+      </c>
+      <c r="BO273">
+        <v>3.18</v>
+      </c>
+      <c r="BP273">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="274" spans="1:68">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>7364272</v>
+      </c>
+      <c r="C274" t="s">
+        <v>68</v>
+      </c>
+      <c r="D274" t="s">
+        <v>69</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45502.625</v>
+      </c>
+      <c r="F274">
+        <v>19</v>
+      </c>
+      <c r="G274" t="s">
+        <v>72</v>
+      </c>
+      <c r="H274" t="s">
+        <v>87</v>
+      </c>
+      <c r="I274">
+        <v>1</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>1</v>
+      </c>
+      <c r="L274">
+        <v>4</v>
+      </c>
+      <c r="M274">
+        <v>1</v>
+      </c>
+      <c r="N274">
+        <v>5</v>
+      </c>
+      <c r="O274" t="s">
+        <v>242</v>
+      </c>
+      <c r="P274" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q274">
+        <v>1.8</v>
+      </c>
+      <c r="R274">
+        <v>2.38</v>
+      </c>
+      <c r="S274">
+        <v>7.5</v>
+      </c>
+      <c r="T274">
+        <v>1.4</v>
+      </c>
+      <c r="U274">
+        <v>2.75</v>
+      </c>
+      <c r="V274">
+        <v>2.75</v>
+      </c>
+      <c r="W274">
+        <v>1.4</v>
+      </c>
+      <c r="X274">
+        <v>7</v>
+      </c>
+      <c r="Y274">
+        <v>1.08</v>
+      </c>
+      <c r="Z274">
+        <v>1.33</v>
+      </c>
+      <c r="AA274">
+        <v>5</v>
+      </c>
+      <c r="AB274">
+        <v>9</v>
+      </c>
+      <c r="AC274">
+        <v>1.02</v>
+      </c>
+      <c r="AD274">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE274">
+        <v>1.26</v>
+      </c>
+      <c r="AF274">
+        <v>3.44</v>
+      </c>
+      <c r="AG274">
+        <v>1.75</v>
+      </c>
+      <c r="AH274">
+        <v>2.05</v>
+      </c>
+      <c r="AI274">
+        <v>2.2</v>
+      </c>
+      <c r="AJ274">
+        <v>1.62</v>
+      </c>
+      <c r="AK274">
+        <v>1.3</v>
+      </c>
+      <c r="AL274">
+        <v>1.3</v>
+      </c>
+      <c r="AM274">
+        <v>1.53</v>
+      </c>
+      <c r="AN274">
+        <v>2.67</v>
+      </c>
+      <c r="AO274">
+        <v>1.07</v>
+      </c>
+      <c r="AP274">
+        <v>2.69</v>
+      </c>
+      <c r="AQ274">
+        <v>1</v>
+      </c>
+      <c r="AR274">
+        <v>1.59</v>
+      </c>
+      <c r="AS274">
+        <v>1.58</v>
+      </c>
+      <c r="AT274">
+        <v>3.17</v>
+      </c>
+      <c r="AU274">
+        <v>7</v>
+      </c>
+      <c r="AV274">
+        <v>3</v>
+      </c>
+      <c r="AW274">
+        <v>6</v>
+      </c>
+      <c r="AX274">
+        <v>2</v>
+      </c>
+      <c r="AY274">
+        <v>13</v>
+      </c>
+      <c r="AZ274">
+        <v>5</v>
+      </c>
+      <c r="BA274">
+        <v>6</v>
+      </c>
+      <c r="BB274">
+        <v>4</v>
+      </c>
+      <c r="BC274">
+        <v>10</v>
+      </c>
+      <c r="BD274">
+        <v>1.15</v>
+      </c>
+      <c r="BE274">
+        <v>9.6</v>
+      </c>
+      <c r="BF274">
+        <v>6.85</v>
+      </c>
+      <c r="BG274">
+        <v>1.25</v>
+      </c>
+      <c r="BH274">
+        <v>3.6</v>
+      </c>
+      <c r="BI274">
+        <v>1.36</v>
+      </c>
+      <c r="BJ274">
+        <v>2.79</v>
+      </c>
+      <c r="BK274">
+        <v>2</v>
+      </c>
+      <c r="BL274">
+        <v>2.09</v>
+      </c>
+      <c r="BM274">
+        <v>2.04</v>
+      </c>
+      <c r="BN274">
+        <v>1.66</v>
+      </c>
+      <c r="BO274">
+        <v>2.67</v>
+      </c>
+      <c r="BP274">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1706" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="361">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -745,6 +745,12 @@
     <t>['37', '64', '90+6', '90+8']</t>
   </si>
   <si>
+    <t>['14', '52', '90+4', '90+7']</t>
+  </si>
+  <si>
+    <t>['1', '22']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -1088,6 +1094,9 @@
   </si>
   <si>
     <t>['19', '55']</t>
+  </si>
+  <si>
+    <t>['19', '80']</t>
   </si>
 </sst>
 </file>
@@ -1449,7 +1458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP274"/>
+  <dimension ref="A1:BP277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1995,7 +2004,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ3">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2404,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ5">
         <v>1.36</v>
@@ -2532,7 +2541,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2944,7 +2953,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3356,7 +3365,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3643,7 +3652,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ11">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3768,7 +3777,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3974,7 +3983,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -4052,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ13">
         <v>1.13</v>
@@ -4180,7 +4189,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4467,7 +4476,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -5210,7 +5219,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5622,7 +5631,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5828,7 +5837,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -6034,7 +6043,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -6112,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ23">
         <v>1.87</v>
@@ -6240,7 +6249,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6652,7 +6661,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6733,7 +6742,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ26">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR26">
         <v>2</v>
@@ -7145,7 +7154,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR28">
         <v>1.47</v>
@@ -7476,7 +7485,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7554,7 +7563,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ30">
         <v>1.25</v>
@@ -7682,7 +7691,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -8094,7 +8103,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8587,7 +8596,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ35">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AR35">
         <v>1.72</v>
@@ -8712,7 +8721,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -9124,7 +9133,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9330,7 +9339,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9536,7 +9545,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -10026,10 +10035,10 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ42">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR42">
         <v>0.84</v>
@@ -10154,7 +10163,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10360,7 +10369,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10566,7 +10575,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10853,7 +10862,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ46">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AR46">
         <v>2.1</v>
@@ -11184,7 +11193,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11262,7 +11271,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ48">
         <v>0.8100000000000001</v>
@@ -11390,7 +11399,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11802,7 +11811,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -11883,7 +11892,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR51">
         <v>1.33</v>
@@ -12008,7 +12017,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12214,7 +12223,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12626,7 +12635,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12707,7 +12716,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ55">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR55">
         <v>1.67</v>
@@ -13038,7 +13047,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13862,7 +13871,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -14146,7 +14155,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ62">
         <v>0.63</v>
@@ -14274,7 +14283,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14480,7 +14489,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14686,7 +14695,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14764,10 +14773,10 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR65">
         <v>1.25</v>
@@ -15098,7 +15107,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15510,7 +15519,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -16128,7 +16137,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q72">
         <v>1.8</v>
@@ -16412,7 +16421,7 @@
         <v>1.25</v>
       </c>
       <c r="AP73">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ73">
         <v>1.13</v>
@@ -16540,7 +16549,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16746,7 +16755,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -17033,7 +17042,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ76">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR76">
         <v>1.17</v>
@@ -17158,7 +17167,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17364,7 +17373,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17442,7 +17451,7 @@
         <v>0.75</v>
       </c>
       <c r="AP78">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ78">
         <v>1.07</v>
@@ -17776,7 +17785,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -18063,7 +18072,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ81">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR81">
         <v>1.59</v>
@@ -18806,7 +18815,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -18884,7 +18893,7 @@
         <v>1.33</v>
       </c>
       <c r="AP85">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ85">
         <v>1.25</v>
@@ -19012,7 +19021,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19093,7 +19102,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ86">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR86">
         <v>1.42</v>
@@ -19218,7 +19227,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19630,7 +19639,7 @@
         <v>92</v>
       </c>
       <c r="P89" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q89">
         <v>3.6</v>
@@ -19836,7 +19845,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q90">
         <v>3.5</v>
@@ -19917,7 +19926,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR90">
         <v>1.45</v>
@@ -20123,7 +20132,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ91">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AR91">
         <v>2.39</v>
@@ -20326,7 +20335,7 @@
         <v>3</v>
       </c>
       <c r="AP92">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ92">
         <v>1.93</v>
@@ -21278,7 +21287,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21896,7 +21905,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -21974,7 +21983,7 @@
         <v>0.6</v>
       </c>
       <c r="AP100">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ100">
         <v>0.8100000000000001</v>
@@ -22308,7 +22317,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22386,7 +22395,7 @@
         <v>0.83</v>
       </c>
       <c r="AP102">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ102">
         <v>1</v>
@@ -22514,7 +22523,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22595,7 +22604,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ103">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR103">
         <v>1.37</v>
@@ -23007,7 +23016,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ105">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR105">
         <v>1.44</v>
@@ -23338,7 +23347,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23750,7 +23759,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24162,7 +24171,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24780,7 +24789,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -25810,7 +25819,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25888,7 +25897,7 @@
         <v>1.67</v>
       </c>
       <c r="AP119">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ119">
         <v>1</v>
@@ -26016,7 +26025,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -26097,7 +26106,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ120">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR120">
         <v>1.23</v>
@@ -26222,7 +26231,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26300,10 +26309,10 @@
         <v>1.75</v>
       </c>
       <c r="AP121">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ121">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AR121">
         <v>0.92</v>
@@ -26840,7 +26849,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -27046,7 +27055,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27252,7 +27261,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27458,7 +27467,7 @@
         <v>94</v>
       </c>
       <c r="P127" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q127">
         <v>3.4</v>
@@ -27870,7 +27879,7 @@
         <v>148</v>
       </c>
       <c r="P129" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q129">
         <v>2.6</v>
@@ -28282,7 +28291,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28775,7 +28784,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ133">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR133">
         <v>1.99</v>
@@ -28900,7 +28909,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -29106,7 +29115,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29187,7 +29196,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ135">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AR135">
         <v>1.42</v>
@@ -29312,7 +29321,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29930,7 +29939,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q139">
         <v>3.15</v>
@@ -30342,7 +30351,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -30423,7 +30432,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ141">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AR141">
         <v>1.27</v>
@@ -31166,7 +31175,7 @@
         <v>92</v>
       </c>
       <c r="P145" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31247,7 +31256,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ145">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR145">
         <v>1.47</v>
@@ -31372,7 +31381,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31578,7 +31587,7 @@
         <v>108</v>
       </c>
       <c r="P147" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -32068,7 +32077,7 @@
         <v>1</v>
       </c>
       <c r="AP149">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ149">
         <v>0.93</v>
@@ -32483,7 +32492,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ151">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR151">
         <v>1.4</v>
@@ -32686,7 +32695,7 @@
         <v>1.88</v>
       </c>
       <c r="AP152">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ152">
         <v>1.93</v>
@@ -33020,7 +33029,7 @@
         <v>128</v>
       </c>
       <c r="P154" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33432,7 +33441,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q156">
         <v>1.91</v>
@@ -33638,7 +33647,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33716,7 +33725,7 @@
         <v>1.7</v>
       </c>
       <c r="AP157">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ157">
         <v>1.86</v>
@@ -34462,7 +34471,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34668,7 +34677,7 @@
         <v>151</v>
       </c>
       <c r="P162" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -34874,7 +34883,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -34955,7 +34964,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ163">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AR163">
         <v>1.17</v>
@@ -35161,7 +35170,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ164">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR164">
         <v>1.13</v>
@@ -35492,7 +35501,7 @@
         <v>92</v>
       </c>
       <c r="P166" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q166">
         <v>3</v>
@@ -35698,7 +35707,7 @@
         <v>191</v>
       </c>
       <c r="P167" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35904,7 +35913,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
@@ -35985,7 +35994,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ168">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR168">
         <v>1.5</v>
@@ -36110,7 +36119,7 @@
         <v>192</v>
       </c>
       <c r="P169" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -36188,7 +36197,7 @@
         <v>1</v>
       </c>
       <c r="AP169">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ169">
         <v>1</v>
@@ -36728,7 +36737,7 @@
         <v>194</v>
       </c>
       <c r="P172" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -37140,7 +37149,7 @@
         <v>92</v>
       </c>
       <c r="P174" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q174">
         <v>4.8</v>
@@ -37758,7 +37767,7 @@
         <v>128</v>
       </c>
       <c r="P177" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q177">
         <v>3.25</v>
@@ -38045,7 +38054,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ178">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR178">
         <v>1.64</v>
@@ -38170,7 +38179,7 @@
         <v>118</v>
       </c>
       <c r="P179" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38788,7 +38797,7 @@
         <v>92</v>
       </c>
       <c r="P182" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q182">
         <v>4.33</v>
@@ -38869,7 +38878,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ182">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AR182">
         <v>1.54</v>
@@ -38994,7 +39003,7 @@
         <v>200</v>
       </c>
       <c r="P183" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q183">
         <v>9</v>
@@ -39072,7 +39081,7 @@
         <v>1.86</v>
       </c>
       <c r="AP183">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ183">
         <v>2.47</v>
@@ -39200,7 +39209,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q184">
         <v>3.4</v>
@@ -39406,7 +39415,7 @@
         <v>108</v>
       </c>
       <c r="P185" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -39487,7 +39496,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ185">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR185">
         <v>1.47</v>
@@ -39690,7 +39699,7 @@
         <v>1.44</v>
       </c>
       <c r="AP186">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ186">
         <v>1</v>
@@ -40230,7 +40239,7 @@
         <v>92</v>
       </c>
       <c r="P189" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q189">
         <v>3.5</v>
@@ -40436,7 +40445,7 @@
         <v>202</v>
       </c>
       <c r="P190" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q190">
         <v>3.8</v>
@@ -40642,7 +40651,7 @@
         <v>92</v>
       </c>
       <c r="P191" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -40723,7 +40732,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ191">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AR191">
         <v>1.41</v>
@@ -41544,7 +41553,7 @@
         <v>0.27</v>
       </c>
       <c r="AP195">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ195">
         <v>0.25</v>
@@ -41753,7 +41762,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ196">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR196">
         <v>1.35</v>
@@ -42496,7 +42505,7 @@
         <v>204</v>
       </c>
       <c r="P200" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q200">
         <v>3.75</v>
@@ -42780,7 +42789,7 @@
         <v>1.09</v>
       </c>
       <c r="AP201">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ201">
         <v>0.93</v>
@@ -42908,7 +42917,7 @@
         <v>206</v>
       </c>
       <c r="P202" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q202">
         <v>3.2</v>
@@ -42989,7 +42998,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ202">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR202">
         <v>1.51</v>
@@ -43732,7 +43741,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q206">
         <v>4.5</v>
@@ -44144,7 +44153,7 @@
         <v>209</v>
       </c>
       <c r="P208" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q208">
         <v>2.75</v>
@@ -44350,7 +44359,7 @@
         <v>194</v>
       </c>
       <c r="P209" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q209">
         <v>3.5</v>
@@ -44556,7 +44565,7 @@
         <v>179</v>
       </c>
       <c r="P210" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q210">
         <v>7.5</v>
@@ -44762,7 +44771,7 @@
         <v>210</v>
       </c>
       <c r="P211" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q211">
         <v>3.75</v>
@@ -44843,7 +44852,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ211">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR211">
         <v>1.19</v>
@@ -44968,7 +44977,7 @@
         <v>94</v>
       </c>
       <c r="P212" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q212">
         <v>3.4</v>
@@ -45174,7 +45183,7 @@
         <v>211</v>
       </c>
       <c r="P213" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q213">
         <v>2.78</v>
@@ -45380,7 +45389,7 @@
         <v>212</v>
       </c>
       <c r="P214" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q214">
         <v>3.2</v>
@@ -45586,7 +45595,7 @@
         <v>213</v>
       </c>
       <c r="P215" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q215">
         <v>2.2</v>
@@ -45792,7 +45801,7 @@
         <v>92</v>
       </c>
       <c r="P216" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q216">
         <v>7</v>
@@ -45998,7 +46007,7 @@
         <v>214</v>
       </c>
       <c r="P217" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q217">
         <v>2.88</v>
@@ -46204,7 +46213,7 @@
         <v>92</v>
       </c>
       <c r="P218" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q218">
         <v>7.5</v>
@@ -46282,10 +46291,10 @@
         <v>2.5</v>
       </c>
       <c r="AP218">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ218">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AR218">
         <v>1.27</v>
@@ -46410,7 +46419,7 @@
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q219">
         <v>3.1</v>
@@ -46822,7 +46831,7 @@
         <v>216</v>
       </c>
       <c r="P221" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q221">
         <v>0</v>
@@ -46900,7 +46909,7 @@
         <v>2.2</v>
       </c>
       <c r="AP221">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ221">
         <v>2.47</v>
@@ -47028,7 +47037,7 @@
         <v>217</v>
       </c>
       <c r="P222" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q222">
         <v>3.4</v>
@@ -47521,7 +47530,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ224">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR224">
         <v>1.16</v>
@@ -47646,7 +47655,7 @@
         <v>92</v>
       </c>
       <c r="P225" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q225">
         <v>3</v>
@@ -47852,7 +47861,7 @@
         <v>218</v>
       </c>
       <c r="P226" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q226">
         <v>1.9</v>
@@ -48342,7 +48351,7 @@
         <v>1.92</v>
       </c>
       <c r="AP228">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ228">
         <v>1.86</v>
@@ -48882,7 +48891,7 @@
         <v>92</v>
       </c>
       <c r="P231" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q231">
         <v>4.75</v>
@@ -49088,7 +49097,7 @@
         <v>221</v>
       </c>
       <c r="P232" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q232">
         <v>2.63</v>
@@ -49169,7 +49178,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ232">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR232">
         <v>1.67</v>
@@ -49500,7 +49509,7 @@
         <v>222</v>
       </c>
       <c r="P234" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q234">
         <v>3.6</v>
@@ -49706,7 +49715,7 @@
         <v>223</v>
       </c>
       <c r="P235" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q235">
         <v>5</v>
@@ -49787,7 +49796,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ235">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AR235">
         <v>1.55</v>
@@ -49912,7 +49921,7 @@
         <v>224</v>
       </c>
       <c r="P236" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q236">
         <v>1.62</v>
@@ -50196,7 +50205,7 @@
         <v>1.5</v>
       </c>
       <c r="AP237">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ237">
         <v>1.36</v>
@@ -50324,7 +50333,7 @@
         <v>222</v>
       </c>
       <c r="P238" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q238">
         <v>2.38</v>
@@ -50530,7 +50539,7 @@
         <v>225</v>
       </c>
       <c r="P239" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q239">
         <v>2.5</v>
@@ -50942,7 +50951,7 @@
         <v>92</v>
       </c>
       <c r="P241" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q241">
         <v>7.5</v>
@@ -51148,7 +51157,7 @@
         <v>227</v>
       </c>
       <c r="P242" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q242">
         <v>2.4</v>
@@ -51641,7 +51650,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ244">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR244">
         <v>1.57</v>
@@ -52796,7 +52805,7 @@
         <v>92</v>
       </c>
       <c r="P250" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q250">
         <v>5</v>
@@ -52874,7 +52883,7 @@
         <v>1.79</v>
       </c>
       <c r="AP250">
-        <v>0.93</v>
+        <v>1.06</v>
       </c>
       <c r="AQ250">
         <v>1.87</v>
@@ -53002,7 +53011,7 @@
         <v>231</v>
       </c>
       <c r="P251" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q251">
         <v>2.1</v>
@@ -53083,7 +53092,7 @@
         <v>2</v>
       </c>
       <c r="AQ251">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR251">
         <v>1.77</v>
@@ -53620,7 +53629,7 @@
         <v>92</v>
       </c>
       <c r="P254" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q254">
         <v>6.5</v>
@@ -53701,7 +53710,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ254">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AR254">
         <v>1.39</v>
@@ -53907,7 +53916,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ255">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR255">
         <v>1.63</v>
@@ -54032,7 +54041,7 @@
         <v>234</v>
       </c>
       <c r="P256" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q256">
         <v>4.75</v>
@@ -54238,7 +54247,7 @@
         <v>174</v>
       </c>
       <c r="P257" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q257">
         <v>5.5</v>
@@ -54444,7 +54453,7 @@
         <v>235</v>
       </c>
       <c r="P258" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q258">
         <v>2.75</v>
@@ -54525,7 +54534,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ258">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AR258">
         <v>1.63</v>
@@ -54650,7 +54659,7 @@
         <v>236</v>
       </c>
       <c r="P259" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q259">
         <v>3</v>
@@ -55062,7 +55071,7 @@
         <v>194</v>
       </c>
       <c r="P261" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q261">
         <v>6</v>
@@ -55886,7 +55895,7 @@
         <v>238</v>
       </c>
       <c r="P265" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q265">
         <v>2.6</v>
@@ -56092,7 +56101,7 @@
         <v>200</v>
       </c>
       <c r="P266" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q266">
         <v>3.25</v>
@@ -56298,7 +56307,7 @@
         <v>239</v>
       </c>
       <c r="P267" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q267">
         <v>7</v>
@@ -56376,7 +56385,7 @@
         <v>1.38</v>
       </c>
       <c r="AP267">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ267">
         <v>1.4</v>
@@ -57122,7 +57131,7 @@
         <v>91</v>
       </c>
       <c r="P271" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q271">
         <v>4.5</v>
@@ -57203,7 +57212,7 @@
         <v>2</v>
       </c>
       <c r="AQ271">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AR271">
         <v>1.63</v>
@@ -57328,7 +57337,7 @@
         <v>92</v>
       </c>
       <c r="P272" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q272">
         <v>6.5</v>
@@ -57897,6 +57906,624 @@
       </c>
       <c r="BP274">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="275" spans="1:68">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>7476130</v>
+      </c>
+      <c r="C275" t="s">
+        <v>68</v>
+      </c>
+      <c r="D275" t="s">
+        <v>69</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45503.47916666666</v>
+      </c>
+      <c r="F275">
+        <v>32</v>
+      </c>
+      <c r="G275" t="s">
+        <v>73</v>
+      </c>
+      <c r="H275" t="s">
+        <v>70</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>0</v>
+      </c>
+      <c r="L275">
+        <v>0</v>
+      </c>
+      <c r="M275">
+        <v>1</v>
+      </c>
+      <c r="N275">
+        <v>1</v>
+      </c>
+      <c r="O275" t="s">
+        <v>92</v>
+      </c>
+      <c r="P275" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q275">
+        <v>4.5</v>
+      </c>
+      <c r="R275">
+        <v>1.83</v>
+      </c>
+      <c r="S275">
+        <v>2.88</v>
+      </c>
+      <c r="T275">
+        <v>1.48</v>
+      </c>
+      <c r="U275">
+        <v>2.55</v>
+      </c>
+      <c r="V275">
+        <v>3.33</v>
+      </c>
+      <c r="W275">
+        <v>1.31</v>
+      </c>
+      <c r="X275">
+        <v>8.4</v>
+      </c>
+      <c r="Y275">
+        <v>1.05</v>
+      </c>
+      <c r="Z275">
+        <v>4.2</v>
+      </c>
+      <c r="AA275">
+        <v>3.05</v>
+      </c>
+      <c r="AB275">
+        <v>1.87</v>
+      </c>
+      <c r="AC275">
+        <v>1.08</v>
+      </c>
+      <c r="AD275">
+        <v>6.5</v>
+      </c>
+      <c r="AE275">
+        <v>1.42</v>
+      </c>
+      <c r="AF275">
+        <v>2.62</v>
+      </c>
+      <c r="AG275">
+        <v>2.21</v>
+      </c>
+      <c r="AH275">
+        <v>1.47</v>
+      </c>
+      <c r="AI275">
+        <v>2.25</v>
+      </c>
+      <c r="AJ275">
+        <v>1.57</v>
+      </c>
+      <c r="AK275">
+        <v>1.82</v>
+      </c>
+      <c r="AL275">
+        <v>1.3</v>
+      </c>
+      <c r="AM275">
+        <v>1.18</v>
+      </c>
+      <c r="AN275">
+        <v>1</v>
+      </c>
+      <c r="AO275">
+        <v>1</v>
+      </c>
+      <c r="AP275">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ275">
+        <v>1.13</v>
+      </c>
+      <c r="AR275">
+        <v>1.03</v>
+      </c>
+      <c r="AS275">
+        <v>1.25</v>
+      </c>
+      <c r="AT275">
+        <v>2.28</v>
+      </c>
+      <c r="AU275">
+        <v>3</v>
+      </c>
+      <c r="AV275">
+        <v>4</v>
+      </c>
+      <c r="AW275">
+        <v>0</v>
+      </c>
+      <c r="AX275">
+        <v>5</v>
+      </c>
+      <c r="AY275">
+        <v>3</v>
+      </c>
+      <c r="AZ275">
+        <v>9</v>
+      </c>
+      <c r="BA275">
+        <v>2</v>
+      </c>
+      <c r="BB275">
+        <v>2</v>
+      </c>
+      <c r="BC275">
+        <v>4</v>
+      </c>
+      <c r="BD275">
+        <v>2.71</v>
+      </c>
+      <c r="BE275">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF275">
+        <v>1.67</v>
+      </c>
+      <c r="BG275">
+        <v>1.52</v>
+      </c>
+      <c r="BH275">
+        <v>2.45</v>
+      </c>
+      <c r="BI275">
+        <v>1.89</v>
+      </c>
+      <c r="BJ275">
+        <v>1.91</v>
+      </c>
+      <c r="BK275">
+        <v>2.4</v>
+      </c>
+      <c r="BL275">
+        <v>1.54</v>
+      </c>
+      <c r="BM275">
+        <v>3.34</v>
+      </c>
+      <c r="BN275">
+        <v>1.26</v>
+      </c>
+      <c r="BO275">
+        <v>4</v>
+      </c>
+      <c r="BP275">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:68">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>7476131</v>
+      </c>
+      <c r="C276" t="s">
+        <v>68</v>
+      </c>
+      <c r="D276" t="s">
+        <v>69</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45503.625</v>
+      </c>
+      <c r="F276">
+        <v>32</v>
+      </c>
+      <c r="G276" t="s">
+        <v>81</v>
+      </c>
+      <c r="H276" t="s">
+        <v>86</v>
+      </c>
+      <c r="I276">
+        <v>1</v>
+      </c>
+      <c r="J276">
+        <v>1</v>
+      </c>
+      <c r="K276">
+        <v>2</v>
+      </c>
+      <c r="L276">
+        <v>4</v>
+      </c>
+      <c r="M276">
+        <v>2</v>
+      </c>
+      <c r="N276">
+        <v>6</v>
+      </c>
+      <c r="O276" t="s">
+        <v>243</v>
+      </c>
+      <c r="P276" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q276">
+        <v>4</v>
+      </c>
+      <c r="R276">
+        <v>1.95</v>
+      </c>
+      <c r="S276">
+        <v>2.88</v>
+      </c>
+      <c r="T276">
+        <v>1.46</v>
+      </c>
+      <c r="U276">
+        <v>2.6</v>
+      </c>
+      <c r="V276">
+        <v>3.14</v>
+      </c>
+      <c r="W276">
+        <v>1.33</v>
+      </c>
+      <c r="X276">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y276">
+        <v>1.05</v>
+      </c>
+      <c r="Z276">
+        <v>3.4</v>
+      </c>
+      <c r="AA276">
+        <v>2.9</v>
+      </c>
+      <c r="AB276">
+        <v>2.05</v>
+      </c>
+      <c r="AC276">
+        <v>1.04</v>
+      </c>
+      <c r="AD276">
+        <v>7.8</v>
+      </c>
+      <c r="AE276">
+        <v>1.35</v>
+      </c>
+      <c r="AF276">
+        <v>2.84</v>
+      </c>
+      <c r="AG276">
+        <v>2.35</v>
+      </c>
+      <c r="AH276">
+        <v>1.57</v>
+      </c>
+      <c r="AI276">
+        <v>2.1</v>
+      </c>
+      <c r="AJ276">
+        <v>1.67</v>
+      </c>
+      <c r="AK276">
+        <v>1.9</v>
+      </c>
+      <c r="AL276">
+        <v>1.27</v>
+      </c>
+      <c r="AM276">
+        <v>1.18</v>
+      </c>
+      <c r="AN276">
+        <v>0.93</v>
+      </c>
+      <c r="AO276">
+        <v>0.87</v>
+      </c>
+      <c r="AP276">
+        <v>1.06</v>
+      </c>
+      <c r="AQ276">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR276">
+        <v>1.18</v>
+      </c>
+      <c r="AS276">
+        <v>1.43</v>
+      </c>
+      <c r="AT276">
+        <v>2.61</v>
+      </c>
+      <c r="AU276">
+        <v>8</v>
+      </c>
+      <c r="AV276">
+        <v>5</v>
+      </c>
+      <c r="AW276">
+        <v>7</v>
+      </c>
+      <c r="AX276">
+        <v>6</v>
+      </c>
+      <c r="AY276">
+        <v>15</v>
+      </c>
+      <c r="AZ276">
+        <v>11</v>
+      </c>
+      <c r="BA276">
+        <v>7</v>
+      </c>
+      <c r="BB276">
+        <v>5</v>
+      </c>
+      <c r="BC276">
+        <v>12</v>
+      </c>
+      <c r="BD276">
+        <v>3</v>
+      </c>
+      <c r="BE276">
+        <v>7.8</v>
+      </c>
+      <c r="BF276">
+        <v>1.59</v>
+      </c>
+      <c r="BG276">
+        <v>1.35</v>
+      </c>
+      <c r="BH276">
+        <v>2.84</v>
+      </c>
+      <c r="BI276">
+        <v>1.68</v>
+      </c>
+      <c r="BJ276">
+        <v>2.13</v>
+      </c>
+      <c r="BK276">
+        <v>2.1</v>
+      </c>
+      <c r="BL276">
+        <v>1.71</v>
+      </c>
+      <c r="BM276">
+        <v>2.84</v>
+      </c>
+      <c r="BN276">
+        <v>1.35</v>
+      </c>
+      <c r="BO276">
+        <v>3.6</v>
+      </c>
+      <c r="BP276">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="277" spans="1:68">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277">
+        <v>7476132</v>
+      </c>
+      <c r="C277" t="s">
+        <v>68</v>
+      </c>
+      <c r="D277" t="s">
+        <v>69</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45503.625</v>
+      </c>
+      <c r="F277">
+        <v>32</v>
+      </c>
+      <c r="G277" t="s">
+        <v>76</v>
+      </c>
+      <c r="H277" t="s">
+        <v>78</v>
+      </c>
+      <c r="I277">
+        <v>2</v>
+      </c>
+      <c r="J277">
+        <v>2</v>
+      </c>
+      <c r="K277">
+        <v>4</v>
+      </c>
+      <c r="L277">
+        <v>2</v>
+      </c>
+      <c r="M277">
+        <v>2</v>
+      </c>
+      <c r="N277">
+        <v>4</v>
+      </c>
+      <c r="O277" t="s">
+        <v>244</v>
+      </c>
+      <c r="P277" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q277">
+        <v>6.5</v>
+      </c>
+      <c r="R277">
+        <v>2.2</v>
+      </c>
+      <c r="S277">
+        <v>2</v>
+      </c>
+      <c r="T277">
+        <v>1.39</v>
+      </c>
+      <c r="U277">
+        <v>2.85</v>
+      </c>
+      <c r="V277">
+        <v>2.81</v>
+      </c>
+      <c r="W277">
+        <v>1.4</v>
+      </c>
+      <c r="X277">
+        <v>7.1</v>
+      </c>
+      <c r="Y277">
+        <v>1.08</v>
+      </c>
+      <c r="Z277">
+        <v>6</v>
+      </c>
+      <c r="AA277">
+        <v>3.9</v>
+      </c>
+      <c r="AB277">
+        <v>1.44</v>
+      </c>
+      <c r="AC277">
+        <v>1.02</v>
+      </c>
+      <c r="AD277">
+        <v>9.1</v>
+      </c>
+      <c r="AE277">
+        <v>1.29</v>
+      </c>
+      <c r="AF277">
+        <v>3.4</v>
+      </c>
+      <c r="AG277">
+        <v>1.95</v>
+      </c>
+      <c r="AH277">
+        <v>1.85</v>
+      </c>
+      <c r="AI277">
+        <v>2.1</v>
+      </c>
+      <c r="AJ277">
+        <v>1.67</v>
+      </c>
+      <c r="AK277">
+        <v>2.57</v>
+      </c>
+      <c r="AL277">
+        <v>1.19</v>
+      </c>
+      <c r="AM277">
+        <v>1.07</v>
+      </c>
+      <c r="AN277">
+        <v>1.13</v>
+      </c>
+      <c r="AO277">
+        <v>2.33</v>
+      </c>
+      <c r="AP277">
+        <v>1.13</v>
+      </c>
+      <c r="AQ277">
+        <v>2.25</v>
+      </c>
+      <c r="AR277">
+        <v>1.3</v>
+      </c>
+      <c r="AS277">
+        <v>1.64</v>
+      </c>
+      <c r="AT277">
+        <v>2.94</v>
+      </c>
+      <c r="AU277">
+        <v>6</v>
+      </c>
+      <c r="AV277">
+        <v>7</v>
+      </c>
+      <c r="AW277">
+        <v>2</v>
+      </c>
+      <c r="AX277">
+        <v>12</v>
+      </c>
+      <c r="AY277">
+        <v>8</v>
+      </c>
+      <c r="AZ277">
+        <v>19</v>
+      </c>
+      <c r="BA277">
+        <v>5</v>
+      </c>
+      <c r="BB277">
+        <v>8</v>
+      </c>
+      <c r="BC277">
+        <v>13</v>
+      </c>
+      <c r="BD277">
+        <v>5.5</v>
+      </c>
+      <c r="BE277">
+        <v>8.1</v>
+      </c>
+      <c r="BF277">
+        <v>1.23</v>
+      </c>
+      <c r="BG277">
+        <v>1.28</v>
+      </c>
+      <c r="BH277">
+        <v>3.2</v>
+      </c>
+      <c r="BI277">
+        <v>1.58</v>
+      </c>
+      <c r="BJ277">
+        <v>2.31</v>
+      </c>
+      <c r="BK277">
+        <v>1.97</v>
+      </c>
+      <c r="BL277">
+        <v>1.83</v>
+      </c>
+      <c r="BM277">
+        <v>2.46</v>
+      </c>
+      <c r="BN277">
+        <v>1.52</v>
+      </c>
+      <c r="BO277">
+        <v>3.42</v>
+      </c>
+      <c r="BP277">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="363">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -751,6 +751,9 @@
     <t>['1', '22']</t>
   </si>
   <si>
+    <t>['45+1', '79', '90+2']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -1097,6 +1100,9 @@
   </si>
   <si>
     <t>['19', '80']</t>
+  </si>
+  <si>
+    <t>['54', '59']</t>
   </si>
 </sst>
 </file>
@@ -1458,7 +1464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP277"/>
+  <dimension ref="A1:BP279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2001,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ3">
         <v>0.8100000000000001</v>
@@ -2416,7 +2422,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ5">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2541,7 +2547,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2953,7 +2959,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3034,7 +3040,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ8">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3237,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -3365,7 +3371,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3777,7 +3783,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3983,7 +3989,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -4189,7 +4195,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -5219,7 +5225,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5297,7 +5303,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ19">
         <v>0.63</v>
@@ -5631,7 +5637,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5709,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ21">
         <v>1</v>
@@ -5837,7 +5843,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -6043,7 +6049,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -6249,7 +6255,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6536,7 +6542,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ25">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR25">
         <v>1.15</v>
@@ -6661,7 +6667,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6948,7 +6954,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ27">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR27">
         <v>2.1</v>
@@ -7485,7 +7491,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7691,7 +7697,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -8103,7 +8109,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8721,7 +8727,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -9133,7 +9139,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9339,7 +9345,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9417,7 +9423,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ39">
         <v>0.93</v>
@@ -9545,7 +9551,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9623,7 +9629,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ40">
         <v>1.13</v>
@@ -10163,7 +10169,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10244,7 +10250,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ43">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR43">
         <v>0.91</v>
@@ -10369,7 +10375,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10575,7 +10581,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -11193,7 +11199,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11399,7 +11405,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11686,7 +11692,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ50">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR50">
         <v>1.07</v>
@@ -11811,7 +11817,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -12017,7 +12023,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12223,7 +12229,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12635,7 +12641,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -13047,7 +13053,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13331,7 +13337,7 @@
         <v>2.33</v>
       </c>
       <c r="AP58">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ58">
         <v>1.86</v>
@@ -13871,7 +13877,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -14283,7 +14289,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14489,7 +14495,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14695,7 +14701,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -15107,7 +15113,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15188,7 +15194,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ67">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR67">
         <v>1.71</v>
@@ -15519,7 +15525,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -16137,7 +16143,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q72">
         <v>1.8</v>
@@ -16549,7 +16555,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16755,7 +16761,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -17167,7 +17173,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17248,7 +17254,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ77">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR77">
         <v>1.32</v>
@@ -17373,7 +17379,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17657,7 +17663,7 @@
         <v>0.75</v>
       </c>
       <c r="AP79">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ79">
         <v>0.8100000000000001</v>
@@ -17785,7 +17791,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -17863,7 +17869,7 @@
         <v>0.25</v>
       </c>
       <c r="AP80">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ80">
         <v>0.25</v>
@@ -18815,7 +18821,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -19021,7 +19027,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19227,7 +19233,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19639,7 +19645,7 @@
         <v>92</v>
       </c>
       <c r="P89" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q89">
         <v>3.6</v>
@@ -19720,7 +19726,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ89">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR89">
         <v>1.19</v>
@@ -19845,7 +19851,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q90">
         <v>3.5</v>
@@ -19923,7 +19929,7 @@
         <v>1.4</v>
       </c>
       <c r="AP90">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ90">
         <v>1.13</v>
@@ -20129,7 +20135,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ91">
         <v>2.25</v>
@@ -20338,7 +20344,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ92">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR92">
         <v>1.28</v>
@@ -21287,7 +21293,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21905,7 +21911,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -22317,7 +22323,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22523,7 +22529,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22807,7 +22813,7 @@
         <v>1.17</v>
       </c>
       <c r="AP104">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ104">
         <v>1.07</v>
@@ -23219,10 +23225,10 @@
         <v>1.5</v>
       </c>
       <c r="AP106">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ106">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR106">
         <v>2.1</v>
@@ -23347,7 +23353,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23759,7 +23765,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23840,7 +23846,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ109">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR109">
         <v>1.64</v>
@@ -24171,7 +24177,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24789,7 +24795,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -25819,7 +25825,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -26025,7 +26031,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -26231,7 +26237,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26721,10 +26727,10 @@
         <v>2</v>
       </c>
       <c r="AP123">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ123">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR123">
         <v>1.48</v>
@@ -26849,7 +26855,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -26927,7 +26933,7 @@
         <v>1.67</v>
       </c>
       <c r="AP124">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ124">
         <v>1.87</v>
@@ -27055,7 +27061,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27261,7 +27267,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27467,7 +27473,7 @@
         <v>94</v>
       </c>
       <c r="P127" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q127">
         <v>3.4</v>
@@ -27879,7 +27885,7 @@
         <v>148</v>
       </c>
       <c r="P129" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q129">
         <v>2.6</v>
@@ -28291,7 +28297,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28909,7 +28915,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -28990,7 +28996,7 @@
         <v>2.69</v>
       </c>
       <c r="AQ134">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR134">
         <v>1.63</v>
@@ -29115,7 +29121,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29321,7 +29327,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29402,7 +29408,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ136">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR136">
         <v>1.46</v>
@@ -29811,7 +29817,7 @@
         <v>1.75</v>
       </c>
       <c r="AP138">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ138">
         <v>2.47</v>
@@ -29939,7 +29945,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q139">
         <v>3.15</v>
@@ -30226,7 +30232,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ140">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR140">
         <v>1.42</v>
@@ -30351,7 +30357,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -31175,7 +31181,7 @@
         <v>92</v>
       </c>
       <c r="P145" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31381,7 +31387,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31587,7 +31593,7 @@
         <v>108</v>
       </c>
       <c r="P147" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -32283,7 +32289,7 @@
         <v>1.86</v>
       </c>
       <c r="AP150">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ150">
         <v>1</v>
@@ -32489,7 +32495,7 @@
         <v>0.5</v>
       </c>
       <c r="AP151">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ151">
         <v>0.8100000000000001</v>
@@ -32698,7 +32704,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ152">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR152">
         <v>0.89</v>
@@ -33029,7 +33035,7 @@
         <v>128</v>
       </c>
       <c r="P154" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33316,7 +33322,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ155">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR155">
         <v>1.48</v>
@@ -33441,7 +33447,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q156">
         <v>1.91</v>
@@ -33647,7 +33653,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34471,7 +34477,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34677,7 +34683,7 @@
         <v>151</v>
       </c>
       <c r="P162" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -34883,7 +34889,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -35501,7 +35507,7 @@
         <v>92</v>
       </c>
       <c r="P166" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q166">
         <v>3</v>
@@ -35579,7 +35585,7 @@
         <v>0.9</v>
       </c>
       <c r="AP166">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ166">
         <v>0.93</v>
@@ -35707,7 +35713,7 @@
         <v>191</v>
       </c>
       <c r="P167" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35785,7 +35791,7 @@
         <v>1</v>
       </c>
       <c r="AP167">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ167">
         <v>0.63</v>
@@ -35913,7 +35919,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
@@ -36119,7 +36125,7 @@
         <v>192</v>
       </c>
       <c r="P169" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -36737,7 +36743,7 @@
         <v>194</v>
       </c>
       <c r="P172" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -36818,7 +36824,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ172">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR172">
         <v>1.49</v>
@@ -37024,7 +37030,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ173">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR173">
         <v>1.97</v>
@@ -37149,7 +37155,7 @@
         <v>92</v>
       </c>
       <c r="P174" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q174">
         <v>4.8</v>
@@ -37767,7 +37773,7 @@
         <v>128</v>
       </c>
       <c r="P177" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q177">
         <v>3.25</v>
@@ -38179,7 +38185,7 @@
         <v>118</v>
       </c>
       <c r="P179" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38797,7 +38803,7 @@
         <v>92</v>
       </c>
       <c r="P182" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q182">
         <v>4.33</v>
@@ -39003,7 +39009,7 @@
         <v>200</v>
       </c>
       <c r="P183" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q183">
         <v>9</v>
@@ -39209,7 +39215,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q184">
         <v>3.4</v>
@@ -39287,7 +39293,7 @@
         <v>1</v>
       </c>
       <c r="AP184">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ184">
         <v>1.13</v>
@@ -39415,7 +39421,7 @@
         <v>108</v>
       </c>
       <c r="P185" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -40239,7 +40245,7 @@
         <v>92</v>
       </c>
       <c r="P189" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q189">
         <v>3.5</v>
@@ -40320,7 +40326,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ189">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR189">
         <v>1.19</v>
@@ -40445,7 +40451,7 @@
         <v>202</v>
       </c>
       <c r="P190" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q190">
         <v>3.8</v>
@@ -40651,7 +40657,7 @@
         <v>92</v>
       </c>
       <c r="P191" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -40938,7 +40944,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ192">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR192">
         <v>1.47</v>
@@ -41141,7 +41147,7 @@
         <v>1.42</v>
       </c>
       <c r="AP193">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ193">
         <v>1.25</v>
@@ -42174,7 +42180,7 @@
         <v>2</v>
       </c>
       <c r="AQ198">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR198">
         <v>1.65</v>
@@ -42505,7 +42511,7 @@
         <v>204</v>
       </c>
       <c r="P200" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q200">
         <v>3.75</v>
@@ -42917,7 +42923,7 @@
         <v>206</v>
       </c>
       <c r="P202" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q202">
         <v>3.2</v>
@@ -43741,7 +43747,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q206">
         <v>4.5</v>
@@ -43819,7 +43825,7 @@
         <v>1</v>
       </c>
       <c r="AP206">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ206">
         <v>1.4</v>
@@ -44153,7 +44159,7 @@
         <v>209</v>
       </c>
       <c r="P208" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q208">
         <v>2.75</v>
@@ -44359,7 +44365,7 @@
         <v>194</v>
       </c>
       <c r="P209" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q209">
         <v>3.5</v>
@@ -44565,7 +44571,7 @@
         <v>179</v>
       </c>
       <c r="P210" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q210">
         <v>7.5</v>
@@ -44771,7 +44777,7 @@
         <v>210</v>
       </c>
       <c r="P211" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q211">
         <v>3.75</v>
@@ -44977,7 +44983,7 @@
         <v>94</v>
       </c>
       <c r="P212" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q212">
         <v>3.4</v>
@@ -45183,7 +45189,7 @@
         <v>211</v>
       </c>
       <c r="P213" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q213">
         <v>2.78</v>
@@ -45389,7 +45395,7 @@
         <v>212</v>
       </c>
       <c r="P214" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q214">
         <v>3.2</v>
@@ -45470,7 +45476,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ214">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR214">
         <v>1.39</v>
@@ -45595,7 +45601,7 @@
         <v>213</v>
       </c>
       <c r="P215" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q215">
         <v>2.2</v>
@@ -45801,7 +45807,7 @@
         <v>92</v>
       </c>
       <c r="P216" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q216">
         <v>7</v>
@@ -45879,7 +45885,7 @@
         <v>2.11</v>
       </c>
       <c r="AP216">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ216">
         <v>2.47</v>
@@ -46007,7 +46013,7 @@
         <v>214</v>
       </c>
       <c r="P217" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q217">
         <v>2.88</v>
@@ -46085,7 +46091,7 @@
         <v>0.92</v>
       </c>
       <c r="AP217">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ217">
         <v>0.8100000000000001</v>
@@ -46213,7 +46219,7 @@
         <v>92</v>
       </c>
       <c r="P218" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q218">
         <v>7.5</v>
@@ -46419,7 +46425,7 @@
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q219">
         <v>3.1</v>
@@ -46500,7 +46506,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ219">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR219">
         <v>1.55</v>
@@ -46831,7 +46837,7 @@
         <v>216</v>
       </c>
       <c r="P221" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q221">
         <v>0</v>
@@ -47037,7 +47043,7 @@
         <v>217</v>
       </c>
       <c r="P222" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q222">
         <v>3.4</v>
@@ -47655,7 +47661,7 @@
         <v>92</v>
       </c>
       <c r="P225" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q225">
         <v>3</v>
@@ -47861,7 +47867,7 @@
         <v>218</v>
       </c>
       <c r="P226" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q226">
         <v>1.9</v>
@@ -48891,7 +48897,7 @@
         <v>92</v>
       </c>
       <c r="P231" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q231">
         <v>4.75</v>
@@ -48972,7 +48978,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ231">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR231">
         <v>1.32</v>
@@ -49097,7 +49103,7 @@
         <v>221</v>
       </c>
       <c r="P232" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q232">
         <v>2.63</v>
@@ -49175,7 +49181,7 @@
         <v>1.15</v>
       </c>
       <c r="AP232">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ232">
         <v>1.13</v>
@@ -49509,7 +49515,7 @@
         <v>222</v>
       </c>
       <c r="P234" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q234">
         <v>3.6</v>
@@ -49715,7 +49721,7 @@
         <v>223</v>
       </c>
       <c r="P235" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q235">
         <v>5</v>
@@ -49921,7 +49927,7 @@
         <v>224</v>
       </c>
       <c r="P236" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q236">
         <v>1.62</v>
@@ -50208,7 +50214,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ237">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR237">
         <v>1.2</v>
@@ -50333,7 +50339,7 @@
         <v>222</v>
       </c>
       <c r="P238" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q238">
         <v>2.38</v>
@@ -50411,7 +50417,7 @@
         <v>0.23</v>
       </c>
       <c r="AP238">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ238">
         <v>0.25</v>
@@ -50539,7 +50545,7 @@
         <v>225</v>
       </c>
       <c r="P239" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q239">
         <v>2.5</v>
@@ -50951,7 +50957,7 @@
         <v>92</v>
       </c>
       <c r="P241" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q241">
         <v>7.5</v>
@@ -51157,7 +51163,7 @@
         <v>227</v>
       </c>
       <c r="P242" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q242">
         <v>2.4</v>
@@ -52474,7 +52480,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ248">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR248">
         <v>1.49</v>
@@ -52677,7 +52683,7 @@
         <v>0.93</v>
       </c>
       <c r="AP249">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AQ249">
         <v>1.07</v>
@@ -52805,7 +52811,7 @@
         <v>92</v>
       </c>
       <c r="P250" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q250">
         <v>5</v>
@@ -53011,7 +53017,7 @@
         <v>231</v>
       </c>
       <c r="P251" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q251">
         <v>2.1</v>
@@ -53629,7 +53635,7 @@
         <v>92</v>
       </c>
       <c r="P254" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q254">
         <v>6.5</v>
@@ -53707,7 +53713,7 @@
         <v>2.58</v>
       </c>
       <c r="AP254">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ254">
         <v>2.25</v>
@@ -54041,7 +54047,7 @@
         <v>234</v>
       </c>
       <c r="P256" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q256">
         <v>4.75</v>
@@ -54122,7 +54128,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ256">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="AR256">
         <v>1.19</v>
@@ -54247,7 +54253,7 @@
         <v>174</v>
       </c>
       <c r="P257" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q257">
         <v>5.5</v>
@@ -54453,7 +54459,7 @@
         <v>235</v>
       </c>
       <c r="P258" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q258">
         <v>2.75</v>
@@ -54659,7 +54665,7 @@
         <v>236</v>
       </c>
       <c r="P259" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q259">
         <v>3</v>
@@ -55071,7 +55077,7 @@
         <v>194</v>
       </c>
       <c r="P261" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q261">
         <v>6</v>
@@ -55895,7 +55901,7 @@
         <v>238</v>
       </c>
       <c r="P265" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q265">
         <v>2.6</v>
@@ -56101,7 +56107,7 @@
         <v>200</v>
       </c>
       <c r="P266" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q266">
         <v>3.25</v>
@@ -56307,7 +56313,7 @@
         <v>239</v>
       </c>
       <c r="P267" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q267">
         <v>7</v>
@@ -57131,7 +57137,7 @@
         <v>91</v>
       </c>
       <c r="P271" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q271">
         <v>4.5</v>
@@ -57337,7 +57343,7 @@
         <v>92</v>
       </c>
       <c r="P272" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q272">
         <v>6.5</v>
@@ -58161,7 +58167,7 @@
         <v>243</v>
       </c>
       <c r="P276" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q276">
         <v>4</v>
@@ -58367,7 +58373,7 @@
         <v>244</v>
       </c>
       <c r="P277" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q277">
         <v>6.5</v>
@@ -58523,6 +58529,418 @@
         <v>3.42</v>
       </c>
       <c r="BP277">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="278" spans="1:68">
+      <c r="A278" s="1">
+        <v>277</v>
+      </c>
+      <c r="B278">
+        <v>7476133</v>
+      </c>
+      <c r="C278" t="s">
+        <v>68</v>
+      </c>
+      <c r="D278" t="s">
+        <v>69</v>
+      </c>
+      <c r="E278" s="2">
+        <v>45504.47916666666</v>
+      </c>
+      <c r="F278">
+        <v>32</v>
+      </c>
+      <c r="G278" t="s">
+        <v>77</v>
+      </c>
+      <c r="H278" t="s">
+        <v>83</v>
+      </c>
+      <c r="I278">
+        <v>0</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <v>0</v>
+      </c>
+      <c r="L278">
+        <v>0</v>
+      </c>
+      <c r="M278">
+        <v>0</v>
+      </c>
+      <c r="N278">
+        <v>0</v>
+      </c>
+      <c r="O278" t="s">
+        <v>92</v>
+      </c>
+      <c r="P278" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q278">
+        <v>3.6</v>
+      </c>
+      <c r="R278">
+        <v>1.83</v>
+      </c>
+      <c r="S278">
+        <v>3.4</v>
+      </c>
+      <c r="T278">
+        <v>1.51</v>
+      </c>
+      <c r="U278">
+        <v>2.42</v>
+      </c>
+      <c r="V278">
+        <v>3.54</v>
+      </c>
+      <c r="W278">
+        <v>1.27</v>
+      </c>
+      <c r="X278">
+        <v>9.9</v>
+      </c>
+      <c r="Y278">
+        <v>1.03</v>
+      </c>
+      <c r="Z278">
+        <v>3</v>
+      </c>
+      <c r="AA278">
+        <v>2.65</v>
+      </c>
+      <c r="AB278">
+        <v>2.55</v>
+      </c>
+      <c r="AC278">
+        <v>1.12</v>
+      </c>
+      <c r="AD278">
+        <v>2.34</v>
+      </c>
+      <c r="AE278">
+        <v>1.6</v>
+      </c>
+      <c r="AF278">
+        <v>2.2</v>
+      </c>
+      <c r="AG278">
+        <v>2.4</v>
+      </c>
+      <c r="AH278">
+        <v>1.5</v>
+      </c>
+      <c r="AI278">
+        <v>2.2</v>
+      </c>
+      <c r="AJ278">
+        <v>1.62</v>
+      </c>
+      <c r="AK278">
+        <v>1.48</v>
+      </c>
+      <c r="AL278">
+        <v>1.48</v>
+      </c>
+      <c r="AM278">
+        <v>1.41</v>
+      </c>
+      <c r="AN278">
+        <v>1.27</v>
+      </c>
+      <c r="AO278">
+        <v>1.36</v>
+      </c>
+      <c r="AP278">
+        <v>1.25</v>
+      </c>
+      <c r="AQ278">
+        <v>1.33</v>
+      </c>
+      <c r="AR278">
+        <v>1.36</v>
+      </c>
+      <c r="AS278">
+        <v>1.39</v>
+      </c>
+      <c r="AT278">
+        <v>2.75</v>
+      </c>
+      <c r="AU278">
+        <v>0</v>
+      </c>
+      <c r="AV278">
+        <v>8</v>
+      </c>
+      <c r="AW278">
+        <v>4</v>
+      </c>
+      <c r="AX278">
+        <v>7</v>
+      </c>
+      <c r="AY278">
+        <v>4</v>
+      </c>
+      <c r="AZ278">
+        <v>15</v>
+      </c>
+      <c r="BA278">
+        <v>2</v>
+      </c>
+      <c r="BB278">
+        <v>8</v>
+      </c>
+      <c r="BC278">
+        <v>10</v>
+      </c>
+      <c r="BD278">
+        <v>1.97</v>
+      </c>
+      <c r="BE278">
+        <v>6.05</v>
+      </c>
+      <c r="BF278">
+        <v>2.25</v>
+      </c>
+      <c r="BG278">
+        <v>1.43</v>
+      </c>
+      <c r="BH278">
+        <v>2.65</v>
+      </c>
+      <c r="BI278">
+        <v>1.73</v>
+      </c>
+      <c r="BJ278">
+        <v>2</v>
+      </c>
+      <c r="BK278">
+        <v>2.2</v>
+      </c>
+      <c r="BL278">
+        <v>1.6</v>
+      </c>
+      <c r="BM278">
+        <v>2.8</v>
+      </c>
+      <c r="BN278">
+        <v>1.38</v>
+      </c>
+      <c r="BO278">
+        <v>3.9</v>
+      </c>
+      <c r="BP278">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="279" spans="1:68">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>7476134</v>
+      </c>
+      <c r="C279" t="s">
+        <v>68</v>
+      </c>
+      <c r="D279" t="s">
+        <v>69</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45504.625</v>
+      </c>
+      <c r="F279">
+        <v>32</v>
+      </c>
+      <c r="G279" t="s">
+        <v>71</v>
+      </c>
+      <c r="H279" t="s">
+        <v>82</v>
+      </c>
+      <c r="I279">
+        <v>1</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279">
+        <v>1</v>
+      </c>
+      <c r="L279">
+        <v>3</v>
+      </c>
+      <c r="M279">
+        <v>2</v>
+      </c>
+      <c r="N279">
+        <v>5</v>
+      </c>
+      <c r="O279" t="s">
+        <v>245</v>
+      </c>
+      <c r="P279" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q279">
+        <v>3.25</v>
+      </c>
+      <c r="R279">
+        <v>2</v>
+      </c>
+      <c r="S279">
+        <v>3.25</v>
+      </c>
+      <c r="T279">
+        <v>1.51</v>
+      </c>
+      <c r="U279">
+        <v>2.47</v>
+      </c>
+      <c r="V279">
+        <v>3.46</v>
+      </c>
+      <c r="W279">
+        <v>1.28</v>
+      </c>
+      <c r="X279">
+        <v>9.5</v>
+      </c>
+      <c r="Y279">
+        <v>1.04</v>
+      </c>
+      <c r="Z279">
+        <v>2.7</v>
+      </c>
+      <c r="AA279">
+        <v>2.88</v>
+      </c>
+      <c r="AB279">
+        <v>2.7</v>
+      </c>
+      <c r="AC279">
+        <v>1.09</v>
+      </c>
+      <c r="AD279">
+        <v>6</v>
+      </c>
+      <c r="AE279">
+        <v>1.44</v>
+      </c>
+      <c r="AF279">
+        <v>2.6</v>
+      </c>
+      <c r="AG279">
+        <v>2.25</v>
+      </c>
+      <c r="AH279">
+        <v>1.62</v>
+      </c>
+      <c r="AI279">
+        <v>1.83</v>
+      </c>
+      <c r="AJ279">
+        <v>1.83</v>
+      </c>
+      <c r="AK279">
+        <v>1.39</v>
+      </c>
+      <c r="AL279">
+        <v>1.34</v>
+      </c>
+      <c r="AM279">
+        <v>1.44</v>
+      </c>
+      <c r="AN279">
+        <v>1.29</v>
+      </c>
+      <c r="AO279">
+        <v>1.93</v>
+      </c>
+      <c r="AP279">
+        <v>1.4</v>
+      </c>
+      <c r="AQ279">
+        <v>1.81</v>
+      </c>
+      <c r="AR279">
+        <v>1.65</v>
+      </c>
+      <c r="AS279">
+        <v>1.39</v>
+      </c>
+      <c r="AT279">
+        <v>3.04</v>
+      </c>
+      <c r="AU279">
+        <v>7</v>
+      </c>
+      <c r="AV279">
+        <v>6</v>
+      </c>
+      <c r="AW279">
+        <v>2</v>
+      </c>
+      <c r="AX279">
+        <v>2</v>
+      </c>
+      <c r="AY279">
+        <v>9</v>
+      </c>
+      <c r="AZ279">
+        <v>8</v>
+      </c>
+      <c r="BA279">
+        <v>3</v>
+      </c>
+      <c r="BB279">
+        <v>6</v>
+      </c>
+      <c r="BC279">
+        <v>9</v>
+      </c>
+      <c r="BD279">
+        <v>1.93</v>
+      </c>
+      <c r="BE279">
+        <v>6.05</v>
+      </c>
+      <c r="BF279">
+        <v>2.3</v>
+      </c>
+      <c r="BG279">
+        <v>1.4</v>
+      </c>
+      <c r="BH279">
+        <v>2.7</v>
+      </c>
+      <c r="BI279">
+        <v>1.71</v>
+      </c>
+      <c r="BJ279">
+        <v>2.11</v>
+      </c>
+      <c r="BK279">
+        <v>2.16</v>
+      </c>
+      <c r="BL279">
+        <v>1.68</v>
+      </c>
+      <c r="BM279">
+        <v>2.62</v>
+      </c>
+      <c r="BN279">
+        <v>1.42</v>
+      </c>
+      <c r="BO279">
+        <v>3.6</v>
+      </c>
+      <c r="BP279">
         <v>1.25</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="364">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -754,6 +754,15 @@
     <t>['45+1', '79', '90+2']</t>
   </si>
   <si>
+    <t>['46']</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -931,9 +940,6 @@
     <t>['20', '69']</t>
   </si>
   <si>
-    <t>['46']</t>
-  </si>
-  <si>
     <t>['2', '74', '90+1']</t>
   </si>
   <si>
@@ -944,9 +950,6 @@
   </si>
   <si>
     <t>['22', '87']</t>
-  </si>
-  <si>
-    <t>['56']</t>
   </si>
   <si>
     <t>['8', '73']</t>
@@ -1464,7 +1467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP279"/>
+  <dimension ref="A1:BP282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1804,7 +1807,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ2">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2213,10 +2216,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ4">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2547,7 +2550,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2625,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ6">
         <v>0.63</v>
@@ -2831,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2959,7 +2962,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3371,7 +3374,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3783,7 +3786,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3989,7 +3992,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -4195,7 +4198,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -5225,7 +5228,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5509,7 +5512,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
         <v>0.93</v>
@@ -5637,7 +5640,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5843,7 +5846,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -6049,7 +6052,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -6130,7 +6133,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ23">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AR23">
         <v>0.65</v>
@@ -6255,7 +6258,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6667,7 +6670,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6745,7 +6748,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ26">
         <v>0.8100000000000001</v>
@@ -7491,7 +7494,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7697,7 +7700,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7984,7 +7987,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ32">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <v>0.38</v>
@@ -8109,7 +8112,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8187,7 +8190,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ33">
         <v>1.86</v>
@@ -8727,7 +8730,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -8808,7 +8811,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ36">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AR36">
         <v>1.67</v>
@@ -9139,7 +9142,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9345,7 +9348,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9551,7 +9554,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -10169,7 +10172,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10375,7 +10378,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10453,7 +10456,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
         <v>1.25</v>
@@ -10581,7 +10584,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -11199,7 +11202,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11405,7 +11408,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11483,7 +11486,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ49">
         <v>2.47</v>
@@ -11817,7 +11820,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -12023,7 +12026,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12104,7 +12107,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ52">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR52">
         <v>1.27</v>
@@ -12229,7 +12232,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12641,7 +12644,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12925,7 +12928,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ56">
         <v>1.13</v>
@@ -13053,7 +13056,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13877,7 +13880,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -13958,7 +13961,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ61">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AR61">
         <v>1.23</v>
@@ -14289,7 +14292,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14495,7 +14498,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14573,7 +14576,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ64">
         <v>0.8100000000000001</v>
@@ -14701,7 +14704,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -14988,7 +14991,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ66">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR66">
         <v>1.54</v>
@@ -15113,7 +15116,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15397,7 +15400,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ68">
         <v>0.25</v>
@@ -15525,7 +15528,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -16143,7 +16146,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q72">
         <v>1.8</v>
@@ -16555,7 +16558,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16761,7 +16764,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -17173,7 +17176,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17379,7 +17382,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17460,7 +17463,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ78">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR78">
         <v>1.22</v>
@@ -17791,7 +17794,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -18075,7 +18078,7 @@
         <v>1.75</v>
       </c>
       <c r="AP81">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ81">
         <v>1.13</v>
@@ -18821,7 +18824,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -19027,7 +19030,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19233,7 +19236,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19314,7 +19317,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ87">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AR87">
         <v>1.51</v>
@@ -19517,10 +19520,10 @@
         <v>1.2</v>
       </c>
       <c r="AP88">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ88">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR88">
         <v>1.62</v>
@@ -19645,7 +19648,7 @@
         <v>92</v>
       </c>
       <c r="P89" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q89">
         <v>3.6</v>
@@ -19723,7 +19726,7 @@
         <v>1.2</v>
       </c>
       <c r="AP89">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ89">
         <v>1.33</v>
@@ -19851,7 +19854,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q90">
         <v>3.5</v>
@@ -21293,7 +21296,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21911,7 +21914,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -22323,7 +22326,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22529,7 +22532,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -22816,7 +22819,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ104">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR104">
         <v>1.48</v>
@@ -23353,7 +23356,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23431,10 +23434,10 @@
         <v>1.4</v>
       </c>
       <c r="AP107">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ107">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AR107">
         <v>1.23</v>
@@ -23637,7 +23640,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ108">
         <v>0.63</v>
@@ -23765,7 +23768,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -23843,7 +23846,7 @@
         <v>2.25</v>
       </c>
       <c r="AP109">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ109">
         <v>1.81</v>
@@ -24177,7 +24180,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24258,7 +24261,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ111">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR111">
         <v>1.38</v>
@@ -24795,7 +24798,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -25825,7 +25828,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -26031,7 +26034,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -26109,7 +26112,7 @@
         <v>0.43</v>
       </c>
       <c r="AP120">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ120">
         <v>0.8100000000000001</v>
@@ -26237,7 +26240,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26521,7 +26524,7 @@
         <v>1.14</v>
       </c>
       <c r="AP122">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ122">
         <v>1</v>
@@ -26855,7 +26858,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -26936,7 +26939,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ124">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AR124">
         <v>1.91</v>
@@ -27061,7 +27064,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27267,7 +27270,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27473,7 +27476,7 @@
         <v>94</v>
       </c>
       <c r="P127" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q127">
         <v>3.4</v>
@@ -27885,7 +27888,7 @@
         <v>148</v>
       </c>
       <c r="P129" t="s">
-        <v>305</v>
+        <v>246</v>
       </c>
       <c r="Q129">
         <v>2.6</v>
@@ -28297,7 +28300,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28915,7 +28918,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -28993,7 +28996,7 @@
         <v>1.71</v>
       </c>
       <c r="AP134">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ134">
         <v>1.33</v>
@@ -29121,7 +29124,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29327,7 +29330,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29945,7 +29948,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>310</v>
+        <v>247</v>
       </c>
       <c r="Q139">
         <v>3.15</v>
@@ -30026,7 +30029,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ139">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AR139">
         <v>1.76</v>
@@ -30357,7 +30360,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -30435,7 +30438,7 @@
         <v>2.17</v>
       </c>
       <c r="AP141">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ141">
         <v>2.25</v>
@@ -31181,7 +31184,7 @@
         <v>92</v>
       </c>
       <c r="P145" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31387,7 +31390,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31593,7 +31596,7 @@
         <v>108</v>
       </c>
       <c r="P147" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -32907,7 +32910,7 @@
         <v>1.13</v>
       </c>
       <c r="AP153">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ153">
         <v>0.63</v>
@@ -33035,7 +33038,7 @@
         <v>128</v>
       </c>
       <c r="P154" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33116,7 +33119,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ154">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AR154">
         <v>1.46</v>
@@ -33447,7 +33450,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q156">
         <v>1.91</v>
@@ -33528,7 +33531,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ156">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR156">
         <v>2.03</v>
@@ -33653,7 +33656,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34349,7 +34352,7 @@
         <v>0.78</v>
       </c>
       <c r="AP160">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ160">
         <v>1.13</v>
@@ -34477,7 +34480,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34683,7 +34686,7 @@
         <v>151</v>
       </c>
       <c r="P162" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -34889,7 +34892,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -35382,7 +35385,7 @@
         <v>2</v>
       </c>
       <c r="AQ165">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR165">
         <v>1.65</v>
@@ -35507,7 +35510,7 @@
         <v>92</v>
       </c>
       <c r="P166" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q166">
         <v>3</v>
@@ -35713,7 +35716,7 @@
         <v>191</v>
       </c>
       <c r="P167" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35919,7 +35922,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
@@ -36125,7 +36128,7 @@
         <v>192</v>
       </c>
       <c r="P169" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -36409,7 +36412,7 @@
         <v>1.63</v>
       </c>
       <c r="AP170">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ170">
         <v>1</v>
@@ -36615,7 +36618,7 @@
         <v>1.14</v>
       </c>
       <c r="AP171">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ171">
         <v>1.4</v>
@@ -36743,7 +36746,7 @@
         <v>194</v>
       </c>
       <c r="P172" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -37155,7 +37158,7 @@
         <v>92</v>
       </c>
       <c r="P174" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q174">
         <v>4.8</v>
@@ -37236,7 +37239,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ174">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AR174">
         <v>1.47</v>
@@ -37439,7 +37442,7 @@
         <v>1.4</v>
       </c>
       <c r="AP175">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ175">
         <v>1.25</v>
@@ -37773,7 +37776,7 @@
         <v>128</v>
       </c>
       <c r="P177" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q177">
         <v>3.25</v>
@@ -37851,7 +37854,7 @@
         <v>1.82</v>
       </c>
       <c r="AP177">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ177">
         <v>1.86</v>
@@ -38185,7 +38188,7 @@
         <v>118</v>
       </c>
       <c r="P179" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38472,7 +38475,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ180">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR180">
         <v>1.2</v>
@@ -38675,7 +38678,7 @@
         <v>1.27</v>
       </c>
       <c r="AP181">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ181">
         <v>1.25</v>
@@ -38803,7 +38806,7 @@
         <v>92</v>
       </c>
       <c r="P182" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q182">
         <v>4.33</v>
@@ -39009,7 +39012,7 @@
         <v>200</v>
       </c>
       <c r="P183" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q183">
         <v>9</v>
@@ -39215,7 +39218,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q184">
         <v>3.4</v>
@@ -39421,7 +39424,7 @@
         <v>108</v>
       </c>
       <c r="P185" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -40245,7 +40248,7 @@
         <v>92</v>
       </c>
       <c r="P189" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q189">
         <v>3.5</v>
@@ -40451,7 +40454,7 @@
         <v>202</v>
       </c>
       <c r="P190" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q190">
         <v>3.8</v>
@@ -40532,7 +40535,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ190">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AR190">
         <v>1.52</v>
@@ -40657,7 +40660,7 @@
         <v>92</v>
       </c>
       <c r="P191" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -41353,7 +41356,7 @@
         <v>0.91</v>
       </c>
       <c r="AP194">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ194">
         <v>0.8100000000000001</v>
@@ -41974,7 +41977,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ197">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR197">
         <v>1.61</v>
@@ -42511,7 +42514,7 @@
         <v>204</v>
       </c>
       <c r="P200" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q200">
         <v>3.75</v>
@@ -42923,7 +42926,7 @@
         <v>206</v>
       </c>
       <c r="P202" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q202">
         <v>3.2</v>
@@ -43210,7 +43213,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ203">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AR203">
         <v>1.19</v>
@@ -43747,7 +43750,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q206">
         <v>4.5</v>
@@ -44159,7 +44162,7 @@
         <v>209</v>
       </c>
       <c r="P208" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q208">
         <v>2.75</v>
@@ -44365,7 +44368,7 @@
         <v>194</v>
       </c>
       <c r="P209" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q209">
         <v>3.5</v>
@@ -44571,7 +44574,7 @@
         <v>179</v>
       </c>
       <c r="P210" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q210">
         <v>7.5</v>
@@ -44777,7 +44780,7 @@
         <v>210</v>
       </c>
       <c r="P211" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q211">
         <v>3.75</v>
@@ -44855,7 +44858,7 @@
         <v>1.25</v>
       </c>
       <c r="AP211">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ211">
         <v>1.13</v>
@@ -44983,7 +44986,7 @@
         <v>94</v>
       </c>
       <c r="P212" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q212">
         <v>3.4</v>
@@ -45064,7 +45067,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ212">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR212">
         <v>1.37</v>
@@ -45189,7 +45192,7 @@
         <v>211</v>
       </c>
       <c r="P213" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q213">
         <v>2.78</v>
@@ -45270,7 +45273,7 @@
         <v>2</v>
       </c>
       <c r="AQ213">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AR213">
         <v>1.69</v>
@@ -45395,7 +45398,7 @@
         <v>212</v>
       </c>
       <c r="P214" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q214">
         <v>3.2</v>
@@ -45601,7 +45604,7 @@
         <v>213</v>
       </c>
       <c r="P215" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q215">
         <v>2.2</v>
@@ -45679,7 +45682,7 @@
         <v>0.25</v>
       </c>
       <c r="AP215">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ215">
         <v>0.25</v>
@@ -45807,7 +45810,7 @@
         <v>92</v>
       </c>
       <c r="P216" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q216">
         <v>7</v>
@@ -46013,7 +46016,7 @@
         <v>214</v>
       </c>
       <c r="P217" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q217">
         <v>2.88</v>
@@ -46219,7 +46222,7 @@
         <v>92</v>
       </c>
       <c r="P218" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q218">
         <v>7.5</v>
@@ -46425,7 +46428,7 @@
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q219">
         <v>3.1</v>
@@ -46837,7 +46840,7 @@
         <v>216</v>
       </c>
       <c r="P221" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q221">
         <v>0</v>
@@ -47043,7 +47046,7 @@
         <v>217</v>
       </c>
       <c r="P222" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q222">
         <v>3.4</v>
@@ -47661,7 +47664,7 @@
         <v>92</v>
       </c>
       <c r="P225" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q225">
         <v>3</v>
@@ -47867,7 +47870,7 @@
         <v>218</v>
       </c>
       <c r="P226" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q226">
         <v>1.9</v>
@@ -48769,7 +48772,7 @@
         <v>1.4</v>
       </c>
       <c r="AP230">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ230">
         <v>1.4</v>
@@ -48897,7 +48900,7 @@
         <v>92</v>
       </c>
       <c r="P231" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q231">
         <v>4.75</v>
@@ -49103,7 +49106,7 @@
         <v>221</v>
       </c>
       <c r="P232" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q232">
         <v>2.63</v>
@@ -49390,7 +49393,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ233">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AR233">
         <v>1.4</v>
@@ -49515,7 +49518,7 @@
         <v>222</v>
       </c>
       <c r="P234" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q234">
         <v>3.6</v>
@@ -49593,10 +49596,10 @@
         <v>0.77</v>
       </c>
       <c r="AP234">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ234">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR234">
         <v>1.21</v>
@@ -49721,7 +49724,7 @@
         <v>223</v>
       </c>
       <c r="P235" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q235">
         <v>5</v>
@@ -49799,7 +49802,7 @@
         <v>2.55</v>
       </c>
       <c r="AP235">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ235">
         <v>2.25</v>
@@ -49927,7 +49930,7 @@
         <v>224</v>
       </c>
       <c r="P236" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q236">
         <v>1.62</v>
@@ -50005,7 +50008,7 @@
         <v>0.86</v>
       </c>
       <c r="AP236">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ236">
         <v>0.8100000000000001</v>
@@ -50339,7 +50342,7 @@
         <v>222</v>
       </c>
       <c r="P238" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q238">
         <v>2.38</v>
@@ -50545,7 +50548,7 @@
         <v>225</v>
       </c>
       <c r="P239" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q239">
         <v>2.5</v>
@@ -50957,7 +50960,7 @@
         <v>92</v>
       </c>
       <c r="P241" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q241">
         <v>7.5</v>
@@ -51163,7 +51166,7 @@
         <v>227</v>
       </c>
       <c r="P242" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q242">
         <v>2.4</v>
@@ -52271,7 +52274,7 @@
         <v>0.29</v>
       </c>
       <c r="AP247">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ247">
         <v>0.25</v>
@@ -52477,7 +52480,7 @@
         <v>1.46</v>
       </c>
       <c r="AP248">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ248">
         <v>1.33</v>
@@ -52686,7 +52689,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ249">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR249">
         <v>1.66</v>
@@ -52811,7 +52814,7 @@
         <v>92</v>
       </c>
       <c r="P250" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q250">
         <v>5</v>
@@ -52892,7 +52895,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ250">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AR250">
         <v>1.2</v>
@@ -53017,7 +53020,7 @@
         <v>231</v>
       </c>
       <c r="P251" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q251">
         <v>2.1</v>
@@ -53635,7 +53638,7 @@
         <v>92</v>
       </c>
       <c r="P254" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q254">
         <v>6.5</v>
@@ -53919,7 +53922,7 @@
         <v>1.07</v>
       </c>
       <c r="AP255">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ255">
         <v>1.13</v>
@@ -54047,7 +54050,7 @@
         <v>234</v>
       </c>
       <c r="P256" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q256">
         <v>4.75</v>
@@ -54125,7 +54128,7 @@
         <v>1.86</v>
       </c>
       <c r="AP256">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ256">
         <v>1.81</v>
@@ -54253,7 +54256,7 @@
         <v>174</v>
       </c>
       <c r="P257" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q257">
         <v>5.5</v>
@@ -54459,7 +54462,7 @@
         <v>235</v>
       </c>
       <c r="P258" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q258">
         <v>2.75</v>
@@ -54537,7 +54540,7 @@
         <v>2.62</v>
       </c>
       <c r="AP258">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ258">
         <v>2.25</v>
@@ -54665,7 +54668,7 @@
         <v>236</v>
       </c>
       <c r="P259" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q259">
         <v>3</v>
@@ -55077,7 +55080,7 @@
         <v>194</v>
       </c>
       <c r="P261" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q261">
         <v>6</v>
@@ -55901,7 +55904,7 @@
         <v>238</v>
       </c>
       <c r="P265" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q265">
         <v>2.6</v>
@@ -56107,7 +56110,7 @@
         <v>200</v>
       </c>
       <c r="P266" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q266">
         <v>3.25</v>
@@ -56313,7 +56316,7 @@
         <v>239</v>
       </c>
       <c r="P267" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q267">
         <v>7</v>
@@ -57137,7 +57140,7 @@
         <v>91</v>
       </c>
       <c r="P271" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q271">
         <v>4.5</v>
@@ -57343,7 +57346,7 @@
         <v>92</v>
       </c>
       <c r="P272" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q272">
         <v>6.5</v>
@@ -57627,7 +57630,7 @@
         <v>1.5</v>
       </c>
       <c r="AP273">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AQ273">
         <v>1.4</v>
@@ -57833,7 +57836,7 @@
         <v>1.07</v>
       </c>
       <c r="AP274">
-        <v>2.69</v>
+        <v>2.71</v>
       </c>
       <c r="AQ274">
         <v>1</v>
@@ -58167,7 +58170,7 @@
         <v>243</v>
       </c>
       <c r="P276" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q276">
         <v>4</v>
@@ -58373,7 +58376,7 @@
         <v>244</v>
       </c>
       <c r="P277" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q277">
         <v>6.5</v>
@@ -58785,7 +58788,7 @@
         <v>245</v>
       </c>
       <c r="P279" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q279">
         <v>3.25</v>
@@ -58942,6 +58945,624 @@
       </c>
       <c r="BP279">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="280" spans="1:68">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>7476135</v>
+      </c>
+      <c r="C280" t="s">
+        <v>68</v>
+      </c>
+      <c r="D280" t="s">
+        <v>69</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45505.47916666666</v>
+      </c>
+      <c r="F280">
+        <v>32</v>
+      </c>
+      <c r="G280" t="s">
+        <v>74</v>
+      </c>
+      <c r="H280" t="s">
+        <v>87</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>1</v>
+      </c>
+      <c r="K280">
+        <v>1</v>
+      </c>
+      <c r="L280">
+        <v>1</v>
+      </c>
+      <c r="M280">
+        <v>1</v>
+      </c>
+      <c r="N280">
+        <v>2</v>
+      </c>
+      <c r="O280" t="s">
+        <v>246</v>
+      </c>
+      <c r="P280" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q280">
+        <v>2.88</v>
+      </c>
+      <c r="R280">
+        <v>2</v>
+      </c>
+      <c r="S280">
+        <v>3.75</v>
+      </c>
+      <c r="T280">
+        <v>1.42</v>
+      </c>
+      <c r="U280">
+        <v>2.62</v>
+      </c>
+      <c r="V280">
+        <v>3</v>
+      </c>
+      <c r="W280">
+        <v>1.33</v>
+      </c>
+      <c r="X280">
+        <v>6.9</v>
+      </c>
+      <c r="Y280">
+        <v>1.08</v>
+      </c>
+      <c r="Z280">
+        <v>2.65</v>
+      </c>
+      <c r="AA280">
+        <v>2.95</v>
+      </c>
+      <c r="AB280">
+        <v>2.6</v>
+      </c>
+      <c r="AC280">
+        <v>1.03</v>
+      </c>
+      <c r="AD280">
+        <v>9.6</v>
+      </c>
+      <c r="AE280">
+        <v>1.17</v>
+      </c>
+      <c r="AF280">
+        <v>2.42</v>
+      </c>
+      <c r="AG280">
+        <v>2</v>
+      </c>
+      <c r="AH280">
+        <v>1.7</v>
+      </c>
+      <c r="AI280">
+        <v>1.91</v>
+      </c>
+      <c r="AJ280">
+        <v>1.8</v>
+      </c>
+      <c r="AK280">
+        <v>1.45</v>
+      </c>
+      <c r="AL280">
+        <v>1.35</v>
+      </c>
+      <c r="AM280">
+        <v>1.46</v>
+      </c>
+      <c r="AN280">
+        <v>0.67</v>
+      </c>
+      <c r="AO280">
+        <v>1</v>
+      </c>
+      <c r="AP280">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AQ280">
+        <v>1</v>
+      </c>
+      <c r="AR280">
+        <v>1.2</v>
+      </c>
+      <c r="AS280">
+        <v>1.53</v>
+      </c>
+      <c r="AT280">
+        <v>2.73</v>
+      </c>
+      <c r="AU280">
+        <v>4</v>
+      </c>
+      <c r="AV280">
+        <v>4</v>
+      </c>
+      <c r="AW280">
+        <v>3</v>
+      </c>
+      <c r="AX280">
+        <v>6</v>
+      </c>
+      <c r="AY280">
+        <v>7</v>
+      </c>
+      <c r="AZ280">
+        <v>10</v>
+      </c>
+      <c r="BA280">
+        <v>4</v>
+      </c>
+      <c r="BB280">
+        <v>3</v>
+      </c>
+      <c r="BC280">
+        <v>7</v>
+      </c>
+      <c r="BD280">
+        <v>1.97</v>
+      </c>
+      <c r="BE280">
+        <v>7.3</v>
+      </c>
+      <c r="BF280">
+        <v>2.2</v>
+      </c>
+      <c r="BG280">
+        <v>1.3</v>
+      </c>
+      <c r="BH280">
+        <v>3.2</v>
+      </c>
+      <c r="BI280">
+        <v>1.52</v>
+      </c>
+      <c r="BJ280">
+        <v>2.46</v>
+      </c>
+      <c r="BK280">
+        <v>2.38</v>
+      </c>
+      <c r="BL280">
+        <v>1.92</v>
+      </c>
+      <c r="BM280">
+        <v>2.35</v>
+      </c>
+      <c r="BN280">
+        <v>1.56</v>
+      </c>
+      <c r="BO280">
+        <v>3</v>
+      </c>
+      <c r="BP280">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="281" spans="1:68">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>7476136</v>
+      </c>
+      <c r="C281" t="s">
+        <v>68</v>
+      </c>
+      <c r="D281" t="s">
+        <v>69</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45505.625</v>
+      </c>
+      <c r="F281">
+        <v>32</v>
+      </c>
+      <c r="G281" t="s">
+        <v>75</v>
+      </c>
+      <c r="H281" t="s">
+        <v>85</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>0</v>
+      </c>
+      <c r="L281">
+        <v>1</v>
+      </c>
+      <c r="M281">
+        <v>0</v>
+      </c>
+      <c r="N281">
+        <v>1</v>
+      </c>
+      <c r="O281" t="s">
+        <v>247</v>
+      </c>
+      <c r="P281" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q281">
+        <v>3</v>
+      </c>
+      <c r="R281">
+        <v>2.05</v>
+      </c>
+      <c r="S281">
+        <v>3.5</v>
+      </c>
+      <c r="T281">
+        <v>1.43</v>
+      </c>
+      <c r="U281">
+        <v>2.74</v>
+      </c>
+      <c r="V281">
+        <v>3.18</v>
+      </c>
+      <c r="W281">
+        <v>1.33</v>
+      </c>
+      <c r="X281">
+        <v>7.4</v>
+      </c>
+      <c r="Y281">
+        <v>1.07</v>
+      </c>
+      <c r="Z281">
+        <v>2.3</v>
+      </c>
+      <c r="AA281">
+        <v>3.1</v>
+      </c>
+      <c r="AB281">
+        <v>2.8</v>
+      </c>
+      <c r="AC281">
+        <v>1.05</v>
+      </c>
+      <c r="AD281">
+        <v>8</v>
+      </c>
+      <c r="AE281">
+        <v>1.36</v>
+      </c>
+      <c r="AF281">
+        <v>2.9</v>
+      </c>
+      <c r="AG281">
+        <v>2.1</v>
+      </c>
+      <c r="AH281">
+        <v>1.7</v>
+      </c>
+      <c r="AI281">
+        <v>1.83</v>
+      </c>
+      <c r="AJ281">
+        <v>1.83</v>
+      </c>
+      <c r="AK281">
+        <v>1.44</v>
+      </c>
+      <c r="AL281">
+        <v>1.34</v>
+      </c>
+      <c r="AM281">
+        <v>1.46</v>
+      </c>
+      <c r="AN281">
+        <v>1.93</v>
+      </c>
+      <c r="AO281">
+        <v>1.87</v>
+      </c>
+      <c r="AP281">
+        <v>2</v>
+      </c>
+      <c r="AQ281">
+        <v>1.75</v>
+      </c>
+      <c r="AR281">
+        <v>1.5</v>
+      </c>
+      <c r="AS281">
+        <v>1.03</v>
+      </c>
+      <c r="AT281">
+        <v>2.53</v>
+      </c>
+      <c r="AU281">
+        <v>4</v>
+      </c>
+      <c r="AV281">
+        <v>4</v>
+      </c>
+      <c r="AW281">
+        <v>3</v>
+      </c>
+      <c r="AX281">
+        <v>6</v>
+      </c>
+      <c r="AY281">
+        <v>7</v>
+      </c>
+      <c r="AZ281">
+        <v>10</v>
+      </c>
+      <c r="BA281">
+        <v>2</v>
+      </c>
+      <c r="BB281">
+        <v>6</v>
+      </c>
+      <c r="BC281">
+        <v>8</v>
+      </c>
+      <c r="BD281">
+        <v>1.9</v>
+      </c>
+      <c r="BE281">
+        <v>7.3</v>
+      </c>
+      <c r="BF281">
+        <v>2.35</v>
+      </c>
+      <c r="BG281">
+        <v>1.38</v>
+      </c>
+      <c r="BH281">
+        <v>2.8</v>
+      </c>
+      <c r="BI281">
+        <v>1.61</v>
+      </c>
+      <c r="BJ281">
+        <v>2.26</v>
+      </c>
+      <c r="BK281">
+        <v>2.02</v>
+      </c>
+      <c r="BL281">
+        <v>1.79</v>
+      </c>
+      <c r="BM281">
+        <v>2.6</v>
+      </c>
+      <c r="BN281">
+        <v>1.47</v>
+      </c>
+      <c r="BO281">
+        <v>3.4</v>
+      </c>
+      <c r="BP281">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="282" spans="1:68">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>7476137</v>
+      </c>
+      <c r="C282" t="s">
+        <v>68</v>
+      </c>
+      <c r="D282" t="s">
+        <v>69</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45505.625</v>
+      </c>
+      <c r="F282">
+        <v>32</v>
+      </c>
+      <c r="G282" t="s">
+        <v>72</v>
+      </c>
+      <c r="H282" t="s">
+        <v>79</v>
+      </c>
+      <c r="I282">
+        <v>1</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <v>1</v>
+      </c>
+      <c r="L282">
+        <v>1</v>
+      </c>
+      <c r="M282">
+        <v>0</v>
+      </c>
+      <c r="N282">
+        <v>1</v>
+      </c>
+      <c r="O282" t="s">
+        <v>248</v>
+      </c>
+      <c r="P282" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q282">
+        <v>1.83</v>
+      </c>
+      <c r="R282">
+        <v>2.3</v>
+      </c>
+      <c r="S282">
+        <v>8</v>
+      </c>
+      <c r="T282">
+        <v>1.32</v>
+      </c>
+      <c r="U282">
+        <v>2.95</v>
+      </c>
+      <c r="V282">
+        <v>2.45</v>
+      </c>
+      <c r="W282">
+        <v>1.45</v>
+      </c>
+      <c r="X282">
+        <v>5.5</v>
+      </c>
+      <c r="Y282">
+        <v>1.1</v>
+      </c>
+      <c r="Z282">
+        <v>1.3</v>
+      </c>
+      <c r="AA282">
+        <v>4.33</v>
+      </c>
+      <c r="AB282">
+        <v>8</v>
+      </c>
+      <c r="AC282">
+        <v>1.03</v>
+      </c>
+      <c r="AD282">
+        <v>10</v>
+      </c>
+      <c r="AE282">
+        <v>1.22</v>
+      </c>
+      <c r="AF282">
+        <v>3.95</v>
+      </c>
+      <c r="AG282">
+        <v>1.8</v>
+      </c>
+      <c r="AH282">
+        <v>2</v>
+      </c>
+      <c r="AI282">
+        <v>2.38</v>
+      </c>
+      <c r="AJ282">
+        <v>1.53</v>
+      </c>
+      <c r="AK282">
+        <v>1.03</v>
+      </c>
+      <c r="AL282">
+        <v>1.12</v>
+      </c>
+      <c r="AM282">
+        <v>3.1</v>
+      </c>
+      <c r="AN282">
+        <v>2.69</v>
+      </c>
+      <c r="AO282">
+        <v>1.07</v>
+      </c>
+      <c r="AP282">
+        <v>2.71</v>
+      </c>
+      <c r="AQ282">
+        <v>1</v>
+      </c>
+      <c r="AR282">
+        <v>1.6</v>
+      </c>
+      <c r="AS282">
+        <v>1.4</v>
+      </c>
+      <c r="AT282">
+        <v>3</v>
+      </c>
+      <c r="AU282">
+        <v>5</v>
+      </c>
+      <c r="AV282">
+        <v>5</v>
+      </c>
+      <c r="AW282">
+        <v>10</v>
+      </c>
+      <c r="AX282">
+        <v>3</v>
+      </c>
+      <c r="AY282">
+        <v>15</v>
+      </c>
+      <c r="AZ282">
+        <v>8</v>
+      </c>
+      <c r="BA282">
+        <v>6</v>
+      </c>
+      <c r="BB282">
+        <v>1</v>
+      </c>
+      <c r="BC282">
+        <v>7</v>
+      </c>
+      <c r="BD282">
+        <v>1.23</v>
+      </c>
+      <c r="BE282">
+        <v>9.6</v>
+      </c>
+      <c r="BF282">
+        <v>5.77</v>
+      </c>
+      <c r="BG282">
+        <v>1.29</v>
+      </c>
+      <c r="BH282">
+        <v>3.4</v>
+      </c>
+      <c r="BI282">
+        <v>1.48</v>
+      </c>
+      <c r="BJ282">
+        <v>2.5</v>
+      </c>
+      <c r="BK282">
+        <v>2.2</v>
+      </c>
+      <c r="BL282">
+        <v>2.01</v>
+      </c>
+      <c r="BM282">
+        <v>2.25</v>
+      </c>
+      <c r="BN282">
+        <v>1.62</v>
+      </c>
+      <c r="BO282">
+        <v>2.8</v>
+      </c>
+      <c r="BP282">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1760" uniqueCount="365">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -763,6 +763,9 @@
     <t>['8']</t>
   </si>
   <si>
+    <t>['15']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -1467,7 +1470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP282"/>
+  <dimension ref="A1:BP283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2550,7 +2553,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2837,7 +2840,7 @@
         <v>2</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2962,7 +2965,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3374,7 +3377,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3786,7 +3789,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3864,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ12">
         <v>0.93</v>
@@ -3992,7 +3995,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -4198,7 +4201,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -5228,7 +5231,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5640,7 +5643,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5721,7 +5724,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ21">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR21">
         <v>1.13</v>
@@ -5846,7 +5849,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -6052,7 +6055,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -6258,7 +6261,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6670,7 +6673,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -7494,7 +7497,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7700,7 +7703,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7778,7 +7781,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ31">
         <v>1.13</v>
@@ -8112,7 +8115,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8730,7 +8733,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -9142,7 +9145,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9223,7 +9226,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR38">
         <v>1.37</v>
@@ -9348,7 +9351,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9554,7 +9557,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -10172,7 +10175,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10378,7 +10381,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10584,7 +10587,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10662,7 +10665,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ45">
         <v>1.86</v>
@@ -11202,7 +11205,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11408,7 +11411,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11820,7 +11823,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -12026,7 +12029,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12232,7 +12235,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12644,7 +12647,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -13056,7 +13059,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13549,7 +13552,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR59">
         <v>1.51</v>
@@ -13880,7 +13883,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -14292,7 +14295,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14498,7 +14501,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14704,7 +14707,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -15116,7 +15119,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15528,7 +15531,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -15609,7 +15612,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR69">
         <v>1.06</v>
@@ -16146,7 +16149,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q72">
         <v>1.8</v>
@@ -16558,7 +16561,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16764,7 +16767,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -17176,7 +17179,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17382,7 +17385,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17794,7 +17797,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -18824,7 +18827,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -19030,7 +19033,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19236,7 +19239,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19648,7 +19651,7 @@
         <v>92</v>
       </c>
       <c r="P89" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q89">
         <v>3.6</v>
@@ -19854,7 +19857,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q90">
         <v>3.5</v>
@@ -21296,7 +21299,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21789,7 +21792,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ99">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR99">
         <v>1.69</v>
@@ -21914,7 +21917,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -22326,7 +22329,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22532,7 +22535,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23356,7 +23359,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23768,7 +23771,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24052,7 +24055,7 @@
         <v>0.2</v>
       </c>
       <c r="AP110">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ110">
         <v>0.25</v>
@@ -24180,7 +24183,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24798,7 +24801,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -25828,7 +25831,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -25909,7 +25912,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ119">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR119">
         <v>1.25</v>
@@ -26034,7 +26037,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -26240,7 +26243,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26858,7 +26861,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -27064,7 +27067,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27270,7 +27273,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27476,7 +27479,7 @@
         <v>94</v>
       </c>
       <c r="P127" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q127">
         <v>3.4</v>
@@ -28300,7 +28303,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28918,7 +28921,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -29124,7 +29127,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29330,7 +29333,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29614,7 +29617,7 @@
         <v>1.86</v>
       </c>
       <c r="AP137">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ137">
         <v>1.25</v>
@@ -30360,7 +30363,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -30644,7 +30647,7 @@
         <v>2</v>
       </c>
       <c r="AP142">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ142">
         <v>2.47</v>
@@ -31184,7 +31187,7 @@
         <v>92</v>
       </c>
       <c r="P145" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31390,7 +31393,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31596,7 +31599,7 @@
         <v>108</v>
       </c>
       <c r="P147" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -32295,7 +32298,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ150">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR150">
         <v>1.76</v>
@@ -33038,7 +33041,7 @@
         <v>128</v>
       </c>
       <c r="P154" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33450,7 +33453,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q156">
         <v>1.91</v>
@@ -33656,7 +33659,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34480,7 +34483,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34686,7 +34689,7 @@
         <v>151</v>
       </c>
       <c r="P162" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -34892,7 +34895,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -35382,7 +35385,7 @@
         <v>0.89</v>
       </c>
       <c r="AP165">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ165">
         <v>1</v>
@@ -35510,7 +35513,7 @@
         <v>92</v>
       </c>
       <c r="P166" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q166">
         <v>3</v>
@@ -35716,7 +35719,7 @@
         <v>191</v>
       </c>
       <c r="P167" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35922,7 +35925,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
@@ -36128,7 +36131,7 @@
         <v>192</v>
       </c>
       <c r="P169" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -36415,7 +36418,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ170">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR170">
         <v>1.74</v>
@@ -36746,7 +36749,7 @@
         <v>194</v>
       </c>
       <c r="P172" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -37158,7 +37161,7 @@
         <v>92</v>
       </c>
       <c r="P174" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q174">
         <v>4.8</v>
@@ -37776,7 +37779,7 @@
         <v>128</v>
       </c>
       <c r="P177" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q177">
         <v>3.25</v>
@@ -38188,7 +38191,7 @@
         <v>118</v>
       </c>
       <c r="P179" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38806,7 +38809,7 @@
         <v>92</v>
       </c>
       <c r="P182" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q182">
         <v>4.33</v>
@@ -39012,7 +39015,7 @@
         <v>200</v>
       </c>
       <c r="P183" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q183">
         <v>9</v>
@@ -39218,7 +39221,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q184">
         <v>3.4</v>
@@ -39424,7 +39427,7 @@
         <v>108</v>
       </c>
       <c r="P185" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -39711,7 +39714,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ186">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR186">
         <v>0.95</v>
@@ -40248,7 +40251,7 @@
         <v>92</v>
       </c>
       <c r="P189" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q189">
         <v>3.5</v>
@@ -40454,7 +40457,7 @@
         <v>202</v>
       </c>
       <c r="P190" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q190">
         <v>3.8</v>
@@ -40660,7 +40663,7 @@
         <v>92</v>
       </c>
       <c r="P191" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -42180,7 +42183,7 @@
         <v>1.73</v>
       </c>
       <c r="AP198">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ198">
         <v>1.81</v>
@@ -42514,7 +42517,7 @@
         <v>204</v>
       </c>
       <c r="P200" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q200">
         <v>3.75</v>
@@ -42926,7 +42929,7 @@
         <v>206</v>
       </c>
       <c r="P202" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q202">
         <v>3.2</v>
@@ -43625,7 +43628,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ205">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR205">
         <v>1.95</v>
@@ -43750,7 +43753,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q206">
         <v>4.5</v>
@@ -44162,7 +44165,7 @@
         <v>209</v>
       </c>
       <c r="P208" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q208">
         <v>2.75</v>
@@ -44243,7 +44246,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ208">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR208">
         <v>1.16</v>
@@ -44368,7 +44371,7 @@
         <v>194</v>
       </c>
       <c r="P209" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q209">
         <v>3.5</v>
@@ -44574,7 +44577,7 @@
         <v>179</v>
       </c>
       <c r="P210" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q210">
         <v>7.5</v>
@@ -44780,7 +44783,7 @@
         <v>210</v>
       </c>
       <c r="P211" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q211">
         <v>3.75</v>
@@ -44986,7 +44989,7 @@
         <v>94</v>
       </c>
       <c r="P212" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q212">
         <v>3.4</v>
@@ -45192,7 +45195,7 @@
         <v>211</v>
       </c>
       <c r="P213" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q213">
         <v>2.78</v>
@@ -45270,7 +45273,7 @@
         <v>1.58</v>
       </c>
       <c r="AP213">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ213">
         <v>1.75</v>
@@ -45398,7 +45401,7 @@
         <v>212</v>
       </c>
       <c r="P214" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q214">
         <v>3.2</v>
@@ -45604,7 +45607,7 @@
         <v>213</v>
       </c>
       <c r="P215" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q215">
         <v>2.2</v>
@@ -45810,7 +45813,7 @@
         <v>92</v>
       </c>
       <c r="P216" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q216">
         <v>7</v>
@@ -46016,7 +46019,7 @@
         <v>214</v>
       </c>
       <c r="P217" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q217">
         <v>2.88</v>
@@ -46222,7 +46225,7 @@
         <v>92</v>
       </c>
       <c r="P218" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q218">
         <v>7.5</v>
@@ -46428,7 +46431,7 @@
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q219">
         <v>3.1</v>
@@ -46712,7 +46715,7 @@
         <v>0.92</v>
       </c>
       <c r="AP220">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ220">
         <v>0.8100000000000001</v>
@@ -46840,7 +46843,7 @@
         <v>216</v>
       </c>
       <c r="P221" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q221">
         <v>0</v>
@@ -47046,7 +47049,7 @@
         <v>217</v>
       </c>
       <c r="P222" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q222">
         <v>3.4</v>
@@ -47333,7 +47336,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ223">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR223">
         <v>1.25</v>
@@ -47664,7 +47667,7 @@
         <v>92</v>
       </c>
       <c r="P225" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q225">
         <v>3</v>
@@ -47870,7 +47873,7 @@
         <v>218</v>
       </c>
       <c r="P226" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q226">
         <v>1.9</v>
@@ -48900,7 +48903,7 @@
         <v>92</v>
       </c>
       <c r="P231" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q231">
         <v>4.75</v>
@@ -49106,7 +49109,7 @@
         <v>221</v>
       </c>
       <c r="P232" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q232">
         <v>2.63</v>
@@ -49518,7 +49521,7 @@
         <v>222</v>
       </c>
       <c r="P234" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q234">
         <v>3.6</v>
@@ -49724,7 +49727,7 @@
         <v>223</v>
       </c>
       <c r="P235" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q235">
         <v>5</v>
@@ -49930,7 +49933,7 @@
         <v>224</v>
       </c>
       <c r="P236" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q236">
         <v>1.62</v>
@@ -50342,7 +50345,7 @@
         <v>222</v>
       </c>
       <c r="P238" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q238">
         <v>2.38</v>
@@ -50548,7 +50551,7 @@
         <v>225</v>
       </c>
       <c r="P239" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q239">
         <v>2.5</v>
@@ -50626,7 +50629,7 @@
         <v>1.17</v>
       </c>
       <c r="AP239">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ239">
         <v>1</v>
@@ -50835,7 +50838,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ240">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR240">
         <v>1.43</v>
@@ -50960,7 +50963,7 @@
         <v>92</v>
       </c>
       <c r="P241" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q241">
         <v>7.5</v>
@@ -51166,7 +51169,7 @@
         <v>227</v>
       </c>
       <c r="P242" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q242">
         <v>2.4</v>
@@ -52814,7 +52817,7 @@
         <v>92</v>
       </c>
       <c r="P250" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q250">
         <v>5</v>
@@ -53020,7 +53023,7 @@
         <v>231</v>
       </c>
       <c r="P251" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q251">
         <v>2.1</v>
@@ -53098,7 +53101,7 @@
         <v>0.93</v>
       </c>
       <c r="AP251">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ251">
         <v>0.8100000000000001</v>
@@ -53638,7 +53641,7 @@
         <v>92</v>
       </c>
       <c r="P254" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q254">
         <v>6.5</v>
@@ -54050,7 +54053,7 @@
         <v>234</v>
       </c>
       <c r="P256" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q256">
         <v>4.75</v>
@@ -54256,7 +54259,7 @@
         <v>174</v>
       </c>
       <c r="P257" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q257">
         <v>5.5</v>
@@ -54462,7 +54465,7 @@
         <v>235</v>
       </c>
       <c r="P258" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q258">
         <v>2.75</v>
@@ -54668,7 +54671,7 @@
         <v>236</v>
       </c>
       <c r="P259" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q259">
         <v>3</v>
@@ -54952,7 +54955,7 @@
         <v>0.64</v>
       </c>
       <c r="AP260">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ260">
         <v>0.63</v>
@@ -55080,7 +55083,7 @@
         <v>194</v>
       </c>
       <c r="P261" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q261">
         <v>6</v>
@@ -55904,7 +55907,7 @@
         <v>238</v>
       </c>
       <c r="P265" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q265">
         <v>2.6</v>
@@ -56110,7 +56113,7 @@
         <v>200</v>
       </c>
       <c r="P266" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q266">
         <v>3.25</v>
@@ -56316,7 +56319,7 @@
         <v>239</v>
       </c>
       <c r="P267" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q267">
         <v>7</v>
@@ -56603,7 +56606,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ268">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR268">
         <v>1.42</v>
@@ -57140,7 +57143,7 @@
         <v>91</v>
       </c>
       <c r="P271" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q271">
         <v>4.5</v>
@@ -57218,7 +57221,7 @@
         <v>2.43</v>
       </c>
       <c r="AP271">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AQ271">
         <v>2.25</v>
@@ -57346,7 +57349,7 @@
         <v>92</v>
       </c>
       <c r="P272" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q272">
         <v>6.5</v>
@@ -58170,7 +58173,7 @@
         <v>243</v>
       </c>
       <c r="P276" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q276">
         <v>4</v>
@@ -58376,7 +58379,7 @@
         <v>244</v>
       </c>
       <c r="P277" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q277">
         <v>6.5</v>
@@ -58788,7 +58791,7 @@
         <v>245</v>
       </c>
       <c r="P279" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q279">
         <v>3.25</v>
@@ -58994,7 +58997,7 @@
         <v>246</v>
       </c>
       <c r="P280" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q280">
         <v>2.88</v>
@@ -59563,6 +59566,212 @@
       </c>
       <c r="BP282">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="283" spans="1:68">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>7476138</v>
+      </c>
+      <c r="C283" t="s">
+        <v>68</v>
+      </c>
+      <c r="D283" t="s">
+        <v>69</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45506.625</v>
+      </c>
+      <c r="F283">
+        <v>32</v>
+      </c>
+      <c r="G283" t="s">
+        <v>80</v>
+      </c>
+      <c r="H283" t="s">
+        <v>84</v>
+      </c>
+      <c r="I283">
+        <v>1</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283">
+        <v>1</v>
+      </c>
+      <c r="L283">
+        <v>1</v>
+      </c>
+      <c r="M283">
+        <v>0</v>
+      </c>
+      <c r="N283">
+        <v>1</v>
+      </c>
+      <c r="O283" t="s">
+        <v>249</v>
+      </c>
+      <c r="P283" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q283">
+        <v>2.25</v>
+      </c>
+      <c r="R283">
+        <v>2.25</v>
+      </c>
+      <c r="S283">
+        <v>4.5</v>
+      </c>
+      <c r="T283">
+        <v>1.3</v>
+      </c>
+      <c r="U283">
+        <v>3.2</v>
+      </c>
+      <c r="V283">
+        <v>2.45</v>
+      </c>
+      <c r="W283">
+        <v>1.48</v>
+      </c>
+      <c r="X283">
+        <v>5.8</v>
+      </c>
+      <c r="Y283">
+        <v>1.11</v>
+      </c>
+      <c r="Z283">
+        <v>1.67</v>
+      </c>
+      <c r="AA283">
+        <v>3.4</v>
+      </c>
+      <c r="AB283">
+        <v>4.5</v>
+      </c>
+      <c r="AC283">
+        <v>1.04</v>
+      </c>
+      <c r="AD283">
+        <v>9</v>
+      </c>
+      <c r="AE283">
+        <v>1.25</v>
+      </c>
+      <c r="AF283">
+        <v>3.7</v>
+      </c>
+      <c r="AG283">
+        <v>1.8</v>
+      </c>
+      <c r="AH283">
+        <v>2</v>
+      </c>
+      <c r="AI283">
+        <v>1.8</v>
+      </c>
+      <c r="AJ283">
+        <v>1.91</v>
+      </c>
+      <c r="AK283">
+        <v>1.07</v>
+      </c>
+      <c r="AL283">
+        <v>1.18</v>
+      </c>
+      <c r="AM283">
+        <v>2.5</v>
+      </c>
+      <c r="AN283">
+        <v>2</v>
+      </c>
+      <c r="AO283">
+        <v>1</v>
+      </c>
+      <c r="AP283">
+        <v>2.07</v>
+      </c>
+      <c r="AQ283">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR283">
+        <v>1.55</v>
+      </c>
+      <c r="AS283">
+        <v>1.27</v>
+      </c>
+      <c r="AT283">
+        <v>2.82</v>
+      </c>
+      <c r="AU283">
+        <v>6</v>
+      </c>
+      <c r="AV283">
+        <v>6</v>
+      </c>
+      <c r="AW283">
+        <v>4</v>
+      </c>
+      <c r="AX283">
+        <v>7</v>
+      </c>
+      <c r="AY283">
+        <v>10</v>
+      </c>
+      <c r="AZ283">
+        <v>13</v>
+      </c>
+      <c r="BA283">
+        <v>4</v>
+      </c>
+      <c r="BB283">
+        <v>11</v>
+      </c>
+      <c r="BC283">
+        <v>15</v>
+      </c>
+      <c r="BD283">
+        <v>1.38</v>
+      </c>
+      <c r="BE283">
+        <v>7.3</v>
+      </c>
+      <c r="BF283">
+        <v>3.9</v>
+      </c>
+      <c r="BG283">
+        <v>1.25</v>
+      </c>
+      <c r="BH283">
+        <v>3.6</v>
+      </c>
+      <c r="BI283">
+        <v>1.42</v>
+      </c>
+      <c r="BJ283">
+        <v>2.62</v>
+      </c>
+      <c r="BK283">
+        <v>2.1</v>
+      </c>
+      <c r="BL283">
+        <v>2.07</v>
+      </c>
+      <c r="BM283">
+        <v>2.18</v>
+      </c>
+      <c r="BN283">
+        <v>1.66</v>
+      </c>
+      <c r="BO283">
+        <v>2.62</v>
+      </c>
+      <c r="BP283">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="369">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -757,10 +757,10 @@
     <t>['46']</t>
   </si>
   <si>
-    <t>['56']</t>
+    <t>['8']</t>
   </si>
   <si>
-    <t>['8']</t>
+    <t>['56']</t>
   </si>
   <si>
     <t>['15']</t>
@@ -770,6 +770,9 @@
   </si>
   <si>
     <t>['45+2', '86']</t>
+  </si>
+  <si>
+    <t>['7', '14', '59', '64']</t>
   </si>
   <si>
     <t>['16', '75']</t>
@@ -1105,16 +1108,19 @@
     <t>['45', '63']</t>
   </si>
   <si>
-    <t>['16', '38', '43', '63']</t>
+    <t>['19', '55']</t>
   </si>
   <si>
-    <t>['19', '55']</t>
+    <t>['16', '38', '43', '63']</t>
   </si>
   <si>
     <t>['19', '80']</t>
   </si>
   <si>
     <t>['54', '59']</t>
+  </si>
+  <si>
+    <t>['66', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -1476,7 +1482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP285"/>
+  <dimension ref="A1:BP286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2434,7 +2440,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ5">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2559,7 +2565,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2971,7 +2977,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3383,7 +3389,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3795,7 +3801,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3873,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ12">
         <v>0.88</v>
@@ -4001,7 +4007,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -4207,7 +4213,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -5237,7 +5243,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5649,7 +5655,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5855,7 +5861,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -6061,7 +6067,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -6267,7 +6273,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6679,7 +6685,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6966,7 +6972,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ27">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR27">
         <v>2.1</v>
@@ -7503,7 +7509,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7709,7 +7715,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7787,7 +7793,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ31">
         <v>1.13</v>
@@ -8121,7 +8127,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8739,7 +8745,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -9151,7 +9157,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9357,7 +9363,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9563,7 +9569,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -10181,7 +10187,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10387,7 +10393,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10593,7 +10599,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10671,7 +10677,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ45">
         <v>1.73</v>
@@ -11211,7 +11217,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11417,7 +11423,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11704,7 +11710,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ50">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR50">
         <v>1.07</v>
@@ -11829,7 +11835,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -12035,7 +12041,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12241,7 +12247,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12653,7 +12659,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -13065,7 +13071,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13889,7 +13895,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -14301,7 +14307,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14507,7 +14513,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14713,7 +14719,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -15125,7 +15131,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15206,7 +15212,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ67">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR67">
         <v>1.71</v>
@@ -15537,7 +15543,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -16155,7 +16161,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q72">
         <v>1.8</v>
@@ -16567,7 +16573,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16773,7 +16779,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -17185,7 +17191,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17266,7 +17272,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ77">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR77">
         <v>1.32</v>
@@ -17391,7 +17397,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17803,7 +17809,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -18833,7 +18839,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -19039,7 +19045,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19245,7 +19251,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19657,7 +19663,7 @@
         <v>92</v>
       </c>
       <c r="P89" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q89">
         <v>3.6</v>
@@ -19738,7 +19744,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ89">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR89">
         <v>1.19</v>
@@ -19863,7 +19869,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q90">
         <v>3.5</v>
@@ -21305,7 +21311,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21923,7 +21929,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -22335,7 +22341,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22541,7 +22547,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23240,7 +23246,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ106">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR106">
         <v>2.1</v>
@@ -23365,7 +23371,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23777,7 +23783,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24061,7 +24067,7 @@
         <v>0.2</v>
       </c>
       <c r="AP110">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ110">
         <v>0.25</v>
@@ -24189,7 +24195,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24807,7 +24813,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -25837,7 +25843,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -26043,7 +26049,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -26249,7 +26255,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26867,7 +26873,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -27073,7 +27079,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27279,7 +27285,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27485,7 +27491,7 @@
         <v>94</v>
       </c>
       <c r="P127" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q127">
         <v>3.4</v>
@@ -28309,7 +28315,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28927,7 +28933,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -29008,7 +29014,7 @@
         <v>2.73</v>
       </c>
       <c r="AQ134">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR134">
         <v>1.63</v>
@@ -29133,7 +29139,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29339,7 +29345,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -29623,7 +29629,7 @@
         <v>1.86</v>
       </c>
       <c r="AP137">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ137">
         <v>1.25</v>
@@ -29957,7 +29963,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q139">
         <v>3.15</v>
@@ -30369,7 +30375,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -30653,7 +30659,7 @@
         <v>2</v>
       </c>
       <c r="AP142">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ142">
         <v>2.47</v>
@@ -31193,7 +31199,7 @@
         <v>92</v>
       </c>
       <c r="P145" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31399,7 +31405,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31605,7 +31611,7 @@
         <v>108</v>
       </c>
       <c r="P147" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -33047,7 +33053,7 @@
         <v>128</v>
       </c>
       <c r="P154" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33334,7 +33340,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ155">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR155">
         <v>1.48</v>
@@ -33459,7 +33465,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q156">
         <v>1.91</v>
@@ -33665,7 +33671,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -34489,7 +34495,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34695,7 +34701,7 @@
         <v>151</v>
       </c>
       <c r="P162" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -34901,7 +34907,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -35391,7 +35397,7 @@
         <v>0.89</v>
       </c>
       <c r="AP165">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ165">
         <v>1</v>
@@ -35519,7 +35525,7 @@
         <v>92</v>
       </c>
       <c r="P166" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q166">
         <v>3</v>
@@ -35725,7 +35731,7 @@
         <v>191</v>
       </c>
       <c r="P167" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35931,7 +35937,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
@@ -36137,7 +36143,7 @@
         <v>192</v>
       </c>
       <c r="P169" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -36755,7 +36761,7 @@
         <v>194</v>
       </c>
       <c r="P172" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -36836,7 +36842,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ172">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR172">
         <v>1.49</v>
@@ -37167,7 +37173,7 @@
         <v>92</v>
       </c>
       <c r="P174" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q174">
         <v>4.8</v>
@@ -37785,7 +37791,7 @@
         <v>128</v>
       </c>
       <c r="P177" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q177">
         <v>3.25</v>
@@ -38197,7 +38203,7 @@
         <v>118</v>
       </c>
       <c r="P179" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38815,7 +38821,7 @@
         <v>92</v>
       </c>
       <c r="P182" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q182">
         <v>4.33</v>
@@ -39021,7 +39027,7 @@
         <v>200</v>
       </c>
       <c r="P183" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q183">
         <v>9</v>
@@ -39227,7 +39233,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q184">
         <v>3.4</v>
@@ -39433,7 +39439,7 @@
         <v>108</v>
       </c>
       <c r="P185" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -40257,7 +40263,7 @@
         <v>92</v>
       </c>
       <c r="P189" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q189">
         <v>3.5</v>
@@ -40463,7 +40469,7 @@
         <v>202</v>
       </c>
       <c r="P190" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q190">
         <v>3.8</v>
@@ -40669,7 +40675,7 @@
         <v>92</v>
       </c>
       <c r="P191" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -40956,7 +40962,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ192">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR192">
         <v>1.47</v>
@@ -42189,7 +42195,7 @@
         <v>1.73</v>
       </c>
       <c r="AP198">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ198">
         <v>1.81</v>
@@ -42523,7 +42529,7 @@
         <v>204</v>
       </c>
       <c r="P200" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q200">
         <v>3.75</v>
@@ -42935,7 +42941,7 @@
         <v>206</v>
       </c>
       <c r="P202" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q202">
         <v>3.2</v>
@@ -43759,7 +43765,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q206">
         <v>4.5</v>
@@ -44171,7 +44177,7 @@
         <v>209</v>
       </c>
       <c r="P208" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q208">
         <v>2.75</v>
@@ -44377,7 +44383,7 @@
         <v>194</v>
       </c>
       <c r="P209" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q209">
         <v>3.5</v>
@@ -44583,7 +44589,7 @@
         <v>179</v>
       </c>
       <c r="P210" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q210">
         <v>7.5</v>
@@ -44789,7 +44795,7 @@
         <v>210</v>
       </c>
       <c r="P211" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q211">
         <v>3.75</v>
@@ -44995,7 +45001,7 @@
         <v>94</v>
       </c>
       <c r="P212" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q212">
         <v>3.4</v>
@@ -45201,7 +45207,7 @@
         <v>211</v>
       </c>
       <c r="P213" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q213">
         <v>2.78</v>
@@ -45279,7 +45285,7 @@
         <v>1.58</v>
       </c>
       <c r="AP213">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ213">
         <v>1.75</v>
@@ -45407,7 +45413,7 @@
         <v>212</v>
       </c>
       <c r="P214" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q214">
         <v>3.2</v>
@@ -45488,7 +45494,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ214">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR214">
         <v>1.39</v>
@@ -45613,7 +45619,7 @@
         <v>213</v>
       </c>
       <c r="P215" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q215">
         <v>2.2</v>
@@ -45819,7 +45825,7 @@
         <v>92</v>
       </c>
       <c r="P216" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q216">
         <v>7</v>
@@ -46025,7 +46031,7 @@
         <v>214</v>
       </c>
       <c r="P217" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q217">
         <v>2.88</v>
@@ -46231,7 +46237,7 @@
         <v>92</v>
       </c>
       <c r="P218" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q218">
         <v>7.5</v>
@@ -46437,7 +46443,7 @@
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q219">
         <v>3.1</v>
@@ -46721,7 +46727,7 @@
         <v>0.92</v>
       </c>
       <c r="AP220">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ220">
         <v>0.8100000000000001</v>
@@ -46849,7 +46855,7 @@
         <v>216</v>
       </c>
       <c r="P221" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q221">
         <v>0</v>
@@ -47055,7 +47061,7 @@
         <v>217</v>
       </c>
       <c r="P222" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q222">
         <v>3.4</v>
@@ -47673,7 +47679,7 @@
         <v>92</v>
       </c>
       <c r="P225" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q225">
         <v>3</v>
@@ -47879,7 +47885,7 @@
         <v>218</v>
       </c>
       <c r="P226" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q226">
         <v>1.9</v>
@@ -48909,7 +48915,7 @@
         <v>92</v>
       </c>
       <c r="P231" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q231">
         <v>4.75</v>
@@ -49115,7 +49121,7 @@
         <v>221</v>
       </c>
       <c r="P232" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q232">
         <v>2.63</v>
@@ -49527,7 +49533,7 @@
         <v>222</v>
       </c>
       <c r="P234" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q234">
         <v>3.6</v>
@@ -49733,7 +49739,7 @@
         <v>223</v>
       </c>
       <c r="P235" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q235">
         <v>5</v>
@@ -49939,7 +49945,7 @@
         <v>224</v>
       </c>
       <c r="P236" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q236">
         <v>1.62</v>
@@ -50226,7 +50232,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ237">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR237">
         <v>1.2</v>
@@ -50351,7 +50357,7 @@
         <v>222</v>
       </c>
       <c r="P238" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q238">
         <v>2.38</v>
@@ -50557,7 +50563,7 @@
         <v>225</v>
       </c>
       <c r="P239" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q239">
         <v>2.5</v>
@@ -50635,7 +50641,7 @@
         <v>1.17</v>
       </c>
       <c r="AP239">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ239">
         <v>1</v>
@@ -50969,7 +50975,7 @@
         <v>92</v>
       </c>
       <c r="P241" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q241">
         <v>7.5</v>
@@ -51175,7 +51181,7 @@
         <v>227</v>
       </c>
       <c r="P242" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q242">
         <v>2.4</v>
@@ -52492,7 +52498,7 @@
         <v>2</v>
       </c>
       <c r="AQ248">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR248">
         <v>1.49</v>
@@ -52823,7 +52829,7 @@
         <v>92</v>
       </c>
       <c r="P250" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q250">
         <v>5</v>
@@ -53029,7 +53035,7 @@
         <v>231</v>
       </c>
       <c r="P251" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q251">
         <v>2.1</v>
@@ -53107,7 +53113,7 @@
         <v>0.93</v>
       </c>
       <c r="AP251">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ251">
         <v>0.8100000000000001</v>
@@ -53647,7 +53653,7 @@
         <v>92</v>
       </c>
       <c r="P254" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q254">
         <v>6.5</v>
@@ -54059,7 +54065,7 @@
         <v>234</v>
       </c>
       <c r="P256" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q256">
         <v>4.75</v>
@@ -54265,7 +54271,7 @@
         <v>174</v>
       </c>
       <c r="P257" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q257">
         <v>5.5</v>
@@ -54471,7 +54477,7 @@
         <v>235</v>
       </c>
       <c r="P258" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q258">
         <v>2.75</v>
@@ -54677,7 +54683,7 @@
         <v>236</v>
       </c>
       <c r="P259" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q259">
         <v>3</v>
@@ -54961,7 +54967,7 @@
         <v>0.64</v>
       </c>
       <c r="AP260">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ260">
         <v>0.63</v>
@@ -55089,7 +55095,7 @@
         <v>194</v>
       </c>
       <c r="P261" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q261">
         <v>6</v>
@@ -55913,7 +55919,7 @@
         <v>238</v>
       </c>
       <c r="P265" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q265">
         <v>2.6</v>
@@ -56077,7 +56083,7 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>7476125</v>
+        <v>7476126</v>
       </c>
       <c r="C266" t="s">
         <v>68</v>
@@ -56092,190 +56098,190 @@
         <v>31</v>
       </c>
       <c r="G266" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H266" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I266">
         <v>0</v>
       </c>
       <c r="J266">
+        <v>1</v>
+      </c>
+      <c r="K266">
+        <v>1</v>
+      </c>
+      <c r="L266">
+        <v>1</v>
+      </c>
+      <c r="M266">
+        <v>2</v>
+      </c>
+      <c r="N266">
         <v>3</v>
       </c>
-      <c r="K266">
+      <c r="O266" t="s">
+        <v>239</v>
+      </c>
+      <c r="P266" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q266">
+        <v>7</v>
+      </c>
+      <c r="R266">
+        <v>2.25</v>
+      </c>
+      <c r="S266">
+        <v>1.91</v>
+      </c>
+      <c r="T266">
+        <v>1.33</v>
+      </c>
+      <c r="U266">
+        <v>3.12</v>
+      </c>
+      <c r="V266">
+        <v>2.57</v>
+      </c>
+      <c r="W266">
+        <v>1.47</v>
+      </c>
+      <c r="X266">
+        <v>6.2</v>
+      </c>
+      <c r="Y266">
+        <v>1.1</v>
+      </c>
+      <c r="Z266">
+        <v>8</v>
+      </c>
+      <c r="AA266">
+        <v>4</v>
+      </c>
+      <c r="AB266">
+        <v>1.38</v>
+      </c>
+      <c r="AC266">
+        <v>1.02</v>
+      </c>
+      <c r="AD266">
+        <v>10.5</v>
+      </c>
+      <c r="AE266">
+        <v>1.23</v>
+      </c>
+      <c r="AF266">
+        <v>3.83</v>
+      </c>
+      <c r="AG266">
+        <v>1.85</v>
+      </c>
+      <c r="AH266">
+        <v>1.95</v>
+      </c>
+      <c r="AI266">
+        <v>2.2</v>
+      </c>
+      <c r="AJ266">
+        <v>1.62</v>
+      </c>
+      <c r="AK266">
+        <v>2.64</v>
+      </c>
+      <c r="AL266">
+        <v>1.17</v>
+      </c>
+      <c r="AM266">
+        <v>1.07</v>
+      </c>
+      <c r="AN266">
+        <v>1.07</v>
+      </c>
+      <c r="AO266">
+        <v>1.38</v>
+      </c>
+      <c r="AP266">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ266">
+        <v>1.4</v>
+      </c>
+      <c r="AR266">
+        <v>0.97</v>
+      </c>
+      <c r="AS266">
+        <v>1.67</v>
+      </c>
+      <c r="AT266">
+        <v>2.64</v>
+      </c>
+      <c r="AU266">
+        <v>6</v>
+      </c>
+      <c r="AV266">
         <v>3</v>
       </c>
-      <c r="L266">
-        <v>1</v>
-      </c>
-      <c r="M266">
-        <v>4</v>
-      </c>
-      <c r="N266">
+      <c r="AW266">
         <v>5</v>
       </c>
-      <c r="O266" t="s">
-        <v>200</v>
-      </c>
-      <c r="P266" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q266">
-        <v>3.25</v>
-      </c>
-      <c r="R266">
-        <v>1.91</v>
-      </c>
-      <c r="S266">
-        <v>3.75</v>
-      </c>
-      <c r="T266">
-        <v>1.53</v>
-      </c>
-      <c r="U266">
-        <v>2.4</v>
-      </c>
-      <c r="V266">
-        <v>3.54</v>
-      </c>
-      <c r="W266">
-        <v>1.27</v>
-      </c>
-      <c r="X266">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="Y266">
-        <v>1.03</v>
-      </c>
-      <c r="Z266">
-        <v>2.5</v>
-      </c>
-      <c r="AA266">
-        <v>2.63</v>
-      </c>
-      <c r="AB266">
-        <v>3.3</v>
-      </c>
-      <c r="AC266">
-        <v>1.1</v>
-      </c>
-      <c r="AD266">
-        <v>6.35</v>
-      </c>
-      <c r="AE266">
-        <v>1.45</v>
-      </c>
-      <c r="AF266">
-        <v>2.68</v>
-      </c>
-      <c r="AG266">
-        <v>2.63</v>
-      </c>
-      <c r="AH266">
-        <v>1.44</v>
-      </c>
-      <c r="AI266">
-        <v>2.1</v>
-      </c>
-      <c r="AJ266">
-        <v>1.67</v>
-      </c>
-      <c r="AK266">
-        <v>1.33</v>
-      </c>
-      <c r="AL266">
-        <v>1.33</v>
-      </c>
-      <c r="AM266">
-        <v>1.53</v>
-      </c>
-      <c r="AN266">
-        <v>1.53</v>
-      </c>
-      <c r="AO266">
-        <v>1.77</v>
-      </c>
-      <c r="AP266">
-        <v>1.44</v>
-      </c>
-      <c r="AQ266">
+      <c r="AX266">
+        <v>5</v>
+      </c>
+      <c r="AY266">
+        <v>11</v>
+      </c>
+      <c r="AZ266">
+        <v>8</v>
+      </c>
+      <c r="BA266">
+        <v>5</v>
+      </c>
+      <c r="BB266">
+        <v>2</v>
+      </c>
+      <c r="BC266">
+        <v>7</v>
+      </c>
+      <c r="BD266">
+        <v>4.1</v>
+      </c>
+      <c r="BE266">
+        <v>7.1</v>
+      </c>
+      <c r="BF266">
+        <v>1.36</v>
+      </c>
+      <c r="BG266">
+        <v>1.29</v>
+      </c>
+      <c r="BH266">
+        <v>3.14</v>
+      </c>
+      <c r="BI266">
+        <v>1.55</v>
+      </c>
+      <c r="BJ266">
+        <v>2.23</v>
+      </c>
+      <c r="BK266">
+        <v>1.94</v>
+      </c>
+      <c r="BL266">
         <v>1.73</v>
       </c>
-      <c r="AR266">
-        <v>1.33</v>
-      </c>
-      <c r="AS266">
-        <v>1.34</v>
-      </c>
-      <c r="AT266">
-        <v>2.67</v>
-      </c>
-      <c r="AU266">
-        <v>4</v>
-      </c>
-      <c r="AV266">
-        <v>8</v>
-      </c>
-      <c r="AW266">
-        <v>6</v>
-      </c>
-      <c r="AX266">
-        <v>3</v>
-      </c>
-      <c r="AY266">
-        <v>10</v>
-      </c>
-      <c r="AZ266">
-        <v>11</v>
-      </c>
-      <c r="BA266">
-        <v>3</v>
-      </c>
-      <c r="BB266">
-        <v>3</v>
-      </c>
-      <c r="BC266">
-        <v>6</v>
-      </c>
-      <c r="BD266">
-        <v>2.05</v>
-      </c>
-      <c r="BE266">
-        <v>6.05</v>
-      </c>
-      <c r="BF266">
-        <v>2.15</v>
-      </c>
-      <c r="BG266">
-        <v>1.3</v>
-      </c>
-      <c r="BH266">
-        <v>3.08</v>
-      </c>
-      <c r="BI266">
-        <v>1.64</v>
-      </c>
-      <c r="BJ266">
-        <v>2.21</v>
-      </c>
-      <c r="BK266">
-        <v>2.03</v>
-      </c>
-      <c r="BL266">
-        <v>1.75</v>
-      </c>
       <c r="BM266">
-        <v>2.57</v>
+        <v>2.54</v>
       </c>
       <c r="BN266">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="BO266">
-        <v>3.56</v>
+        <v>3.48</v>
       </c>
       <c r="BP266">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="267" spans="1:68">
@@ -56283,7 +56289,7 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>7476126</v>
+        <v>7476125</v>
       </c>
       <c r="C267" t="s">
         <v>68</v>
@@ -56298,190 +56304,190 @@
         <v>31</v>
       </c>
       <c r="G267" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H267" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I267">
         <v>0</v>
       </c>
       <c r="J267">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K267">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L267">
         <v>1</v>
       </c>
       <c r="M267">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N267">
+        <v>5</v>
+      </c>
+      <c r="O267" t="s">
+        <v>200</v>
+      </c>
+      <c r="P267" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q267">
+        <v>3.25</v>
+      </c>
+      <c r="R267">
+        <v>1.91</v>
+      </c>
+      <c r="S267">
+        <v>3.75</v>
+      </c>
+      <c r="T267">
+        <v>1.53</v>
+      </c>
+      <c r="U267">
+        <v>2.4</v>
+      </c>
+      <c r="V267">
+        <v>3.54</v>
+      </c>
+      <c r="W267">
+        <v>1.27</v>
+      </c>
+      <c r="X267">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Y267">
+        <v>1.03</v>
+      </c>
+      <c r="Z267">
+        <v>2.5</v>
+      </c>
+      <c r="AA267">
+        <v>2.63</v>
+      </c>
+      <c r="AB267">
+        <v>3.3</v>
+      </c>
+      <c r="AC267">
+        <v>1.1</v>
+      </c>
+      <c r="AD267">
+        <v>6.35</v>
+      </c>
+      <c r="AE267">
+        <v>1.45</v>
+      </c>
+      <c r="AF267">
+        <v>2.68</v>
+      </c>
+      <c r="AG267">
+        <v>2.63</v>
+      </c>
+      <c r="AH267">
+        <v>1.44</v>
+      </c>
+      <c r="AI267">
+        <v>2.1</v>
+      </c>
+      <c r="AJ267">
+        <v>1.67</v>
+      </c>
+      <c r="AK267">
+        <v>1.33</v>
+      </c>
+      <c r="AL267">
+        <v>1.33</v>
+      </c>
+      <c r="AM267">
+        <v>1.53</v>
+      </c>
+      <c r="AN267">
+        <v>1.53</v>
+      </c>
+      <c r="AO267">
+        <v>1.77</v>
+      </c>
+      <c r="AP267">
+        <v>1.44</v>
+      </c>
+      <c r="AQ267">
+        <v>1.73</v>
+      </c>
+      <c r="AR267">
+        <v>1.33</v>
+      </c>
+      <c r="AS267">
+        <v>1.34</v>
+      </c>
+      <c r="AT267">
+        <v>2.67</v>
+      </c>
+      <c r="AU267">
+        <v>4</v>
+      </c>
+      <c r="AV267">
+        <v>8</v>
+      </c>
+      <c r="AW267">
+        <v>6</v>
+      </c>
+      <c r="AX267">
         <v>3</v>
       </c>
-      <c r="O267" t="s">
-        <v>239</v>
-      </c>
-      <c r="P267" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q267">
-        <v>7</v>
-      </c>
-      <c r="R267">
-        <v>2.25</v>
-      </c>
-      <c r="S267">
-        <v>1.91</v>
-      </c>
-      <c r="T267">
-        <v>1.33</v>
-      </c>
-      <c r="U267">
-        <v>3.12</v>
-      </c>
-      <c r="V267">
+      <c r="AY267">
+        <v>10</v>
+      </c>
+      <c r="AZ267">
+        <v>11</v>
+      </c>
+      <c r="BA267">
+        <v>3</v>
+      </c>
+      <c r="BB267">
+        <v>3</v>
+      </c>
+      <c r="BC267">
+        <v>6</v>
+      </c>
+      <c r="BD267">
+        <v>2.05</v>
+      </c>
+      <c r="BE267">
+        <v>6.05</v>
+      </c>
+      <c r="BF267">
+        <v>2.15</v>
+      </c>
+      <c r="BG267">
+        <v>1.3</v>
+      </c>
+      <c r="BH267">
+        <v>3.08</v>
+      </c>
+      <c r="BI267">
+        <v>1.64</v>
+      </c>
+      <c r="BJ267">
+        <v>2.21</v>
+      </c>
+      <c r="BK267">
+        <v>2.03</v>
+      </c>
+      <c r="BL267">
+        <v>1.75</v>
+      </c>
+      <c r="BM267">
         <v>2.57</v>
       </c>
-      <c r="W267">
-        <v>1.47</v>
-      </c>
-      <c r="X267">
-        <v>6.2</v>
-      </c>
-      <c r="Y267">
-        <v>1.1</v>
-      </c>
-      <c r="Z267">
-        <v>8</v>
-      </c>
-      <c r="AA267">
-        <v>4</v>
-      </c>
-      <c r="AB267">
-        <v>1.38</v>
-      </c>
-      <c r="AC267">
-        <v>1.02</v>
-      </c>
-      <c r="AD267">
-        <v>10.5</v>
-      </c>
-      <c r="AE267">
+      <c r="BN267">
+        <v>1.42</v>
+      </c>
+      <c r="BO267">
+        <v>3.56</v>
+      </c>
+      <c r="BP267">
         <v>1.23</v>
-      </c>
-      <c r="AF267">
-        <v>3.83</v>
-      </c>
-      <c r="AG267">
-        <v>1.85</v>
-      </c>
-      <c r="AH267">
-        <v>1.95</v>
-      </c>
-      <c r="AI267">
-        <v>2.2</v>
-      </c>
-      <c r="AJ267">
-        <v>1.62</v>
-      </c>
-      <c r="AK267">
-        <v>2.64</v>
-      </c>
-      <c r="AL267">
-        <v>1.17</v>
-      </c>
-      <c r="AM267">
-        <v>1.07</v>
-      </c>
-      <c r="AN267">
-        <v>1.07</v>
-      </c>
-      <c r="AO267">
-        <v>1.38</v>
-      </c>
-      <c r="AP267">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AQ267">
-        <v>1.4</v>
-      </c>
-      <c r="AR267">
-        <v>0.97</v>
-      </c>
-      <c r="AS267">
-        <v>1.67</v>
-      </c>
-      <c r="AT267">
-        <v>2.64</v>
-      </c>
-      <c r="AU267">
-        <v>6</v>
-      </c>
-      <c r="AV267">
-        <v>3</v>
-      </c>
-      <c r="AW267">
-        <v>5</v>
-      </c>
-      <c r="AX267">
-        <v>5</v>
-      </c>
-      <c r="AY267">
-        <v>11</v>
-      </c>
-      <c r="AZ267">
-        <v>8</v>
-      </c>
-      <c r="BA267">
-        <v>5</v>
-      </c>
-      <c r="BB267">
-        <v>2</v>
-      </c>
-      <c r="BC267">
-        <v>7</v>
-      </c>
-      <c r="BD267">
-        <v>4.1</v>
-      </c>
-      <c r="BE267">
-        <v>7.1</v>
-      </c>
-      <c r="BF267">
-        <v>1.36</v>
-      </c>
-      <c r="BG267">
-        <v>1.29</v>
-      </c>
-      <c r="BH267">
-        <v>3.14</v>
-      </c>
-      <c r="BI267">
-        <v>1.55</v>
-      </c>
-      <c r="BJ267">
-        <v>2.23</v>
-      </c>
-      <c r="BK267">
-        <v>1.94</v>
-      </c>
-      <c r="BL267">
-        <v>1.73</v>
-      </c>
-      <c r="BM267">
-        <v>2.54</v>
-      </c>
-      <c r="BN267">
-        <v>1.43</v>
-      </c>
-      <c r="BO267">
-        <v>3.48</v>
-      </c>
-      <c r="BP267">
-        <v>1.24</v>
       </c>
     </row>
     <row r="268" spans="1:68">
@@ -57149,7 +57155,7 @@
         <v>91</v>
       </c>
       <c r="P271" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q271">
         <v>4.5</v>
@@ -57227,7 +57233,7 @@
         <v>2.43</v>
       </c>
       <c r="AP271">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ271">
         <v>2.25</v>
@@ -57355,7 +57361,7 @@
         <v>92</v>
       </c>
       <c r="P272" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q272">
         <v>6.5</v>
@@ -58179,7 +58185,7 @@
         <v>243</v>
       </c>
       <c r="P276" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q276">
         <v>4</v>
@@ -58385,7 +58391,7 @@
         <v>244</v>
       </c>
       <c r="P277" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q277">
         <v>6.5</v>
@@ -58672,7 +58678,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ278">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR278">
         <v>1.36</v>
@@ -58797,7 +58803,7 @@
         <v>245</v>
       </c>
       <c r="P279" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q279">
         <v>3.25</v>
@@ -59003,7 +59009,7 @@
         <v>246</v>
       </c>
       <c r="P280" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q280">
         <v>2.88</v>
@@ -59167,7 +59173,7 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>7476136</v>
+        <v>7476137</v>
       </c>
       <c r="C281" t="s">
         <v>68</v>
@@ -59182,19 +59188,19 @@
         <v>32</v>
       </c>
       <c r="G281" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H281" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J281">
         <v>0</v>
       </c>
       <c r="K281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L281">
         <v>1</v>
@@ -59212,160 +59218,160 @@
         <v>92</v>
       </c>
       <c r="Q281">
+        <v>1.83</v>
+      </c>
+      <c r="R281">
+        <v>2.3</v>
+      </c>
+      <c r="S281">
+        <v>8</v>
+      </c>
+      <c r="T281">
+        <v>1.32</v>
+      </c>
+      <c r="U281">
+        <v>2.95</v>
+      </c>
+      <c r="V281">
+        <v>2.45</v>
+      </c>
+      <c r="W281">
+        <v>1.45</v>
+      </c>
+      <c r="X281">
+        <v>5.5</v>
+      </c>
+      <c r="Y281">
+        <v>1.1</v>
+      </c>
+      <c r="Z281">
+        <v>1.3</v>
+      </c>
+      <c r="AA281">
+        <v>4.33</v>
+      </c>
+      <c r="AB281">
+        <v>8</v>
+      </c>
+      <c r="AC281">
+        <v>1.03</v>
+      </c>
+      <c r="AD281">
+        <v>10</v>
+      </c>
+      <c r="AE281">
+        <v>1.22</v>
+      </c>
+      <c r="AF281">
+        <v>3.95</v>
+      </c>
+      <c r="AG281">
+        <v>1.8</v>
+      </c>
+      <c r="AH281">
+        <v>2</v>
+      </c>
+      <c r="AI281">
+        <v>2.38</v>
+      </c>
+      <c r="AJ281">
+        <v>1.53</v>
+      </c>
+      <c r="AK281">
+        <v>1.03</v>
+      </c>
+      <c r="AL281">
+        <v>1.12</v>
+      </c>
+      <c r="AM281">
+        <v>3.1</v>
+      </c>
+      <c r="AN281">
+        <v>2.69</v>
+      </c>
+      <c r="AO281">
+        <v>1.07</v>
+      </c>
+      <c r="AP281">
+        <v>2.73</v>
+      </c>
+      <c r="AQ281">
+        <v>1</v>
+      </c>
+      <c r="AR281">
+        <v>1.6</v>
+      </c>
+      <c r="AS281">
+        <v>1.4</v>
+      </c>
+      <c r="AT281">
         <v>3</v>
       </c>
-      <c r="R281">
-        <v>2.05</v>
-      </c>
-      <c r="S281">
-        <v>3.5</v>
-      </c>
-      <c r="T281">
-        <v>1.43</v>
-      </c>
-      <c r="U281">
-        <v>2.74</v>
-      </c>
-      <c r="V281">
-        <v>3.18</v>
-      </c>
-      <c r="W281">
-        <v>1.33</v>
-      </c>
-      <c r="X281">
-        <v>7.4</v>
-      </c>
-      <c r="Y281">
-        <v>1.07</v>
-      </c>
-      <c r="Z281">
-        <v>2.3</v>
-      </c>
-      <c r="AA281">
-        <v>3.1</v>
-      </c>
-      <c r="AB281">
+      <c r="AU281">
+        <v>5</v>
+      </c>
+      <c r="AV281">
+        <v>5</v>
+      </c>
+      <c r="AW281">
+        <v>10</v>
+      </c>
+      <c r="AX281">
+        <v>3</v>
+      </c>
+      <c r="AY281">
+        <v>15</v>
+      </c>
+      <c r="AZ281">
+        <v>8</v>
+      </c>
+      <c r="BA281">
+        <v>6</v>
+      </c>
+      <c r="BB281">
+        <v>1</v>
+      </c>
+      <c r="BC281">
+        <v>7</v>
+      </c>
+      <c r="BD281">
+        <v>1.23</v>
+      </c>
+      <c r="BE281">
+        <v>9.6</v>
+      </c>
+      <c r="BF281">
+        <v>5.77</v>
+      </c>
+      <c r="BG281">
+        <v>1.29</v>
+      </c>
+      <c r="BH281">
+        <v>3.4</v>
+      </c>
+      <c r="BI281">
+        <v>1.48</v>
+      </c>
+      <c r="BJ281">
+        <v>2.5</v>
+      </c>
+      <c r="BK281">
+        <v>2.2</v>
+      </c>
+      <c r="BL281">
+        <v>2.01</v>
+      </c>
+      <c r="BM281">
+        <v>2.25</v>
+      </c>
+      <c r="BN281">
+        <v>1.62</v>
+      </c>
+      <c r="BO281">
         <v>2.8</v>
       </c>
-      <c r="AC281">
-        <v>1.05</v>
-      </c>
-      <c r="AD281">
-        <v>8</v>
-      </c>
-      <c r="AE281">
-        <v>1.36</v>
-      </c>
-      <c r="AF281">
-        <v>2.9</v>
-      </c>
-      <c r="AG281">
-        <v>2.1</v>
-      </c>
-      <c r="AH281">
-        <v>1.7</v>
-      </c>
-      <c r="AI281">
-        <v>1.83</v>
-      </c>
-      <c r="AJ281">
-        <v>1.83</v>
-      </c>
-      <c r="AK281">
-        <v>1.44</v>
-      </c>
-      <c r="AL281">
-        <v>1.34</v>
-      </c>
-      <c r="AM281">
-        <v>1.46</v>
-      </c>
-      <c r="AN281">
-        <v>1.93</v>
-      </c>
-      <c r="AO281">
-        <v>1.87</v>
-      </c>
-      <c r="AP281">
-        <v>2</v>
-      </c>
-      <c r="AQ281">
-        <v>1.75</v>
-      </c>
-      <c r="AR281">
-        <v>1.5</v>
-      </c>
-      <c r="AS281">
-        <v>1.03</v>
-      </c>
-      <c r="AT281">
-        <v>2.53</v>
-      </c>
-      <c r="AU281">
-        <v>4</v>
-      </c>
-      <c r="AV281">
-        <v>4</v>
-      </c>
-      <c r="AW281">
-        <v>3</v>
-      </c>
-      <c r="AX281">
-        <v>6</v>
-      </c>
-      <c r="AY281">
-        <v>7</v>
-      </c>
-      <c r="AZ281">
-        <v>10</v>
-      </c>
-      <c r="BA281">
-        <v>2</v>
-      </c>
-      <c r="BB281">
-        <v>6</v>
-      </c>
-      <c r="BC281">
-        <v>8</v>
-      </c>
-      <c r="BD281">
-        <v>1.9</v>
-      </c>
-      <c r="BE281">
-        <v>7.3</v>
-      </c>
-      <c r="BF281">
-        <v>2.35</v>
-      </c>
-      <c r="BG281">
+      <c r="BP281">
         <v>1.38</v>
-      </c>
-      <c r="BH281">
-        <v>2.8</v>
-      </c>
-      <c r="BI281">
-        <v>1.61</v>
-      </c>
-      <c r="BJ281">
-        <v>2.26</v>
-      </c>
-      <c r="BK281">
-        <v>2.02</v>
-      </c>
-      <c r="BL281">
-        <v>1.79</v>
-      </c>
-      <c r="BM281">
-        <v>2.6</v>
-      </c>
-      <c r="BN281">
-        <v>1.47</v>
-      </c>
-      <c r="BO281">
-        <v>3.4</v>
-      </c>
-      <c r="BP281">
-        <v>1.29</v>
       </c>
     </row>
     <row r="282" spans="1:68">
@@ -59373,7 +59379,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>7476137</v>
+        <v>7476136</v>
       </c>
       <c r="C282" t="s">
         <v>68</v>
@@ -59388,19 +59394,19 @@
         <v>32</v>
       </c>
       <c r="G282" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H282" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J282">
         <v>0</v>
       </c>
       <c r="K282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L282">
         <v>1</v>
@@ -59418,160 +59424,160 @@
         <v>92</v>
       </c>
       <c r="Q282">
+        <v>3</v>
+      </c>
+      <c r="R282">
+        <v>2.05</v>
+      </c>
+      <c r="S282">
+        <v>3.5</v>
+      </c>
+      <c r="T282">
+        <v>1.43</v>
+      </c>
+      <c r="U282">
+        <v>2.74</v>
+      </c>
+      <c r="V282">
+        <v>3.18</v>
+      </c>
+      <c r="W282">
+        <v>1.33</v>
+      </c>
+      <c r="X282">
+        <v>7.4</v>
+      </c>
+      <c r="Y282">
+        <v>1.07</v>
+      </c>
+      <c r="Z282">
+        <v>2.3</v>
+      </c>
+      <c r="AA282">
+        <v>3.1</v>
+      </c>
+      <c r="AB282">
+        <v>2.8</v>
+      </c>
+      <c r="AC282">
+        <v>1.05</v>
+      </c>
+      <c r="AD282">
+        <v>8</v>
+      </c>
+      <c r="AE282">
+        <v>1.36</v>
+      </c>
+      <c r="AF282">
+        <v>2.9</v>
+      </c>
+      <c r="AG282">
+        <v>2.1</v>
+      </c>
+      <c r="AH282">
+        <v>1.7</v>
+      </c>
+      <c r="AI282">
         <v>1.83</v>
       </c>
-      <c r="R282">
-        <v>2.3</v>
-      </c>
-      <c r="S282">
+      <c r="AJ282">
+        <v>1.83</v>
+      </c>
+      <c r="AK282">
+        <v>1.44</v>
+      </c>
+      <c r="AL282">
+        <v>1.34</v>
+      </c>
+      <c r="AM282">
+        <v>1.46</v>
+      </c>
+      <c r="AN282">
+        <v>1.93</v>
+      </c>
+      <c r="AO282">
+        <v>1.87</v>
+      </c>
+      <c r="AP282">
+        <v>2</v>
+      </c>
+      <c r="AQ282">
+        <v>1.75</v>
+      </c>
+      <c r="AR282">
+        <v>1.5</v>
+      </c>
+      <c r="AS282">
+        <v>1.03</v>
+      </c>
+      <c r="AT282">
+        <v>2.53</v>
+      </c>
+      <c r="AU282">
+        <v>4</v>
+      </c>
+      <c r="AV282">
+        <v>4</v>
+      </c>
+      <c r="AW282">
+        <v>3</v>
+      </c>
+      <c r="AX282">
+        <v>6</v>
+      </c>
+      <c r="AY282">
+        <v>7</v>
+      </c>
+      <c r="AZ282">
+        <v>10</v>
+      </c>
+      <c r="BA282">
+        <v>2</v>
+      </c>
+      <c r="BB282">
+        <v>6</v>
+      </c>
+      <c r="BC282">
         <v>8</v>
       </c>
-      <c r="T282">
-        <v>1.32</v>
-      </c>
-      <c r="U282">
-        <v>2.95</v>
-      </c>
-      <c r="V282">
-        <v>2.45</v>
-      </c>
-      <c r="W282">
-        <v>1.45</v>
-      </c>
-      <c r="X282">
-        <v>5.5</v>
-      </c>
-      <c r="Y282">
-        <v>1.1</v>
-      </c>
-      <c r="Z282">
-        <v>1.3</v>
-      </c>
-      <c r="AA282">
-        <v>4.33</v>
-      </c>
-      <c r="AB282">
-        <v>8</v>
-      </c>
-      <c r="AC282">
-        <v>1.03</v>
-      </c>
-      <c r="AD282">
-        <v>10</v>
-      </c>
-      <c r="AE282">
-        <v>1.22</v>
-      </c>
-      <c r="AF282">
-        <v>3.95</v>
-      </c>
-      <c r="AG282">
-        <v>1.8</v>
-      </c>
-      <c r="AH282">
-        <v>2</v>
-      </c>
-      <c r="AI282">
-        <v>2.38</v>
-      </c>
-      <c r="AJ282">
-        <v>1.53</v>
-      </c>
-      <c r="AK282">
-        <v>1.03</v>
-      </c>
-      <c r="AL282">
-        <v>1.12</v>
-      </c>
-      <c r="AM282">
-        <v>3.1</v>
-      </c>
-      <c r="AN282">
-        <v>2.69</v>
-      </c>
-      <c r="AO282">
-        <v>1.07</v>
-      </c>
-      <c r="AP282">
-        <v>2.73</v>
-      </c>
-      <c r="AQ282">
-        <v>1</v>
-      </c>
-      <c r="AR282">
-        <v>1.6</v>
-      </c>
-      <c r="AS282">
-        <v>1.4</v>
-      </c>
-      <c r="AT282">
-        <v>3</v>
-      </c>
-      <c r="AU282">
-        <v>5</v>
-      </c>
-      <c r="AV282">
-        <v>5</v>
-      </c>
-      <c r="AW282">
-        <v>10</v>
-      </c>
-      <c r="AX282">
-        <v>3</v>
-      </c>
-      <c r="AY282">
-        <v>15</v>
-      </c>
-      <c r="AZ282">
-        <v>8</v>
-      </c>
-      <c r="BA282">
-        <v>6</v>
-      </c>
-      <c r="BB282">
-        <v>1</v>
-      </c>
-      <c r="BC282">
-        <v>7</v>
-      </c>
       <c r="BD282">
-        <v>1.23</v>
+        <v>1.9</v>
       </c>
       <c r="BE282">
-        <v>9.6</v>
+        <v>7.3</v>
       </c>
       <c r="BF282">
-        <v>5.77</v>
+        <v>2.35</v>
       </c>
       <c r="BG282">
+        <v>1.38</v>
+      </c>
+      <c r="BH282">
+        <v>2.8</v>
+      </c>
+      <c r="BI282">
+        <v>1.61</v>
+      </c>
+      <c r="BJ282">
+        <v>2.26</v>
+      </c>
+      <c r="BK282">
+        <v>2.02</v>
+      </c>
+      <c r="BL282">
+        <v>1.79</v>
+      </c>
+      <c r="BM282">
+        <v>2.6</v>
+      </c>
+      <c r="BN282">
+        <v>1.47</v>
+      </c>
+      <c r="BO282">
+        <v>3.4</v>
+      </c>
+      <c r="BP282">
         <v>1.29</v>
-      </c>
-      <c r="BH282">
-        <v>3.4</v>
-      </c>
-      <c r="BI282">
-        <v>1.48</v>
-      </c>
-      <c r="BJ282">
-        <v>2.5</v>
-      </c>
-      <c r="BK282">
-        <v>2.2</v>
-      </c>
-      <c r="BL282">
-        <v>2.01</v>
-      </c>
-      <c r="BM282">
-        <v>2.25</v>
-      </c>
-      <c r="BN282">
-        <v>1.62</v>
-      </c>
-      <c r="BO282">
-        <v>2.8</v>
-      </c>
-      <c r="BP282">
-        <v>1.38</v>
       </c>
     </row>
     <row r="283" spans="1:68">
@@ -59699,7 +59705,7 @@
         <v>1</v>
       </c>
       <c r="AP283">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AQ283">
         <v>0.9399999999999999</v>
@@ -60190,6 +60196,212 @@
       </c>
       <c r="BP285">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="286" spans="1:68">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>7364296</v>
+      </c>
+      <c r="C286" t="s">
+        <v>68</v>
+      </c>
+      <c r="D286" t="s">
+        <v>69</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45509.625</v>
+      </c>
+      <c r="F286">
+        <v>22</v>
+      </c>
+      <c r="G286" t="s">
+        <v>80</v>
+      </c>
+      <c r="H286" t="s">
+        <v>83</v>
+      </c>
+      <c r="I286">
+        <v>2</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286">
+        <v>2</v>
+      </c>
+      <c r="L286">
+        <v>4</v>
+      </c>
+      <c r="M286">
+        <v>2</v>
+      </c>
+      <c r="N286">
+        <v>6</v>
+      </c>
+      <c r="O286" t="s">
+        <v>252</v>
+      </c>
+      <c r="P286" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q286">
+        <v>2.63</v>
+      </c>
+      <c r="R286">
+        <v>2</v>
+      </c>
+      <c r="S286">
+        <v>4.33</v>
+      </c>
+      <c r="T286">
+        <v>1.4</v>
+      </c>
+      <c r="U286">
+        <v>2.65</v>
+      </c>
+      <c r="V286">
+        <v>3</v>
+      </c>
+      <c r="W286">
+        <v>1.32</v>
+      </c>
+      <c r="X286">
+        <v>6.5</v>
+      </c>
+      <c r="Y286">
+        <v>1.07</v>
+      </c>
+      <c r="Z286">
+        <v>1.95</v>
+      </c>
+      <c r="AA286">
+        <v>3</v>
+      </c>
+      <c r="AB286">
+        <v>4.1</v>
+      </c>
+      <c r="AC286">
+        <v>1.07</v>
+      </c>
+      <c r="AD286">
+        <v>6.8</v>
+      </c>
+      <c r="AE286">
+        <v>1.18</v>
+      </c>
+      <c r="AF286">
+        <v>2.62</v>
+      </c>
+      <c r="AG286">
+        <v>2.25</v>
+      </c>
+      <c r="AH286">
+        <v>1.62</v>
+      </c>
+      <c r="AI286">
+        <v>2</v>
+      </c>
+      <c r="AJ286">
+        <v>1.73</v>
+      </c>
+      <c r="AK286">
+        <v>1.22</v>
+      </c>
+      <c r="AL286">
+        <v>1.34</v>
+      </c>
+      <c r="AM286">
+        <v>1.9</v>
+      </c>
+      <c r="AN286">
+        <v>2.07</v>
+      </c>
+      <c r="AO286">
+        <v>1.33</v>
+      </c>
+      <c r="AP286">
+        <v>2.13</v>
+      </c>
+      <c r="AQ286">
+        <v>1.25</v>
+      </c>
+      <c r="AR286">
+        <v>1.54</v>
+      </c>
+      <c r="AS286">
+        <v>1.43</v>
+      </c>
+      <c r="AT286">
+        <v>2.97</v>
+      </c>
+      <c r="AU286">
+        <v>7</v>
+      </c>
+      <c r="AV286">
+        <v>7</v>
+      </c>
+      <c r="AW286">
+        <v>3</v>
+      </c>
+      <c r="AX286">
+        <v>11</v>
+      </c>
+      <c r="AY286">
+        <v>10</v>
+      </c>
+      <c r="AZ286">
+        <v>18</v>
+      </c>
+      <c r="BA286">
+        <v>3</v>
+      </c>
+      <c r="BB286">
+        <v>9</v>
+      </c>
+      <c r="BC286">
+        <v>12</v>
+      </c>
+      <c r="BD286">
+        <v>1.51</v>
+      </c>
+      <c r="BE286">
+        <v>6.65</v>
+      </c>
+      <c r="BF286">
+        <v>3.28</v>
+      </c>
+      <c r="BG286">
+        <v>1.33</v>
+      </c>
+      <c r="BH286">
+        <v>3</v>
+      </c>
+      <c r="BI286">
+        <v>1.57</v>
+      </c>
+      <c r="BJ286">
+        <v>2.32</v>
+      </c>
+      <c r="BK286">
+        <v>1.97</v>
+      </c>
+      <c r="BL286">
+        <v>1.83</v>
+      </c>
+      <c r="BM286">
+        <v>2.51</v>
+      </c>
+      <c r="BN286">
+        <v>1.5</v>
+      </c>
+      <c r="BO286">
+        <v>3.2</v>
+      </c>
+      <c r="BP286">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="369">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1482,7 +1482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP286"/>
+  <dimension ref="A1:BP288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ3">
         <v>0.8100000000000001</v>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ7">
         <v>0.9399999999999999</v>
@@ -3470,7 +3470,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ10">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -5321,7 +5321,7 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ19">
         <v>0.63</v>
@@ -5527,7 +5527,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ20">
         <v>0.88</v>
@@ -6354,7 +6354,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ24">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR24">
         <v>0.44</v>
@@ -9032,7 +9032,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ37">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR37">
         <v>1.06</v>
@@ -9647,7 +9647,7 @@
         <v>1.5</v>
       </c>
       <c r="AP40">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ40">
         <v>1.13</v>
@@ -10471,7 +10471,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ44">
         <v>1.25</v>
@@ -11504,7 +11504,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ49">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR49">
         <v>1.22</v>
@@ -12328,7 +12328,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ53">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR53">
         <v>1.61</v>
@@ -12534,7 +12534,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ54">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR54">
         <v>1.42</v>
@@ -13152,7 +13152,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ57">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR57">
         <v>1.05</v>
@@ -14591,7 +14591,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ64">
         <v>0.8100000000000001</v>
@@ -16036,7 +16036,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ71">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR71">
         <v>1.39</v>
@@ -17887,7 +17887,7 @@
         <v>0.25</v>
       </c>
       <c r="AP80">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ80">
         <v>0.25</v>
@@ -18093,7 +18093,7 @@
         <v>1.75</v>
       </c>
       <c r="AP81">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ81">
         <v>1.13</v>
@@ -19535,7 +19535,7 @@
         <v>1.2</v>
       </c>
       <c r="AP88">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ88">
         <v>1</v>
@@ -20153,7 +20153,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ91">
         <v>2.25</v>
@@ -21598,7 +21598,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ98">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR98">
         <v>1.43</v>
@@ -23243,7 +23243,7 @@
         <v>1.5</v>
       </c>
       <c r="AP106">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ106">
         <v>1.25</v>
@@ -23861,7 +23861,7 @@
         <v>2.25</v>
       </c>
       <c r="AP109">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ109">
         <v>1.81</v>
@@ -26539,7 +26539,7 @@
         <v>1.14</v>
       </c>
       <c r="AP122">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ122">
         <v>1</v>
@@ -26951,7 +26951,7 @@
         <v>1.67</v>
       </c>
       <c r="AP124">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ124">
         <v>1.75</v>
@@ -27160,7 +27160,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ125">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR125">
         <v>1.42</v>
@@ -27366,7 +27366,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ126">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR126">
         <v>1.36</v>
@@ -29835,10 +29835,10 @@
         <v>1.75</v>
       </c>
       <c r="AP138">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ138">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR138">
         <v>1.91</v>
@@ -30662,7 +30662,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ142">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR142">
         <v>1.73</v>
@@ -32307,7 +32307,7 @@
         <v>1.86</v>
       </c>
       <c r="AP150">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ150">
         <v>0.9399999999999999</v>
@@ -32925,7 +32925,7 @@
         <v>1.13</v>
       </c>
       <c r="AP153">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ153">
         <v>0.63</v>
@@ -34782,7 +34782,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ162">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR162">
         <v>1.39</v>
@@ -35603,7 +35603,7 @@
         <v>0.9</v>
       </c>
       <c r="AP166">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ166">
         <v>0.88</v>
@@ -36633,10 +36633,10 @@
         <v>1.14</v>
       </c>
       <c r="AP171">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ171">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR171">
         <v>1.57</v>
@@ -37869,7 +37869,7 @@
         <v>1.82</v>
       </c>
       <c r="AP177">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ177">
         <v>1.73</v>
@@ -39108,7 +39108,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ183">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR183">
         <v>1.28</v>
@@ -41165,7 +41165,7 @@
         <v>1.42</v>
       </c>
       <c r="AP193">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ193">
         <v>1.25</v>
@@ -43846,7 +43846,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ206">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR206">
         <v>1.4</v>
@@ -44464,7 +44464,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ209">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR209">
         <v>1.55</v>
@@ -44670,7 +44670,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ210">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR210">
         <v>1.33</v>
@@ -45697,7 +45697,7 @@
         <v>0.25</v>
       </c>
       <c r="AP215">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ215">
         <v>0.25</v>
@@ -45906,7 +45906,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ216">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR216">
         <v>1.42</v>
@@ -46109,7 +46109,7 @@
         <v>0.92</v>
       </c>
       <c r="AP217">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ217">
         <v>0.8100000000000001</v>
@@ -46936,7 +46936,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ221">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR221">
         <v>0.96</v>
@@ -48790,7 +48790,7 @@
         <v>2.73</v>
       </c>
       <c r="AQ230">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR230">
         <v>1.73</v>
@@ -49199,7 +49199,7 @@
         <v>1.15</v>
       </c>
       <c r="AP232">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ232">
         <v>1.13</v>
@@ -49817,7 +49817,7 @@
         <v>2.55</v>
       </c>
       <c r="AP235">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ235">
         <v>2.25</v>
@@ -51056,7 +51056,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ241">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR241">
         <v>1.36</v>
@@ -51880,7 +51880,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ245">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR245">
         <v>1.31</v>
@@ -52495,7 +52495,7 @@
         <v>1.46</v>
       </c>
       <c r="AP248">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ248">
         <v>1.25</v>
@@ -52701,7 +52701,7 @@
         <v>0.93</v>
       </c>
       <c r="AP249">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ249">
         <v>1</v>
@@ -54352,7 +54352,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ257">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR257">
         <v>1.29</v>
@@ -55176,7 +55176,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ261">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR261">
         <v>1.25</v>
@@ -56206,7 +56206,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ266">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR266">
         <v>0.97</v>
@@ -57030,7 +57030,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ270">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR270">
         <v>1.9</v>
@@ -57442,7 +57442,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ272">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="AR272">
         <v>1.36</v>
@@ -57648,7 +57648,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ273">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AR273">
         <v>1.19</v>
@@ -58881,7 +58881,7 @@
         <v>1.93</v>
       </c>
       <c r="AP279">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ279">
         <v>1.81</v>
@@ -59499,7 +59499,7 @@
         <v>1.87</v>
       </c>
       <c r="AP282">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ282">
         <v>1.75</v>
@@ -60402,6 +60402,418 @@
       </c>
       <c r="BP286">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:68">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>7364312</v>
+      </c>
+      <c r="C287" t="s">
+        <v>68</v>
+      </c>
+      <c r="D287" t="s">
+        <v>69</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45512.625</v>
+      </c>
+      <c r="F287">
+        <v>24</v>
+      </c>
+      <c r="G287" t="s">
+        <v>75</v>
+      </c>
+      <c r="H287" t="s">
+        <v>72</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="K287">
+        <v>0</v>
+      </c>
+      <c r="L287">
+        <v>0</v>
+      </c>
+      <c r="M287">
+        <v>1</v>
+      </c>
+      <c r="N287">
+        <v>1</v>
+      </c>
+      <c r="O287" t="s">
+        <v>92</v>
+      </c>
+      <c r="P287" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q287">
+        <v>7.5</v>
+      </c>
+      <c r="R287">
+        <v>2.25</v>
+      </c>
+      <c r="S287">
+        <v>1.91</v>
+      </c>
+      <c r="T287">
+        <v>1.36</v>
+      </c>
+      <c r="U287">
+        <v>2.88</v>
+      </c>
+      <c r="V287">
+        <v>2.75</v>
+      </c>
+      <c r="W287">
+        <v>1.4</v>
+      </c>
+      <c r="X287">
+        <v>6.8</v>
+      </c>
+      <c r="Y287">
+        <v>1.08</v>
+      </c>
+      <c r="Z287">
+        <v>8.5</v>
+      </c>
+      <c r="AA287">
+        <v>4</v>
+      </c>
+      <c r="AB287">
+        <v>1.38</v>
+      </c>
+      <c r="AC287">
+        <v>1.04</v>
+      </c>
+      <c r="AD287">
+        <v>9</v>
+      </c>
+      <c r="AE287">
+        <v>1.25</v>
+      </c>
+      <c r="AF287">
+        <v>4</v>
+      </c>
+      <c r="AG287">
+        <v>2</v>
+      </c>
+      <c r="AH287">
+        <v>1.8</v>
+      </c>
+      <c r="AI287">
+        <v>2.25</v>
+      </c>
+      <c r="AJ287">
+        <v>1.57</v>
+      </c>
+      <c r="AK287">
+        <v>3.4</v>
+      </c>
+      <c r="AL287">
+        <v>1.21</v>
+      </c>
+      <c r="AM287">
+        <v>1.04</v>
+      </c>
+      <c r="AN287">
+        <v>2</v>
+      </c>
+      <c r="AO287">
+        <v>2.47</v>
+      </c>
+      <c r="AP287">
+        <v>1.88</v>
+      </c>
+      <c r="AQ287">
+        <v>2.5</v>
+      </c>
+      <c r="AR287">
+        <v>1.49</v>
+      </c>
+      <c r="AS287">
+        <v>1.66</v>
+      </c>
+      <c r="AT287">
+        <v>3.15</v>
+      </c>
+      <c r="AU287">
+        <v>3</v>
+      </c>
+      <c r="AV287">
+        <v>7</v>
+      </c>
+      <c r="AW287">
+        <v>1</v>
+      </c>
+      <c r="AX287">
+        <v>7</v>
+      </c>
+      <c r="AY287">
+        <v>4</v>
+      </c>
+      <c r="AZ287">
+        <v>14</v>
+      </c>
+      <c r="BA287">
+        <v>4</v>
+      </c>
+      <c r="BB287">
+        <v>7</v>
+      </c>
+      <c r="BC287">
+        <v>11</v>
+      </c>
+      <c r="BD287">
+        <v>4.36</v>
+      </c>
+      <c r="BE287">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF287">
+        <v>1.35</v>
+      </c>
+      <c r="BG287">
+        <v>1.33</v>
+      </c>
+      <c r="BH287">
+        <v>3</v>
+      </c>
+      <c r="BI287">
+        <v>1.57</v>
+      </c>
+      <c r="BJ287">
+        <v>2.33</v>
+      </c>
+      <c r="BK287">
+        <v>2.2</v>
+      </c>
+      <c r="BL287">
+        <v>1.85</v>
+      </c>
+      <c r="BM287">
+        <v>2.44</v>
+      </c>
+      <c r="BN287">
+        <v>1.53</v>
+      </c>
+      <c r="BO287">
+        <v>3.2</v>
+      </c>
+      <c r="BP287">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:68">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>7364305</v>
+      </c>
+      <c r="C288" t="s">
+        <v>68</v>
+      </c>
+      <c r="D288" t="s">
+        <v>69</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45512.625</v>
+      </c>
+      <c r="F288">
+        <v>23</v>
+      </c>
+      <c r="G288" t="s">
+        <v>71</v>
+      </c>
+      <c r="H288" t="s">
+        <v>80</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>0</v>
+      </c>
+      <c r="L288">
+        <v>0</v>
+      </c>
+      <c r="M288">
+        <v>1</v>
+      </c>
+      <c r="N288">
+        <v>1</v>
+      </c>
+      <c r="O288" t="s">
+        <v>92</v>
+      </c>
+      <c r="P288" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q288">
+        <v>3.2</v>
+      </c>
+      <c r="R288">
+        <v>2.05</v>
+      </c>
+      <c r="S288">
+        <v>3.2</v>
+      </c>
+      <c r="T288">
+        <v>1.6</v>
+      </c>
+      <c r="U288">
+        <v>2.3</v>
+      </c>
+      <c r="V288">
+        <v>4.98</v>
+      </c>
+      <c r="W288">
+        <v>1.14</v>
+      </c>
+      <c r="X288">
+        <v>9.35</v>
+      </c>
+      <c r="Y288">
+        <v>1.01</v>
+      </c>
+      <c r="Z288">
+        <v>2.63</v>
+      </c>
+      <c r="AA288">
+        <v>2.8</v>
+      </c>
+      <c r="AB288">
+        <v>2.63</v>
+      </c>
+      <c r="AC288">
+        <v>1.15</v>
+      </c>
+      <c r="AD288">
+        <v>6.2</v>
+      </c>
+      <c r="AE288">
+        <v>1.62</v>
+      </c>
+      <c r="AF288">
+        <v>2.46</v>
+      </c>
+      <c r="AG288">
+        <v>1.95</v>
+      </c>
+      <c r="AH288">
+        <v>1.85</v>
+      </c>
+      <c r="AI288">
+        <v>1.73</v>
+      </c>
+      <c r="AJ288">
+        <v>2</v>
+      </c>
+      <c r="AK288">
+        <v>1.74</v>
+      </c>
+      <c r="AL288">
+        <v>1.48</v>
+      </c>
+      <c r="AM288">
+        <v>1.29</v>
+      </c>
+      <c r="AN288">
+        <v>1.4</v>
+      </c>
+      <c r="AO288">
+        <v>1.4</v>
+      </c>
+      <c r="AP288">
+        <v>1.31</v>
+      </c>
+      <c r="AQ288">
+        <v>1.5</v>
+      </c>
+      <c r="AR288">
+        <v>1.64</v>
+      </c>
+      <c r="AS288">
+        <v>1.62</v>
+      </c>
+      <c r="AT288">
+        <v>3.26</v>
+      </c>
+      <c r="AU288">
+        <v>3</v>
+      </c>
+      <c r="AV288">
+        <v>2</v>
+      </c>
+      <c r="AW288">
+        <v>5</v>
+      </c>
+      <c r="AX288">
+        <v>8</v>
+      </c>
+      <c r="AY288">
+        <v>8</v>
+      </c>
+      <c r="AZ288">
+        <v>10</v>
+      </c>
+      <c r="BA288">
+        <v>3</v>
+      </c>
+      <c r="BB288">
+        <v>5</v>
+      </c>
+      <c r="BC288">
+        <v>8</v>
+      </c>
+      <c r="BD288">
+        <v>2</v>
+      </c>
+      <c r="BE288">
+        <v>7.1</v>
+      </c>
+      <c r="BF288">
+        <v>2.18</v>
+      </c>
+      <c r="BG288">
+        <v>1.31</v>
+      </c>
+      <c r="BH288">
+        <v>3.1</v>
+      </c>
+      <c r="BI288">
+        <v>1.52</v>
+      </c>
+      <c r="BJ288">
+        <v>2.48</v>
+      </c>
+      <c r="BK288">
+        <v>1.91</v>
+      </c>
+      <c r="BL288">
+        <v>1.91</v>
+      </c>
+      <c r="BM288">
+        <v>2.39</v>
+      </c>
+      <c r="BN288">
+        <v>1.56</v>
+      </c>
+      <c r="BO288">
+        <v>2.95</v>
+      </c>
+      <c r="BP288">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Egypt Egyptian Premier League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="372">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -775,6 +775,12 @@
     <t>['7', '14', '59', '64']</t>
   </si>
   <si>
+    <t>['39', '58']</t>
+  </si>
+  <si>
+    <t>['45+3', '65']</t>
+  </si>
+  <si>
     <t>['16', '75']</t>
   </si>
   <si>
@@ -1121,6 +1127,9 @@
   </si>
   <si>
     <t>['66', '90+2']</t>
+  </si>
+  <si>
+    <t>['7', '8', '45+3', '65', '72']</t>
   </si>
 </sst>
 </file>
@@ -1482,7 +1491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP288"/>
+  <dimension ref="A1:BP290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1819,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -2231,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ4">
         <v>1.75</v>
@@ -2565,7 +2574,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q6">
         <v>3.1</v>
@@ -2977,7 +2986,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q8">
         <v>3.75</v>
@@ -3389,7 +3398,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3676,7 +3685,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ11">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3801,7 +3810,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -4007,7 +4016,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q13">
         <v>3.2</v>
@@ -4213,7 +4222,7 @@
         <v>97</v>
       </c>
       <c r="P14" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q14">
         <v>2.4</v>
@@ -4706,7 +4715,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ16">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5243,7 +5252,7 @@
         <v>100</v>
       </c>
       <c r="P19" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q19">
         <v>2.63</v>
@@ -5655,7 +5664,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5861,7 +5870,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q22">
         <v>3.75</v>
@@ -6067,7 +6076,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q23">
         <v>4.6</v>
@@ -6273,7 +6282,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q24">
         <v>3.75</v>
@@ -6557,7 +6566,7 @@
         <v>3</v>
       </c>
       <c r="AP25">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ25">
         <v>1.81</v>
@@ -6685,7 +6694,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q26">
         <v>1.91</v>
@@ -6763,7 +6772,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ26">
         <v>0.8100000000000001</v>
@@ -7509,7 +7518,7 @@
         <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q30">
         <v>3.25</v>
@@ -7715,7 +7724,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -8127,7 +8136,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8208,7 +8217,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ33">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR33">
         <v>1.31</v>
@@ -8620,7 +8629,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ35">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR35">
         <v>1.72</v>
@@ -8745,7 +8754,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q36">
         <v>5.5</v>
@@ -9157,7 +9166,7 @@
         <v>92</v>
       </c>
       <c r="P38" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -9363,7 +9372,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9569,7 +9578,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9853,7 +9862,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -10187,7 +10196,7 @@
         <v>93</v>
       </c>
       <c r="P43" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -10393,7 +10402,7 @@
         <v>92</v>
       </c>
       <c r="P44" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q44">
         <v>3.1</v>
@@ -10599,7 +10608,7 @@
         <v>119</v>
       </c>
       <c r="P45" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q45">
         <v>2.5</v>
@@ -10680,7 +10689,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ45">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR45">
         <v>1.58</v>
@@ -10886,7 +10895,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ46">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR46">
         <v>2.1</v>
@@ -11217,7 +11226,7 @@
         <v>122</v>
       </c>
       <c r="P48" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11423,7 +11432,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q49">
         <v>6.5</v>
@@ -11835,7 +11844,7 @@
         <v>124</v>
       </c>
       <c r="P51" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q51">
         <v>3.2</v>
@@ -12041,7 +12050,7 @@
         <v>92</v>
       </c>
       <c r="P52" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q52">
         <v>2.75</v>
@@ -12247,7 +12256,7 @@
         <v>125</v>
       </c>
       <c r="P53" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q53">
         <v>4.75</v>
@@ -12659,7 +12668,7 @@
         <v>127</v>
       </c>
       <c r="P55" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q55">
         <v>1.95</v>
@@ -12943,7 +12952,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ56">
         <v>1.13</v>
@@ -13071,7 +13080,7 @@
         <v>92</v>
       </c>
       <c r="P57" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q57">
         <v>3.75</v>
@@ -13358,7 +13367,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ58">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR58">
         <v>1.7</v>
@@ -13561,7 +13570,7 @@
         <v>1.67</v>
       </c>
       <c r="AP59">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ59">
         <v>0.9399999999999999</v>
@@ -13895,7 +13904,7 @@
         <v>130</v>
       </c>
       <c r="P61" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q61">
         <v>3.25</v>
@@ -14307,7 +14316,7 @@
         <v>92</v>
       </c>
       <c r="P63" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q63">
         <v>3.5</v>
@@ -14513,7 +14522,7 @@
         <v>131</v>
       </c>
       <c r="P64" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14719,7 +14728,7 @@
         <v>92</v>
       </c>
       <c r="P65" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q65">
         <v>3.4</v>
@@ -15131,7 +15140,7 @@
         <v>133</v>
       </c>
       <c r="P67" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15543,7 +15552,7 @@
         <v>134</v>
       </c>
       <c r="P69" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q69">
         <v>3.2</v>
@@ -16161,7 +16170,7 @@
         <v>137</v>
       </c>
       <c r="P72" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q72">
         <v>1.8</v>
@@ -16573,7 +16582,7 @@
         <v>138</v>
       </c>
       <c r="P74" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16654,7 +16663,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ74">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR74">
         <v>1.39</v>
@@ -16779,7 +16788,7 @@
         <v>138</v>
       </c>
       <c r="P75" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q75">
         <v>3.25</v>
@@ -16857,7 +16866,7 @@
         <v>0.5</v>
       </c>
       <c r="AP75">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ75">
         <v>0.88</v>
@@ -17191,7 +17200,7 @@
         <v>140</v>
       </c>
       <c r="P77" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17397,7 +17406,7 @@
         <v>92</v>
       </c>
       <c r="P78" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q78">
         <v>3.2</v>
@@ -17809,7 +17818,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q80">
         <v>2.3</v>
@@ -18711,10 +18720,10 @@
         <v>2.2</v>
       </c>
       <c r="AP84">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ84">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR84">
         <v>1.49</v>
@@ -18839,7 +18848,7 @@
         <v>92</v>
       </c>
       <c r="P85" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q85">
         <v>4.33</v>
@@ -19045,7 +19054,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q86">
         <v>2.88</v>
@@ -19251,7 +19260,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q87">
         <v>3.5</v>
@@ -19663,7 +19672,7 @@
         <v>92</v>
       </c>
       <c r="P89" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q89">
         <v>3.6</v>
@@ -19869,7 +19878,7 @@
         <v>147</v>
       </c>
       <c r="P90" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q90">
         <v>3.5</v>
@@ -20156,7 +20165,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ91">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR91">
         <v>2.39</v>
@@ -20980,7 +20989,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ95">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR95">
         <v>1.2</v>
@@ -21311,7 +21320,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21929,7 +21938,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q100">
         <v>3.75</v>
@@ -22341,7 +22350,7 @@
         <v>156</v>
       </c>
       <c r="P102" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q102">
         <v>5</v>
@@ -22547,7 +22556,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q103">
         <v>3.75</v>
@@ -23371,7 +23380,7 @@
         <v>92</v>
       </c>
       <c r="P107" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q107">
         <v>3.95</v>
@@ -23655,7 +23664,7 @@
         <v>1</v>
       </c>
       <c r="AP108">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ108">
         <v>0.63</v>
@@ -23783,7 +23792,7 @@
         <v>159</v>
       </c>
       <c r="P109" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q109">
         <v>3.25</v>
@@ -24195,7 +24204,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q111">
         <v>3.5</v>
@@ -24813,7 +24822,7 @@
         <v>162</v>
       </c>
       <c r="P114" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q114">
         <v>3.2</v>
@@ -25097,7 +25106,7 @@
         <v>0.17</v>
       </c>
       <c r="AP115">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ115">
         <v>0.25</v>
@@ -25718,7 +25727,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ118">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR118">
         <v>1.16</v>
@@ -25843,7 +25852,7 @@
         <v>105</v>
       </c>
       <c r="P119" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q119">
         <v>3.6</v>
@@ -26049,7 +26058,7 @@
         <v>165</v>
       </c>
       <c r="P120" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q120">
         <v>3.75</v>
@@ -26255,7 +26264,7 @@
         <v>92</v>
       </c>
       <c r="P121" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q121">
         <v>7</v>
@@ -26336,7 +26345,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ121">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR121">
         <v>0.92</v>
@@ -26873,7 +26882,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q124">
         <v>3.2</v>
@@ -27079,7 +27088,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -27285,7 +27294,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -27491,7 +27500,7 @@
         <v>94</v>
       </c>
       <c r="P127" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q127">
         <v>3.4</v>
@@ -27984,7 +27993,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ129">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR129">
         <v>1.82</v>
@@ -28315,7 +28324,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q131">
         <v>2.6</v>
@@ -28933,7 +28942,7 @@
         <v>173</v>
       </c>
       <c r="P134" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q134">
         <v>2.2</v>
@@ -29011,7 +29020,7 @@
         <v>1.71</v>
       </c>
       <c r="AP134">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ134">
         <v>1.25</v>
@@ -29139,7 +29148,7 @@
         <v>92</v>
       </c>
       <c r="P135" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q135">
         <v>6.5</v>
@@ -29220,7 +29229,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ135">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR135">
         <v>1.42</v>
@@ -29345,7 +29354,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q136">
         <v>3</v>
@@ -30375,7 +30384,7 @@
         <v>92</v>
       </c>
       <c r="P141" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q141">
         <v>6.5</v>
@@ -30456,7 +30465,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AQ141">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR141">
         <v>1.27</v>
@@ -31199,7 +31208,7 @@
         <v>92</v>
       </c>
       <c r="P145" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31405,7 +31414,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q146">
         <v>2.63</v>
@@ -31611,7 +31620,7 @@
         <v>108</v>
       </c>
       <c r="P147" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q147">
         <v>3.25</v>
@@ -31692,7 +31701,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ147">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR147">
         <v>1.4</v>
@@ -33053,7 +33062,7 @@
         <v>128</v>
       </c>
       <c r="P154" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -33337,7 +33346,7 @@
         <v>1.63</v>
       </c>
       <c r="AP155">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ155">
         <v>1.25</v>
@@ -33465,7 +33474,7 @@
         <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q156">
         <v>1.91</v>
@@ -33671,7 +33680,7 @@
         <v>92</v>
       </c>
       <c r="P157" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -33752,7 +33761,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ157">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR157">
         <v>1.29</v>
@@ -34495,7 +34504,7 @@
         <v>190</v>
       </c>
       <c r="P161" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q161">
         <v>2.63</v>
@@ -34701,7 +34710,7 @@
         <v>151</v>
       </c>
       <c r="P162" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q162">
         <v>6</v>
@@ -34907,7 +34916,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -34988,7 +34997,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ163">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR163">
         <v>1.17</v>
@@ -35525,7 +35534,7 @@
         <v>92</v>
       </c>
       <c r="P166" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q166">
         <v>3</v>
@@ -35731,7 +35740,7 @@
         <v>191</v>
       </c>
       <c r="P167" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q167">
         <v>2.75</v>
@@ -35937,7 +35946,7 @@
         <v>92</v>
       </c>
       <c r="P168" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q168">
         <v>3.2</v>
@@ -36143,7 +36152,7 @@
         <v>192</v>
       </c>
       <c r="P169" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q169">
         <v>6</v>
@@ -36427,7 +36436,7 @@
         <v>1.63</v>
       </c>
       <c r="AP170">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ170">
         <v>0.9399999999999999</v>
@@ -36761,7 +36770,7 @@
         <v>194</v>
       </c>
       <c r="P172" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -37173,7 +37182,7 @@
         <v>92</v>
       </c>
       <c r="P174" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q174">
         <v>4.8</v>
@@ -37251,7 +37260,7 @@
         <v>1.67</v>
       </c>
       <c r="AP174">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ174">
         <v>1.75</v>
@@ -37457,7 +37466,7 @@
         <v>1.4</v>
       </c>
       <c r="AP175">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ175">
         <v>1.25</v>
@@ -37791,7 +37800,7 @@
         <v>128</v>
       </c>
       <c r="P177" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q177">
         <v>3.25</v>
@@ -37872,7 +37881,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ177">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR177">
         <v>1.5</v>
@@ -38203,7 +38212,7 @@
         <v>118</v>
       </c>
       <c r="P179" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q179">
         <v>3.5</v>
@@ -38821,7 +38830,7 @@
         <v>92</v>
       </c>
       <c r="P182" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q182">
         <v>4.33</v>
@@ -38902,7 +38911,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ182">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR182">
         <v>1.54</v>
@@ -39027,7 +39036,7 @@
         <v>200</v>
       </c>
       <c r="P183" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q183">
         <v>9</v>
@@ -39233,7 +39242,7 @@
         <v>92</v>
       </c>
       <c r="P184" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q184">
         <v>3.4</v>
@@ -39439,7 +39448,7 @@
         <v>108</v>
       </c>
       <c r="P185" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q185">
         <v>3.4</v>
@@ -39517,7 +39526,7 @@
         <v>0.8</v>
       </c>
       <c r="AP185">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ185">
         <v>0.8100000000000001</v>
@@ -40263,7 +40272,7 @@
         <v>92</v>
       </c>
       <c r="P189" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q189">
         <v>3.5</v>
@@ -40469,7 +40478,7 @@
         <v>202</v>
       </c>
       <c r="P190" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q190">
         <v>3.8</v>
@@ -40675,7 +40684,7 @@
         <v>92</v>
       </c>
       <c r="P191" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q191">
         <v>5</v>
@@ -40756,7 +40765,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ191">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR191">
         <v>1.41</v>
@@ -42529,7 +42538,7 @@
         <v>204</v>
       </c>
       <c r="P200" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q200">
         <v>3.75</v>
@@ -42941,7 +42950,7 @@
         <v>206</v>
       </c>
       <c r="P202" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q202">
         <v>3.2</v>
@@ -43431,7 +43440,7 @@
         <v>0.82</v>
       </c>
       <c r="AP204">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ204">
         <v>0.63</v>
@@ -43765,7 +43774,7 @@
         <v>92</v>
       </c>
       <c r="P206" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q206">
         <v>4.5</v>
@@ -44177,7 +44186,7 @@
         <v>209</v>
       </c>
       <c r="P208" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q208">
         <v>2.75</v>
@@ -44383,7 +44392,7 @@
         <v>194</v>
       </c>
       <c r="P209" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q209">
         <v>3.5</v>
@@ -44589,7 +44598,7 @@
         <v>179</v>
       </c>
       <c r="P210" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q210">
         <v>7.5</v>
@@ -44795,7 +44804,7 @@
         <v>210</v>
       </c>
       <c r="P211" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q211">
         <v>3.75</v>
@@ -45001,7 +45010,7 @@
         <v>94</v>
       </c>
       <c r="P212" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q212">
         <v>3.4</v>
@@ -45207,7 +45216,7 @@
         <v>211</v>
       </c>
       <c r="P213" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q213">
         <v>2.78</v>
@@ -45413,7 +45422,7 @@
         <v>212</v>
       </c>
       <c r="P214" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q214">
         <v>3.2</v>
@@ -45619,7 +45628,7 @@
         <v>213</v>
       </c>
       <c r="P215" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q215">
         <v>2.2</v>
@@ -45825,7 +45834,7 @@
         <v>92</v>
       </c>
       <c r="P216" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q216">
         <v>7</v>
@@ -46031,7 +46040,7 @@
         <v>214</v>
       </c>
       <c r="P217" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q217">
         <v>2.88</v>
@@ -46237,7 +46246,7 @@
         <v>92</v>
       </c>
       <c r="P218" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q218">
         <v>7.5</v>
@@ -46318,7 +46327,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ218">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR218">
         <v>1.27</v>
@@ -46443,7 +46452,7 @@
         <v>92</v>
       </c>
       <c r="P219" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q219">
         <v>3.1</v>
@@ -46855,7 +46864,7 @@
         <v>216</v>
       </c>
       <c r="P221" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q221">
         <v>0</v>
@@ -47061,7 +47070,7 @@
         <v>217</v>
       </c>
       <c r="P222" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q222">
         <v>3.4</v>
@@ -47139,7 +47148,7 @@
         <v>1.08</v>
       </c>
       <c r="AP222">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ222">
         <v>1.13</v>
@@ -47679,7 +47688,7 @@
         <v>92</v>
       </c>
       <c r="P225" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q225">
         <v>3</v>
@@ -47885,7 +47894,7 @@
         <v>218</v>
       </c>
       <c r="P226" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q226">
         <v>1.9</v>
@@ -48378,7 +48387,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ228">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR228">
         <v>0.96</v>
@@ -48787,7 +48796,7 @@
         <v>1.4</v>
       </c>
       <c r="AP230">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ230">
         <v>1.5</v>
@@ -48915,7 +48924,7 @@
         <v>92</v>
       </c>
       <c r="P231" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q231">
         <v>4.75</v>
@@ -49121,7 +49130,7 @@
         <v>221</v>
       </c>
       <c r="P232" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q232">
         <v>2.63</v>
@@ -49533,7 +49542,7 @@
         <v>222</v>
       </c>
       <c r="P234" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q234">
         <v>3.6</v>
@@ -49739,7 +49748,7 @@
         <v>223</v>
       </c>
       <c r="P235" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q235">
         <v>5</v>
@@ -49820,7 +49829,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ235">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR235">
         <v>1.55</v>
@@ -49945,7 +49954,7 @@
         <v>224</v>
       </c>
       <c r="P236" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q236">
         <v>1.62</v>
@@ -50023,7 +50032,7 @@
         <v>0.86</v>
       </c>
       <c r="AP236">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ236">
         <v>0.8100000000000001</v>
@@ -50357,7 +50366,7 @@
         <v>222</v>
       </c>
       <c r="P238" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q238">
         <v>2.38</v>
@@ -50563,7 +50572,7 @@
         <v>225</v>
       </c>
       <c r="P239" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q239">
         <v>2.5</v>
@@ -50975,7 +50984,7 @@
         <v>92</v>
       </c>
       <c r="P241" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q241">
         <v>7.5</v>
@@ -51053,7 +51062,7 @@
         <v>2.27</v>
       </c>
       <c r="AP241">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ241">
         <v>2.5</v>
@@ -51181,7 +51190,7 @@
         <v>227</v>
       </c>
       <c r="P242" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q242">
         <v>2.4</v>
@@ -52083,7 +52092,7 @@
         <v>1.29</v>
       </c>
       <c r="AP246">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ246">
         <v>1.25</v>
@@ -52289,7 +52298,7 @@
         <v>0.29</v>
       </c>
       <c r="AP247">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ247">
         <v>0.25</v>
@@ -52829,7 +52838,7 @@
         <v>92</v>
       </c>
       <c r="P250" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q250">
         <v>5</v>
@@ -53035,7 +53044,7 @@
         <v>231</v>
       </c>
       <c r="P251" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q251">
         <v>2.1</v>
@@ -53653,7 +53662,7 @@
         <v>92</v>
       </c>
       <c r="P254" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q254">
         <v>6.5</v>
@@ -53734,7 +53743,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ254">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR254">
         <v>1.39</v>
@@ -53937,7 +53946,7 @@
         <v>1.07</v>
       </c>
       <c r="AP255">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ255">
         <v>1.13</v>
@@ -54065,7 +54074,7 @@
         <v>234</v>
       </c>
       <c r="P256" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q256">
         <v>4.75</v>
@@ -54271,7 +54280,7 @@
         <v>174</v>
       </c>
       <c r="P257" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q257">
         <v>5.5</v>
@@ -54349,7 +54358,7 @@
         <v>1.25</v>
       </c>
       <c r="AP257">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ257">
         <v>1.5</v>
@@ -54477,7 +54486,7 @@
         <v>235</v>
       </c>
       <c r="P258" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q258">
         <v>2.75</v>
@@ -54555,10 +54564,10 @@
         <v>2.62</v>
       </c>
       <c r="AP258">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ258">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR258">
         <v>1.63</v>
@@ -54683,7 +54692,7 @@
         <v>236</v>
       </c>
       <c r="P259" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q259">
         <v>3</v>
@@ -55095,7 +55104,7 @@
         <v>194</v>
       </c>
       <c r="P261" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q261">
         <v>6</v>
@@ -55379,7 +55388,7 @@
         <v>0.8</v>
       </c>
       <c r="AP262">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AQ262">
         <v>0.8100000000000001</v>
@@ -55919,7 +55928,7 @@
         <v>238</v>
       </c>
       <c r="P265" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q265">
         <v>2.6</v>
@@ -56125,7 +56134,7 @@
         <v>239</v>
       </c>
       <c r="P266" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q266">
         <v>7</v>
@@ -56331,7 +56340,7 @@
         <v>200</v>
       </c>
       <c r="P267" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q267">
         <v>3.25</v>
@@ -56412,7 +56421,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ267">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR267">
         <v>1.33</v>
@@ -57155,7 +57164,7 @@
         <v>91</v>
       </c>
       <c r="P271" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q271">
         <v>4.5</v>
@@ -57236,7 +57245,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ271">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR271">
         <v>1.63</v>
@@ -57361,7 +57370,7 @@
         <v>92</v>
       </c>
       <c r="P272" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q272">
         <v>6.5</v>
@@ -57851,7 +57860,7 @@
         <v>1.07</v>
       </c>
       <c r="AP274">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ274">
         <v>1</v>
@@ -58185,7 +58194,7 @@
         <v>243</v>
       </c>
       <c r="P276" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q276">
         <v>4</v>
@@ -58391,7 +58400,7 @@
         <v>244</v>
       </c>
       <c r="P277" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q277">
         <v>6.5</v>
@@ -58472,7 +58481,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ277">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AR277">
         <v>1.3</v>
@@ -58803,7 +58812,7 @@
         <v>245</v>
       </c>
       <c r="P279" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q279">
         <v>3.25</v>
@@ -59009,7 +59018,7 @@
         <v>246</v>
       </c>
       <c r="P280" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q280">
         <v>2.88</v>
@@ -59293,7 +59302,7 @@
         <v>1.07</v>
       </c>
       <c r="AP281">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ281">
         <v>1</v>
@@ -59911,7 +59920,7 @@
         <v>0.93</v>
       </c>
       <c r="AP284">
-        <v>2.73</v>
+        <v>2.75</v>
       </c>
       <c r="AQ284">
         <v>0.88</v>
@@ -60120,7 +60129,7 @@
         <v>2.31</v>
       </c>
       <c r="AQ285">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AR285">
         <v>1.82</v>
@@ -60245,7 +60254,7 @@
         <v>252</v>
       </c>
       <c r="P286" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q286">
         <v>2.63</v>
@@ -60657,7 +60666,7 @@
         <v>92</v>
       </c>
       <c r="P288" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q288">
         <v>3.2</v>
@@ -60814,6 +60823,418 @@
       </c>
       <c r="BP288">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="289" spans="1:68">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>7476152</v>
+      </c>
+      <c r="C289" t="s">
+        <v>68</v>
+      </c>
+      <c r="D289" t="s">
+        <v>69</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45515.625</v>
+      </c>
+      <c r="F289">
+        <v>34</v>
+      </c>
+      <c r="G289" t="s">
+        <v>70</v>
+      </c>
+      <c r="H289" t="s">
+        <v>78</v>
+      </c>
+      <c r="I289">
+        <v>1</v>
+      </c>
+      <c r="J289">
+        <v>3</v>
+      </c>
+      <c r="K289">
+        <v>4</v>
+      </c>
+      <c r="L289">
+        <v>2</v>
+      </c>
+      <c r="M289">
+        <v>5</v>
+      </c>
+      <c r="N289">
+        <v>7</v>
+      </c>
+      <c r="O289" t="s">
+        <v>253</v>
+      </c>
+      <c r="P289" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q289">
+        <v>5.5</v>
+      </c>
+      <c r="R289">
+        <v>2.1</v>
+      </c>
+      <c r="S289">
+        <v>2.2</v>
+      </c>
+      <c r="T289">
+        <v>1.4</v>
+      </c>
+      <c r="U289">
+        <v>2.75</v>
+      </c>
+      <c r="V289">
+        <v>3</v>
+      </c>
+      <c r="W289">
+        <v>1.36</v>
+      </c>
+      <c r="X289">
+        <v>7</v>
+      </c>
+      <c r="Y289">
+        <v>1.08</v>
+      </c>
+      <c r="Z289">
+        <v>6</v>
+      </c>
+      <c r="AA289">
+        <v>3.6</v>
+      </c>
+      <c r="AB289">
+        <v>1.62</v>
+      </c>
+      <c r="AC289">
+        <v>1.05</v>
+      </c>
+      <c r="AD289">
+        <v>7.3</v>
+      </c>
+      <c r="AE289">
+        <v>1.21</v>
+      </c>
+      <c r="AF289">
+        <v>2.3</v>
+      </c>
+      <c r="AG289">
+        <v>2</v>
+      </c>
+      <c r="AH289">
+        <v>1.8</v>
+      </c>
+      <c r="AI289">
+        <v>2</v>
+      </c>
+      <c r="AJ289">
+        <v>1.73</v>
+      </c>
+      <c r="AK289">
+        <v>2.01</v>
+      </c>
+      <c r="AL289">
+        <v>1.28</v>
+      </c>
+      <c r="AM289">
+        <v>1.14</v>
+      </c>
+      <c r="AN289">
+        <v>1.31</v>
+      </c>
+      <c r="AO289">
+        <v>2.25</v>
+      </c>
+      <c r="AP289">
+        <v>1.24</v>
+      </c>
+      <c r="AQ289">
+        <v>2.29</v>
+      </c>
+      <c r="AR289">
+        <v>1.29</v>
+      </c>
+      <c r="AS289">
+        <v>1.69</v>
+      </c>
+      <c r="AT289">
+        <v>2.98</v>
+      </c>
+      <c r="AU289">
+        <v>5</v>
+      </c>
+      <c r="AV289">
+        <v>7</v>
+      </c>
+      <c r="AW289">
+        <v>3</v>
+      </c>
+      <c r="AX289">
+        <v>5</v>
+      </c>
+      <c r="AY289">
+        <v>8</v>
+      </c>
+      <c r="AZ289">
+        <v>12</v>
+      </c>
+      <c r="BA289">
+        <v>2</v>
+      </c>
+      <c r="BB289">
+        <v>3</v>
+      </c>
+      <c r="BC289">
+        <v>5</v>
+      </c>
+      <c r="BD289">
+        <v>4.65</v>
+      </c>
+      <c r="BE289">
+        <v>7.5</v>
+      </c>
+      <c r="BF289">
+        <v>1.3</v>
+      </c>
+      <c r="BG289">
+        <v>1.31</v>
+      </c>
+      <c r="BH289">
+        <v>3.04</v>
+      </c>
+      <c r="BI289">
+        <v>1.58</v>
+      </c>
+      <c r="BJ289">
+        <v>2.17</v>
+      </c>
+      <c r="BK289">
+        <v>2</v>
+      </c>
+      <c r="BL289">
+        <v>1.69</v>
+      </c>
+      <c r="BM289">
+        <v>2.64</v>
+      </c>
+      <c r="BN289">
+        <v>1.4</v>
+      </c>
+      <c r="BO289">
+        <v>3.65</v>
+      </c>
+      <c r="BP289">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="290" spans="1:68">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+   